--- a/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8689B616-17A3-4E9F-946C-4036A8BA513D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36D0EBF-A87A-46AC-862A-F321D85543BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2673,9 +2673,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2842,451 +2839,192 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="24" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -3313,153 +3051,416 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3891,7 +3892,7 @@
   </sheetPr>
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J208" sqref="J208"/>
     </sheetView>
   </sheetViews>
@@ -3927,18 +3928,18 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="357" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="F2" s="357"/>
+      <c r="G2" s="357"/>
+      <c r="H2" s="357"/>
+      <c r="I2" s="357"/>
+      <c r="J2" s="357"/>
+      <c r="K2" s="357"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
@@ -3946,93 +3947,93 @@
       <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:22" ht="28.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="138" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="189" t="s">
+      <c r="D3" s="358"/>
+      <c r="E3" s="359"/>
+      <c r="F3" s="359"/>
+      <c r="G3" s="359"/>
+      <c r="H3" s="360"/>
+      <c r="I3" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="212"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="139" t="s">
+      <c r="J3" s="358"/>
+      <c r="K3" s="359"/>
+      <c r="L3" s="359"/>
+      <c r="M3" s="359"/>
+      <c r="N3" s="360"/>
+      <c r="O3" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="168"/>
+      <c r="P3" s="167"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="131" t="s">
+      <c r="B4" s="361"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="216"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="219" t="s">
+      <c r="E4" s="362"/>
+      <c r="F4" s="363"/>
+      <c r="G4" s="364"/>
+      <c r="H4" s="365" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="220"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="219" t="s">
+      <c r="I4" s="366"/>
+      <c r="J4" s="367"/>
+      <c r="K4" s="367"/>
+      <c r="L4" s="365" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="220"/>
+      <c r="M4" s="366"/>
       <c r="N4" s="119"/>
       <c r="O4" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="169">
+      <c r="P4" s="168">
         <f>SUM($S7:$S15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="222"/>
-      <c r="B5" s="223"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="223"/>
-      <c r="P5" s="224"/>
+      <c r="A5" s="368"/>
+      <c r="B5" s="369"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
+      <c r="I5" s="369"/>
+      <c r="J5" s="369"/>
+      <c r="K5" s="369"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="369"/>
+      <c r="N5" s="369"/>
+      <c r="O5" s="369"/>
+      <c r="P5" s="370"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="372" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="191"/>
+      <c r="B6" s="373"/>
       <c r="C6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="192" t="s">
+      <c r="D6" s="374" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="193"/>
-      <c r="F6" s="191"/>
+      <c r="E6" s="375"/>
+      <c r="F6" s="373"/>
       <c r="G6" s="104" t="s">
         <v>7</v>
       </c>
@@ -4045,45 +4046,45 @@
       <c r="J6" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="194" t="s">
+      <c r="K6" s="376" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="195"/>
+      <c r="L6" s="377"/>
       <c r="M6" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="196" t="s">
+      <c r="N6" s="342" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="197"/>
-      <c r="P6" s="198"/>
+      <c r="O6" s="343"/>
+      <c r="P6" s="344"/>
       <c r="S6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="170" t="s">
+      <c r="V6" s="169" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="199"/>
-      <c r="B7" s="200"/>
+      <c r="A7" s="345"/>
+      <c r="B7" s="346"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="203"/>
+      <c r="D7" s="347"/>
+      <c r="E7" s="348"/>
+      <c r="F7" s="349"/>
       <c r="G7" s="70"/>
       <c r="H7" s="87"/>
       <c r="I7" s="71"/>
       <c r="J7" s="122"/>
-      <c r="K7" s="204">
+      <c r="K7" s="316">
         <f>IFERROR(G7*I7*J7,"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="205"/>
+      <c r="L7" s="317"/>
       <c r="M7" s="113"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="208"/>
+      <c r="N7" s="354"/>
+      <c r="O7" s="355"/>
+      <c r="P7" s="356"/>
       <c r="S7" s="1">
         <f>IF(AND($A7=hdn_product_sales,$C7=hdn_main_product,ISNUMBER($I7)=TRUE,$J7&gt;0,ISNUMBER($G7)=TRUE,ISNUMBER($K7)=TRUE),$G7,0)</f>
         <v>0</v>
@@ -4097,25 +4098,25 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
+      <c r="A8" s="345"/>
+      <c r="B8" s="346"/>
       <c r="C8" s="85"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="203"/>
+      <c r="D8" s="347"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="349"/>
       <c r="G8" s="72"/>
       <c r="H8" s="88"/>
       <c r="I8" s="73"/>
       <c r="J8" s="122"/>
-      <c r="K8" s="204">
+      <c r="K8" s="316">
         <f t="shared" ref="K8:K15" si="1">IFERROR(G8*I8*J8,"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="205"/>
+      <c r="L8" s="317"/>
       <c r="M8" s="113"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="208"/>
+      <c r="N8" s="354"/>
+      <c r="O8" s="355"/>
+      <c r="P8" s="356"/>
       <c r="S8" s="1">
         <f t="shared" ref="S8:S15" si="2">IF(AND($A8=hdn_product_sales,$C8=hdn_main_product,ISNUMBER($I8)=TRUE,$J8&gt;0,ISNUMBER($G8)=TRUE,ISNUMBER($K8)=TRUE),$G8,0)</f>
         <v>0</v>
@@ -4129,25 +4130,25 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
+      <c r="A9" s="345"/>
+      <c r="B9" s="346"/>
       <c r="C9" s="85"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="203"/>
+      <c r="D9" s="347"/>
+      <c r="E9" s="348"/>
+      <c r="F9" s="349"/>
       <c r="G9" s="72"/>
       <c r="H9" s="88"/>
       <c r="I9" s="73"/>
       <c r="J9" s="123"/>
-      <c r="K9" s="204">
+      <c r="K9" s="316">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="205"/>
+      <c r="L9" s="317"/>
       <c r="M9" s="112"/>
-      <c r="N9" s="209"/>
-      <c r="O9" s="209"/>
-      <c r="P9" s="210"/>
+      <c r="N9" s="350"/>
+      <c r="O9" s="350"/>
+      <c r="P9" s="351"/>
       <c r="S9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4161,25 +4162,25 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="199"/>
-      <c r="B10" s="200"/>
+      <c r="A10" s="345"/>
+      <c r="B10" s="346"/>
       <c r="C10" s="85"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="203"/>
+      <c r="D10" s="347"/>
+      <c r="E10" s="348"/>
+      <c r="F10" s="349"/>
       <c r="G10" s="72"/>
       <c r="H10" s="88"/>
       <c r="I10" s="73"/>
       <c r="J10" s="123"/>
-      <c r="K10" s="204">
+      <c r="K10" s="316">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="205"/>
+      <c r="L10" s="317"/>
       <c r="M10" s="112"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="209"/>
-      <c r="P10" s="210"/>
+      <c r="N10" s="350"/>
+      <c r="O10" s="350"/>
+      <c r="P10" s="351"/>
       <c r="S10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4194,25 +4195,25 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="199"/>
-      <c r="B11" s="200"/>
+      <c r="A11" s="345"/>
+      <c r="B11" s="346"/>
       <c r="C11" s="85"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="203"/>
+      <c r="D11" s="347"/>
+      <c r="E11" s="348"/>
+      <c r="F11" s="349"/>
       <c r="G11" s="72"/>
       <c r="H11" s="88"/>
       <c r="I11" s="73"/>
       <c r="J11" s="123"/>
-      <c r="K11" s="204">
+      <c r="K11" s="316">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="205"/>
+      <c r="L11" s="317"/>
       <c r="M11" s="112"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="209"/>
-      <c r="P11" s="210"/>
+      <c r="N11" s="350"/>
+      <c r="O11" s="350"/>
+      <c r="P11" s="351"/>
       <c r="S11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4227,25 +4228,25 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="199"/>
-      <c r="B12" s="200"/>
+      <c r="A12" s="345"/>
+      <c r="B12" s="346"/>
       <c r="C12" s="85"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="203"/>
+      <c r="D12" s="347"/>
+      <c r="E12" s="348"/>
+      <c r="F12" s="349"/>
       <c r="G12" s="72"/>
       <c r="H12" s="88"/>
       <c r="I12" s="73"/>
       <c r="J12" s="123"/>
-      <c r="K12" s="204">
+      <c r="K12" s="316">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="205"/>
+      <c r="L12" s="317"/>
       <c r="M12" s="112"/>
-      <c r="N12" s="209"/>
-      <c r="O12" s="209"/>
-      <c r="P12" s="210"/>
+      <c r="N12" s="350"/>
+      <c r="O12" s="350"/>
+      <c r="P12" s="351"/>
       <c r="S12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4260,25 +4261,25 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="199"/>
-      <c r="B13" s="200"/>
+      <c r="A13" s="345"/>
+      <c r="B13" s="346"/>
       <c r="C13" s="85"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="203"/>
+      <c r="D13" s="347"/>
+      <c r="E13" s="348"/>
+      <c r="F13" s="349"/>
       <c r="G13" s="72"/>
       <c r="H13" s="88"/>
       <c r="I13" s="73"/>
       <c r="J13" s="123"/>
-      <c r="K13" s="204">
+      <c r="K13" s="316">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="205"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="112"/>
-      <c r="N13" s="209"/>
-      <c r="O13" s="209"/>
-      <c r="P13" s="210"/>
+      <c r="N13" s="350"/>
+      <c r="O13" s="350"/>
+      <c r="P13" s="351"/>
       <c r="S13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4293,25 +4294,25 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="199"/>
-      <c r="B14" s="200"/>
+      <c r="A14" s="345"/>
+      <c r="B14" s="346"/>
       <c r="C14" s="85"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="203"/>
+      <c r="D14" s="347"/>
+      <c r="E14" s="348"/>
+      <c r="F14" s="349"/>
       <c r="G14" s="72"/>
       <c r="H14" s="88"/>
       <c r="I14" s="73"/>
       <c r="J14" s="123"/>
-      <c r="K14" s="204">
+      <c r="K14" s="316">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="205"/>
+      <c r="L14" s="317"/>
       <c r="M14" s="112"/>
-      <c r="N14" s="209"/>
-      <c r="O14" s="209"/>
-      <c r="P14" s="210"/>
+      <c r="N14" s="350"/>
+      <c r="O14" s="350"/>
+      <c r="P14" s="351"/>
       <c r="S14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4326,25 +4327,25 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="199"/>
-      <c r="B15" s="200"/>
+      <c r="A15" s="345"/>
+      <c r="B15" s="346"/>
       <c r="C15" s="86"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="203"/>
+      <c r="D15" s="347"/>
+      <c r="E15" s="348"/>
+      <c r="F15" s="349"/>
       <c r="G15" s="74"/>
       <c r="H15" s="89"/>
       <c r="I15" s="75"/>
       <c r="J15" s="124"/>
-      <c r="K15" s="204">
+      <c r="K15" s="316">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="205"/>
+      <c r="L15" s="317"/>
       <c r="M15" s="114"/>
-      <c r="N15" s="226"/>
-      <c r="O15" s="226"/>
-      <c r="P15" s="227"/>
+      <c r="N15" s="352"/>
+      <c r="O15" s="352"/>
+      <c r="P15" s="353"/>
       <c r="S15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4359,68 +4360,68 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="236" t="s">
+      <c r="A16" s="328" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="237"/>
-      <c r="C16" s="237"/>
-      <c r="D16" s="237"/>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
+      <c r="B16" s="329"/>
+      <c r="C16" s="329"/>
+      <c r="D16" s="329"/>
+      <c r="E16" s="329"/>
+      <c r="F16" s="330"/>
       <c r="G16" s="79">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
       <c r="H16" s="76"/>
-      <c r="I16" s="239">
+      <c r="I16" s="331">
         <f>SUM(K7:K15)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="240"/>
-      <c r="K16" s="240"/>
-      <c r="L16" s="241"/>
+      <c r="J16" s="332"/>
+      <c r="K16" s="332"/>
+      <c r="L16" s="333"/>
       <c r="M16" s="115"/>
-      <c r="N16" s="242"/>
-      <c r="O16" s="242"/>
-      <c r="P16" s="243"/>
+      <c r="N16" s="334"/>
+      <c r="O16" s="334"/>
+      <c r="P16" s="335"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
     </row>
     <row r="17" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="244"/>
-      <c r="B17" s="245"/>
-      <c r="C17" s="245"/>
-      <c r="D17" s="245"/>
-      <c r="E17" s="245"/>
-      <c r="F17" s="245"/>
-      <c r="G17" s="245"/>
-      <c r="H17" s="245"/>
-      <c r="I17" s="245"/>
-      <c r="J17" s="245"/>
-      <c r="K17" s="245"/>
-      <c r="L17" s="245"/>
-      <c r="M17" s="245"/>
-      <c r="N17" s="245"/>
-      <c r="O17" s="245"/>
-      <c r="P17" s="246"/>
+      <c r="A17" s="308"/>
+      <c r="B17" s="309"/>
+      <c r="C17" s="309"/>
+      <c r="D17" s="309"/>
+      <c r="E17" s="309"/>
+      <c r="F17" s="309"/>
+      <c r="G17" s="309"/>
+      <c r="H17" s="309"/>
+      <c r="I17" s="309"/>
+      <c r="J17" s="309"/>
+      <c r="K17" s="309"/>
+      <c r="L17" s="309"/>
+      <c r="M17" s="309"/>
+      <c r="N17" s="309"/>
+      <c r="O17" s="309"/>
+      <c r="P17" s="310"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="247" t="s">
+      <c r="A18" s="336" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="248"/>
+      <c r="B18" s="337"/>
       <c r="C18" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="249" t="s">
+      <c r="D18" s="338" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="250"/>
-      <c r="F18" s="248"/>
+      <c r="E18" s="339"/>
+      <c r="F18" s="337"/>
       <c r="G18" s="109" t="s">
         <v>7</v>
       </c>
@@ -4433,39 +4434,39 @@
       <c r="J18" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="251" t="s">
+      <c r="K18" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="252"/>
+      <c r="L18" s="341"/>
       <c r="M18" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="196" t="s">
+      <c r="N18" s="342" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="197"/>
-      <c r="P18" s="198"/>
+      <c r="O18" s="343"/>
+      <c r="P18" s="344"/>
     </row>
     <row r="19" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="228"/>
-      <c r="B19" s="229"/>
+      <c r="A19" s="311"/>
+      <c r="B19" s="312"/>
       <c r="C19" s="90"/>
-      <c r="D19" s="230"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="232"/>
+      <c r="D19" s="313"/>
+      <c r="E19" s="314"/>
+      <c r="F19" s="315"/>
       <c r="G19" s="5"/>
       <c r="H19" s="91"/>
       <c r="I19" s="6"/>
       <c r="J19" s="125"/>
-      <c r="K19" s="204">
+      <c r="K19" s="316">
         <f>IFERROR(G19*I19*J19,"")</f>
         <v>0</v>
       </c>
-      <c r="L19" s="205"/>
+      <c r="L19" s="317"/>
       <c r="M19" s="113"/>
-      <c r="N19" s="233"/>
-      <c r="O19" s="234"/>
-      <c r="P19" s="235"/>
+      <c r="N19" s="325"/>
+      <c r="O19" s="326"/>
+      <c r="P19" s="327"/>
       <c r="U19" s="1">
         <f t="shared" ref="U19:U30" si="3">IFERROR(VLOOKUP(H19,$C$101:$D$103,2,FALSE),1)</f>
         <v>1</v>
@@ -4475,25 +4476,25 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="228"/>
-      <c r="B20" s="229"/>
+      <c r="A20" s="311"/>
+      <c r="B20" s="312"/>
       <c r="C20" s="90"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="232"/>
+      <c r="D20" s="313"/>
+      <c r="E20" s="314"/>
+      <c r="F20" s="315"/>
       <c r="G20" s="7"/>
       <c r="H20" s="92"/>
       <c r="I20" s="8"/>
       <c r="J20" s="126"/>
-      <c r="K20" s="204">
+      <c r="K20" s="316">
         <f t="shared" ref="K20:K30" si="4">IFERROR(G20*I20*J20,"")</f>
         <v>0</v>
       </c>
-      <c r="L20" s="205"/>
+      <c r="L20" s="317"/>
       <c r="M20" s="113"/>
-      <c r="N20" s="233"/>
-      <c r="O20" s="234"/>
-      <c r="P20" s="235"/>
+      <c r="N20" s="325"/>
+      <c r="O20" s="326"/>
+      <c r="P20" s="327"/>
       <c r="U20" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4503,25 +4504,25 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="228"/>
-      <c r="B21" s="229"/>
+      <c r="A21" s="311"/>
+      <c r="B21" s="312"/>
       <c r="C21" s="90"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="232"/>
+      <c r="D21" s="313"/>
+      <c r="E21" s="314"/>
+      <c r="F21" s="315"/>
       <c r="G21" s="7"/>
       <c r="H21" s="92"/>
       <c r="I21" s="8"/>
       <c r="J21" s="126"/>
-      <c r="K21" s="204">
+      <c r="K21" s="316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="205"/>
+      <c r="L21" s="317"/>
       <c r="M21" s="113"/>
-      <c r="N21" s="253"/>
-      <c r="O21" s="253"/>
-      <c r="P21" s="254"/>
+      <c r="N21" s="270"/>
+      <c r="O21" s="270"/>
+      <c r="P21" s="271"/>
       <c r="S21" s="9"/>
       <c r="T21" s="10"/>
       <c r="U21" s="1">
@@ -4533,25 +4534,25 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="228"/>
-      <c r="B22" s="229"/>
+      <c r="A22" s="311"/>
+      <c r="B22" s="312"/>
       <c r="C22" s="90"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="232"/>
+      <c r="D22" s="313"/>
+      <c r="E22" s="314"/>
+      <c r="F22" s="315"/>
       <c r="G22" s="7"/>
       <c r="H22" s="92"/>
       <c r="I22" s="8"/>
       <c r="J22" s="126"/>
-      <c r="K22" s="204">
+      <c r="K22" s="316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="205"/>
+      <c r="L22" s="317"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="253"/>
-      <c r="O22" s="253"/>
-      <c r="P22" s="254"/>
+      <c r="N22" s="270"/>
+      <c r="O22" s="270"/>
+      <c r="P22" s="271"/>
       <c r="S22" s="9"/>
       <c r="T22" s="10"/>
       <c r="U22" s="1">
@@ -4563,25 +4564,25 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="228"/>
-      <c r="B23" s="229"/>
+      <c r="A23" s="311"/>
+      <c r="B23" s="312"/>
       <c r="C23" s="90"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="232"/>
+      <c r="D23" s="313"/>
+      <c r="E23" s="314"/>
+      <c r="F23" s="315"/>
       <c r="G23" s="7"/>
       <c r="H23" s="92"/>
       <c r="I23" s="8"/>
       <c r="J23" s="126"/>
-      <c r="K23" s="204">
+      <c r="K23" s="316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L23" s="205"/>
+      <c r="L23" s="317"/>
       <c r="M23" s="113"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="254"/>
+      <c r="N23" s="270"/>
+      <c r="O23" s="270"/>
+      <c r="P23" s="271"/>
       <c r="S23" s="9"/>
       <c r="T23" s="10"/>
       <c r="U23" s="1">
@@ -4593,25 +4594,25 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="228"/>
-      <c r="B24" s="229"/>
+      <c r="A24" s="311"/>
+      <c r="B24" s="312"/>
       <c r="C24" s="90"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="231"/>
-      <c r="F24" s="232"/>
+      <c r="D24" s="313"/>
+      <c r="E24" s="314"/>
+      <c r="F24" s="315"/>
       <c r="G24" s="7"/>
       <c r="H24" s="92"/>
       <c r="I24" s="8"/>
       <c r="J24" s="126"/>
-      <c r="K24" s="204">
+      <c r="K24" s="316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L24" s="205"/>
+      <c r="L24" s="317"/>
       <c r="M24" s="113"/>
-      <c r="N24" s="253"/>
-      <c r="O24" s="253"/>
-      <c r="P24" s="254"/>
+      <c r="N24" s="270"/>
+      <c r="O24" s="270"/>
+      <c r="P24" s="271"/>
       <c r="S24" s="9"/>
       <c r="T24" s="10"/>
       <c r="U24" s="1">
@@ -4623,25 +4624,25 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="228"/>
-      <c r="B25" s="229"/>
+      <c r="A25" s="311"/>
+      <c r="B25" s="312"/>
       <c r="C25" s="90"/>
-      <c r="D25" s="230"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="232"/>
+      <c r="D25" s="313"/>
+      <c r="E25" s="314"/>
+      <c r="F25" s="315"/>
       <c r="G25" s="7"/>
       <c r="H25" s="92"/>
       <c r="I25" s="8"/>
       <c r="J25" s="126"/>
-      <c r="K25" s="204">
+      <c r="K25" s="316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L25" s="205"/>
+      <c r="L25" s="317"/>
       <c r="M25" s="113"/>
-      <c r="N25" s="253"/>
-      <c r="O25" s="253"/>
-      <c r="P25" s="254"/>
+      <c r="N25" s="270"/>
+      <c r="O25" s="270"/>
+      <c r="P25" s="271"/>
       <c r="S25" s="9"/>
       <c r="T25" s="10"/>
       <c r="U25" s="1">
@@ -4653,25 +4654,25 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="228"/>
-      <c r="B26" s="229"/>
+      <c r="A26" s="311"/>
+      <c r="B26" s="312"/>
       <c r="C26" s="90"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="232"/>
+      <c r="D26" s="313"/>
+      <c r="E26" s="314"/>
+      <c r="F26" s="315"/>
       <c r="G26" s="7"/>
       <c r="H26" s="92"/>
       <c r="I26" s="8"/>
       <c r="J26" s="126"/>
-      <c r="K26" s="204">
+      <c r="K26" s="316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="205"/>
+      <c r="L26" s="317"/>
       <c r="M26" s="113"/>
-      <c r="N26" s="253"/>
-      <c r="O26" s="253"/>
-      <c r="P26" s="254"/>
+      <c r="N26" s="270"/>
+      <c r="O26" s="270"/>
+      <c r="P26" s="271"/>
       <c r="S26" s="9"/>
       <c r="T26" s="10"/>
       <c r="U26" s="1">
@@ -4683,25 +4684,25 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="228"/>
-      <c r="B27" s="229"/>
+      <c r="A27" s="311"/>
+      <c r="B27" s="312"/>
       <c r="C27" s="90"/>
-      <c r="D27" s="230"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="232"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
+      <c r="F27" s="315"/>
       <c r="G27" s="7"/>
       <c r="H27" s="92"/>
       <c r="I27" s="8"/>
       <c r="J27" s="126"/>
-      <c r="K27" s="204">
+      <c r="K27" s="316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L27" s="205"/>
+      <c r="L27" s="317"/>
       <c r="M27" s="113"/>
-      <c r="N27" s="253"/>
-      <c r="O27" s="253"/>
-      <c r="P27" s="254"/>
+      <c r="N27" s="270"/>
+      <c r="O27" s="270"/>
+      <c r="P27" s="271"/>
       <c r="S27" s="9"/>
       <c r="T27" s="10"/>
       <c r="U27" s="1">
@@ -4713,25 +4714,25 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="228"/>
-      <c r="B28" s="229"/>
+      <c r="A28" s="311"/>
+      <c r="B28" s="312"/>
       <c r="C28" s="90"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="232"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="314"/>
+      <c r="F28" s="315"/>
       <c r="G28" s="7"/>
       <c r="H28" s="92"/>
       <c r="I28" s="8"/>
       <c r="J28" s="126"/>
-      <c r="K28" s="204">
+      <c r="K28" s="316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L28" s="205"/>
+      <c r="L28" s="317"/>
       <c r="M28" s="113"/>
-      <c r="N28" s="253"/>
-      <c r="O28" s="253"/>
-      <c r="P28" s="254"/>
+      <c r="N28" s="270"/>
+      <c r="O28" s="270"/>
+      <c r="P28" s="271"/>
       <c r="S28" s="9"/>
       <c r="T28" s="10"/>
       <c r="U28" s="1">
@@ -4743,25 +4744,25 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="228"/>
-      <c r="B29" s="229"/>
+      <c r="A29" s="311"/>
+      <c r="B29" s="312"/>
       <c r="C29" s="90"/>
-      <c r="D29" s="230"/>
-      <c r="E29" s="231"/>
-      <c r="F29" s="232"/>
+      <c r="D29" s="313"/>
+      <c r="E29" s="314"/>
+      <c r="F29" s="315"/>
       <c r="G29" s="7"/>
       <c r="H29" s="92"/>
       <c r="I29" s="8"/>
       <c r="J29" s="126"/>
-      <c r="K29" s="204">
+      <c r="K29" s="316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L29" s="205"/>
+      <c r="L29" s="317"/>
       <c r="M29" s="113"/>
-      <c r="N29" s="253"/>
-      <c r="O29" s="253"/>
-      <c r="P29" s="254"/>
+      <c r="N29" s="270"/>
+      <c r="O29" s="270"/>
+      <c r="P29" s="271"/>
       <c r="S29" s="9"/>
       <c r="T29" s="10"/>
       <c r="U29" s="1">
@@ -4773,25 +4774,25 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="268"/>
-      <c r="B30" s="269"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="270"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="272"/>
+      <c r="A30" s="318"/>
+      <c r="B30" s="319"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="320"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="322"/>
       <c r="G30" s="55"/>
       <c r="H30" s="93"/>
       <c r="I30" s="54"/>
       <c r="J30" s="127"/>
-      <c r="K30" s="204">
+      <c r="K30" s="316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="205"/>
+      <c r="L30" s="317"/>
       <c r="M30" s="117"/>
-      <c r="N30" s="273"/>
-      <c r="O30" s="273"/>
-      <c r="P30" s="274"/>
+      <c r="N30" s="323"/>
+      <c r="O30" s="323"/>
+      <c r="P30" s="324"/>
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
       <c r="U30" s="1">
@@ -4803,68 +4804,68 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="255" t="s">
+      <c r="A31" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="256"/>
-      <c r="C31" s="256"/>
-      <c r="D31" s="256"/>
-      <c r="E31" s="256"/>
-      <c r="F31" s="257"/>
+      <c r="B31" s="304"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
+      <c r="F31" s="305"/>
       <c r="G31" s="78">
         <f>SUM(G19:G30)</f>
         <v>0</v>
       </c>
       <c r="H31" s="56"/>
-      <c r="I31" s="258">
+      <c r="I31" s="282">
         <f>SUM(K19:K30)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="259"/>
-      <c r="K31" s="259"/>
-      <c r="L31" s="260"/>
+      <c r="J31" s="283"/>
+      <c r="K31" s="283"/>
+      <c r="L31" s="284"/>
       <c r="M31" s="116"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="261"/>
-      <c r="P31" s="262"/>
+      <c r="N31" s="306"/>
+      <c r="O31" s="306"/>
+      <c r="P31" s="307"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
     </row>
     <row r="32" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="244"/>
-      <c r="B32" s="245"/>
-      <c r="C32" s="245"/>
-      <c r="D32" s="245"/>
-      <c r="E32" s="245"/>
-      <c r="F32" s="245"/>
-      <c r="G32" s="245"/>
-      <c r="H32" s="245"/>
-      <c r="I32" s="245"/>
-      <c r="J32" s="245"/>
-      <c r="K32" s="245"/>
-      <c r="L32" s="245"/>
-      <c r="M32" s="245"/>
-      <c r="N32" s="245"/>
-      <c r="O32" s="245"/>
-      <c r="P32" s="246"/>
+      <c r="A32" s="308"/>
+      <c r="B32" s="309"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="309"/>
+      <c r="E32" s="309"/>
+      <c r="F32" s="309"/>
+      <c r="G32" s="309"/>
+      <c r="H32" s="309"/>
+      <c r="I32" s="309"/>
+      <c r="J32" s="309"/>
+      <c r="K32" s="309"/>
+      <c r="L32" s="309"/>
+      <c r="M32" s="309"/>
+      <c r="N32" s="309"/>
+      <c r="O32" s="309"/>
+      <c r="P32" s="310"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
     </row>
     <row r="33" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="263" t="s">
+      <c r="A33" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="264"/>
+      <c r="B33" s="292"/>
       <c r="C33" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="265" t="s">
+      <c r="D33" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="264"/>
-      <c r="F33" s="378" t="s">
+      <c r="E33" s="292"/>
+      <c r="F33" s="190" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="100" t="s">
@@ -4879,42 +4880,42 @@
       <c r="J33" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="265" t="s">
+      <c r="K33" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="264"/>
+      <c r="L33" s="292"/>
       <c r="M33" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="N33" s="265" t="s">
+      <c r="N33" s="293" t="s">
         <v>53</v>
       </c>
-      <c r="O33" s="266"/>
-      <c r="P33" s="267"/>
+      <c r="O33" s="294"/>
+      <c r="P33" s="295"/>
       <c r="R33" s="46" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="275"/>
-      <c r="B34" s="276"/>
+      <c r="A34" s="274"/>
+      <c r="B34" s="275"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="277"/>
-      <c r="E34" s="276"/>
+      <c r="D34" s="276"/>
+      <c r="E34" s="275"/>
       <c r="F34" s="95"/>
       <c r="G34" s="7"/>
       <c r="H34" s="98"/>
       <c r="I34" s="8"/>
       <c r="J34" s="126"/>
-      <c r="K34" s="278">
+      <c r="K34" s="277">
         <f>IFERROR(G34*I34*J34,"")</f>
         <v>0</v>
       </c>
-      <c r="L34" s="279"/>
+      <c r="L34" s="278"/>
       <c r="M34" s="113"/>
-      <c r="N34" s="280"/>
-      <c r="O34" s="280"/>
-      <c r="P34" s="281"/>
+      <c r="N34" s="296"/>
+      <c r="O34" s="296"/>
+      <c r="P34" s="297"/>
       <c r="R34" s="43"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
@@ -4927,25 +4928,25 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="275"/>
-      <c r="B35" s="276"/>
+      <c r="A35" s="274"/>
+      <c r="B35" s="275"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="277"/>
-      <c r="E35" s="276"/>
+      <c r="D35" s="276"/>
+      <c r="E35" s="275"/>
       <c r="F35" s="95"/>
       <c r="G35" s="7"/>
       <c r="H35" s="98"/>
       <c r="I35" s="8"/>
       <c r="J35" s="126"/>
-      <c r="K35" s="278">
+      <c r="K35" s="277">
         <f t="shared" ref="K35:K57" si="6">IFERROR(G35*I35*J35,"")</f>
         <v>0</v>
       </c>
-      <c r="L35" s="279"/>
+      <c r="L35" s="278"/>
       <c r="M35" s="113"/>
-      <c r="N35" s="280"/>
-      <c r="O35" s="280"/>
-      <c r="P35" s="281"/>
+      <c r="N35" s="296"/>
+      <c r="O35" s="296"/>
+      <c r="P35" s="297"/>
       <c r="R35" s="43"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
@@ -4958,25 +4959,25 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="275"/>
-      <c r="B36" s="276"/>
+      <c r="A36" s="274"/>
+      <c r="B36" s="275"/>
       <c r="C36" s="94"/>
-      <c r="D36" s="277"/>
-      <c r="E36" s="276"/>
+      <c r="D36" s="276"/>
+      <c r="E36" s="275"/>
       <c r="F36" s="95"/>
       <c r="G36" s="7"/>
       <c r="H36" s="98"/>
       <c r="I36" s="8"/>
       <c r="J36" s="126"/>
-      <c r="K36" s="278">
+      <c r="K36" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L36" s="279"/>
+      <c r="L36" s="278"/>
       <c r="M36" s="113"/>
-      <c r="N36" s="280"/>
-      <c r="O36" s="280"/>
-      <c r="P36" s="281"/>
+      <c r="N36" s="296"/>
+      <c r="O36" s="296"/>
+      <c r="P36" s="297"/>
       <c r="R36" s="43"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
@@ -4989,25 +4990,25 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="275"/>
-      <c r="B37" s="276"/>
+      <c r="A37" s="274"/>
+      <c r="B37" s="275"/>
       <c r="C37" s="94"/>
-      <c r="D37" s="277"/>
-      <c r="E37" s="276"/>
+      <c r="D37" s="276"/>
+      <c r="E37" s="275"/>
       <c r="F37" s="95"/>
       <c r="G37" s="7"/>
       <c r="H37" s="98"/>
       <c r="I37" s="8"/>
       <c r="J37" s="126"/>
-      <c r="K37" s="278">
+      <c r="K37" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L37" s="279"/>
+      <c r="L37" s="278"/>
       <c r="M37" s="113"/>
-      <c r="N37" s="280"/>
-      <c r="O37" s="280"/>
-      <c r="P37" s="281"/>
+      <c r="N37" s="296"/>
+      <c r="O37" s="296"/>
+      <c r="P37" s="297"/>
       <c r="R37" s="43"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
@@ -5020,25 +5021,25 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="275"/>
-      <c r="B38" s="276"/>
+      <c r="A38" s="274"/>
+      <c r="B38" s="275"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="277"/>
-      <c r="E38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="275"/>
       <c r="F38" s="95"/>
       <c r="G38" s="7"/>
       <c r="H38" s="98"/>
       <c r="I38" s="8"/>
       <c r="J38" s="126"/>
-      <c r="K38" s="278">
+      <c r="K38" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L38" s="279"/>
+      <c r="L38" s="278"/>
       <c r="M38" s="113"/>
-      <c r="N38" s="280"/>
-      <c r="O38" s="280"/>
-      <c r="P38" s="281"/>
+      <c r="N38" s="296"/>
+      <c r="O38" s="296"/>
+      <c r="P38" s="297"/>
       <c r="R38" s="43"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
@@ -5051,25 +5052,25 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="275"/>
-      <c r="B39" s="276"/>
+      <c r="A39" s="274"/>
+      <c r="B39" s="275"/>
       <c r="C39" s="94"/>
-      <c r="D39" s="277"/>
-      <c r="E39" s="276"/>
+      <c r="D39" s="276"/>
+      <c r="E39" s="275"/>
       <c r="F39" s="95"/>
       <c r="G39" s="7"/>
       <c r="H39" s="98"/>
       <c r="I39" s="8"/>
       <c r="J39" s="126"/>
-      <c r="K39" s="278">
+      <c r="K39" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L39" s="279"/>
+      <c r="L39" s="278"/>
       <c r="M39" s="113"/>
-      <c r="N39" s="280"/>
-      <c r="O39" s="280"/>
-      <c r="P39" s="281"/>
+      <c r="N39" s="296"/>
+      <c r="O39" s="296"/>
+      <c r="P39" s="297"/>
       <c r="R39" s="43"/>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
@@ -5082,25 +5083,25 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="275"/>
-      <c r="B40" s="276"/>
+      <c r="A40" s="274"/>
+      <c r="B40" s="275"/>
       <c r="C40" s="94"/>
-      <c r="D40" s="277"/>
-      <c r="E40" s="276"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="275"/>
       <c r="F40" s="95"/>
       <c r="G40" s="7"/>
       <c r="H40" s="98"/>
       <c r="I40" s="8"/>
       <c r="J40" s="126"/>
-      <c r="K40" s="278">
+      <c r="K40" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L40" s="279"/>
+      <c r="L40" s="278"/>
       <c r="M40" s="113"/>
-      <c r="N40" s="280"/>
-      <c r="O40" s="280"/>
-      <c r="P40" s="281"/>
+      <c r="N40" s="296"/>
+      <c r="O40" s="296"/>
+      <c r="P40" s="297"/>
       <c r="R40" s="43"/>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
@@ -5113,25 +5114,25 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="275"/>
-      <c r="B41" s="276"/>
+      <c r="A41" s="274"/>
+      <c r="B41" s="275"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="277"/>
-      <c r="E41" s="276"/>
+      <c r="D41" s="276"/>
+      <c r="E41" s="275"/>
       <c r="F41" s="95"/>
       <c r="G41" s="7"/>
       <c r="H41" s="98"/>
       <c r="I41" s="8"/>
       <c r="J41" s="126"/>
-      <c r="K41" s="278">
+      <c r="K41" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L41" s="279"/>
+      <c r="L41" s="278"/>
       <c r="M41" s="113"/>
-      <c r="N41" s="280"/>
-      <c r="O41" s="280"/>
-      <c r="P41" s="281"/>
+      <c r="N41" s="296"/>
+      <c r="O41" s="296"/>
+      <c r="P41" s="297"/>
       <c r="R41" s="43"/>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
@@ -5144,25 +5145,25 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="275"/>
-      <c r="B42" s="276"/>
+      <c r="A42" s="274"/>
+      <c r="B42" s="275"/>
       <c r="C42" s="94"/>
-      <c r="D42" s="277"/>
-      <c r="E42" s="276"/>
+      <c r="D42" s="276"/>
+      <c r="E42" s="275"/>
       <c r="F42" s="95"/>
       <c r="G42" s="7"/>
       <c r="H42" s="98"/>
       <c r="I42" s="8"/>
       <c r="J42" s="126"/>
-      <c r="K42" s="278">
+      <c r="K42" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L42" s="279"/>
+      <c r="L42" s="278"/>
       <c r="M42" s="113"/>
-      <c r="N42" s="282"/>
-      <c r="O42" s="283"/>
-      <c r="P42" s="284"/>
+      <c r="N42" s="300"/>
+      <c r="O42" s="301"/>
+      <c r="P42" s="302"/>
       <c r="R42" s="43"/>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
@@ -5175,25 +5176,25 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="275"/>
-      <c r="B43" s="276"/>
+      <c r="A43" s="274"/>
+      <c r="B43" s="275"/>
       <c r="C43" s="94"/>
-      <c r="D43" s="277"/>
-      <c r="E43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="275"/>
       <c r="F43" s="95"/>
       <c r="G43" s="7"/>
       <c r="H43" s="98"/>
       <c r="I43" s="8"/>
       <c r="J43" s="126"/>
-      <c r="K43" s="278">
+      <c r="K43" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L43" s="279"/>
+      <c r="L43" s="278"/>
       <c r="M43" s="113"/>
-      <c r="N43" s="280"/>
-      <c r="O43" s="280"/>
-      <c r="P43" s="281"/>
+      <c r="N43" s="296"/>
+      <c r="O43" s="296"/>
+      <c r="P43" s="297"/>
       <c r="R43" s="43"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
@@ -5206,25 +5207,25 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="275"/>
-      <c r="B44" s="276"/>
+      <c r="A44" s="274"/>
+      <c r="B44" s="275"/>
       <c r="C44" s="94"/>
-      <c r="D44" s="277"/>
-      <c r="E44" s="276"/>
+      <c r="D44" s="276"/>
+      <c r="E44" s="275"/>
       <c r="F44" s="95"/>
       <c r="G44" s="7"/>
       <c r="H44" s="98"/>
       <c r="I44" s="8"/>
       <c r="J44" s="126"/>
-      <c r="K44" s="278">
+      <c r="K44" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L44" s="279"/>
+      <c r="L44" s="278"/>
       <c r="M44" s="113"/>
-      <c r="N44" s="280"/>
-      <c r="O44" s="280"/>
-      <c r="P44" s="281"/>
+      <c r="N44" s="296"/>
+      <c r="O44" s="296"/>
+      <c r="P44" s="297"/>
       <c r="R44" s="43"/>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
@@ -5237,25 +5238,25 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="275"/>
-      <c r="B45" s="276"/>
+      <c r="A45" s="274"/>
+      <c r="B45" s="275"/>
       <c r="C45" s="94"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="276"/>
+      <c r="D45" s="276"/>
+      <c r="E45" s="275"/>
       <c r="F45" s="95"/>
       <c r="G45" s="7"/>
       <c r="H45" s="98"/>
       <c r="I45" s="8"/>
       <c r="J45" s="126"/>
-      <c r="K45" s="278">
+      <c r="K45" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L45" s="279"/>
+      <c r="L45" s="278"/>
       <c r="M45" s="113"/>
-      <c r="N45" s="282"/>
-      <c r="O45" s="283"/>
-      <c r="P45" s="284"/>
+      <c r="N45" s="300"/>
+      <c r="O45" s="301"/>
+      <c r="P45" s="302"/>
       <c r="R45" s="43"/>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
@@ -5268,25 +5269,25 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="275"/>
-      <c r="B46" s="276"/>
+      <c r="A46" s="274"/>
+      <c r="B46" s="275"/>
       <c r="C46" s="94"/>
-      <c r="D46" s="277"/>
-      <c r="E46" s="276"/>
+      <c r="D46" s="276"/>
+      <c r="E46" s="275"/>
       <c r="F46" s="95"/>
       <c r="G46" s="7"/>
       <c r="H46" s="98"/>
       <c r="I46" s="8"/>
       <c r="J46" s="126"/>
-      <c r="K46" s="278">
+      <c r="K46" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L46" s="279"/>
+      <c r="L46" s="278"/>
       <c r="M46" s="113"/>
-      <c r="N46" s="282"/>
-      <c r="O46" s="283"/>
-      <c r="P46" s="284"/>
+      <c r="N46" s="300"/>
+      <c r="O46" s="301"/>
+      <c r="P46" s="302"/>
       <c r="R46" s="43"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -5299,25 +5300,25 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="275"/>
-      <c r="B47" s="276"/>
+      <c r="A47" s="274"/>
+      <c r="B47" s="275"/>
       <c r="C47" s="94"/>
-      <c r="D47" s="277"/>
-      <c r="E47" s="276"/>
+      <c r="D47" s="276"/>
+      <c r="E47" s="275"/>
       <c r="F47" s="95"/>
       <c r="G47" s="7"/>
       <c r="H47" s="98"/>
       <c r="I47" s="8"/>
       <c r="J47" s="126"/>
-      <c r="K47" s="278">
+      <c r="K47" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L47" s="279"/>
+      <c r="L47" s="278"/>
       <c r="M47" s="113"/>
-      <c r="N47" s="282"/>
-      <c r="O47" s="283"/>
-      <c r="P47" s="284"/>
+      <c r="N47" s="300"/>
+      <c r="O47" s="301"/>
+      <c r="P47" s="302"/>
       <c r="R47" s="43"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -5330,25 +5331,25 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="275"/>
-      <c r="B48" s="276"/>
+      <c r="A48" s="274"/>
+      <c r="B48" s="275"/>
       <c r="C48" s="94"/>
-      <c r="D48" s="277"/>
-      <c r="E48" s="276"/>
+      <c r="D48" s="276"/>
+      <c r="E48" s="275"/>
       <c r="F48" s="95"/>
       <c r="G48" s="7"/>
       <c r="H48" s="98"/>
       <c r="I48" s="8"/>
       <c r="J48" s="126"/>
-      <c r="K48" s="278">
+      <c r="K48" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L48" s="279"/>
+      <c r="L48" s="278"/>
       <c r="M48" s="113"/>
-      <c r="N48" s="282"/>
-      <c r="O48" s="283"/>
-      <c r="P48" s="284"/>
+      <c r="N48" s="300"/>
+      <c r="O48" s="301"/>
+      <c r="P48" s="302"/>
       <c r="R48" s="43"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
@@ -5361,25 +5362,25 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="275"/>
-      <c r="B49" s="276"/>
+      <c r="A49" s="274"/>
+      <c r="B49" s="275"/>
       <c r="C49" s="94"/>
-      <c r="D49" s="277"/>
-      <c r="E49" s="276"/>
+      <c r="D49" s="276"/>
+      <c r="E49" s="275"/>
       <c r="F49" s="95"/>
       <c r="G49" s="7"/>
       <c r="H49" s="98"/>
       <c r="I49" s="8"/>
       <c r="J49" s="126"/>
-      <c r="K49" s="278">
+      <c r="K49" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L49" s="279"/>
+      <c r="L49" s="278"/>
       <c r="M49" s="113"/>
-      <c r="N49" s="282"/>
-      <c r="O49" s="283"/>
-      <c r="P49" s="284"/>
+      <c r="N49" s="300"/>
+      <c r="O49" s="301"/>
+      <c r="P49" s="302"/>
       <c r="R49" s="43"/>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
@@ -5392,25 +5393,25 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="275"/>
-      <c r="B50" s="276"/>
+      <c r="A50" s="274"/>
+      <c r="B50" s="275"/>
       <c r="C50" s="94"/>
-      <c r="D50" s="277"/>
-      <c r="E50" s="276"/>
+      <c r="D50" s="276"/>
+      <c r="E50" s="275"/>
       <c r="F50" s="95"/>
       <c r="G50" s="7"/>
       <c r="H50" s="98"/>
       <c r="I50" s="8"/>
       <c r="J50" s="126"/>
-      <c r="K50" s="278">
+      <c r="K50" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L50" s="279"/>
+      <c r="L50" s="278"/>
       <c r="M50" s="113"/>
-      <c r="N50" s="282"/>
-      <c r="O50" s="283"/>
-      <c r="P50" s="284"/>
+      <c r="N50" s="300"/>
+      <c r="O50" s="301"/>
+      <c r="P50" s="302"/>
       <c r="R50" s="43"/>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
@@ -5423,25 +5424,25 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="275"/>
-      <c r="B51" s="276"/>
+      <c r="A51" s="274"/>
+      <c r="B51" s="275"/>
       <c r="C51" s="94"/>
-      <c r="D51" s="277"/>
-      <c r="E51" s="276"/>
+      <c r="D51" s="276"/>
+      <c r="E51" s="275"/>
       <c r="F51" s="95"/>
       <c r="G51" s="7"/>
       <c r="H51" s="98"/>
       <c r="I51" s="8"/>
       <c r="J51" s="126"/>
-      <c r="K51" s="278">
+      <c r="K51" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L51" s="279"/>
+      <c r="L51" s="278"/>
       <c r="M51" s="113"/>
-      <c r="N51" s="280"/>
-      <c r="O51" s="280"/>
-      <c r="P51" s="281"/>
+      <c r="N51" s="296"/>
+      <c r="O51" s="296"/>
+      <c r="P51" s="297"/>
       <c r="R51" s="43"/>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
@@ -5454,25 +5455,25 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="275"/>
-      <c r="B52" s="276"/>
+      <c r="A52" s="274"/>
+      <c r="B52" s="275"/>
       <c r="C52" s="94"/>
-      <c r="D52" s="277"/>
-      <c r="E52" s="276"/>
+      <c r="D52" s="276"/>
+      <c r="E52" s="275"/>
       <c r="F52" s="95"/>
       <c r="G52" s="7"/>
       <c r="H52" s="98"/>
       <c r="I52" s="8"/>
       <c r="J52" s="126"/>
-      <c r="K52" s="278">
+      <c r="K52" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L52" s="279"/>
+      <c r="L52" s="278"/>
       <c r="M52" s="113"/>
-      <c r="N52" s="280"/>
-      <c r="O52" s="280"/>
-      <c r="P52" s="281"/>
+      <c r="N52" s="296"/>
+      <c r="O52" s="296"/>
+      <c r="P52" s="297"/>
       <c r="R52" s="43"/>
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
@@ -5485,25 +5486,25 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="275"/>
-      <c r="B53" s="276"/>
+      <c r="A53" s="274"/>
+      <c r="B53" s="275"/>
       <c r="C53" s="94"/>
-      <c r="D53" s="277"/>
-      <c r="E53" s="276"/>
+      <c r="D53" s="276"/>
+      <c r="E53" s="275"/>
       <c r="F53" s="95"/>
       <c r="G53" s="7"/>
       <c r="H53" s="98"/>
       <c r="I53" s="8"/>
       <c r="J53" s="126"/>
-      <c r="K53" s="278">
+      <c r="K53" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L53" s="279"/>
+      <c r="L53" s="278"/>
       <c r="M53" s="113"/>
-      <c r="N53" s="280"/>
-      <c r="O53" s="280"/>
-      <c r="P53" s="281"/>
+      <c r="N53" s="296"/>
+      <c r="O53" s="296"/>
+      <c r="P53" s="297"/>
       <c r="R53" s="43"/>
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
@@ -5516,25 +5517,25 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="275"/>
-      <c r="B54" s="276"/>
+      <c r="A54" s="274"/>
+      <c r="B54" s="275"/>
       <c r="C54" s="94"/>
-      <c r="D54" s="277"/>
-      <c r="E54" s="276"/>
+      <c r="D54" s="276"/>
+      <c r="E54" s="275"/>
       <c r="F54" s="95"/>
       <c r="G54" s="7"/>
       <c r="H54" s="98"/>
       <c r="I54" s="8"/>
       <c r="J54" s="126"/>
-      <c r="K54" s="278">
+      <c r="K54" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L54" s="279"/>
+      <c r="L54" s="278"/>
       <c r="M54" s="113"/>
-      <c r="N54" s="280"/>
-      <c r="O54" s="280"/>
-      <c r="P54" s="281"/>
+      <c r="N54" s="296"/>
+      <c r="O54" s="296"/>
+      <c r="P54" s="297"/>
       <c r="R54" s="43"/>
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
@@ -5547,25 +5548,25 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="275"/>
-      <c r="B55" s="276"/>
+      <c r="A55" s="274"/>
+      <c r="B55" s="275"/>
       <c r="C55" s="94"/>
-      <c r="D55" s="277"/>
-      <c r="E55" s="276"/>
+      <c r="D55" s="276"/>
+      <c r="E55" s="275"/>
       <c r="F55" s="95"/>
       <c r="G55" s="7"/>
       <c r="H55" s="98"/>
       <c r="I55" s="8"/>
       <c r="J55" s="126"/>
-      <c r="K55" s="278">
+      <c r="K55" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L55" s="279"/>
+      <c r="L55" s="278"/>
       <c r="M55" s="113"/>
-      <c r="N55" s="280"/>
-      <c r="O55" s="280"/>
-      <c r="P55" s="281"/>
+      <c r="N55" s="296"/>
+      <c r="O55" s="296"/>
+      <c r="P55" s="297"/>
       <c r="R55" s="43"/>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
@@ -5578,25 +5579,25 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="275"/>
-      <c r="B56" s="276"/>
+      <c r="A56" s="274"/>
+      <c r="B56" s="275"/>
       <c r="C56" s="94"/>
-      <c r="D56" s="277"/>
-      <c r="E56" s="276"/>
+      <c r="D56" s="276"/>
+      <c r="E56" s="275"/>
       <c r="F56" s="95"/>
       <c r="G56" s="7"/>
       <c r="H56" s="98"/>
       <c r="I56" s="8"/>
       <c r="J56" s="126"/>
-      <c r="K56" s="278">
+      <c r="K56" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L56" s="279"/>
+      <c r="L56" s="278"/>
       <c r="M56" s="113"/>
-      <c r="N56" s="280"/>
-      <c r="O56" s="280"/>
-      <c r="P56" s="281"/>
+      <c r="N56" s="296"/>
+      <c r="O56" s="296"/>
+      <c r="P56" s="297"/>
       <c r="R56" s="43"/>
       <c r="S56" s="9"/>
       <c r="T56" s="10"/>
@@ -5609,25 +5610,25 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="275"/>
-      <c r="B57" s="276"/>
+      <c r="A57" s="274"/>
+      <c r="B57" s="275"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="277"/>
-      <c r="E57" s="276"/>
+      <c r="D57" s="276"/>
+      <c r="E57" s="275"/>
       <c r="F57" s="97"/>
       <c r="G57" s="11"/>
       <c r="H57" s="99"/>
       <c r="I57" s="54"/>
       <c r="J57" s="127"/>
-      <c r="K57" s="278">
+      <c r="K57" s="277">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L57" s="279"/>
+      <c r="L57" s="278"/>
       <c r="M57" s="117"/>
-      <c r="N57" s="285"/>
-      <c r="O57" s="285"/>
-      <c r="P57" s="286"/>
+      <c r="N57" s="298"/>
+      <c r="O57" s="298"/>
+      <c r="P57" s="299"/>
       <c r="R57" s="45"/>
       <c r="S57" s="12"/>
       <c r="T57" s="10"/>
@@ -5640,70 +5641,70 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="287" t="s">
+      <c r="A58" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="288"/>
-      <c r="C58" s="288"/>
-      <c r="D58" s="288"/>
-      <c r="E58" s="288"/>
-      <c r="F58" s="289"/>
+      <c r="B58" s="280"/>
+      <c r="C58" s="280"/>
+      <c r="D58" s="280"/>
+      <c r="E58" s="280"/>
+      <c r="F58" s="281"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="258">
+      <c r="I58" s="282">
         <f>SUM(K34:K57)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="259"/>
-      <c r="K58" s="259"/>
-      <c r="L58" s="260"/>
+      <c r="J58" s="283"/>
+      <c r="K58" s="283"/>
+      <c r="L58" s="284"/>
       <c r="M58" s="118"/>
-      <c r="N58" s="290">
+      <c r="N58" s="285">
         <f>SUMIF(F34:F57,"&lt;&gt;"&amp;hdn_payoff_circle,K34:K57)</f>
         <v>0</v>
       </c>
-      <c r="O58" s="291"/>
-      <c r="P58" s="292"/>
+      <c r="O58" s="286"/>
+      <c r="P58" s="287"/>
       <c r="R58" s="44"/>
       <c r="S58" s="12"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="293"/>
-      <c r="B59" s="294"/>
-      <c r="C59" s="294"/>
-      <c r="D59" s="294"/>
-      <c r="E59" s="294"/>
-      <c r="F59" s="294"/>
-      <c r="G59" s="294"/>
-      <c r="H59" s="294"/>
-      <c r="I59" s="294"/>
-      <c r="J59" s="294"/>
-      <c r="K59" s="294"/>
-      <c r="L59" s="294"/>
-      <c r="M59" s="294"/>
-      <c r="N59" s="294"/>
-      <c r="O59" s="294"/>
-      <c r="P59" s="295"/>
+      <c r="A59" s="288"/>
+      <c r="B59" s="289"/>
+      <c r="C59" s="289"/>
+      <c r="D59" s="289"/>
+      <c r="E59" s="289"/>
+      <c r="F59" s="289"/>
+      <c r="G59" s="289"/>
+      <c r="H59" s="289"/>
+      <c r="I59" s="289"/>
+      <c r="J59" s="289"/>
+      <c r="K59" s="289"/>
+      <c r="L59" s="289"/>
+      <c r="M59" s="289"/>
+      <c r="N59" s="289"/>
+      <c r="O59" s="289"/>
+      <c r="P59" s="290"/>
       <c r="R59" s="44"/>
       <c r="S59" s="12"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="263" t="s">
+      <c r="A60" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="264"/>
+      <c r="B60" s="292"/>
       <c r="C60" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="265" t="s">
+      <c r="D60" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="264"/>
-      <c r="F60" s="377" t="s">
+      <c r="E60" s="292"/>
+      <c r="F60" s="189" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="102" t="s">
@@ -5718,46 +5719,46 @@
       <c r="J60" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="K60" s="265" t="s">
+      <c r="K60" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="L60" s="264"/>
+      <c r="L60" s="292"/>
       <c r="M60" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="N60" s="265" t="s">
+      <c r="N60" s="293" t="s">
         <v>53</v>
       </c>
-      <c r="O60" s="266"/>
-      <c r="P60" s="267"/>
+      <c r="O60" s="294"/>
+      <c r="P60" s="295"/>
       <c r="R60" s="46" t="s">
         <v>34</v>
       </c>
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="275"/>
-      <c r="B61" s="276"/>
+      <c r="A61" s="274"/>
+      <c r="B61" s="275"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="277"/>
-      <c r="E61" s="276"/>
+      <c r="D61" s="276"/>
+      <c r="E61" s="275"/>
       <c r="F61" s="95"/>
-      <c r="G61" s="171">
+      <c r="G61" s="170">
         <f>IF(A61&lt;&gt;"",$P$4,0)</f>
         <v>0</v>
       </c>
       <c r="H61" s="98"/>
       <c r="I61" s="8"/>
       <c r="J61" s="126"/>
-      <c r="K61" s="278">
+      <c r="K61" s="277">
         <f>IFERROR(G61*I61*J61,"")</f>
         <v>0</v>
       </c>
-      <c r="L61" s="279"/>
+      <c r="L61" s="278"/>
       <c r="M61" s="113"/>
-      <c r="N61" s="253"/>
-      <c r="O61" s="253"/>
-      <c r="P61" s="254"/>
+      <c r="N61" s="270"/>
+      <c r="O61" s="270"/>
+      <c r="P61" s="271"/>
       <c r="R61" s="43"/>
       <c r="U61" s="1">
         <f t="shared" ref="U61:U86" si="7">IFERROR(VLOOKUP(H61,$C$101:$D$103,2,FALSE),1)</f>
@@ -5768,28 +5769,28 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="275"/>
-      <c r="B62" s="276"/>
+      <c r="A62" s="274"/>
+      <c r="B62" s="275"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="277"/>
-      <c r="E62" s="276"/>
+      <c r="D62" s="276"/>
+      <c r="E62" s="275"/>
       <c r="F62" s="95"/>
-      <c r="G62" s="171">
+      <c r="G62" s="170">
         <f t="shared" ref="G62:G86" si="8">IF(A62&lt;&gt;"",$P$4,0)</f>
         <v>0</v>
       </c>
       <c r="H62" s="98"/>
       <c r="I62" s="8"/>
       <c r="J62" s="126"/>
-      <c r="K62" s="278">
+      <c r="K62" s="277">
         <f t="shared" ref="K62:K86" si="9">IFERROR(G62*I62*J62,"")</f>
         <v>0</v>
       </c>
-      <c r="L62" s="279"/>
+      <c r="L62" s="278"/>
       <c r="M62" s="113"/>
-      <c r="N62" s="253"/>
-      <c r="O62" s="253"/>
-      <c r="P62" s="254"/>
+      <c r="N62" s="270"/>
+      <c r="O62" s="270"/>
+      <c r="P62" s="271"/>
       <c r="R62" s="43"/>
       <c r="U62" s="1">
         <f t="shared" si="7"/>
@@ -5800,28 +5801,28 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="275"/>
-      <c r="B63" s="276"/>
+      <c r="A63" s="274"/>
+      <c r="B63" s="275"/>
       <c r="C63" s="94"/>
-      <c r="D63" s="277"/>
-      <c r="E63" s="276"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="275"/>
       <c r="F63" s="95"/>
-      <c r="G63" s="171">
+      <c r="G63" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H63" s="98"/>
       <c r="I63" s="8"/>
       <c r="J63" s="126"/>
-      <c r="K63" s="278">
+      <c r="K63" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L63" s="279"/>
+      <c r="L63" s="278"/>
       <c r="M63" s="113"/>
-      <c r="N63" s="296"/>
-      <c r="O63" s="297"/>
-      <c r="P63" s="298"/>
+      <c r="N63" s="263"/>
+      <c r="O63" s="264"/>
+      <c r="P63" s="265"/>
       <c r="R63" s="43"/>
       <c r="U63" s="1">
         <f t="shared" si="7"/>
@@ -5832,28 +5833,28 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="275"/>
-      <c r="B64" s="276"/>
+      <c r="A64" s="274"/>
+      <c r="B64" s="275"/>
       <c r="C64" s="94"/>
-      <c r="D64" s="277"/>
-      <c r="E64" s="276"/>
+      <c r="D64" s="276"/>
+      <c r="E64" s="275"/>
       <c r="F64" s="95"/>
-      <c r="G64" s="171">
+      <c r="G64" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H64" s="98"/>
       <c r="I64" s="8"/>
       <c r="J64" s="126"/>
-      <c r="K64" s="278">
+      <c r="K64" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L64" s="279"/>
+      <c r="L64" s="278"/>
       <c r="M64" s="113"/>
-      <c r="N64" s="253"/>
-      <c r="O64" s="253"/>
-      <c r="P64" s="254"/>
+      <c r="N64" s="270"/>
+      <c r="O64" s="270"/>
+      <c r="P64" s="271"/>
       <c r="R64" s="43"/>
       <c r="U64" s="1">
         <f t="shared" si="7"/>
@@ -5864,28 +5865,28 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="275"/>
-      <c r="B65" s="276"/>
+      <c r="A65" s="274"/>
+      <c r="B65" s="275"/>
       <c r="C65" s="94"/>
-      <c r="D65" s="277"/>
-      <c r="E65" s="276"/>
+      <c r="D65" s="276"/>
+      <c r="E65" s="275"/>
       <c r="F65" s="95"/>
-      <c r="G65" s="171">
+      <c r="G65" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H65" s="98"/>
       <c r="I65" s="8"/>
       <c r="J65" s="126"/>
-      <c r="K65" s="278">
+      <c r="K65" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L65" s="279"/>
+      <c r="L65" s="278"/>
       <c r="M65" s="113"/>
-      <c r="N65" s="253"/>
-      <c r="O65" s="253"/>
-      <c r="P65" s="254"/>
+      <c r="N65" s="270"/>
+      <c r="O65" s="270"/>
+      <c r="P65" s="271"/>
       <c r="R65" s="43"/>
       <c r="U65" s="1">
         <f t="shared" si="7"/>
@@ -5896,28 +5897,28 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="275"/>
-      <c r="B66" s="276"/>
+      <c r="A66" s="274"/>
+      <c r="B66" s="275"/>
       <c r="C66" s="94"/>
-      <c r="D66" s="277"/>
-      <c r="E66" s="276"/>
+      <c r="D66" s="276"/>
+      <c r="E66" s="275"/>
       <c r="F66" s="95"/>
-      <c r="G66" s="171">
+      <c r="G66" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H66" s="98"/>
       <c r="I66" s="8"/>
       <c r="J66" s="126"/>
-      <c r="K66" s="278">
+      <c r="K66" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L66" s="279"/>
+      <c r="L66" s="278"/>
       <c r="M66" s="113"/>
-      <c r="N66" s="253"/>
-      <c r="O66" s="253"/>
-      <c r="P66" s="254"/>
+      <c r="N66" s="270"/>
+      <c r="O66" s="270"/>
+      <c r="P66" s="271"/>
       <c r="R66" s="43"/>
       <c r="U66" s="1">
         <f t="shared" si="7"/>
@@ -5928,28 +5929,28 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="275"/>
-      <c r="B67" s="276"/>
+      <c r="A67" s="274"/>
+      <c r="B67" s="275"/>
       <c r="C67" s="94"/>
-      <c r="D67" s="277"/>
-      <c r="E67" s="276"/>
+      <c r="D67" s="276"/>
+      <c r="E67" s="275"/>
       <c r="F67" s="95"/>
-      <c r="G67" s="171">
+      <c r="G67" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H67" s="98"/>
       <c r="I67" s="8"/>
       <c r="J67" s="126"/>
-      <c r="K67" s="278">
+      <c r="K67" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L67" s="279"/>
+      <c r="L67" s="278"/>
       <c r="M67" s="113"/>
-      <c r="N67" s="253"/>
-      <c r="O67" s="253"/>
-      <c r="P67" s="254"/>
+      <c r="N67" s="270"/>
+      <c r="O67" s="270"/>
+      <c r="P67" s="271"/>
       <c r="R67" s="43"/>
       <c r="U67" s="1">
         <f t="shared" si="7"/>
@@ -5960,28 +5961,28 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="275"/>
-      <c r="B68" s="276"/>
+      <c r="A68" s="274"/>
+      <c r="B68" s="275"/>
       <c r="C68" s="94"/>
-      <c r="D68" s="277"/>
-      <c r="E68" s="276"/>
+      <c r="D68" s="276"/>
+      <c r="E68" s="275"/>
       <c r="F68" s="95"/>
-      <c r="G68" s="171">
+      <c r="G68" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H68" s="98"/>
       <c r="I68" s="8"/>
       <c r="J68" s="126"/>
-      <c r="K68" s="278">
+      <c r="K68" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L68" s="279"/>
+      <c r="L68" s="278"/>
       <c r="M68" s="113"/>
-      <c r="N68" s="253"/>
-      <c r="O68" s="253"/>
-      <c r="P68" s="254"/>
+      <c r="N68" s="270"/>
+      <c r="O68" s="270"/>
+      <c r="P68" s="271"/>
       <c r="R68" s="43"/>
       <c r="U68" s="1">
         <f t="shared" si="7"/>
@@ -5992,28 +5993,28 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="275"/>
-      <c r="B69" s="276"/>
+      <c r="A69" s="274"/>
+      <c r="B69" s="275"/>
       <c r="C69" s="94"/>
-      <c r="D69" s="277"/>
-      <c r="E69" s="276"/>
+      <c r="D69" s="276"/>
+      <c r="E69" s="275"/>
       <c r="F69" s="95"/>
-      <c r="G69" s="171">
+      <c r="G69" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H69" s="98"/>
       <c r="I69" s="8"/>
       <c r="J69" s="126"/>
-      <c r="K69" s="278">
+      <c r="K69" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L69" s="279"/>
+      <c r="L69" s="278"/>
       <c r="M69" s="113"/>
-      <c r="N69" s="253"/>
-      <c r="O69" s="253"/>
-      <c r="P69" s="254"/>
+      <c r="N69" s="270"/>
+      <c r="O69" s="270"/>
+      <c r="P69" s="271"/>
       <c r="R69" s="43"/>
       <c r="U69" s="1">
         <f t="shared" si="7"/>
@@ -6024,28 +6025,28 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="275"/>
-      <c r="B70" s="276"/>
+      <c r="A70" s="274"/>
+      <c r="B70" s="275"/>
       <c r="C70" s="94"/>
-      <c r="D70" s="277"/>
-      <c r="E70" s="276"/>
+      <c r="D70" s="276"/>
+      <c r="E70" s="275"/>
       <c r="F70" s="95"/>
-      <c r="G70" s="171">
+      <c r="G70" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H70" s="98"/>
       <c r="I70" s="8"/>
       <c r="J70" s="126"/>
-      <c r="K70" s="278">
+      <c r="K70" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L70" s="279"/>
+      <c r="L70" s="278"/>
       <c r="M70" s="113"/>
-      <c r="N70" s="253"/>
-      <c r="O70" s="253"/>
-      <c r="P70" s="254"/>
+      <c r="N70" s="270"/>
+      <c r="O70" s="270"/>
+      <c r="P70" s="271"/>
       <c r="R70" s="43"/>
       <c r="U70" s="1">
         <f t="shared" si="7"/>
@@ -6056,28 +6057,28 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="275"/>
-      <c r="B71" s="276"/>
+      <c r="A71" s="274"/>
+      <c r="B71" s="275"/>
       <c r="C71" s="94"/>
-      <c r="D71" s="277"/>
-      <c r="E71" s="276"/>
+      <c r="D71" s="276"/>
+      <c r="E71" s="275"/>
       <c r="F71" s="95"/>
-      <c r="G71" s="171">
+      <c r="G71" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H71" s="98"/>
       <c r="I71" s="8"/>
       <c r="J71" s="126"/>
-      <c r="K71" s="278">
+      <c r="K71" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L71" s="279"/>
+      <c r="L71" s="278"/>
       <c r="M71" s="113"/>
-      <c r="N71" s="253"/>
-      <c r="O71" s="253"/>
-      <c r="P71" s="254"/>
+      <c r="N71" s="270"/>
+      <c r="O71" s="270"/>
+      <c r="P71" s="271"/>
       <c r="R71" s="43"/>
       <c r="U71" s="1">
         <f t="shared" si="7"/>
@@ -6088,28 +6089,28 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="275"/>
-      <c r="B72" s="276"/>
+      <c r="A72" s="274"/>
+      <c r="B72" s="275"/>
       <c r="C72" s="94"/>
-      <c r="D72" s="277"/>
-      <c r="E72" s="276"/>
+      <c r="D72" s="276"/>
+      <c r="E72" s="275"/>
       <c r="F72" s="95"/>
-      <c r="G72" s="171">
+      <c r="G72" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H72" s="98"/>
       <c r="I72" s="8"/>
       <c r="J72" s="126"/>
-      <c r="K72" s="278">
+      <c r="K72" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L72" s="279"/>
+      <c r="L72" s="278"/>
       <c r="M72" s="113"/>
-      <c r="N72" s="253"/>
-      <c r="O72" s="253"/>
-      <c r="P72" s="254"/>
+      <c r="N72" s="270"/>
+      <c r="O72" s="270"/>
+      <c r="P72" s="271"/>
       <c r="R72" s="43"/>
       <c r="U72" s="1">
         <f t="shared" si="7"/>
@@ -6120,28 +6121,28 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="275"/>
-      <c r="B73" s="276"/>
+      <c r="A73" s="274"/>
+      <c r="B73" s="275"/>
       <c r="C73" s="94"/>
-      <c r="D73" s="277"/>
-      <c r="E73" s="276"/>
+      <c r="D73" s="276"/>
+      <c r="E73" s="275"/>
       <c r="F73" s="95"/>
-      <c r="G73" s="171">
+      <c r="G73" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H73" s="98"/>
       <c r="I73" s="8"/>
       <c r="J73" s="126"/>
-      <c r="K73" s="278">
+      <c r="K73" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L73" s="279"/>
+      <c r="L73" s="278"/>
       <c r="M73" s="113"/>
-      <c r="N73" s="253"/>
-      <c r="O73" s="253"/>
-      <c r="P73" s="254"/>
+      <c r="N73" s="270"/>
+      <c r="O73" s="270"/>
+      <c r="P73" s="271"/>
       <c r="R73" s="43"/>
       <c r="U73" s="1">
         <f t="shared" si="7"/>
@@ -6152,28 +6153,28 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="275"/>
-      <c r="B74" s="276"/>
+      <c r="A74" s="274"/>
+      <c r="B74" s="275"/>
       <c r="C74" s="94"/>
-      <c r="D74" s="277"/>
-      <c r="E74" s="276"/>
+      <c r="D74" s="276"/>
+      <c r="E74" s="275"/>
       <c r="F74" s="95"/>
-      <c r="G74" s="171">
+      <c r="G74" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H74" s="98"/>
       <c r="I74" s="8"/>
       <c r="J74" s="126"/>
-      <c r="K74" s="278">
+      <c r="K74" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L74" s="279"/>
+      <c r="L74" s="278"/>
       <c r="M74" s="113"/>
-      <c r="N74" s="253"/>
-      <c r="O74" s="253"/>
-      <c r="P74" s="254"/>
+      <c r="N74" s="270"/>
+      <c r="O74" s="270"/>
+      <c r="P74" s="271"/>
       <c r="R74" s="43"/>
       <c r="U74" s="1">
         <f t="shared" si="7"/>
@@ -6184,28 +6185,28 @@
       </c>
     </row>
     <row r="75" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="275"/>
-      <c r="B75" s="276"/>
+      <c r="A75" s="274"/>
+      <c r="B75" s="275"/>
       <c r="C75" s="94"/>
-      <c r="D75" s="277"/>
-      <c r="E75" s="276"/>
+      <c r="D75" s="276"/>
+      <c r="E75" s="275"/>
       <c r="F75" s="95"/>
-      <c r="G75" s="171">
+      <c r="G75" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H75" s="98"/>
       <c r="I75" s="8"/>
       <c r="J75" s="126"/>
-      <c r="K75" s="278">
+      <c r="K75" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L75" s="279"/>
+      <c r="L75" s="278"/>
       <c r="M75" s="113"/>
-      <c r="N75" s="296"/>
-      <c r="O75" s="297"/>
-      <c r="P75" s="298"/>
+      <c r="N75" s="263"/>
+      <c r="O75" s="264"/>
+      <c r="P75" s="265"/>
       <c r="R75" s="43"/>
       <c r="U75" s="1">
         <f t="shared" si="7"/>
@@ -6216,28 +6217,28 @@
       </c>
     </row>
     <row r="76" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="275"/>
-      <c r="B76" s="276"/>
+      <c r="A76" s="274"/>
+      <c r="B76" s="275"/>
       <c r="C76" s="94"/>
-      <c r="D76" s="277"/>
-      <c r="E76" s="276"/>
+      <c r="D76" s="276"/>
+      <c r="E76" s="275"/>
       <c r="F76" s="95"/>
-      <c r="G76" s="171">
+      <c r="G76" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H76" s="98"/>
       <c r="I76" s="8"/>
       <c r="J76" s="126"/>
-      <c r="K76" s="278">
+      <c r="K76" s="277">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L76" s="279"/>
+      <c r="L76" s="278"/>
       <c r="M76" s="113"/>
-      <c r="N76" s="253"/>
-      <c r="O76" s="253"/>
-      <c r="P76" s="254"/>
+      <c r="N76" s="270"/>
+      <c r="O76" s="270"/>
+      <c r="P76" s="271"/>
       <c r="R76" s="43"/>
       <c r="U76" s="1">
         <f t="shared" si="7"/>
@@ -6248,31 +6249,31 @@
       </c>
     </row>
     <row r="77" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="299"/>
-      <c r="B77" s="300"/>
-      <c r="C77" s="140"/>
-      <c r="D77" s="301"/>
-      <c r="E77" s="302"/>
-      <c r="F77" s="148"/>
-      <c r="G77" s="171">
+      <c r="A77" s="268"/>
+      <c r="B77" s="269"/>
+      <c r="C77" s="139"/>
+      <c r="D77" s="272"/>
+      <c r="E77" s="273"/>
+      <c r="F77" s="147"/>
+      <c r="G77" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H77" s="149"/>
-      <c r="I77" s="154" t="str">
+      <c r="H77" s="148"/>
+      <c r="I77" s="153" t="str">
         <f t="shared" ref="I77:I86" si="10">IF(D77&lt;&gt;"",IF(G77&lt;&gt;"",ROUNDDOWN(IF(C77=hdn_import_cost,calculation_import_cost,IF(C77=hdn_tariff,calculation_tariff,0))*D77/G77,4),""),"")</f>
         <v/>
       </c>
-      <c r="J77" s="155"/>
-      <c r="K77" s="303" t="str">
+      <c r="J77" s="154"/>
+      <c r="K77" s="261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L77" s="304"/>
+      <c r="L77" s="262"/>
       <c r="M77" s="113"/>
-      <c r="N77" s="253"/>
-      <c r="O77" s="253"/>
-      <c r="P77" s="254"/>
+      <c r="N77" s="270"/>
+      <c r="O77" s="270"/>
+      <c r="P77" s="271"/>
       <c r="R77" s="43"/>
       <c r="S77" s="1" t="str">
         <f t="shared" ref="S77:S86" si="11">IF(C77=hdn_tariff,K77,0)</f>
@@ -6287,31 +6288,31 @@
       </c>
     </row>
     <row r="78" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="299"/>
-      <c r="B78" s="300"/>
-      <c r="C78" s="140"/>
-      <c r="D78" s="305"/>
-      <c r="E78" s="306"/>
-      <c r="F78" s="148"/>
-      <c r="G78" s="171">
+      <c r="A78" s="268"/>
+      <c r="B78" s="269"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="266"/>
+      <c r="E78" s="267"/>
+      <c r="F78" s="147"/>
+      <c r="G78" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H78" s="149"/>
-      <c r="I78" s="154" t="str">
+      <c r="H78" s="148"/>
+      <c r="I78" s="153" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J78" s="155"/>
-      <c r="K78" s="303" t="str">
+      <c r="J78" s="154"/>
+      <c r="K78" s="261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L78" s="304"/>
+      <c r="L78" s="262"/>
       <c r="M78" s="113"/>
-      <c r="N78" s="253"/>
-      <c r="O78" s="253"/>
-      <c r="P78" s="254"/>
+      <c r="N78" s="270"/>
+      <c r="O78" s="270"/>
+      <c r="P78" s="271"/>
       <c r="R78" s="43"/>
       <c r="S78" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6326,31 +6327,31 @@
       </c>
     </row>
     <row r="79" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="299"/>
-      <c r="B79" s="300"/>
-      <c r="C79" s="140"/>
-      <c r="D79" s="305"/>
-      <c r="E79" s="306"/>
-      <c r="F79" s="148"/>
-      <c r="G79" s="171">
+      <c r="A79" s="268"/>
+      <c r="B79" s="269"/>
+      <c r="C79" s="139"/>
+      <c r="D79" s="266"/>
+      <c r="E79" s="267"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H79" s="149"/>
-      <c r="I79" s="154" t="str">
+      <c r="H79" s="148"/>
+      <c r="I79" s="153" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J79" s="155"/>
-      <c r="K79" s="303" t="str">
+      <c r="J79" s="154"/>
+      <c r="K79" s="261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L79" s="304"/>
+      <c r="L79" s="262"/>
       <c r="M79" s="113"/>
-      <c r="N79" s="253"/>
-      <c r="O79" s="253"/>
-      <c r="P79" s="254"/>
+      <c r="N79" s="270"/>
+      <c r="O79" s="270"/>
+      <c r="P79" s="271"/>
       <c r="R79" s="43"/>
       <c r="S79" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6365,31 +6366,31 @@
       </c>
     </row>
     <row r="80" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="307"/>
-      <c r="B80" s="308"/>
-      <c r="C80" s="141"/>
-      <c r="D80" s="305"/>
-      <c r="E80" s="306"/>
-      <c r="F80" s="148"/>
-      <c r="G80" s="171">
+      <c r="A80" s="250"/>
+      <c r="B80" s="251"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="266"/>
+      <c r="E80" s="267"/>
+      <c r="F80" s="147"/>
+      <c r="G80" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H80" s="149"/>
-      <c r="I80" s="154" t="str">
+      <c r="H80" s="148"/>
+      <c r="I80" s="153" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J80" s="155"/>
-      <c r="K80" s="303" t="str">
+      <c r="J80" s="154"/>
+      <c r="K80" s="261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L80" s="304"/>
+      <c r="L80" s="262"/>
       <c r="M80" s="113"/>
-      <c r="N80" s="296"/>
-      <c r="O80" s="297"/>
-      <c r="P80" s="298"/>
+      <c r="N80" s="263"/>
+      <c r="O80" s="264"/>
+      <c r="P80" s="265"/>
       <c r="R80" s="43"/>
       <c r="S80" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6404,32 +6405,32 @@
       </c>
     </row>
     <row r="81" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="307"/>
-      <c r="B81" s="308"/>
-      <c r="C81" s="141"/>
-      <c r="D81" s="305"/>
-      <c r="E81" s="306"/>
-      <c r="F81" s="148"/>
-      <c r="G81" s="171">
+      <c r="A81" s="250"/>
+      <c r="B81" s="251"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="266"/>
+      <c r="E81" s="267"/>
+      <c r="F81" s="147"/>
+      <c r="G81" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H81" s="149"/>
-      <c r="I81" s="154" t="str">
+      <c r="H81" s="148"/>
+      <c r="I81" s="153" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J81" s="155"/>
-      <c r="K81" s="303" t="str">
+      <c r="J81" s="154"/>
+      <c r="K81" s="261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L81" s="304"/>
-      <c r="M81" s="157"/>
-      <c r="N81" s="296"/>
-      <c r="O81" s="297"/>
-      <c r="P81" s="298"/>
-      <c r="R81" s="132"/>
+      <c r="L81" s="262"/>
+      <c r="M81" s="156"/>
+      <c r="N81" s="263"/>
+      <c r="O81" s="264"/>
+      <c r="P81" s="265"/>
+      <c r="R81" s="131"/>
       <c r="S81" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -6443,32 +6444,32 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="307"/>
-      <c r="B82" s="308"/>
-      <c r="C82" s="141"/>
-      <c r="D82" s="305"/>
-      <c r="E82" s="306"/>
-      <c r="F82" s="148"/>
-      <c r="G82" s="171">
+      <c r="A82" s="250"/>
+      <c r="B82" s="251"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="266"/>
+      <c r="E82" s="267"/>
+      <c r="F82" s="147"/>
+      <c r="G82" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H82" s="149"/>
-      <c r="I82" s="154" t="str">
+      <c r="H82" s="148"/>
+      <c r="I82" s="153" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J82" s="155"/>
-      <c r="K82" s="303" t="str">
+      <c r="J82" s="154"/>
+      <c r="K82" s="261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L82" s="304"/>
-      <c r="M82" s="157"/>
-      <c r="N82" s="296"/>
-      <c r="O82" s="297"/>
-      <c r="P82" s="298"/>
-      <c r="R82" s="132"/>
+      <c r="L82" s="262"/>
+      <c r="M82" s="156"/>
+      <c r="N82" s="263"/>
+      <c r="O82" s="264"/>
+      <c r="P82" s="265"/>
+      <c r="R82" s="131"/>
       <c r="S82" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -6482,31 +6483,31 @@
       </c>
     </row>
     <row r="83" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="307"/>
-      <c r="B83" s="308"/>
-      <c r="C83" s="141"/>
-      <c r="D83" s="305"/>
-      <c r="E83" s="306"/>
-      <c r="F83" s="148"/>
-      <c r="G83" s="171">
+      <c r="A83" s="250"/>
+      <c r="B83" s="251"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="266"/>
+      <c r="E83" s="267"/>
+      <c r="F83" s="147"/>
+      <c r="G83" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H83" s="149"/>
-      <c r="I83" s="154" t="str">
+      <c r="H83" s="148"/>
+      <c r="I83" s="153" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J83" s="155"/>
-      <c r="K83" s="303" t="str">
+      <c r="J83" s="154"/>
+      <c r="K83" s="261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L83" s="304"/>
+      <c r="L83" s="262"/>
       <c r="M83" s="113"/>
-      <c r="N83" s="296"/>
-      <c r="O83" s="297"/>
-      <c r="P83" s="298"/>
+      <c r="N83" s="263"/>
+      <c r="O83" s="264"/>
+      <c r="P83" s="265"/>
       <c r="R83" s="45"/>
       <c r="S83" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6521,32 +6522,32 @@
       </c>
     </row>
     <row r="84" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="307"/>
-      <c r="B84" s="308"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="305"/>
-      <c r="E84" s="306"/>
-      <c r="F84" s="150"/>
-      <c r="G84" s="171">
+      <c r="A84" s="250"/>
+      <c r="B84" s="251"/>
+      <c r="C84" s="141"/>
+      <c r="D84" s="266"/>
+      <c r="E84" s="267"/>
+      <c r="F84" s="149"/>
+      <c r="G84" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H84" s="151"/>
-      <c r="I84" s="154" t="str">
+      <c r="H84" s="150"/>
+      <c r="I84" s="153" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J84" s="155"/>
-      <c r="K84" s="303" t="str">
+      <c r="J84" s="154"/>
+      <c r="K84" s="261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L84" s="304"/>
-      <c r="M84" s="158"/>
-      <c r="N84" s="296"/>
-      <c r="O84" s="297"/>
-      <c r="P84" s="298"/>
-      <c r="R84" s="133"/>
+      <c r="L84" s="262"/>
+      <c r="M84" s="157"/>
+      <c r="N84" s="263"/>
+      <c r="O84" s="264"/>
+      <c r="P84" s="265"/>
+      <c r="R84" s="132"/>
       <c r="S84" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -6560,32 +6561,32 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="307"/>
-      <c r="B85" s="308"/>
-      <c r="C85" s="142"/>
-      <c r="D85" s="305"/>
-      <c r="E85" s="306"/>
-      <c r="F85" s="150"/>
-      <c r="G85" s="171">
+      <c r="A85" s="250"/>
+      <c r="B85" s="251"/>
+      <c r="C85" s="141"/>
+      <c r="D85" s="266"/>
+      <c r="E85" s="267"/>
+      <c r="F85" s="149"/>
+      <c r="G85" s="170">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H85" s="151"/>
-      <c r="I85" s="154" t="str">
+      <c r="H85" s="150"/>
+      <c r="I85" s="153" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J85" s="155"/>
-      <c r="K85" s="303" t="str">
+      <c r="J85" s="154"/>
+      <c r="K85" s="261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L85" s="304"/>
-      <c r="M85" s="158"/>
-      <c r="N85" s="296"/>
-      <c r="O85" s="297"/>
-      <c r="P85" s="298"/>
-      <c r="R85" s="133"/>
+      <c r="L85" s="262"/>
+      <c r="M85" s="157"/>
+      <c r="N85" s="263"/>
+      <c r="O85" s="264"/>
+      <c r="P85" s="265"/>
+      <c r="R85" s="132"/>
       <c r="S85" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -6599,31 +6600,31 @@
       </c>
     </row>
     <row r="86" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="321"/>
-      <c r="B86" s="322"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="323"/>
-      <c r="E86" s="324"/>
-      <c r="F86" s="152"/>
-      <c r="G86" s="172">
+      <c r="A86" s="252"/>
+      <c r="B86" s="253"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="254"/>
+      <c r="E86" s="255"/>
+      <c r="F86" s="151"/>
+      <c r="G86" s="171">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H86" s="153"/>
-      <c r="I86" s="165" t="str">
+      <c r="H86" s="152"/>
+      <c r="I86" s="164" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J86" s="156"/>
-      <c r="K86" s="325" t="str">
+      <c r="J86" s="155"/>
+      <c r="K86" s="256" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L86" s="326"/>
-      <c r="M86" s="159"/>
-      <c r="N86" s="327"/>
-      <c r="O86" s="328"/>
-      <c r="P86" s="329"/>
+      <c r="L86" s="257"/>
+      <c r="M86" s="158"/>
+      <c r="N86" s="258"/>
+      <c r="O86" s="259"/>
+      <c r="P86" s="260"/>
       <c r="S86" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -6637,62 +6638,62 @@
       </c>
     </row>
     <row r="87" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="144"/>
-      <c r="B87" s="145"/>
-      <c r="C87" s="145"/>
-      <c r="D87" s="145"/>
-      <c r="E87" s="145"/>
-      <c r="F87" s="145"/>
-      <c r="G87" s="146"/>
-      <c r="H87" s="146"/>
-      <c r="I87" s="147"/>
-      <c r="J87" s="147"/>
-      <c r="K87" s="147"/>
-      <c r="L87" s="147"/>
+      <c r="A87" s="143"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="144"/>
+      <c r="G87" s="145"/>
+      <c r="H87" s="145"/>
+      <c r="I87" s="146"/>
+      <c r="J87" s="146"/>
+      <c r="K87" s="146"/>
+      <c r="L87" s="146"/>
       <c r="M87" s="15"/>
-      <c r="N87" s="309"/>
-      <c r="O87" s="309"/>
-      <c r="P87" s="310"/>
+      <c r="N87" s="200"/>
+      <c r="O87" s="200"/>
+      <c r="P87" s="239"/>
     </row>
     <row r="88" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="311" t="s">
+      <c r="A88" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="312"/>
-      <c r="C88" s="166">
+      <c r="B88" s="241"/>
+      <c r="C88" s="165">
         <f>I16</f>
         <v>0</v>
       </c>
       <c r="D88" s="67"/>
-      <c r="E88" s="313" t="s">
+      <c r="E88" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="F88" s="314"/>
-      <c r="G88" s="312"/>
-      <c r="H88" s="315">
+      <c r="F88" s="243"/>
+      <c r="G88" s="241"/>
+      <c r="H88" s="244">
         <f>I31</f>
         <v>0</v>
       </c>
-      <c r="I88" s="316"/>
-      <c r="J88" s="160"/>
+      <c r="I88" s="245"/>
+      <c r="J88" s="159"/>
       <c r="K88" s="68"/>
-      <c r="L88" s="317" t="s">
+      <c r="L88" s="246" t="s">
         <v>42</v>
       </c>
-      <c r="M88" s="318"/>
-      <c r="N88" s="319">
+      <c r="M88" s="247"/>
+      <c r="N88" s="248">
         <f>C88+H88</f>
         <v>0</v>
       </c>
-      <c r="O88" s="320"/>
+      <c r="O88" s="249"/>
       <c r="P88" s="69"/>
     </row>
     <row r="89" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="340" t="s">
+      <c r="A89" s="225" t="s">
         <v>57</v>
       </c>
-      <c r="B89" s="341"/>
-      <c r="C89" s="167">
+      <c r="B89" s="226"/>
+      <c r="C89" s="166">
         <f>C88-K94</f>
         <v>0</v>
       </c>
@@ -6700,30 +6701,30 @@
         <f>C89/C88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E89" s="342" t="s">
+      <c r="E89" s="227" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="343"/>
-      <c r="G89" s="344"/>
-      <c r="H89" s="345">
+      <c r="F89" s="228"/>
+      <c r="G89" s="229"/>
+      <c r="H89" s="230">
         <f>H88-N58</f>
         <v>0</v>
       </c>
-      <c r="I89" s="346"/>
-      <c r="J89" s="161"/>
+      <c r="I89" s="231"/>
+      <c r="J89" s="160"/>
       <c r="K89" s="77" t="e">
         <f>H89/H88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L89" s="342" t="s">
+      <c r="L89" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="M89" s="344"/>
-      <c r="N89" s="347">
+      <c r="M89" s="229"/>
+      <c r="N89" s="232">
         <f>C89+H89</f>
         <v>0</v>
       </c>
-      <c r="O89" s="348"/>
+      <c r="O89" s="233"/>
       <c r="P89" s="65" t="e">
         <f>N89/N88</f>
         <v>#DIV/0!</v>
@@ -6740,16 +6741,16 @@
       <c r="H90" s="83"/>
       <c r="I90" s="83"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="349" t="s">
+      <c r="K90" s="234" t="s">
         <v>43</v>
       </c>
-      <c r="L90" s="350"/>
-      <c r="M90" s="351"/>
-      <c r="N90" s="352">
+      <c r="L90" s="235"/>
+      <c r="M90" s="236"/>
+      <c r="N90" s="237">
         <f>ROUNDDOWN((N88*P90),0)</f>
         <v>0</v>
       </c>
-      <c r="O90" s="353"/>
+      <c r="O90" s="238"/>
       <c r="P90" s="84"/>
     </row>
     <row r="91" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6763,32 +6764,32 @@
       <c r="H91" s="22"/>
       <c r="I91" s="58"/>
       <c r="J91" s="129"/>
-      <c r="K91" s="330" t="s">
+      <c r="K91" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="L91" s="331"/>
-      <c r="M91" s="332"/>
-      <c r="N91" s="333">
+      <c r="L91" s="217"/>
+      <c r="M91" s="214"/>
+      <c r="N91" s="218">
         <f>N89-N90</f>
         <v>0</v>
       </c>
-      <c r="O91" s="334"/>
+      <c r="O91" s="219"/>
       <c r="P91" s="66" t="e">
         <f>N91/N88</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="335" t="s">
+      <c r="A92" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="336"/>
-      <c r="C92" s="337" t="s">
+      <c r="B92" s="221"/>
+      <c r="C92" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="337"/>
-      <c r="E92" s="337"/>
-      <c r="F92" s="337"/>
+      <c r="D92" s="222"/>
+      <c r="E92" s="222"/>
+      <c r="F92" s="222"/>
       <c r="G92" s="16">
         <f>$P$4</f>
         <v>0</v>
@@ -6799,27 +6800,27 @@
         <v>0</v>
       </c>
       <c r="J92" s="18"/>
-      <c r="K92" s="338">
+      <c r="K92" s="223">
         <f>SUMIF(F61:F86,"&lt;&gt;"&amp;hdn_payoff_circle,K61:K86)</f>
         <v>0</v>
       </c>
-      <c r="L92" s="338"/>
+      <c r="L92" s="223"/>
       <c r="M92" s="18"/>
-      <c r="N92" s="339"/>
-      <c r="O92" s="339"/>
+      <c r="N92" s="224"/>
+      <c r="O92" s="224"/>
       <c r="P92" s="61"/>
     </row>
     <row r="93" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="363" t="s">
+      <c r="A93" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="364"/>
-      <c r="C93" s="365" t="s">
+      <c r="B93" s="202"/>
+      <c r="C93" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="365"/>
-      <c r="E93" s="365"/>
-      <c r="F93" s="365"/>
+      <c r="D93" s="203"/>
+      <c r="E93" s="203"/>
+      <c r="F93" s="203"/>
       <c r="G93" s="19">
         <f>$P$4</f>
         <v>0</v>
@@ -6830,147 +6831,147 @@
         <v>0</v>
       </c>
       <c r="J93" s="52"/>
-      <c r="K93" s="366">
+      <c r="K93" s="204">
         <f>SUMIF(F34:F86,hdn_payoff_circle,K34:K86)</f>
         <v>0</v>
       </c>
-      <c r="L93" s="367"/>
+      <c r="L93" s="205"/>
       <c r="M93" s="52"/>
-      <c r="N93" s="368"/>
-      <c r="O93" s="369"/>
+      <c r="N93" s="206"/>
+      <c r="O93" s="207"/>
       <c r="P93" s="21"/>
     </row>
     <row r="94" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="370" t="s">
+      <c r="A94" s="208" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="371"/>
-      <c r="C94" s="372" t="s">
+      <c r="B94" s="209"/>
+      <c r="C94" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="D94" s="372"/>
-      <c r="E94" s="372"/>
-      <c r="F94" s="372"/>
-      <c r="G94" s="134">
+      <c r="D94" s="210"/>
+      <c r="E94" s="210"/>
+      <c r="F94" s="210"/>
+      <c r="G94" s="133">
         <f>$P$4</f>
         <v>0</v>
       </c>
-      <c r="H94" s="135"/>
+      <c r="H94" s="134"/>
       <c r="I94" s="58">
         <f>IF(G94&gt;0,K94/G94,)</f>
         <v>0</v>
       </c>
       <c r="J94" s="129"/>
-      <c r="K94" s="373">
+      <c r="K94" s="211">
         <f>SUM(K92:K93)</f>
         <v>0</v>
       </c>
-      <c r="L94" s="374"/>
-      <c r="M94" s="330" t="s">
+      <c r="L94" s="212"/>
+      <c r="M94" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="N94" s="332"/>
-      <c r="O94" s="373">
+      <c r="N94" s="214"/>
+      <c r="O94" s="211">
         <f>N58</f>
         <v>0</v>
       </c>
-      <c r="P94" s="375"/>
+      <c r="P94" s="215"/>
     </row>
     <row r="95" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="361" t="s">
+      <c r="A95" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="361"/>
-      <c r="C95" s="361"/>
-      <c r="D95" s="361"/>
-      <c r="E95" s="361"/>
-      <c r="F95" s="361"/>
-      <c r="G95" s="361"/>
-      <c r="H95" s="162"/>
-      <c r="I95" s="362" t="s">
+      <c r="B95" s="198"/>
+      <c r="C95" s="198"/>
+      <c r="D95" s="198"/>
+      <c r="E95" s="198"/>
+      <c r="F95" s="198"/>
+      <c r="G95" s="198"/>
+      <c r="H95" s="161"/>
+      <c r="I95" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="J95" s="362"/>
-      <c r="K95" s="362"/>
-      <c r="L95" s="362"/>
-      <c r="M95" s="362"/>
-      <c r="N95" s="362"/>
-      <c r="O95" s="362"/>
-      <c r="P95" s="362"/>
+      <c r="J95" s="199"/>
+      <c r="K95" s="199"/>
+      <c r="L95" s="199"/>
+      <c r="M95" s="199"/>
+      <c r="N95" s="199"/>
+      <c r="O95" s="199"/>
+      <c r="P95" s="199"/>
     </row>
     <row r="96" spans="1:22" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="309" t="s">
+      <c r="A96" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="309"/>
-      <c r="C96" s="309"/>
-      <c r="D96" s="309"/>
-      <c r="E96" s="309"/>
-      <c r="F96" s="309"/>
-      <c r="G96" s="309"/>
-      <c r="H96" s="309"/>
-      <c r="I96" s="309"/>
-      <c r="J96" s="309"/>
-      <c r="K96" s="309"/>
-      <c r="L96" s="309"/>
-      <c r="M96" s="309"/>
-      <c r="N96" s="309"/>
-      <c r="O96" s="309"/>
-      <c r="P96" s="309"/>
+      <c r="B96" s="200"/>
+      <c r="C96" s="200"/>
+      <c r="D96" s="200"/>
+      <c r="E96" s="200"/>
+      <c r="F96" s="200"/>
+      <c r="G96" s="200"/>
+      <c r="H96" s="200"/>
+      <c r="I96" s="200"/>
+      <c r="J96" s="200"/>
+      <c r="K96" s="200"/>
+      <c r="L96" s="200"/>
+      <c r="M96" s="200"/>
+      <c r="N96" s="200"/>
+      <c r="O96" s="200"/>
+      <c r="P96" s="200"/>
     </row>
     <row r="97" spans="1:23" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="176"/>
-      <c r="B97" s="176"/>
-      <c r="D97" s="176"/>
-      <c r="E97" s="176"/>
-      <c r="F97" s="176"/>
-      <c r="G97" s="176"/>
-      <c r="H97" s="176"/>
-      <c r="I97" s="176"/>
-      <c r="J97" s="176"/>
-      <c r="K97" s="176"/>
-      <c r="L97" s="176"/>
-      <c r="M97" s="176"/>
-      <c r="N97" s="176"/>
-      <c r="O97" s="176"/>
-      <c r="P97" s="176"/>
+      <c r="A97" s="175"/>
+      <c r="B97" s="175"/>
+      <c r="D97" s="175"/>
+      <c r="E97" s="175"/>
+      <c r="F97" s="175"/>
+      <c r="G97" s="175"/>
+      <c r="H97" s="175"/>
+      <c r="I97" s="175"/>
+      <c r="J97" s="175"/>
+      <c r="K97" s="175"/>
+      <c r="L97" s="175"/>
+      <c r="M97" s="175"/>
+      <c r="N97" s="175"/>
+      <c r="O97" s="175"/>
+      <c r="P97" s="175"/>
     </row>
     <row r="98" spans="1:23" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="176"/>
-      <c r="G98" s="354" t="s">
+      <c r="A98" s="175"/>
+      <c r="G98" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="H98" s="355"/>
-      <c r="I98" s="376" t="s">
+      <c r="H98" s="192"/>
+      <c r="I98" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="J98" s="376"/>
-      <c r="K98" s="376" t="s">
+      <c r="J98" s="216"/>
+      <c r="K98" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="L98" s="376"/>
-      <c r="M98" s="376" t="s">
+      <c r="L98" s="216"/>
+      <c r="M98" s="216" t="s">
         <v>71</v>
       </c>
-      <c r="N98" s="376"/>
-      <c r="O98" s="376" t="s">
+      <c r="N98" s="216"/>
+      <c r="O98" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="P98" s="376"/>
-      <c r="Q98" s="188"/>
-      <c r="R98" s="177" t="s">
+      <c r="P98" s="216"/>
+      <c r="Q98" s="187"/>
+      <c r="R98" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="S98" s="177" t="s">
+      <c r="S98" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="T98" s="177" t="s">
+      <c r="T98" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="U98" s="177" t="s">
+      <c r="U98" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="V98" s="177" t="s">
+      <c r="V98" s="176" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6981,7 +6982,7 @@
       <c r="B99" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C99" s="175" t="s">
+      <c r="C99" s="174" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="26" t="s">
@@ -6989,46 +6990,46 @@
       </c>
       <c r="E99" s="53"/>
       <c r="F99" s="53"/>
-      <c r="G99" s="177" t="s">
+      <c r="G99" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="H99" s="177" t="s">
+      <c r="H99" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="I99" s="177" t="s">
+      <c r="I99" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="J99" s="177" t="s">
+      <c r="J99" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="K99" s="175" t="s">
+      <c r="K99" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="L99" s="175" t="s">
+      <c r="L99" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="M99" s="175" t="s">
+      <c r="M99" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="N99" s="175" t="s">
+      <c r="N99" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="O99" s="175" t="s">
+      <c r="O99" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="P99" s="175" t="s">
+      <c r="P99" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="Q99" s="175"/>
-      <c r="R99" s="175"/>
-      <c r="S99" s="175"/>
-      <c r="T99" s="175"/>
-      <c r="U99" s="175"/>
-      <c r="V99" s="175"/>
+      <c r="Q99" s="174"/>
+      <c r="R99" s="174"/>
+      <c r="S99" s="174"/>
+      <c r="T99" s="174"/>
+      <c r="U99" s="174"/>
+      <c r="V99" s="174"/>
     </row>
     <row r="100" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="26"/>
-      <c r="B100" s="180"/>
+      <c r="B100" s="179"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
       <c r="G100" s="23"/>
@@ -7050,10 +7051,10 @@
       <c r="W100" s="53"/>
     </row>
     <row r="101" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="180" t="s">
+      <c r="A101" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="B101" s="180" t="s">
+      <c r="B101" s="179" t="s">
         <v>33</v>
       </c>
       <c r="C101" s="26" t="s">
@@ -7080,8 +7081,8 @@
       <c r="V101" s="26"/>
     </row>
     <row r="102" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="186"/>
-      <c r="B102" s="187"/>
+      <c r="A102" s="185"/>
+      <c r="B102" s="186"/>
       <c r="C102" s="26" t="s">
         <v>30</v>
       </c>
@@ -7106,8 +7107,8 @@
       <c r="V102" s="26"/>
     </row>
     <row r="103" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="179"/>
-      <c r="B103" s="178"/>
+      <c r="A103" s="178"/>
+      <c r="B103" s="177"/>
       <c r="C103" s="26" t="s">
         <v>56</v>
       </c>
@@ -7150,10 +7151,10 @@
       <c r="V104" s="26"/>
     </row>
     <row r="105" spans="1:23" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="360" t="s">
+      <c r="A105" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="360"/>
+      <c r="B105" s="197"/>
       <c r="G105" s="28"/>
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
@@ -7172,11 +7173,11 @@
       <c r="V105" s="26"/>
     </row>
     <row r="106" spans="1:23" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="181">
+      <c r="A106" s="180">
         <f>SUMIF(A34:A57,hdn_mold_overseas_depreciation,K34:K57)+SUMIF(A61:A76,hdn_import_parts_cost,K61:K76)</f>
         <v>0</v>
       </c>
-      <c r="B106" s="182" t="s">
+      <c r="B106" s="181" t="s">
         <v>32</v>
       </c>
       <c r="G106" s="28"/>
@@ -7197,11 +7198,11 @@
       <c r="V106" s="26"/>
     </row>
     <row r="107" spans="1:23" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="181">
+      <c r="A107" s="180">
         <f>SUMIF(A61:A86,hdn_material_parts_cost,K61:K86)+SUMIF(A61:A86,hdn_import_parts_cost,K61:K86)+SUMIF(A34:A56,hdn_material_tools_cost,K34:K56)</f>
         <v>0</v>
       </c>
-      <c r="B107" s="182" t="s">
+      <c r="B107" s="181" t="s">
         <v>31</v>
       </c>
       <c r="G107" s="28"/>
@@ -7222,11 +7223,11 @@
       <c r="V107" s="26"/>
     </row>
     <row r="108" spans="1:23" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="183">
+      <c r="A108" s="182">
         <f>SUMIF(A34:A57,hdn_mold_overseas_depreciation,K34:K57)+SUMIF(A61:A76,hdn_import_parts_cost,K61:K76)</f>
         <v>0</v>
       </c>
-      <c r="B108" s="184" t="s">
+      <c r="B108" s="183" t="s">
         <v>77</v>
       </c>
       <c r="G108" s="26"/>
@@ -7247,14 +7248,14 @@
       <c r="V108" s="26"/>
     </row>
     <row r="109" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="182">
+      <c r="A109" s="181">
         <f>SUMIF(C61:C83,hdn_mass_product,K61:K83)</f>
         <v>0</v>
       </c>
-      <c r="B109" s="175" t="s">
+      <c r="B109" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="F109" s="179"/>
+      <c r="F109" s="178"/>
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
       <c r="I109" s="28"/>
@@ -7273,14 +7274,14 @@
       <c r="V109" s="26"/>
     </row>
     <row r="110" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="175">
+      <c r="A110" s="174">
         <f>SUM(S77:S86)</f>
         <v>0</v>
       </c>
-      <c r="B110" s="184" t="s">
+      <c r="B110" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="F110" s="179"/>
+      <c r="F110" s="178"/>
       <c r="G110" s="28"/>
       <c r="H110" s="28"/>
       <c r="I110" s="28"/>
@@ -7299,14 +7300,14 @@
       <c r="V110" s="26"/>
     </row>
     <row r="111" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="185">
+      <c r="A111" s="184">
         <f>calculation_tariff+tariff_total</f>
         <v>0</v>
       </c>
-      <c r="B111" s="184" t="s">
+      <c r="B111" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="F111" s="179"/>
+      <c r="F111" s="178"/>
       <c r="G111" s="29"/>
       <c r="H111" s="29"/>
       <c r="I111" s="23"/>
@@ -7325,7 +7326,7 @@
       <c r="V111" s="26"/>
     </row>
     <row r="112" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="179"/>
+      <c r="F112" s="178"/>
       <c r="G112" s="29"/>
       <c r="H112" s="29"/>
       <c r="I112" s="23"/>
@@ -7344,7 +7345,7 @@
       <c r="V112" s="26"/>
     </row>
     <row r="113" spans="1:22" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="F113" s="179"/>
+      <c r="F113" s="178"/>
       <c r="G113" s="29"/>
       <c r="H113" s="29"/>
       <c r="I113" s="23"/>
@@ -7364,7 +7365,7 @@
     </row>
     <row r="114" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="E114" s="31"/>
-      <c r="F114" s="179"/>
+      <c r="F114" s="178"/>
       <c r="G114" s="29"/>
       <c r="H114" s="29"/>
       <c r="I114" s="23"/>
@@ -7383,12 +7384,12 @@
       <c r="V114" s="26"/>
     </row>
     <row r="115" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="356" t="s">
+      <c r="A115" s="193" t="s">
         <v>78</v>
       </c>
       <c r="B115" s="26"/>
       <c r="E115" s="32"/>
-      <c r="F115" s="179"/>
+      <c r="F115" s="178"/>
       <c r="G115" s="29"/>
       <c r="H115" s="29"/>
       <c r="I115" s="23"/>
@@ -7407,10 +7408,10 @@
       <c r="V115" s="26"/>
     </row>
     <row r="116" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="356"/>
+      <c r="A116" s="193"/>
       <c r="B116" s="26"/>
       <c r="E116" s="32"/>
-      <c r="F116" s="179"/>
+      <c r="F116" s="178"/>
       <c r="G116" s="29"/>
       <c r="H116" s="29"/>
       <c r="I116" s="23"/>
@@ -7429,12 +7430,12 @@
       <c r="V116" s="26"/>
     </row>
     <row r="117" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="357" t="s">
+      <c r="A117" s="194" t="s">
         <v>80</v>
       </c>
       <c r="B117" s="24"/>
       <c r="E117" s="32"/>
-      <c r="F117" s="179"/>
+      <c r="F117" s="178"/>
       <c r="G117" s="29"/>
       <c r="H117" s="29"/>
       <c r="I117" s="29"/>
@@ -7453,17 +7454,17 @@
       <c r="V117" s="26"/>
     </row>
     <row r="118" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="358"/>
+      <c r="A118" s="195"/>
       <c r="B118" s="25"/>
       <c r="E118" s="32"/>
-      <c r="F118" s="179"/>
+      <c r="F118" s="178"/>
       <c r="G118" s="26"/>
       <c r="H118" s="26"/>
-      <c r="I118" s="174"/>
-      <c r="J118" s="174"/>
-      <c r="K118" s="174"/>
-      <c r="L118" s="174"/>
-      <c r="M118" s="174"/>
+      <c r="I118" s="173"/>
+      <c r="J118" s="173"/>
+      <c r="K118" s="173"/>
+      <c r="L118" s="173"/>
+      <c r="M118" s="173"/>
       <c r="N118" s="28"/>
       <c r="O118" s="26"/>
       <c r="P118" s="26"/>
@@ -7475,10 +7476,10 @@
       <c r="V118" s="26"/>
     </row>
     <row r="119" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="358"/>
+      <c r="A119" s="195"/>
       <c r="B119" s="23"/>
       <c r="E119" s="32"/>
-      <c r="F119" s="179"/>
+      <c r="F119" s="178"/>
       <c r="G119" s="26"/>
       <c r="H119" s="26"/>
       <c r="I119" s="26"/>
@@ -7497,10 +7498,10 @@
       <c r="V119" s="26"/>
     </row>
     <row r="120" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="358"/>
+      <c r="A120" s="195"/>
       <c r="B120" s="23"/>
       <c r="E120" s="32"/>
-      <c r="F120" s="179"/>
+      <c r="F120" s="178"/>
       <c r="G120" s="26"/>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
@@ -7519,10 +7520,10 @@
       <c r="V120" s="26"/>
     </row>
     <row r="121" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="358"/>
+      <c r="A121" s="195"/>
       <c r="B121" s="28"/>
       <c r="E121" s="32"/>
-      <c r="F121" s="179"/>
+      <c r="F121" s="178"/>
       <c r="G121" s="26"/>
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
@@ -7541,9 +7542,9 @@
       <c r="V121" s="26"/>
     </row>
     <row r="122" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="358"/>
+      <c r="A122" s="195"/>
       <c r="B122" s="26"/>
-      <c r="F122" s="179"/>
+      <c r="F122" s="178"/>
       <c r="G122" s="26"/>
       <c r="H122" s="26"/>
       <c r="I122" s="26"/>
@@ -7562,9 +7563,9 @@
       <c r="V122" s="33"/>
     </row>
     <row r="123" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="359"/>
+      <c r="A123" s="196"/>
       <c r="B123" s="28"/>
-      <c r="F123" s="179"/>
+      <c r="F123" s="178"/>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
       <c r="I123" s="42"/>
@@ -7587,7 +7588,7 @@
         <v>81</v>
       </c>
       <c r="B124" s="26"/>
-      <c r="F124" s="179"/>
+      <c r="F124" s="178"/>
       <c r="G124" s="26"/>
       <c r="H124" s="26"/>
       <c r="I124" s="26"/>
@@ -7931,14 +7932,14 @@
     </row>
     <row r="143" spans="7:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G143" s="26"/>
-      <c r="H143" s="164"/>
-      <c r="I143" s="164"/>
-      <c r="J143" s="164"/>
-      <c r="K143" s="164"/>
-      <c r="L143" s="163"/>
-      <c r="M143" s="164"/>
-      <c r="N143" s="163"/>
-      <c r="O143" s="163"/>
+      <c r="H143" s="163"/>
+      <c r="I143" s="163"/>
+      <c r="J143" s="163"/>
+      <c r="K143" s="163"/>
+      <c r="L143" s="162"/>
+      <c r="M143" s="163"/>
+      <c r="N143" s="162"/>
+      <c r="O143" s="162"/>
       <c r="P143" s="41"/>
       <c r="Q143" s="41"/>
       <c r="R143" s="26"/>
@@ -7949,7 +7950,7 @@
     </row>
     <row r="144" spans="7:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G144" s="26"/>
-      <c r="H144" s="164"/>
+      <c r="H144" s="163"/>
       <c r="I144" s="48"/>
       <c r="J144" s="51"/>
       <c r="K144" s="51"/>
@@ -7967,14 +7968,14 @@
     </row>
     <row r="145" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G145" s="26"/>
-      <c r="H145" s="164"/>
+      <c r="H145" s="163"/>
       <c r="I145" s="48"/>
-      <c r="J145" s="164"/>
-      <c r="K145" s="164"/>
-      <c r="L145" s="164"/>
-      <c r="M145" s="164"/>
-      <c r="N145" s="164"/>
-      <c r="O145" s="164"/>
+      <c r="J145" s="163"/>
+      <c r="K145" s="163"/>
+      <c r="L145" s="163"/>
+      <c r="M145" s="163"/>
+      <c r="N145" s="163"/>
+      <c r="O145" s="163"/>
       <c r="P145" s="41"/>
       <c r="Q145" s="41"/>
       <c r="R145" s="26"/>
@@ -7985,14 +7986,14 @@
     </row>
     <row r="146" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G146" s="26"/>
-      <c r="H146" s="164"/>
+      <c r="H146" s="163"/>
       <c r="I146" s="49"/>
-      <c r="J146" s="164"/>
+      <c r="J146" s="163"/>
       <c r="K146" s="51"/>
-      <c r="L146" s="164"/>
-      <c r="M146" s="164"/>
-      <c r="N146" s="164"/>
-      <c r="O146" s="164"/>
+      <c r="L146" s="163"/>
+      <c r="M146" s="163"/>
+      <c r="N146" s="163"/>
+      <c r="O146" s="163"/>
       <c r="P146" s="41"/>
       <c r="Q146" s="41"/>
       <c r="R146" s="26"/>
@@ -8002,15 +8003,15 @@
       <c r="V146" s="26"/>
     </row>
     <row r="147" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="G147" s="163"/>
+      <c r="G147" s="162"/>
       <c r="H147" s="50"/>
-      <c r="I147" s="163"/>
+      <c r="I147" s="162"/>
       <c r="J147" s="48"/>
-      <c r="K147" s="163"/>
-      <c r="L147" s="163"/>
-      <c r="M147" s="163"/>
+      <c r="K147" s="162"/>
+      <c r="L147" s="162"/>
+      <c r="M147" s="162"/>
       <c r="N147" s="41"/>
-      <c r="O147" s="163"/>
+      <c r="O147" s="162"/>
       <c r="P147" s="41"/>
       <c r="Q147" s="41"/>
       <c r="R147" s="26"/>
@@ -8020,15 +8021,15 @@
       <c r="V147" s="26"/>
     </row>
     <row r="148" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="G148" s="164"/>
+      <c r="G148" s="163"/>
       <c r="H148" s="48"/>
-      <c r="I148" s="164"/>
+      <c r="I148" s="163"/>
       <c r="J148" s="48"/>
-      <c r="K148" s="164"/>
-      <c r="L148" s="164"/>
-      <c r="M148" s="164"/>
+      <c r="K148" s="163"/>
+      <c r="L148" s="163"/>
+      <c r="M148" s="163"/>
       <c r="N148" s="41"/>
-      <c r="O148" s="164"/>
+      <c r="O148" s="163"/>
       <c r="P148" s="41"/>
       <c r="Q148" s="41"/>
       <c r="R148" s="26"/>
@@ -8074,15 +8075,15 @@
       <c r="V150" s="26"/>
     </row>
     <row r="151" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="G151" s="164"/>
+      <c r="G151" s="163"/>
       <c r="H151" s="48"/>
-      <c r="I151" s="164"/>
+      <c r="I151" s="163"/>
       <c r="J151" s="48"/>
-      <c r="K151" s="164"/>
-      <c r="L151" s="164"/>
-      <c r="M151" s="164"/>
+      <c r="K151" s="163"/>
+      <c r="L151" s="163"/>
+      <c r="M151" s="163"/>
       <c r="N151" s="41"/>
-      <c r="O151" s="164"/>
+      <c r="O151" s="163"/>
       <c r="P151" s="41"/>
       <c r="Q151" s="41"/>
       <c r="R151" s="26"/>
@@ -8092,15 +8093,15 @@
       <c r="V151" s="26"/>
     </row>
     <row r="152" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="G152" s="164"/>
+      <c r="G152" s="163"/>
       <c r="H152" s="48"/>
-      <c r="I152" s="164"/>
+      <c r="I152" s="163"/>
       <c r="J152" s="48"/>
-      <c r="K152" s="164"/>
-      <c r="L152" s="164"/>
-      <c r="M152" s="164"/>
+      <c r="K152" s="163"/>
+      <c r="L152" s="163"/>
+      <c r="M152" s="163"/>
       <c r="N152" s="41"/>
-      <c r="O152" s="164"/>
+      <c r="O152" s="163"/>
       <c r="P152" s="41"/>
       <c r="Q152" s="41"/>
       <c r="R152" s="26"/>
@@ -8110,15 +8111,15 @@
       <c r="V152" s="26"/>
     </row>
     <row r="153" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="G153" s="164"/>
+      <c r="G153" s="163"/>
       <c r="H153" s="48"/>
-      <c r="I153" s="164"/>
+      <c r="I153" s="163"/>
       <c r="J153" s="48"/>
-      <c r="K153" s="164"/>
-      <c r="L153" s="164"/>
-      <c r="M153" s="164"/>
+      <c r="K153" s="163"/>
+      <c r="L153" s="163"/>
+      <c r="M153" s="163"/>
       <c r="N153" s="41"/>
-      <c r="O153" s="164"/>
+      <c r="O153" s="163"/>
       <c r="P153" s="41"/>
       <c r="Q153" s="41"/>
       <c r="R153" s="26"/>
@@ -8128,15 +8129,15 @@
       <c r="V153" s="26"/>
     </row>
     <row r="154" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="G154" s="164"/>
+      <c r="G154" s="163"/>
       <c r="H154" s="26"/>
-      <c r="I154" s="164"/>
+      <c r="I154" s="163"/>
       <c r="J154" s="26"/>
-      <c r="K154" s="164"/>
-      <c r="L154" s="164"/>
-      <c r="M154" s="164"/>
+      <c r="K154" s="163"/>
+      <c r="L154" s="163"/>
+      <c r="M154" s="163"/>
       <c r="N154" s="26"/>
-      <c r="O154" s="164"/>
+      <c r="O154" s="163"/>
       <c r="P154" s="26"/>
       <c r="Q154" s="26"/>
       <c r="R154" s="26"/>
@@ -8165,39 +8166,39 @@
     </row>
     <row r="156" spans="1:22" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G156" s="50"/>
-      <c r="H156" s="175"/>
+      <c r="H156" s="174"/>
       <c r="I156" s="50"/>
-      <c r="J156" s="175"/>
+      <c r="J156" s="174"/>
       <c r="K156" s="50"/>
       <c r="L156" s="50"/>
       <c r="M156" s="50"/>
-      <c r="N156" s="175"/>
+      <c r="N156" s="174"/>
       <c r="O156" s="50"/>
-      <c r="P156" s="175"/>
-      <c r="Q156" s="175"/>
-      <c r="R156" s="175"/>
-      <c r="S156" s="175"/>
-      <c r="T156" s="175"/>
-      <c r="U156" s="175"/>
-      <c r="V156" s="175"/>
+      <c r="P156" s="174"/>
+      <c r="Q156" s="174"/>
+      <c r="R156" s="174"/>
+      <c r="S156" s="174"/>
+      <c r="T156" s="174"/>
+      <c r="U156" s="174"/>
+      <c r="V156" s="174"/>
     </row>
     <row r="157" spans="1:22" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="G157" s="164"/>
-      <c r="H157" s="175"/>
-      <c r="I157" s="164"/>
-      <c r="J157" s="175"/>
-      <c r="K157" s="164"/>
-      <c r="L157" s="164"/>
-      <c r="M157" s="164"/>
-      <c r="N157" s="175"/>
-      <c r="O157" s="164"/>
-      <c r="P157" s="175"/>
-      <c r="Q157" s="175"/>
-      <c r="R157" s="175"/>
-      <c r="S157" s="175"/>
-      <c r="T157" s="175"/>
-      <c r="U157" s="175"/>
-      <c r="V157" s="175"/>
+      <c r="G157" s="163"/>
+      <c r="H157" s="174"/>
+      <c r="I157" s="163"/>
+      <c r="J157" s="174"/>
+      <c r="K157" s="163"/>
+      <c r="L157" s="163"/>
+      <c r="M157" s="163"/>
+      <c r="N157" s="174"/>
+      <c r="O157" s="163"/>
+      <c r="P157" s="174"/>
+      <c r="Q157" s="174"/>
+      <c r="R157" s="174"/>
+      <c r="S157" s="174"/>
+      <c r="T157" s="174"/>
+      <c r="U157" s="174"/>
+      <c r="V157" s="174"/>
     </row>
     <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.15"/>
@@ -8380,6 +8381,347 @@
     <row r="200" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="361">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:O90"/>
     <mergeCell ref="G98:H98"/>
     <mergeCell ref="A115:A116"/>
     <mergeCell ref="A117:A123"/>
@@ -8400,347 +8742,6 @@
     <mergeCell ref="K98:L98"/>
     <mergeCell ref="M98:N98"/>
     <mergeCell ref="O98:P98"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="A32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="9">

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36D0EBF-A87A-46AC-862A-F321D85543BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E20FD7-072E-43A6-9065-C1446B66A21E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,13 +170,6 @@
     <definedName name="top_right" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2845,6 +2838,553 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2877,9 +3417,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2912,555 +3449,11 @@
     <xf numFmtId="5" fontId="6" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="5" fontId="6" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3892,8 +3885,8 @@
   </sheetPr>
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J208" sqref="J208"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61:J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3928,18 +3921,18 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="357" t="s">
+      <c r="E2" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="357"/>
-      <c r="G2" s="357"/>
-      <c r="H2" s="357"/>
-      <c r="I2" s="357"/>
-      <c r="J2" s="357"/>
-      <c r="K2" s="357"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
@@ -3954,19 +3947,19 @@
       <c r="C3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="358"/>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="359"/>
-      <c r="H3" s="360"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="215"/>
       <c r="I3" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="358"/>
-      <c r="K3" s="359"/>
-      <c r="L3" s="359"/>
-      <c r="M3" s="359"/>
-      <c r="N3" s="360"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="215"/>
       <c r="O3" s="138" t="s">
         <v>25</v>
       </c>
@@ -3976,24 +3969,24 @@
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="361"/>
-      <c r="C4" s="378"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
       <c r="D4" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="362"/>
-      <c r="F4" s="363"/>
-      <c r="G4" s="364"/>
-      <c r="H4" s="365" t="s">
+      <c r="E4" s="218"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="366"/>
-      <c r="J4" s="367"/>
-      <c r="K4" s="367"/>
-      <c r="L4" s="365" t="s">
+      <c r="I4" s="222"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="366"/>
+      <c r="M4" s="222"/>
       <c r="N4" s="119"/>
       <c r="O4" s="130" t="s">
         <v>63</v>
@@ -4004,36 +3997,36 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="368"/>
-      <c r="B5" s="369"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
-      <c r="G5" s="369"/>
-      <c r="H5" s="369"/>
-      <c r="I5" s="369"/>
-      <c r="J5" s="369"/>
-      <c r="K5" s="369"/>
-      <c r="L5" s="369"/>
-      <c r="M5" s="369"/>
-      <c r="N5" s="369"/>
-      <c r="O5" s="369"/>
-      <c r="P5" s="370"/>
+      <c r="A5" s="224"/>
+      <c r="B5" s="225"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="225"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="225"/>
+      <c r="L5" s="225"/>
+      <c r="M5" s="225"/>
+      <c r="N5" s="225"/>
+      <c r="O5" s="225"/>
+      <c r="P5" s="226"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="372" t="s">
+      <c r="A6" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="373"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="374" t="s">
+      <c r="D6" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="375"/>
-      <c r="F6" s="373"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="104" t="s">
         <v>7</v>
       </c>
@@ -4046,18 +4039,18 @@
       <c r="J6" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="376" t="s">
+      <c r="K6" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="377"/>
+      <c r="L6" s="196"/>
       <c r="M6" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="342" t="s">
+      <c r="N6" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="343"/>
-      <c r="P6" s="344"/>
+      <c r="O6" s="198"/>
+      <c r="P6" s="199"/>
       <c r="S6" s="1" t="s">
         <v>61</v>
       </c>
@@ -4066,25 +4059,25 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="345"/>
-      <c r="B7" s="346"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="348"/>
-      <c r="F7" s="349"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
       <c r="G7" s="70"/>
       <c r="H7" s="87"/>
       <c r="I7" s="71"/>
       <c r="J7" s="122"/>
-      <c r="K7" s="316">
+      <c r="K7" s="205">
         <f>IFERROR(G7*I7*J7,"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="317"/>
+      <c r="L7" s="206"/>
       <c r="M7" s="113"/>
-      <c r="N7" s="354"/>
-      <c r="O7" s="355"/>
-      <c r="P7" s="356"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="209"/>
       <c r="S7" s="1">
         <f>IF(AND($A7=hdn_product_sales,$C7=hdn_main_product,ISNUMBER($I7)=TRUE,$J7&gt;0,ISNUMBER($G7)=TRUE,ISNUMBER($K7)=TRUE),$G7,0)</f>
         <v>0</v>
@@ -4098,25 +4091,25 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="345"/>
-      <c r="B8" s="346"/>
+      <c r="A8" s="200"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="85"/>
-      <c r="D8" s="347"/>
-      <c r="E8" s="348"/>
-      <c r="F8" s="349"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="204"/>
       <c r="G8" s="72"/>
       <c r="H8" s="88"/>
       <c r="I8" s="73"/>
       <c r="J8" s="122"/>
-      <c r="K8" s="316">
+      <c r="K8" s="205">
         <f t="shared" ref="K8:K15" si="1">IFERROR(G8*I8*J8,"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="317"/>
+      <c r="L8" s="206"/>
       <c r="M8" s="113"/>
-      <c r="N8" s="354"/>
-      <c r="O8" s="355"/>
-      <c r="P8" s="356"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="208"/>
+      <c r="P8" s="209"/>
       <c r="S8" s="1">
         <f t="shared" ref="S8:S15" si="2">IF(AND($A8=hdn_product_sales,$C8=hdn_main_product,ISNUMBER($I8)=TRUE,$J8&gt;0,ISNUMBER($G8)=TRUE,ISNUMBER($K8)=TRUE),$G8,0)</f>
         <v>0</v>
@@ -4130,25 +4123,25 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="345"/>
-      <c r="B9" s="346"/>
+      <c r="A9" s="200"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="85"/>
-      <c r="D9" s="347"/>
-      <c r="E9" s="348"/>
-      <c r="F9" s="349"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="204"/>
       <c r="G9" s="72"/>
       <c r="H9" s="88"/>
       <c r="I9" s="73"/>
       <c r="J9" s="123"/>
-      <c r="K9" s="316">
+      <c r="K9" s="205">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="317"/>
+      <c r="L9" s="206"/>
       <c r="M9" s="112"/>
-      <c r="N9" s="350"/>
-      <c r="O9" s="350"/>
-      <c r="P9" s="351"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
+      <c r="P9" s="211"/>
       <c r="S9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4162,25 +4155,25 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="345"/>
-      <c r="B10" s="346"/>
+      <c r="A10" s="200"/>
+      <c r="B10" s="201"/>
       <c r="C10" s="85"/>
-      <c r="D10" s="347"/>
-      <c r="E10" s="348"/>
-      <c r="F10" s="349"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="204"/>
       <c r="G10" s="72"/>
       <c r="H10" s="88"/>
       <c r="I10" s="73"/>
       <c r="J10" s="123"/>
-      <c r="K10" s="316">
+      <c r="K10" s="205">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="317"/>
+      <c r="L10" s="206"/>
       <c r="M10" s="112"/>
-      <c r="N10" s="350"/>
-      <c r="O10" s="350"/>
-      <c r="P10" s="351"/>
+      <c r="N10" s="210"/>
+      <c r="O10" s="210"/>
+      <c r="P10" s="211"/>
       <c r="S10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4195,25 +4188,25 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="345"/>
-      <c r="B11" s="346"/>
+      <c r="A11" s="200"/>
+      <c r="B11" s="201"/>
       <c r="C11" s="85"/>
-      <c r="D11" s="347"/>
-      <c r="E11" s="348"/>
-      <c r="F11" s="349"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="204"/>
       <c r="G11" s="72"/>
       <c r="H11" s="88"/>
       <c r="I11" s="73"/>
       <c r="J11" s="123"/>
-      <c r="K11" s="316">
+      <c r="K11" s="205">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="317"/>
+      <c r="L11" s="206"/>
       <c r="M11" s="112"/>
-      <c r="N11" s="350"/>
-      <c r="O11" s="350"/>
-      <c r="P11" s="351"/>
+      <c r="N11" s="210"/>
+      <c r="O11" s="210"/>
+      <c r="P11" s="211"/>
       <c r="S11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4228,25 +4221,25 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="345"/>
-      <c r="B12" s="346"/>
+      <c r="A12" s="200"/>
+      <c r="B12" s="201"/>
       <c r="C12" s="85"/>
-      <c r="D12" s="347"/>
-      <c r="E12" s="348"/>
-      <c r="F12" s="349"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="204"/>
       <c r="G12" s="72"/>
       <c r="H12" s="88"/>
       <c r="I12" s="73"/>
       <c r="J12" s="123"/>
-      <c r="K12" s="316">
+      <c r="K12" s="205">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="317"/>
+      <c r="L12" s="206"/>
       <c r="M12" s="112"/>
-      <c r="N12" s="350"/>
-      <c r="O12" s="350"/>
-      <c r="P12" s="351"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
+      <c r="P12" s="211"/>
       <c r="S12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4261,25 +4254,25 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="345"/>
-      <c r="B13" s="346"/>
+      <c r="A13" s="200"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="85"/>
-      <c r="D13" s="347"/>
-      <c r="E13" s="348"/>
-      <c r="F13" s="349"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="204"/>
       <c r="G13" s="72"/>
       <c r="H13" s="88"/>
       <c r="I13" s="73"/>
       <c r="J13" s="123"/>
-      <c r="K13" s="316">
+      <c r="K13" s="205">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="317"/>
+      <c r="L13" s="206"/>
       <c r="M13" s="112"/>
-      <c r="N13" s="350"/>
-      <c r="O13" s="350"/>
-      <c r="P13" s="351"/>
+      <c r="N13" s="210"/>
+      <c r="O13" s="210"/>
+      <c r="P13" s="211"/>
       <c r="S13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4294,25 +4287,25 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="345"/>
-      <c r="B14" s="346"/>
+      <c r="A14" s="200"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="85"/>
-      <c r="D14" s="347"/>
-      <c r="E14" s="348"/>
-      <c r="F14" s="349"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="204"/>
       <c r="G14" s="72"/>
       <c r="H14" s="88"/>
       <c r="I14" s="73"/>
       <c r="J14" s="123"/>
-      <c r="K14" s="316">
+      <c r="K14" s="205">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="317"/>
+      <c r="L14" s="206"/>
       <c r="M14" s="112"/>
-      <c r="N14" s="350"/>
-      <c r="O14" s="350"/>
-      <c r="P14" s="351"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="210"/>
+      <c r="P14" s="211"/>
       <c r="S14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4327,25 +4320,25 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="345"/>
-      <c r="B15" s="346"/>
+      <c r="A15" s="200"/>
+      <c r="B15" s="201"/>
       <c r="C15" s="86"/>
-      <c r="D15" s="347"/>
-      <c r="E15" s="348"/>
-      <c r="F15" s="349"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
       <c r="G15" s="74"/>
       <c r="H15" s="89"/>
       <c r="I15" s="75"/>
       <c r="J15" s="124"/>
-      <c r="K15" s="316">
+      <c r="K15" s="205">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="317"/>
+      <c r="L15" s="206"/>
       <c r="M15" s="114"/>
-      <c r="N15" s="352"/>
-      <c r="O15" s="352"/>
-      <c r="P15" s="353"/>
+      <c r="N15" s="228"/>
+      <c r="O15" s="228"/>
+      <c r="P15" s="229"/>
       <c r="S15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4360,68 +4353,68 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="328" t="s">
+      <c r="A16" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="329"/>
-      <c r="C16" s="329"/>
-      <c r="D16" s="329"/>
-      <c r="E16" s="329"/>
-      <c r="F16" s="330"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
+      <c r="F16" s="240"/>
       <c r="G16" s="79">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
       <c r="H16" s="76"/>
-      <c r="I16" s="331">
+      <c r="I16" s="241">
         <f>SUM(K7:K15)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="332"/>
-      <c r="K16" s="332"/>
-      <c r="L16" s="333"/>
+      <c r="J16" s="242"/>
+      <c r="K16" s="242"/>
+      <c r="L16" s="243"/>
       <c r="M16" s="115"/>
-      <c r="N16" s="334"/>
-      <c r="O16" s="334"/>
-      <c r="P16" s="335"/>
+      <c r="N16" s="244"/>
+      <c r="O16" s="244"/>
+      <c r="P16" s="245"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
     </row>
     <row r="17" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="308"/>
-      <c r="B17" s="309"/>
-      <c r="C17" s="309"/>
-      <c r="D17" s="309"/>
-      <c r="E17" s="309"/>
-      <c r="F17" s="309"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="309"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="309"/>
-      <c r="L17" s="309"/>
-      <c r="M17" s="309"/>
-      <c r="N17" s="309"/>
-      <c r="O17" s="309"/>
-      <c r="P17" s="310"/>
+      <c r="A17" s="246"/>
+      <c r="B17" s="247"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="247"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="247"/>
+      <c r="J17" s="247"/>
+      <c r="K17" s="247"/>
+      <c r="L17" s="247"/>
+      <c r="M17" s="247"/>
+      <c r="N17" s="247"/>
+      <c r="O17" s="247"/>
+      <c r="P17" s="248"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="336" t="s">
+      <c r="A18" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="337"/>
+      <c r="B18" s="250"/>
       <c r="C18" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="338" t="s">
+      <c r="D18" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="339"/>
-      <c r="F18" s="337"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="250"/>
       <c r="G18" s="109" t="s">
         <v>7</v>
       </c>
@@ -4434,39 +4427,39 @@
       <c r="J18" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="340" t="s">
+      <c r="K18" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="341"/>
+      <c r="L18" s="254"/>
       <c r="M18" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="342" t="s">
+      <c r="N18" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="343"/>
-      <c r="P18" s="344"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="199"/>
     </row>
     <row r="19" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="311"/>
-      <c r="B19" s="312"/>
+      <c r="A19" s="230"/>
+      <c r="B19" s="231"/>
       <c r="C19" s="90"/>
-      <c r="D19" s="313"/>
-      <c r="E19" s="314"/>
-      <c r="F19" s="315"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="234"/>
       <c r="G19" s="5"/>
       <c r="H19" s="91"/>
       <c r="I19" s="6"/>
       <c r="J19" s="125"/>
-      <c r="K19" s="316">
+      <c r="K19" s="205">
         <f>IFERROR(G19*I19*J19,"")</f>
         <v>0</v>
       </c>
-      <c r="L19" s="317"/>
+      <c r="L19" s="206"/>
       <c r="M19" s="113"/>
-      <c r="N19" s="325"/>
-      <c r="O19" s="326"/>
-      <c r="P19" s="327"/>
+      <c r="N19" s="235"/>
+      <c r="O19" s="236"/>
+      <c r="P19" s="237"/>
       <c r="U19" s="1">
         <f t="shared" ref="U19:U30" si="3">IFERROR(VLOOKUP(H19,$C$101:$D$103,2,FALSE),1)</f>
         <v>1</v>
@@ -4476,25 +4469,25 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="311"/>
-      <c r="B20" s="312"/>
+      <c r="A20" s="230"/>
+      <c r="B20" s="231"/>
       <c r="C20" s="90"/>
-      <c r="D20" s="313"/>
-      <c r="E20" s="314"/>
-      <c r="F20" s="315"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="234"/>
       <c r="G20" s="7"/>
       <c r="H20" s="92"/>
       <c r="I20" s="8"/>
       <c r="J20" s="126"/>
-      <c r="K20" s="316">
+      <c r="K20" s="205">
         <f t="shared" ref="K20:K30" si="4">IFERROR(G20*I20*J20,"")</f>
         <v>0</v>
       </c>
-      <c r="L20" s="317"/>
+      <c r="L20" s="206"/>
       <c r="M20" s="113"/>
-      <c r="N20" s="325"/>
-      <c r="O20" s="326"/>
-      <c r="P20" s="327"/>
+      <c r="N20" s="235"/>
+      <c r="O20" s="236"/>
+      <c r="P20" s="237"/>
       <c r="U20" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4504,25 +4497,25 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="311"/>
-      <c r="B21" s="312"/>
+      <c r="A21" s="230"/>
+      <c r="B21" s="231"/>
       <c r="C21" s="90"/>
-      <c r="D21" s="313"/>
-      <c r="E21" s="314"/>
-      <c r="F21" s="315"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="234"/>
       <c r="G21" s="7"/>
       <c r="H21" s="92"/>
       <c r="I21" s="8"/>
       <c r="J21" s="126"/>
-      <c r="K21" s="316">
+      <c r="K21" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="317"/>
+      <c r="L21" s="206"/>
       <c r="M21" s="113"/>
-      <c r="N21" s="270"/>
-      <c r="O21" s="270"/>
-      <c r="P21" s="271"/>
+      <c r="N21" s="255"/>
+      <c r="O21" s="255"/>
+      <c r="P21" s="256"/>
       <c r="S21" s="9"/>
       <c r="T21" s="10"/>
       <c r="U21" s="1">
@@ -4534,25 +4527,25 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="311"/>
-      <c r="B22" s="312"/>
+      <c r="A22" s="230"/>
+      <c r="B22" s="231"/>
       <c r="C22" s="90"/>
-      <c r="D22" s="313"/>
-      <c r="E22" s="314"/>
-      <c r="F22" s="315"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="234"/>
       <c r="G22" s="7"/>
       <c r="H22" s="92"/>
       <c r="I22" s="8"/>
       <c r="J22" s="126"/>
-      <c r="K22" s="316">
+      <c r="K22" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="317"/>
+      <c r="L22" s="206"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="270"/>
-      <c r="O22" s="270"/>
-      <c r="P22" s="271"/>
+      <c r="N22" s="255"/>
+      <c r="O22" s="255"/>
+      <c r="P22" s="256"/>
       <c r="S22" s="9"/>
       <c r="T22" s="10"/>
       <c r="U22" s="1">
@@ -4564,25 +4557,25 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="311"/>
-      <c r="B23" s="312"/>
+      <c r="A23" s="230"/>
+      <c r="B23" s="231"/>
       <c r="C23" s="90"/>
-      <c r="D23" s="313"/>
-      <c r="E23" s="314"/>
-      <c r="F23" s="315"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="234"/>
       <c r="G23" s="7"/>
       <c r="H23" s="92"/>
       <c r="I23" s="8"/>
       <c r="J23" s="126"/>
-      <c r="K23" s="316">
+      <c r="K23" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L23" s="317"/>
+      <c r="L23" s="206"/>
       <c r="M23" s="113"/>
-      <c r="N23" s="270"/>
-      <c r="O23" s="270"/>
-      <c r="P23" s="271"/>
+      <c r="N23" s="255"/>
+      <c r="O23" s="255"/>
+      <c r="P23" s="256"/>
       <c r="S23" s="9"/>
       <c r="T23" s="10"/>
       <c r="U23" s="1">
@@ -4594,25 +4587,25 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="311"/>
-      <c r="B24" s="312"/>
+      <c r="A24" s="230"/>
+      <c r="B24" s="231"/>
       <c r="C24" s="90"/>
-      <c r="D24" s="313"/>
-      <c r="E24" s="314"/>
-      <c r="F24" s="315"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="234"/>
       <c r="G24" s="7"/>
       <c r="H24" s="92"/>
       <c r="I24" s="8"/>
       <c r="J24" s="126"/>
-      <c r="K24" s="316">
+      <c r="K24" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L24" s="317"/>
+      <c r="L24" s="206"/>
       <c r="M24" s="113"/>
-      <c r="N24" s="270"/>
-      <c r="O24" s="270"/>
-      <c r="P24" s="271"/>
+      <c r="N24" s="255"/>
+      <c r="O24" s="255"/>
+      <c r="P24" s="256"/>
       <c r="S24" s="9"/>
       <c r="T24" s="10"/>
       <c r="U24" s="1">
@@ -4624,25 +4617,25 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="311"/>
-      <c r="B25" s="312"/>
+      <c r="A25" s="230"/>
+      <c r="B25" s="231"/>
       <c r="C25" s="90"/>
-      <c r="D25" s="313"/>
-      <c r="E25" s="314"/>
-      <c r="F25" s="315"/>
+      <c r="D25" s="232"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="234"/>
       <c r="G25" s="7"/>
       <c r="H25" s="92"/>
       <c r="I25" s="8"/>
       <c r="J25" s="126"/>
-      <c r="K25" s="316">
+      <c r="K25" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L25" s="317"/>
+      <c r="L25" s="206"/>
       <c r="M25" s="113"/>
-      <c r="N25" s="270"/>
-      <c r="O25" s="270"/>
-      <c r="P25" s="271"/>
+      <c r="N25" s="255"/>
+      <c r="O25" s="255"/>
+      <c r="P25" s="256"/>
       <c r="S25" s="9"/>
       <c r="T25" s="10"/>
       <c r="U25" s="1">
@@ -4654,25 +4647,25 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="311"/>
-      <c r="B26" s="312"/>
+      <c r="A26" s="230"/>
+      <c r="B26" s="231"/>
       <c r="C26" s="90"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="314"/>
-      <c r="F26" s="315"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="234"/>
       <c r="G26" s="7"/>
       <c r="H26" s="92"/>
       <c r="I26" s="8"/>
       <c r="J26" s="126"/>
-      <c r="K26" s="316">
+      <c r="K26" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="317"/>
+      <c r="L26" s="206"/>
       <c r="M26" s="113"/>
-      <c r="N26" s="270"/>
-      <c r="O26" s="270"/>
-      <c r="P26" s="271"/>
+      <c r="N26" s="255"/>
+      <c r="O26" s="255"/>
+      <c r="P26" s="256"/>
       <c r="S26" s="9"/>
       <c r="T26" s="10"/>
       <c r="U26" s="1">
@@ -4684,25 +4677,25 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="311"/>
-      <c r="B27" s="312"/>
+      <c r="A27" s="230"/>
+      <c r="B27" s="231"/>
       <c r="C27" s="90"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
-      <c r="F27" s="315"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="234"/>
       <c r="G27" s="7"/>
       <c r="H27" s="92"/>
       <c r="I27" s="8"/>
       <c r="J27" s="126"/>
-      <c r="K27" s="316">
+      <c r="K27" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L27" s="317"/>
+      <c r="L27" s="206"/>
       <c r="M27" s="113"/>
-      <c r="N27" s="270"/>
-      <c r="O27" s="270"/>
-      <c r="P27" s="271"/>
+      <c r="N27" s="255"/>
+      <c r="O27" s="255"/>
+      <c r="P27" s="256"/>
       <c r="S27" s="9"/>
       <c r="T27" s="10"/>
       <c r="U27" s="1">
@@ -4714,25 +4707,25 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="311"/>
-      <c r="B28" s="312"/>
+      <c r="A28" s="230"/>
+      <c r="B28" s="231"/>
       <c r="C28" s="90"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="314"/>
-      <c r="F28" s="315"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="234"/>
       <c r="G28" s="7"/>
       <c r="H28" s="92"/>
       <c r="I28" s="8"/>
       <c r="J28" s="126"/>
-      <c r="K28" s="316">
+      <c r="K28" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L28" s="317"/>
+      <c r="L28" s="206"/>
       <c r="M28" s="113"/>
-      <c r="N28" s="270"/>
-      <c r="O28" s="270"/>
-      <c r="P28" s="271"/>
+      <c r="N28" s="255"/>
+      <c r="O28" s="255"/>
+      <c r="P28" s="256"/>
       <c r="S28" s="9"/>
       <c r="T28" s="10"/>
       <c r="U28" s="1">
@@ -4744,25 +4737,25 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="311"/>
-      <c r="B29" s="312"/>
+      <c r="A29" s="230"/>
+      <c r="B29" s="231"/>
       <c r="C29" s="90"/>
-      <c r="D29" s="313"/>
-      <c r="E29" s="314"/>
-      <c r="F29" s="315"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="234"/>
       <c r="G29" s="7"/>
       <c r="H29" s="92"/>
       <c r="I29" s="8"/>
       <c r="J29" s="126"/>
-      <c r="K29" s="316">
+      <c r="K29" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L29" s="317"/>
+      <c r="L29" s="206"/>
       <c r="M29" s="113"/>
-      <c r="N29" s="270"/>
-      <c r="O29" s="270"/>
-      <c r="P29" s="271"/>
+      <c r="N29" s="255"/>
+      <c r="O29" s="255"/>
+      <c r="P29" s="256"/>
       <c r="S29" s="9"/>
       <c r="T29" s="10"/>
       <c r="U29" s="1">
@@ -4774,25 +4767,25 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="318"/>
-      <c r="B30" s="319"/>
+      <c r="A30" s="270"/>
+      <c r="B30" s="271"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="320"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="322"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="273"/>
+      <c r="F30" s="274"/>
       <c r="G30" s="55"/>
       <c r="H30" s="93"/>
       <c r="I30" s="54"/>
       <c r="J30" s="127"/>
-      <c r="K30" s="316">
+      <c r="K30" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="317"/>
+      <c r="L30" s="206"/>
       <c r="M30" s="117"/>
-      <c r="N30" s="323"/>
-      <c r="O30" s="323"/>
-      <c r="P30" s="324"/>
+      <c r="N30" s="275"/>
+      <c r="O30" s="275"/>
+      <c r="P30" s="276"/>
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
       <c r="U30" s="1">
@@ -4804,67 +4797,67 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="303" t="s">
+      <c r="A31" s="257" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="304"/>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
-      <c r="F31" s="305"/>
+      <c r="B31" s="258"/>
+      <c r="C31" s="258"/>
+      <c r="D31" s="258"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="259"/>
       <c r="G31" s="78">
         <f>SUM(G19:G30)</f>
         <v>0</v>
       </c>
       <c r="H31" s="56"/>
-      <c r="I31" s="282">
+      <c r="I31" s="260">
         <f>SUM(K19:K30)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="283"/>
-      <c r="K31" s="283"/>
-      <c r="L31" s="284"/>
+      <c r="J31" s="261"/>
+      <c r="K31" s="261"/>
+      <c r="L31" s="262"/>
       <c r="M31" s="116"/>
-      <c r="N31" s="306"/>
-      <c r="O31" s="306"/>
-      <c r="P31" s="307"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="263"/>
+      <c r="P31" s="264"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
     </row>
     <row r="32" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="308"/>
-      <c r="B32" s="309"/>
-      <c r="C32" s="309"/>
-      <c r="D32" s="309"/>
-      <c r="E32" s="309"/>
-      <c r="F32" s="309"/>
-      <c r="G32" s="309"/>
-      <c r="H32" s="309"/>
-      <c r="I32" s="309"/>
-      <c r="J32" s="309"/>
-      <c r="K32" s="309"/>
-      <c r="L32" s="309"/>
-      <c r="M32" s="309"/>
-      <c r="N32" s="309"/>
-      <c r="O32" s="309"/>
-      <c r="P32" s="310"/>
+      <c r="A32" s="246"/>
+      <c r="B32" s="247"/>
+      <c r="C32" s="247"/>
+      <c r="D32" s="247"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="247"/>
+      <c r="G32" s="247"/>
+      <c r="H32" s="247"/>
+      <c r="I32" s="247"/>
+      <c r="J32" s="247"/>
+      <c r="K32" s="247"/>
+      <c r="L32" s="247"/>
+      <c r="M32" s="247"/>
+      <c r="N32" s="247"/>
+      <c r="O32" s="247"/>
+      <c r="P32" s="248"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
     </row>
     <row r="33" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="291" t="s">
+      <c r="A33" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="292"/>
+      <c r="B33" s="266"/>
       <c r="C33" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="293" t="s">
+      <c r="D33" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="292"/>
+      <c r="E33" s="266"/>
       <c r="F33" s="190" t="s">
         <v>15</v>
       </c>
@@ -4880,42 +4873,42 @@
       <c r="J33" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="293" t="s">
+      <c r="K33" s="267" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="292"/>
+      <c r="L33" s="266"/>
       <c r="M33" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="N33" s="293" t="s">
+      <c r="N33" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="O33" s="294"/>
-      <c r="P33" s="295"/>
+      <c r="O33" s="268"/>
+      <c r="P33" s="269"/>
       <c r="R33" s="46" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="274"/>
-      <c r="B34" s="275"/>
+      <c r="A34" s="277"/>
+      <c r="B34" s="278"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="276"/>
-      <c r="E34" s="275"/>
+      <c r="D34" s="279"/>
+      <c r="E34" s="278"/>
       <c r="F34" s="95"/>
       <c r="G34" s="7"/>
       <c r="H34" s="98"/>
       <c r="I34" s="8"/>
       <c r="J34" s="126"/>
-      <c r="K34" s="277">
+      <c r="K34" s="280">
         <f>IFERROR(G34*I34*J34,"")</f>
         <v>0</v>
       </c>
-      <c r="L34" s="278"/>
+      <c r="L34" s="281"/>
       <c r="M34" s="113"/>
-      <c r="N34" s="296"/>
-      <c r="O34" s="296"/>
-      <c r="P34" s="297"/>
+      <c r="N34" s="282"/>
+      <c r="O34" s="282"/>
+      <c r="P34" s="283"/>
       <c r="R34" s="43"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
@@ -4928,25 +4921,25 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="274"/>
-      <c r="B35" s="275"/>
+      <c r="A35" s="277"/>
+      <c r="B35" s="278"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="276"/>
-      <c r="E35" s="275"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="278"/>
       <c r="F35" s="95"/>
       <c r="G35" s="7"/>
       <c r="H35" s="98"/>
       <c r="I35" s="8"/>
       <c r="J35" s="126"/>
-      <c r="K35" s="277">
+      <c r="K35" s="280">
         <f t="shared" ref="K35:K57" si="6">IFERROR(G35*I35*J35,"")</f>
         <v>0</v>
       </c>
-      <c r="L35" s="278"/>
+      <c r="L35" s="281"/>
       <c r="M35" s="113"/>
-      <c r="N35" s="296"/>
-      <c r="O35" s="296"/>
-      <c r="P35" s="297"/>
+      <c r="N35" s="282"/>
+      <c r="O35" s="282"/>
+      <c r="P35" s="283"/>
       <c r="R35" s="43"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
@@ -4959,25 +4952,25 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="274"/>
-      <c r="B36" s="275"/>
+      <c r="A36" s="277"/>
+      <c r="B36" s="278"/>
       <c r="C36" s="94"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="275"/>
+      <c r="D36" s="279"/>
+      <c r="E36" s="278"/>
       <c r="F36" s="95"/>
       <c r="G36" s="7"/>
       <c r="H36" s="98"/>
       <c r="I36" s="8"/>
       <c r="J36" s="126"/>
-      <c r="K36" s="277">
+      <c r="K36" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L36" s="278"/>
+      <c r="L36" s="281"/>
       <c r="M36" s="113"/>
-      <c r="N36" s="296"/>
-      <c r="O36" s="296"/>
-      <c r="P36" s="297"/>
+      <c r="N36" s="282"/>
+      <c r="O36" s="282"/>
+      <c r="P36" s="283"/>
       <c r="R36" s="43"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
@@ -4990,25 +4983,25 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="274"/>
-      <c r="B37" s="275"/>
+      <c r="A37" s="277"/>
+      <c r="B37" s="278"/>
       <c r="C37" s="94"/>
-      <c r="D37" s="276"/>
-      <c r="E37" s="275"/>
+      <c r="D37" s="279"/>
+      <c r="E37" s="278"/>
       <c r="F37" s="95"/>
       <c r="G37" s="7"/>
       <c r="H37" s="98"/>
       <c r="I37" s="8"/>
       <c r="J37" s="126"/>
-      <c r="K37" s="277">
+      <c r="K37" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L37" s="278"/>
+      <c r="L37" s="281"/>
       <c r="M37" s="113"/>
-      <c r="N37" s="296"/>
-      <c r="O37" s="296"/>
-      <c r="P37" s="297"/>
+      <c r="N37" s="282"/>
+      <c r="O37" s="282"/>
+      <c r="P37" s="283"/>
       <c r="R37" s="43"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
@@ -5021,25 +5014,25 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="274"/>
-      <c r="B38" s="275"/>
+      <c r="A38" s="277"/>
+      <c r="B38" s="278"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="276"/>
-      <c r="E38" s="275"/>
+      <c r="D38" s="279"/>
+      <c r="E38" s="278"/>
       <c r="F38" s="95"/>
       <c r="G38" s="7"/>
       <c r="H38" s="98"/>
       <c r="I38" s="8"/>
       <c r="J38" s="126"/>
-      <c r="K38" s="277">
+      <c r="K38" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L38" s="278"/>
+      <c r="L38" s="281"/>
       <c r="M38" s="113"/>
-      <c r="N38" s="296"/>
-      <c r="O38" s="296"/>
-      <c r="P38" s="297"/>
+      <c r="N38" s="282"/>
+      <c r="O38" s="282"/>
+      <c r="P38" s="283"/>
       <c r="R38" s="43"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
@@ -5052,25 +5045,25 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="274"/>
-      <c r="B39" s="275"/>
+      <c r="A39" s="277"/>
+      <c r="B39" s="278"/>
       <c r="C39" s="94"/>
-      <c r="D39" s="276"/>
-      <c r="E39" s="275"/>
+      <c r="D39" s="279"/>
+      <c r="E39" s="278"/>
       <c r="F39" s="95"/>
       <c r="G39" s="7"/>
       <c r="H39" s="98"/>
       <c r="I39" s="8"/>
       <c r="J39" s="126"/>
-      <c r="K39" s="277">
+      <c r="K39" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L39" s="278"/>
+      <c r="L39" s="281"/>
       <c r="M39" s="113"/>
-      <c r="N39" s="296"/>
-      <c r="O39" s="296"/>
-      <c r="P39" s="297"/>
+      <c r="N39" s="282"/>
+      <c r="O39" s="282"/>
+      <c r="P39" s="283"/>
       <c r="R39" s="43"/>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
@@ -5083,25 +5076,25 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="274"/>
-      <c r="B40" s="275"/>
+      <c r="A40" s="277"/>
+      <c r="B40" s="278"/>
       <c r="C40" s="94"/>
-      <c r="D40" s="276"/>
-      <c r="E40" s="275"/>
+      <c r="D40" s="279"/>
+      <c r="E40" s="278"/>
       <c r="F40" s="95"/>
       <c r="G40" s="7"/>
       <c r="H40" s="98"/>
       <c r="I40" s="8"/>
       <c r="J40" s="126"/>
-      <c r="K40" s="277">
+      <c r="K40" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L40" s="278"/>
+      <c r="L40" s="281"/>
       <c r="M40" s="113"/>
-      <c r="N40" s="296"/>
-      <c r="O40" s="296"/>
-      <c r="P40" s="297"/>
+      <c r="N40" s="282"/>
+      <c r="O40" s="282"/>
+      <c r="P40" s="283"/>
       <c r="R40" s="43"/>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
@@ -5114,25 +5107,25 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="274"/>
-      <c r="B41" s="275"/>
+      <c r="A41" s="277"/>
+      <c r="B41" s="278"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="276"/>
-      <c r="E41" s="275"/>
+      <c r="D41" s="279"/>
+      <c r="E41" s="278"/>
       <c r="F41" s="95"/>
       <c r="G41" s="7"/>
       <c r="H41" s="98"/>
       <c r="I41" s="8"/>
       <c r="J41" s="126"/>
-      <c r="K41" s="277">
+      <c r="K41" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L41" s="278"/>
+      <c r="L41" s="281"/>
       <c r="M41" s="113"/>
-      <c r="N41" s="296"/>
-      <c r="O41" s="296"/>
-      <c r="P41" s="297"/>
+      <c r="N41" s="282"/>
+      <c r="O41" s="282"/>
+      <c r="P41" s="283"/>
       <c r="R41" s="43"/>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
@@ -5145,25 +5138,25 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="274"/>
-      <c r="B42" s="275"/>
+      <c r="A42" s="277"/>
+      <c r="B42" s="278"/>
       <c r="C42" s="94"/>
-      <c r="D42" s="276"/>
-      <c r="E42" s="275"/>
+      <c r="D42" s="279"/>
+      <c r="E42" s="278"/>
       <c r="F42" s="95"/>
       <c r="G42" s="7"/>
       <c r="H42" s="98"/>
       <c r="I42" s="8"/>
       <c r="J42" s="126"/>
-      <c r="K42" s="277">
+      <c r="K42" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L42" s="278"/>
+      <c r="L42" s="281"/>
       <c r="M42" s="113"/>
-      <c r="N42" s="300"/>
-      <c r="O42" s="301"/>
-      <c r="P42" s="302"/>
+      <c r="N42" s="284"/>
+      <c r="O42" s="285"/>
+      <c r="P42" s="286"/>
       <c r="R42" s="43"/>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
@@ -5176,25 +5169,25 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="274"/>
-      <c r="B43" s="275"/>
+      <c r="A43" s="277"/>
+      <c r="B43" s="278"/>
       <c r="C43" s="94"/>
-      <c r="D43" s="276"/>
-      <c r="E43" s="275"/>
+      <c r="D43" s="279"/>
+      <c r="E43" s="278"/>
       <c r="F43" s="95"/>
       <c r="G43" s="7"/>
       <c r="H43" s="98"/>
       <c r="I43" s="8"/>
       <c r="J43" s="126"/>
-      <c r="K43" s="277">
+      <c r="K43" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L43" s="278"/>
+      <c r="L43" s="281"/>
       <c r="M43" s="113"/>
-      <c r="N43" s="296"/>
-      <c r="O43" s="296"/>
-      <c r="P43" s="297"/>
+      <c r="N43" s="282"/>
+      <c r="O43" s="282"/>
+      <c r="P43" s="283"/>
       <c r="R43" s="43"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
@@ -5207,25 +5200,25 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="274"/>
-      <c r="B44" s="275"/>
+      <c r="A44" s="277"/>
+      <c r="B44" s="278"/>
       <c r="C44" s="94"/>
-      <c r="D44" s="276"/>
-      <c r="E44" s="275"/>
+      <c r="D44" s="279"/>
+      <c r="E44" s="278"/>
       <c r="F44" s="95"/>
       <c r="G44" s="7"/>
       <c r="H44" s="98"/>
       <c r="I44" s="8"/>
       <c r="J44" s="126"/>
-      <c r="K44" s="277">
+      <c r="K44" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L44" s="278"/>
+      <c r="L44" s="281"/>
       <c r="M44" s="113"/>
-      <c r="N44" s="296"/>
-      <c r="O44" s="296"/>
-      <c r="P44" s="297"/>
+      <c r="N44" s="282"/>
+      <c r="O44" s="282"/>
+      <c r="P44" s="283"/>
       <c r="R44" s="43"/>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
@@ -5238,25 +5231,25 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="274"/>
-      <c r="B45" s="275"/>
+      <c r="A45" s="277"/>
+      <c r="B45" s="278"/>
       <c r="C45" s="94"/>
-      <c r="D45" s="276"/>
-      <c r="E45" s="275"/>
+      <c r="D45" s="279"/>
+      <c r="E45" s="278"/>
       <c r="F45" s="95"/>
       <c r="G45" s="7"/>
       <c r="H45" s="98"/>
       <c r="I45" s="8"/>
       <c r="J45" s="126"/>
-      <c r="K45" s="277">
+      <c r="K45" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L45" s="278"/>
+      <c r="L45" s="281"/>
       <c r="M45" s="113"/>
-      <c r="N45" s="300"/>
-      <c r="O45" s="301"/>
-      <c r="P45" s="302"/>
+      <c r="N45" s="284"/>
+      <c r="O45" s="285"/>
+      <c r="P45" s="286"/>
       <c r="R45" s="43"/>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
@@ -5269,25 +5262,25 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="274"/>
-      <c r="B46" s="275"/>
+      <c r="A46" s="277"/>
+      <c r="B46" s="278"/>
       <c r="C46" s="94"/>
-      <c r="D46" s="276"/>
-      <c r="E46" s="275"/>
+      <c r="D46" s="279"/>
+      <c r="E46" s="278"/>
       <c r="F46" s="95"/>
       <c r="G46" s="7"/>
       <c r="H46" s="98"/>
       <c r="I46" s="8"/>
       <c r="J46" s="126"/>
-      <c r="K46" s="277">
+      <c r="K46" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L46" s="278"/>
+      <c r="L46" s="281"/>
       <c r="M46" s="113"/>
-      <c r="N46" s="300"/>
-      <c r="O46" s="301"/>
-      <c r="P46" s="302"/>
+      <c r="N46" s="284"/>
+      <c r="O46" s="285"/>
+      <c r="P46" s="286"/>
       <c r="R46" s="43"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -5300,25 +5293,25 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="274"/>
-      <c r="B47" s="275"/>
+      <c r="A47" s="277"/>
+      <c r="B47" s="278"/>
       <c r="C47" s="94"/>
-      <c r="D47" s="276"/>
-      <c r="E47" s="275"/>
+      <c r="D47" s="279"/>
+      <c r="E47" s="278"/>
       <c r="F47" s="95"/>
       <c r="G47" s="7"/>
       <c r="H47" s="98"/>
       <c r="I47" s="8"/>
       <c r="J47" s="126"/>
-      <c r="K47" s="277">
+      <c r="K47" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L47" s="278"/>
+      <c r="L47" s="281"/>
       <c r="M47" s="113"/>
-      <c r="N47" s="300"/>
-      <c r="O47" s="301"/>
-      <c r="P47" s="302"/>
+      <c r="N47" s="284"/>
+      <c r="O47" s="285"/>
+      <c r="P47" s="286"/>
       <c r="R47" s="43"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -5331,25 +5324,25 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="274"/>
-      <c r="B48" s="275"/>
+      <c r="A48" s="277"/>
+      <c r="B48" s="278"/>
       <c r="C48" s="94"/>
-      <c r="D48" s="276"/>
-      <c r="E48" s="275"/>
+      <c r="D48" s="279"/>
+      <c r="E48" s="278"/>
       <c r="F48" s="95"/>
       <c r="G48" s="7"/>
       <c r="H48" s="98"/>
       <c r="I48" s="8"/>
       <c r="J48" s="126"/>
-      <c r="K48" s="277">
+      <c r="K48" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L48" s="278"/>
+      <c r="L48" s="281"/>
       <c r="M48" s="113"/>
-      <c r="N48" s="300"/>
-      <c r="O48" s="301"/>
-      <c r="P48" s="302"/>
+      <c r="N48" s="284"/>
+      <c r="O48" s="285"/>
+      <c r="P48" s="286"/>
       <c r="R48" s="43"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
@@ -5362,25 +5355,25 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="274"/>
-      <c r="B49" s="275"/>
+      <c r="A49" s="277"/>
+      <c r="B49" s="278"/>
       <c r="C49" s="94"/>
-      <c r="D49" s="276"/>
-      <c r="E49" s="275"/>
+      <c r="D49" s="279"/>
+      <c r="E49" s="278"/>
       <c r="F49" s="95"/>
       <c r="G49" s="7"/>
       <c r="H49" s="98"/>
       <c r="I49" s="8"/>
       <c r="J49" s="126"/>
-      <c r="K49" s="277">
+      <c r="K49" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L49" s="278"/>
+      <c r="L49" s="281"/>
       <c r="M49" s="113"/>
-      <c r="N49" s="300"/>
-      <c r="O49" s="301"/>
-      <c r="P49" s="302"/>
+      <c r="N49" s="284"/>
+      <c r="O49" s="285"/>
+      <c r="P49" s="286"/>
       <c r="R49" s="43"/>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
@@ -5393,25 +5386,25 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="274"/>
-      <c r="B50" s="275"/>
+      <c r="A50" s="277"/>
+      <c r="B50" s="278"/>
       <c r="C50" s="94"/>
-      <c r="D50" s="276"/>
-      <c r="E50" s="275"/>
+      <c r="D50" s="279"/>
+      <c r="E50" s="278"/>
       <c r="F50" s="95"/>
       <c r="G50" s="7"/>
       <c r="H50" s="98"/>
       <c r="I50" s="8"/>
       <c r="J50" s="126"/>
-      <c r="K50" s="277">
+      <c r="K50" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L50" s="278"/>
+      <c r="L50" s="281"/>
       <c r="M50" s="113"/>
-      <c r="N50" s="300"/>
-      <c r="O50" s="301"/>
-      <c r="P50" s="302"/>
+      <c r="N50" s="284"/>
+      <c r="O50" s="285"/>
+      <c r="P50" s="286"/>
       <c r="R50" s="43"/>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
@@ -5424,25 +5417,25 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="274"/>
-      <c r="B51" s="275"/>
+      <c r="A51" s="277"/>
+      <c r="B51" s="278"/>
       <c r="C51" s="94"/>
-      <c r="D51" s="276"/>
-      <c r="E51" s="275"/>
+      <c r="D51" s="279"/>
+      <c r="E51" s="278"/>
       <c r="F51" s="95"/>
       <c r="G51" s="7"/>
       <c r="H51" s="98"/>
       <c r="I51" s="8"/>
       <c r="J51" s="126"/>
-      <c r="K51" s="277">
+      <c r="K51" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L51" s="278"/>
+      <c r="L51" s="281"/>
       <c r="M51" s="113"/>
-      <c r="N51" s="296"/>
-      <c r="O51" s="296"/>
-      <c r="P51" s="297"/>
+      <c r="N51" s="282"/>
+      <c r="O51" s="282"/>
+      <c r="P51" s="283"/>
       <c r="R51" s="43"/>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
@@ -5455,25 +5448,25 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="274"/>
-      <c r="B52" s="275"/>
+      <c r="A52" s="277"/>
+      <c r="B52" s="278"/>
       <c r="C52" s="94"/>
-      <c r="D52" s="276"/>
-      <c r="E52" s="275"/>
+      <c r="D52" s="279"/>
+      <c r="E52" s="278"/>
       <c r="F52" s="95"/>
       <c r="G52" s="7"/>
       <c r="H52" s="98"/>
       <c r="I52" s="8"/>
       <c r="J52" s="126"/>
-      <c r="K52" s="277">
+      <c r="K52" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L52" s="278"/>
+      <c r="L52" s="281"/>
       <c r="M52" s="113"/>
-      <c r="N52" s="296"/>
-      <c r="O52" s="296"/>
-      <c r="P52" s="297"/>
+      <c r="N52" s="282"/>
+      <c r="O52" s="282"/>
+      <c r="P52" s="283"/>
       <c r="R52" s="43"/>
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
@@ -5486,25 +5479,25 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="274"/>
-      <c r="B53" s="275"/>
+      <c r="A53" s="277"/>
+      <c r="B53" s="278"/>
       <c r="C53" s="94"/>
-      <c r="D53" s="276"/>
-      <c r="E53" s="275"/>
+      <c r="D53" s="279"/>
+      <c r="E53" s="278"/>
       <c r="F53" s="95"/>
       <c r="G53" s="7"/>
       <c r="H53" s="98"/>
       <c r="I53" s="8"/>
       <c r="J53" s="126"/>
-      <c r="K53" s="277">
+      <c r="K53" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L53" s="278"/>
+      <c r="L53" s="281"/>
       <c r="M53" s="113"/>
-      <c r="N53" s="296"/>
-      <c r="O53" s="296"/>
-      <c r="P53" s="297"/>
+      <c r="N53" s="282"/>
+      <c r="O53" s="282"/>
+      <c r="P53" s="283"/>
       <c r="R53" s="43"/>
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
@@ -5517,25 +5510,25 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="274"/>
-      <c r="B54" s="275"/>
+      <c r="A54" s="277"/>
+      <c r="B54" s="278"/>
       <c r="C54" s="94"/>
-      <c r="D54" s="276"/>
-      <c r="E54" s="275"/>
+      <c r="D54" s="279"/>
+      <c r="E54" s="278"/>
       <c r="F54" s="95"/>
       <c r="G54" s="7"/>
       <c r="H54" s="98"/>
       <c r="I54" s="8"/>
       <c r="J54" s="126"/>
-      <c r="K54" s="277">
+      <c r="K54" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L54" s="278"/>
+      <c r="L54" s="281"/>
       <c r="M54" s="113"/>
-      <c r="N54" s="296"/>
-      <c r="O54" s="296"/>
-      <c r="P54" s="297"/>
+      <c r="N54" s="282"/>
+      <c r="O54" s="282"/>
+      <c r="P54" s="283"/>
       <c r="R54" s="43"/>
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
@@ -5548,25 +5541,25 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="274"/>
-      <c r="B55" s="275"/>
+      <c r="A55" s="277"/>
+      <c r="B55" s="278"/>
       <c r="C55" s="94"/>
-      <c r="D55" s="276"/>
-      <c r="E55" s="275"/>
+      <c r="D55" s="279"/>
+      <c r="E55" s="278"/>
       <c r="F55" s="95"/>
       <c r="G55" s="7"/>
       <c r="H55" s="98"/>
       <c r="I55" s="8"/>
       <c r="J55" s="126"/>
-      <c r="K55" s="277">
+      <c r="K55" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L55" s="278"/>
+      <c r="L55" s="281"/>
       <c r="M55" s="113"/>
-      <c r="N55" s="296"/>
-      <c r="O55" s="296"/>
-      <c r="P55" s="297"/>
+      <c r="N55" s="282"/>
+      <c r="O55" s="282"/>
+      <c r="P55" s="283"/>
       <c r="R55" s="43"/>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
@@ -5579,25 +5572,25 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="274"/>
-      <c r="B56" s="275"/>
+      <c r="A56" s="277"/>
+      <c r="B56" s="278"/>
       <c r="C56" s="94"/>
-      <c r="D56" s="276"/>
-      <c r="E56" s="275"/>
+      <c r="D56" s="279"/>
+      <c r="E56" s="278"/>
       <c r="F56" s="95"/>
       <c r="G56" s="7"/>
       <c r="H56" s="98"/>
       <c r="I56" s="8"/>
       <c r="J56" s="126"/>
-      <c r="K56" s="277">
+      <c r="K56" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L56" s="278"/>
+      <c r="L56" s="281"/>
       <c r="M56" s="113"/>
-      <c r="N56" s="296"/>
-      <c r="O56" s="296"/>
-      <c r="P56" s="297"/>
+      <c r="N56" s="282"/>
+      <c r="O56" s="282"/>
+      <c r="P56" s="283"/>
       <c r="R56" s="43"/>
       <c r="S56" s="9"/>
       <c r="T56" s="10"/>
@@ -5610,25 +5603,25 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="274"/>
-      <c r="B57" s="275"/>
+      <c r="A57" s="277"/>
+      <c r="B57" s="278"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="276"/>
-      <c r="E57" s="275"/>
+      <c r="D57" s="279"/>
+      <c r="E57" s="278"/>
       <c r="F57" s="97"/>
       <c r="G57" s="11"/>
       <c r="H57" s="99"/>
       <c r="I57" s="54"/>
       <c r="J57" s="127"/>
-      <c r="K57" s="277">
+      <c r="K57" s="280">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L57" s="278"/>
+      <c r="L57" s="281"/>
       <c r="M57" s="117"/>
-      <c r="N57" s="298"/>
-      <c r="O57" s="298"/>
-      <c r="P57" s="299"/>
+      <c r="N57" s="287"/>
+      <c r="O57" s="287"/>
+      <c r="P57" s="288"/>
       <c r="R57" s="45"/>
       <c r="S57" s="12"/>
       <c r="T57" s="10"/>
@@ -5641,69 +5634,69 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="279" t="s">
+      <c r="A58" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="280"/>
-      <c r="C58" s="280"/>
-      <c r="D58" s="280"/>
-      <c r="E58" s="280"/>
-      <c r="F58" s="281"/>
+      <c r="B58" s="290"/>
+      <c r="C58" s="290"/>
+      <c r="D58" s="290"/>
+      <c r="E58" s="290"/>
+      <c r="F58" s="291"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="282">
+      <c r="I58" s="260">
         <f>SUM(K34:K57)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="283"/>
-      <c r="K58" s="283"/>
-      <c r="L58" s="284"/>
+      <c r="J58" s="261"/>
+      <c r="K58" s="261"/>
+      <c r="L58" s="262"/>
       <c r="M58" s="118"/>
-      <c r="N58" s="285">
+      <c r="N58" s="292">
         <f>SUMIF(F34:F57,"&lt;&gt;"&amp;hdn_payoff_circle,K34:K57)</f>
         <v>0</v>
       </c>
-      <c r="O58" s="286"/>
-      <c r="P58" s="287"/>
+      <c r="O58" s="293"/>
+      <c r="P58" s="294"/>
       <c r="R58" s="44"/>
       <c r="S58" s="12"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="288"/>
-      <c r="B59" s="289"/>
-      <c r="C59" s="289"/>
-      <c r="D59" s="289"/>
-      <c r="E59" s="289"/>
-      <c r="F59" s="289"/>
-      <c r="G59" s="289"/>
-      <c r="H59" s="289"/>
-      <c r="I59" s="289"/>
-      <c r="J59" s="289"/>
-      <c r="K59" s="289"/>
-      <c r="L59" s="289"/>
-      <c r="M59" s="289"/>
-      <c r="N59" s="289"/>
-      <c r="O59" s="289"/>
-      <c r="P59" s="290"/>
+      <c r="A59" s="295"/>
+      <c r="B59" s="296"/>
+      <c r="C59" s="296"/>
+      <c r="D59" s="296"/>
+      <c r="E59" s="296"/>
+      <c r="F59" s="296"/>
+      <c r="G59" s="296"/>
+      <c r="H59" s="296"/>
+      <c r="I59" s="296"/>
+      <c r="J59" s="296"/>
+      <c r="K59" s="296"/>
+      <c r="L59" s="296"/>
+      <c r="M59" s="296"/>
+      <c r="N59" s="296"/>
+      <c r="O59" s="296"/>
+      <c r="P59" s="297"/>
       <c r="R59" s="44"/>
       <c r="S59" s="12"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="291" t="s">
+      <c r="A60" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="292"/>
+      <c r="B60" s="266"/>
       <c r="C60" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="293" t="s">
+      <c r="D60" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="292"/>
+      <c r="E60" s="266"/>
       <c r="F60" s="189" t="s">
         <v>15</v>
       </c>
@@ -5719,29 +5712,29 @@
       <c r="J60" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="K60" s="293" t="s">
+      <c r="K60" s="267" t="s">
         <v>18</v>
       </c>
-      <c r="L60" s="292"/>
+      <c r="L60" s="266"/>
       <c r="M60" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="N60" s="293" t="s">
+      <c r="N60" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="O60" s="294"/>
-      <c r="P60" s="295"/>
+      <c r="O60" s="268"/>
+      <c r="P60" s="269"/>
       <c r="R60" s="46" t="s">
         <v>34</v>
       </c>
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="274"/>
-      <c r="B61" s="275"/>
+      <c r="A61" s="277"/>
+      <c r="B61" s="278"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="276"/>
-      <c r="E61" s="275"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="278"/>
       <c r="F61" s="95"/>
       <c r="G61" s="170">
         <f>IF(A61&lt;&gt;"",$P$4,0)</f>
@@ -5750,15 +5743,15 @@
       <c r="H61" s="98"/>
       <c r="I61" s="8"/>
       <c r="J61" s="126"/>
-      <c r="K61" s="277">
+      <c r="K61" s="280">
         <f>IFERROR(G61*I61*J61,"")</f>
         <v>0</v>
       </c>
-      <c r="L61" s="278"/>
+      <c r="L61" s="281"/>
       <c r="M61" s="113"/>
-      <c r="N61" s="270"/>
-      <c r="O61" s="270"/>
-      <c r="P61" s="271"/>
+      <c r="N61" s="255"/>
+      <c r="O61" s="255"/>
+      <c r="P61" s="256"/>
       <c r="R61" s="43"/>
       <c r="U61" s="1">
         <f t="shared" ref="U61:U86" si="7">IFERROR(VLOOKUP(H61,$C$101:$D$103,2,FALSE),1)</f>
@@ -5769,11 +5762,11 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="274"/>
-      <c r="B62" s="275"/>
+      <c r="A62" s="277"/>
+      <c r="B62" s="278"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="276"/>
-      <c r="E62" s="275"/>
+      <c r="D62" s="279"/>
+      <c r="E62" s="278"/>
       <c r="F62" s="95"/>
       <c r="G62" s="170">
         <f t="shared" ref="G62:G86" si="8">IF(A62&lt;&gt;"",$P$4,0)</f>
@@ -5782,15 +5775,15 @@
       <c r="H62" s="98"/>
       <c r="I62" s="8"/>
       <c r="J62" s="126"/>
-      <c r="K62" s="277">
+      <c r="K62" s="280">
         <f t="shared" ref="K62:K86" si="9">IFERROR(G62*I62*J62,"")</f>
         <v>0</v>
       </c>
-      <c r="L62" s="278"/>
+      <c r="L62" s="281"/>
       <c r="M62" s="113"/>
-      <c r="N62" s="270"/>
-      <c r="O62" s="270"/>
-      <c r="P62" s="271"/>
+      <c r="N62" s="255"/>
+      <c r="O62" s="255"/>
+      <c r="P62" s="256"/>
       <c r="R62" s="43"/>
       <c r="U62" s="1">
         <f t="shared" si="7"/>
@@ -5801,11 +5794,11 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="274"/>
-      <c r="B63" s="275"/>
+      <c r="A63" s="277"/>
+      <c r="B63" s="278"/>
       <c r="C63" s="94"/>
-      <c r="D63" s="276"/>
-      <c r="E63" s="275"/>
+      <c r="D63" s="279"/>
+      <c r="E63" s="278"/>
       <c r="F63" s="95"/>
       <c r="G63" s="170">
         <f t="shared" si="8"/>
@@ -5814,15 +5807,15 @@
       <c r="H63" s="98"/>
       <c r="I63" s="8"/>
       <c r="J63" s="126"/>
-      <c r="K63" s="277">
+      <c r="K63" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L63" s="278"/>
+      <c r="L63" s="281"/>
       <c r="M63" s="113"/>
-      <c r="N63" s="263"/>
-      <c r="O63" s="264"/>
-      <c r="P63" s="265"/>
+      <c r="N63" s="298"/>
+      <c r="O63" s="299"/>
+      <c r="P63" s="300"/>
       <c r="R63" s="43"/>
       <c r="U63" s="1">
         <f t="shared" si="7"/>
@@ -5833,11 +5826,11 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="274"/>
-      <c r="B64" s="275"/>
+      <c r="A64" s="277"/>
+      <c r="B64" s="278"/>
       <c r="C64" s="94"/>
-      <c r="D64" s="276"/>
-      <c r="E64" s="275"/>
+      <c r="D64" s="279"/>
+      <c r="E64" s="278"/>
       <c r="F64" s="95"/>
       <c r="G64" s="170">
         <f t="shared" si="8"/>
@@ -5846,15 +5839,15 @@
       <c r="H64" s="98"/>
       <c r="I64" s="8"/>
       <c r="J64" s="126"/>
-      <c r="K64" s="277">
+      <c r="K64" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L64" s="278"/>
+      <c r="L64" s="281"/>
       <c r="M64" s="113"/>
-      <c r="N64" s="270"/>
-      <c r="O64" s="270"/>
-      <c r="P64" s="271"/>
+      <c r="N64" s="255"/>
+      <c r="O64" s="255"/>
+      <c r="P64" s="256"/>
       <c r="R64" s="43"/>
       <c r="U64" s="1">
         <f t="shared" si="7"/>
@@ -5865,11 +5858,11 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="274"/>
-      <c r="B65" s="275"/>
+      <c r="A65" s="277"/>
+      <c r="B65" s="278"/>
       <c r="C65" s="94"/>
-      <c r="D65" s="276"/>
-      <c r="E65" s="275"/>
+      <c r="D65" s="279"/>
+      <c r="E65" s="278"/>
       <c r="F65" s="95"/>
       <c r="G65" s="170">
         <f t="shared" si="8"/>
@@ -5878,15 +5871,15 @@
       <c r="H65" s="98"/>
       <c r="I65" s="8"/>
       <c r="J65" s="126"/>
-      <c r="K65" s="277">
+      <c r="K65" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L65" s="278"/>
+      <c r="L65" s="281"/>
       <c r="M65" s="113"/>
-      <c r="N65" s="270"/>
-      <c r="O65" s="270"/>
-      <c r="P65" s="271"/>
+      <c r="N65" s="255"/>
+      <c r="O65" s="255"/>
+      <c r="P65" s="256"/>
       <c r="R65" s="43"/>
       <c r="U65" s="1">
         <f t="shared" si="7"/>
@@ -5897,11 +5890,11 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="274"/>
-      <c r="B66" s="275"/>
+      <c r="A66" s="277"/>
+      <c r="B66" s="278"/>
       <c r="C66" s="94"/>
-      <c r="D66" s="276"/>
-      <c r="E66" s="275"/>
+      <c r="D66" s="279"/>
+      <c r="E66" s="278"/>
       <c r="F66" s="95"/>
       <c r="G66" s="170">
         <f t="shared" si="8"/>
@@ -5910,15 +5903,15 @@
       <c r="H66" s="98"/>
       <c r="I66" s="8"/>
       <c r="J66" s="126"/>
-      <c r="K66" s="277">
+      <c r="K66" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L66" s="278"/>
+      <c r="L66" s="281"/>
       <c r="M66" s="113"/>
-      <c r="N66" s="270"/>
-      <c r="O66" s="270"/>
-      <c r="P66" s="271"/>
+      <c r="N66" s="255"/>
+      <c r="O66" s="255"/>
+      <c r="P66" s="256"/>
       <c r="R66" s="43"/>
       <c r="U66" s="1">
         <f t="shared" si="7"/>
@@ -5929,11 +5922,11 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="274"/>
-      <c r="B67" s="275"/>
+      <c r="A67" s="277"/>
+      <c r="B67" s="278"/>
       <c r="C67" s="94"/>
-      <c r="D67" s="276"/>
-      <c r="E67" s="275"/>
+      <c r="D67" s="279"/>
+      <c r="E67" s="278"/>
       <c r="F67" s="95"/>
       <c r="G67" s="170">
         <f t="shared" si="8"/>
@@ -5942,15 +5935,15 @@
       <c r="H67" s="98"/>
       <c r="I67" s="8"/>
       <c r="J67" s="126"/>
-      <c r="K67" s="277">
+      <c r="K67" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L67" s="278"/>
+      <c r="L67" s="281"/>
       <c r="M67" s="113"/>
-      <c r="N67" s="270"/>
-      <c r="O67" s="270"/>
-      <c r="P67" s="271"/>
+      <c r="N67" s="255"/>
+      <c r="O67" s="255"/>
+      <c r="P67" s="256"/>
       <c r="R67" s="43"/>
       <c r="U67" s="1">
         <f t="shared" si="7"/>
@@ -5961,11 +5954,11 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="274"/>
-      <c r="B68" s="275"/>
+      <c r="A68" s="277"/>
+      <c r="B68" s="278"/>
       <c r="C68" s="94"/>
-      <c r="D68" s="276"/>
-      <c r="E68" s="275"/>
+      <c r="D68" s="279"/>
+      <c r="E68" s="278"/>
       <c r="F68" s="95"/>
       <c r="G68" s="170">
         <f t="shared" si="8"/>
@@ -5974,15 +5967,15 @@
       <c r="H68" s="98"/>
       <c r="I68" s="8"/>
       <c r="J68" s="126"/>
-      <c r="K68" s="277">
+      <c r="K68" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L68" s="278"/>
+      <c r="L68" s="281"/>
       <c r="M68" s="113"/>
-      <c r="N68" s="270"/>
-      <c r="O68" s="270"/>
-      <c r="P68" s="271"/>
+      <c r="N68" s="255"/>
+      <c r="O68" s="255"/>
+      <c r="P68" s="256"/>
       <c r="R68" s="43"/>
       <c r="U68" s="1">
         <f t="shared" si="7"/>
@@ -5993,11 +5986,11 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="274"/>
-      <c r="B69" s="275"/>
+      <c r="A69" s="277"/>
+      <c r="B69" s="278"/>
       <c r="C69" s="94"/>
-      <c r="D69" s="276"/>
-      <c r="E69" s="275"/>
+      <c r="D69" s="279"/>
+      <c r="E69" s="278"/>
       <c r="F69" s="95"/>
       <c r="G69" s="170">
         <f t="shared" si="8"/>
@@ -6006,15 +5999,15 @@
       <c r="H69" s="98"/>
       <c r="I69" s="8"/>
       <c r="J69" s="126"/>
-      <c r="K69" s="277">
+      <c r="K69" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L69" s="278"/>
+      <c r="L69" s="281"/>
       <c r="M69" s="113"/>
-      <c r="N69" s="270"/>
-      <c r="O69" s="270"/>
-      <c r="P69" s="271"/>
+      <c r="N69" s="255"/>
+      <c r="O69" s="255"/>
+      <c r="P69" s="256"/>
       <c r="R69" s="43"/>
       <c r="U69" s="1">
         <f t="shared" si="7"/>
@@ -6025,11 +6018,11 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="274"/>
-      <c r="B70" s="275"/>
+      <c r="A70" s="277"/>
+      <c r="B70" s="278"/>
       <c r="C70" s="94"/>
-      <c r="D70" s="276"/>
-      <c r="E70" s="275"/>
+      <c r="D70" s="279"/>
+      <c r="E70" s="278"/>
       <c r="F70" s="95"/>
       <c r="G70" s="170">
         <f t="shared" si="8"/>
@@ -6038,15 +6031,15 @@
       <c r="H70" s="98"/>
       <c r="I70" s="8"/>
       <c r="J70" s="126"/>
-      <c r="K70" s="277">
+      <c r="K70" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L70" s="278"/>
+      <c r="L70" s="281"/>
       <c r="M70" s="113"/>
-      <c r="N70" s="270"/>
-      <c r="O70" s="270"/>
-      <c r="P70" s="271"/>
+      <c r="N70" s="255"/>
+      <c r="O70" s="255"/>
+      <c r="P70" s="256"/>
       <c r="R70" s="43"/>
       <c r="U70" s="1">
         <f t="shared" si="7"/>
@@ -6057,11 +6050,11 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="274"/>
-      <c r="B71" s="275"/>
+      <c r="A71" s="277"/>
+      <c r="B71" s="278"/>
       <c r="C71" s="94"/>
-      <c r="D71" s="276"/>
-      <c r="E71" s="275"/>
+      <c r="D71" s="279"/>
+      <c r="E71" s="278"/>
       <c r="F71" s="95"/>
       <c r="G71" s="170">
         <f t="shared" si="8"/>
@@ -6070,15 +6063,15 @@
       <c r="H71" s="98"/>
       <c r="I71" s="8"/>
       <c r="J71" s="126"/>
-      <c r="K71" s="277">
+      <c r="K71" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L71" s="278"/>
+      <c r="L71" s="281"/>
       <c r="M71" s="113"/>
-      <c r="N71" s="270"/>
-      <c r="O71" s="270"/>
-      <c r="P71" s="271"/>
+      <c r="N71" s="255"/>
+      <c r="O71" s="255"/>
+      <c r="P71" s="256"/>
       <c r="R71" s="43"/>
       <c r="U71" s="1">
         <f t="shared" si="7"/>
@@ -6089,11 +6082,11 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="274"/>
-      <c r="B72" s="275"/>
+      <c r="A72" s="277"/>
+      <c r="B72" s="278"/>
       <c r="C72" s="94"/>
-      <c r="D72" s="276"/>
-      <c r="E72" s="275"/>
+      <c r="D72" s="279"/>
+      <c r="E72" s="278"/>
       <c r="F72" s="95"/>
       <c r="G72" s="170">
         <f t="shared" si="8"/>
@@ -6102,15 +6095,15 @@
       <c r="H72" s="98"/>
       <c r="I72" s="8"/>
       <c r="J72" s="126"/>
-      <c r="K72" s="277">
+      <c r="K72" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L72" s="278"/>
+      <c r="L72" s="281"/>
       <c r="M72" s="113"/>
-      <c r="N72" s="270"/>
-      <c r="O72" s="270"/>
-      <c r="P72" s="271"/>
+      <c r="N72" s="255"/>
+      <c r="O72" s="255"/>
+      <c r="P72" s="256"/>
       <c r="R72" s="43"/>
       <c r="U72" s="1">
         <f t="shared" si="7"/>
@@ -6121,11 +6114,11 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="274"/>
-      <c r="B73" s="275"/>
+      <c r="A73" s="277"/>
+      <c r="B73" s="278"/>
       <c r="C73" s="94"/>
-      <c r="D73" s="276"/>
-      <c r="E73" s="275"/>
+      <c r="D73" s="279"/>
+      <c r="E73" s="278"/>
       <c r="F73" s="95"/>
       <c r="G73" s="170">
         <f t="shared" si="8"/>
@@ -6134,15 +6127,15 @@
       <c r="H73" s="98"/>
       <c r="I73" s="8"/>
       <c r="J73" s="126"/>
-      <c r="K73" s="277">
+      <c r="K73" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L73" s="278"/>
+      <c r="L73" s="281"/>
       <c r="M73" s="113"/>
-      <c r="N73" s="270"/>
-      <c r="O73" s="270"/>
-      <c r="P73" s="271"/>
+      <c r="N73" s="255"/>
+      <c r="O73" s="255"/>
+      <c r="P73" s="256"/>
       <c r="R73" s="43"/>
       <c r="U73" s="1">
         <f t="shared" si="7"/>
@@ -6153,11 +6146,11 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="274"/>
-      <c r="B74" s="275"/>
+      <c r="A74" s="277"/>
+      <c r="B74" s="278"/>
       <c r="C74" s="94"/>
-      <c r="D74" s="276"/>
-      <c r="E74" s="275"/>
+      <c r="D74" s="279"/>
+      <c r="E74" s="278"/>
       <c r="F74" s="95"/>
       <c r="G74" s="170">
         <f t="shared" si="8"/>
@@ -6166,15 +6159,15 @@
       <c r="H74" s="98"/>
       <c r="I74" s="8"/>
       <c r="J74" s="126"/>
-      <c r="K74" s="277">
+      <c r="K74" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L74" s="278"/>
+      <c r="L74" s="281"/>
       <c r="M74" s="113"/>
-      <c r="N74" s="270"/>
-      <c r="O74" s="270"/>
-      <c r="P74" s="271"/>
+      <c r="N74" s="255"/>
+      <c r="O74" s="255"/>
+      <c r="P74" s="256"/>
       <c r="R74" s="43"/>
       <c r="U74" s="1">
         <f t="shared" si="7"/>
@@ -6185,11 +6178,11 @@
       </c>
     </row>
     <row r="75" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="274"/>
-      <c r="B75" s="275"/>
+      <c r="A75" s="277"/>
+      <c r="B75" s="278"/>
       <c r="C75" s="94"/>
-      <c r="D75" s="276"/>
-      <c r="E75" s="275"/>
+      <c r="D75" s="279"/>
+      <c r="E75" s="278"/>
       <c r="F75" s="95"/>
       <c r="G75" s="170">
         <f t="shared" si="8"/>
@@ -6198,15 +6191,15 @@
       <c r="H75" s="98"/>
       <c r="I75" s="8"/>
       <c r="J75" s="126"/>
-      <c r="K75" s="277">
+      <c r="K75" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L75" s="278"/>
+      <c r="L75" s="281"/>
       <c r="M75" s="113"/>
-      <c r="N75" s="263"/>
-      <c r="O75" s="264"/>
-      <c r="P75" s="265"/>
+      <c r="N75" s="298"/>
+      <c r="O75" s="299"/>
+      <c r="P75" s="300"/>
       <c r="R75" s="43"/>
       <c r="U75" s="1">
         <f t="shared" si="7"/>
@@ -6217,11 +6210,11 @@
       </c>
     </row>
     <row r="76" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="274"/>
-      <c r="B76" s="275"/>
+      <c r="A76" s="277"/>
+      <c r="B76" s="278"/>
       <c r="C76" s="94"/>
-      <c r="D76" s="276"/>
-      <c r="E76" s="275"/>
+      <c r="D76" s="279"/>
+      <c r="E76" s="278"/>
       <c r="F76" s="95"/>
       <c r="G76" s="170">
         <f t="shared" si="8"/>
@@ -6230,15 +6223,15 @@
       <c r="H76" s="98"/>
       <c r="I76" s="8"/>
       <c r="J76" s="126"/>
-      <c r="K76" s="277">
+      <c r="K76" s="280">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L76" s="278"/>
+      <c r="L76" s="281"/>
       <c r="M76" s="113"/>
-      <c r="N76" s="270"/>
-      <c r="O76" s="270"/>
-      <c r="P76" s="271"/>
+      <c r="N76" s="255"/>
+      <c r="O76" s="255"/>
+      <c r="P76" s="256"/>
       <c r="R76" s="43"/>
       <c r="U76" s="1">
         <f t="shared" si="7"/>
@@ -6249,11 +6242,11 @@
       </c>
     </row>
     <row r="77" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="268"/>
-      <c r="B77" s="269"/>
+      <c r="A77" s="301"/>
+      <c r="B77" s="302"/>
       <c r="C77" s="139"/>
-      <c r="D77" s="272"/>
-      <c r="E77" s="273"/>
+      <c r="D77" s="303"/>
+      <c r="E77" s="304"/>
       <c r="F77" s="147"/>
       <c r="G77" s="170">
         <f t="shared" si="8"/>
@@ -6265,15 +6258,15 @@
         <v/>
       </c>
       <c r="J77" s="154"/>
-      <c r="K77" s="261" t="str">
+      <c r="K77" s="305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L77" s="262"/>
+      <c r="L77" s="306"/>
       <c r="M77" s="113"/>
-      <c r="N77" s="270"/>
-      <c r="O77" s="270"/>
-      <c r="P77" s="271"/>
+      <c r="N77" s="255"/>
+      <c r="O77" s="255"/>
+      <c r="P77" s="256"/>
       <c r="R77" s="43"/>
       <c r="S77" s="1" t="str">
         <f t="shared" ref="S77:S86" si="11">IF(C77=hdn_tariff,K77,0)</f>
@@ -6288,11 +6281,11 @@
       </c>
     </row>
     <row r="78" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="268"/>
-      <c r="B78" s="269"/>
+      <c r="A78" s="301"/>
+      <c r="B78" s="302"/>
       <c r="C78" s="139"/>
-      <c r="D78" s="266"/>
-      <c r="E78" s="267"/>
+      <c r="D78" s="307"/>
+      <c r="E78" s="308"/>
       <c r="F78" s="147"/>
       <c r="G78" s="170">
         <f t="shared" si="8"/>
@@ -6304,15 +6297,15 @@
         <v/>
       </c>
       <c r="J78" s="154"/>
-      <c r="K78" s="261" t="str">
+      <c r="K78" s="305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L78" s="262"/>
+      <c r="L78" s="306"/>
       <c r="M78" s="113"/>
-      <c r="N78" s="270"/>
-      <c r="O78" s="270"/>
-      <c r="P78" s="271"/>
+      <c r="N78" s="255"/>
+      <c r="O78" s="255"/>
+      <c r="P78" s="256"/>
       <c r="R78" s="43"/>
       <c r="S78" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6327,11 +6320,11 @@
       </c>
     </row>
     <row r="79" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="268"/>
-      <c r="B79" s="269"/>
+      <c r="A79" s="301"/>
+      <c r="B79" s="302"/>
       <c r="C79" s="139"/>
-      <c r="D79" s="266"/>
-      <c r="E79" s="267"/>
+      <c r="D79" s="307"/>
+      <c r="E79" s="308"/>
       <c r="F79" s="147"/>
       <c r="G79" s="170">
         <f t="shared" si="8"/>
@@ -6343,15 +6336,15 @@
         <v/>
       </c>
       <c r="J79" s="154"/>
-      <c r="K79" s="261" t="str">
+      <c r="K79" s="305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L79" s="262"/>
+      <c r="L79" s="306"/>
       <c r="M79" s="113"/>
-      <c r="N79" s="270"/>
-      <c r="O79" s="270"/>
-      <c r="P79" s="271"/>
+      <c r="N79" s="255"/>
+      <c r="O79" s="255"/>
+      <c r="P79" s="256"/>
       <c r="R79" s="43"/>
       <c r="S79" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6366,11 +6359,11 @@
       </c>
     </row>
     <row r="80" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="250"/>
-      <c r="B80" s="251"/>
+      <c r="A80" s="309"/>
+      <c r="B80" s="310"/>
       <c r="C80" s="140"/>
-      <c r="D80" s="266"/>
-      <c r="E80" s="267"/>
+      <c r="D80" s="307"/>
+      <c r="E80" s="308"/>
       <c r="F80" s="147"/>
       <c r="G80" s="170">
         <f t="shared" si="8"/>
@@ -6382,15 +6375,15 @@
         <v/>
       </c>
       <c r="J80" s="154"/>
-      <c r="K80" s="261" t="str">
+      <c r="K80" s="305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L80" s="262"/>
+      <c r="L80" s="306"/>
       <c r="M80" s="113"/>
-      <c r="N80" s="263"/>
-      <c r="O80" s="264"/>
-      <c r="P80" s="265"/>
+      <c r="N80" s="298"/>
+      <c r="O80" s="299"/>
+      <c r="P80" s="300"/>
       <c r="R80" s="43"/>
       <c r="S80" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6405,11 +6398,11 @@
       </c>
     </row>
     <row r="81" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="250"/>
-      <c r="B81" s="251"/>
+      <c r="A81" s="309"/>
+      <c r="B81" s="310"/>
       <c r="C81" s="140"/>
-      <c r="D81" s="266"/>
-      <c r="E81" s="267"/>
+      <c r="D81" s="307"/>
+      <c r="E81" s="308"/>
       <c r="F81" s="147"/>
       <c r="G81" s="170">
         <f t="shared" si="8"/>
@@ -6421,15 +6414,15 @@
         <v/>
       </c>
       <c r="J81" s="154"/>
-      <c r="K81" s="261" t="str">
+      <c r="K81" s="305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L81" s="262"/>
+      <c r="L81" s="306"/>
       <c r="M81" s="156"/>
-      <c r="N81" s="263"/>
-      <c r="O81" s="264"/>
-      <c r="P81" s="265"/>
+      <c r="N81" s="298"/>
+      <c r="O81" s="299"/>
+      <c r="P81" s="300"/>
       <c r="R81" s="131"/>
       <c r="S81" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6444,11 +6437,11 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="250"/>
-      <c r="B82" s="251"/>
+      <c r="A82" s="309"/>
+      <c r="B82" s="310"/>
       <c r="C82" s="140"/>
-      <c r="D82" s="266"/>
-      <c r="E82" s="267"/>
+      <c r="D82" s="307"/>
+      <c r="E82" s="308"/>
       <c r="F82" s="147"/>
       <c r="G82" s="170">
         <f t="shared" si="8"/>
@@ -6460,15 +6453,15 @@
         <v/>
       </c>
       <c r="J82" s="154"/>
-      <c r="K82" s="261" t="str">
+      <c r="K82" s="305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L82" s="262"/>
+      <c r="L82" s="306"/>
       <c r="M82" s="156"/>
-      <c r="N82" s="263"/>
-      <c r="O82" s="264"/>
-      <c r="P82" s="265"/>
+      <c r="N82" s="298"/>
+      <c r="O82" s="299"/>
+      <c r="P82" s="300"/>
       <c r="R82" s="131"/>
       <c r="S82" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6483,11 +6476,11 @@
       </c>
     </row>
     <row r="83" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="250"/>
-      <c r="B83" s="251"/>
+      <c r="A83" s="309"/>
+      <c r="B83" s="310"/>
       <c r="C83" s="140"/>
-      <c r="D83" s="266"/>
-      <c r="E83" s="267"/>
+      <c r="D83" s="307"/>
+      <c r="E83" s="308"/>
       <c r="F83" s="147"/>
       <c r="G83" s="170">
         <f t="shared" si="8"/>
@@ -6499,15 +6492,15 @@
         <v/>
       </c>
       <c r="J83" s="154"/>
-      <c r="K83" s="261" t="str">
+      <c r="K83" s="305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L83" s="262"/>
+      <c r="L83" s="306"/>
       <c r="M83" s="113"/>
-      <c r="N83" s="263"/>
-      <c r="O83" s="264"/>
-      <c r="P83" s="265"/>
+      <c r="N83" s="298"/>
+      <c r="O83" s="299"/>
+      <c r="P83" s="300"/>
       <c r="R83" s="45"/>
       <c r="S83" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6522,11 +6515,11 @@
       </c>
     </row>
     <row r="84" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="250"/>
-      <c r="B84" s="251"/>
+      <c r="A84" s="309"/>
+      <c r="B84" s="310"/>
       <c r="C84" s="141"/>
-      <c r="D84" s="266"/>
-      <c r="E84" s="267"/>
+      <c r="D84" s="307"/>
+      <c r="E84" s="308"/>
       <c r="F84" s="149"/>
       <c r="G84" s="170">
         <f t="shared" si="8"/>
@@ -6538,15 +6531,15 @@
         <v/>
       </c>
       <c r="J84" s="154"/>
-      <c r="K84" s="261" t="str">
+      <c r="K84" s="305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L84" s="262"/>
+      <c r="L84" s="306"/>
       <c r="M84" s="157"/>
-      <c r="N84" s="263"/>
-      <c r="O84" s="264"/>
-      <c r="P84" s="265"/>
+      <c r="N84" s="298"/>
+      <c r="O84" s="299"/>
+      <c r="P84" s="300"/>
       <c r="R84" s="132"/>
       <c r="S84" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6561,11 +6554,11 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="250"/>
-      <c r="B85" s="251"/>
+      <c r="A85" s="309"/>
+      <c r="B85" s="310"/>
       <c r="C85" s="141"/>
-      <c r="D85" s="266"/>
-      <c r="E85" s="267"/>
+      <c r="D85" s="307"/>
+      <c r="E85" s="308"/>
       <c r="F85" s="149"/>
       <c r="G85" s="170">
         <f t="shared" si="8"/>
@@ -6577,15 +6570,15 @@
         <v/>
       </c>
       <c r="J85" s="154"/>
-      <c r="K85" s="261" t="str">
+      <c r="K85" s="305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L85" s="262"/>
+      <c r="L85" s="306"/>
       <c r="M85" s="157"/>
-      <c r="N85" s="263"/>
-      <c r="O85" s="264"/>
-      <c r="P85" s="265"/>
+      <c r="N85" s="298"/>
+      <c r="O85" s="299"/>
+      <c r="P85" s="300"/>
       <c r="R85" s="132"/>
       <c r="S85" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6600,11 +6593,11 @@
       </c>
     </row>
     <row r="86" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="252"/>
-      <c r="B86" s="253"/>
+      <c r="A86" s="323"/>
+      <c r="B86" s="324"/>
       <c r="C86" s="142"/>
-      <c r="D86" s="254"/>
-      <c r="E86" s="255"/>
+      <c r="D86" s="325"/>
+      <c r="E86" s="326"/>
       <c r="F86" s="151"/>
       <c r="G86" s="171">
         <f t="shared" si="8"/>
@@ -6616,15 +6609,15 @@
         <v/>
       </c>
       <c r="J86" s="155"/>
-      <c r="K86" s="256" t="str">
+      <c r="K86" s="327" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L86" s="257"/>
+      <c r="L86" s="328"/>
       <c r="M86" s="158"/>
-      <c r="N86" s="258"/>
-      <c r="O86" s="259"/>
-      <c r="P86" s="260"/>
+      <c r="N86" s="329"/>
+      <c r="O86" s="330"/>
+      <c r="P86" s="331"/>
       <c r="S86" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -6651,48 +6644,48 @@
       <c r="K87" s="146"/>
       <c r="L87" s="146"/>
       <c r="M87" s="15"/>
-      <c r="N87" s="200"/>
-      <c r="O87" s="200"/>
-      <c r="P87" s="239"/>
+      <c r="N87" s="311"/>
+      <c r="O87" s="311"/>
+      <c r="P87" s="312"/>
     </row>
     <row r="88" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="240" t="s">
+      <c r="A88" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="241"/>
+      <c r="B88" s="314"/>
       <c r="C88" s="165">
         <f>I16</f>
         <v>0</v>
       </c>
       <c r="D88" s="67"/>
-      <c r="E88" s="242" t="s">
+      <c r="E88" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="F88" s="243"/>
-      <c r="G88" s="241"/>
-      <c r="H88" s="244">
+      <c r="F88" s="316"/>
+      <c r="G88" s="314"/>
+      <c r="H88" s="317">
         <f>I31</f>
         <v>0</v>
       </c>
-      <c r="I88" s="245"/>
+      <c r="I88" s="318"/>
       <c r="J88" s="159"/>
       <c r="K88" s="68"/>
-      <c r="L88" s="246" t="s">
+      <c r="L88" s="319" t="s">
         <v>42</v>
       </c>
-      <c r="M88" s="247"/>
-      <c r="N88" s="248">
+      <c r="M88" s="320"/>
+      <c r="N88" s="321">
         <f>C88+H88</f>
         <v>0</v>
       </c>
-      <c r="O88" s="249"/>
+      <c r="O88" s="322"/>
       <c r="P88" s="69"/>
     </row>
     <row r="89" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="225" t="s">
+      <c r="A89" s="342" t="s">
         <v>57</v>
       </c>
-      <c r="B89" s="226"/>
+      <c r="B89" s="343"/>
       <c r="C89" s="166">
         <f>C88-K94</f>
         <v>0</v>
@@ -6701,30 +6694,30 @@
         <f>C89/C88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E89" s="227" t="s">
+      <c r="E89" s="344" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="228"/>
-      <c r="G89" s="229"/>
-      <c r="H89" s="230">
+      <c r="F89" s="345"/>
+      <c r="G89" s="346"/>
+      <c r="H89" s="347">
         <f>H88-N58</f>
         <v>0</v>
       </c>
-      <c r="I89" s="231"/>
+      <c r="I89" s="348"/>
       <c r="J89" s="160"/>
       <c r="K89" s="77" t="e">
         <f>H89/H88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L89" s="227" t="s">
+      <c r="L89" s="344" t="s">
         <v>46</v>
       </c>
-      <c r="M89" s="229"/>
-      <c r="N89" s="232">
+      <c r="M89" s="346"/>
+      <c r="N89" s="349">
         <f>C89+H89</f>
         <v>0</v>
       </c>
-      <c r="O89" s="233"/>
+      <c r="O89" s="350"/>
       <c r="P89" s="65" t="e">
         <f>N89/N88</f>
         <v>#DIV/0!</v>
@@ -6741,16 +6734,16 @@
       <c r="H90" s="83"/>
       <c r="I90" s="83"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="234" t="s">
+      <c r="K90" s="351" t="s">
         <v>43</v>
       </c>
-      <c r="L90" s="235"/>
-      <c r="M90" s="236"/>
-      <c r="N90" s="237">
+      <c r="L90" s="352"/>
+      <c r="M90" s="353"/>
+      <c r="N90" s="354">
         <f>ROUNDDOWN((N88*P90),0)</f>
         <v>0</v>
       </c>
-      <c r="O90" s="238"/>
+      <c r="O90" s="355"/>
       <c r="P90" s="84"/>
     </row>
     <row r="91" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6764,32 +6757,32 @@
       <c r="H91" s="22"/>
       <c r="I91" s="58"/>
       <c r="J91" s="129"/>
-      <c r="K91" s="213" t="s">
+      <c r="K91" s="332" t="s">
         <v>45</v>
       </c>
-      <c r="L91" s="217"/>
-      <c r="M91" s="214"/>
-      <c r="N91" s="218">
+      <c r="L91" s="333"/>
+      <c r="M91" s="334"/>
+      <c r="N91" s="335">
         <f>N89-N90</f>
         <v>0</v>
       </c>
-      <c r="O91" s="219"/>
+      <c r="O91" s="336"/>
       <c r="P91" s="66" t="e">
         <f>N91/N88</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="220" t="s">
+      <c r="A92" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="221"/>
-      <c r="C92" s="222" t="s">
+      <c r="B92" s="338"/>
+      <c r="C92" s="339" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="222"/>
-      <c r="E92" s="222"/>
-      <c r="F92" s="222"/>
+      <c r="D92" s="339"/>
+      <c r="E92" s="339"/>
+      <c r="F92" s="339"/>
       <c r="G92" s="16">
         <f>$P$4</f>
         <v>0</v>
@@ -6800,27 +6793,27 @@
         <v>0</v>
       </c>
       <c r="J92" s="18"/>
-      <c r="K92" s="223">
+      <c r="K92" s="340">
         <f>SUMIF(F61:F86,"&lt;&gt;"&amp;hdn_payoff_circle,K61:K86)</f>
         <v>0</v>
       </c>
-      <c r="L92" s="223"/>
+      <c r="L92" s="340"/>
       <c r="M92" s="18"/>
-      <c r="N92" s="224"/>
-      <c r="O92" s="224"/>
+      <c r="N92" s="341"/>
+      <c r="O92" s="341"/>
       <c r="P92" s="61"/>
     </row>
     <row r="93" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="201" t="s">
+      <c r="A93" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="202"/>
-      <c r="C93" s="203" t="s">
+      <c r="B93" s="366"/>
+      <c r="C93" s="367" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="203"/>
-      <c r="E93" s="203"/>
-      <c r="F93" s="203"/>
+      <c r="D93" s="367"/>
+      <c r="E93" s="367"/>
+      <c r="F93" s="367"/>
       <c r="G93" s="19">
         <f>$P$4</f>
         <v>0</v>
@@ -6831,27 +6824,27 @@
         <v>0</v>
       </c>
       <c r="J93" s="52"/>
-      <c r="K93" s="204">
+      <c r="K93" s="368">
         <f>SUMIF(F34:F86,hdn_payoff_circle,K34:K86)</f>
         <v>0</v>
       </c>
-      <c r="L93" s="205"/>
+      <c r="L93" s="369"/>
       <c r="M93" s="52"/>
-      <c r="N93" s="206"/>
-      <c r="O93" s="207"/>
+      <c r="N93" s="370"/>
+      <c r="O93" s="371"/>
       <c r="P93" s="21"/>
     </row>
     <row r="94" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="208" t="s">
+      <c r="A94" s="372" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="209"/>
-      <c r="C94" s="210" t="s">
+      <c r="B94" s="373"/>
+      <c r="C94" s="374" t="s">
         <v>48</v>
       </c>
-      <c r="D94" s="210"/>
-      <c r="E94" s="210"/>
-      <c r="F94" s="210"/>
+      <c r="D94" s="374"/>
+      <c r="E94" s="374"/>
+      <c r="F94" s="374"/>
       <c r="G94" s="133">
         <f>$P$4</f>
         <v>0</v>
@@ -6862,62 +6855,62 @@
         <v>0</v>
       </c>
       <c r="J94" s="129"/>
-      <c r="K94" s="211">
+      <c r="K94" s="375">
         <f>SUM(K92:K93)</f>
         <v>0</v>
       </c>
-      <c r="L94" s="212"/>
-      <c r="M94" s="213" t="s">
+      <c r="L94" s="376"/>
+      <c r="M94" s="332" t="s">
         <v>44</v>
       </c>
-      <c r="N94" s="214"/>
-      <c r="O94" s="211">
+      <c r="N94" s="334"/>
+      <c r="O94" s="375">
         <f>N58</f>
         <v>0</v>
       </c>
-      <c r="P94" s="215"/>
+      <c r="P94" s="377"/>
     </row>
     <row r="95" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="198" t="s">
+      <c r="A95" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="198"/>
-      <c r="C95" s="198"/>
-      <c r="D95" s="198"/>
-      <c r="E95" s="198"/>
-      <c r="F95" s="198"/>
-      <c r="G95" s="198"/>
+      <c r="B95" s="363"/>
+      <c r="C95" s="363"/>
+      <c r="D95" s="363"/>
+      <c r="E95" s="363"/>
+      <c r="F95" s="363"/>
+      <c r="G95" s="363"/>
       <c r="H95" s="161"/>
-      <c r="I95" s="199" t="s">
+      <c r="I95" s="364" t="s">
         <v>26</v>
       </c>
-      <c r="J95" s="199"/>
-      <c r="K95" s="199"/>
-      <c r="L95" s="199"/>
-      <c r="M95" s="199"/>
-      <c r="N95" s="199"/>
-      <c r="O95" s="199"/>
-      <c r="P95" s="199"/>
+      <c r="J95" s="364"/>
+      <c r="K95" s="364"/>
+      <c r="L95" s="364"/>
+      <c r="M95" s="364"/>
+      <c r="N95" s="364"/>
+      <c r="O95" s="364"/>
+      <c r="P95" s="364"/>
     </row>
     <row r="96" spans="1:22" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="200" t="s">
+      <c r="A96" s="311" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="200"/>
-      <c r="C96" s="200"/>
-      <c r="D96" s="200"/>
-      <c r="E96" s="200"/>
-      <c r="F96" s="200"/>
-      <c r="G96" s="200"/>
-      <c r="H96" s="200"/>
-      <c r="I96" s="200"/>
-      <c r="J96" s="200"/>
-      <c r="K96" s="200"/>
-      <c r="L96" s="200"/>
-      <c r="M96" s="200"/>
-      <c r="N96" s="200"/>
-      <c r="O96" s="200"/>
-      <c r="P96" s="200"/>
+      <c r="B96" s="311"/>
+      <c r="C96" s="311"/>
+      <c r="D96" s="311"/>
+      <c r="E96" s="311"/>
+      <c r="F96" s="311"/>
+      <c r="G96" s="311"/>
+      <c r="H96" s="311"/>
+      <c r="I96" s="311"/>
+      <c r="J96" s="311"/>
+      <c r="K96" s="311"/>
+      <c r="L96" s="311"/>
+      <c r="M96" s="311"/>
+      <c r="N96" s="311"/>
+      <c r="O96" s="311"/>
+      <c r="P96" s="311"/>
     </row>
     <row r="97" spans="1:23" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="175"/>
@@ -6938,26 +6931,26 @@
     </row>
     <row r="98" spans="1:23" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="175"/>
-      <c r="G98" s="191" t="s">
+      <c r="G98" s="356" t="s">
         <v>66</v>
       </c>
-      <c r="H98" s="192"/>
-      <c r="I98" s="216" t="s">
+      <c r="H98" s="357"/>
+      <c r="I98" s="378" t="s">
         <v>67</v>
       </c>
-      <c r="J98" s="216"/>
-      <c r="K98" s="216" t="s">
+      <c r="J98" s="378"/>
+      <c r="K98" s="378" t="s">
         <v>68</v>
       </c>
-      <c r="L98" s="216"/>
-      <c r="M98" s="216" t="s">
+      <c r="L98" s="378"/>
+      <c r="M98" s="378" t="s">
         <v>71</v>
       </c>
-      <c r="N98" s="216"/>
-      <c r="O98" s="216" t="s">
+      <c r="N98" s="378"/>
+      <c r="O98" s="378" t="s">
         <v>72</v>
       </c>
-      <c r="P98" s="216"/>
+      <c r="P98" s="378"/>
       <c r="Q98" s="187"/>
       <c r="R98" s="176" t="s">
         <v>35</v>
@@ -7151,10 +7144,10 @@
       <c r="V104" s="26"/>
     </row>
     <row r="105" spans="1:23" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="197" t="s">
+      <c r="A105" s="362" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="197"/>
+      <c r="B105" s="362"/>
       <c r="G105" s="28"/>
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
@@ -7384,7 +7377,7 @@
       <c r="V114" s="26"/>
     </row>
     <row r="115" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="193" t="s">
+      <c r="A115" s="358" t="s">
         <v>78</v>
       </c>
       <c r="B115" s="26"/>
@@ -7408,7 +7401,7 @@
       <c r="V115" s="26"/>
     </row>
     <row r="116" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="193"/>
+      <c r="A116" s="358"/>
       <c r="B116" s="26"/>
       <c r="E116" s="32"/>
       <c r="F116" s="178"/>
@@ -7430,7 +7423,7 @@
       <c r="V116" s="26"/>
     </row>
     <row r="117" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="194" t="s">
+      <c r="A117" s="359" t="s">
         <v>80</v>
       </c>
       <c r="B117" s="24"/>
@@ -7454,7 +7447,7 @@
       <c r="V117" s="26"/>
     </row>
     <row r="118" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="195"/>
+      <c r="A118" s="360"/>
       <c r="B118" s="25"/>
       <c r="E118" s="32"/>
       <c r="F118" s="178"/>
@@ -7476,7 +7469,7 @@
       <c r="V118" s="26"/>
     </row>
     <row r="119" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="195"/>
+      <c r="A119" s="360"/>
       <c r="B119" s="23"/>
       <c r="E119" s="32"/>
       <c r="F119" s="178"/>
@@ -7498,7 +7491,7 @@
       <c r="V119" s="26"/>
     </row>
     <row r="120" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="195"/>
+      <c r="A120" s="360"/>
       <c r="B120" s="23"/>
       <c r="E120" s="32"/>
       <c r="F120" s="178"/>
@@ -7520,7 +7513,7 @@
       <c r="V120" s="26"/>
     </row>
     <row r="121" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="195"/>
+      <c r="A121" s="360"/>
       <c r="B121" s="28"/>
       <c r="E121" s="32"/>
       <c r="F121" s="178"/>
@@ -7542,7 +7535,7 @@
       <c r="V121" s="26"/>
     </row>
     <row r="122" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="195"/>
+      <c r="A122" s="360"/>
       <c r="B122" s="26"/>
       <c r="F122" s="178"/>
       <c r="G122" s="26"/>
@@ -7563,7 +7556,7 @@
       <c r="V122" s="33"/>
     </row>
     <row r="123" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="196"/>
+      <c r="A123" s="361"/>
       <c r="B123" s="28"/>
       <c r="F123" s="178"/>
       <c r="G123" s="26"/>
@@ -8381,296 +8374,57 @@
     <row r="200" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="361">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="A32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A123"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="I95:P95"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A83:B83"/>
@@ -8691,67 +8445,306 @@
     <mergeCell ref="N82:P82"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D82:E82"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A123"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="I95:P95"/>
-    <mergeCell ref="A96:P96"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O36:P40 O34:P34 O55:P56 N61:P79 N7:N15 N19:N30 N34:N57 N80 N81:P82 N83 N84:P85 N86:O86" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation type="textLength" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="製品コード入力ミス" error="製品コードを4桁で入力してください。_x000a_例：0000～9999" sqref="B3" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>5</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:J15 N4 P3 G7:G15 G19:G30 I19:J30 I34:J57 G34:G57 G61:G86 I61:J86" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G34:G57 N4 P3 G7:G15 G19:G30 G61:G86" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F87" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>"　○"</formula1>
     </dataValidation>
@@ -8767,6 +8760,18 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H7:H15 H19:H30 H34:H57" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>$C$100:$C$103</formula1>
     </dataValidation>
+    <dataValidation type="custom" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="小数点以下は4桁までです。" sqref="I7:J15" xr:uid="{F5F3FFE8-18DF-4FB3-970E-71D9BBCA57B4}">
+      <formula1>I7:J15-ROUNDDOWN(I7:J15,4)=0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="小数点以下は4桁までです。" sqref="I19:J30" xr:uid="{5909F07B-957D-4D37-B676-689661EE716B}">
+      <formula1>I19:J30-ROUNDDOWN(I19:J30,4)=0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="小数点以下は4桁までです。" sqref="I34:J57" xr:uid="{81233819-0AA2-4276-947E-8AB50D9716F5}">
+      <formula1>I34:J57-ROUNDDOWN(I34:J57,4)=0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="小数点以下は4桁までです。" sqref="I61:J86" xr:uid="{08A4A5F2-954B-4A16-9122-84157BFDED0B}">
+      <formula1>I61:J86-ROUNDDOWN(I61:J86,4)=0</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="61" fitToWidth="0" orientation="portrait" r:id="rId1"/>

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E20FD7-072E-43A6-9065-C1446B66A21E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6204A8-6D82-4A24-8E4B-3E813A33352B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,14 @@
     <definedName name="calculation_tariff" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$A$108</definedName>
     <definedName name="cartonquantity" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$N$4</definedName>
     <definedName name="cartonquantity_header" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$L$4</definedName>
-    <definedName name="client_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$U$99</definedName>
+    <definedName name="client_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$V$99</definedName>
     <definedName name="cost_not_depreciation" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$O$94</definedName>
     <definedName name="cost_not_depreciation_header" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$M$94</definedName>
     <definedName name="depreciation_cost" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$K$93</definedName>
     <definedName name="depreciation_cost_header" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$A$93</definedName>
     <definedName name="depreciation_quantity" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$G$93</definedName>
     <definedName name="depreciation_unit_cost" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$I$93</definedName>
-    <definedName name="develop_user_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$T$99</definedName>
+    <definedName name="develop_user_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$U$99</definedName>
     <definedName name="developusercode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$J$4</definedName>
     <definedName name="developusercode_header" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$H$4</definedName>
     <definedName name="fixedcost_profit" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$H$89</definedName>
@@ -48,8 +48,8 @@
     <definedName name="hdn_product_sales" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$B$115</definedName>
     <definedName name="hdn_tariff" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$B$123</definedName>
     <definedName name="hdn_tariff_sales" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$B$124</definedName>
-    <definedName name="incharge_group_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$R$99</definedName>
-    <definedName name="incharge_user_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$S$99</definedName>
+    <definedName name="incharge_group_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$S$99</definedName>
+    <definedName name="incharge_user_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$T$99</definedName>
     <definedName name="inchargegroupcode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$B$4</definedName>
     <definedName name="inchargegroupcode_header" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$A$4</definedName>
     <definedName name="inchargeusercode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$E$4</definedName>
@@ -72,6 +72,7 @@
     <definedName name="operating_profit" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$N$91</definedName>
     <definedName name="operating_profit_header" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$K$91</definedName>
     <definedName name="operating_profit_rate" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$P$91</definedName>
+    <definedName name="order_e_company_check">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$R$60</definedName>
     <definedName name="order_e_conversionrate" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$J$60</definedName>
     <definedName name="order_e_customercompanycode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$D$60</definedName>
     <definedName name="order_e_deliverydate" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$M$60</definedName>
@@ -81,12 +82,13 @@
     <definedName name="order_e_payofftargetflag" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$F$60</definedName>
     <definedName name="order_e_productprice" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$I$60</definedName>
     <definedName name="order_e_productquantity" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$G$60</definedName>
-    <definedName name="order_e_rate_code" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$U$60</definedName>
+    <definedName name="order_e_rate_code" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$V$60</definedName>
     <definedName name="order_e_stockitem_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$N$99</definedName>
     <definedName name="order_e_stockitemcode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$C$60</definedName>
     <definedName name="order_e_stocksubject_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$M$99</definedName>
     <definedName name="order_e_stocksubjectcode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$A$60</definedName>
     <definedName name="order_e_subtotalprice" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$K$60</definedName>
+    <definedName name="order_f_company_check">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$R$33</definedName>
     <definedName name="order_f_conversionrate" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$J$33</definedName>
     <definedName name="order_f_cost_not_depreciation" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$N$58</definedName>
     <definedName name="order_f_customercompanycode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$D$33</definedName>
@@ -99,7 +101,7 @@
     <definedName name="order_f_payofftargetflag" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$F$33</definedName>
     <definedName name="order_f_productprice" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$I$33</definedName>
     <definedName name="order_f_productquantity" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$G$33</definedName>
-    <definedName name="order_f_rate_code" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$U$33</definedName>
+    <definedName name="order_f_rate_code" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$V$33</definedName>
     <definedName name="order_f_stockitem_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$L$99</definedName>
     <definedName name="order_f_stockitemcode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$C$33</definedName>
     <definedName name="order_f_stocksubject_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$K$99</definedName>
@@ -126,6 +128,7 @@
     <definedName name="profit_header" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$L$89</definedName>
     <definedName name="profit_rate" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$P$89</definedName>
     <definedName name="receive_f_class_check" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$Q$18</definedName>
+    <definedName name="receive_f_company_check">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$R$18</definedName>
     <definedName name="receive_f_conversionrate" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$J$18</definedName>
     <definedName name="receive_f_customercompanycode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$D$18</definedName>
     <definedName name="receive_f_deliverydate" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$M$18</definedName>
@@ -133,7 +136,7 @@
     <definedName name="receive_f_note" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$N$18</definedName>
     <definedName name="receive_f_productprice" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$I$18</definedName>
     <definedName name="receive_f_productquantity" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$G$18</definedName>
-    <definedName name="receive_f_rate_code" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$U$18</definedName>
+    <definedName name="receive_f_rate_code" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$V$18</definedName>
     <definedName name="receive_f_salesclass_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$J$99</definedName>
     <definedName name="receive_f_salesclasscode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$C$18</definedName>
     <definedName name="receive_f_salesdivision_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$I$99</definedName>
@@ -143,6 +146,7 @@
     <definedName name="receive_f_totalprice_header" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$A$31</definedName>
     <definedName name="receive_f_totalquantity" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$G$31</definedName>
     <definedName name="receive_p_class_check" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$Q$6</definedName>
+    <definedName name="receive_p_company_check">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$R$6</definedName>
     <definedName name="receive_p_conversionrate" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$J$6</definedName>
     <definedName name="receive_p_customercompanycode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$D$6</definedName>
     <definedName name="receive_p_deliverydate" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$M$6</definedName>
@@ -150,7 +154,7 @@
     <definedName name="receive_p_note" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$N$6</definedName>
     <definedName name="receive_p_productprice" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$I$6</definedName>
     <definedName name="receive_p_productquantity" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$G$6</definedName>
-    <definedName name="receive_p_rate_code" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$U$6</definedName>
+    <definedName name="receive_p_rate_code" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$V$6</definedName>
     <definedName name="receive_p_salesclass_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$H$99</definedName>
     <definedName name="receive_p_salesclasscode" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$C$6</definedName>
     <definedName name="receive_p_salesdivision_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$G$99</definedName>
@@ -164,7 +168,7 @@
     <definedName name="salesamount" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$N$88</definedName>
     <definedName name="salesamount_header" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$L$88</definedName>
     <definedName name="standard_rate" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$P$90</definedName>
-    <definedName name="supplier_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$V$99</definedName>
+    <definedName name="supplier_dropdown" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$W$99</definedName>
     <definedName name="tariff_total" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$A$110</definedName>
     <definedName name="top_left" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$A$1</definedName>
     <definedName name="top_right" localSheetId="0">'ver.4.0.1 ﾊﾟﾀｰﾝ1'!$P$1</definedName>
@@ -2243,7 +2247,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2838,455 +2842,189 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="24" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -3313,146 +3051,415 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3883,10 +3890,10 @@
   <sheetPr>
     <tabColor rgb="FFFFEB00"/>
   </sheetPr>
-  <dimension ref="A1:W200"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61:J86"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3904,42 +3911,42 @@
     <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="9.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.44140625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="4.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="17" max="19" width="10.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P1" s="40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="212" t="s">
+      <c r="E2" s="358" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
+      <c r="F2" s="358"/>
+      <c r="G2" s="358"/>
+      <c r="H2" s="358"/>
+      <c r="I2" s="358"/>
+      <c r="J2" s="358"/>
+      <c r="K2" s="358"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
       <c r="O2" s="57"/>
       <c r="P2" s="57"/>
     </row>
-    <row r="3" spans="1:22" ht="28.65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="28.65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="135" t="s">
         <v>1</v>
       </c>
@@ -3947,86 +3954,86 @@
       <c r="C3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="213"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="215"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="360"/>
+      <c r="H3" s="361"/>
       <c r="I3" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="215"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="360"/>
+      <c r="L3" s="360"/>
+      <c r="M3" s="360"/>
+      <c r="N3" s="361"/>
       <c r="O3" s="138" t="s">
         <v>25</v>
       </c>
       <c r="P3" s="167"/>
     </row>
-    <row r="4" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="217"/>
+      <c r="B4" s="362"/>
+      <c r="C4" s="363"/>
       <c r="D4" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221" t="s">
+      <c r="E4" s="364"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="222"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="221" t="s">
+      <c r="I4" s="368"/>
+      <c r="J4" s="369"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="367" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="222"/>
+      <c r="M4" s="368"/>
       <c r="N4" s="119"/>
       <c r="O4" s="130" t="s">
         <v>63</v>
       </c>
       <c r="P4" s="168">
-        <f>SUM($S7:$S15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="224"/>
-      <c r="B5" s="225"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="225"/>
-      <c r="M5" s="225"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="226"/>
-    </row>
-    <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="191" t="s">
+        <f>SUM($T7:$T15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="370"/>
+      <c r="B5" s="371"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
+      <c r="G5" s="371"/>
+      <c r="H5" s="371"/>
+      <c r="I5" s="371"/>
+      <c r="J5" s="371"/>
+      <c r="K5" s="371"/>
+      <c r="L5" s="371"/>
+      <c r="M5" s="371"/>
+      <c r="N5" s="371"/>
+      <c r="O5" s="371"/>
+      <c r="P5" s="372"/>
+    </row>
+    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="192"/>
+      <c r="B6" s="375"/>
       <c r="C6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="193" t="s">
+      <c r="D6" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="194"/>
-      <c r="F6" s="192"/>
+      <c r="E6" s="377"/>
+      <c r="F6" s="375"/>
       <c r="G6" s="104" t="s">
         <v>7</v>
       </c>
@@ -4039,382 +4046,382 @@
       <c r="J6" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="195" t="s">
+      <c r="K6" s="378" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="196"/>
+      <c r="L6" s="379"/>
       <c r="M6" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="197" t="s">
+      <c r="N6" s="343" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="198"/>
-      <c r="P6" s="199"/>
-      <c r="S6" s="1" t="s">
+      <c r="O6" s="344"/>
+      <c r="P6" s="345"/>
+      <c r="T6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="169" t="s">
+      <c r="W6" s="169" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="200"/>
-      <c r="B7" s="201"/>
+    <row r="7" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="346"/>
+      <c r="B7" s="347"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="204"/>
+      <c r="D7" s="348"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="350"/>
       <c r="G7" s="70"/>
       <c r="H7" s="87"/>
       <c r="I7" s="71"/>
       <c r="J7" s="122"/>
-      <c r="K7" s="205">
+      <c r="K7" s="317">
         <f>IFERROR(G7*I7*J7,"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="206"/>
+      <c r="L7" s="318"/>
       <c r="M7" s="113"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="208"/>
-      <c r="P7" s="209"/>
-      <c r="S7" s="1">
+      <c r="N7" s="355"/>
+      <c r="O7" s="356"/>
+      <c r="P7" s="357"/>
+      <c r="T7" s="1">
         <f>IF(AND($A7=hdn_product_sales,$C7=hdn_main_product,ISNUMBER($I7)=TRUE,$J7&gt;0,ISNUMBER($G7)=TRUE,ISNUMBER($K7)=TRUE),$G7,0)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="1">
-        <f t="shared" ref="U7:U15" si="0">IFERROR(VLOOKUP(H7,$C$101:$D$103,2,FALSE),1)</f>
+      <c r="V7" s="1">
+        <f t="shared" ref="V7:V15" si="0">IFERROR(VLOOKUP(H7,$C$101:$D$103,2,FALSE),1)</f>
         <v>1</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="200"/>
-      <c r="B8" s="201"/>
+    <row r="8" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="346"/>
+      <c r="B8" s="347"/>
       <c r="C8" s="85"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="204"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="349"/>
+      <c r="F8" s="350"/>
       <c r="G8" s="72"/>
       <c r="H8" s="88"/>
       <c r="I8" s="73"/>
       <c r="J8" s="122"/>
-      <c r="K8" s="205">
+      <c r="K8" s="317">
         <f t="shared" ref="K8:K15" si="1">IFERROR(G8*I8*J8,"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="206"/>
+      <c r="L8" s="318"/>
       <c r="M8" s="113"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="208"/>
-      <c r="P8" s="209"/>
-      <c r="S8" s="1">
-        <f t="shared" ref="S8:S15" si="2">IF(AND($A8=hdn_product_sales,$C8=hdn_main_product,ISNUMBER($I8)=TRUE,$J8&gt;0,ISNUMBER($G8)=TRUE,ISNUMBER($K8)=TRUE),$G8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
+      <c r="N8" s="355"/>
+      <c r="O8" s="356"/>
+      <c r="P8" s="357"/>
+      <c r="T8" s="1">
+        <f t="shared" ref="T8:T15" si="2">IF(AND($A8=hdn_product_sales,$C8=hdn_main_product,ISNUMBER($I8)=TRUE,$J8&gt;0,ISNUMBER($G8)=TRUE,ISNUMBER($K8)=TRUE),$G8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="200"/>
-      <c r="B9" s="201"/>
+    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="346"/>
+      <c r="B9" s="347"/>
       <c r="C9" s="85"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="204"/>
+      <c r="D9" s="348"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="350"/>
       <c r="G9" s="72"/>
       <c r="H9" s="88"/>
       <c r="I9" s="73"/>
       <c r="J9" s="123"/>
-      <c r="K9" s="205">
+      <c r="K9" s="317">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="206"/>
+      <c r="L9" s="318"/>
       <c r="M9" s="112"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="211"/>
-      <c r="S9" s="1">
+      <c r="N9" s="351"/>
+      <c r="O9" s="351"/>
+      <c r="P9" s="352"/>
+      <c r="T9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="200"/>
-      <c r="B10" s="201"/>
+    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="346"/>
+      <c r="B10" s="347"/>
       <c r="C10" s="85"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="204"/>
+      <c r="D10" s="348"/>
+      <c r="E10" s="349"/>
+      <c r="F10" s="350"/>
       <c r="G10" s="72"/>
       <c r="H10" s="88"/>
       <c r="I10" s="73"/>
       <c r="J10" s="123"/>
-      <c r="K10" s="205">
+      <c r="K10" s="317">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="206"/>
+      <c r="L10" s="318"/>
       <c r="M10" s="112"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
-      <c r="P10" s="211"/>
-      <c r="S10" s="1">
+      <c r="N10" s="351"/>
+      <c r="O10" s="351"/>
+      <c r="P10" s="352"/>
+      <c r="T10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="1">
+      <c r="U10" s="10"/>
+      <c r="V10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="200"/>
-      <c r="B11" s="201"/>
+    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="346"/>
+      <c r="B11" s="347"/>
       <c r="C11" s="85"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="204"/>
+      <c r="D11" s="348"/>
+      <c r="E11" s="349"/>
+      <c r="F11" s="350"/>
       <c r="G11" s="72"/>
       <c r="H11" s="88"/>
       <c r="I11" s="73"/>
       <c r="J11" s="123"/>
-      <c r="K11" s="205">
+      <c r="K11" s="317">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="206"/>
+      <c r="L11" s="318"/>
       <c r="M11" s="112"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
-      <c r="P11" s="211"/>
-      <c r="S11" s="1">
+      <c r="N11" s="351"/>
+      <c r="O11" s="351"/>
+      <c r="P11" s="352"/>
+      <c r="T11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="1">
+      <c r="U11" s="10"/>
+      <c r="V11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="200"/>
-      <c r="B12" s="201"/>
+    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="346"/>
+      <c r="B12" s="347"/>
       <c r="C12" s="85"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="204"/>
+      <c r="D12" s="348"/>
+      <c r="E12" s="349"/>
+      <c r="F12" s="350"/>
       <c r="G12" s="72"/>
       <c r="H12" s="88"/>
       <c r="I12" s="73"/>
       <c r="J12" s="123"/>
-      <c r="K12" s="205">
+      <c r="K12" s="317">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="206"/>
+      <c r="L12" s="318"/>
       <c r="M12" s="112"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
-      <c r="P12" s="211"/>
-      <c r="S12" s="1">
+      <c r="N12" s="351"/>
+      <c r="O12" s="351"/>
+      <c r="P12" s="352"/>
+      <c r="T12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="1">
+      <c r="U12" s="10"/>
+      <c r="V12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="200"/>
-      <c r="B13" s="201"/>
+    <row r="13" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="346"/>
+      <c r="B13" s="347"/>
       <c r="C13" s="85"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="204"/>
+      <c r="D13" s="348"/>
+      <c r="E13" s="349"/>
+      <c r="F13" s="350"/>
       <c r="G13" s="72"/>
       <c r="H13" s="88"/>
       <c r="I13" s="73"/>
       <c r="J13" s="123"/>
-      <c r="K13" s="205">
+      <c r="K13" s="317">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="206"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="112"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
-      <c r="P13" s="211"/>
-      <c r="S13" s="1">
+      <c r="N13" s="351"/>
+      <c r="O13" s="351"/>
+      <c r="P13" s="352"/>
+      <c r="T13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T13" s="10"/>
-      <c r="U13" s="1">
+      <c r="U13" s="10"/>
+      <c r="V13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="200"/>
-      <c r="B14" s="201"/>
+    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="346"/>
+      <c r="B14" s="347"/>
       <c r="C14" s="85"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="204"/>
+      <c r="D14" s="348"/>
+      <c r="E14" s="349"/>
+      <c r="F14" s="350"/>
       <c r="G14" s="72"/>
       <c r="H14" s="88"/>
       <c r="I14" s="73"/>
       <c r="J14" s="123"/>
-      <c r="K14" s="205">
+      <c r="K14" s="317">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="206"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="112"/>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
-      <c r="P14" s="211"/>
-      <c r="S14" s="1">
+      <c r="N14" s="351"/>
+      <c r="O14" s="351"/>
+      <c r="P14" s="352"/>
+      <c r="T14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="10"/>
-      <c r="U14" s="1">
+      <c r="U14" s="10"/>
+      <c r="V14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="200"/>
-      <c r="B15" s="201"/>
+    <row r="15" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="346"/>
+      <c r="B15" s="347"/>
       <c r="C15" s="86"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
+      <c r="D15" s="348"/>
+      <c r="E15" s="349"/>
+      <c r="F15" s="350"/>
       <c r="G15" s="74"/>
       <c r="H15" s="89"/>
       <c r="I15" s="75"/>
       <c r="J15" s="124"/>
-      <c r="K15" s="205">
+      <c r="K15" s="317">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="206"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="114"/>
-      <c r="N15" s="228"/>
-      <c r="O15" s="228"/>
-      <c r="P15" s="229"/>
-      <c r="S15" s="1">
+      <c r="N15" s="353"/>
+      <c r="O15" s="353"/>
+      <c r="P15" s="354"/>
+      <c r="T15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T15" s="10"/>
-      <c r="U15" s="1">
+      <c r="U15" s="10"/>
+      <c r="V15" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="238" t="s">
+    <row r="16" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
-      <c r="F16" s="240"/>
+      <c r="B16" s="330"/>
+      <c r="C16" s="330"/>
+      <c r="D16" s="330"/>
+      <c r="E16" s="330"/>
+      <c r="F16" s="331"/>
       <c r="G16" s="79">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
       <c r="H16" s="76"/>
-      <c r="I16" s="241">
+      <c r="I16" s="332">
         <f>SUM(K7:K15)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="242"/>
-      <c r="K16" s="242"/>
-      <c r="L16" s="243"/>
+      <c r="J16" s="333"/>
+      <c r="K16" s="333"/>
+      <c r="L16" s="334"/>
       <c r="M16" s="115"/>
-      <c r="N16" s="244"/>
-      <c r="O16" s="244"/>
-      <c r="P16" s="245"/>
-      <c r="S16" s="10"/>
+      <c r="N16" s="335"/>
+      <c r="O16" s="335"/>
+      <c r="P16" s="336"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-    </row>
-    <row r="17" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="246"/>
-      <c r="B17" s="247"/>
-      <c r="C17" s="247"/>
-      <c r="D17" s="247"/>
-      <c r="E17" s="247"/>
-      <c r="F17" s="247"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="247"/>
-      <c r="K17" s="247"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="247"/>
-      <c r="N17" s="247"/>
-      <c r="O17" s="247"/>
-      <c r="P17" s="248"/>
-      <c r="S17" s="10"/>
+      <c r="V16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="309"/>
+      <c r="B17" s="310"/>
+      <c r="C17" s="310"/>
+      <c r="D17" s="310"/>
+      <c r="E17" s="310"/>
+      <c r="F17" s="310"/>
+      <c r="G17" s="310"/>
+      <c r="H17" s="310"/>
+      <c r="I17" s="310"/>
+      <c r="J17" s="310"/>
+      <c r="K17" s="310"/>
+      <c r="L17" s="310"/>
+      <c r="M17" s="310"/>
+      <c r="N17" s="310"/>
+      <c r="O17" s="310"/>
+      <c r="P17" s="311"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
-    </row>
-    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="249" t="s">
+      <c r="V17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="250"/>
+      <c r="B18" s="338"/>
       <c r="C18" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="251" t="s">
+      <c r="D18" s="339" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="252"/>
-      <c r="F18" s="250"/>
+      <c r="E18" s="340"/>
+      <c r="F18" s="338"/>
       <c r="G18" s="109" t="s">
         <v>7</v>
       </c>
@@ -4427,437 +4434,437 @@
       <c r="J18" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="253" t="s">
+      <c r="K18" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="254"/>
+      <c r="L18" s="342"/>
       <c r="M18" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="197" t="s">
+      <c r="N18" s="343" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="198"/>
-      <c r="P18" s="199"/>
-    </row>
-    <row r="19" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="230"/>
-      <c r="B19" s="231"/>
+      <c r="O18" s="344"/>
+      <c r="P18" s="345"/>
+    </row>
+    <row r="19" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="312"/>
+      <c r="B19" s="313"/>
       <c r="C19" s="90"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="234"/>
+      <c r="D19" s="314"/>
+      <c r="E19" s="315"/>
+      <c r="F19" s="316"/>
       <c r="G19" s="5"/>
       <c r="H19" s="91"/>
       <c r="I19" s="6"/>
       <c r="J19" s="125"/>
-      <c r="K19" s="205">
+      <c r="K19" s="317">
         <f>IFERROR(G19*I19*J19,"")</f>
         <v>0</v>
       </c>
-      <c r="L19" s="206"/>
+      <c r="L19" s="318"/>
       <c r="M19" s="113"/>
-      <c r="N19" s="235"/>
-      <c r="O19" s="236"/>
-      <c r="P19" s="237"/>
-      <c r="U19" s="1">
-        <f t="shared" ref="U19:U30" si="3">IFERROR(VLOOKUP(H19,$C$101:$D$103,2,FALSE),1)</f>
+      <c r="N19" s="326"/>
+      <c r="O19" s="327"/>
+      <c r="P19" s="328"/>
+      <c r="V19" s="1">
+        <f t="shared" ref="V19:V30" si="3">IFERROR(VLOOKUP(H19,$C$101:$D$103,2,FALSE),1)</f>
         <v>1</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="230"/>
-      <c r="B20" s="231"/>
+    <row r="20" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="312"/>
+      <c r="B20" s="313"/>
       <c r="C20" s="90"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="234"/>
+      <c r="D20" s="314"/>
+      <c r="E20" s="315"/>
+      <c r="F20" s="316"/>
       <c r="G20" s="7"/>
       <c r="H20" s="92"/>
       <c r="I20" s="8"/>
       <c r="J20" s="126"/>
-      <c r="K20" s="205">
+      <c r="K20" s="317">
         <f t="shared" ref="K20:K30" si="4">IFERROR(G20*I20*J20,"")</f>
         <v>0</v>
       </c>
-      <c r="L20" s="206"/>
+      <c r="L20" s="318"/>
       <c r="M20" s="113"/>
-      <c r="N20" s="235"/>
-      <c r="O20" s="236"/>
-      <c r="P20" s="237"/>
-      <c r="U20" s="1">
+      <c r="N20" s="326"/>
+      <c r="O20" s="327"/>
+      <c r="P20" s="328"/>
+      <c r="V20" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="230"/>
-      <c r="B21" s="231"/>
+    <row r="21" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="312"/>
+      <c r="B21" s="313"/>
       <c r="C21" s="90"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="234"/>
+      <c r="D21" s="314"/>
+      <c r="E21" s="315"/>
+      <c r="F21" s="316"/>
       <c r="G21" s="7"/>
       <c r="H21" s="92"/>
       <c r="I21" s="8"/>
       <c r="J21" s="126"/>
-      <c r="K21" s="205">
+      <c r="K21" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="206"/>
+      <c r="L21" s="318"/>
       <c r="M21" s="113"/>
-      <c r="N21" s="255"/>
-      <c r="O21" s="255"/>
-      <c r="P21" s="256"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="1">
+      <c r="N21" s="271"/>
+      <c r="O21" s="271"/>
+      <c r="P21" s="272"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="230"/>
-      <c r="B22" s="231"/>
+    <row r="22" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="312"/>
+      <c r="B22" s="313"/>
       <c r="C22" s="90"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233"/>
-      <c r="F22" s="234"/>
+      <c r="D22" s="314"/>
+      <c r="E22" s="315"/>
+      <c r="F22" s="316"/>
       <c r="G22" s="7"/>
       <c r="H22" s="92"/>
       <c r="I22" s="8"/>
       <c r="J22" s="126"/>
-      <c r="K22" s="205">
+      <c r="K22" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="206"/>
+      <c r="L22" s="318"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="255"/>
-      <c r="O22" s="255"/>
-      <c r="P22" s="256"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="1">
+      <c r="N22" s="271"/>
+      <c r="O22" s="271"/>
+      <c r="P22" s="272"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="230"/>
-      <c r="B23" s="231"/>
+    <row r="23" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="312"/>
+      <c r="B23" s="313"/>
       <c r="C23" s="90"/>
-      <c r="D23" s="232"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="234"/>
+      <c r="D23" s="314"/>
+      <c r="E23" s="315"/>
+      <c r="F23" s="316"/>
       <c r="G23" s="7"/>
       <c r="H23" s="92"/>
       <c r="I23" s="8"/>
       <c r="J23" s="126"/>
-      <c r="K23" s="205">
+      <c r="K23" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L23" s="206"/>
+      <c r="L23" s="318"/>
       <c r="M23" s="113"/>
-      <c r="N23" s="255"/>
-      <c r="O23" s="255"/>
-      <c r="P23" s="256"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="1">
+      <c r="N23" s="271"/>
+      <c r="O23" s="271"/>
+      <c r="P23" s="272"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="230"/>
-      <c r="B24" s="231"/>
+    <row r="24" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="312"/>
+      <c r="B24" s="313"/>
       <c r="C24" s="90"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="234"/>
+      <c r="D24" s="314"/>
+      <c r="E24" s="315"/>
+      <c r="F24" s="316"/>
       <c r="G24" s="7"/>
       <c r="H24" s="92"/>
       <c r="I24" s="8"/>
       <c r="J24" s="126"/>
-      <c r="K24" s="205">
+      <c r="K24" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L24" s="206"/>
+      <c r="L24" s="318"/>
       <c r="M24" s="113"/>
-      <c r="N24" s="255"/>
-      <c r="O24" s="255"/>
-      <c r="P24" s="256"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="1">
+      <c r="N24" s="271"/>
+      <c r="O24" s="271"/>
+      <c r="P24" s="272"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="230"/>
-      <c r="B25" s="231"/>
+    <row r="25" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="312"/>
+      <c r="B25" s="313"/>
       <c r="C25" s="90"/>
-      <c r="D25" s="232"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="234"/>
+      <c r="D25" s="314"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="316"/>
       <c r="G25" s="7"/>
       <c r="H25" s="92"/>
       <c r="I25" s="8"/>
       <c r="J25" s="126"/>
-      <c r="K25" s="205">
+      <c r="K25" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L25" s="206"/>
+      <c r="L25" s="318"/>
       <c r="M25" s="113"/>
-      <c r="N25" s="255"/>
-      <c r="O25" s="255"/>
-      <c r="P25" s="256"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="1">
+      <c r="N25" s="271"/>
+      <c r="O25" s="271"/>
+      <c r="P25" s="272"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="230"/>
-      <c r="B26" s="231"/>
+    <row r="26" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="312"/>
+      <c r="B26" s="313"/>
       <c r="C26" s="90"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="234"/>
+      <c r="D26" s="314"/>
+      <c r="E26" s="315"/>
+      <c r="F26" s="316"/>
       <c r="G26" s="7"/>
       <c r="H26" s="92"/>
       <c r="I26" s="8"/>
       <c r="J26" s="126"/>
-      <c r="K26" s="205">
+      <c r="K26" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="206"/>
+      <c r="L26" s="318"/>
       <c r="M26" s="113"/>
-      <c r="N26" s="255"/>
-      <c r="O26" s="255"/>
-      <c r="P26" s="256"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="1">
+      <c r="N26" s="271"/>
+      <c r="O26" s="271"/>
+      <c r="P26" s="272"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="230"/>
-      <c r="B27" s="231"/>
+    <row r="27" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="312"/>
+      <c r="B27" s="313"/>
       <c r="C27" s="90"/>
-      <c r="D27" s="232"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="234"/>
+      <c r="D27" s="314"/>
+      <c r="E27" s="315"/>
+      <c r="F27" s="316"/>
       <c r="G27" s="7"/>
       <c r="H27" s="92"/>
       <c r="I27" s="8"/>
       <c r="J27" s="126"/>
-      <c r="K27" s="205">
+      <c r="K27" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L27" s="206"/>
+      <c r="L27" s="318"/>
       <c r="M27" s="113"/>
-      <c r="N27" s="255"/>
-      <c r="O27" s="255"/>
-      <c r="P27" s="256"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="1">
+      <c r="N27" s="271"/>
+      <c r="O27" s="271"/>
+      <c r="P27" s="272"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="230"/>
-      <c r="B28" s="231"/>
+    <row r="28" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="312"/>
+      <c r="B28" s="313"/>
       <c r="C28" s="90"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="234"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="315"/>
+      <c r="F28" s="316"/>
       <c r="G28" s="7"/>
       <c r="H28" s="92"/>
       <c r="I28" s="8"/>
       <c r="J28" s="126"/>
-      <c r="K28" s="205">
+      <c r="K28" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L28" s="206"/>
+      <c r="L28" s="318"/>
       <c r="M28" s="113"/>
-      <c r="N28" s="255"/>
-      <c r="O28" s="255"/>
-      <c r="P28" s="256"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="1">
+      <c r="N28" s="271"/>
+      <c r="O28" s="271"/>
+      <c r="P28" s="272"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="230"/>
-      <c r="B29" s="231"/>
+    <row r="29" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="312"/>
+      <c r="B29" s="313"/>
       <c r="C29" s="90"/>
-      <c r="D29" s="232"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="234"/>
+      <c r="D29" s="314"/>
+      <c r="E29" s="315"/>
+      <c r="F29" s="316"/>
       <c r="G29" s="7"/>
       <c r="H29" s="92"/>
       <c r="I29" s="8"/>
       <c r="J29" s="126"/>
-      <c r="K29" s="205">
+      <c r="K29" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L29" s="206"/>
+      <c r="L29" s="318"/>
       <c r="M29" s="113"/>
-      <c r="N29" s="255"/>
-      <c r="O29" s="255"/>
-      <c r="P29" s="256"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="1">
+      <c r="N29" s="271"/>
+      <c r="O29" s="271"/>
+      <c r="P29" s="272"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="270"/>
-      <c r="B30" s="271"/>
+    <row r="30" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="319"/>
+      <c r="B30" s="320"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="272"/>
-      <c r="E30" s="273"/>
-      <c r="F30" s="274"/>
+      <c r="D30" s="321"/>
+      <c r="E30" s="322"/>
+      <c r="F30" s="323"/>
       <c r="G30" s="55"/>
       <c r="H30" s="93"/>
       <c r="I30" s="54"/>
       <c r="J30" s="127"/>
-      <c r="K30" s="205">
+      <c r="K30" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="206"/>
+      <c r="L30" s="318"/>
       <c r="M30" s="117"/>
-      <c r="N30" s="275"/>
-      <c r="O30" s="275"/>
-      <c r="P30" s="276"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="1">
+      <c r="N30" s="324"/>
+      <c r="O30" s="324"/>
+      <c r="P30" s="325"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="257" t="s">
+    <row r="31" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="304" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="258"/>
-      <c r="C31" s="258"/>
-      <c r="D31" s="258"/>
-      <c r="E31" s="258"/>
-      <c r="F31" s="259"/>
+      <c r="B31" s="305"/>
+      <c r="C31" s="305"/>
+      <c r="D31" s="305"/>
+      <c r="E31" s="305"/>
+      <c r="F31" s="306"/>
       <c r="G31" s="78">
         <f>SUM(G19:G30)</f>
         <v>0</v>
       </c>
       <c r="H31" s="56"/>
-      <c r="I31" s="260">
+      <c r="I31" s="283">
         <f>SUM(K19:K30)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="261"/>
-      <c r="K31" s="261"/>
-      <c r="L31" s="262"/>
+      <c r="J31" s="284"/>
+      <c r="K31" s="284"/>
+      <c r="L31" s="285"/>
       <c r="M31" s="116"/>
-      <c r="N31" s="263"/>
-      <c r="O31" s="263"/>
-      <c r="P31" s="264"/>
-      <c r="S31" s="10"/>
+      <c r="N31" s="307"/>
+      <c r="O31" s="307"/>
+      <c r="P31" s="308"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
-    </row>
-    <row r="32" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="246"/>
-      <c r="B32" s="247"/>
-      <c r="C32" s="247"/>
-      <c r="D32" s="247"/>
-      <c r="E32" s="247"/>
-      <c r="F32" s="247"/>
-      <c r="G32" s="247"/>
-      <c r="H32" s="247"/>
-      <c r="I32" s="247"/>
-      <c r="J32" s="247"/>
-      <c r="K32" s="247"/>
-      <c r="L32" s="247"/>
-      <c r="M32" s="247"/>
-      <c r="N32" s="247"/>
-      <c r="O32" s="247"/>
-      <c r="P32" s="248"/>
-      <c r="S32" s="10"/>
+      <c r="V31" s="10"/>
+    </row>
+    <row r="32" spans="1:23" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="309"/>
+      <c r="B32" s="310"/>
+      <c r="C32" s="310"/>
+      <c r="D32" s="310"/>
+      <c r="E32" s="310"/>
+      <c r="F32" s="310"/>
+      <c r="G32" s="310"/>
+      <c r="H32" s="310"/>
+      <c r="I32" s="310"/>
+      <c r="J32" s="310"/>
+      <c r="K32" s="310"/>
+      <c r="L32" s="310"/>
+      <c r="M32" s="310"/>
+      <c r="N32" s="310"/>
+      <c r="O32" s="310"/>
+      <c r="P32" s="311"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-    </row>
-    <row r="33" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="265" t="s">
+      <c r="V32" s="10"/>
+    </row>
+    <row r="33" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="292" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="266"/>
+      <c r="B33" s="293"/>
       <c r="C33" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="267" t="s">
+      <c r="D33" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="266"/>
+      <c r="E33" s="293"/>
       <c r="F33" s="190" t="s">
         <v>15</v>
       </c>
@@ -4873,830 +4880,830 @@
       <c r="J33" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="267" t="s">
+      <c r="K33" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="266"/>
+      <c r="L33" s="293"/>
       <c r="M33" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="N33" s="267" t="s">
+      <c r="N33" s="294" t="s">
         <v>53</v>
       </c>
-      <c r="O33" s="268"/>
-      <c r="P33" s="269"/>
-      <c r="R33" s="46" t="s">
+      <c r="O33" s="295"/>
+      <c r="P33" s="296"/>
+      <c r="S33" s="46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="277"/>
-      <c r="B34" s="278"/>
+    <row r="34" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="275"/>
+      <c r="B34" s="276"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="279"/>
-      <c r="E34" s="278"/>
+      <c r="D34" s="277"/>
+      <c r="E34" s="276"/>
       <c r="F34" s="95"/>
       <c r="G34" s="7"/>
       <c r="H34" s="98"/>
       <c r="I34" s="8"/>
       <c r="J34" s="126"/>
-      <c r="K34" s="280">
+      <c r="K34" s="278">
         <f>IFERROR(G34*I34*J34,"")</f>
         <v>0</v>
       </c>
-      <c r="L34" s="281"/>
+      <c r="L34" s="279"/>
       <c r="M34" s="113"/>
-      <c r="N34" s="282"/>
-      <c r="O34" s="282"/>
-      <c r="P34" s="283"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="10"/>
+      <c r="N34" s="297"/>
+      <c r="O34" s="297"/>
+      <c r="P34" s="298"/>
+      <c r="S34" s="43"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="1">
-        <f t="shared" ref="U34:U57" si="5">IFERROR(VLOOKUP(H34,$C$101:$D$103,2,FALSE),1)</f>
+      <c r="U34" s="10"/>
+      <c r="V34" s="1">
+        <f t="shared" ref="V34:V57" si="5">IFERROR(VLOOKUP(H34,$C$101:$D$103,2,FALSE),1)</f>
         <v>1</v>
       </c>
-      <c r="V34" s="1">
+      <c r="W34" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="277"/>
-      <c r="B35" s="278"/>
+    <row r="35" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="275"/>
+      <c r="B35" s="276"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="279"/>
-      <c r="E35" s="278"/>
+      <c r="D35" s="277"/>
+      <c r="E35" s="276"/>
       <c r="F35" s="95"/>
       <c r="G35" s="7"/>
       <c r="H35" s="98"/>
       <c r="I35" s="8"/>
       <c r="J35" s="126"/>
-      <c r="K35" s="280">
+      <c r="K35" s="278">
         <f t="shared" ref="K35:K57" si="6">IFERROR(G35*I35*J35,"")</f>
         <v>0</v>
       </c>
-      <c r="L35" s="281"/>
+      <c r="L35" s="279"/>
       <c r="M35" s="113"/>
-      <c r="N35" s="282"/>
-      <c r="O35" s="282"/>
-      <c r="P35" s="283"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="10"/>
+      <c r="N35" s="297"/>
+      <c r="O35" s="297"/>
+      <c r="P35" s="298"/>
+      <c r="S35" s="43"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="1">
+      <c r="U35" s="10"/>
+      <c r="V35" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V35" s="1">
+      <c r="W35" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="277"/>
-      <c r="B36" s="278"/>
+    <row r="36" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="275"/>
+      <c r="B36" s="276"/>
       <c r="C36" s="94"/>
-      <c r="D36" s="279"/>
-      <c r="E36" s="278"/>
+      <c r="D36" s="277"/>
+      <c r="E36" s="276"/>
       <c r="F36" s="95"/>
       <c r="G36" s="7"/>
       <c r="H36" s="98"/>
       <c r="I36" s="8"/>
       <c r="J36" s="126"/>
-      <c r="K36" s="280">
+      <c r="K36" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L36" s="281"/>
+      <c r="L36" s="279"/>
       <c r="M36" s="113"/>
-      <c r="N36" s="282"/>
-      <c r="O36" s="282"/>
-      <c r="P36" s="283"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="10"/>
+      <c r="N36" s="297"/>
+      <c r="O36" s="297"/>
+      <c r="P36" s="298"/>
+      <c r="S36" s="43"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="1">
+      <c r="U36" s="10"/>
+      <c r="V36" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V36" s="1">
+      <c r="W36" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="277"/>
-      <c r="B37" s="278"/>
+    <row r="37" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="275"/>
+      <c r="B37" s="276"/>
       <c r="C37" s="94"/>
-      <c r="D37" s="279"/>
-      <c r="E37" s="278"/>
+      <c r="D37" s="277"/>
+      <c r="E37" s="276"/>
       <c r="F37" s="95"/>
       <c r="G37" s="7"/>
       <c r="H37" s="98"/>
       <c r="I37" s="8"/>
       <c r="J37" s="126"/>
-      <c r="K37" s="280">
+      <c r="K37" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L37" s="281"/>
+      <c r="L37" s="279"/>
       <c r="M37" s="113"/>
-      <c r="N37" s="282"/>
-      <c r="O37" s="282"/>
-      <c r="P37" s="283"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="10"/>
+      <c r="N37" s="297"/>
+      <c r="O37" s="297"/>
+      <c r="P37" s="298"/>
+      <c r="S37" s="43"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="1">
+      <c r="U37" s="10"/>
+      <c r="V37" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V37" s="1">
+      <c r="W37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="277"/>
-      <c r="B38" s="278"/>
+    <row r="38" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="275"/>
+      <c r="B38" s="276"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="278"/>
+      <c r="D38" s="277"/>
+      <c r="E38" s="276"/>
       <c r="F38" s="95"/>
       <c r="G38" s="7"/>
       <c r="H38" s="98"/>
       <c r="I38" s="8"/>
       <c r="J38" s="126"/>
-      <c r="K38" s="280">
+      <c r="K38" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L38" s="281"/>
+      <c r="L38" s="279"/>
       <c r="M38" s="113"/>
-      <c r="N38" s="282"/>
-      <c r="O38" s="282"/>
-      <c r="P38" s="283"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="10"/>
+      <c r="N38" s="297"/>
+      <c r="O38" s="297"/>
+      <c r="P38" s="298"/>
+      <c r="S38" s="43"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="1">
+      <c r="U38" s="10"/>
+      <c r="V38" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V38" s="1">
+      <c r="W38" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="277"/>
-      <c r="B39" s="278"/>
+    <row r="39" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="275"/>
+      <c r="B39" s="276"/>
       <c r="C39" s="94"/>
-      <c r="D39" s="279"/>
-      <c r="E39" s="278"/>
+      <c r="D39" s="277"/>
+      <c r="E39" s="276"/>
       <c r="F39" s="95"/>
       <c r="G39" s="7"/>
       <c r="H39" s="98"/>
       <c r="I39" s="8"/>
       <c r="J39" s="126"/>
-      <c r="K39" s="280">
+      <c r="K39" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L39" s="281"/>
+      <c r="L39" s="279"/>
       <c r="M39" s="113"/>
-      <c r="N39" s="282"/>
-      <c r="O39" s="282"/>
-      <c r="P39" s="283"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="10"/>
+      <c r="N39" s="297"/>
+      <c r="O39" s="297"/>
+      <c r="P39" s="298"/>
+      <c r="S39" s="43"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="1">
+      <c r="U39" s="10"/>
+      <c r="V39" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="277"/>
-      <c r="B40" s="278"/>
+    <row r="40" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="275"/>
+      <c r="B40" s="276"/>
       <c r="C40" s="94"/>
-      <c r="D40" s="279"/>
-      <c r="E40" s="278"/>
+      <c r="D40" s="277"/>
+      <c r="E40" s="276"/>
       <c r="F40" s="95"/>
       <c r="G40" s="7"/>
       <c r="H40" s="98"/>
       <c r="I40" s="8"/>
       <c r="J40" s="126"/>
-      <c r="K40" s="280">
+      <c r="K40" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L40" s="281"/>
+      <c r="L40" s="279"/>
       <c r="M40" s="113"/>
-      <c r="N40" s="282"/>
-      <c r="O40" s="282"/>
-      <c r="P40" s="283"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="10"/>
+      <c r="N40" s="297"/>
+      <c r="O40" s="297"/>
+      <c r="P40" s="298"/>
+      <c r="S40" s="43"/>
       <c r="T40" s="10"/>
-      <c r="U40" s="1">
+      <c r="U40" s="10"/>
+      <c r="V40" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V40" s="1">
+      <c r="W40" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="277"/>
-      <c r="B41" s="278"/>
+    <row r="41" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="275"/>
+      <c r="B41" s="276"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="279"/>
-      <c r="E41" s="278"/>
+      <c r="D41" s="277"/>
+      <c r="E41" s="276"/>
       <c r="F41" s="95"/>
       <c r="G41" s="7"/>
       <c r="H41" s="98"/>
       <c r="I41" s="8"/>
       <c r="J41" s="126"/>
-      <c r="K41" s="280">
+      <c r="K41" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L41" s="281"/>
+      <c r="L41" s="279"/>
       <c r="M41" s="113"/>
-      <c r="N41" s="282"/>
-      <c r="O41" s="282"/>
-      <c r="P41" s="283"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="10"/>
+      <c r="N41" s="297"/>
+      <c r="O41" s="297"/>
+      <c r="P41" s="298"/>
+      <c r="S41" s="43"/>
       <c r="T41" s="10"/>
-      <c r="U41" s="1">
+      <c r="U41" s="10"/>
+      <c r="V41" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="277"/>
-      <c r="B42" s="278"/>
+    <row r="42" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="275"/>
+      <c r="B42" s="276"/>
       <c r="C42" s="94"/>
-      <c r="D42" s="279"/>
-      <c r="E42" s="278"/>
+      <c r="D42" s="277"/>
+      <c r="E42" s="276"/>
       <c r="F42" s="95"/>
       <c r="G42" s="7"/>
       <c r="H42" s="98"/>
       <c r="I42" s="8"/>
       <c r="J42" s="126"/>
-      <c r="K42" s="280">
+      <c r="K42" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L42" s="281"/>
+      <c r="L42" s="279"/>
       <c r="M42" s="113"/>
-      <c r="N42" s="284"/>
-      <c r="O42" s="285"/>
-      <c r="P42" s="286"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="10"/>
+      <c r="N42" s="301"/>
+      <c r="O42" s="302"/>
+      <c r="P42" s="303"/>
+      <c r="S42" s="43"/>
       <c r="T42" s="10"/>
-      <c r="U42" s="1">
+      <c r="U42" s="10"/>
+      <c r="V42" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="277"/>
-      <c r="B43" s="278"/>
+    <row r="43" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="275"/>
+      <c r="B43" s="276"/>
       <c r="C43" s="94"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="278"/>
+      <c r="D43" s="277"/>
+      <c r="E43" s="276"/>
       <c r="F43" s="95"/>
       <c r="G43" s="7"/>
       <c r="H43" s="98"/>
       <c r="I43" s="8"/>
       <c r="J43" s="126"/>
-      <c r="K43" s="280">
+      <c r="K43" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L43" s="281"/>
+      <c r="L43" s="279"/>
       <c r="M43" s="113"/>
-      <c r="N43" s="282"/>
-      <c r="O43" s="282"/>
-      <c r="P43" s="283"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="10"/>
+      <c r="N43" s="297"/>
+      <c r="O43" s="297"/>
+      <c r="P43" s="298"/>
+      <c r="S43" s="43"/>
       <c r="T43" s="10"/>
-      <c r="U43" s="1">
+      <c r="U43" s="10"/>
+      <c r="V43" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="277"/>
-      <c r="B44" s="278"/>
+    <row r="44" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="275"/>
+      <c r="B44" s="276"/>
       <c r="C44" s="94"/>
-      <c r="D44" s="279"/>
-      <c r="E44" s="278"/>
+      <c r="D44" s="277"/>
+      <c r="E44" s="276"/>
       <c r="F44" s="95"/>
       <c r="G44" s="7"/>
       <c r="H44" s="98"/>
       <c r="I44" s="8"/>
       <c r="J44" s="126"/>
-      <c r="K44" s="280">
+      <c r="K44" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L44" s="281"/>
+      <c r="L44" s="279"/>
       <c r="M44" s="113"/>
-      <c r="N44" s="282"/>
-      <c r="O44" s="282"/>
-      <c r="P44" s="283"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="10"/>
+      <c r="N44" s="297"/>
+      <c r="O44" s="297"/>
+      <c r="P44" s="298"/>
+      <c r="S44" s="43"/>
       <c r="T44" s="10"/>
-      <c r="U44" s="1">
+      <c r="U44" s="10"/>
+      <c r="V44" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V44" s="1">
+      <c r="W44" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="277"/>
-      <c r="B45" s="278"/>
+    <row r="45" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="275"/>
+      <c r="B45" s="276"/>
       <c r="C45" s="94"/>
-      <c r="D45" s="279"/>
-      <c r="E45" s="278"/>
+      <c r="D45" s="277"/>
+      <c r="E45" s="276"/>
       <c r="F45" s="95"/>
       <c r="G45" s="7"/>
       <c r="H45" s="98"/>
       <c r="I45" s="8"/>
       <c r="J45" s="126"/>
-      <c r="K45" s="280">
+      <c r="K45" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L45" s="281"/>
+      <c r="L45" s="279"/>
       <c r="M45" s="113"/>
-      <c r="N45" s="284"/>
-      <c r="O45" s="285"/>
-      <c r="P45" s="286"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="10"/>
+      <c r="N45" s="301"/>
+      <c r="O45" s="302"/>
+      <c r="P45" s="303"/>
+      <c r="S45" s="43"/>
       <c r="T45" s="10"/>
-      <c r="U45" s="1">
+      <c r="U45" s="10"/>
+      <c r="V45" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V45" s="1">
+      <c r="W45" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="277"/>
-      <c r="B46" s="278"/>
+    <row r="46" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="275"/>
+      <c r="B46" s="276"/>
       <c r="C46" s="94"/>
-      <c r="D46" s="279"/>
-      <c r="E46" s="278"/>
+      <c r="D46" s="277"/>
+      <c r="E46" s="276"/>
       <c r="F46" s="95"/>
       <c r="G46" s="7"/>
       <c r="H46" s="98"/>
       <c r="I46" s="8"/>
       <c r="J46" s="126"/>
-      <c r="K46" s="280">
+      <c r="K46" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L46" s="281"/>
+      <c r="L46" s="279"/>
       <c r="M46" s="113"/>
-      <c r="N46" s="284"/>
-      <c r="O46" s="285"/>
-      <c r="P46" s="286"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="10"/>
+      <c r="N46" s="301"/>
+      <c r="O46" s="302"/>
+      <c r="P46" s="303"/>
+      <c r="S46" s="43"/>
       <c r="T46" s="10"/>
-      <c r="U46" s="1">
+      <c r="U46" s="10"/>
+      <c r="V46" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V46" s="1">
+      <c r="W46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="277"/>
-      <c r="B47" s="278"/>
+    <row r="47" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="275"/>
+      <c r="B47" s="276"/>
       <c r="C47" s="94"/>
-      <c r="D47" s="279"/>
-      <c r="E47" s="278"/>
+      <c r="D47" s="277"/>
+      <c r="E47" s="276"/>
       <c r="F47" s="95"/>
       <c r="G47" s="7"/>
       <c r="H47" s="98"/>
       <c r="I47" s="8"/>
       <c r="J47" s="126"/>
-      <c r="K47" s="280">
+      <c r="K47" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L47" s="281"/>
+      <c r="L47" s="279"/>
       <c r="M47" s="113"/>
-      <c r="N47" s="284"/>
-      <c r="O47" s="285"/>
-      <c r="P47" s="286"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="10"/>
+      <c r="N47" s="301"/>
+      <c r="O47" s="302"/>
+      <c r="P47" s="303"/>
+      <c r="S47" s="43"/>
       <c r="T47" s="10"/>
-      <c r="U47" s="1">
+      <c r="U47" s="10"/>
+      <c r="V47" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V47" s="1">
+      <c r="W47" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="277"/>
-      <c r="B48" s="278"/>
+    <row r="48" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="275"/>
+      <c r="B48" s="276"/>
       <c r="C48" s="94"/>
-      <c r="D48" s="279"/>
-      <c r="E48" s="278"/>
+      <c r="D48" s="277"/>
+      <c r="E48" s="276"/>
       <c r="F48" s="95"/>
       <c r="G48" s="7"/>
       <c r="H48" s="98"/>
       <c r="I48" s="8"/>
       <c r="J48" s="126"/>
-      <c r="K48" s="280">
+      <c r="K48" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L48" s="281"/>
+      <c r="L48" s="279"/>
       <c r="M48" s="113"/>
-      <c r="N48" s="284"/>
-      <c r="O48" s="285"/>
-      <c r="P48" s="286"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="10"/>
+      <c r="N48" s="301"/>
+      <c r="O48" s="302"/>
+      <c r="P48" s="303"/>
+      <c r="S48" s="43"/>
       <c r="T48" s="10"/>
-      <c r="U48" s="1">
+      <c r="U48" s="10"/>
+      <c r="V48" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V48" s="1">
+      <c r="W48" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="277"/>
-      <c r="B49" s="278"/>
+    <row r="49" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="275"/>
+      <c r="B49" s="276"/>
       <c r="C49" s="94"/>
-      <c r="D49" s="279"/>
-      <c r="E49" s="278"/>
+      <c r="D49" s="277"/>
+      <c r="E49" s="276"/>
       <c r="F49" s="95"/>
       <c r="G49" s="7"/>
       <c r="H49" s="98"/>
       <c r="I49" s="8"/>
       <c r="J49" s="126"/>
-      <c r="K49" s="280">
+      <c r="K49" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L49" s="281"/>
+      <c r="L49" s="279"/>
       <c r="M49" s="113"/>
-      <c r="N49" s="284"/>
-      <c r="O49" s="285"/>
-      <c r="P49" s="286"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="10"/>
+      <c r="N49" s="301"/>
+      <c r="O49" s="302"/>
+      <c r="P49" s="303"/>
+      <c r="S49" s="43"/>
       <c r="T49" s="10"/>
-      <c r="U49" s="1">
+      <c r="U49" s="10"/>
+      <c r="V49" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V49" s="1">
+      <c r="W49" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="277"/>
-      <c r="B50" s="278"/>
+    <row r="50" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="275"/>
+      <c r="B50" s="276"/>
       <c r="C50" s="94"/>
-      <c r="D50" s="279"/>
-      <c r="E50" s="278"/>
+      <c r="D50" s="277"/>
+      <c r="E50" s="276"/>
       <c r="F50" s="95"/>
       <c r="G50" s="7"/>
       <c r="H50" s="98"/>
       <c r="I50" s="8"/>
       <c r="J50" s="126"/>
-      <c r="K50" s="280">
+      <c r="K50" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L50" s="281"/>
+      <c r="L50" s="279"/>
       <c r="M50" s="113"/>
-      <c r="N50" s="284"/>
-      <c r="O50" s="285"/>
-      <c r="P50" s="286"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="10"/>
+      <c r="N50" s="301"/>
+      <c r="O50" s="302"/>
+      <c r="P50" s="303"/>
+      <c r="S50" s="43"/>
       <c r="T50" s="10"/>
-      <c r="U50" s="1">
+      <c r="U50" s="10"/>
+      <c r="V50" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V50" s="1">
+      <c r="W50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="277"/>
-      <c r="B51" s="278"/>
+    <row r="51" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="275"/>
+      <c r="B51" s="276"/>
       <c r="C51" s="94"/>
-      <c r="D51" s="279"/>
-      <c r="E51" s="278"/>
+      <c r="D51" s="277"/>
+      <c r="E51" s="276"/>
       <c r="F51" s="95"/>
       <c r="G51" s="7"/>
       <c r="H51" s="98"/>
       <c r="I51" s="8"/>
       <c r="J51" s="126"/>
-      <c r="K51" s="280">
+      <c r="K51" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L51" s="281"/>
+      <c r="L51" s="279"/>
       <c r="M51" s="113"/>
-      <c r="N51" s="282"/>
-      <c r="O51" s="282"/>
-      <c r="P51" s="283"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="10"/>
+      <c r="N51" s="297"/>
+      <c r="O51" s="297"/>
+      <c r="P51" s="298"/>
+      <c r="S51" s="43"/>
       <c r="T51" s="10"/>
-      <c r="U51" s="1">
+      <c r="U51" s="10"/>
+      <c r="V51" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V51" s="1">
+      <c r="W51" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="277"/>
-      <c r="B52" s="278"/>
+    <row r="52" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="275"/>
+      <c r="B52" s="276"/>
       <c r="C52" s="94"/>
-      <c r="D52" s="279"/>
-      <c r="E52" s="278"/>
+      <c r="D52" s="277"/>
+      <c r="E52" s="276"/>
       <c r="F52" s="95"/>
       <c r="G52" s="7"/>
       <c r="H52" s="98"/>
       <c r="I52" s="8"/>
       <c r="J52" s="126"/>
-      <c r="K52" s="280">
+      <c r="K52" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L52" s="281"/>
+      <c r="L52" s="279"/>
       <c r="M52" s="113"/>
-      <c r="N52" s="282"/>
-      <c r="O52" s="282"/>
-      <c r="P52" s="283"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="10"/>
+      <c r="N52" s="297"/>
+      <c r="O52" s="297"/>
+      <c r="P52" s="298"/>
+      <c r="S52" s="43"/>
       <c r="T52" s="10"/>
-      <c r="U52" s="1">
+      <c r="U52" s="10"/>
+      <c r="V52" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V52" s="1">
+      <c r="W52" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="277"/>
-      <c r="B53" s="278"/>
+    <row r="53" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="275"/>
+      <c r="B53" s="276"/>
       <c r="C53" s="94"/>
-      <c r="D53" s="279"/>
-      <c r="E53" s="278"/>
+      <c r="D53" s="277"/>
+      <c r="E53" s="276"/>
       <c r="F53" s="95"/>
       <c r="G53" s="7"/>
       <c r="H53" s="98"/>
       <c r="I53" s="8"/>
       <c r="J53" s="126"/>
-      <c r="K53" s="280">
+      <c r="K53" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L53" s="281"/>
+      <c r="L53" s="279"/>
       <c r="M53" s="113"/>
-      <c r="N53" s="282"/>
-      <c r="O53" s="282"/>
-      <c r="P53" s="283"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="10"/>
+      <c r="N53" s="297"/>
+      <c r="O53" s="297"/>
+      <c r="P53" s="298"/>
+      <c r="S53" s="43"/>
       <c r="T53" s="10"/>
-      <c r="U53" s="1">
+      <c r="U53" s="10"/>
+      <c r="V53" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V53" s="1">
+      <c r="W53" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="277"/>
-      <c r="B54" s="278"/>
+    <row r="54" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="275"/>
+      <c r="B54" s="276"/>
       <c r="C54" s="94"/>
-      <c r="D54" s="279"/>
-      <c r="E54" s="278"/>
+      <c r="D54" s="277"/>
+      <c r="E54" s="276"/>
       <c r="F54" s="95"/>
       <c r="G54" s="7"/>
       <c r="H54" s="98"/>
       <c r="I54" s="8"/>
       <c r="J54" s="126"/>
-      <c r="K54" s="280">
+      <c r="K54" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L54" s="281"/>
+      <c r="L54" s="279"/>
       <c r="M54" s="113"/>
-      <c r="N54" s="282"/>
-      <c r="O54" s="282"/>
-      <c r="P54" s="283"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="10"/>
+      <c r="N54" s="297"/>
+      <c r="O54" s="297"/>
+      <c r="P54" s="298"/>
+      <c r="S54" s="43"/>
       <c r="T54" s="10"/>
-      <c r="U54" s="1">
+      <c r="U54" s="10"/>
+      <c r="V54" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V54" s="1">
+      <c r="W54" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="277"/>
-      <c r="B55" s="278"/>
+    <row r="55" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="275"/>
+      <c r="B55" s="276"/>
       <c r="C55" s="94"/>
-      <c r="D55" s="279"/>
-      <c r="E55" s="278"/>
+      <c r="D55" s="277"/>
+      <c r="E55" s="276"/>
       <c r="F55" s="95"/>
       <c r="G55" s="7"/>
       <c r="H55" s="98"/>
       <c r="I55" s="8"/>
       <c r="J55" s="126"/>
-      <c r="K55" s="280">
+      <c r="K55" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L55" s="281"/>
+      <c r="L55" s="279"/>
       <c r="M55" s="113"/>
-      <c r="N55" s="282"/>
-      <c r="O55" s="282"/>
-      <c r="P55" s="283"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="10"/>
+      <c r="N55" s="297"/>
+      <c r="O55" s="297"/>
+      <c r="P55" s="298"/>
+      <c r="S55" s="43"/>
       <c r="T55" s="10"/>
-      <c r="U55" s="1">
+      <c r="U55" s="10"/>
+      <c r="V55" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V55" s="1">
+      <c r="W55" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="277"/>
-      <c r="B56" s="278"/>
+    <row r="56" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="275"/>
+      <c r="B56" s="276"/>
       <c r="C56" s="94"/>
-      <c r="D56" s="279"/>
-      <c r="E56" s="278"/>
+      <c r="D56" s="277"/>
+      <c r="E56" s="276"/>
       <c r="F56" s="95"/>
       <c r="G56" s="7"/>
       <c r="H56" s="98"/>
       <c r="I56" s="8"/>
       <c r="J56" s="126"/>
-      <c r="K56" s="280">
+      <c r="K56" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L56" s="281"/>
+      <c r="L56" s="279"/>
       <c r="M56" s="113"/>
-      <c r="N56" s="282"/>
-      <c r="O56" s="282"/>
-      <c r="P56" s="283"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="1">
+      <c r="N56" s="297"/>
+      <c r="O56" s="297"/>
+      <c r="P56" s="298"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V56" s="1">
+      <c r="W56" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="277"/>
-      <c r="B57" s="278"/>
+    <row r="57" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="275"/>
+      <c r="B57" s="276"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="279"/>
-      <c r="E57" s="278"/>
+      <c r="D57" s="277"/>
+      <c r="E57" s="276"/>
       <c r="F57" s="97"/>
       <c r="G57" s="11"/>
       <c r="H57" s="99"/>
       <c r="I57" s="54"/>
       <c r="J57" s="127"/>
-      <c r="K57" s="280">
+      <c r="K57" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L57" s="281"/>
+      <c r="L57" s="279"/>
       <c r="M57" s="117"/>
-      <c r="N57" s="287"/>
-      <c r="O57" s="287"/>
-      <c r="P57" s="288"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="1">
+      <c r="N57" s="299"/>
+      <c r="O57" s="299"/>
+      <c r="P57" s="300"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V57" s="1">
+      <c r="W57" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="289" t="s">
+    <row r="58" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="290"/>
-      <c r="C58" s="290"/>
-      <c r="D58" s="290"/>
-      <c r="E58" s="290"/>
-      <c r="F58" s="291"/>
+      <c r="B58" s="281"/>
+      <c r="C58" s="281"/>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="282"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="260">
+      <c r="I58" s="283">
         <f>SUM(K34:K57)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="261"/>
-      <c r="K58" s="261"/>
-      <c r="L58" s="262"/>
+      <c r="J58" s="284"/>
+      <c r="K58" s="284"/>
+      <c r="L58" s="285"/>
       <c r="M58" s="118"/>
-      <c r="N58" s="292">
+      <c r="N58" s="286">
         <f>SUMIF(F34:F57,"&lt;&gt;"&amp;hdn_payoff_circle,K34:K57)</f>
         <v>0</v>
       </c>
-      <c r="O58" s="293"/>
-      <c r="P58" s="294"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="10"/>
+      <c r="O58" s="287"/>
+      <c r="P58" s="288"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="12"/>
       <c r="U58" s="10"/>
-    </row>
-    <row r="59" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="295"/>
-      <c r="B59" s="296"/>
-      <c r="C59" s="296"/>
-      <c r="D59" s="296"/>
-      <c r="E59" s="296"/>
-      <c r="F59" s="296"/>
-      <c r="G59" s="296"/>
-      <c r="H59" s="296"/>
-      <c r="I59" s="296"/>
-      <c r="J59" s="296"/>
-      <c r="K59" s="296"/>
-      <c r="L59" s="296"/>
-      <c r="M59" s="296"/>
-      <c r="N59" s="296"/>
-      <c r="O59" s="296"/>
-      <c r="P59" s="297"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="10"/>
+      <c r="V58" s="10"/>
+    </row>
+    <row r="59" spans="1:23" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="289"/>
+      <c r="B59" s="290"/>
+      <c r="C59" s="290"/>
+      <c r="D59" s="290"/>
+      <c r="E59" s="290"/>
+      <c r="F59" s="290"/>
+      <c r="G59" s="290"/>
+      <c r="H59" s="290"/>
+      <c r="I59" s="290"/>
+      <c r="J59" s="290"/>
+      <c r="K59" s="290"/>
+      <c r="L59" s="290"/>
+      <c r="M59" s="290"/>
+      <c r="N59" s="290"/>
+      <c r="O59" s="290"/>
+      <c r="P59" s="291"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="12"/>
       <c r="U59" s="10"/>
-    </row>
-    <row r="60" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="265" t="s">
+      <c r="V59" s="10"/>
+    </row>
+    <row r="60" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="292" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="266"/>
+      <c r="B60" s="293"/>
       <c r="C60" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="267" t="s">
+      <c r="D60" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="266"/>
+      <c r="E60" s="293"/>
       <c r="F60" s="189" t="s">
         <v>15</v>
       </c>
@@ -5712,29 +5719,29 @@
       <c r="J60" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="K60" s="267" t="s">
+      <c r="K60" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="L60" s="266"/>
+      <c r="L60" s="293"/>
       <c r="M60" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="N60" s="267" t="s">
+      <c r="N60" s="294" t="s">
         <v>53</v>
       </c>
-      <c r="O60" s="268"/>
-      <c r="P60" s="269"/>
-      <c r="R60" s="46" t="s">
+      <c r="O60" s="295"/>
+      <c r="P60" s="296"/>
+      <c r="S60" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="U60" s="10"/>
-    </row>
-    <row r="61" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="277"/>
-      <c r="B61" s="278"/>
+      <c r="V60" s="10"/>
+    </row>
+    <row r="61" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="275"/>
+      <c r="B61" s="276"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="278"/>
+      <c r="D61" s="277"/>
+      <c r="E61" s="276"/>
       <c r="F61" s="95"/>
       <c r="G61" s="170">
         <f>IF(A61&lt;&gt;"",$P$4,0)</f>
@@ -5743,30 +5750,30 @@
       <c r="H61" s="98"/>
       <c r="I61" s="8"/>
       <c r="J61" s="126"/>
-      <c r="K61" s="280">
+      <c r="K61" s="278">
         <f>IFERROR(G61*I61*J61,"")</f>
         <v>0</v>
       </c>
-      <c r="L61" s="281"/>
+      <c r="L61" s="279"/>
       <c r="M61" s="113"/>
-      <c r="N61" s="255"/>
-      <c r="O61" s="255"/>
-      <c r="P61" s="256"/>
-      <c r="R61" s="43"/>
-      <c r="U61" s="1">
-        <f t="shared" ref="U61:U86" si="7">IFERROR(VLOOKUP(H61,$C$101:$D$103,2,FALSE),1)</f>
+      <c r="N61" s="271"/>
+      <c r="O61" s="271"/>
+      <c r="P61" s="272"/>
+      <c r="S61" s="43"/>
+      <c r="V61" s="1">
+        <f t="shared" ref="V61:V86" si="7">IFERROR(VLOOKUP(H61,$C$101:$D$103,2,FALSE),1)</f>
         <v>1</v>
       </c>
-      <c r="V61" s="1">
+      <c r="W61" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="277"/>
-      <c r="B62" s="278"/>
+    <row r="62" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="275"/>
+      <c r="B62" s="276"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="279"/>
-      <c r="E62" s="278"/>
+      <c r="D62" s="277"/>
+      <c r="E62" s="276"/>
       <c r="F62" s="95"/>
       <c r="G62" s="170">
         <f t="shared" ref="G62:G86" si="8">IF(A62&lt;&gt;"",$P$4,0)</f>
@@ -5775,30 +5782,30 @@
       <c r="H62" s="98"/>
       <c r="I62" s="8"/>
       <c r="J62" s="126"/>
-      <c r="K62" s="280">
+      <c r="K62" s="278">
         <f t="shared" ref="K62:K86" si="9">IFERROR(G62*I62*J62,"")</f>
         <v>0</v>
       </c>
-      <c r="L62" s="281"/>
+      <c r="L62" s="279"/>
       <c r="M62" s="113"/>
-      <c r="N62" s="255"/>
-      <c r="O62" s="255"/>
-      <c r="P62" s="256"/>
-      <c r="R62" s="43"/>
-      <c r="U62" s="1">
+      <c r="N62" s="271"/>
+      <c r="O62" s="271"/>
+      <c r="P62" s="272"/>
+      <c r="S62" s="43"/>
+      <c r="V62" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V62" s="1">
+      <c r="W62" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="277"/>
-      <c r="B63" s="278"/>
+    <row r="63" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="275"/>
+      <c r="B63" s="276"/>
       <c r="C63" s="94"/>
-      <c r="D63" s="279"/>
-      <c r="E63" s="278"/>
+      <c r="D63" s="277"/>
+      <c r="E63" s="276"/>
       <c r="F63" s="95"/>
       <c r="G63" s="170">
         <f t="shared" si="8"/>
@@ -5807,30 +5814,30 @@
       <c r="H63" s="98"/>
       <c r="I63" s="8"/>
       <c r="J63" s="126"/>
-      <c r="K63" s="280">
+      <c r="K63" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L63" s="281"/>
+      <c r="L63" s="279"/>
       <c r="M63" s="113"/>
-      <c r="N63" s="298"/>
-      <c r="O63" s="299"/>
-      <c r="P63" s="300"/>
-      <c r="R63" s="43"/>
-      <c r="U63" s="1">
+      <c r="N63" s="264"/>
+      <c r="O63" s="265"/>
+      <c r="P63" s="266"/>
+      <c r="S63" s="43"/>
+      <c r="V63" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V63" s="1">
+      <c r="W63" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="277"/>
-      <c r="B64" s="278"/>
+    <row r="64" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="275"/>
+      <c r="B64" s="276"/>
       <c r="C64" s="94"/>
-      <c r="D64" s="279"/>
-      <c r="E64" s="278"/>
+      <c r="D64" s="277"/>
+      <c r="E64" s="276"/>
       <c r="F64" s="95"/>
       <c r="G64" s="170">
         <f t="shared" si="8"/>
@@ -5839,30 +5846,30 @@
       <c r="H64" s="98"/>
       <c r="I64" s="8"/>
       <c r="J64" s="126"/>
-      <c r="K64" s="280">
+      <c r="K64" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L64" s="281"/>
+      <c r="L64" s="279"/>
       <c r="M64" s="113"/>
-      <c r="N64" s="255"/>
-      <c r="O64" s="255"/>
-      <c r="P64" s="256"/>
-      <c r="R64" s="43"/>
-      <c r="U64" s="1">
+      <c r="N64" s="271"/>
+      <c r="O64" s="271"/>
+      <c r="P64" s="272"/>
+      <c r="S64" s="43"/>
+      <c r="V64" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V64" s="1">
+      <c r="W64" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="277"/>
-      <c r="B65" s="278"/>
+    <row r="65" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="275"/>
+      <c r="B65" s="276"/>
       <c r="C65" s="94"/>
-      <c r="D65" s="279"/>
-      <c r="E65" s="278"/>
+      <c r="D65" s="277"/>
+      <c r="E65" s="276"/>
       <c r="F65" s="95"/>
       <c r="G65" s="170">
         <f t="shared" si="8"/>
@@ -5871,30 +5878,30 @@
       <c r="H65" s="98"/>
       <c r="I65" s="8"/>
       <c r="J65" s="126"/>
-      <c r="K65" s="280">
+      <c r="K65" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L65" s="281"/>
+      <c r="L65" s="279"/>
       <c r="M65" s="113"/>
-      <c r="N65" s="255"/>
-      <c r="O65" s="255"/>
-      <c r="P65" s="256"/>
-      <c r="R65" s="43"/>
-      <c r="U65" s="1">
+      <c r="N65" s="271"/>
+      <c r="O65" s="271"/>
+      <c r="P65" s="272"/>
+      <c r="S65" s="43"/>
+      <c r="V65" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V65" s="1">
+      <c r="W65" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="277"/>
-      <c r="B66" s="278"/>
+    <row r="66" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="275"/>
+      <c r="B66" s="276"/>
       <c r="C66" s="94"/>
-      <c r="D66" s="279"/>
-      <c r="E66" s="278"/>
+      <c r="D66" s="277"/>
+      <c r="E66" s="276"/>
       <c r="F66" s="95"/>
       <c r="G66" s="170">
         <f t="shared" si="8"/>
@@ -5903,30 +5910,30 @@
       <c r="H66" s="98"/>
       <c r="I66" s="8"/>
       <c r="J66" s="126"/>
-      <c r="K66" s="280">
+      <c r="K66" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L66" s="281"/>
+      <c r="L66" s="279"/>
       <c r="M66" s="113"/>
-      <c r="N66" s="255"/>
-      <c r="O66" s="255"/>
-      <c r="P66" s="256"/>
-      <c r="R66" s="43"/>
-      <c r="U66" s="1">
+      <c r="N66" s="271"/>
+      <c r="O66" s="271"/>
+      <c r="P66" s="272"/>
+      <c r="S66" s="43"/>
+      <c r="V66" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V66" s="1">
+      <c r="W66" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="277"/>
-      <c r="B67" s="278"/>
+    <row r="67" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="275"/>
+      <c r="B67" s="276"/>
       <c r="C67" s="94"/>
-      <c r="D67" s="279"/>
-      <c r="E67" s="278"/>
+      <c r="D67" s="277"/>
+      <c r="E67" s="276"/>
       <c r="F67" s="95"/>
       <c r="G67" s="170">
         <f t="shared" si="8"/>
@@ -5935,30 +5942,30 @@
       <c r="H67" s="98"/>
       <c r="I67" s="8"/>
       <c r="J67" s="126"/>
-      <c r="K67" s="280">
+      <c r="K67" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L67" s="281"/>
+      <c r="L67" s="279"/>
       <c r="M67" s="113"/>
-      <c r="N67" s="255"/>
-      <c r="O67" s="255"/>
-      <c r="P67" s="256"/>
-      <c r="R67" s="43"/>
-      <c r="U67" s="1">
+      <c r="N67" s="271"/>
+      <c r="O67" s="271"/>
+      <c r="P67" s="272"/>
+      <c r="S67" s="43"/>
+      <c r="V67" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V67" s="1">
+      <c r="W67" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="277"/>
-      <c r="B68" s="278"/>
+    <row r="68" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="275"/>
+      <c r="B68" s="276"/>
       <c r="C68" s="94"/>
-      <c r="D68" s="279"/>
-      <c r="E68" s="278"/>
+      <c r="D68" s="277"/>
+      <c r="E68" s="276"/>
       <c r="F68" s="95"/>
       <c r="G68" s="170">
         <f t="shared" si="8"/>
@@ -5967,30 +5974,30 @@
       <c r="H68" s="98"/>
       <c r="I68" s="8"/>
       <c r="J68" s="126"/>
-      <c r="K68" s="280">
+      <c r="K68" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L68" s="281"/>
+      <c r="L68" s="279"/>
       <c r="M68" s="113"/>
-      <c r="N68" s="255"/>
-      <c r="O68" s="255"/>
-      <c r="P68" s="256"/>
-      <c r="R68" s="43"/>
-      <c r="U68" s="1">
+      <c r="N68" s="271"/>
+      <c r="O68" s="271"/>
+      <c r="P68" s="272"/>
+      <c r="S68" s="43"/>
+      <c r="V68" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V68" s="1">
+      <c r="W68" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="277"/>
-      <c r="B69" s="278"/>
+    <row r="69" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="275"/>
+      <c r="B69" s="276"/>
       <c r="C69" s="94"/>
-      <c r="D69" s="279"/>
-      <c r="E69" s="278"/>
+      <c r="D69" s="277"/>
+      <c r="E69" s="276"/>
       <c r="F69" s="95"/>
       <c r="G69" s="170">
         <f t="shared" si="8"/>
@@ -5999,30 +6006,30 @@
       <c r="H69" s="98"/>
       <c r="I69" s="8"/>
       <c r="J69" s="126"/>
-      <c r="K69" s="280">
+      <c r="K69" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L69" s="281"/>
+      <c r="L69" s="279"/>
       <c r="M69" s="113"/>
-      <c r="N69" s="255"/>
-      <c r="O69" s="255"/>
-      <c r="P69" s="256"/>
-      <c r="R69" s="43"/>
-      <c r="U69" s="1">
+      <c r="N69" s="271"/>
+      <c r="O69" s="271"/>
+      <c r="P69" s="272"/>
+      <c r="S69" s="43"/>
+      <c r="V69" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V69" s="1">
+      <c r="W69" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="277"/>
-      <c r="B70" s="278"/>
+    <row r="70" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="275"/>
+      <c r="B70" s="276"/>
       <c r="C70" s="94"/>
-      <c r="D70" s="279"/>
-      <c r="E70" s="278"/>
+      <c r="D70" s="277"/>
+      <c r="E70" s="276"/>
       <c r="F70" s="95"/>
       <c r="G70" s="170">
         <f t="shared" si="8"/>
@@ -6031,30 +6038,30 @@
       <c r="H70" s="98"/>
       <c r="I70" s="8"/>
       <c r="J70" s="126"/>
-      <c r="K70" s="280">
+      <c r="K70" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L70" s="281"/>
+      <c r="L70" s="279"/>
       <c r="M70" s="113"/>
-      <c r="N70" s="255"/>
-      <c r="O70" s="255"/>
-      <c r="P70" s="256"/>
-      <c r="R70" s="43"/>
-      <c r="U70" s="1">
+      <c r="N70" s="271"/>
+      <c r="O70" s="271"/>
+      <c r="P70" s="272"/>
+      <c r="S70" s="43"/>
+      <c r="V70" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V70" s="1">
+      <c r="W70" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="277"/>
-      <c r="B71" s="278"/>
+    <row r="71" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="275"/>
+      <c r="B71" s="276"/>
       <c r="C71" s="94"/>
-      <c r="D71" s="279"/>
-      <c r="E71" s="278"/>
+      <c r="D71" s="277"/>
+      <c r="E71" s="276"/>
       <c r="F71" s="95"/>
       <c r="G71" s="170">
         <f t="shared" si="8"/>
@@ -6063,30 +6070,30 @@
       <c r="H71" s="98"/>
       <c r="I71" s="8"/>
       <c r="J71" s="126"/>
-      <c r="K71" s="280">
+      <c r="K71" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L71" s="281"/>
+      <c r="L71" s="279"/>
       <c r="M71" s="113"/>
-      <c r="N71" s="255"/>
-      <c r="O71" s="255"/>
-      <c r="P71" s="256"/>
-      <c r="R71" s="43"/>
-      <c r="U71" s="1">
+      <c r="N71" s="271"/>
+      <c r="O71" s="271"/>
+      <c r="P71" s="272"/>
+      <c r="S71" s="43"/>
+      <c r="V71" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V71" s="1">
+      <c r="W71" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="277"/>
-      <c r="B72" s="278"/>
+    <row r="72" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="275"/>
+      <c r="B72" s="276"/>
       <c r="C72" s="94"/>
-      <c r="D72" s="279"/>
-      <c r="E72" s="278"/>
+      <c r="D72" s="277"/>
+      <c r="E72" s="276"/>
       <c r="F72" s="95"/>
       <c r="G72" s="170">
         <f t="shared" si="8"/>
@@ -6095,30 +6102,30 @@
       <c r="H72" s="98"/>
       <c r="I72" s="8"/>
       <c r="J72" s="126"/>
-      <c r="K72" s="280">
+      <c r="K72" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L72" s="281"/>
+      <c r="L72" s="279"/>
       <c r="M72" s="113"/>
-      <c r="N72" s="255"/>
-      <c r="O72" s="255"/>
-      <c r="P72" s="256"/>
-      <c r="R72" s="43"/>
-      <c r="U72" s="1">
+      <c r="N72" s="271"/>
+      <c r="O72" s="271"/>
+      <c r="P72" s="272"/>
+      <c r="S72" s="43"/>
+      <c r="V72" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V72" s="1">
+      <c r="W72" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="277"/>
-      <c r="B73" s="278"/>
+    <row r="73" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="275"/>
+      <c r="B73" s="276"/>
       <c r="C73" s="94"/>
-      <c r="D73" s="279"/>
-      <c r="E73" s="278"/>
+      <c r="D73" s="277"/>
+      <c r="E73" s="276"/>
       <c r="F73" s="95"/>
       <c r="G73" s="170">
         <f t="shared" si="8"/>
@@ -6127,30 +6134,30 @@
       <c r="H73" s="98"/>
       <c r="I73" s="8"/>
       <c r="J73" s="126"/>
-      <c r="K73" s="280">
+      <c r="K73" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L73" s="281"/>
+      <c r="L73" s="279"/>
       <c r="M73" s="113"/>
-      <c r="N73" s="255"/>
-      <c r="O73" s="255"/>
-      <c r="P73" s="256"/>
-      <c r="R73" s="43"/>
-      <c r="U73" s="1">
+      <c r="N73" s="271"/>
+      <c r="O73" s="271"/>
+      <c r="P73" s="272"/>
+      <c r="S73" s="43"/>
+      <c r="V73" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V73" s="1">
+      <c r="W73" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="277"/>
-      <c r="B74" s="278"/>
+    <row r="74" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="275"/>
+      <c r="B74" s="276"/>
       <c r="C74" s="94"/>
-      <c r="D74" s="279"/>
-      <c r="E74" s="278"/>
+      <c r="D74" s="277"/>
+      <c r="E74" s="276"/>
       <c r="F74" s="95"/>
       <c r="G74" s="170">
         <f t="shared" si="8"/>
@@ -6159,30 +6166,30 @@
       <c r="H74" s="98"/>
       <c r="I74" s="8"/>
       <c r="J74" s="126"/>
-      <c r="K74" s="280">
+      <c r="K74" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L74" s="281"/>
+      <c r="L74" s="279"/>
       <c r="M74" s="113"/>
-      <c r="N74" s="255"/>
-      <c r="O74" s="255"/>
-      <c r="P74" s="256"/>
-      <c r="R74" s="43"/>
-      <c r="U74" s="1">
+      <c r="N74" s="271"/>
+      <c r="O74" s="271"/>
+      <c r="P74" s="272"/>
+      <c r="S74" s="43"/>
+      <c r="V74" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V74" s="1">
+      <c r="W74" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="277"/>
-      <c r="B75" s="278"/>
+    <row r="75" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="275"/>
+      <c r="B75" s="276"/>
       <c r="C75" s="94"/>
-      <c r="D75" s="279"/>
-      <c r="E75" s="278"/>
+      <c r="D75" s="277"/>
+      <c r="E75" s="276"/>
       <c r="F75" s="95"/>
       <c r="G75" s="170">
         <f t="shared" si="8"/>
@@ -6191,30 +6198,30 @@
       <c r="H75" s="98"/>
       <c r="I75" s="8"/>
       <c r="J75" s="126"/>
-      <c r="K75" s="280">
+      <c r="K75" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L75" s="281"/>
+      <c r="L75" s="279"/>
       <c r="M75" s="113"/>
-      <c r="N75" s="298"/>
-      <c r="O75" s="299"/>
-      <c r="P75" s="300"/>
-      <c r="R75" s="43"/>
-      <c r="U75" s="1">
+      <c r="N75" s="264"/>
+      <c r="O75" s="265"/>
+      <c r="P75" s="266"/>
+      <c r="S75" s="43"/>
+      <c r="V75" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V75" s="1">
+      <c r="W75" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="277"/>
-      <c r="B76" s="278"/>
+    <row r="76" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="275"/>
+      <c r="B76" s="276"/>
       <c r="C76" s="94"/>
-      <c r="D76" s="279"/>
-      <c r="E76" s="278"/>
+      <c r="D76" s="277"/>
+      <c r="E76" s="276"/>
       <c r="F76" s="95"/>
       <c r="G76" s="170">
         <f t="shared" si="8"/>
@@ -6223,30 +6230,30 @@
       <c r="H76" s="98"/>
       <c r="I76" s="8"/>
       <c r="J76" s="126"/>
-      <c r="K76" s="280">
+      <c r="K76" s="278">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L76" s="281"/>
+      <c r="L76" s="279"/>
       <c r="M76" s="113"/>
-      <c r="N76" s="255"/>
-      <c r="O76" s="255"/>
-      <c r="P76" s="256"/>
-      <c r="R76" s="43"/>
-      <c r="U76" s="1">
+      <c r="N76" s="271"/>
+      <c r="O76" s="271"/>
+      <c r="P76" s="272"/>
+      <c r="S76" s="43"/>
+      <c r="V76" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V76" s="1">
+      <c r="W76" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="301"/>
-      <c r="B77" s="302"/>
+    <row r="77" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="269"/>
+      <c r="B77" s="270"/>
       <c r="C77" s="139"/>
-      <c r="D77" s="303"/>
-      <c r="E77" s="304"/>
+      <c r="D77" s="273"/>
+      <c r="E77" s="274"/>
       <c r="F77" s="147"/>
       <c r="G77" s="170">
         <f t="shared" si="8"/>
@@ -6258,34 +6265,34 @@
         <v/>
       </c>
       <c r="J77" s="154"/>
-      <c r="K77" s="305" t="str">
+      <c r="K77" s="262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L77" s="306"/>
+      <c r="L77" s="263"/>
       <c r="M77" s="113"/>
-      <c r="N77" s="255"/>
-      <c r="O77" s="255"/>
-      <c r="P77" s="256"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="1" t="str">
-        <f t="shared" ref="S77:S86" si="11">IF(C77=hdn_tariff,K77,0)</f>
+      <c r="N77" s="271"/>
+      <c r="O77" s="271"/>
+      <c r="P77" s="272"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="1" t="str">
+        <f t="shared" ref="T77:T86" si="11">IF(C77=hdn_tariff,K77,0)</f>
         <v/>
       </c>
-      <c r="U77" s="1">
+      <c r="V77" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V77" s="1">
+      <c r="W77" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="301"/>
-      <c r="B78" s="302"/>
+    <row r="78" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="269"/>
+      <c r="B78" s="270"/>
       <c r="C78" s="139"/>
-      <c r="D78" s="307"/>
-      <c r="E78" s="308"/>
+      <c r="D78" s="267"/>
+      <c r="E78" s="268"/>
       <c r="F78" s="147"/>
       <c r="G78" s="170">
         <f t="shared" si="8"/>
@@ -6297,34 +6304,34 @@
         <v/>
       </c>
       <c r="J78" s="154"/>
-      <c r="K78" s="305" t="str">
+      <c r="K78" s="262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L78" s="306"/>
+      <c r="L78" s="263"/>
       <c r="M78" s="113"/>
-      <c r="N78" s="255"/>
-      <c r="O78" s="255"/>
-      <c r="P78" s="256"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="1" t="str">
+      <c r="N78" s="271"/>
+      <c r="O78" s="271"/>
+      <c r="P78" s="272"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="U78" s="1">
+      <c r="V78" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V78" s="1">
+      <c r="W78" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="301"/>
-      <c r="B79" s="302"/>
+    <row r="79" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="269"/>
+      <c r="B79" s="270"/>
       <c r="C79" s="139"/>
-      <c r="D79" s="307"/>
-      <c r="E79" s="308"/>
+      <c r="D79" s="267"/>
+      <c r="E79" s="268"/>
       <c r="F79" s="147"/>
       <c r="G79" s="170">
         <f t="shared" si="8"/>
@@ -6336,34 +6343,34 @@
         <v/>
       </c>
       <c r="J79" s="154"/>
-      <c r="K79" s="305" t="str">
+      <c r="K79" s="262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L79" s="306"/>
+      <c r="L79" s="263"/>
       <c r="M79" s="113"/>
-      <c r="N79" s="255"/>
-      <c r="O79" s="255"/>
-      <c r="P79" s="256"/>
-      <c r="R79" s="43"/>
-      <c r="S79" s="1" t="str">
+      <c r="N79" s="271"/>
+      <c r="O79" s="271"/>
+      <c r="P79" s="272"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="U79" s="1">
+      <c r="V79" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V79" s="1">
+      <c r="W79" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="309"/>
-      <c r="B80" s="310"/>
+    <row r="80" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="251"/>
+      <c r="B80" s="252"/>
       <c r="C80" s="140"/>
-      <c r="D80" s="307"/>
-      <c r="E80" s="308"/>
+      <c r="D80" s="267"/>
+      <c r="E80" s="268"/>
       <c r="F80" s="147"/>
       <c r="G80" s="170">
         <f t="shared" si="8"/>
@@ -6375,34 +6382,34 @@
         <v/>
       </c>
       <c r="J80" s="154"/>
-      <c r="K80" s="305" t="str">
+      <c r="K80" s="262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L80" s="306"/>
+      <c r="L80" s="263"/>
       <c r="M80" s="113"/>
-      <c r="N80" s="298"/>
-      <c r="O80" s="299"/>
-      <c r="P80" s="300"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="1" t="str">
+      <c r="N80" s="264"/>
+      <c r="O80" s="265"/>
+      <c r="P80" s="266"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="U80" s="1">
+      <c r="V80" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V80" s="1">
+      <c r="W80" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="309"/>
-      <c r="B81" s="310"/>
+    <row r="81" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="251"/>
+      <c r="B81" s="252"/>
       <c r="C81" s="140"/>
-      <c r="D81" s="307"/>
-      <c r="E81" s="308"/>
+      <c r="D81" s="267"/>
+      <c r="E81" s="268"/>
       <c r="F81" s="147"/>
       <c r="G81" s="170">
         <f t="shared" si="8"/>
@@ -6414,34 +6421,34 @@
         <v/>
       </c>
       <c r="J81" s="154"/>
-      <c r="K81" s="305" t="str">
+      <c r="K81" s="262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L81" s="306"/>
+      <c r="L81" s="263"/>
       <c r="M81" s="156"/>
-      <c r="N81" s="298"/>
-      <c r="O81" s="299"/>
-      <c r="P81" s="300"/>
-      <c r="R81" s="131"/>
-      <c r="S81" s="1" t="str">
+      <c r="N81" s="264"/>
+      <c r="O81" s="265"/>
+      <c r="P81" s="266"/>
+      <c r="S81" s="131"/>
+      <c r="T81" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="U81" s="1">
+      <c r="V81" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V81" s="1">
+      <c r="W81" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="309"/>
-      <c r="B82" s="310"/>
+    <row r="82" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="251"/>
+      <c r="B82" s="252"/>
       <c r="C82" s="140"/>
-      <c r="D82" s="307"/>
-      <c r="E82" s="308"/>
+      <c r="D82" s="267"/>
+      <c r="E82" s="268"/>
       <c r="F82" s="147"/>
       <c r="G82" s="170">
         <f t="shared" si="8"/>
@@ -6453,34 +6460,34 @@
         <v/>
       </c>
       <c r="J82" s="154"/>
-      <c r="K82" s="305" t="str">
+      <c r="K82" s="262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L82" s="306"/>
+      <c r="L82" s="263"/>
       <c r="M82" s="156"/>
-      <c r="N82" s="298"/>
-      <c r="O82" s="299"/>
-      <c r="P82" s="300"/>
-      <c r="R82" s="131"/>
-      <c r="S82" s="1" t="str">
+      <c r="N82" s="264"/>
+      <c r="O82" s="265"/>
+      <c r="P82" s="266"/>
+      <c r="S82" s="131"/>
+      <c r="T82" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="U82" s="1">
+      <c r="V82" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V82" s="1">
+      <c r="W82" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="309"/>
-      <c r="B83" s="310"/>
+    <row r="83" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="251"/>
+      <c r="B83" s="252"/>
       <c r="C83" s="140"/>
-      <c r="D83" s="307"/>
-      <c r="E83" s="308"/>
+      <c r="D83" s="267"/>
+      <c r="E83" s="268"/>
       <c r="F83" s="147"/>
       <c r="G83" s="170">
         <f t="shared" si="8"/>
@@ -6492,34 +6499,34 @@
         <v/>
       </c>
       <c r="J83" s="154"/>
-      <c r="K83" s="305" t="str">
+      <c r="K83" s="262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L83" s="306"/>
+      <c r="L83" s="263"/>
       <c r="M83" s="113"/>
-      <c r="N83" s="298"/>
-      <c r="O83" s="299"/>
-      <c r="P83" s="300"/>
-      <c r="R83" s="45"/>
-      <c r="S83" s="1" t="str">
+      <c r="N83" s="264"/>
+      <c r="O83" s="265"/>
+      <c r="P83" s="266"/>
+      <c r="S83" s="45"/>
+      <c r="T83" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="U83" s="1">
+      <c r="V83" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V83" s="1">
+      <c r="W83" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="309"/>
-      <c r="B84" s="310"/>
+    <row r="84" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="251"/>
+      <c r="B84" s="252"/>
       <c r="C84" s="141"/>
-      <c r="D84" s="307"/>
-      <c r="E84" s="308"/>
+      <c r="D84" s="267"/>
+      <c r="E84" s="268"/>
       <c r="F84" s="149"/>
       <c r="G84" s="170">
         <f t="shared" si="8"/>
@@ -6531,34 +6538,34 @@
         <v/>
       </c>
       <c r="J84" s="154"/>
-      <c r="K84" s="305" t="str">
+      <c r="K84" s="262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L84" s="306"/>
+      <c r="L84" s="263"/>
       <c r="M84" s="157"/>
-      <c r="N84" s="298"/>
-      <c r="O84" s="299"/>
-      <c r="P84" s="300"/>
-      <c r="R84" s="132"/>
-      <c r="S84" s="1" t="str">
+      <c r="N84" s="264"/>
+      <c r="O84" s="265"/>
+      <c r="P84" s="266"/>
+      <c r="S84" s="132"/>
+      <c r="T84" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="U84" s="1">
+      <c r="V84" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V84" s="1">
+      <c r="W84" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="309"/>
-      <c r="B85" s="310"/>
+    <row r="85" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="251"/>
+      <c r="B85" s="252"/>
       <c r="C85" s="141"/>
-      <c r="D85" s="307"/>
-      <c r="E85" s="308"/>
+      <c r="D85" s="267"/>
+      <c r="E85" s="268"/>
       <c r="F85" s="149"/>
       <c r="G85" s="170">
         <f t="shared" si="8"/>
@@ -6570,34 +6577,34 @@
         <v/>
       </c>
       <c r="J85" s="154"/>
-      <c r="K85" s="305" t="str">
+      <c r="K85" s="262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L85" s="306"/>
+      <c r="L85" s="263"/>
       <c r="M85" s="157"/>
-      <c r="N85" s="298"/>
-      <c r="O85" s="299"/>
-      <c r="P85" s="300"/>
-      <c r="R85" s="132"/>
-      <c r="S85" s="1" t="str">
+      <c r="N85" s="264"/>
+      <c r="O85" s="265"/>
+      <c r="P85" s="266"/>
+      <c r="S85" s="132"/>
+      <c r="T85" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="U85" s="1">
+      <c r="V85" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V85" s="1">
+      <c r="W85" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="323"/>
-      <c r="B86" s="324"/>
+    <row r="86" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="253"/>
+      <c r="B86" s="254"/>
       <c r="C86" s="142"/>
-      <c r="D86" s="325"/>
-      <c r="E86" s="326"/>
+      <c r="D86" s="255"/>
+      <c r="E86" s="256"/>
       <c r="F86" s="151"/>
       <c r="G86" s="171">
         <f t="shared" si="8"/>
@@ -6609,28 +6616,28 @@
         <v/>
       </c>
       <c r="J86" s="155"/>
-      <c r="K86" s="327" t="str">
+      <c r="K86" s="257" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L86" s="328"/>
+      <c r="L86" s="258"/>
       <c r="M86" s="158"/>
-      <c r="N86" s="329"/>
-      <c r="O86" s="330"/>
-      <c r="P86" s="331"/>
-      <c r="S86" s="1" t="str">
+      <c r="N86" s="259"/>
+      <c r="O86" s="260"/>
+      <c r="P86" s="261"/>
+      <c r="T86" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="U86" s="1">
+      <c r="V86" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V86" s="1">
+      <c r="W86" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="143"/>
       <c r="B87" s="144"/>
       <c r="C87" s="144"/>
@@ -6644,48 +6651,48 @@
       <c r="K87" s="146"/>
       <c r="L87" s="146"/>
       <c r="M87" s="15"/>
-      <c r="N87" s="311"/>
-      <c r="O87" s="311"/>
-      <c r="P87" s="312"/>
-    </row>
-    <row r="88" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="313" t="s">
+      <c r="N87" s="201"/>
+      <c r="O87" s="201"/>
+      <c r="P87" s="240"/>
+    </row>
+    <row r="88" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="314"/>
+      <c r="B88" s="242"/>
       <c r="C88" s="165">
         <f>I16</f>
         <v>0</v>
       </c>
       <c r="D88" s="67"/>
-      <c r="E88" s="315" t="s">
+      <c r="E88" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="F88" s="316"/>
-      <c r="G88" s="314"/>
-      <c r="H88" s="317">
+      <c r="F88" s="244"/>
+      <c r="G88" s="242"/>
+      <c r="H88" s="245">
         <f>I31</f>
         <v>0</v>
       </c>
-      <c r="I88" s="318"/>
+      <c r="I88" s="246"/>
       <c r="J88" s="159"/>
       <c r="K88" s="68"/>
-      <c r="L88" s="319" t="s">
+      <c r="L88" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="M88" s="320"/>
-      <c r="N88" s="321">
+      <c r="M88" s="248"/>
+      <c r="N88" s="249">
         <f>C88+H88</f>
         <v>0</v>
       </c>
-      <c r="O88" s="322"/>
+      <c r="O88" s="250"/>
       <c r="P88" s="69"/>
     </row>
-    <row r="89" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="342" t="s">
+    <row r="89" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="226" t="s">
         <v>57</v>
       </c>
-      <c r="B89" s="343"/>
+      <c r="B89" s="227"/>
       <c r="C89" s="166">
         <f>C88-K94</f>
         <v>0</v>
@@ -6694,36 +6701,36 @@
         <f>C89/C88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E89" s="344" t="s">
+      <c r="E89" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="345"/>
-      <c r="G89" s="346"/>
-      <c r="H89" s="347">
+      <c r="F89" s="229"/>
+      <c r="G89" s="230"/>
+      <c r="H89" s="231">
         <f>H88-N58</f>
         <v>0</v>
       </c>
-      <c r="I89" s="348"/>
+      <c r="I89" s="232"/>
       <c r="J89" s="160"/>
       <c r="K89" s="77" t="e">
         <f>H89/H88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L89" s="344" t="s">
+      <c r="L89" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="M89" s="346"/>
-      <c r="N89" s="349">
+      <c r="M89" s="230"/>
+      <c r="N89" s="233">
         <f>C89+H89</f>
         <v>0</v>
       </c>
-      <c r="O89" s="350"/>
+      <c r="O89" s="234"/>
       <c r="P89" s="65" t="e">
         <f>N89/N88</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="80"/>
       <c r="B90" s="81"/>
       <c r="C90" s="82"/>
@@ -6734,19 +6741,19 @@
       <c r="H90" s="83"/>
       <c r="I90" s="83"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="351" t="s">
+      <c r="K90" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="L90" s="352"/>
-      <c r="M90" s="353"/>
-      <c r="N90" s="354">
+      <c r="L90" s="236"/>
+      <c r="M90" s="237"/>
+      <c r="N90" s="238">
         <f>ROUNDDOWN((N88*P90),0)</f>
         <v>0</v>
       </c>
-      <c r="O90" s="355"/>
+      <c r="O90" s="239"/>
       <c r="P90" s="84"/>
     </row>
-    <row r="91" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="62"/>
       <c r="B91" s="63"/>
       <c r="C91" s="64"/>
@@ -6757,32 +6764,32 @@
       <c r="H91" s="22"/>
       <c r="I91" s="58"/>
       <c r="J91" s="129"/>
-      <c r="K91" s="332" t="s">
+      <c r="K91" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="L91" s="333"/>
-      <c r="M91" s="334"/>
-      <c r="N91" s="335">
+      <c r="L91" s="218"/>
+      <c r="M91" s="215"/>
+      <c r="N91" s="219">
         <f>N89-N90</f>
         <v>0</v>
       </c>
-      <c r="O91" s="336"/>
+      <c r="O91" s="220"/>
       <c r="P91" s="66" t="e">
         <f>N91/N88</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="337" t="s">
+    <row r="92" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="338"/>
-      <c r="C92" s="339" t="s">
+      <c r="B92" s="222"/>
+      <c r="C92" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="339"/>
-      <c r="E92" s="339"/>
-      <c r="F92" s="339"/>
+      <c r="D92" s="223"/>
+      <c r="E92" s="223"/>
+      <c r="F92" s="223"/>
       <c r="G92" s="16">
         <f>$P$4</f>
         <v>0</v>
@@ -6793,27 +6800,27 @@
         <v>0</v>
       </c>
       <c r="J92" s="18"/>
-      <c r="K92" s="340">
+      <c r="K92" s="224">
         <f>SUMIF(F61:F86,"&lt;&gt;"&amp;hdn_payoff_circle,K61:K86)</f>
         <v>0</v>
       </c>
-      <c r="L92" s="340"/>
+      <c r="L92" s="224"/>
       <c r="M92" s="18"/>
-      <c r="N92" s="341"/>
-      <c r="O92" s="341"/>
+      <c r="N92" s="225"/>
+      <c r="O92" s="225"/>
       <c r="P92" s="61"/>
     </row>
-    <row r="93" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="365" t="s">
+    <row r="93" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="366"/>
-      <c r="C93" s="367" t="s">
+      <c r="B93" s="203"/>
+      <c r="C93" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="367"/>
-      <c r="E93" s="367"/>
-      <c r="F93" s="367"/>
+      <c r="D93" s="204"/>
+      <c r="E93" s="204"/>
+      <c r="F93" s="204"/>
       <c r="G93" s="19">
         <f>$P$4</f>
         <v>0</v>
@@ -6824,27 +6831,27 @@
         <v>0</v>
       </c>
       <c r="J93" s="52"/>
-      <c r="K93" s="368">
+      <c r="K93" s="205">
         <f>SUMIF(F34:F86,hdn_payoff_circle,K34:K86)</f>
         <v>0</v>
       </c>
-      <c r="L93" s="369"/>
+      <c r="L93" s="206"/>
       <c r="M93" s="52"/>
-      <c r="N93" s="370"/>
-      <c r="O93" s="371"/>
+      <c r="N93" s="207"/>
+      <c r="O93" s="208"/>
       <c r="P93" s="21"/>
     </row>
-    <row r="94" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="372" t="s">
+    <row r="94" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="373"/>
-      <c r="C94" s="374" t="s">
+      <c r="B94" s="210"/>
+      <c r="C94" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="D94" s="374"/>
-      <c r="E94" s="374"/>
-      <c r="F94" s="374"/>
+      <c r="D94" s="211"/>
+      <c r="E94" s="211"/>
+      <c r="F94" s="211"/>
       <c r="G94" s="133">
         <f>$P$4</f>
         <v>0</v>
@@ -6855,64 +6862,64 @@
         <v>0</v>
       </c>
       <c r="J94" s="129"/>
-      <c r="K94" s="375">
+      <c r="K94" s="212">
         <f>SUM(K92:K93)</f>
         <v>0</v>
       </c>
-      <c r="L94" s="376"/>
-      <c r="M94" s="332" t="s">
+      <c r="L94" s="213"/>
+      <c r="M94" s="214" t="s">
         <v>44</v>
       </c>
-      <c r="N94" s="334"/>
-      <c r="O94" s="375">
+      <c r="N94" s="215"/>
+      <c r="O94" s="212">
         <f>N58</f>
         <v>0</v>
       </c>
-      <c r="P94" s="377"/>
-    </row>
-    <row r="95" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="363" t="s">
+      <c r="P94" s="216"/>
+    </row>
+    <row r="95" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="363"/>
-      <c r="C95" s="363"/>
-      <c r="D95" s="363"/>
-      <c r="E95" s="363"/>
-      <c r="F95" s="363"/>
-      <c r="G95" s="363"/>
+      <c r="B95" s="199"/>
+      <c r="C95" s="199"/>
+      <c r="D95" s="199"/>
+      <c r="E95" s="199"/>
+      <c r="F95" s="199"/>
+      <c r="G95" s="199"/>
       <c r="H95" s="161"/>
-      <c r="I95" s="364" t="s">
+      <c r="I95" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="J95" s="364"/>
-      <c r="K95" s="364"/>
-      <c r="L95" s="364"/>
-      <c r="M95" s="364"/>
-      <c r="N95" s="364"/>
-      <c r="O95" s="364"/>
-      <c r="P95" s="364"/>
-    </row>
-    <row r="96" spans="1:22" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="311" t="s">
+      <c r="J95" s="200"/>
+      <c r="K95" s="200"/>
+      <c r="L95" s="200"/>
+      <c r="M95" s="200"/>
+      <c r="N95" s="200"/>
+      <c r="O95" s="200"/>
+      <c r="P95" s="200"/>
+    </row>
+    <row r="96" spans="1:23" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="311"/>
-      <c r="C96" s="311"/>
-      <c r="D96" s="311"/>
-      <c r="E96" s="311"/>
-      <c r="F96" s="311"/>
-      <c r="G96" s="311"/>
-      <c r="H96" s="311"/>
-      <c r="I96" s="311"/>
-      <c r="J96" s="311"/>
-      <c r="K96" s="311"/>
-      <c r="L96" s="311"/>
-      <c r="M96" s="311"/>
-      <c r="N96" s="311"/>
-      <c r="O96" s="311"/>
-      <c r="P96" s="311"/>
-    </row>
-    <row r="97" spans="1:23" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="201"/>
+      <c r="C96" s="201"/>
+      <c r="D96" s="201"/>
+      <c r="E96" s="201"/>
+      <c r="F96" s="201"/>
+      <c r="G96" s="201"/>
+      <c r="H96" s="201"/>
+      <c r="I96" s="201"/>
+      <c r="J96" s="201"/>
+      <c r="K96" s="201"/>
+      <c r="L96" s="201"/>
+      <c r="M96" s="201"/>
+      <c r="N96" s="201"/>
+      <c r="O96" s="201"/>
+      <c r="P96" s="201"/>
+    </row>
+    <row r="97" spans="1:24" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="175"/>
       <c r="B97" s="175"/>
       <c r="D97" s="175"/>
@@ -6929,46 +6936,47 @@
       <c r="O97" s="175"/>
       <c r="P97" s="175"/>
     </row>
-    <row r="98" spans="1:23" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="175"/>
-      <c r="G98" s="356" t="s">
+      <c r="G98" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="H98" s="357"/>
-      <c r="I98" s="378" t="s">
+      <c r="H98" s="193"/>
+      <c r="I98" s="217" t="s">
         <v>67</v>
       </c>
-      <c r="J98" s="378"/>
-      <c r="K98" s="378" t="s">
+      <c r="J98" s="217"/>
+      <c r="K98" s="217" t="s">
         <v>68</v>
       </c>
-      <c r="L98" s="378"/>
-      <c r="M98" s="378" t="s">
+      <c r="L98" s="217"/>
+      <c r="M98" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="N98" s="378"/>
-      <c r="O98" s="378" t="s">
+      <c r="N98" s="217"/>
+      <c r="O98" s="217" t="s">
         <v>72</v>
       </c>
-      <c r="P98" s="378"/>
+      <c r="P98" s="217"/>
       <c r="Q98" s="187"/>
-      <c r="R98" s="176" t="s">
+      <c r="R98" s="191"/>
+      <c r="S98" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="S98" s="176" t="s">
+      <c r="T98" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="T98" s="176" t="s">
+      <c r="U98" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="U98" s="176" t="s">
+      <c r="V98" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="V98" s="176" t="s">
+      <c r="W98" s="176" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="26" t="s">
         <v>74</v>
       </c>
@@ -7019,8 +7027,9 @@
       <c r="T99" s="174"/>
       <c r="U99" s="174"/>
       <c r="V99" s="174"/>
-    </row>
-    <row r="100" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W99" s="174"/>
+    </row>
+    <row r="100" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="26"/>
       <c r="B100" s="179"/>
       <c r="C100" s="26"/>
@@ -7040,10 +7049,11 @@
       <c r="S100" s="23"/>
       <c r="T100" s="23"/>
       <c r="U100" s="23"/>
-      <c r="V100" s="26"/>
-      <c r="W100" s="53"/>
-    </row>
-    <row r="101" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V100" s="23"/>
+      <c r="W100" s="26"/>
+      <c r="X100" s="53"/>
+    </row>
+    <row r="101" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="179" t="s">
         <v>29</v>
       </c>
@@ -7071,9 +7081,10 @@
       <c r="S101" s="23"/>
       <c r="T101" s="23"/>
       <c r="U101" s="23"/>
-      <c r="V101" s="26"/>
-    </row>
-    <row r="102" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V101" s="23"/>
+      <c r="W101" s="26"/>
+    </row>
+    <row r="102" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="185"/>
       <c r="B102" s="186"/>
       <c r="C102" s="26" t="s">
@@ -7097,9 +7108,10 @@
       <c r="S102" s="28"/>
       <c r="T102" s="28"/>
       <c r="U102" s="28"/>
-      <c r="V102" s="26"/>
-    </row>
-    <row r="103" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V102" s="28"/>
+      <c r="W102" s="26"/>
+    </row>
+    <row r="103" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="178"/>
       <c r="B103" s="177"/>
       <c r="C103" s="26" t="s">
@@ -7119,13 +7131,14 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
       <c r="Q103" s="28"/>
-      <c r="R103" s="26"/>
+      <c r="R103" s="28"/>
       <c r="S103" s="26"/>
       <c r="T103" s="26"/>
       <c r="U103" s="26"/>
       <c r="V103" s="26"/>
-    </row>
-    <row r="104" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W103" s="26"/>
+    </row>
+    <row r="104" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
       <c r="I104" s="28"/>
@@ -7140,14 +7153,15 @@
       <c r="R104" s="28"/>
       <c r="S104" s="28"/>
       <c r="T104" s="28"/>
-      <c r="U104" s="26"/>
+      <c r="U104" s="28"/>
       <c r="V104" s="26"/>
-    </row>
-    <row r="105" spans="1:23" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="362" t="s">
+      <c r="W104" s="26"/>
+    </row>
+    <row r="105" spans="1:24" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="362"/>
+      <c r="B105" s="198"/>
       <c r="G105" s="28"/>
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
@@ -7162,10 +7176,11 @@
       <c r="R105" s="28"/>
       <c r="S105" s="28"/>
       <c r="T105" s="28"/>
-      <c r="U105" s="30"/>
-      <c r="V105" s="26"/>
-    </row>
-    <row r="106" spans="1:23" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U105" s="28"/>
+      <c r="V105" s="30"/>
+      <c r="W105" s="26"/>
+    </row>
+    <row r="106" spans="1:24" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="180">
         <f>SUMIF(A34:A57,hdn_mold_overseas_depreciation,K34:K57)+SUMIF(A61:A76,hdn_import_parts_cost,K61:K76)</f>
         <v>0</v>
@@ -7184,13 +7199,14 @@
       <c r="O106" s="29"/>
       <c r="P106" s="29"/>
       <c r="Q106" s="29"/>
-      <c r="R106" s="23"/>
+      <c r="R106" s="29"/>
       <c r="S106" s="23"/>
       <c r="T106" s="23"/>
-      <c r="U106" s="26"/>
+      <c r="U106" s="23"/>
       <c r="V106" s="26"/>
-    </row>
-    <row r="107" spans="1:23" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W106" s="26"/>
+    </row>
+    <row r="107" spans="1:24" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="180">
         <f>SUMIF(A61:A86,hdn_material_parts_cost,K61:K86)+SUMIF(A61:A86,hdn_import_parts_cost,K61:K86)+SUMIF(A34:A56,hdn_material_tools_cost,K34:K56)</f>
         <v>0</v>
@@ -7209,13 +7225,14 @@
       <c r="O107" s="29"/>
       <c r="P107" s="29"/>
       <c r="Q107" s="29"/>
-      <c r="R107" s="23"/>
+      <c r="R107" s="29"/>
       <c r="S107" s="23"/>
       <c r="T107" s="23"/>
-      <c r="U107" s="26"/>
+      <c r="U107" s="23"/>
       <c r="V107" s="26"/>
-    </row>
-    <row r="108" spans="1:23" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W107" s="26"/>
+    </row>
+    <row r="108" spans="1:24" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="182">
         <f>SUMIF(A34:A57,hdn_mold_overseas_depreciation,K34:K57)+SUMIF(A61:A76,hdn_import_parts_cost,K61:K76)</f>
         <v>0</v>
@@ -7234,13 +7251,14 @@
       <c r="O108" s="29"/>
       <c r="P108" s="29"/>
       <c r="Q108" s="29"/>
-      <c r="R108" s="23"/>
+      <c r="R108" s="29"/>
       <c r="S108" s="23"/>
       <c r="T108" s="23"/>
       <c r="U108" s="23"/>
-      <c r="V108" s="26"/>
-    </row>
-    <row r="109" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V108" s="23"/>
+      <c r="W108" s="26"/>
+    </row>
+    <row r="109" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="181">
         <f>SUMIF(C61:C83,hdn_mass_product,K61:K83)</f>
         <v>0</v>
@@ -7260,15 +7278,16 @@
       <c r="O109" s="29"/>
       <c r="P109" s="29"/>
       <c r="Q109" s="29"/>
-      <c r="R109" s="23"/>
+      <c r="R109" s="29"/>
       <c r="S109" s="23"/>
       <c r="T109" s="23"/>
       <c r="U109" s="23"/>
-      <c r="V109" s="26"/>
-    </row>
-    <row r="110" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V109" s="23"/>
+      <c r="W109" s="26"/>
+    </row>
+    <row r="110" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="174">
-        <f>SUM(S77:S86)</f>
+        <f>SUM(T77:T86)</f>
         <v>0</v>
       </c>
       <c r="B110" s="183" t="s">
@@ -7286,13 +7305,14 @@
       <c r="O110" s="29"/>
       <c r="P110" s="29"/>
       <c r="Q110" s="29"/>
-      <c r="R110" s="23"/>
+      <c r="R110" s="29"/>
       <c r="S110" s="23"/>
       <c r="T110" s="23"/>
       <c r="U110" s="23"/>
-      <c r="V110" s="26"/>
-    </row>
-    <row r="111" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V110" s="23"/>
+      <c r="W110" s="26"/>
+    </row>
+    <row r="111" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="184">
         <f>calculation_tariff+tariff_total</f>
         <v>0</v>
@@ -7312,13 +7332,14 @@
       <c r="O111" s="29"/>
       <c r="P111" s="29"/>
       <c r="Q111" s="29"/>
-      <c r="R111" s="23"/>
+      <c r="R111" s="29"/>
       <c r="S111" s="23"/>
       <c r="T111" s="23"/>
       <c r="U111" s="23"/>
-      <c r="V111" s="26"/>
-    </row>
-    <row r="112" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V111" s="23"/>
+      <c r="W111" s="26"/>
+    </row>
+    <row r="112" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="F112" s="178"/>
       <c r="G112" s="29"/>
       <c r="H112" s="29"/>
@@ -7331,13 +7352,14 @@
       <c r="O112" s="29"/>
       <c r="P112" s="29"/>
       <c r="Q112" s="29"/>
-      <c r="R112" s="23"/>
+      <c r="R112" s="29"/>
       <c r="S112" s="23"/>
       <c r="T112" s="23"/>
       <c r="U112" s="23"/>
-      <c r="V112" s="26"/>
-    </row>
-    <row r="113" spans="1:22" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V112" s="23"/>
+      <c r="W112" s="26"/>
+    </row>
+    <row r="113" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="F113" s="178"/>
       <c r="G113" s="29"/>
       <c r="H113" s="29"/>
@@ -7350,13 +7372,14 @@
       <c r="O113" s="29"/>
       <c r="P113" s="29"/>
       <c r="Q113" s="29"/>
-      <c r="R113" s="23"/>
+      <c r="R113" s="29"/>
       <c r="S113" s="23"/>
       <c r="T113" s="23"/>
       <c r="U113" s="23"/>
-      <c r="V113" s="26"/>
-    </row>
-    <row r="114" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V113" s="23"/>
+      <c r="W113" s="26"/>
+    </row>
+    <row r="114" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="E114" s="31"/>
       <c r="F114" s="178"/>
       <c r="G114" s="29"/>
@@ -7370,14 +7393,15 @@
       <c r="O114" s="29"/>
       <c r="P114" s="29"/>
       <c r="Q114" s="29"/>
-      <c r="R114" s="23"/>
+      <c r="R114" s="29"/>
       <c r="S114" s="23"/>
       <c r="T114" s="23"/>
       <c r="U114" s="23"/>
-      <c r="V114" s="26"/>
-    </row>
-    <row r="115" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="358" t="s">
+      <c r="V114" s="23"/>
+      <c r="W114" s="26"/>
+    </row>
+    <row r="115" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="194" t="s">
         <v>78</v>
       </c>
       <c r="B115" s="26"/>
@@ -7394,14 +7418,15 @@
       <c r="O115" s="29"/>
       <c r="P115" s="29"/>
       <c r="Q115" s="29"/>
-      <c r="R115" s="23"/>
+      <c r="R115" s="29"/>
       <c r="S115" s="23"/>
       <c r="T115" s="23"/>
       <c r="U115" s="23"/>
-      <c r="V115" s="26"/>
-    </row>
-    <row r="116" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="358"/>
+      <c r="V115" s="23"/>
+      <c r="W115" s="26"/>
+    </row>
+    <row r="116" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="194"/>
       <c r="B116" s="26"/>
       <c r="E116" s="32"/>
       <c r="F116" s="178"/>
@@ -7416,14 +7441,15 @@
       <c r="O116" s="29"/>
       <c r="P116" s="29"/>
       <c r="Q116" s="29"/>
-      <c r="R116" s="23"/>
+      <c r="R116" s="29"/>
       <c r="S116" s="23"/>
       <c r="T116" s="23"/>
       <c r="U116" s="23"/>
-      <c r="V116" s="26"/>
-    </row>
-    <row r="117" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="359" t="s">
+      <c r="V116" s="23"/>
+      <c r="W116" s="26"/>
+    </row>
+    <row r="117" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="195" t="s">
         <v>80</v>
       </c>
       <c r="B117" s="24"/>
@@ -7440,14 +7466,15 @@
       <c r="O117" s="29"/>
       <c r="P117" s="29"/>
       <c r="Q117" s="29"/>
-      <c r="R117" s="23"/>
+      <c r="R117" s="29"/>
       <c r="S117" s="23"/>
       <c r="T117" s="23"/>
       <c r="U117" s="23"/>
-      <c r="V117" s="26"/>
-    </row>
-    <row r="118" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="360"/>
+      <c r="V117" s="23"/>
+      <c r="W117" s="26"/>
+    </row>
+    <row r="118" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="196"/>
       <c r="B118" s="25"/>
       <c r="E118" s="32"/>
       <c r="F118" s="178"/>
@@ -7467,9 +7494,10 @@
       <c r="T118" s="26"/>
       <c r="U118" s="26"/>
       <c r="V118" s="26"/>
-    </row>
-    <row r="119" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="360"/>
+      <c r="W118" s="26"/>
+    </row>
+    <row r="119" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="196"/>
       <c r="B119" s="23"/>
       <c r="E119" s="32"/>
       <c r="F119" s="178"/>
@@ -7489,9 +7517,10 @@
       <c r="T119" s="26"/>
       <c r="U119" s="26"/>
       <c r="V119" s="26"/>
-    </row>
-    <row r="120" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="360"/>
+      <c r="W119" s="26"/>
+    </row>
+    <row r="120" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="196"/>
       <c r="B120" s="23"/>
       <c r="E120" s="32"/>
       <c r="F120" s="178"/>
@@ -7511,9 +7540,10 @@
       <c r="T120" s="26"/>
       <c r="U120" s="26"/>
       <c r="V120" s="26"/>
-    </row>
-    <row r="121" spans="1:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="360"/>
+      <c r="W120" s="26"/>
+    </row>
+    <row r="121" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="196"/>
       <c r="B121" s="28"/>
       <c r="E121" s="32"/>
       <c r="F121" s="178"/>
@@ -7533,9 +7563,10 @@
       <c r="T121" s="26"/>
       <c r="U121" s="26"/>
       <c r="V121" s="26"/>
-    </row>
-    <row r="122" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="360"/>
+      <c r="W121" s="26"/>
+    </row>
+    <row r="122" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="196"/>
       <c r="B122" s="26"/>
       <c r="F122" s="178"/>
       <c r="G122" s="26"/>
@@ -7553,10 +7584,11 @@
       <c r="S122" s="26"/>
       <c r="T122" s="26"/>
       <c r="U122" s="26"/>
-      <c r="V122" s="33"/>
-    </row>
-    <row r="123" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="361"/>
+      <c r="V122" s="26"/>
+      <c r="W122" s="33"/>
+    </row>
+    <row r="123" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="197"/>
       <c r="B123" s="28"/>
       <c r="F123" s="178"/>
       <c r="G123" s="26"/>
@@ -7574,9 +7606,10 @@
       <c r="S123" s="26"/>
       <c r="T123" s="26"/>
       <c r="U123" s="26"/>
-      <c r="V123" s="33"/>
-    </row>
-    <row r="124" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V123" s="26"/>
+      <c r="W123" s="33"/>
+    </row>
+    <row r="124" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="26" t="s">
         <v>81</v>
       </c>
@@ -7597,9 +7630,10 @@
       <c r="S124" s="26"/>
       <c r="T124" s="26"/>
       <c r="U124" s="26"/>
-      <c r="V124" s="33"/>
-    </row>
-    <row r="125" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V124" s="26"/>
+      <c r="W124" s="33"/>
+    </row>
+    <row r="125" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
@@ -7615,9 +7649,10 @@
       <c r="S125" s="26"/>
       <c r="T125" s="26"/>
       <c r="U125" s="26"/>
-      <c r="V125" s="33"/>
-    </row>
-    <row r="126" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V125" s="26"/>
+      <c r="W125" s="33"/>
+    </row>
+    <row r="126" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G126" s="42"/>
       <c r="H126" s="42"/>
       <c r="I126" s="26"/>
@@ -7633,9 +7668,10 @@
       <c r="S126" s="26"/>
       <c r="T126" s="26"/>
       <c r="U126" s="26"/>
-      <c r="V126" s="33"/>
-    </row>
-    <row r="127" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V126" s="26"/>
+      <c r="W126" s="33"/>
+    </row>
+    <row r="127" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G127" s="26"/>
       <c r="H127" s="26"/>
       <c r="I127" s="26"/>
@@ -7651,9 +7687,10 @@
       <c r="S127" s="26"/>
       <c r="T127" s="26"/>
       <c r="U127" s="26"/>
-      <c r="V127" s="33"/>
-    </row>
-    <row r="128" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V127" s="26"/>
+      <c r="W127" s="33"/>
+    </row>
+    <row r="128" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G128" s="26"/>
       <c r="H128" s="26"/>
       <c r="I128" s="26"/>
@@ -7669,9 +7706,10 @@
       <c r="S128" s="26"/>
       <c r="T128" s="26"/>
       <c r="U128" s="26"/>
-      <c r="V128" s="33"/>
-    </row>
-    <row r="129" spans="7:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="V128" s="26"/>
+      <c r="W128" s="33"/>
+    </row>
+    <row r="129" spans="7:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G129" s="26"/>
       <c r="H129" s="26"/>
       <c r="I129" s="26"/>
@@ -7687,9 +7725,10 @@
       <c r="S129" s="26"/>
       <c r="T129" s="26"/>
       <c r="U129" s="26"/>
-      <c r="V129" s="33"/>
-    </row>
-    <row r="130" spans="7:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V129" s="26"/>
+      <c r="W129" s="33"/>
+    </row>
+    <row r="130" spans="7:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="G130" s="26"/>
       <c r="H130" s="26"/>
       <c r="I130" s="34"/>
@@ -7706,8 +7745,9 @@
       <c r="T130" s="26"/>
       <c r="U130" s="26"/>
       <c r="V130" s="26"/>
-    </row>
-    <row r="131" spans="7:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W130" s="26"/>
+    </row>
+    <row r="131" spans="7:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="G131" s="26"/>
       <c r="H131" s="26"/>
       <c r="I131" s="34"/>
@@ -7724,8 +7764,9 @@
       <c r="T131" s="26"/>
       <c r="U131" s="26"/>
       <c r="V131" s="26"/>
-    </row>
-    <row r="132" spans="7:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W131" s="26"/>
+    </row>
+    <row r="132" spans="7:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="G132" s="26"/>
       <c r="H132" s="26"/>
       <c r="I132" s="34"/>
@@ -7742,8 +7783,9 @@
       <c r="T132" s="26"/>
       <c r="U132" s="26"/>
       <c r="V132" s="26"/>
-    </row>
-    <row r="133" spans="7:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W132" s="26"/>
+    </row>
+    <row r="133" spans="7:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="G133" s="26"/>
       <c r="H133" s="26"/>
       <c r="I133" s="34"/>
@@ -7760,8 +7802,9 @@
       <c r="T133" s="26"/>
       <c r="U133" s="26"/>
       <c r="V133" s="26"/>
-    </row>
-    <row r="134" spans="7:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W133" s="26"/>
+    </row>
+    <row r="134" spans="7:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="G134" s="26"/>
       <c r="H134" s="26"/>
       <c r="I134" s="34"/>
@@ -7778,8 +7821,9 @@
       <c r="T134" s="26"/>
       <c r="U134" s="26"/>
       <c r="V134" s="26"/>
-    </row>
-    <row r="135" spans="7:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W134" s="26"/>
+    </row>
+    <row r="135" spans="7:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="G135" s="26"/>
       <c r="H135" s="26"/>
       <c r="I135" s="34"/>
@@ -7796,8 +7840,9 @@
       <c r="T135" s="26"/>
       <c r="U135" s="26"/>
       <c r="V135" s="26"/>
-    </row>
-    <row r="136" spans="7:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W135" s="26"/>
+    </row>
+    <row r="136" spans="7:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="G136" s="26"/>
       <c r="H136" s="26"/>
       <c r="I136" s="34"/>
@@ -7814,8 +7859,9 @@
       <c r="T136" s="26"/>
       <c r="U136" s="26"/>
       <c r="V136" s="26"/>
-    </row>
-    <row r="137" spans="7:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W136" s="26"/>
+    </row>
+    <row r="137" spans="7:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="G137" s="26"/>
       <c r="H137" s="26"/>
       <c r="I137" s="34"/>
@@ -7832,8 +7878,9 @@
       <c r="T137" s="26"/>
       <c r="U137" s="26"/>
       <c r="V137" s="26"/>
-    </row>
-    <row r="138" spans="7:22" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W137" s="26"/>
+    </row>
+    <row r="138" spans="7:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="G138" s="26"/>
       <c r="H138" s="26"/>
       <c r="I138" s="26"/>
@@ -7850,8 +7897,9 @@
       <c r="T138" s="26"/>
       <c r="U138" s="26"/>
       <c r="V138" s="26"/>
-    </row>
-    <row r="139" spans="7:22" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W138" s="26"/>
+    </row>
+    <row r="139" spans="7:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="G139" s="26"/>
       <c r="H139" s="26"/>
       <c r="I139" s="26"/>
@@ -7868,8 +7916,9 @@
       <c r="T139" s="26"/>
       <c r="U139" s="26"/>
       <c r="V139" s="26"/>
-    </row>
-    <row r="140" spans="7:22" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W139" s="26"/>
+    </row>
+    <row r="140" spans="7:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="G140" s="26"/>
       <c r="H140" s="26"/>
       <c r="I140" s="26"/>
@@ -7886,8 +7935,9 @@
       <c r="T140" s="26"/>
       <c r="U140" s="26"/>
       <c r="V140" s="26"/>
-    </row>
-    <row r="141" spans="7:22" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W140" s="26"/>
+    </row>
+    <row r="141" spans="7:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="G141" s="26"/>
       <c r="H141" s="48"/>
       <c r="I141" s="49"/>
@@ -7899,13 +7949,14 @@
       <c r="O141" s="48"/>
       <c r="P141" s="41"/>
       <c r="Q141" s="41"/>
-      <c r="R141" s="35"/>
+      <c r="R141" s="41"/>
       <c r="S141" s="35"/>
       <c r="T141" s="35"/>
-      <c r="U141" s="26"/>
+      <c r="U141" s="35"/>
       <c r="V141" s="26"/>
-    </row>
-    <row r="142" spans="7:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W141" s="26"/>
+    </row>
+    <row r="142" spans="7:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G142" s="26"/>
       <c r="H142" s="26"/>
       <c r="I142" s="47"/>
@@ -7917,13 +7968,14 @@
       <c r="O142" s="41"/>
       <c r="P142" s="41"/>
       <c r="Q142" s="41"/>
-      <c r="R142" s="26"/>
+      <c r="R142" s="41"/>
       <c r="S142" s="26"/>
       <c r="T142" s="26"/>
       <c r="U142" s="26"/>
       <c r="V142" s="26"/>
-    </row>
-    <row r="143" spans="7:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W142" s="26"/>
+    </row>
+    <row r="143" spans="7:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G143" s="26"/>
       <c r="H143" s="163"/>
       <c r="I143" s="163"/>
@@ -7935,13 +7987,14 @@
       <c r="O143" s="162"/>
       <c r="P143" s="41"/>
       <c r="Q143" s="41"/>
-      <c r="R143" s="26"/>
+      <c r="R143" s="41"/>
       <c r="S143" s="26"/>
       <c r="T143" s="26"/>
       <c r="U143" s="26"/>
       <c r="V143" s="26"/>
-    </row>
-    <row r="144" spans="7:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W143" s="26"/>
+    </row>
+    <row r="144" spans="7:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G144" s="26"/>
       <c r="H144" s="163"/>
       <c r="I144" s="48"/>
@@ -7953,13 +8006,14 @@
       <c r="O144" s="51"/>
       <c r="P144" s="41"/>
       <c r="Q144" s="41"/>
-      <c r="R144" s="26"/>
+      <c r="R144" s="41"/>
       <c r="S144" s="26"/>
       <c r="T144" s="26"/>
       <c r="U144" s="26"/>
       <c r="V144" s="26"/>
-    </row>
-    <row r="145" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W144" s="26"/>
+    </row>
+    <row r="145" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G145" s="26"/>
       <c r="H145" s="163"/>
       <c r="I145" s="48"/>
@@ -7971,13 +8025,14 @@
       <c r="O145" s="163"/>
       <c r="P145" s="41"/>
       <c r="Q145" s="41"/>
-      <c r="R145" s="26"/>
+      <c r="R145" s="41"/>
       <c r="S145" s="26"/>
       <c r="T145" s="26"/>
       <c r="U145" s="26"/>
       <c r="V145" s="26"/>
-    </row>
-    <row r="146" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W145" s="26"/>
+    </row>
+    <row r="146" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G146" s="26"/>
       <c r="H146" s="163"/>
       <c r="I146" s="49"/>
@@ -7989,13 +8044,14 @@
       <c r="O146" s="163"/>
       <c r="P146" s="41"/>
       <c r="Q146" s="41"/>
-      <c r="R146" s="26"/>
+      <c r="R146" s="41"/>
       <c r="S146" s="26"/>
       <c r="T146" s="26"/>
       <c r="U146" s="26"/>
       <c r="V146" s="26"/>
-    </row>
-    <row r="147" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W146" s="26"/>
+    </row>
+    <row r="147" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G147" s="162"/>
       <c r="H147" s="50"/>
       <c r="I147" s="162"/>
@@ -8007,13 +8063,14 @@
       <c r="O147" s="162"/>
       <c r="P147" s="41"/>
       <c r="Q147" s="41"/>
-      <c r="R147" s="26"/>
+      <c r="R147" s="41"/>
       <c r="S147" s="26"/>
       <c r="T147" s="26"/>
       <c r="U147" s="26"/>
       <c r="V147" s="26"/>
-    </row>
-    <row r="148" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W147" s="26"/>
+    </row>
+    <row r="148" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G148" s="163"/>
       <c r="H148" s="48"/>
       <c r="I148" s="163"/>
@@ -8025,13 +8082,14 @@
       <c r="O148" s="163"/>
       <c r="P148" s="41"/>
       <c r="Q148" s="41"/>
-      <c r="R148" s="26"/>
+      <c r="R148" s="41"/>
       <c r="S148" s="26"/>
       <c r="T148" s="26"/>
       <c r="U148" s="26"/>
       <c r="V148" s="26"/>
-    </row>
-    <row r="149" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W148" s="26"/>
+    </row>
+    <row r="149" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G149" s="50"/>
       <c r="H149" s="48"/>
       <c r="I149" s="50"/>
@@ -8043,13 +8101,14 @@
       <c r="O149" s="50"/>
       <c r="P149" s="41"/>
       <c r="Q149" s="41"/>
-      <c r="R149" s="26"/>
+      <c r="R149" s="41"/>
       <c r="S149" s="26"/>
       <c r="T149" s="26"/>
       <c r="U149" s="26"/>
       <c r="V149" s="26"/>
-    </row>
-    <row r="150" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W149" s="26"/>
+    </row>
+    <row r="150" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G150" s="51"/>
       <c r="H150" s="48"/>
       <c r="I150" s="51"/>
@@ -8061,13 +8120,14 @@
       <c r="O150" s="51"/>
       <c r="P150" s="41"/>
       <c r="Q150" s="41"/>
-      <c r="R150" s="26"/>
+      <c r="R150" s="41"/>
       <c r="S150" s="26"/>
       <c r="T150" s="26"/>
       <c r="U150" s="26"/>
       <c r="V150" s="26"/>
-    </row>
-    <row r="151" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W150" s="26"/>
+    </row>
+    <row r="151" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G151" s="163"/>
       <c r="H151" s="48"/>
       <c r="I151" s="163"/>
@@ -8079,13 +8139,14 @@
       <c r="O151" s="163"/>
       <c r="P151" s="41"/>
       <c r="Q151" s="41"/>
-      <c r="R151" s="26"/>
+      <c r="R151" s="41"/>
       <c r="S151" s="26"/>
       <c r="T151" s="26"/>
       <c r="U151" s="26"/>
       <c r="V151" s="26"/>
-    </row>
-    <row r="152" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W151" s="26"/>
+    </row>
+    <row r="152" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G152" s="163"/>
       <c r="H152" s="48"/>
       <c r="I152" s="163"/>
@@ -8097,13 +8158,14 @@
       <c r="O152" s="163"/>
       <c r="P152" s="41"/>
       <c r="Q152" s="41"/>
-      <c r="R152" s="26"/>
+      <c r="R152" s="41"/>
       <c r="S152" s="26"/>
       <c r="T152" s="26"/>
       <c r="U152" s="26"/>
       <c r="V152" s="26"/>
-    </row>
-    <row r="153" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W152" s="26"/>
+    </row>
+    <row r="153" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G153" s="163"/>
       <c r="H153" s="48"/>
       <c r="I153" s="163"/>
@@ -8115,13 +8177,14 @@
       <c r="O153" s="163"/>
       <c r="P153" s="41"/>
       <c r="Q153" s="41"/>
-      <c r="R153" s="26"/>
+      <c r="R153" s="41"/>
       <c r="S153" s="26"/>
       <c r="T153" s="26"/>
       <c r="U153" s="26"/>
       <c r="V153" s="26"/>
-    </row>
-    <row r="154" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W153" s="26"/>
+    </row>
+    <row r="154" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G154" s="163"/>
       <c r="H154" s="26"/>
       <c r="I154" s="163"/>
@@ -8138,8 +8201,9 @@
       <c r="T154" s="26"/>
       <c r="U154" s="26"/>
       <c r="V154" s="26"/>
-    </row>
-    <row r="155" spans="1:22" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W154" s="26"/>
+    </row>
+    <row r="155" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G155" s="50"/>
       <c r="H155" s="26"/>
       <c r="I155" s="50"/>
@@ -8156,8 +8220,9 @@
       <c r="T155" s="26"/>
       <c r="U155" s="26"/>
       <c r="V155" s="26"/>
-    </row>
-    <row r="156" spans="1:22" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W155" s="26"/>
+    </row>
+    <row r="156" spans="1:23" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G156" s="50"/>
       <c r="H156" s="174"/>
       <c r="I156" s="50"/>
@@ -8174,8 +8239,9 @@
       <c r="T156" s="174"/>
       <c r="U156" s="174"/>
       <c r="V156" s="174"/>
-    </row>
-    <row r="157" spans="1:22" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W156" s="174"/>
+    </row>
+    <row r="157" spans="1:23" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="G157" s="163"/>
       <c r="H157" s="174"/>
       <c r="I157" s="163"/>
@@ -8192,10 +8258,11 @@
       <c r="T157" s="174"/>
       <c r="U157" s="174"/>
       <c r="V157" s="174"/>
-    </row>
-    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="1:22" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="W157" s="174"/>
+    </row>
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="160" spans="1:23" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="37"/>
@@ -8374,6 +8441,347 @@
     <row r="200" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="361">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:O90"/>
     <mergeCell ref="G98:H98"/>
     <mergeCell ref="A115:A116"/>
     <mergeCell ref="A117:A123"/>
@@ -8394,347 +8802,6 @@
     <mergeCell ref="K98:L98"/>
     <mergeCell ref="M98:N98"/>
     <mergeCell ref="O98:P98"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="A32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="13">
@@ -8751,7 +8818,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34:F57 F61:F86" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>$A$100:$A$101</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R34:R57 R61:R85" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S34:S57 S61:S85" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>$B$100:$B$101</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H61:H86" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6204A8-6D82-4A24-8E4B-3E813A33352B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094AD879-32BB-469D-86DB-C7938E9BEA8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2845,6 +2845,553 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="24" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2877,9 +3424,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2912,554 +3456,10 @@
     <xf numFmtId="5" fontId="6" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="5" fontId="6" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="20" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3892,8 +3892,8 @@
   </sheetPr>
   <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -3915,8 +3915,9 @@
     <col min="20" max="20" width="4.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="23" max="23" width="5.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3928,18 +3929,18 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="373"/>
-      <c r="C2" s="373"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="358" t="s">
+      <c r="E2" s="213" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
-      <c r="J2" s="358"/>
-      <c r="K2" s="358"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
@@ -3954,19 +3955,19 @@
       <c r="C3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="359"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="361"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="216"/>
       <c r="I3" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="359"/>
-      <c r="K3" s="360"/>
-      <c r="L3" s="360"/>
-      <c r="M3" s="360"/>
-      <c r="N3" s="361"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
       <c r="O3" s="138" t="s">
         <v>25</v>
       </c>
@@ -3976,24 +3977,24 @@
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="362"/>
-      <c r="C4" s="363"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="218"/>
       <c r="D4" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="364"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="367" t="s">
+      <c r="E4" s="219"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="368"/>
-      <c r="J4" s="369"/>
-      <c r="K4" s="369"/>
-      <c r="L4" s="367" t="s">
+      <c r="I4" s="223"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="368"/>
+      <c r="M4" s="223"/>
       <c r="N4" s="119"/>
       <c r="O4" s="130" t="s">
         <v>63</v>
@@ -4004,36 +4005,36 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="370"/>
-      <c r="B5" s="371"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
-      <c r="G5" s="371"/>
-      <c r="H5" s="371"/>
-      <c r="I5" s="371"/>
-      <c r="J5" s="371"/>
-      <c r="K5" s="371"/>
-      <c r="L5" s="371"/>
-      <c r="M5" s="371"/>
-      <c r="N5" s="371"/>
-      <c r="O5" s="371"/>
-      <c r="P5" s="372"/>
+      <c r="A5" s="225"/>
+      <c r="B5" s="226"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="226"/>
+      <c r="O5" s="226"/>
+      <c r="P5" s="227"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="374" t="s">
+      <c r="A6" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="375"/>
+      <c r="B6" s="193"/>
       <c r="C6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="376" t="s">
+      <c r="D6" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="377"/>
-      <c r="F6" s="375"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="193"/>
       <c r="G6" s="104" t="s">
         <v>7</v>
       </c>
@@ -4046,18 +4047,18 @@
       <c r="J6" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="378" t="s">
+      <c r="K6" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="379"/>
+      <c r="L6" s="197"/>
       <c r="M6" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="343" t="s">
+      <c r="N6" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="344"/>
-      <c r="P6" s="345"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="200"/>
       <c r="T6" s="1" t="s">
         <v>61</v>
       </c>
@@ -4066,25 +4067,25 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="346"/>
-      <c r="B7" s="347"/>
+      <c r="A7" s="201"/>
+      <c r="B7" s="202"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="348"/>
-      <c r="E7" s="349"/>
-      <c r="F7" s="350"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="205"/>
       <c r="G7" s="70"/>
       <c r="H7" s="87"/>
       <c r="I7" s="71"/>
       <c r="J7" s="122"/>
-      <c r="K7" s="317">
+      <c r="K7" s="206">
         <f>IFERROR(G7*I7*J7,"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="318"/>
+      <c r="L7" s="207"/>
       <c r="M7" s="113"/>
-      <c r="N7" s="355"/>
-      <c r="O7" s="356"/>
-      <c r="P7" s="357"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="210"/>
       <c r="T7" s="1">
         <f>IF(AND($A7=hdn_product_sales,$C7=hdn_main_product,ISNUMBER($I7)=TRUE,$J7&gt;0,ISNUMBER($G7)=TRUE,ISNUMBER($K7)=TRUE),$G7,0)</f>
         <v>0</v>
@@ -4098,25 +4099,25 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="346"/>
-      <c r="B8" s="347"/>
+      <c r="A8" s="201"/>
+      <c r="B8" s="202"/>
       <c r="C8" s="85"/>
-      <c r="D8" s="348"/>
-      <c r="E8" s="349"/>
-      <c r="F8" s="350"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="205"/>
       <c r="G8" s="72"/>
       <c r="H8" s="88"/>
       <c r="I8" s="73"/>
       <c r="J8" s="122"/>
-      <c r="K8" s="317">
+      <c r="K8" s="206">
         <f t="shared" ref="K8:K15" si="1">IFERROR(G8*I8*J8,"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="318"/>
+      <c r="L8" s="207"/>
       <c r="M8" s="113"/>
-      <c r="N8" s="355"/>
-      <c r="O8" s="356"/>
-      <c r="P8" s="357"/>
+      <c r="N8" s="208"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="210"/>
       <c r="T8" s="1">
         <f t="shared" ref="T8:T15" si="2">IF(AND($A8=hdn_product_sales,$C8=hdn_main_product,ISNUMBER($I8)=TRUE,$J8&gt;0,ISNUMBER($G8)=TRUE,ISNUMBER($K8)=TRUE),$G8,0)</f>
         <v>0</v>
@@ -4130,25 +4131,25 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="346"/>
-      <c r="B9" s="347"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="202"/>
       <c r="C9" s="85"/>
-      <c r="D9" s="348"/>
-      <c r="E9" s="349"/>
-      <c r="F9" s="350"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="205"/>
       <c r="G9" s="72"/>
       <c r="H9" s="88"/>
       <c r="I9" s="73"/>
       <c r="J9" s="123"/>
-      <c r="K9" s="317">
+      <c r="K9" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="318"/>
+      <c r="L9" s="207"/>
       <c r="M9" s="112"/>
-      <c r="N9" s="351"/>
-      <c r="O9" s="351"/>
-      <c r="P9" s="352"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="212"/>
       <c r="T9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4162,25 +4163,25 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="346"/>
-      <c r="B10" s="347"/>
+      <c r="A10" s="201"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="85"/>
-      <c r="D10" s="348"/>
-      <c r="E10" s="349"/>
-      <c r="F10" s="350"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="205"/>
       <c r="G10" s="72"/>
       <c r="H10" s="88"/>
       <c r="I10" s="73"/>
       <c r="J10" s="123"/>
-      <c r="K10" s="317">
+      <c r="K10" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="318"/>
+      <c r="L10" s="207"/>
       <c r="M10" s="112"/>
-      <c r="N10" s="351"/>
-      <c r="O10" s="351"/>
-      <c r="P10" s="352"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="212"/>
       <c r="T10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4195,25 +4196,25 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="346"/>
-      <c r="B11" s="347"/>
+      <c r="A11" s="201"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="85"/>
-      <c r="D11" s="348"/>
-      <c r="E11" s="349"/>
-      <c r="F11" s="350"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="205"/>
       <c r="G11" s="72"/>
       <c r="H11" s="88"/>
       <c r="I11" s="73"/>
       <c r="J11" s="123"/>
-      <c r="K11" s="317">
+      <c r="K11" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="318"/>
+      <c r="L11" s="207"/>
       <c r="M11" s="112"/>
-      <c r="N11" s="351"/>
-      <c r="O11" s="351"/>
-      <c r="P11" s="352"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="211"/>
+      <c r="P11" s="212"/>
       <c r="T11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4228,25 +4229,25 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="346"/>
-      <c r="B12" s="347"/>
+      <c r="A12" s="201"/>
+      <c r="B12" s="202"/>
       <c r="C12" s="85"/>
-      <c r="D12" s="348"/>
-      <c r="E12" s="349"/>
-      <c r="F12" s="350"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="205"/>
       <c r="G12" s="72"/>
       <c r="H12" s="88"/>
       <c r="I12" s="73"/>
       <c r="J12" s="123"/>
-      <c r="K12" s="317">
+      <c r="K12" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="318"/>
+      <c r="L12" s="207"/>
       <c r="M12" s="112"/>
-      <c r="N12" s="351"/>
-      <c r="O12" s="351"/>
-      <c r="P12" s="352"/>
+      <c r="N12" s="211"/>
+      <c r="O12" s="211"/>
+      <c r="P12" s="212"/>
       <c r="T12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4261,25 +4262,25 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="346"/>
-      <c r="B13" s="347"/>
+      <c r="A13" s="201"/>
+      <c r="B13" s="202"/>
       <c r="C13" s="85"/>
-      <c r="D13" s="348"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="350"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="205"/>
       <c r="G13" s="72"/>
       <c r="H13" s="88"/>
       <c r="I13" s="73"/>
       <c r="J13" s="123"/>
-      <c r="K13" s="317">
+      <c r="K13" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="318"/>
+      <c r="L13" s="207"/>
       <c r="M13" s="112"/>
-      <c r="N13" s="351"/>
-      <c r="O13" s="351"/>
-      <c r="P13" s="352"/>
+      <c r="N13" s="211"/>
+      <c r="O13" s="211"/>
+      <c r="P13" s="212"/>
       <c r="T13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4294,25 +4295,25 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="346"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="201"/>
+      <c r="B14" s="202"/>
       <c r="C14" s="85"/>
-      <c r="D14" s="348"/>
-      <c r="E14" s="349"/>
-      <c r="F14" s="350"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="205"/>
       <c r="G14" s="72"/>
       <c r="H14" s="88"/>
       <c r="I14" s="73"/>
       <c r="J14" s="123"/>
-      <c r="K14" s="317">
+      <c r="K14" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="318"/>
+      <c r="L14" s="207"/>
       <c r="M14" s="112"/>
-      <c r="N14" s="351"/>
-      <c r="O14" s="351"/>
-      <c r="P14" s="352"/>
+      <c r="N14" s="211"/>
+      <c r="O14" s="211"/>
+      <c r="P14" s="212"/>
       <c r="T14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4327,25 +4328,25 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="346"/>
-      <c r="B15" s="347"/>
+      <c r="A15" s="201"/>
+      <c r="B15" s="202"/>
       <c r="C15" s="86"/>
-      <c r="D15" s="348"/>
-      <c r="E15" s="349"/>
-      <c r="F15" s="350"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="205"/>
       <c r="G15" s="74"/>
       <c r="H15" s="89"/>
       <c r="I15" s="75"/>
       <c r="J15" s="124"/>
-      <c r="K15" s="317">
+      <c r="K15" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="318"/>
+      <c r="L15" s="207"/>
       <c r="M15" s="114"/>
-      <c r="N15" s="353"/>
-      <c r="O15" s="353"/>
-      <c r="P15" s="354"/>
+      <c r="N15" s="229"/>
+      <c r="O15" s="229"/>
+      <c r="P15" s="230"/>
       <c r="T15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4360,68 +4361,68 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="329" t="s">
+      <c r="A16" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="330"/>
-      <c r="C16" s="330"/>
-      <c r="D16" s="330"/>
-      <c r="E16" s="330"/>
-      <c r="F16" s="331"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="241"/>
       <c r="G16" s="79">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
       <c r="H16" s="76"/>
-      <c r="I16" s="332">
+      <c r="I16" s="242">
         <f>SUM(K7:K15)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="333"/>
-      <c r="K16" s="333"/>
-      <c r="L16" s="334"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="243"/>
+      <c r="L16" s="244"/>
       <c r="M16" s="115"/>
-      <c r="N16" s="335"/>
-      <c r="O16" s="335"/>
-      <c r="P16" s="336"/>
+      <c r="N16" s="245"/>
+      <c r="O16" s="245"/>
+      <c r="P16" s="246"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:23" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="309"/>
-      <c r="B17" s="310"/>
-      <c r="C17" s="310"/>
-      <c r="D17" s="310"/>
-      <c r="E17" s="310"/>
-      <c r="F17" s="310"/>
-      <c r="G17" s="310"/>
-      <c r="H17" s="310"/>
-      <c r="I17" s="310"/>
-      <c r="J17" s="310"/>
-      <c r="K17" s="310"/>
-      <c r="L17" s="310"/>
-      <c r="M17" s="310"/>
-      <c r="N17" s="310"/>
-      <c r="O17" s="310"/>
-      <c r="P17" s="311"/>
+      <c r="A17" s="247"/>
+      <c r="B17" s="248"/>
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="248"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="248"/>
+      <c r="K17" s="248"/>
+      <c r="L17" s="248"/>
+      <c r="M17" s="248"/>
+      <c r="N17" s="248"/>
+      <c r="O17" s="248"/>
+      <c r="P17" s="249"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="337" t="s">
+      <c r="A18" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="338"/>
+      <c r="B18" s="251"/>
       <c r="C18" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="339" t="s">
+      <c r="D18" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="340"/>
-      <c r="F18" s="338"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="251"/>
       <c r="G18" s="109" t="s">
         <v>7</v>
       </c>
@@ -4434,39 +4435,39 @@
       <c r="J18" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="341" t="s">
+      <c r="K18" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="342"/>
+      <c r="L18" s="255"/>
       <c r="M18" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="343" t="s">
+      <c r="N18" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="344"/>
-      <c r="P18" s="345"/>
+      <c r="O18" s="199"/>
+      <c r="P18" s="200"/>
     </row>
     <row r="19" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="312"/>
-      <c r="B19" s="313"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="232"/>
       <c r="C19" s="90"/>
-      <c r="D19" s="314"/>
-      <c r="E19" s="315"/>
-      <c r="F19" s="316"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="235"/>
       <c r="G19" s="5"/>
       <c r="H19" s="91"/>
       <c r="I19" s="6"/>
       <c r="J19" s="125"/>
-      <c r="K19" s="317">
+      <c r="K19" s="206">
         <f>IFERROR(G19*I19*J19,"")</f>
         <v>0</v>
       </c>
-      <c r="L19" s="318"/>
+      <c r="L19" s="207"/>
       <c r="M19" s="113"/>
-      <c r="N19" s="326"/>
-      <c r="O19" s="327"/>
-      <c r="P19" s="328"/>
+      <c r="N19" s="236"/>
+      <c r="O19" s="237"/>
+      <c r="P19" s="238"/>
       <c r="V19" s="1">
         <f t="shared" ref="V19:V30" si="3">IFERROR(VLOOKUP(H19,$C$101:$D$103,2,FALSE),1)</f>
         <v>1</v>
@@ -4476,25 +4477,25 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="312"/>
-      <c r="B20" s="313"/>
+      <c r="A20" s="231"/>
+      <c r="B20" s="232"/>
       <c r="C20" s="90"/>
-      <c r="D20" s="314"/>
-      <c r="E20" s="315"/>
-      <c r="F20" s="316"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="235"/>
       <c r="G20" s="7"/>
       <c r="H20" s="92"/>
       <c r="I20" s="8"/>
       <c r="J20" s="126"/>
-      <c r="K20" s="317">
+      <c r="K20" s="206">
         <f t="shared" ref="K20:K30" si="4">IFERROR(G20*I20*J20,"")</f>
         <v>0</v>
       </c>
-      <c r="L20" s="318"/>
+      <c r="L20" s="207"/>
       <c r="M20" s="113"/>
-      <c r="N20" s="326"/>
-      <c r="O20" s="327"/>
-      <c r="P20" s="328"/>
+      <c r="N20" s="236"/>
+      <c r="O20" s="237"/>
+      <c r="P20" s="238"/>
       <c r="V20" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4504,25 +4505,25 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="312"/>
-      <c r="B21" s="313"/>
+      <c r="A21" s="231"/>
+      <c r="B21" s="232"/>
       <c r="C21" s="90"/>
-      <c r="D21" s="314"/>
-      <c r="E21" s="315"/>
-      <c r="F21" s="316"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="235"/>
       <c r="G21" s="7"/>
       <c r="H21" s="92"/>
       <c r="I21" s="8"/>
       <c r="J21" s="126"/>
-      <c r="K21" s="317">
+      <c r="K21" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="318"/>
+      <c r="L21" s="207"/>
       <c r="M21" s="113"/>
-      <c r="N21" s="271"/>
-      <c r="O21" s="271"/>
-      <c r="P21" s="272"/>
+      <c r="N21" s="256"/>
+      <c r="O21" s="256"/>
+      <c r="P21" s="257"/>
       <c r="T21" s="9"/>
       <c r="U21" s="10"/>
       <c r="V21" s="1">
@@ -4534,25 +4535,25 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="312"/>
-      <c r="B22" s="313"/>
+      <c r="A22" s="231"/>
+      <c r="B22" s="232"/>
       <c r="C22" s="90"/>
-      <c r="D22" s="314"/>
-      <c r="E22" s="315"/>
-      <c r="F22" s="316"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="235"/>
       <c r="G22" s="7"/>
       <c r="H22" s="92"/>
       <c r="I22" s="8"/>
       <c r="J22" s="126"/>
-      <c r="K22" s="317">
+      <c r="K22" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="318"/>
+      <c r="L22" s="207"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="271"/>
-      <c r="O22" s="271"/>
-      <c r="P22" s="272"/>
+      <c r="N22" s="256"/>
+      <c r="O22" s="256"/>
+      <c r="P22" s="257"/>
       <c r="T22" s="9"/>
       <c r="U22" s="10"/>
       <c r="V22" s="1">
@@ -4564,25 +4565,25 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="312"/>
-      <c r="B23" s="313"/>
+      <c r="A23" s="231"/>
+      <c r="B23" s="232"/>
       <c r="C23" s="90"/>
-      <c r="D23" s="314"/>
-      <c r="E23" s="315"/>
-      <c r="F23" s="316"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="235"/>
       <c r="G23" s="7"/>
       <c r="H23" s="92"/>
       <c r="I23" s="8"/>
       <c r="J23" s="126"/>
-      <c r="K23" s="317">
+      <c r="K23" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L23" s="318"/>
+      <c r="L23" s="207"/>
       <c r="M23" s="113"/>
-      <c r="N23" s="271"/>
-      <c r="O23" s="271"/>
-      <c r="P23" s="272"/>
+      <c r="N23" s="256"/>
+      <c r="O23" s="256"/>
+      <c r="P23" s="257"/>
       <c r="T23" s="9"/>
       <c r="U23" s="10"/>
       <c r="V23" s="1">
@@ -4594,25 +4595,25 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="312"/>
-      <c r="B24" s="313"/>
+      <c r="A24" s="231"/>
+      <c r="B24" s="232"/>
       <c r="C24" s="90"/>
-      <c r="D24" s="314"/>
-      <c r="E24" s="315"/>
-      <c r="F24" s="316"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="235"/>
       <c r="G24" s="7"/>
       <c r="H24" s="92"/>
       <c r="I24" s="8"/>
       <c r="J24" s="126"/>
-      <c r="K24" s="317">
+      <c r="K24" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L24" s="318"/>
+      <c r="L24" s="207"/>
       <c r="M24" s="113"/>
-      <c r="N24" s="271"/>
-      <c r="O24" s="271"/>
-      <c r="P24" s="272"/>
+      <c r="N24" s="256"/>
+      <c r="O24" s="256"/>
+      <c r="P24" s="257"/>
       <c r="T24" s="9"/>
       <c r="U24" s="10"/>
       <c r="V24" s="1">
@@ -4624,25 +4625,25 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="312"/>
-      <c r="B25" s="313"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="232"/>
       <c r="C25" s="90"/>
-      <c r="D25" s="314"/>
-      <c r="E25" s="315"/>
-      <c r="F25" s="316"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="235"/>
       <c r="G25" s="7"/>
       <c r="H25" s="92"/>
       <c r="I25" s="8"/>
       <c r="J25" s="126"/>
-      <c r="K25" s="317">
+      <c r="K25" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L25" s="318"/>
+      <c r="L25" s="207"/>
       <c r="M25" s="113"/>
-      <c r="N25" s="271"/>
-      <c r="O25" s="271"/>
-      <c r="P25" s="272"/>
+      <c r="N25" s="256"/>
+      <c r="O25" s="256"/>
+      <c r="P25" s="257"/>
       <c r="T25" s="9"/>
       <c r="U25" s="10"/>
       <c r="V25" s="1">
@@ -4654,25 +4655,25 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="312"/>
-      <c r="B26" s="313"/>
+      <c r="A26" s="231"/>
+      <c r="B26" s="232"/>
       <c r="C26" s="90"/>
-      <c r="D26" s="314"/>
-      <c r="E26" s="315"/>
-      <c r="F26" s="316"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="235"/>
       <c r="G26" s="7"/>
       <c r="H26" s="92"/>
       <c r="I26" s="8"/>
       <c r="J26" s="126"/>
-      <c r="K26" s="317">
+      <c r="K26" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="318"/>
+      <c r="L26" s="207"/>
       <c r="M26" s="113"/>
-      <c r="N26" s="271"/>
-      <c r="O26" s="271"/>
-      <c r="P26" s="272"/>
+      <c r="N26" s="256"/>
+      <c r="O26" s="256"/>
+      <c r="P26" s="257"/>
       <c r="T26" s="9"/>
       <c r="U26" s="10"/>
       <c r="V26" s="1">
@@ -4684,25 +4685,25 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="312"/>
-      <c r="B27" s="313"/>
+      <c r="A27" s="231"/>
+      <c r="B27" s="232"/>
       <c r="C27" s="90"/>
-      <c r="D27" s="314"/>
-      <c r="E27" s="315"/>
-      <c r="F27" s="316"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="235"/>
       <c r="G27" s="7"/>
       <c r="H27" s="92"/>
       <c r="I27" s="8"/>
       <c r="J27" s="126"/>
-      <c r="K27" s="317">
+      <c r="K27" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L27" s="318"/>
+      <c r="L27" s="207"/>
       <c r="M27" s="113"/>
-      <c r="N27" s="271"/>
-      <c r="O27" s="271"/>
-      <c r="P27" s="272"/>
+      <c r="N27" s="256"/>
+      <c r="O27" s="256"/>
+      <c r="P27" s="257"/>
       <c r="T27" s="9"/>
       <c r="U27" s="10"/>
       <c r="V27" s="1">
@@ -4714,25 +4715,25 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="312"/>
-      <c r="B28" s="313"/>
+      <c r="A28" s="231"/>
+      <c r="B28" s="232"/>
       <c r="C28" s="90"/>
-      <c r="D28" s="314"/>
-      <c r="E28" s="315"/>
-      <c r="F28" s="316"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="235"/>
       <c r="G28" s="7"/>
       <c r="H28" s="92"/>
       <c r="I28" s="8"/>
       <c r="J28" s="126"/>
-      <c r="K28" s="317">
+      <c r="K28" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L28" s="318"/>
+      <c r="L28" s="207"/>
       <c r="M28" s="113"/>
-      <c r="N28" s="271"/>
-      <c r="O28" s="271"/>
-      <c r="P28" s="272"/>
+      <c r="N28" s="256"/>
+      <c r="O28" s="256"/>
+      <c r="P28" s="257"/>
       <c r="T28" s="9"/>
       <c r="U28" s="10"/>
       <c r="V28" s="1">
@@ -4744,25 +4745,25 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="312"/>
-      <c r="B29" s="313"/>
+      <c r="A29" s="231"/>
+      <c r="B29" s="232"/>
       <c r="C29" s="90"/>
-      <c r="D29" s="314"/>
-      <c r="E29" s="315"/>
-      <c r="F29" s="316"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="235"/>
       <c r="G29" s="7"/>
       <c r="H29" s="92"/>
       <c r="I29" s="8"/>
       <c r="J29" s="126"/>
-      <c r="K29" s="317">
+      <c r="K29" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L29" s="318"/>
+      <c r="L29" s="207"/>
       <c r="M29" s="113"/>
-      <c r="N29" s="271"/>
-      <c r="O29" s="271"/>
-      <c r="P29" s="272"/>
+      <c r="N29" s="256"/>
+      <c r="O29" s="256"/>
+      <c r="P29" s="257"/>
       <c r="T29" s="9"/>
       <c r="U29" s="10"/>
       <c r="V29" s="1">
@@ -4774,25 +4775,25 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="319"/>
-      <c r="B30" s="320"/>
+      <c r="A30" s="271"/>
+      <c r="B30" s="272"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="321"/>
-      <c r="E30" s="322"/>
-      <c r="F30" s="323"/>
+      <c r="D30" s="273"/>
+      <c r="E30" s="274"/>
+      <c r="F30" s="275"/>
       <c r="G30" s="55"/>
       <c r="H30" s="93"/>
       <c r="I30" s="54"/>
       <c r="J30" s="127"/>
-      <c r="K30" s="317">
+      <c r="K30" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="318"/>
+      <c r="L30" s="207"/>
       <c r="M30" s="117"/>
-      <c r="N30" s="324"/>
-      <c r="O30" s="324"/>
-      <c r="P30" s="325"/>
+      <c r="N30" s="276"/>
+      <c r="O30" s="276"/>
+      <c r="P30" s="277"/>
       <c r="T30" s="9"/>
       <c r="U30" s="10"/>
       <c r="V30" s="1">
@@ -4804,67 +4805,67 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="304" t="s">
+      <c r="A31" s="258" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="305"/>
-      <c r="C31" s="305"/>
-      <c r="D31" s="305"/>
-      <c r="E31" s="305"/>
-      <c r="F31" s="306"/>
+      <c r="B31" s="259"/>
+      <c r="C31" s="259"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="259"/>
+      <c r="F31" s="260"/>
       <c r="G31" s="78">
         <f>SUM(G19:G30)</f>
         <v>0</v>
       </c>
       <c r="H31" s="56"/>
-      <c r="I31" s="283">
+      <c r="I31" s="261">
         <f>SUM(K19:K30)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="284"/>
-      <c r="K31" s="284"/>
-      <c r="L31" s="285"/>
+      <c r="J31" s="262"/>
+      <c r="K31" s="262"/>
+      <c r="L31" s="263"/>
       <c r="M31" s="116"/>
-      <c r="N31" s="307"/>
-      <c r="O31" s="307"/>
-      <c r="P31" s="308"/>
+      <c r="N31" s="264"/>
+      <c r="O31" s="264"/>
+      <c r="P31" s="265"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
     </row>
     <row r="32" spans="1:23" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="309"/>
-      <c r="B32" s="310"/>
-      <c r="C32" s="310"/>
-      <c r="D32" s="310"/>
-      <c r="E32" s="310"/>
-      <c r="F32" s="310"/>
-      <c r="G32" s="310"/>
-      <c r="H32" s="310"/>
-      <c r="I32" s="310"/>
-      <c r="J32" s="310"/>
-      <c r="K32" s="310"/>
-      <c r="L32" s="310"/>
-      <c r="M32" s="310"/>
-      <c r="N32" s="310"/>
-      <c r="O32" s="310"/>
-      <c r="P32" s="311"/>
+      <c r="A32" s="247"/>
+      <c r="B32" s="248"/>
+      <c r="C32" s="248"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="248"/>
+      <c r="G32" s="248"/>
+      <c r="H32" s="248"/>
+      <c r="I32" s="248"/>
+      <c r="J32" s="248"/>
+      <c r="K32" s="248"/>
+      <c r="L32" s="248"/>
+      <c r="M32" s="248"/>
+      <c r="N32" s="248"/>
+      <c r="O32" s="248"/>
+      <c r="P32" s="249"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
     </row>
     <row r="33" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="292" t="s">
+      <c r="A33" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="293"/>
+      <c r="B33" s="267"/>
       <c r="C33" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="294" t="s">
+      <c r="D33" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="293"/>
+      <c r="E33" s="267"/>
       <c r="F33" s="190" t="s">
         <v>15</v>
       </c>
@@ -4880,42 +4881,42 @@
       <c r="J33" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="294" t="s">
+      <c r="K33" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="293"/>
+      <c r="L33" s="267"/>
       <c r="M33" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="N33" s="294" t="s">
+      <c r="N33" s="268" t="s">
         <v>53</v>
       </c>
-      <c r="O33" s="295"/>
-      <c r="P33" s="296"/>
+      <c r="O33" s="269"/>
+      <c r="P33" s="270"/>
       <c r="S33" s="46" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="275"/>
-      <c r="B34" s="276"/>
+      <c r="A34" s="278"/>
+      <c r="B34" s="279"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="277"/>
-      <c r="E34" s="276"/>
+      <c r="D34" s="280"/>
+      <c r="E34" s="279"/>
       <c r="F34" s="95"/>
       <c r="G34" s="7"/>
       <c r="H34" s="98"/>
       <c r="I34" s="8"/>
       <c r="J34" s="126"/>
-      <c r="K34" s="278">
+      <c r="K34" s="281">
         <f>IFERROR(G34*I34*J34,"")</f>
         <v>0</v>
       </c>
-      <c r="L34" s="279"/>
+      <c r="L34" s="282"/>
       <c r="M34" s="113"/>
-      <c r="N34" s="297"/>
-      <c r="O34" s="297"/>
-      <c r="P34" s="298"/>
+      <c r="N34" s="283"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="284"/>
       <c r="S34" s="43"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
@@ -4928,25 +4929,25 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="275"/>
-      <c r="B35" s="276"/>
+      <c r="A35" s="278"/>
+      <c r="B35" s="279"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="277"/>
-      <c r="E35" s="276"/>
+      <c r="D35" s="280"/>
+      <c r="E35" s="279"/>
       <c r="F35" s="95"/>
       <c r="G35" s="7"/>
       <c r="H35" s="98"/>
       <c r="I35" s="8"/>
       <c r="J35" s="126"/>
-      <c r="K35" s="278">
+      <c r="K35" s="281">
         <f t="shared" ref="K35:K57" si="6">IFERROR(G35*I35*J35,"")</f>
         <v>0</v>
       </c>
-      <c r="L35" s="279"/>
+      <c r="L35" s="282"/>
       <c r="M35" s="113"/>
-      <c r="N35" s="297"/>
-      <c r="O35" s="297"/>
-      <c r="P35" s="298"/>
+      <c r="N35" s="283"/>
+      <c r="O35" s="283"/>
+      <c r="P35" s="284"/>
       <c r="S35" s="43"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
@@ -4959,25 +4960,25 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="275"/>
-      <c r="B36" s="276"/>
+      <c r="A36" s="278"/>
+      <c r="B36" s="279"/>
       <c r="C36" s="94"/>
-      <c r="D36" s="277"/>
-      <c r="E36" s="276"/>
+      <c r="D36" s="280"/>
+      <c r="E36" s="279"/>
       <c r="F36" s="95"/>
       <c r="G36" s="7"/>
       <c r="H36" s="98"/>
       <c r="I36" s="8"/>
       <c r="J36" s="126"/>
-      <c r="K36" s="278">
+      <c r="K36" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L36" s="279"/>
+      <c r="L36" s="282"/>
       <c r="M36" s="113"/>
-      <c r="N36" s="297"/>
-      <c r="O36" s="297"/>
-      <c r="P36" s="298"/>
+      <c r="N36" s="283"/>
+      <c r="O36" s="283"/>
+      <c r="P36" s="284"/>
       <c r="S36" s="43"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
@@ -4990,25 +4991,25 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="275"/>
-      <c r="B37" s="276"/>
+      <c r="A37" s="278"/>
+      <c r="B37" s="279"/>
       <c r="C37" s="94"/>
-      <c r="D37" s="277"/>
-      <c r="E37" s="276"/>
+      <c r="D37" s="280"/>
+      <c r="E37" s="279"/>
       <c r="F37" s="95"/>
       <c r="G37" s="7"/>
       <c r="H37" s="98"/>
       <c r="I37" s="8"/>
       <c r="J37" s="126"/>
-      <c r="K37" s="278">
+      <c r="K37" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L37" s="279"/>
+      <c r="L37" s="282"/>
       <c r="M37" s="113"/>
-      <c r="N37" s="297"/>
-      <c r="O37" s="297"/>
-      <c r="P37" s="298"/>
+      <c r="N37" s="283"/>
+      <c r="O37" s="283"/>
+      <c r="P37" s="284"/>
       <c r="S37" s="43"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
@@ -5021,25 +5022,25 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="275"/>
-      <c r="B38" s="276"/>
+      <c r="A38" s="278"/>
+      <c r="B38" s="279"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="277"/>
-      <c r="E38" s="276"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="279"/>
       <c r="F38" s="95"/>
       <c r="G38" s="7"/>
       <c r="H38" s="98"/>
       <c r="I38" s="8"/>
       <c r="J38" s="126"/>
-      <c r="K38" s="278">
+      <c r="K38" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L38" s="279"/>
+      <c r="L38" s="282"/>
       <c r="M38" s="113"/>
-      <c r="N38" s="297"/>
-      <c r="O38" s="297"/>
-      <c r="P38" s="298"/>
+      <c r="N38" s="283"/>
+      <c r="O38" s="283"/>
+      <c r="P38" s="284"/>
       <c r="S38" s="43"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
@@ -5052,25 +5053,25 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="275"/>
-      <c r="B39" s="276"/>
+      <c r="A39" s="278"/>
+      <c r="B39" s="279"/>
       <c r="C39" s="94"/>
-      <c r="D39" s="277"/>
-      <c r="E39" s="276"/>
+      <c r="D39" s="280"/>
+      <c r="E39" s="279"/>
       <c r="F39" s="95"/>
       <c r="G39" s="7"/>
       <c r="H39" s="98"/>
       <c r="I39" s="8"/>
       <c r="J39" s="126"/>
-      <c r="K39" s="278">
+      <c r="K39" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L39" s="279"/>
+      <c r="L39" s="282"/>
       <c r="M39" s="113"/>
-      <c r="N39" s="297"/>
-      <c r="O39" s="297"/>
-      <c r="P39" s="298"/>
+      <c r="N39" s="283"/>
+      <c r="O39" s="283"/>
+      <c r="P39" s="284"/>
       <c r="S39" s="43"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
@@ -5083,25 +5084,25 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="275"/>
-      <c r="B40" s="276"/>
+      <c r="A40" s="278"/>
+      <c r="B40" s="279"/>
       <c r="C40" s="94"/>
-      <c r="D40" s="277"/>
-      <c r="E40" s="276"/>
+      <c r="D40" s="280"/>
+      <c r="E40" s="279"/>
       <c r="F40" s="95"/>
       <c r="G40" s="7"/>
       <c r="H40" s="98"/>
       <c r="I40" s="8"/>
       <c r="J40" s="126"/>
-      <c r="K40" s="278">
+      <c r="K40" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L40" s="279"/>
+      <c r="L40" s="282"/>
       <c r="M40" s="113"/>
-      <c r="N40" s="297"/>
-      <c r="O40" s="297"/>
-      <c r="P40" s="298"/>
+      <c r="N40" s="283"/>
+      <c r="O40" s="283"/>
+      <c r="P40" s="284"/>
       <c r="S40" s="43"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
@@ -5114,25 +5115,25 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="275"/>
-      <c r="B41" s="276"/>
+      <c r="A41" s="278"/>
+      <c r="B41" s="279"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="277"/>
-      <c r="E41" s="276"/>
+      <c r="D41" s="280"/>
+      <c r="E41" s="279"/>
       <c r="F41" s="95"/>
       <c r="G41" s="7"/>
       <c r="H41" s="98"/>
       <c r="I41" s="8"/>
       <c r="J41" s="126"/>
-      <c r="K41" s="278">
+      <c r="K41" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L41" s="279"/>
+      <c r="L41" s="282"/>
       <c r="M41" s="113"/>
-      <c r="N41" s="297"/>
-      <c r="O41" s="297"/>
-      <c r="P41" s="298"/>
+      <c r="N41" s="283"/>
+      <c r="O41" s="283"/>
+      <c r="P41" s="284"/>
       <c r="S41" s="43"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
@@ -5145,25 +5146,25 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="275"/>
-      <c r="B42" s="276"/>
+      <c r="A42" s="278"/>
+      <c r="B42" s="279"/>
       <c r="C42" s="94"/>
-      <c r="D42" s="277"/>
-      <c r="E42" s="276"/>
+      <c r="D42" s="280"/>
+      <c r="E42" s="279"/>
       <c r="F42" s="95"/>
       <c r="G42" s="7"/>
       <c r="H42" s="98"/>
       <c r="I42" s="8"/>
       <c r="J42" s="126"/>
-      <c r="K42" s="278">
+      <c r="K42" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L42" s="279"/>
+      <c r="L42" s="282"/>
       <c r="M42" s="113"/>
-      <c r="N42" s="301"/>
-      <c r="O42" s="302"/>
-      <c r="P42" s="303"/>
+      <c r="N42" s="285"/>
+      <c r="O42" s="286"/>
+      <c r="P42" s="287"/>
       <c r="S42" s="43"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
@@ -5176,25 +5177,25 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="275"/>
-      <c r="B43" s="276"/>
+      <c r="A43" s="278"/>
+      <c r="B43" s="279"/>
       <c r="C43" s="94"/>
-      <c r="D43" s="277"/>
-      <c r="E43" s="276"/>
+      <c r="D43" s="280"/>
+      <c r="E43" s="279"/>
       <c r="F43" s="95"/>
       <c r="G43" s="7"/>
       <c r="H43" s="98"/>
       <c r="I43" s="8"/>
       <c r="J43" s="126"/>
-      <c r="K43" s="278">
+      <c r="K43" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L43" s="279"/>
+      <c r="L43" s="282"/>
       <c r="M43" s="113"/>
-      <c r="N43" s="297"/>
-      <c r="O43" s="297"/>
-      <c r="P43" s="298"/>
+      <c r="N43" s="283"/>
+      <c r="O43" s="283"/>
+      <c r="P43" s="284"/>
       <c r="S43" s="43"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
@@ -5207,25 +5208,25 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="275"/>
-      <c r="B44" s="276"/>
+      <c r="A44" s="278"/>
+      <c r="B44" s="279"/>
       <c r="C44" s="94"/>
-      <c r="D44" s="277"/>
-      <c r="E44" s="276"/>
+      <c r="D44" s="280"/>
+      <c r="E44" s="279"/>
       <c r="F44" s="95"/>
       <c r="G44" s="7"/>
       <c r="H44" s="98"/>
       <c r="I44" s="8"/>
       <c r="J44" s="126"/>
-      <c r="K44" s="278">
+      <c r="K44" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L44" s="279"/>
+      <c r="L44" s="282"/>
       <c r="M44" s="113"/>
-      <c r="N44" s="297"/>
-      <c r="O44" s="297"/>
-      <c r="P44" s="298"/>
+      <c r="N44" s="283"/>
+      <c r="O44" s="283"/>
+      <c r="P44" s="284"/>
       <c r="S44" s="43"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
@@ -5238,25 +5239,25 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="275"/>
-      <c r="B45" s="276"/>
+      <c r="A45" s="278"/>
+      <c r="B45" s="279"/>
       <c r="C45" s="94"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="276"/>
+      <c r="D45" s="280"/>
+      <c r="E45" s="279"/>
       <c r="F45" s="95"/>
       <c r="G45" s="7"/>
       <c r="H45" s="98"/>
       <c r="I45" s="8"/>
       <c r="J45" s="126"/>
-      <c r="K45" s="278">
+      <c r="K45" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L45" s="279"/>
+      <c r="L45" s="282"/>
       <c r="M45" s="113"/>
-      <c r="N45" s="301"/>
-      <c r="O45" s="302"/>
-      <c r="P45" s="303"/>
+      <c r="N45" s="285"/>
+      <c r="O45" s="286"/>
+      <c r="P45" s="287"/>
       <c r="S45" s="43"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
@@ -5269,25 +5270,25 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="275"/>
-      <c r="B46" s="276"/>
+      <c r="A46" s="278"/>
+      <c r="B46" s="279"/>
       <c r="C46" s="94"/>
-      <c r="D46" s="277"/>
-      <c r="E46" s="276"/>
+      <c r="D46" s="280"/>
+      <c r="E46" s="279"/>
       <c r="F46" s="95"/>
       <c r="G46" s="7"/>
       <c r="H46" s="98"/>
       <c r="I46" s="8"/>
       <c r="J46" s="126"/>
-      <c r="K46" s="278">
+      <c r="K46" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L46" s="279"/>
+      <c r="L46" s="282"/>
       <c r="M46" s="113"/>
-      <c r="N46" s="301"/>
-      <c r="O46" s="302"/>
-      <c r="P46" s="303"/>
+      <c r="N46" s="285"/>
+      <c r="O46" s="286"/>
+      <c r="P46" s="287"/>
       <c r="S46" s="43"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
@@ -5300,25 +5301,25 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="275"/>
-      <c r="B47" s="276"/>
+      <c r="A47" s="278"/>
+      <c r="B47" s="279"/>
       <c r="C47" s="94"/>
-      <c r="D47" s="277"/>
-      <c r="E47" s="276"/>
+      <c r="D47" s="280"/>
+      <c r="E47" s="279"/>
       <c r="F47" s="95"/>
       <c r="G47" s="7"/>
       <c r="H47" s="98"/>
       <c r="I47" s="8"/>
       <c r="J47" s="126"/>
-      <c r="K47" s="278">
+      <c r="K47" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L47" s="279"/>
+      <c r="L47" s="282"/>
       <c r="M47" s="113"/>
-      <c r="N47" s="301"/>
-      <c r="O47" s="302"/>
-      <c r="P47" s="303"/>
+      <c r="N47" s="285"/>
+      <c r="O47" s="286"/>
+      <c r="P47" s="287"/>
       <c r="S47" s="43"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
@@ -5331,25 +5332,25 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="275"/>
-      <c r="B48" s="276"/>
+      <c r="A48" s="278"/>
+      <c r="B48" s="279"/>
       <c r="C48" s="94"/>
-      <c r="D48" s="277"/>
-      <c r="E48" s="276"/>
+      <c r="D48" s="280"/>
+      <c r="E48" s="279"/>
       <c r="F48" s="95"/>
       <c r="G48" s="7"/>
       <c r="H48" s="98"/>
       <c r="I48" s="8"/>
       <c r="J48" s="126"/>
-      <c r="K48" s="278">
+      <c r="K48" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L48" s="279"/>
+      <c r="L48" s="282"/>
       <c r="M48" s="113"/>
-      <c r="N48" s="301"/>
-      <c r="O48" s="302"/>
-      <c r="P48" s="303"/>
+      <c r="N48" s="285"/>
+      <c r="O48" s="286"/>
+      <c r="P48" s="287"/>
       <c r="S48" s="43"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
@@ -5362,25 +5363,25 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="275"/>
-      <c r="B49" s="276"/>
+      <c r="A49" s="278"/>
+      <c r="B49" s="279"/>
       <c r="C49" s="94"/>
-      <c r="D49" s="277"/>
-      <c r="E49" s="276"/>
+      <c r="D49" s="280"/>
+      <c r="E49" s="279"/>
       <c r="F49" s="95"/>
       <c r="G49" s="7"/>
       <c r="H49" s="98"/>
       <c r="I49" s="8"/>
       <c r="J49" s="126"/>
-      <c r="K49" s="278">
+      <c r="K49" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L49" s="279"/>
+      <c r="L49" s="282"/>
       <c r="M49" s="113"/>
-      <c r="N49" s="301"/>
-      <c r="O49" s="302"/>
-      <c r="P49" s="303"/>
+      <c r="N49" s="285"/>
+      <c r="O49" s="286"/>
+      <c r="P49" s="287"/>
       <c r="S49" s="43"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
@@ -5393,25 +5394,25 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="275"/>
-      <c r="B50" s="276"/>
+      <c r="A50" s="278"/>
+      <c r="B50" s="279"/>
       <c r="C50" s="94"/>
-      <c r="D50" s="277"/>
-      <c r="E50" s="276"/>
+      <c r="D50" s="280"/>
+      <c r="E50" s="279"/>
       <c r="F50" s="95"/>
       <c r="G50" s="7"/>
       <c r="H50" s="98"/>
       <c r="I50" s="8"/>
       <c r="J50" s="126"/>
-      <c r="K50" s="278">
+      <c r="K50" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L50" s="279"/>
+      <c r="L50" s="282"/>
       <c r="M50" s="113"/>
-      <c r="N50" s="301"/>
-      <c r="O50" s="302"/>
-      <c r="P50" s="303"/>
+      <c r="N50" s="285"/>
+      <c r="O50" s="286"/>
+      <c r="P50" s="287"/>
       <c r="S50" s="43"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
@@ -5424,25 +5425,25 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="275"/>
-      <c r="B51" s="276"/>
+      <c r="A51" s="278"/>
+      <c r="B51" s="279"/>
       <c r="C51" s="94"/>
-      <c r="D51" s="277"/>
-      <c r="E51" s="276"/>
+      <c r="D51" s="280"/>
+      <c r="E51" s="279"/>
       <c r="F51" s="95"/>
       <c r="G51" s="7"/>
       <c r="H51" s="98"/>
       <c r="I51" s="8"/>
       <c r="J51" s="126"/>
-      <c r="K51" s="278">
+      <c r="K51" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L51" s="279"/>
+      <c r="L51" s="282"/>
       <c r="M51" s="113"/>
-      <c r="N51" s="297"/>
-      <c r="O51" s="297"/>
-      <c r="P51" s="298"/>
+      <c r="N51" s="283"/>
+      <c r="O51" s="283"/>
+      <c r="P51" s="284"/>
       <c r="S51" s="43"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
@@ -5455,25 +5456,25 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="275"/>
-      <c r="B52" s="276"/>
+      <c r="A52" s="278"/>
+      <c r="B52" s="279"/>
       <c r="C52" s="94"/>
-      <c r="D52" s="277"/>
-      <c r="E52" s="276"/>
+      <c r="D52" s="280"/>
+      <c r="E52" s="279"/>
       <c r="F52" s="95"/>
       <c r="G52" s="7"/>
       <c r="H52" s="98"/>
       <c r="I52" s="8"/>
       <c r="J52" s="126"/>
-      <c r="K52" s="278">
+      <c r="K52" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L52" s="279"/>
+      <c r="L52" s="282"/>
       <c r="M52" s="113"/>
-      <c r="N52" s="297"/>
-      <c r="O52" s="297"/>
-      <c r="P52" s="298"/>
+      <c r="N52" s="283"/>
+      <c r="O52" s="283"/>
+      <c r="P52" s="284"/>
       <c r="S52" s="43"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
@@ -5486,25 +5487,25 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="275"/>
-      <c r="B53" s="276"/>
+      <c r="A53" s="278"/>
+      <c r="B53" s="279"/>
       <c r="C53" s="94"/>
-      <c r="D53" s="277"/>
-      <c r="E53" s="276"/>
+      <c r="D53" s="280"/>
+      <c r="E53" s="279"/>
       <c r="F53" s="95"/>
       <c r="G53" s="7"/>
       <c r="H53" s="98"/>
       <c r="I53" s="8"/>
       <c r="J53" s="126"/>
-      <c r="K53" s="278">
+      <c r="K53" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L53" s="279"/>
+      <c r="L53" s="282"/>
       <c r="M53" s="113"/>
-      <c r="N53" s="297"/>
-      <c r="O53" s="297"/>
-      <c r="P53" s="298"/>
+      <c r="N53" s="283"/>
+      <c r="O53" s="283"/>
+      <c r="P53" s="284"/>
       <c r="S53" s="43"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
@@ -5517,25 +5518,25 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="275"/>
-      <c r="B54" s="276"/>
+      <c r="A54" s="278"/>
+      <c r="B54" s="279"/>
       <c r="C54" s="94"/>
-      <c r="D54" s="277"/>
-      <c r="E54" s="276"/>
+      <c r="D54" s="280"/>
+      <c r="E54" s="279"/>
       <c r="F54" s="95"/>
       <c r="G54" s="7"/>
       <c r="H54" s="98"/>
       <c r="I54" s="8"/>
       <c r="J54" s="126"/>
-      <c r="K54" s="278">
+      <c r="K54" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L54" s="279"/>
+      <c r="L54" s="282"/>
       <c r="M54" s="113"/>
-      <c r="N54" s="297"/>
-      <c r="O54" s="297"/>
-      <c r="P54" s="298"/>
+      <c r="N54" s="283"/>
+      <c r="O54" s="283"/>
+      <c r="P54" s="284"/>
       <c r="S54" s="43"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
@@ -5548,25 +5549,25 @@
       </c>
     </row>
     <row r="55" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="275"/>
-      <c r="B55" s="276"/>
+      <c r="A55" s="278"/>
+      <c r="B55" s="279"/>
       <c r="C55" s="94"/>
-      <c r="D55" s="277"/>
-      <c r="E55" s="276"/>
+      <c r="D55" s="280"/>
+      <c r="E55" s="279"/>
       <c r="F55" s="95"/>
       <c r="G55" s="7"/>
       <c r="H55" s="98"/>
       <c r="I55" s="8"/>
       <c r="J55" s="126"/>
-      <c r="K55" s="278">
+      <c r="K55" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L55" s="279"/>
+      <c r="L55" s="282"/>
       <c r="M55" s="113"/>
-      <c r="N55" s="297"/>
-      <c r="O55" s="297"/>
-      <c r="P55" s="298"/>
+      <c r="N55" s="283"/>
+      <c r="O55" s="283"/>
+      <c r="P55" s="284"/>
       <c r="S55" s="43"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
@@ -5579,25 +5580,25 @@
       </c>
     </row>
     <row r="56" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="275"/>
-      <c r="B56" s="276"/>
+      <c r="A56" s="278"/>
+      <c r="B56" s="279"/>
       <c r="C56" s="94"/>
-      <c r="D56" s="277"/>
-      <c r="E56" s="276"/>
+      <c r="D56" s="280"/>
+      <c r="E56" s="279"/>
       <c r="F56" s="95"/>
       <c r="G56" s="7"/>
       <c r="H56" s="98"/>
       <c r="I56" s="8"/>
       <c r="J56" s="126"/>
-      <c r="K56" s="278">
+      <c r="K56" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L56" s="279"/>
+      <c r="L56" s="282"/>
       <c r="M56" s="113"/>
-      <c r="N56" s="297"/>
-      <c r="O56" s="297"/>
-      <c r="P56" s="298"/>
+      <c r="N56" s="283"/>
+      <c r="O56" s="283"/>
+      <c r="P56" s="284"/>
       <c r="S56" s="43"/>
       <c r="T56" s="9"/>
       <c r="U56" s="10"/>
@@ -5610,25 +5611,25 @@
       </c>
     </row>
     <row r="57" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="275"/>
-      <c r="B57" s="276"/>
+      <c r="A57" s="278"/>
+      <c r="B57" s="279"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="277"/>
-      <c r="E57" s="276"/>
+      <c r="D57" s="280"/>
+      <c r="E57" s="279"/>
       <c r="F57" s="97"/>
       <c r="G57" s="11"/>
       <c r="H57" s="99"/>
       <c r="I57" s="54"/>
       <c r="J57" s="127"/>
-      <c r="K57" s="278">
+      <c r="K57" s="281">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L57" s="279"/>
+      <c r="L57" s="282"/>
       <c r="M57" s="117"/>
-      <c r="N57" s="299"/>
-      <c r="O57" s="299"/>
-      <c r="P57" s="300"/>
+      <c r="N57" s="288"/>
+      <c r="O57" s="288"/>
+      <c r="P57" s="289"/>
       <c r="S57" s="45"/>
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
@@ -5641,69 +5642,69 @@
       </c>
     </row>
     <row r="58" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="280" t="s">
+      <c r="A58" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="281"/>
-      <c r="C58" s="281"/>
-      <c r="D58" s="281"/>
-      <c r="E58" s="281"/>
-      <c r="F58" s="282"/>
+      <c r="B58" s="291"/>
+      <c r="C58" s="291"/>
+      <c r="D58" s="291"/>
+      <c r="E58" s="291"/>
+      <c r="F58" s="292"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="283">
+      <c r="I58" s="261">
         <f>SUM(K34:K57)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="284"/>
-      <c r="K58" s="284"/>
-      <c r="L58" s="285"/>
+      <c r="J58" s="262"/>
+      <c r="K58" s="262"/>
+      <c r="L58" s="263"/>
       <c r="M58" s="118"/>
-      <c r="N58" s="286">
+      <c r="N58" s="293">
         <f>SUMIF(F34:F57,"&lt;&gt;"&amp;hdn_payoff_circle,K34:K57)</f>
         <v>0</v>
       </c>
-      <c r="O58" s="287"/>
-      <c r="P58" s="288"/>
+      <c r="O58" s="294"/>
+      <c r="P58" s="295"/>
       <c r="S58" s="44"/>
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
     </row>
     <row r="59" spans="1:23" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="289"/>
-      <c r="B59" s="290"/>
-      <c r="C59" s="290"/>
-      <c r="D59" s="290"/>
-      <c r="E59" s="290"/>
-      <c r="F59" s="290"/>
-      <c r="G59" s="290"/>
-      <c r="H59" s="290"/>
-      <c r="I59" s="290"/>
-      <c r="J59" s="290"/>
-      <c r="K59" s="290"/>
-      <c r="L59" s="290"/>
-      <c r="M59" s="290"/>
-      <c r="N59" s="290"/>
-      <c r="O59" s="290"/>
-      <c r="P59" s="291"/>
+      <c r="A59" s="296"/>
+      <c r="B59" s="297"/>
+      <c r="C59" s="297"/>
+      <c r="D59" s="297"/>
+      <c r="E59" s="297"/>
+      <c r="F59" s="297"/>
+      <c r="G59" s="297"/>
+      <c r="H59" s="297"/>
+      <c r="I59" s="297"/>
+      <c r="J59" s="297"/>
+      <c r="K59" s="297"/>
+      <c r="L59" s="297"/>
+      <c r="M59" s="297"/>
+      <c r="N59" s="297"/>
+      <c r="O59" s="297"/>
+      <c r="P59" s="298"/>
       <c r="S59" s="44"/>
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
     </row>
     <row r="60" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="292" t="s">
+      <c r="A60" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="293"/>
+      <c r="B60" s="267"/>
       <c r="C60" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="294" t="s">
+      <c r="D60" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="293"/>
+      <c r="E60" s="267"/>
       <c r="F60" s="189" t="s">
         <v>15</v>
       </c>
@@ -5719,29 +5720,29 @@
       <c r="J60" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="K60" s="294" t="s">
+      <c r="K60" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="L60" s="293"/>
+      <c r="L60" s="267"/>
       <c r="M60" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="N60" s="294" t="s">
+      <c r="N60" s="268" t="s">
         <v>53</v>
       </c>
-      <c r="O60" s="295"/>
-      <c r="P60" s="296"/>
+      <c r="O60" s="269"/>
+      <c r="P60" s="270"/>
       <c r="S60" s="46" t="s">
         <v>34</v>
       </c>
       <c r="V60" s="10"/>
     </row>
     <row r="61" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="275"/>
-      <c r="B61" s="276"/>
+      <c r="A61" s="278"/>
+      <c r="B61" s="279"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="277"/>
-      <c r="E61" s="276"/>
+      <c r="D61" s="280"/>
+      <c r="E61" s="279"/>
       <c r="F61" s="95"/>
       <c r="G61" s="170">
         <f>IF(A61&lt;&gt;"",$P$4,0)</f>
@@ -5750,15 +5751,15 @@
       <c r="H61" s="98"/>
       <c r="I61" s="8"/>
       <c r="J61" s="126"/>
-      <c r="K61" s="278">
+      <c r="K61" s="281">
         <f>IFERROR(G61*I61*J61,"")</f>
         <v>0</v>
       </c>
-      <c r="L61" s="279"/>
+      <c r="L61" s="282"/>
       <c r="M61" s="113"/>
-      <c r="N61" s="271"/>
-      <c r="O61" s="271"/>
-      <c r="P61" s="272"/>
+      <c r="N61" s="256"/>
+      <c r="O61" s="256"/>
+      <c r="P61" s="257"/>
       <c r="S61" s="43"/>
       <c r="V61" s="1">
         <f t="shared" ref="V61:V86" si="7">IFERROR(VLOOKUP(H61,$C$101:$D$103,2,FALSE),1)</f>
@@ -5769,11 +5770,11 @@
       </c>
     </row>
     <row r="62" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="275"/>
-      <c r="B62" s="276"/>
+      <c r="A62" s="278"/>
+      <c r="B62" s="279"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="277"/>
-      <c r="E62" s="276"/>
+      <c r="D62" s="280"/>
+      <c r="E62" s="279"/>
       <c r="F62" s="95"/>
       <c r="G62" s="170">
         <f t="shared" ref="G62:G86" si="8">IF(A62&lt;&gt;"",$P$4,0)</f>
@@ -5782,15 +5783,15 @@
       <c r="H62" s="98"/>
       <c r="I62" s="8"/>
       <c r="J62" s="126"/>
-      <c r="K62" s="278">
+      <c r="K62" s="281">
         <f t="shared" ref="K62:K86" si="9">IFERROR(G62*I62*J62,"")</f>
         <v>0</v>
       </c>
-      <c r="L62" s="279"/>
+      <c r="L62" s="282"/>
       <c r="M62" s="113"/>
-      <c r="N62" s="271"/>
-      <c r="O62" s="271"/>
-      <c r="P62" s="272"/>
+      <c r="N62" s="256"/>
+      <c r="O62" s="256"/>
+      <c r="P62" s="257"/>
       <c r="S62" s="43"/>
       <c r="V62" s="1">
         <f t="shared" si="7"/>
@@ -5801,11 +5802,11 @@
       </c>
     </row>
     <row r="63" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="275"/>
-      <c r="B63" s="276"/>
+      <c r="A63" s="278"/>
+      <c r="B63" s="279"/>
       <c r="C63" s="94"/>
-      <c r="D63" s="277"/>
-      <c r="E63" s="276"/>
+      <c r="D63" s="280"/>
+      <c r="E63" s="279"/>
       <c r="F63" s="95"/>
       <c r="G63" s="170">
         <f t="shared" si="8"/>
@@ -5814,15 +5815,15 @@
       <c r="H63" s="98"/>
       <c r="I63" s="8"/>
       <c r="J63" s="126"/>
-      <c r="K63" s="278">
+      <c r="K63" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L63" s="279"/>
+      <c r="L63" s="282"/>
       <c r="M63" s="113"/>
-      <c r="N63" s="264"/>
-      <c r="O63" s="265"/>
-      <c r="P63" s="266"/>
+      <c r="N63" s="299"/>
+      <c r="O63" s="300"/>
+      <c r="P63" s="301"/>
       <c r="S63" s="43"/>
       <c r="V63" s="1">
         <f t="shared" si="7"/>
@@ -5833,11 +5834,11 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="275"/>
-      <c r="B64" s="276"/>
+      <c r="A64" s="278"/>
+      <c r="B64" s="279"/>
       <c r="C64" s="94"/>
-      <c r="D64" s="277"/>
-      <c r="E64" s="276"/>
+      <c r="D64" s="280"/>
+      <c r="E64" s="279"/>
       <c r="F64" s="95"/>
       <c r="G64" s="170">
         <f t="shared" si="8"/>
@@ -5846,15 +5847,15 @@
       <c r="H64" s="98"/>
       <c r="I64" s="8"/>
       <c r="J64" s="126"/>
-      <c r="K64" s="278">
+      <c r="K64" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L64" s="279"/>
+      <c r="L64" s="282"/>
       <c r="M64" s="113"/>
-      <c r="N64" s="271"/>
-      <c r="O64" s="271"/>
-      <c r="P64" s="272"/>
+      <c r="N64" s="256"/>
+      <c r="O64" s="256"/>
+      <c r="P64" s="257"/>
       <c r="S64" s="43"/>
       <c r="V64" s="1">
         <f t="shared" si="7"/>
@@ -5865,11 +5866,11 @@
       </c>
     </row>
     <row r="65" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="275"/>
-      <c r="B65" s="276"/>
+      <c r="A65" s="278"/>
+      <c r="B65" s="279"/>
       <c r="C65" s="94"/>
-      <c r="D65" s="277"/>
-      <c r="E65" s="276"/>
+      <c r="D65" s="280"/>
+      <c r="E65" s="279"/>
       <c r="F65" s="95"/>
       <c r="G65" s="170">
         <f t="shared" si="8"/>
@@ -5878,15 +5879,15 @@
       <c r="H65" s="98"/>
       <c r="I65" s="8"/>
       <c r="J65" s="126"/>
-      <c r="K65" s="278">
+      <c r="K65" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L65" s="279"/>
+      <c r="L65" s="282"/>
       <c r="M65" s="113"/>
-      <c r="N65" s="271"/>
-      <c r="O65" s="271"/>
-      <c r="P65" s="272"/>
+      <c r="N65" s="256"/>
+      <c r="O65" s="256"/>
+      <c r="P65" s="257"/>
       <c r="S65" s="43"/>
       <c r="V65" s="1">
         <f t="shared" si="7"/>
@@ -5897,11 +5898,11 @@
       </c>
     </row>
     <row r="66" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="275"/>
-      <c r="B66" s="276"/>
+      <c r="A66" s="278"/>
+      <c r="B66" s="279"/>
       <c r="C66" s="94"/>
-      <c r="D66" s="277"/>
-      <c r="E66" s="276"/>
+      <c r="D66" s="280"/>
+      <c r="E66" s="279"/>
       <c r="F66" s="95"/>
       <c r="G66" s="170">
         <f t="shared" si="8"/>
@@ -5910,15 +5911,15 @@
       <c r="H66" s="98"/>
       <c r="I66" s="8"/>
       <c r="J66" s="126"/>
-      <c r="K66" s="278">
+      <c r="K66" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L66" s="279"/>
+      <c r="L66" s="282"/>
       <c r="M66" s="113"/>
-      <c r="N66" s="271"/>
-      <c r="O66" s="271"/>
-      <c r="P66" s="272"/>
+      <c r="N66" s="256"/>
+      <c r="O66" s="256"/>
+      <c r="P66" s="257"/>
       <c r="S66" s="43"/>
       <c r="V66" s="1">
         <f t="shared" si="7"/>
@@ -5929,11 +5930,11 @@
       </c>
     </row>
     <row r="67" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="275"/>
-      <c r="B67" s="276"/>
+      <c r="A67" s="278"/>
+      <c r="B67" s="279"/>
       <c r="C67" s="94"/>
-      <c r="D67" s="277"/>
-      <c r="E67" s="276"/>
+      <c r="D67" s="280"/>
+      <c r="E67" s="279"/>
       <c r="F67" s="95"/>
       <c r="G67" s="170">
         <f t="shared" si="8"/>
@@ -5942,15 +5943,15 @@
       <c r="H67" s="98"/>
       <c r="I67" s="8"/>
       <c r="J67" s="126"/>
-      <c r="K67" s="278">
+      <c r="K67" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L67" s="279"/>
+      <c r="L67" s="282"/>
       <c r="M67" s="113"/>
-      <c r="N67" s="271"/>
-      <c r="O67" s="271"/>
-      <c r="P67" s="272"/>
+      <c r="N67" s="256"/>
+      <c r="O67" s="256"/>
+      <c r="P67" s="257"/>
       <c r="S67" s="43"/>
       <c r="V67" s="1">
         <f t="shared" si="7"/>
@@ -5961,11 +5962,11 @@
       </c>
     </row>
     <row r="68" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="275"/>
-      <c r="B68" s="276"/>
+      <c r="A68" s="278"/>
+      <c r="B68" s="279"/>
       <c r="C68" s="94"/>
-      <c r="D68" s="277"/>
-      <c r="E68" s="276"/>
+      <c r="D68" s="280"/>
+      <c r="E68" s="279"/>
       <c r="F68" s="95"/>
       <c r="G68" s="170">
         <f t="shared" si="8"/>
@@ -5974,15 +5975,15 @@
       <c r="H68" s="98"/>
       <c r="I68" s="8"/>
       <c r="J68" s="126"/>
-      <c r="K68" s="278">
+      <c r="K68" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L68" s="279"/>
+      <c r="L68" s="282"/>
       <c r="M68" s="113"/>
-      <c r="N68" s="271"/>
-      <c r="O68" s="271"/>
-      <c r="P68" s="272"/>
+      <c r="N68" s="256"/>
+      <c r="O68" s="256"/>
+      <c r="P68" s="257"/>
       <c r="S68" s="43"/>
       <c r="V68" s="1">
         <f t="shared" si="7"/>
@@ -5993,11 +5994,11 @@
       </c>
     </row>
     <row r="69" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="275"/>
-      <c r="B69" s="276"/>
+      <c r="A69" s="278"/>
+      <c r="B69" s="279"/>
       <c r="C69" s="94"/>
-      <c r="D69" s="277"/>
-      <c r="E69" s="276"/>
+      <c r="D69" s="280"/>
+      <c r="E69" s="279"/>
       <c r="F69" s="95"/>
       <c r="G69" s="170">
         <f t="shared" si="8"/>
@@ -6006,15 +6007,15 @@
       <c r="H69" s="98"/>
       <c r="I69" s="8"/>
       <c r="J69" s="126"/>
-      <c r="K69" s="278">
+      <c r="K69" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L69" s="279"/>
+      <c r="L69" s="282"/>
       <c r="M69" s="113"/>
-      <c r="N69" s="271"/>
-      <c r="O69" s="271"/>
-      <c r="P69" s="272"/>
+      <c r="N69" s="256"/>
+      <c r="O69" s="256"/>
+      <c r="P69" s="257"/>
       <c r="S69" s="43"/>
       <c r="V69" s="1">
         <f t="shared" si="7"/>
@@ -6025,11 +6026,11 @@
       </c>
     </row>
     <row r="70" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="275"/>
-      <c r="B70" s="276"/>
+      <c r="A70" s="278"/>
+      <c r="B70" s="279"/>
       <c r="C70" s="94"/>
-      <c r="D70" s="277"/>
-      <c r="E70" s="276"/>
+      <c r="D70" s="280"/>
+      <c r="E70" s="279"/>
       <c r="F70" s="95"/>
       <c r="G70" s="170">
         <f t="shared" si="8"/>
@@ -6038,15 +6039,15 @@
       <c r="H70" s="98"/>
       <c r="I70" s="8"/>
       <c r="J70" s="126"/>
-      <c r="K70" s="278">
+      <c r="K70" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L70" s="279"/>
+      <c r="L70" s="282"/>
       <c r="M70" s="113"/>
-      <c r="N70" s="271"/>
-      <c r="O70" s="271"/>
-      <c r="P70" s="272"/>
+      <c r="N70" s="256"/>
+      <c r="O70" s="256"/>
+      <c r="P70" s="257"/>
       <c r="S70" s="43"/>
       <c r="V70" s="1">
         <f t="shared" si="7"/>
@@ -6057,11 +6058,11 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="275"/>
-      <c r="B71" s="276"/>
+      <c r="A71" s="278"/>
+      <c r="B71" s="279"/>
       <c r="C71" s="94"/>
-      <c r="D71" s="277"/>
-      <c r="E71" s="276"/>
+      <c r="D71" s="280"/>
+      <c r="E71" s="279"/>
       <c r="F71" s="95"/>
       <c r="G71" s="170">
         <f t="shared" si="8"/>
@@ -6070,15 +6071,15 @@
       <c r="H71" s="98"/>
       <c r="I71" s="8"/>
       <c r="J71" s="126"/>
-      <c r="K71" s="278">
+      <c r="K71" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L71" s="279"/>
+      <c r="L71" s="282"/>
       <c r="M71" s="113"/>
-      <c r="N71" s="271"/>
-      <c r="O71" s="271"/>
-      <c r="P71" s="272"/>
+      <c r="N71" s="256"/>
+      <c r="O71" s="256"/>
+      <c r="P71" s="257"/>
       <c r="S71" s="43"/>
       <c r="V71" s="1">
         <f t="shared" si="7"/>
@@ -6089,11 +6090,11 @@
       </c>
     </row>
     <row r="72" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="275"/>
-      <c r="B72" s="276"/>
+      <c r="A72" s="278"/>
+      <c r="B72" s="279"/>
       <c r="C72" s="94"/>
-      <c r="D72" s="277"/>
-      <c r="E72" s="276"/>
+      <c r="D72" s="280"/>
+      <c r="E72" s="279"/>
       <c r="F72" s="95"/>
       <c r="G72" s="170">
         <f t="shared" si="8"/>
@@ -6102,15 +6103,15 @@
       <c r="H72" s="98"/>
       <c r="I72" s="8"/>
       <c r="J72" s="126"/>
-      <c r="K72" s="278">
+      <c r="K72" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L72" s="279"/>
+      <c r="L72" s="282"/>
       <c r="M72" s="113"/>
-      <c r="N72" s="271"/>
-      <c r="O72" s="271"/>
-      <c r="P72" s="272"/>
+      <c r="N72" s="256"/>
+      <c r="O72" s="256"/>
+      <c r="P72" s="257"/>
       <c r="S72" s="43"/>
       <c r="V72" s="1">
         <f t="shared" si="7"/>
@@ -6121,11 +6122,11 @@
       </c>
     </row>
     <row r="73" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="275"/>
-      <c r="B73" s="276"/>
+      <c r="A73" s="278"/>
+      <c r="B73" s="279"/>
       <c r="C73" s="94"/>
-      <c r="D73" s="277"/>
-      <c r="E73" s="276"/>
+      <c r="D73" s="280"/>
+      <c r="E73" s="279"/>
       <c r="F73" s="95"/>
       <c r="G73" s="170">
         <f t="shared" si="8"/>
@@ -6134,15 +6135,15 @@
       <c r="H73" s="98"/>
       <c r="I73" s="8"/>
       <c r="J73" s="126"/>
-      <c r="K73" s="278">
+      <c r="K73" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L73" s="279"/>
+      <c r="L73" s="282"/>
       <c r="M73" s="113"/>
-      <c r="N73" s="271"/>
-      <c r="O73" s="271"/>
-      <c r="P73" s="272"/>
+      <c r="N73" s="256"/>
+      <c r="O73" s="256"/>
+      <c r="P73" s="257"/>
       <c r="S73" s="43"/>
       <c r="V73" s="1">
         <f t="shared" si="7"/>
@@ -6153,11 +6154,11 @@
       </c>
     </row>
     <row r="74" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="275"/>
-      <c r="B74" s="276"/>
+      <c r="A74" s="278"/>
+      <c r="B74" s="279"/>
       <c r="C74" s="94"/>
-      <c r="D74" s="277"/>
-      <c r="E74" s="276"/>
+      <c r="D74" s="280"/>
+      <c r="E74" s="279"/>
       <c r="F74" s="95"/>
       <c r="G74" s="170">
         <f t="shared" si="8"/>
@@ -6166,15 +6167,15 @@
       <c r="H74" s="98"/>
       <c r="I74" s="8"/>
       <c r="J74" s="126"/>
-      <c r="K74" s="278">
+      <c r="K74" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L74" s="279"/>
+      <c r="L74" s="282"/>
       <c r="M74" s="113"/>
-      <c r="N74" s="271"/>
-      <c r="O74" s="271"/>
-      <c r="P74" s="272"/>
+      <c r="N74" s="256"/>
+      <c r="O74" s="256"/>
+      <c r="P74" s="257"/>
       <c r="S74" s="43"/>
       <c r="V74" s="1">
         <f t="shared" si="7"/>
@@ -6185,11 +6186,11 @@
       </c>
     </row>
     <row r="75" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="275"/>
-      <c r="B75" s="276"/>
+      <c r="A75" s="278"/>
+      <c r="B75" s="279"/>
       <c r="C75" s="94"/>
-      <c r="D75" s="277"/>
-      <c r="E75" s="276"/>
+      <c r="D75" s="280"/>
+      <c r="E75" s="279"/>
       <c r="F75" s="95"/>
       <c r="G75" s="170">
         <f t="shared" si="8"/>
@@ -6198,15 +6199,15 @@
       <c r="H75" s="98"/>
       <c r="I75" s="8"/>
       <c r="J75" s="126"/>
-      <c r="K75" s="278">
+      <c r="K75" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L75" s="279"/>
+      <c r="L75" s="282"/>
       <c r="M75" s="113"/>
-      <c r="N75" s="264"/>
-      <c r="O75" s="265"/>
-      <c r="P75" s="266"/>
+      <c r="N75" s="299"/>
+      <c r="O75" s="300"/>
+      <c r="P75" s="301"/>
       <c r="S75" s="43"/>
       <c r="V75" s="1">
         <f t="shared" si="7"/>
@@ -6217,11 +6218,11 @@
       </c>
     </row>
     <row r="76" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="275"/>
-      <c r="B76" s="276"/>
+      <c r="A76" s="278"/>
+      <c r="B76" s="279"/>
       <c r="C76" s="94"/>
-      <c r="D76" s="277"/>
-      <c r="E76" s="276"/>
+      <c r="D76" s="280"/>
+      <c r="E76" s="279"/>
       <c r="F76" s="95"/>
       <c r="G76" s="170">
         <f t="shared" si="8"/>
@@ -6230,15 +6231,15 @@
       <c r="H76" s="98"/>
       <c r="I76" s="8"/>
       <c r="J76" s="126"/>
-      <c r="K76" s="278">
+      <c r="K76" s="281">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L76" s="279"/>
+      <c r="L76" s="282"/>
       <c r="M76" s="113"/>
-      <c r="N76" s="271"/>
-      <c r="O76" s="271"/>
-      <c r="P76" s="272"/>
+      <c r="N76" s="256"/>
+      <c r="O76" s="256"/>
+      <c r="P76" s="257"/>
       <c r="S76" s="43"/>
       <c r="V76" s="1">
         <f t="shared" si="7"/>
@@ -6249,11 +6250,11 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="269"/>
-      <c r="B77" s="270"/>
+      <c r="A77" s="302"/>
+      <c r="B77" s="303"/>
       <c r="C77" s="139"/>
-      <c r="D77" s="273"/>
-      <c r="E77" s="274"/>
+      <c r="D77" s="304"/>
+      <c r="E77" s="305"/>
       <c r="F77" s="147"/>
       <c r="G77" s="170">
         <f t="shared" si="8"/>
@@ -6265,15 +6266,15 @@
         <v/>
       </c>
       <c r="J77" s="154"/>
-      <c r="K77" s="262" t="str">
+      <c r="K77" s="306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L77" s="263"/>
+      <c r="L77" s="307"/>
       <c r="M77" s="113"/>
-      <c r="N77" s="271"/>
-      <c r="O77" s="271"/>
-      <c r="P77" s="272"/>
+      <c r="N77" s="256"/>
+      <c r="O77" s="256"/>
+      <c r="P77" s="257"/>
       <c r="S77" s="43"/>
       <c r="T77" s="1" t="str">
         <f t="shared" ref="T77:T86" si="11">IF(C77=hdn_tariff,K77,0)</f>
@@ -6288,11 +6289,11 @@
       </c>
     </row>
     <row r="78" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="269"/>
-      <c r="B78" s="270"/>
+      <c r="A78" s="302"/>
+      <c r="B78" s="303"/>
       <c r="C78" s="139"/>
-      <c r="D78" s="267"/>
-      <c r="E78" s="268"/>
+      <c r="D78" s="308"/>
+      <c r="E78" s="309"/>
       <c r="F78" s="147"/>
       <c r="G78" s="170">
         <f t="shared" si="8"/>
@@ -6304,15 +6305,15 @@
         <v/>
       </c>
       <c r="J78" s="154"/>
-      <c r="K78" s="262" t="str">
+      <c r="K78" s="306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L78" s="263"/>
+      <c r="L78" s="307"/>
       <c r="M78" s="113"/>
-      <c r="N78" s="271"/>
-      <c r="O78" s="271"/>
-      <c r="P78" s="272"/>
+      <c r="N78" s="256"/>
+      <c r="O78" s="256"/>
+      <c r="P78" s="257"/>
       <c r="S78" s="43"/>
       <c r="T78" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6327,11 +6328,11 @@
       </c>
     </row>
     <row r="79" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="269"/>
-      <c r="B79" s="270"/>
+      <c r="A79" s="302"/>
+      <c r="B79" s="303"/>
       <c r="C79" s="139"/>
-      <c r="D79" s="267"/>
-      <c r="E79" s="268"/>
+      <c r="D79" s="308"/>
+      <c r="E79" s="309"/>
       <c r="F79" s="147"/>
       <c r="G79" s="170">
         <f t="shared" si="8"/>
@@ -6343,15 +6344,15 @@
         <v/>
       </c>
       <c r="J79" s="154"/>
-      <c r="K79" s="262" t="str">
+      <c r="K79" s="306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L79" s="263"/>
+      <c r="L79" s="307"/>
       <c r="M79" s="113"/>
-      <c r="N79" s="271"/>
-      <c r="O79" s="271"/>
-      <c r="P79" s="272"/>
+      <c r="N79" s="256"/>
+      <c r="O79" s="256"/>
+      <c r="P79" s="257"/>
       <c r="S79" s="43"/>
       <c r="T79" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6366,11 +6367,11 @@
       </c>
     </row>
     <row r="80" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="251"/>
-      <c r="B80" s="252"/>
+      <c r="A80" s="310"/>
+      <c r="B80" s="311"/>
       <c r="C80" s="140"/>
-      <c r="D80" s="267"/>
-      <c r="E80" s="268"/>
+      <c r="D80" s="308"/>
+      <c r="E80" s="309"/>
       <c r="F80" s="147"/>
       <c r="G80" s="170">
         <f t="shared" si="8"/>
@@ -6382,15 +6383,15 @@
         <v/>
       </c>
       <c r="J80" s="154"/>
-      <c r="K80" s="262" t="str">
+      <c r="K80" s="306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L80" s="263"/>
+      <c r="L80" s="307"/>
       <c r="M80" s="113"/>
-      <c r="N80" s="264"/>
-      <c r="O80" s="265"/>
-      <c r="P80" s="266"/>
+      <c r="N80" s="299"/>
+      <c r="O80" s="300"/>
+      <c r="P80" s="301"/>
       <c r="S80" s="43"/>
       <c r="T80" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6405,11 +6406,11 @@
       </c>
     </row>
     <row r="81" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="251"/>
-      <c r="B81" s="252"/>
+      <c r="A81" s="310"/>
+      <c r="B81" s="311"/>
       <c r="C81" s="140"/>
-      <c r="D81" s="267"/>
-      <c r="E81" s="268"/>
+      <c r="D81" s="308"/>
+      <c r="E81" s="309"/>
       <c r="F81" s="147"/>
       <c r="G81" s="170">
         <f t="shared" si="8"/>
@@ -6421,15 +6422,15 @@
         <v/>
       </c>
       <c r="J81" s="154"/>
-      <c r="K81" s="262" t="str">
+      <c r="K81" s="306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L81" s="263"/>
+      <c r="L81" s="307"/>
       <c r="M81" s="156"/>
-      <c r="N81" s="264"/>
-      <c r="O81" s="265"/>
-      <c r="P81" s="266"/>
+      <c r="N81" s="299"/>
+      <c r="O81" s="300"/>
+      <c r="P81" s="301"/>
       <c r="S81" s="131"/>
       <c r="T81" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6444,11 +6445,11 @@
       </c>
     </row>
     <row r="82" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="251"/>
-      <c r="B82" s="252"/>
+      <c r="A82" s="310"/>
+      <c r="B82" s="311"/>
       <c r="C82" s="140"/>
-      <c r="D82" s="267"/>
-      <c r="E82" s="268"/>
+      <c r="D82" s="308"/>
+      <c r="E82" s="309"/>
       <c r="F82" s="147"/>
       <c r="G82" s="170">
         <f t="shared" si="8"/>
@@ -6460,15 +6461,15 @@
         <v/>
       </c>
       <c r="J82" s="154"/>
-      <c r="K82" s="262" t="str">
+      <c r="K82" s="306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L82" s="263"/>
+      <c r="L82" s="307"/>
       <c r="M82" s="156"/>
-      <c r="N82" s="264"/>
-      <c r="O82" s="265"/>
-      <c r="P82" s="266"/>
+      <c r="N82" s="299"/>
+      <c r="O82" s="300"/>
+      <c r="P82" s="301"/>
       <c r="S82" s="131"/>
       <c r="T82" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6483,11 +6484,11 @@
       </c>
     </row>
     <row r="83" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="251"/>
-      <c r="B83" s="252"/>
+      <c r="A83" s="310"/>
+      <c r="B83" s="311"/>
       <c r="C83" s="140"/>
-      <c r="D83" s="267"/>
-      <c r="E83" s="268"/>
+      <c r="D83" s="308"/>
+      <c r="E83" s="309"/>
       <c r="F83" s="147"/>
       <c r="G83" s="170">
         <f t="shared" si="8"/>
@@ -6499,15 +6500,15 @@
         <v/>
       </c>
       <c r="J83" s="154"/>
-      <c r="K83" s="262" t="str">
+      <c r="K83" s="306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L83" s="263"/>
+      <c r="L83" s="307"/>
       <c r="M83" s="113"/>
-      <c r="N83" s="264"/>
-      <c r="O83" s="265"/>
-      <c r="P83" s="266"/>
+      <c r="N83" s="299"/>
+      <c r="O83" s="300"/>
+      <c r="P83" s="301"/>
       <c r="S83" s="45"/>
       <c r="T83" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6522,11 +6523,11 @@
       </c>
     </row>
     <row r="84" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="251"/>
-      <c r="B84" s="252"/>
+      <c r="A84" s="310"/>
+      <c r="B84" s="311"/>
       <c r="C84" s="141"/>
-      <c r="D84" s="267"/>
-      <c r="E84" s="268"/>
+      <c r="D84" s="308"/>
+      <c r="E84" s="309"/>
       <c r="F84" s="149"/>
       <c r="G84" s="170">
         <f t="shared" si="8"/>
@@ -6538,15 +6539,15 @@
         <v/>
       </c>
       <c r="J84" s="154"/>
-      <c r="K84" s="262" t="str">
+      <c r="K84" s="306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L84" s="263"/>
+      <c r="L84" s="307"/>
       <c r="M84" s="157"/>
-      <c r="N84" s="264"/>
-      <c r="O84" s="265"/>
-      <c r="P84" s="266"/>
+      <c r="N84" s="299"/>
+      <c r="O84" s="300"/>
+      <c r="P84" s="301"/>
       <c r="S84" s="132"/>
       <c r="T84" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6561,11 +6562,11 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="251"/>
-      <c r="B85" s="252"/>
+      <c r="A85" s="310"/>
+      <c r="B85" s="311"/>
       <c r="C85" s="141"/>
-      <c r="D85" s="267"/>
-      <c r="E85" s="268"/>
+      <c r="D85" s="308"/>
+      <c r="E85" s="309"/>
       <c r="F85" s="149"/>
       <c r="G85" s="170">
         <f t="shared" si="8"/>
@@ -6577,15 +6578,15 @@
         <v/>
       </c>
       <c r="J85" s="154"/>
-      <c r="K85" s="262" t="str">
+      <c r="K85" s="306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L85" s="263"/>
+      <c r="L85" s="307"/>
       <c r="M85" s="157"/>
-      <c r="N85" s="264"/>
-      <c r="O85" s="265"/>
-      <c r="P85" s="266"/>
+      <c r="N85" s="299"/>
+      <c r="O85" s="300"/>
+      <c r="P85" s="301"/>
       <c r="S85" s="132"/>
       <c r="T85" s="1" t="str">
         <f t="shared" si="11"/>
@@ -6600,11 +6601,11 @@
       </c>
     </row>
     <row r="86" spans="1:23" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="253"/>
-      <c r="B86" s="254"/>
+      <c r="A86" s="324"/>
+      <c r="B86" s="325"/>
       <c r="C86" s="142"/>
-      <c r="D86" s="255"/>
-      <c r="E86" s="256"/>
+      <c r="D86" s="326"/>
+      <c r="E86" s="327"/>
       <c r="F86" s="151"/>
       <c r="G86" s="171">
         <f t="shared" si="8"/>
@@ -6616,15 +6617,15 @@
         <v/>
       </c>
       <c r="J86" s="155"/>
-      <c r="K86" s="257" t="str">
+      <c r="K86" s="328" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L86" s="258"/>
+      <c r="L86" s="329"/>
       <c r="M86" s="158"/>
-      <c r="N86" s="259"/>
-      <c r="O86" s="260"/>
-      <c r="P86" s="261"/>
+      <c r="N86" s="330"/>
+      <c r="O86" s="331"/>
+      <c r="P86" s="332"/>
       <c r="T86" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -6651,48 +6652,48 @@
       <c r="K87" s="146"/>
       <c r="L87" s="146"/>
       <c r="M87" s="15"/>
-      <c r="N87" s="201"/>
-      <c r="O87" s="201"/>
-      <c r="P87" s="240"/>
+      <c r="N87" s="312"/>
+      <c r="O87" s="312"/>
+      <c r="P87" s="313"/>
     </row>
     <row r="88" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="241" t="s">
+      <c r="A88" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="242"/>
+      <c r="B88" s="315"/>
       <c r="C88" s="165">
         <f>I16</f>
         <v>0</v>
       </c>
       <c r="D88" s="67"/>
-      <c r="E88" s="243" t="s">
+      <c r="E88" s="316" t="s">
         <v>40</v>
       </c>
-      <c r="F88" s="244"/>
-      <c r="G88" s="242"/>
-      <c r="H88" s="245">
+      <c r="F88" s="317"/>
+      <c r="G88" s="315"/>
+      <c r="H88" s="318">
         <f>I31</f>
         <v>0</v>
       </c>
-      <c r="I88" s="246"/>
+      <c r="I88" s="319"/>
       <c r="J88" s="159"/>
       <c r="K88" s="68"/>
-      <c r="L88" s="247" t="s">
+      <c r="L88" s="320" t="s">
         <v>42</v>
       </c>
-      <c r="M88" s="248"/>
-      <c r="N88" s="249">
+      <c r="M88" s="321"/>
+      <c r="N88" s="322">
         <f>C88+H88</f>
         <v>0</v>
       </c>
-      <c r="O88" s="250"/>
+      <c r="O88" s="323"/>
       <c r="P88" s="69"/>
     </row>
     <row r="89" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="226" t="s">
+      <c r="A89" s="343" t="s">
         <v>57</v>
       </c>
-      <c r="B89" s="227"/>
+      <c r="B89" s="344"/>
       <c r="C89" s="166">
         <f>C88-K94</f>
         <v>0</v>
@@ -6701,30 +6702,30 @@
         <f>C89/C88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E89" s="228" t="s">
+      <c r="E89" s="345" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="229"/>
-      <c r="G89" s="230"/>
-      <c r="H89" s="231">
+      <c r="F89" s="346"/>
+      <c r="G89" s="347"/>
+      <c r="H89" s="348">
         <f>H88-N58</f>
         <v>0</v>
       </c>
-      <c r="I89" s="232"/>
+      <c r="I89" s="349"/>
       <c r="J89" s="160"/>
       <c r="K89" s="77" t="e">
         <f>H89/H88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L89" s="228" t="s">
+      <c r="L89" s="345" t="s">
         <v>46</v>
       </c>
-      <c r="M89" s="230"/>
-      <c r="N89" s="233">
+      <c r="M89" s="347"/>
+      <c r="N89" s="350">
         <f>C89+H89</f>
         <v>0</v>
       </c>
-      <c r="O89" s="234"/>
+      <c r="O89" s="351"/>
       <c r="P89" s="65" t="e">
         <f>N89/N88</f>
         <v>#DIV/0!</v>
@@ -6741,16 +6742,16 @@
       <c r="H90" s="83"/>
       <c r="I90" s="83"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="235" t="s">
+      <c r="K90" s="352" t="s">
         <v>43</v>
       </c>
-      <c r="L90" s="236"/>
-      <c r="M90" s="237"/>
-      <c r="N90" s="238">
+      <c r="L90" s="353"/>
+      <c r="M90" s="354"/>
+      <c r="N90" s="355">
         <f>ROUNDDOWN((N88*P90),0)</f>
         <v>0</v>
       </c>
-      <c r="O90" s="239"/>
+      <c r="O90" s="356"/>
       <c r="P90" s="84"/>
     </row>
     <row r="91" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6764,32 +6765,32 @@
       <c r="H91" s="22"/>
       <c r="I91" s="58"/>
       <c r="J91" s="129"/>
-      <c r="K91" s="214" t="s">
+      <c r="K91" s="333" t="s">
         <v>45</v>
       </c>
-      <c r="L91" s="218"/>
-      <c r="M91" s="215"/>
-      <c r="N91" s="219">
+      <c r="L91" s="334"/>
+      <c r="M91" s="335"/>
+      <c r="N91" s="336">
         <f>N89-N90</f>
         <v>0</v>
       </c>
-      <c r="O91" s="220"/>
+      <c r="O91" s="337"/>
       <c r="P91" s="66" t="e">
         <f>N91/N88</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="221" t="s">
+      <c r="A92" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="222"/>
-      <c r="C92" s="223" t="s">
+      <c r="B92" s="339"/>
+      <c r="C92" s="340" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="223"/>
-      <c r="E92" s="223"/>
-      <c r="F92" s="223"/>
+      <c r="D92" s="340"/>
+      <c r="E92" s="340"/>
+      <c r="F92" s="340"/>
       <c r="G92" s="16">
         <f>$P$4</f>
         <v>0</v>
@@ -6800,27 +6801,27 @@
         <v>0</v>
       </c>
       <c r="J92" s="18"/>
-      <c r="K92" s="224">
+      <c r="K92" s="341">
         <f>SUMIF(F61:F86,"&lt;&gt;"&amp;hdn_payoff_circle,K61:K86)</f>
         <v>0</v>
       </c>
-      <c r="L92" s="224"/>
+      <c r="L92" s="341"/>
       <c r="M92" s="18"/>
-      <c r="N92" s="225"/>
-      <c r="O92" s="225"/>
+      <c r="N92" s="342"/>
+      <c r="O92" s="342"/>
       <c r="P92" s="61"/>
     </row>
     <row r="93" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="202" t="s">
+      <c r="A93" s="366" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="203"/>
-      <c r="C93" s="204" t="s">
+      <c r="B93" s="367"/>
+      <c r="C93" s="368" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="204"/>
-      <c r="E93" s="204"/>
-      <c r="F93" s="204"/>
+      <c r="D93" s="368"/>
+      <c r="E93" s="368"/>
+      <c r="F93" s="368"/>
       <c r="G93" s="19">
         <f>$P$4</f>
         <v>0</v>
@@ -6831,27 +6832,27 @@
         <v>0</v>
       </c>
       <c r="J93" s="52"/>
-      <c r="K93" s="205">
+      <c r="K93" s="369">
         <f>SUMIF(F34:F86,hdn_payoff_circle,K34:K86)</f>
         <v>0</v>
       </c>
-      <c r="L93" s="206"/>
+      <c r="L93" s="370"/>
       <c r="M93" s="52"/>
-      <c r="N93" s="207"/>
-      <c r="O93" s="208"/>
+      <c r="N93" s="371"/>
+      <c r="O93" s="372"/>
       <c r="P93" s="21"/>
     </row>
     <row r="94" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="209" t="s">
+      <c r="A94" s="373" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="210"/>
-      <c r="C94" s="211" t="s">
+      <c r="B94" s="374"/>
+      <c r="C94" s="375" t="s">
         <v>48</v>
       </c>
-      <c r="D94" s="211"/>
-      <c r="E94" s="211"/>
-      <c r="F94" s="211"/>
+      <c r="D94" s="375"/>
+      <c r="E94" s="375"/>
+      <c r="F94" s="375"/>
       <c r="G94" s="133">
         <f>$P$4</f>
         <v>0</v>
@@ -6862,62 +6863,62 @@
         <v>0</v>
       </c>
       <c r="J94" s="129"/>
-      <c r="K94" s="212">
+      <c r="K94" s="376">
         <f>SUM(K92:K93)</f>
         <v>0</v>
       </c>
-      <c r="L94" s="213"/>
-      <c r="M94" s="214" t="s">
+      <c r="L94" s="377"/>
+      <c r="M94" s="333" t="s">
         <v>44</v>
       </c>
-      <c r="N94" s="215"/>
-      <c r="O94" s="212">
+      <c r="N94" s="335"/>
+      <c r="O94" s="376">
         <f>N58</f>
         <v>0</v>
       </c>
-      <c r="P94" s="216"/>
+      <c r="P94" s="378"/>
     </row>
     <row r="95" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="199" t="s">
+      <c r="A95" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="199"/>
-      <c r="C95" s="199"/>
-      <c r="D95" s="199"/>
-      <c r="E95" s="199"/>
-      <c r="F95" s="199"/>
-      <c r="G95" s="199"/>
+      <c r="B95" s="364"/>
+      <c r="C95" s="364"/>
+      <c r="D95" s="364"/>
+      <c r="E95" s="364"/>
+      <c r="F95" s="364"/>
+      <c r="G95" s="364"/>
       <c r="H95" s="161"/>
-      <c r="I95" s="200" t="s">
+      <c r="I95" s="365" t="s">
         <v>26</v>
       </c>
-      <c r="J95" s="200"/>
-      <c r="K95" s="200"/>
-      <c r="L95" s="200"/>
-      <c r="M95" s="200"/>
-      <c r="N95" s="200"/>
-      <c r="O95" s="200"/>
-      <c r="P95" s="200"/>
+      <c r="J95" s="365"/>
+      <c r="K95" s="365"/>
+      <c r="L95" s="365"/>
+      <c r="M95" s="365"/>
+      <c r="N95" s="365"/>
+      <c r="O95" s="365"/>
+      <c r="P95" s="365"/>
     </row>
     <row r="96" spans="1:23" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="201" t="s">
+      <c r="A96" s="312" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="201"/>
-      <c r="C96" s="201"/>
-      <c r="D96" s="201"/>
-      <c r="E96" s="201"/>
-      <c r="F96" s="201"/>
-      <c r="G96" s="201"/>
-      <c r="H96" s="201"/>
-      <c r="I96" s="201"/>
-      <c r="J96" s="201"/>
-      <c r="K96" s="201"/>
-      <c r="L96" s="201"/>
-      <c r="M96" s="201"/>
-      <c r="N96" s="201"/>
-      <c r="O96" s="201"/>
-      <c r="P96" s="201"/>
+      <c r="B96" s="312"/>
+      <c r="C96" s="312"/>
+      <c r="D96" s="312"/>
+      <c r="E96" s="312"/>
+      <c r="F96" s="312"/>
+      <c r="G96" s="312"/>
+      <c r="H96" s="312"/>
+      <c r="I96" s="312"/>
+      <c r="J96" s="312"/>
+      <c r="K96" s="312"/>
+      <c r="L96" s="312"/>
+      <c r="M96" s="312"/>
+      <c r="N96" s="312"/>
+      <c r="O96" s="312"/>
+      <c r="P96" s="312"/>
     </row>
     <row r="97" spans="1:24" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="175"/>
@@ -6938,26 +6939,26 @@
     </row>
     <row r="98" spans="1:24" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="175"/>
-      <c r="G98" s="192" t="s">
+      <c r="G98" s="357" t="s">
         <v>66</v>
       </c>
-      <c r="H98" s="193"/>
-      <c r="I98" s="217" t="s">
+      <c r="H98" s="358"/>
+      <c r="I98" s="379" t="s">
         <v>67</v>
       </c>
-      <c r="J98" s="217"/>
-      <c r="K98" s="217" t="s">
+      <c r="J98" s="379"/>
+      <c r="K98" s="379" t="s">
         <v>68</v>
       </c>
-      <c r="L98" s="217"/>
-      <c r="M98" s="217" t="s">
+      <c r="L98" s="379"/>
+      <c r="M98" s="379" t="s">
         <v>71</v>
       </c>
-      <c r="N98" s="217"/>
-      <c r="O98" s="217" t="s">
+      <c r="N98" s="379"/>
+      <c r="O98" s="379" t="s">
         <v>72</v>
       </c>
-      <c r="P98" s="217"/>
+      <c r="P98" s="379"/>
       <c r="Q98" s="187"/>
       <c r="R98" s="191"/>
       <c r="S98" s="176" t="s">
@@ -7158,10 +7159,10 @@
       <c r="W104" s="26"/>
     </row>
     <row r="105" spans="1:24" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="198" t="s">
+      <c r="A105" s="363" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="198"/>
+      <c r="B105" s="363"/>
       <c r="G105" s="28"/>
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
@@ -7401,7 +7402,7 @@
       <c r="W114" s="26"/>
     </row>
     <row r="115" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="194" t="s">
+      <c r="A115" s="359" t="s">
         <v>78</v>
       </c>
       <c r="B115" s="26"/>
@@ -7426,7 +7427,7 @@
       <c r="W115" s="26"/>
     </row>
     <row r="116" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="194"/>
+      <c r="A116" s="359"/>
       <c r="B116" s="26"/>
       <c r="E116" s="32"/>
       <c r="F116" s="178"/>
@@ -7449,7 +7450,7 @@
       <c r="W116" s="26"/>
     </row>
     <row r="117" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="195" t="s">
+      <c r="A117" s="360" t="s">
         <v>80</v>
       </c>
       <c r="B117" s="24"/>
@@ -7474,7 +7475,7 @@
       <c r="W117" s="26"/>
     </row>
     <row r="118" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="196"/>
+      <c r="A118" s="361"/>
       <c r="B118" s="25"/>
       <c r="E118" s="32"/>
       <c r="F118" s="178"/>
@@ -7497,7 +7498,7 @@
       <c r="W118" s="26"/>
     </row>
     <row r="119" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="196"/>
+      <c r="A119" s="361"/>
       <c r="B119" s="23"/>
       <c r="E119" s="32"/>
       <c r="F119" s="178"/>
@@ -7520,7 +7521,7 @@
       <c r="W119" s="26"/>
     </row>
     <row r="120" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="196"/>
+      <c r="A120" s="361"/>
       <c r="B120" s="23"/>
       <c r="E120" s="32"/>
       <c r="F120" s="178"/>
@@ -7543,7 +7544,7 @@
       <c r="W120" s="26"/>
     </row>
     <row r="121" spans="1:23" s="27" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="196"/>
+      <c r="A121" s="361"/>
       <c r="B121" s="28"/>
       <c r="E121" s="32"/>
       <c r="F121" s="178"/>
@@ -7566,7 +7567,7 @@
       <c r="W121" s="26"/>
     </row>
     <row r="122" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="196"/>
+      <c r="A122" s="361"/>
       <c r="B122" s="26"/>
       <c r="F122" s="178"/>
       <c r="G122" s="26"/>
@@ -7588,7 +7589,7 @@
       <c r="W122" s="33"/>
     </row>
     <row r="123" spans="1:23" s="27" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="197"/>
+      <c r="A123" s="362"/>
       <c r="B123" s="28"/>
       <c r="F123" s="178"/>
       <c r="G123" s="26"/>
@@ -8441,296 +8442,57 @@
     <row r="200" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="361">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="A32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A123"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="I95:P95"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A83:B83"/>
@@ -8751,57 +8513,296 @@
     <mergeCell ref="N82:P82"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D82:E82"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A123"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="I95:P95"/>
-    <mergeCell ref="A96:P96"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="13">

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79982DB3-CB47-49AE-A64D-60D20447F12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030E1B97-E73E-401C-BB7D-E8286C44C320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,30 +172,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>yamasaki</author>
-  </authors>
-  <commentList>
-    <comment ref="L28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>経理の損益計算書の用語と合わせました</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="145">
   <si>
@@ -2100,19 +2076,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="10">
+  <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="180" formatCode="00"/>
     <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="182" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2172,13 +2146,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3592,11 +3559,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="380">
+  <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3675,10 +3642,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
@@ -3923,7 +3886,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -4031,7 +3994,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4075,31 +4038,31 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="5" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -4113,7 +4076,7 @@
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4131,7 +4094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4216,11 +4179,11 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -4310,15 +4273,15 @@
     <xf numFmtId="5" fontId="7" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" textRotation="255"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" textRotation="255"/>
       <protection hidden="1"/>
     </xf>
@@ -4357,15 +4320,15 @@
     <xf numFmtId="5" fontId="6" fillId="9" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
       <protection hidden="1"/>
     </xf>
@@ -5243,14 +5206,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFEB00"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA162"/>
+  <dimension ref="A1:Z135"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -5279,12 +5243,11 @@
     <col min="24" max="24" width="22.21875" style="1" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="11.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="10.5" customHeight="1">
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="24" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5292,204 +5255,204 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="363"/>
-      <c r="C2" s="363"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="348" t="s">
+      <c r="E2" s="344" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="348"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="28.65" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="349"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="82" t="s">
+      <c r="D3" s="345"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="349"/>
-      <c r="K3" s="350"/>
-      <c r="L3" s="350"/>
-      <c r="M3" s="350"/>
-      <c r="N3" s="351"/>
-      <c r="O3" s="83" t="s">
+      <c r="J3" s="345"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="347"/>
+      <c r="O3" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="93"/>
+      <c r="P3" s="89"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="352"/>
-      <c r="C4" s="353"/>
-      <c r="D4" s="79" t="s">
+      <c r="B4" s="348"/>
+      <c r="C4" s="349"/>
+      <c r="D4" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="354"/>
-      <c r="F4" s="355"/>
-      <c r="G4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="E4" s="350"/>
+      <c r="F4" s="351"/>
+      <c r="G4" s="352"/>
+      <c r="H4" s="353" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="358"/>
-      <c r="J4" s="359"/>
-      <c r="K4" s="359"/>
-      <c r="L4" s="357" t="s">
+      <c r="I4" s="354"/>
+      <c r="J4" s="355"/>
+      <c r="K4" s="355"/>
+      <c r="L4" s="353" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="358"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="79" t="s">
+      <c r="M4" s="354"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="201">
+      <c r="P4" s="197">
         <f>SUMIF(C7:C8,"1:本荷",G7:G8)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="149" t="s">
+      <c r="Q4" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="U4" s="149" t="s">
+      <c r="U4" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
-      <c r="X4" s="149" t="s">
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="Y4" s="149"/>
-      <c r="Z4" s="149" t="s">
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A5" s="360"/>
-      <c r="B5" s="361"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="361"/>
-      <c r="G5" s="361"/>
-      <c r="H5" s="361"/>
-      <c r="I5" s="361"/>
-      <c r="J5" s="361"/>
-      <c r="K5" s="361"/>
-      <c r="L5" s="361"/>
-      <c r="M5" s="361"/>
-      <c r="N5" s="361"/>
-      <c r="O5" s="361"/>
-      <c r="P5" s="362"/>
+      <c r="A5" s="356"/>
+      <c r="B5" s="357"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="357"/>
+      <c r="G5" s="357"/>
+      <c r="H5" s="357"/>
+      <c r="I5" s="357"/>
+      <c r="J5" s="357"/>
+      <c r="K5" s="357"/>
+      <c r="L5" s="357"/>
+      <c r="M5" s="357"/>
+      <c r="N5" s="357"/>
+      <c r="O5" s="357"/>
+      <c r="P5" s="358"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="364" t="s">
+      <c r="A6" s="360" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="365"/>
-      <c r="C6" s="60" t="s">
+      <c r="B6" s="361"/>
+      <c r="C6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="366" t="s">
+      <c r="D6" s="362" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="367"/>
-      <c r="F6" s="365"/>
-      <c r="G6" s="61" t="s">
+      <c r="E6" s="363"/>
+      <c r="F6" s="361"/>
+      <c r="G6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="368" t="s">
+      <c r="K6" s="364" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="369"/>
-      <c r="M6" s="64" t="s">
+      <c r="L6" s="365"/>
+      <c r="M6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="345" t="s">
+      <c r="N6" s="341" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="346"/>
-      <c r="P6" s="347"/>
-      <c r="Q6" s="149" t="s">
+      <c r="O6" s="342"/>
+      <c r="P6" s="343"/>
+      <c r="Q6" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="149" t="s">
+      <c r="R6" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="S6" s="149" t="s">
+      <c r="S6" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="155" t="s">
+      <c r="T6" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="U6" s="149" t="s">
+      <c r="U6" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="V6" s="149" t="s">
+      <c r="V6" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="W6" s="149" t="s">
+      <c r="W6" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="X6" s="149" t="s">
+      <c r="X6" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="149" t="s">
+      <c r="Y6" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="Z6" s="149" t="s">
+      <c r="Z6" s="145" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A7" s="370"/>
-      <c r="B7" s="371"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="372"/>
-      <c r="E7" s="373"/>
-      <c r="F7" s="374"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="46" t="s">
+      <c r="A7" s="366"/>
+      <c r="B7" s="367"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="368"/>
+      <c r="E7" s="369"/>
+      <c r="F7" s="370"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="325">
+      <c r="I7" s="37"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="321">
         <f>IFERROR(ROUNDDOWN(G7*ROUNDDOWN(I7,4)*J7,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="326"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="375"/>
-      <c r="O7" s="376"/>
-      <c r="P7" s="377"/>
+      <c r="L7" s="322"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="371"/>
+      <c r="O7" s="372"/>
+      <c r="P7" s="373"/>
       <c r="Q7" s="1" t="str">
         <f t="shared" ref="Q7:Q8" ca="1" si="0">IFERROR(VLOOKUP(C7,OFFSET(pulldown_level2,0,U7+X7,Y7,1),1,FALSE),"")</f>
         <v/>
@@ -5531,27 +5494,27 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A8" s="370"/>
-      <c r="B8" s="371"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="373"/>
-      <c r="F8" s="374"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="47" t="s">
+      <c r="A8" s="366"/>
+      <c r="B8" s="367"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="369"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="325">
+      <c r="I8" s="39"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="321">
         <f t="shared" ref="K8" si="8">IFERROR(ROUNDDOWN(G8*ROUNDDOWN(I8,4)*J8,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="326"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="378"/>
-      <c r="O8" s="378"/>
-      <c r="P8" s="379"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="374"/>
+      <c r="O8" s="374"/>
+      <c r="P8" s="375"/>
       <c r="Q8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -5593,113 +5556,113 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A9" s="331" t="s">
+      <c r="A9" s="327" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="332"/>
-      <c r="C9" s="332"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="333"/>
-      <c r="G9" s="101">
+      <c r="B9" s="328"/>
+      <c r="C9" s="328"/>
+      <c r="D9" s="328"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="329"/>
+      <c r="G9" s="97">
         <f>SUM(G7:G8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="334">
+      <c r="H9" s="98"/>
+      <c r="I9" s="330">
         <f>SUM(K7:K8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="335"/>
-      <c r="K9" s="335"/>
-      <c r="L9" s="336"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="337"/>
-      <c r="O9" s="337"/>
-      <c r="P9" s="338"/>
+      <c r="J9" s="331"/>
+      <c r="K9" s="331"/>
+      <c r="L9" s="332"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="333"/>
+      <c r="O9" s="333"/>
+      <c r="P9" s="334"/>
       <c r="Q9" s="1">
         <f>IF(C9&lt;&gt;0,IF(A9=$G$44,VLOOKUP(C9,$G$46:$G$54,1,TRUE),IF(A9=$H$44,VLOOKUP(C9,$H$46:$H$56,1,TRUE),IF(A9=$I$44,VLOOKUP(C9,$I$46:$I$54,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A10" s="317"/>
-      <c r="B10" s="318"/>
-      <c r="C10" s="318"/>
-      <c r="D10" s="318"/>
-      <c r="E10" s="318"/>
-      <c r="F10" s="318"/>
-      <c r="G10" s="318"/>
-      <c r="H10" s="318"/>
-      <c r="I10" s="318"/>
-      <c r="J10" s="318"/>
-      <c r="K10" s="318"/>
-      <c r="L10" s="318"/>
-      <c r="M10" s="318"/>
-      <c r="N10" s="318"/>
-      <c r="O10" s="318"/>
-      <c r="P10" s="319"/>
+      <c r="A10" s="313"/>
+      <c r="B10" s="314"/>
+      <c r="C10" s="314"/>
+      <c r="D10" s="314"/>
+      <c r="E10" s="314"/>
+      <c r="F10" s="314"/>
+      <c r="G10" s="314"/>
+      <c r="H10" s="314"/>
+      <c r="I10" s="314"/>
+      <c r="J10" s="314"/>
+      <c r="K10" s="314"/>
+      <c r="L10" s="314"/>
+      <c r="M10" s="314"/>
+      <c r="N10" s="314"/>
+      <c r="O10" s="314"/>
+      <c r="P10" s="315"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1">
-      <c r="A11" s="339" t="s">
+      <c r="A11" s="335" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="340"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="336"/>
+      <c r="C11" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="341" t="s">
+      <c r="D11" s="337" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="342"/>
-      <c r="F11" s="340"/>
-      <c r="G11" s="66" t="s">
+      <c r="E11" s="338"/>
+      <c r="F11" s="336"/>
+      <c r="G11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="343" t="s">
+      <c r="K11" s="339" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="344"/>
-      <c r="M11" s="64" t="s">
+      <c r="L11" s="340"/>
+      <c r="M11" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="345" t="s">
+      <c r="N11" s="341" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="346"/>
-      <c r="P11" s="347"/>
+      <c r="O11" s="342"/>
+      <c r="P11" s="343"/>
     </row>
     <row r="12" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A12" s="329"/>
-      <c r="B12" s="330"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="322"/>
-      <c r="E12" s="323"/>
-      <c r="F12" s="324"/>
+      <c r="A12" s="325"/>
+      <c r="B12" s="326"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="320"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="325">
+      <c r="J12" s="71"/>
+      <c r="K12" s="321">
         <f t="shared" ref="K12:K13" si="10">IFERROR(ROUNDDOWN(G12*ROUNDDOWN(I12,4)*J12,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L12" s="326"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="262"/>
-      <c r="P12" s="263"/>
+      <c r="L12" s="322"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="257"/>
+      <c r="O12" s="258"/>
+      <c r="P12" s="259"/>
       <c r="Q12" s="1" t="str">
         <f t="shared" ref="Q12:Q13" ca="1" si="11">IFERROR(VLOOKUP(C12,OFFSET(pulldown_level2,0,U12+X12,Y12,1),1,FALSE),"")</f>
         <v/>
@@ -5741,27 +5704,27 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A13" s="320"/>
-      <c r="B13" s="321"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="323"/>
-      <c r="F13" s="324"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="50" t="s">
+      <c r="A13" s="316"/>
+      <c r="B13" s="317"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="320"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="325">
+      <c r="I13" s="33"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="321">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L13" s="326"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="327"/>
-      <c r="O13" s="327"/>
-      <c r="P13" s="328"/>
+      <c r="L13" s="322"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="323"/>
+      <c r="O13" s="323"/>
+      <c r="P13" s="324"/>
       <c r="Q13" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -5803,115 +5766,115 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A14" s="309" t="s">
+      <c r="A14" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="310"/>
-      <c r="C14" s="310"/>
-      <c r="D14" s="310"/>
-      <c r="E14" s="310"/>
-      <c r="F14" s="311"/>
-      <c r="G14" s="103">
+      <c r="B14" s="306"/>
+      <c r="C14" s="306"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="306"/>
+      <c r="F14" s="307"/>
+      <c r="G14" s="99">
         <f>SUM(G12:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="312">
+      <c r="H14" s="100"/>
+      <c r="I14" s="308">
         <f>SUM(K12:K13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="313"/>
-      <c r="K14" s="313"/>
-      <c r="L14" s="314"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="315"/>
-      <c r="O14" s="315"/>
-      <c r="P14" s="316"/>
+      <c r="J14" s="309"/>
+      <c r="K14" s="309"/>
+      <c r="L14" s="310"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="311"/>
+      <c r="O14" s="311"/>
+      <c r="P14" s="312"/>
       <c r="Q14" s="1">
         <f>IF(C14&lt;&gt;0,IF(A14=$G$44,VLOOKUP(C14,$G$46:$G$54,1,TRUE),IF(A14=$H$44,VLOOKUP(C14,$H$46:$H$56,1,TRUE),IF(A14=$I$44,VLOOKUP(C14,$I$46:$I$54,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A15" s="317"/>
-      <c r="B15" s="318"/>
-      <c r="C15" s="318"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="318"/>
-      <c r="H15" s="318"/>
-      <c r="I15" s="318"/>
-      <c r="J15" s="318"/>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
-      <c r="M15" s="318"/>
-      <c r="N15" s="318"/>
-      <c r="O15" s="318"/>
-      <c r="P15" s="319"/>
+      <c r="A15" s="313"/>
+      <c r="B15" s="314"/>
+      <c r="C15" s="314"/>
+      <c r="D15" s="314"/>
+      <c r="E15" s="314"/>
+      <c r="F15" s="314"/>
+      <c r="G15" s="314"/>
+      <c r="H15" s="314"/>
+      <c r="I15" s="314"/>
+      <c r="J15" s="314"/>
+      <c r="K15" s="314"/>
+      <c r="L15" s="314"/>
+      <c r="M15" s="314"/>
+      <c r="N15" s="314"/>
+      <c r="O15" s="314"/>
+      <c r="P15" s="315"/>
     </row>
     <row r="16" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A16" s="302" t="s">
+      <c r="A16" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="303"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="299"/>
+      <c r="C16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="304" t="s">
+      <c r="D16" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="303"/>
-      <c r="F16" s="57" t="s">
+      <c r="E16" s="299"/>
+      <c r="F16" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="304" t="s">
+      <c r="K16" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="303"/>
-      <c r="M16" s="58" t="s">
+      <c r="L16" s="299"/>
+      <c r="M16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="304" t="s">
+      <c r="N16" s="300" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="305"/>
-      <c r="P16" s="306"/>
+      <c r="O16" s="301"/>
+      <c r="P16" s="302"/>
     </row>
     <row r="17" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A17" s="283"/>
-      <c r="B17" s="284"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="285"/>
-      <c r="E17" s="284"/>
-      <c r="F17" s="52"/>
+      <c r="A17" s="279"/>
+      <c r="B17" s="280"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="281"/>
+      <c r="E17" s="280"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="51" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="286">
+      <c r="J17" s="73"/>
+      <c r="K17" s="282">
         <f t="shared" ref="K17:K18" si="21">IFERROR(ROUNDDOWN(G17*ROUNDDOWN(I17,4)*J17,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L17" s="287"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="288"/>
-      <c r="O17" s="288"/>
-      <c r="P17" s="289"/>
+      <c r="L17" s="283"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="284"/>
+      <c r="O17" s="284"/>
+      <c r="P17" s="285"/>
       <c r="Q17" s="1" t="str">
         <f t="shared" ref="Q17:Q18" ca="1" si="22">IFERROR(VLOOKUP(C17,OFFSET(pulldown_level2,0,U17+X17,Y17,1),1,FALSE),"")</f>
         <v/>
@@ -5953,27 +5916,27 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="283"/>
-      <c r="B18" s="284"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="285"/>
-      <c r="E18" s="284"/>
-      <c r="F18" s="54"/>
+      <c r="A18" s="279"/>
+      <c r="B18" s="280"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="281"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="286">
+      <c r="I18" s="33"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="282">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L18" s="287"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="307"/>
-      <c r="O18" s="307"/>
-      <c r="P18" s="308"/>
+      <c r="L18" s="283"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="303"/>
+      <c r="O18" s="303"/>
+      <c r="P18" s="304"/>
       <c r="Q18" s="1" t="str">
         <f t="shared" ca="1" si="22"/>
         <v/>
@@ -6015,110 +5978,110 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="290" t="s">
+      <c r="A19" s="286" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="291"/>
-      <c r="C19" s="291"/>
-      <c r="D19" s="291"/>
-      <c r="E19" s="291"/>
-      <c r="F19" s="292"/>
+      <c r="B19" s="287"/>
+      <c r="C19" s="287"/>
+      <c r="D19" s="287"/>
+      <c r="E19" s="287"/>
+      <c r="F19" s="288"/>
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="293">
+      <c r="I19" s="289">
         <f>SUM(K17:K18)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="294"/>
-      <c r="K19" s="294"/>
-      <c r="L19" s="295"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="296">
+      <c r="J19" s="290"/>
+      <c r="K19" s="290"/>
+      <c r="L19" s="291"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="292">
         <f>SUMIF(F17:F18,"&lt;&gt;"&amp;hdn_payoff_circle,K17:K18)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="297"/>
-      <c r="P19" s="298"/>
+      <c r="O19" s="293"/>
+      <c r="P19" s="294"/>
     </row>
     <row r="20" spans="1:26" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A20" s="299"/>
-      <c r="B20" s="300"/>
-      <c r="C20" s="300"/>
-      <c r="D20" s="300"/>
-      <c r="E20" s="300"/>
-      <c r="F20" s="300"/>
-      <c r="G20" s="300"/>
-      <c r="H20" s="300"/>
-      <c r="I20" s="300"/>
-      <c r="J20" s="300"/>
-      <c r="K20" s="300"/>
-      <c r="L20" s="300"/>
-      <c r="M20" s="300"/>
-      <c r="N20" s="300"/>
-      <c r="O20" s="300"/>
-      <c r="P20" s="301"/>
+      <c r="A20" s="295"/>
+      <c r="B20" s="296"/>
+      <c r="C20" s="296"/>
+      <c r="D20" s="296"/>
+      <c r="E20" s="296"/>
+      <c r="F20" s="296"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="296"/>
+      <c r="I20" s="296"/>
+      <c r="J20" s="296"/>
+      <c r="K20" s="296"/>
+      <c r="L20" s="296"/>
+      <c r="M20" s="296"/>
+      <c r="N20" s="296"/>
+      <c r="O20" s="296"/>
+      <c r="P20" s="297"/>
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="302" t="s">
+      <c r="A21" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="303"/>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="299"/>
+      <c r="C21" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="304" t="s">
+      <c r="D21" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="303"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59" t="s">
+      <c r="E21" s="299"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="304" t="s">
+      <c r="K21" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="303"/>
-      <c r="M21" s="58" t="s">
+      <c r="L21" s="299"/>
+      <c r="M21" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="304" t="s">
+      <c r="N21" s="300" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="305"/>
-      <c r="P21" s="306"/>
+      <c r="O21" s="301"/>
+      <c r="P21" s="302"/>
       <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A22" s="283"/>
-      <c r="B22" s="284"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="285"/>
-      <c r="E22" s="284"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="55" t="s">
+      <c r="A22" s="279"/>
+      <c r="B22" s="280"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="286">
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="282">
         <f t="shared" ref="K22:K23" si="31">IFERROR(ROUNDDOWN(G22*ROUNDDOWN(I22,4)*J22,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L22" s="287"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="288"/>
-      <c r="O22" s="288"/>
-      <c r="P22" s="289"/>
+      <c r="L22" s="283"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="284"/>
+      <c r="O22" s="284"/>
+      <c r="P22" s="285"/>
       <c r="Q22" s="1" t="str">
         <f t="shared" ref="Q22:Q25" ca="1" si="32">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
         <v/>
@@ -6160,27 +6123,27 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A23" s="248"/>
-      <c r="B23" s="249"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="126" t="s">
+      <c r="A23" s="244"/>
+      <c r="B23" s="245"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="127"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="251">
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="247">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L23" s="252"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="254"/>
+      <c r="L23" s="248"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="249"/>
+      <c r="O23" s="249"/>
+      <c r="P23" s="250"/>
       <c r="Q23" s="1" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
@@ -6222,27 +6185,27 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.1" customHeight="1" thickTop="1">
-      <c r="A24" s="255"/>
-      <c r="B24" s="256"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="257"/>
-      <c r="E24" s="258"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120" t="s">
+      <c r="A24" s="251"/>
+      <c r="B24" s="252"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="253"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="121"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="259">
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="255">
         <f t="shared" ref="K24:K25" si="45">IFERROR(ROUNDDOWN(G24*IF(AND(LEFT(A24,4)="401:",LEFT(C24,2)="1:",F24&lt;&gt;""),IF(D24&lt;&gt;0&amp;G24&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F24*retailprice,4),""),IF(AND(LEFT(A24,5)="1224:",LEFT(C24,2)="3:",F24&lt;&gt;""),ROUNDDOWN(F24*tariff_total,4),ROUNDDOWN(I24,4)))*J24,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L24" s="260"/>
-      <c r="M24" s="200"/>
-      <c r="N24" s="261"/>
-      <c r="O24" s="262"/>
-      <c r="P24" s="263"/>
+      <c r="L24" s="256"/>
+      <c r="M24" s="196"/>
+      <c r="N24" s="257"/>
+      <c r="O24" s="258"/>
+      <c r="P24" s="259"/>
       <c r="Q24" s="1" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
@@ -6284,27 +6247,27 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A25" s="272"/>
-      <c r="B25" s="273"/>
-      <c r="C25" s="198"/>
-      <c r="D25" s="274"/>
-      <c r="E25" s="275"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="88" t="s">
+      <c r="A25" s="268"/>
+      <c r="B25" s="269"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="271"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="276">
+      <c r="I25" s="88"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="272">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="L25" s="277"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="278"/>
-      <c r="O25" s="279"/>
-      <c r="P25" s="280"/>
+      <c r="L25" s="273"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="274"/>
+      <c r="O25" s="275"/>
+      <c r="P25" s="276"/>
       <c r="Q25" s="1" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
@@ -6346,461 +6309,461 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
       <c r="M26" s="13"/>
-      <c r="N26" s="234"/>
-      <c r="O26" s="234"/>
-      <c r="P26" s="281"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="230"/>
+      <c r="P26" s="277"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A27" s="282" t="s">
+      <c r="A27" s="278" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="266"/>
-      <c r="C27" s="170">
+      <c r="B27" s="262"/>
+      <c r="C27" s="166">
         <f>I9</f>
         <v>0</v>
       </c>
-      <c r="D27" s="167"/>
-      <c r="E27" s="264" t="s">
+      <c r="D27" s="163"/>
+      <c r="E27" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="265"/>
-      <c r="G27" s="266"/>
-      <c r="H27" s="267">
+      <c r="F27" s="261"/>
+      <c r="G27" s="262"/>
+      <c r="H27" s="263">
         <f>I14</f>
         <v>0</v>
       </c>
-      <c r="I27" s="268"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="269" t="s">
+      <c r="I27" s="264"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="265" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="270"/>
-      <c r="N27" s="271">
+      <c r="M27" s="266"/>
+      <c r="N27" s="267">
         <f>C27+H27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="268"/>
-      <c r="P27" s="168"/>
+      <c r="O27" s="264"/>
+      <c r="P27" s="164"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A28" s="216" t="s">
+      <c r="A28" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="217"/>
-      <c r="C28" s="172">
+      <c r="B28" s="213"/>
+      <c r="C28" s="168">
         <f>C27-K33</f>
         <v>0</v>
       </c>
-      <c r="D28" s="173">
+      <c r="D28" s="169">
         <f>IF(C27=0,0,C28/C27)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="218" t="s">
+      <c r="E28" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="219"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="221">
+      <c r="F28" s="215"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="217">
         <f>H27-N19</f>
         <v>0</v>
       </c>
-      <c r="I28" s="222"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="173">
+      <c r="I28" s="218"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="169">
         <f>IF(H27=0,0,H28/H27)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="218" t="s">
+      <c r="L28" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="220"/>
-      <c r="N28" s="223">
+      <c r="M28" s="216"/>
+      <c r="N28" s="219">
         <f>C28+H28</f>
         <v>0</v>
       </c>
-      <c r="O28" s="222"/>
-      <c r="P28" s="175">
+      <c r="O28" s="218"/>
+      <c r="P28" s="171">
         <f>IF(N27=0,0,N28/N27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A29" s="109"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="224" t="s">
+      <c r="A29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="L29" s="225"/>
-      <c r="M29" s="226"/>
-      <c r="N29" s="227">
+      <c r="L29" s="221"/>
+      <c r="M29" s="222"/>
+      <c r="N29" s="223">
         <f>ROUNDDOWN((N27*P29),0)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="228"/>
-      <c r="P29" s="178">
+      <c r="O29" s="224"/>
+      <c r="P29" s="174">
         <v>6.08E-2</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A30" s="112"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="207" t="s">
+      <c r="A30" s="108"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="208"/>
-      <c r="M30" s="209"/>
-      <c r="N30" s="210">
+      <c r="L30" s="204"/>
+      <c r="M30" s="205"/>
+      <c r="N30" s="206">
         <f>N28-N29</f>
         <v>0</v>
       </c>
-      <c r="O30" s="211"/>
-      <c r="P30" s="182">
+      <c r="O30" s="207"/>
+      <c r="P30" s="178">
         <f>IF(N27=0,0,N30/N27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A31" s="212" t="s">
+      <c r="A31" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="213"/>
-      <c r="C31" s="214" t="s">
+      <c r="B31" s="209"/>
+      <c r="C31" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="183">
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="179">
         <f>$P$4</f>
         <v>0</v>
       </c>
-      <c r="H31" s="184"/>
-      <c r="I31" s="185">
+      <c r="H31" s="180"/>
+      <c r="I31" s="181">
         <f>IF(G31&gt;0,K31/G31,)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="185"/>
-      <c r="K31" s="215">
+      <c r="J31" s="181"/>
+      <c r="K31" s="211">
         <f>SUMIF(F22:F25,"&lt;&gt;"&amp;hdn_payoff_circle,K22:K25)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="215"/>
-      <c r="M31" s="186"/>
-      <c r="N31" s="214"/>
-      <c r="O31" s="214"/>
-      <c r="P31" s="187"/>
+      <c r="L31" s="211"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="210"/>
+      <c r="O31" s="210"/>
+      <c r="P31" s="183"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A32" s="235" t="s">
+      <c r="A32" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="236"/>
-      <c r="C32" s="237" t="s">
+      <c r="B32" s="232"/>
+      <c r="C32" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="237"/>
-      <c r="E32" s="237"/>
-      <c r="F32" s="237"/>
-      <c r="G32" s="188">
+      <c r="D32" s="233"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="233"/>
+      <c r="G32" s="184">
         <f>$P$4</f>
         <v>0</v>
       </c>
-      <c r="H32" s="189"/>
-      <c r="I32" s="190">
+      <c r="H32" s="185"/>
+      <c r="I32" s="186">
         <f>IF(G32&gt;0,K32/G32,)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="191"/>
-      <c r="K32" s="227">
+      <c r="J32" s="187"/>
+      <c r="K32" s="223">
         <f>SUMIF(F17:F25,hdn_payoff_circle,K17:K25)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="228"/>
-      <c r="M32" s="192"/>
-      <c r="N32" s="238"/>
-      <c r="O32" s="239"/>
-      <c r="P32" s="193"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="234"/>
+      <c r="O32" s="235"/>
+      <c r="P32" s="189"/>
     </row>
     <row r="33" spans="1:25" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="240" t="s">
+      <c r="A33" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="241"/>
-      <c r="C33" s="242" t="s">
+      <c r="B33" s="237"/>
+      <c r="C33" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="194">
+      <c r="D33" s="238"/>
+      <c r="E33" s="238"/>
+      <c r="F33" s="238"/>
+      <c r="G33" s="190">
         <f>$P$4</f>
         <v>0</v>
       </c>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196">
+      <c r="H33" s="191"/>
+      <c r="I33" s="192">
         <f>IF(G33&gt;0,K33/G33,)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="197"/>
-      <c r="K33" s="210">
+      <c r="J33" s="193"/>
+      <c r="K33" s="206">
         <f>SUM(K31:K32)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="211"/>
-      <c r="M33" s="207" t="s">
+      <c r="L33" s="207"/>
+      <c r="M33" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="N33" s="209"/>
-      <c r="O33" s="243">
+      <c r="N33" s="205"/>
+      <c r="O33" s="239">
         <f>N19</f>
         <v>0</v>
       </c>
-      <c r="P33" s="244"/>
+      <c r="P33" s="240"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A34" s="232"/>
-      <c r="B34" s="232"/>
-      <c r="C34" s="232"/>
-      <c r="D34" s="232"/>
-      <c r="E34" s="232"/>
-      <c r="F34" s="232"/>
-      <c r="G34" s="232"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="233" t="s">
+      <c r="A34" s="228"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="229" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="233"/>
-      <c r="K34" s="233"/>
-      <c r="L34" s="233"/>
-      <c r="M34" s="233"/>
-      <c r="N34" s="233"/>
-      <c r="O34" s="233"/>
-      <c r="P34" s="233"/>
-    </row>
-    <row r="35" spans="1:25" ht="9" customHeight="1">
-      <c r="A35" s="234" t="s">
+      <c r="J34" s="229"/>
+      <c r="K34" s="229"/>
+      <c r="L34" s="229"/>
+      <c r="M34" s="229"/>
+      <c r="N34" s="229"/>
+      <c r="O34" s="229"/>
+      <c r="P34" s="229"/>
+    </row>
+    <row r="35" spans="1:25" ht="9" hidden="1" customHeight="1">
+      <c r="A35" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="234"/>
-      <c r="C35" s="234"/>
-      <c r="D35" s="234"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="234"/>
-      <c r="G35" s="234"/>
-      <c r="H35" s="234"/>
-      <c r="I35" s="234"/>
-      <c r="J35" s="234"/>
-      <c r="K35" s="234"/>
-      <c r="L35" s="234"/>
-      <c r="M35" s="234"/>
-      <c r="N35" s="234"/>
-      <c r="O35" s="234"/>
-      <c r="P35" s="234"/>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
-      <c r="S35" s="129"/>
-      <c r="T35" s="129"/>
-      <c r="U35" s="129"/>
-      <c r="V35" s="129"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="129"/>
-      <c r="Y35" s="129"/>
-    </row>
-    <row r="36" spans="1:25" ht="32.4">
-      <c r="A36" s="98"/>
-      <c r="B36" s="202">
+      <c r="B35" s="230"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="230"/>
+      <c r="F35" s="230"/>
+      <c r="G35" s="230"/>
+      <c r="H35" s="230"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="230"/>
+      <c r="K35" s="230"/>
+      <c r="L35" s="230"/>
+      <c r="M35" s="230"/>
+      <c r="N35" s="230"/>
+      <c r="O35" s="230"/>
+      <c r="P35" s="230"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="125"/>
+      <c r="S35" s="125"/>
+      <c r="T35" s="125"/>
+      <c r="U35" s="125"/>
+      <c r="V35" s="125"/>
+      <c r="W35" s="125"/>
+      <c r="X35" s="125"/>
+      <c r="Y35" s="125"/>
+    </row>
+    <row r="36" spans="1:25" ht="32.4" hidden="1">
+      <c r="A36" s="94"/>
+      <c r="B36" s="198">
         <f>ROW(pulldown_company)-ROW(pulldown_level2)</f>
         <v>31</v>
       </c>
-      <c r="C36" s="166" t="s">
+      <c r="C36" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="147" t="s">
+      <c r="D36" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
-      <c r="S36" s="129"/>
-      <c r="T36" s="129"/>
-      <c r="U36" s="129"/>
-      <c r="V36" s="129"/>
-      <c r="W36" s="129"/>
-      <c r="X36" s="129"/>
-      <c r="Y36" s="129"/>
-    </row>
-    <row r="37" spans="1:25" ht="13.95" customHeight="1">
-      <c r="A37" s="158"/>
-      <c r="B37" s="202">
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="125"/>
+      <c r="R36" s="125"/>
+      <c r="S36" s="125"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="125"/>
+      <c r="V36" s="125"/>
+      <c r="W36" s="125"/>
+      <c r="X36" s="125"/>
+      <c r="Y36" s="125"/>
+    </row>
+    <row r="37" spans="1:25" ht="13.95" hidden="1" customHeight="1">
+      <c r="A37" s="154"/>
+      <c r="B37" s="198">
         <f>COUNTIF(118:118,"*:*")</f>
         <v>0</v>
       </c>
-      <c r="C37" s="160" t="s">
+      <c r="C37" s="156" t="s">
         <v>118</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="158"/>
-      <c r="R37" s="158"/>
-      <c r="S37" s="158"/>
-      <c r="T37" s="158"/>
-      <c r="U37" s="158"/>
-      <c r="V37" s="158"/>
-      <c r="W37" s="158"/>
-      <c r="X37" s="158"/>
-      <c r="Y37" s="158"/>
-    </row>
-    <row r="38" spans="1:25" ht="21.6">
-      <c r="A38" s="98"/>
-      <c r="B38" s="202">
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="154"/>
+      <c r="R37" s="154"/>
+      <c r="S37" s="154"/>
+      <c r="T37" s="154"/>
+      <c r="U37" s="154"/>
+      <c r="V37" s="154"/>
+      <c r="W37" s="154"/>
+      <c r="X37" s="154"/>
+      <c r="Y37" s="154"/>
+    </row>
+    <row r="38" spans="1:25" ht="21.6" hidden="1">
+      <c r="A38" s="94"/>
+      <c r="B38" s="198">
         <f>ROW(pulldown_dept_member)-ROW(pulldown_company)-1</f>
         <v>41</v>
       </c>
-      <c r="C38" s="166" t="s">
+      <c r="C38" s="162" t="s">
         <v>129</v>
       </c>
       <c r="D38" s="17"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="129"/>
-      <c r="U38" s="129"/>
-      <c r="V38" s="129"/>
-      <c r="W38" s="129"/>
-      <c r="X38" s="129"/>
-      <c r="Y38" s="129"/>
-    </row>
-    <row r="39" spans="1:25" ht="13.95" customHeight="1">
-      <c r="A39" s="98"/>
-      <c r="B39" s="203">
+      <c r="F38" s="94"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="125"/>
+      <c r="N38" s="125"/>
+      <c r="O38" s="125"/>
+      <c r="P38" s="125"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="125"/>
+      <c r="S38" s="125"/>
+      <c r="T38" s="125"/>
+      <c r="U38" s="125"/>
+      <c r="V38" s="125"/>
+      <c r="W38" s="125"/>
+      <c r="X38" s="125"/>
+      <c r="Y38" s="125"/>
+    </row>
+    <row r="39" spans="1:25" ht="13.95" hidden="1" customHeight="1">
+      <c r="A39" s="94"/>
+      <c r="B39" s="199">
         <f>SUM(K22:L23)+order_f_fixedcost</f>
         <v>0</v>
       </c>
-      <c r="C39" s="148" t="s">
+      <c r="C39" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="144" t="s">
+      <c r="D39" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="98">
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="94">
         <f>IFERROR(FIND("401:",#REF!,1),0)</f>
         <v>0</v>
       </c>
-      <c r="O39" s="98"/>
-      <c r="P39" s="98"/>
-    </row>
-    <row r="40" spans="1:25" ht="13.95" customHeight="1">
-      <c r="A40" s="98"/>
-      <c r="B40" s="202">
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+    </row>
+    <row r="40" spans="1:25" ht="13.95" hidden="1" customHeight="1">
+      <c r="A40" s="94"/>
+      <c r="B40" s="198">
         <v>4</v>
       </c>
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="98"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="98"/>
-    </row>
-    <row r="41" spans="1:25" ht="9" customHeight="1">
-      <c r="A41" s="129"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
-    </row>
-    <row r="42" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A42" s="149" t="s">
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+    </row>
+    <row r="41" spans="1:25" ht="9" hidden="1" customHeight="1">
+      <c r="A41" s="125"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="125"/>
+    </row>
+    <row r="42" spans="1:25" ht="14.1" hidden="1" customHeight="1">
+      <c r="A42" s="145" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="1">
@@ -6808,23 +6771,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
-      <c r="A43" s="149" t="s">
+    <row r="43" spans="1:25" hidden="1">
+      <c r="A43" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="Q43" s="204">
+      <c r="Q43" s="200">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="18" customFormat="1" ht="32.4">
-      <c r="A44" s="150" t="s">
+    <row r="44" spans="1:25" s="18" customFormat="1" ht="32.4" hidden="1">
+      <c r="A44" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="151"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="159"/>
-      <c r="F44" s="152"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="148"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="15"/>
@@ -6838,18 +6801,18 @@
       <c r="Q44" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R44" s="153"/>
-      <c r="X44" s="36"/>
-    </row>
-    <row r="45" spans="1:25" s="18" customFormat="1">
-      <c r="A45" s="245" t="s">
+      <c r="R44" s="149"/>
+      <c r="X44" s="32"/>
+    </row>
+    <row r="45" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A45" s="241" t="s">
         <v>107</v>
       </c>
       <c r="B45" s="17"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="15"/>
@@ -6861,15 +6824,15 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
-      <c r="U45" s="130"/>
-    </row>
-    <row r="46" spans="1:25" s="18" customFormat="1">
-      <c r="A46" s="246"/>
+      <c r="U45" s="126"/>
+    </row>
+    <row r="46" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A46" s="242"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="16"/>
@@ -6883,15 +6846,15 @@
       <c r="Q46" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="U46" s="130"/>
-    </row>
-    <row r="47" spans="1:25" s="18" customFormat="1">
-      <c r="A47" s="246"/>
+      <c r="U46" s="126"/>
+    </row>
+    <row r="47" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A47" s="242"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="16"/>
@@ -6907,13 +6870,13 @@
       </c>
       <c r="R47" s="20"/>
     </row>
-    <row r="48" spans="1:25" s="18" customFormat="1">
-      <c r="A48" s="246"/>
+    <row r="48" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A48" s="242"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="16"/>
@@ -6929,13 +6892,13 @@
       </c>
       <c r="R48" s="20"/>
     </row>
-    <row r="49" spans="1:17" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A49" s="246"/>
+    <row r="49" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A49" s="242"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="16"/>
@@ -6950,13 +6913,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A50" s="246"/>
+    <row r="50" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A50" s="242"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="16"/>
@@ -6969,13 +6932,13 @@
       <c r="P50" s="19"/>
       <c r="Q50" s="17"/>
     </row>
-    <row r="51" spans="1:17" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A51" s="246"/>
+    <row r="51" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A51" s="242"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="16"/>
@@ -6988,13 +6951,13 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="52" spans="1:17" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A52" s="246"/>
+    <row r="52" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A52" s="242"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
       <c r="G52" s="17"/>
       <c r="H52" s="19"/>
       <c r="I52" s="16"/>
@@ -7007,13 +6970,13 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="1:17" s="18" customFormat="1">
-      <c r="A53" s="246"/>
+    <row r="53" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A53" s="242"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
       <c r="G53" s="21"/>
       <c r="H53" s="19"/>
       <c r="I53" s="16"/>
@@ -7026,13 +6989,13 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="1:17" s="18" customFormat="1">
-      <c r="A54" s="246"/>
+    <row r="54" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A54" s="242"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
       <c r="I54" s="16"/>
@@ -7045,13 +7008,13 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="1:17" s="18" customFormat="1">
-      <c r="A55" s="246"/>
+    <row r="55" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A55" s="242"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="133"/>
       <c r="G55" s="21"/>
       <c r="H55" s="14"/>
       <c r="I55" s="16"/>
@@ -7064,13 +7027,13 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="1:17" s="18" customFormat="1">
-      <c r="A56" s="246"/>
+    <row r="56" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A56" s="242"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
       <c r="G56" s="21"/>
       <c r="H56" s="14"/>
       <c r="I56" s="16"/>
@@ -7083,13 +7046,13 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="1:17" s="18" customFormat="1">
-      <c r="A57" s="246"/>
+    <row r="57" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A57" s="242"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="133"/>
       <c r="G57" s="21"/>
       <c r="H57" s="14"/>
       <c r="I57" s="16"/>
@@ -7102,13 +7065,13 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="1:17" s="18" customFormat="1">
-      <c r="A58" s="246"/>
+    <row r="58" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A58" s="242"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="133"/>
       <c r="G58" s="21"/>
       <c r="H58" s="14"/>
       <c r="I58" s="16"/>
@@ -7121,13 +7084,13 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="1:17" s="18" customFormat="1">
-      <c r="A59" s="246"/>
+    <row r="59" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A59" s="242"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="133"/>
       <c r="G59" s="21"/>
       <c r="H59" s="14"/>
       <c r="I59" s="16"/>
@@ -7140,13 +7103,13 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="1:17" s="18" customFormat="1">
-      <c r="A60" s="246"/>
+    <row r="60" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A60" s="242"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="133"/>
       <c r="G60" s="21"/>
       <c r="H60" s="14"/>
       <c r="I60" s="16"/>
@@ -7159,13 +7122,13 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="1:17" s="18" customFormat="1">
-      <c r="A61" s="246"/>
+    <row r="61" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A61" s="242"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="133"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="16"/>
@@ -7178,18 +7141,18 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="1:17" s="18" customFormat="1">
-      <c r="A62" s="246"/>
+    <row r="62" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A62" s="242"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
       <c r="G62" s="17"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="96"/>
-      <c r="K62" s="96"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="92"/>
       <c r="L62" s="19"/>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
@@ -7197,18 +7160,18 @@
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
     </row>
-    <row r="63" spans="1:17" s="18" customFormat="1">
-      <c r="A63" s="246"/>
+    <row r="63" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A63" s="242"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
+      <c r="E63" s="133"/>
+      <c r="F63" s="133"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="92"/>
       <c r="L63" s="19"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
@@ -7216,18 +7179,18 @@
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
     </row>
-    <row r="64" spans="1:17" s="18" customFormat="1">
-      <c r="A64" s="246"/>
+    <row r="64" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A64" s="242"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="133"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="96"/>
-      <c r="J64" s="96"/>
-      <c r="K64" s="96"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="92"/>
       <c r="L64" s="19"/>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
@@ -7235,18 +7198,18 @@
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
     </row>
-    <row r="65" spans="1:17" s="18" customFormat="1">
-      <c r="A65" s="246"/>
+    <row r="65" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A65" s="242"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="137"/>
+      <c r="E65" s="133"/>
+      <c r="F65" s="133"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
-      <c r="J65" s="96"/>
-      <c r="K65" s="96"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="92"/>
       <c r="L65" s="19"/>
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
@@ -7254,18 +7217,18 @@
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
     </row>
-    <row r="66" spans="1:17" s="18" customFormat="1">
-      <c r="A66" s="246"/>
+    <row r="66" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A66" s="242"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="137"/>
+      <c r="E66" s="133"/>
+      <c r="F66" s="133"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="96"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="92"/>
       <c r="L66" s="19"/>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
@@ -7273,18 +7236,18 @@
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
     </row>
-    <row r="67" spans="1:17" s="18" customFormat="1">
-      <c r="A67" s="246"/>
+    <row r="67" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A67" s="242"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
+      <c r="E67" s="133"/>
+      <c r="F67" s="133"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="96"/>
-      <c r="K67" s="96"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
       <c r="L67" s="19"/>
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
@@ -7292,18 +7255,18 @@
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
     </row>
-    <row r="68" spans="1:17" s="18" customFormat="1">
-      <c r="A68" s="246"/>
+    <row r="68" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A68" s="242"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="137"/>
+      <c r="E68" s="133"/>
+      <c r="F68" s="133"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="96"/>
-      <c r="J68" s="96"/>
-      <c r="K68" s="96"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="92"/>
+      <c r="K68" s="92"/>
       <c r="L68" s="19"/>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
@@ -7311,18 +7274,18 @@
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
     </row>
-    <row r="69" spans="1:17" s="18" customFormat="1">
-      <c r="A69" s="246"/>
+    <row r="69" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A69" s="242"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="137"/>
+      <c r="E69" s="133"/>
+      <c r="F69" s="133"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="96"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="96"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="92"/>
       <c r="L69" s="19"/>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
@@ -7330,18 +7293,18 @@
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
     </row>
-    <row r="70" spans="1:17" s="18" customFormat="1">
-      <c r="A70" s="246"/>
+    <row r="70" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A70" s="242"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="137"/>
-      <c r="F70" s="137"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="133"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="96"/>
-      <c r="J70" s="96"/>
-      <c r="K70" s="96"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="92"/>
       <c r="L70" s="19"/>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -7349,18 +7312,18 @@
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
     </row>
-    <row r="71" spans="1:17" s="18" customFormat="1">
-      <c r="A71" s="246"/>
+    <row r="71" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A71" s="242"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="137"/>
-      <c r="F71" s="137"/>
+      <c r="E71" s="133"/>
+      <c r="F71" s="133"/>
       <c r="G71" s="17"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="92"/>
       <c r="L71" s="19"/>
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
@@ -7368,18 +7331,18 @@
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
     </row>
-    <row r="72" spans="1:17" s="18" customFormat="1">
-      <c r="A72" s="246"/>
+    <row r="72" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A72" s="242"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="137"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="133"/>
       <c r="G72" s="17"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="96"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="92"/>
       <c r="L72" s="19"/>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -7387,18 +7350,18 @@
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
     </row>
-    <row r="73" spans="1:17" s="18" customFormat="1">
-      <c r="A73" s="246"/>
+    <row r="73" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A73" s="242"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
+      <c r="E73" s="133"/>
+      <c r="F73" s="133"/>
       <c r="G73" s="17"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="92"/>
+      <c r="K73" s="92"/>
       <c r="L73" s="19"/>
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
@@ -7406,18 +7369,18 @@
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
     </row>
-    <row r="74" spans="1:17" s="18" customFormat="1">
-      <c r="A74" s="246"/>
+    <row r="74" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A74" s="242"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
-      <c r="E74" s="137"/>
-      <c r="F74" s="137"/>
+      <c r="E74" s="133"/>
+      <c r="F74" s="133"/>
       <c r="G74" s="17"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="96"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="92"/>
+      <c r="K74" s="92"/>
       <c r="L74" s="19"/>
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
@@ -7425,18 +7388,18 @@
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
     </row>
-    <row r="75" spans="1:17" s="18" customFormat="1">
-      <c r="A75" s="247"/>
+    <row r="75" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A75" s="243"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
-      <c r="E75" s="137"/>
-      <c r="F75" s="137"/>
+      <c r="E75" s="133"/>
+      <c r="F75" s="133"/>
       <c r="G75" s="17"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="96"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
+      <c r="J75" s="92"/>
+      <c r="K75" s="92"/>
       <c r="L75" s="19"/>
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
@@ -7444,15 +7407,15 @@
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
     </row>
-    <row r="76" spans="1:17" s="18" customFormat="1">
-      <c r="A76" s="229" t="s">
+    <row r="76" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A76" s="225" t="s">
         <v>108</v>
       </c>
       <c r="B76" s="17"/>
-      <c r="C76" s="137"/>
-      <c r="D76" s="137"/>
-      <c r="E76" s="137"/>
-      <c r="F76" s="137"/>
+      <c r="C76" s="133"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="133"/>
+      <c r="F76" s="133"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
@@ -7465,13 +7428,13 @@
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
     </row>
-    <row r="77" spans="1:17" s="18" customFormat="1">
-      <c r="A77" s="230"/>
-      <c r="B77" s="138"/>
-      <c r="C77" s="138"/>
-      <c r="D77" s="138"/>
-      <c r="E77" s="139"/>
-      <c r="F77" s="139"/>
+    <row r="77" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A77" s="226"/>
+      <c r="B77" s="134"/>
+      <c r="C77" s="134"/>
+      <c r="D77" s="134"/>
+      <c r="E77" s="135"/>
+      <c r="F77" s="135"/>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
@@ -7484,13 +7447,13 @@
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
     </row>
-    <row r="78" spans="1:17" s="18" customFormat="1">
-      <c r="A78" s="230"/>
-      <c r="B78" s="138"/>
-      <c r="C78" s="138"/>
-      <c r="D78" s="138"/>
-      <c r="E78" s="139"/>
-      <c r="F78" s="139"/>
+    <row r="78" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A78" s="226"/>
+      <c r="B78" s="134"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="134"/>
+      <c r="E78" s="135"/>
+      <c r="F78" s="135"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
@@ -7503,15 +7466,15 @@
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
     </row>
-    <row r="79" spans="1:17" s="18" customFormat="1">
-      <c r="A79" s="230"/>
-      <c r="B79" s="138"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="139"/>
-      <c r="F79" s="139"/>
+    <row r="79" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A79" s="226"/>
+      <c r="B79" s="134"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="134"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="135"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="30"/>
+      <c r="H79" s="26"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
@@ -7522,13 +7485,13 @@
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
     </row>
-    <row r="80" spans="1:17" s="18" customFormat="1">
-      <c r="A80" s="230"/>
-      <c r="B80" s="138"/>
-      <c r="C80" s="138"/>
-      <c r="D80" s="138"/>
-      <c r="E80" s="139"/>
-      <c r="F80" s="139"/>
+    <row r="80" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A80" s="226"/>
+      <c r="B80" s="134"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="135"/>
+      <c r="F80" s="135"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
@@ -7541,13 +7504,13 @@
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
     </row>
-    <row r="81" spans="1:17" s="18" customFormat="1">
-      <c r="A81" s="230"/>
-      <c r="B81" s="138"/>
-      <c r="C81" s="138"/>
-      <c r="D81" s="138"/>
-      <c r="E81" s="139"/>
-      <c r="F81" s="139"/>
+    <row r="81" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A81" s="226"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="135"/>
+      <c r="F81" s="135"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
@@ -7560,14 +7523,14 @@
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
     </row>
-    <row r="82" spans="1:17" s="18" customFormat="1">
-      <c r="A82" s="230"/>
-      <c r="B82" s="138"/>
-      <c r="C82" s="138"/>
-      <c r="D82" s="138"/>
-      <c r="E82" s="139"/>
-      <c r="F82" s="139"/>
-      <c r="G82" s="30"/>
+    <row r="82" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A82" s="226"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="135"/>
+      <c r="F82" s="135"/>
+      <c r="G82" s="26"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -7579,13 +7542,13 @@
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
     </row>
-    <row r="83" spans="1:17" s="18" customFormat="1">
-      <c r="A83" s="230"/>
-      <c r="B83" s="138"/>
-      <c r="C83" s="138"/>
-      <c r="D83" s="138"/>
-      <c r="E83" s="139"/>
-      <c r="F83" s="139"/>
+    <row r="83" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A83" s="226"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="135"/>
+      <c r="F83" s="135"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
@@ -7598,13 +7561,13 @@
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="1:17" s="18" customFormat="1">
-      <c r="A84" s="230"/>
-      <c r="B84" s="138"/>
-      <c r="C84" s="138"/>
-      <c r="D84" s="138"/>
-      <c r="E84" s="139"/>
-      <c r="F84" s="139"/>
+    <row r="84" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A84" s="226"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="135"/>
+      <c r="F84" s="135"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
@@ -7617,13 +7580,13 @@
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
     </row>
-    <row r="85" spans="1:17" s="18" customFormat="1">
-      <c r="A85" s="230"/>
-      <c r="B85" s="138"/>
-      <c r="C85" s="138"/>
-      <c r="D85" s="138"/>
-      <c r="E85" s="139"/>
-      <c r="F85" s="139"/>
+    <row r="85" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A85" s="226"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="135"/>
+      <c r="F85" s="135"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
@@ -7636,13 +7599,13 @@
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
     </row>
-    <row r="86" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A86" s="230"/>
-      <c r="B86" s="138"/>
-      <c r="C86" s="138"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="139"/>
-      <c r="F86" s="139"/>
+    <row r="86" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A86" s="226"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="135"/>
+      <c r="F86" s="135"/>
       <c r="G86" s="17"/>
       <c r="H86" s="23"/>
       <c r="I86" s="17"/>
@@ -7655,13 +7618,13 @@
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
     </row>
-    <row r="87" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A87" s="230"/>
-      <c r="B87" s="138"/>
-      <c r="C87" s="138"/>
-      <c r="D87" s="138"/>
-      <c r="E87" s="139"/>
-      <c r="F87" s="139"/>
+    <row r="87" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A87" s="226"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="135"/>
       <c r="G87" s="17"/>
       <c r="H87" s="23"/>
       <c r="I87" s="17"/>
@@ -7674,13 +7637,13 @@
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
     </row>
-    <row r="88" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A88" s="230"/>
-      <c r="B88" s="138"/>
-      <c r="C88" s="138"/>
-      <c r="D88" s="138"/>
-      <c r="E88" s="139"/>
-      <c r="F88" s="139"/>
+    <row r="88" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A88" s="226"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="135"/>
       <c r="G88" s="17"/>
       <c r="H88" s="23"/>
       <c r="I88" s="17"/>
@@ -7693,13 +7656,13 @@
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
     </row>
-    <row r="89" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A89" s="230"/>
-      <c r="B89" s="138"/>
-      <c r="C89" s="138"/>
-      <c r="D89" s="138"/>
-      <c r="E89" s="139"/>
-      <c r="F89" s="139"/>
+    <row r="89" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A89" s="226"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="135"/>
+      <c r="F89" s="135"/>
       <c r="G89" s="17"/>
       <c r="H89" s="23"/>
       <c r="I89" s="17"/>
@@ -7712,13 +7675,13 @@
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
     </row>
-    <row r="90" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A90" s="230"/>
-      <c r="B90" s="138"/>
-      <c r="C90" s="138"/>
-      <c r="D90" s="138"/>
-      <c r="E90" s="139"/>
-      <c r="F90" s="139"/>
+    <row r="90" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A90" s="226"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="135"/>
       <c r="G90" s="17"/>
       <c r="H90" s="23"/>
       <c r="I90" s="17"/>
@@ -7731,13 +7694,13 @@
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
     </row>
-    <row r="91" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A91" s="230"/>
-      <c r="B91" s="138"/>
-      <c r="C91" s="138"/>
-      <c r="D91" s="138"/>
-      <c r="E91" s="139"/>
-      <c r="F91" s="139"/>
+    <row r="91" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A91" s="226"/>
+      <c r="B91" s="134"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="134"/>
+      <c r="E91" s="135"/>
+      <c r="F91" s="135"/>
       <c r="G91" s="17"/>
       <c r="H91" s="23"/>
       <c r="I91" s="17"/>
@@ -7750,13 +7713,13 @@
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
     </row>
-    <row r="92" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A92" s="230"/>
-      <c r="B92" s="138"/>
-      <c r="C92" s="138"/>
-      <c r="D92" s="138"/>
-      <c r="E92" s="137"/>
-      <c r="F92" s="137"/>
+    <row r="92" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A92" s="226"/>
+      <c r="B92" s="134"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="134"/>
+      <c r="E92" s="133"/>
+      <c r="F92" s="133"/>
       <c r="G92" s="17"/>
       <c r="H92" s="23"/>
       <c r="I92" s="17"/>
@@ -7769,13 +7732,13 @@
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
     </row>
-    <row r="93" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A93" s="230"/>
-      <c r="B93" s="138"/>
-      <c r="C93" s="138"/>
-      <c r="D93" s="138"/>
-      <c r="E93" s="137"/>
-      <c r="F93" s="137"/>
+    <row r="93" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A93" s="226"/>
+      <c r="B93" s="134"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="134"/>
+      <c r="E93" s="133"/>
+      <c r="F93" s="133"/>
       <c r="G93" s="17"/>
       <c r="H93" s="23"/>
       <c r="I93" s="17"/>
@@ -7788,13 +7751,13 @@
       <c r="P93" s="17"/>
       <c r="Q93" s="17"/>
     </row>
-    <row r="94" spans="1:17" s="18" customFormat="1">
-      <c r="A94" s="230"/>
-      <c r="B94" s="138"/>
-      <c r="C94" s="138"/>
-      <c r="D94" s="138"/>
-      <c r="E94" s="137"/>
-      <c r="F94" s="137"/>
+    <row r="94" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A94" s="226"/>
+      <c r="B94" s="134"/>
+      <c r="C94" s="134"/>
+      <c r="D94" s="134"/>
+      <c r="E94" s="133"/>
+      <c r="F94" s="133"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
@@ -7807,13 +7770,13 @@
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
     </row>
-    <row r="95" spans="1:17" s="18" customFormat="1">
-      <c r="A95" s="230"/>
-      <c r="B95" s="138"/>
-      <c r="C95" s="138"/>
-      <c r="D95" s="138"/>
-      <c r="E95" s="137"/>
-      <c r="F95" s="137"/>
+    <row r="95" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A95" s="226"/>
+      <c r="B95" s="134"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="134"/>
+      <c r="E95" s="133"/>
+      <c r="F95" s="133"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
@@ -7826,13 +7789,13 @@
       <c r="P95" s="17"/>
       <c r="Q95" s="17"/>
     </row>
-    <row r="96" spans="1:17" s="18" customFormat="1">
-      <c r="A96" s="230"/>
-      <c r="B96" s="138"/>
-      <c r="C96" s="138"/>
-      <c r="D96" s="138"/>
-      <c r="E96" s="137"/>
-      <c r="F96" s="137"/>
+    <row r="96" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A96" s="226"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="134"/>
+      <c r="D96" s="134"/>
+      <c r="E96" s="133"/>
+      <c r="F96" s="133"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
@@ -7845,454 +7808,454 @@
       <c r="P96" s="17"/>
       <c r="Q96" s="17"/>
     </row>
-    <row r="97" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A97" s="230"/>
-      <c r="B97" s="138"/>
-      <c r="C97" s="138"/>
-      <c r="D97" s="138"/>
-      <c r="E97" s="137"/>
-      <c r="F97" s="137"/>
+    <row r="97" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A97" s="226"/>
+      <c r="B97" s="134"/>
+      <c r="C97" s="134"/>
+      <c r="D97" s="134"/>
+      <c r="E97" s="133"/>
+      <c r="F97" s="133"/>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
-      <c r="L97" s="33"/>
+      <c r="L97" s="29"/>
       <c r="M97" s="17"/>
       <c r="N97" s="17"/>
       <c r="O97" s="17"/>
       <c r="P97" s="17"/>
       <c r="Q97" s="17"/>
     </row>
-    <row r="98" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A98" s="230"/>
-      <c r="B98" s="138"/>
-      <c r="C98" s="138"/>
-      <c r="D98" s="138"/>
-      <c r="E98" s="137"/>
-      <c r="F98" s="137"/>
+    <row r="98" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A98" s="226"/>
+      <c r="B98" s="134"/>
+      <c r="C98" s="134"/>
+      <c r="D98" s="134"/>
+      <c r="E98" s="133"/>
+      <c r="F98" s="133"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
-      <c r="L98" s="33"/>
+      <c r="L98" s="29"/>
       <c r="M98" s="17"/>
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
       <c r="P98" s="17"/>
       <c r="Q98" s="17"/>
-      <c r="R98" s="132"/>
-      <c r="S98" s="133"/>
-      <c r="T98" s="133"/>
-    </row>
-    <row r="99" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A99" s="230"/>
-      <c r="B99" s="138"/>
-      <c r="C99" s="138"/>
-      <c r="D99" s="138"/>
-      <c r="E99" s="137"/>
-      <c r="F99" s="137"/>
+      <c r="R98" s="128"/>
+      <c r="S98" s="129"/>
+      <c r="T98" s="129"/>
+    </row>
+    <row r="99" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A99" s="226"/>
+      <c r="B99" s="134"/>
+      <c r="C99" s="134"/>
+      <c r="D99" s="134"/>
+      <c r="E99" s="133"/>
+      <c r="F99" s="133"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
-      <c r="L99" s="33"/>
+      <c r="L99" s="29"/>
       <c r="M99" s="17"/>
       <c r="N99" s="17"/>
       <c r="O99" s="17"/>
       <c r="P99" s="17"/>
       <c r="Q99" s="17"/>
-      <c r="R99" s="132"/>
-      <c r="S99" s="133"/>
-      <c r="T99" s="133"/>
-    </row>
-    <row r="100" spans="1:20" s="18" customFormat="1" ht="13.2">
-      <c r="A100" s="230"/>
-      <c r="B100" s="138"/>
-      <c r="C100" s="138"/>
-      <c r="D100" s="138"/>
-      <c r="E100" s="137"/>
-      <c r="F100" s="137"/>
+      <c r="R99" s="128"/>
+      <c r="S99" s="129"/>
+      <c r="T99" s="129"/>
+    </row>
+    <row r="100" spans="1:20" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A100" s="226"/>
+      <c r="B100" s="134"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="134"/>
+      <c r="E100" s="133"/>
+      <c r="F100" s="133"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
-      <c r="L100" s="33"/>
+      <c r="L100" s="29"/>
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
       <c r="Q100" s="17"/>
-      <c r="R100" s="134"/>
-      <c r="S100" s="133"/>
-      <c r="T100" s="133"/>
-    </row>
-    <row r="101" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A101" s="230"/>
-      <c r="B101" s="138"/>
-      <c r="C101" s="138"/>
-      <c r="D101" s="138"/>
-      <c r="E101" s="137"/>
-      <c r="F101" s="137"/>
+      <c r="R100" s="130"/>
+      <c r="S100" s="129"/>
+      <c r="T100" s="129"/>
+    </row>
+    <row r="101" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A101" s="226"/>
+      <c r="B101" s="134"/>
+      <c r="C101" s="134"/>
+      <c r="D101" s="134"/>
+      <c r="E101" s="133"/>
+      <c r="F101" s="133"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
-      <c r="L101" s="33"/>
+      <c r="L101" s="29"/>
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
       <c r="O101" s="17"/>
       <c r="P101" s="17"/>
       <c r="Q101" s="17"/>
-      <c r="R101" s="132"/>
-      <c r="S101" s="133"/>
-      <c r="T101" s="133"/>
-    </row>
-    <row r="102" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A102" s="230"/>
-      <c r="B102" s="138"/>
-      <c r="C102" s="138"/>
-      <c r="D102" s="138"/>
-      <c r="E102" s="137"/>
-      <c r="F102" s="137"/>
+      <c r="R101" s="128"/>
+      <c r="S101" s="129"/>
+      <c r="T101" s="129"/>
+    </row>
+    <row r="102" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A102" s="226"/>
+      <c r="B102" s="134"/>
+      <c r="C102" s="134"/>
+      <c r="D102" s="134"/>
+      <c r="E102" s="133"/>
+      <c r="F102" s="133"/>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
-      <c r="L102" s="33"/>
+      <c r="L102" s="29"/>
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
       <c r="Q102" s="17"/>
-      <c r="R102" s="132"/>
-      <c r="S102" s="133"/>
-      <c r="T102" s="133"/>
-    </row>
-    <row r="103" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A103" s="230"/>
-      <c r="B103" s="138"/>
-      <c r="C103" s="138"/>
-      <c r="D103" s="138"/>
-      <c r="E103" s="137"/>
-      <c r="F103" s="137"/>
+      <c r="R102" s="128"/>
+      <c r="S102" s="129"/>
+      <c r="T102" s="129"/>
+    </row>
+    <row r="103" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A103" s="226"/>
+      <c r="B103" s="134"/>
+      <c r="C103" s="134"/>
+      <c r="D103" s="134"/>
+      <c r="E103" s="133"/>
+      <c r="F103" s="133"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
-      <c r="L103" s="33"/>
+      <c r="L103" s="29"/>
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
       <c r="O103" s="17"/>
       <c r="P103" s="17"/>
       <c r="Q103" s="17"/>
-      <c r="R103" s="132"/>
-      <c r="S103" s="133"/>
-      <c r="T103" s="133"/>
-    </row>
-    <row r="104" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A104" s="230"/>
-      <c r="B104" s="138"/>
-      <c r="C104" s="138"/>
-      <c r="D104" s="138"/>
-      <c r="E104" s="137"/>
-      <c r="F104" s="137"/>
+      <c r="R103" s="128"/>
+      <c r="S103" s="129"/>
+      <c r="T103" s="129"/>
+    </row>
+    <row r="104" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A104" s="226"/>
+      <c r="B104" s="134"/>
+      <c r="C104" s="134"/>
+      <c r="D104" s="134"/>
+      <c r="E104" s="133"/>
+      <c r="F104" s="133"/>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
-      <c r="L104" s="33"/>
+      <c r="L104" s="29"/>
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
       <c r="Q104" s="17"/>
-      <c r="R104" s="132"/>
-      <c r="S104" s="133"/>
-      <c r="T104" s="133"/>
-    </row>
-    <row r="105" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A105" s="230"/>
-      <c r="B105" s="138"/>
-      <c r="C105" s="138"/>
-      <c r="D105" s="138"/>
-      <c r="E105" s="137"/>
-      <c r="F105" s="137"/>
+      <c r="R104" s="128"/>
+      <c r="S104" s="129"/>
+      <c r="T104" s="129"/>
+    </row>
+    <row r="105" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A105" s="226"/>
+      <c r="B105" s="134"/>
+      <c r="C105" s="134"/>
+      <c r="D105" s="134"/>
+      <c r="E105" s="133"/>
+      <c r="F105" s="133"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
-      <c r="L105" s="33"/>
+      <c r="L105" s="29"/>
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="17"/>
-      <c r="R105" s="132"/>
-      <c r="S105" s="133"/>
-      <c r="T105" s="133"/>
-    </row>
-    <row r="106" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A106" s="230"/>
-      <c r="B106" s="138"/>
-      <c r="C106" s="138"/>
-      <c r="D106" s="138"/>
-      <c r="E106" s="137"/>
-      <c r="F106" s="137"/>
+      <c r="R105" s="128"/>
+      <c r="S105" s="129"/>
+      <c r="T105" s="129"/>
+    </row>
+    <row r="106" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A106" s="226"/>
+      <c r="B106" s="134"/>
+      <c r="C106" s="134"/>
+      <c r="D106" s="134"/>
+      <c r="E106" s="133"/>
+      <c r="F106" s="133"/>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
-      <c r="L106" s="33"/>
+      <c r="L106" s="29"/>
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
       <c r="O106" s="17"/>
       <c r="P106" s="17"/>
       <c r="Q106" s="17"/>
-      <c r="R106" s="132"/>
-      <c r="S106" s="133"/>
-      <c r="T106" s="133"/>
-    </row>
-    <row r="107" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A107" s="230"/>
-      <c r="B107" s="138"/>
-      <c r="C107" s="157"/>
-      <c r="D107" s="157"/>
-      <c r="E107" s="137"/>
-      <c r="F107" s="137"/>
+      <c r="R106" s="128"/>
+      <c r="S106" s="129"/>
+      <c r="T106" s="129"/>
+    </row>
+    <row r="107" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A107" s="226"/>
+      <c r="B107" s="134"/>
+      <c r="C107" s="153"/>
+      <c r="D107" s="153"/>
+      <c r="E107" s="133"/>
+      <c r="F107" s="133"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
-      <c r="L107" s="33"/>
+      <c r="L107" s="29"/>
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
       <c r="O107" s="17"/>
       <c r="P107" s="17"/>
       <c r="Q107" s="17"/>
-      <c r="R107" s="132"/>
-      <c r="S107" s="133"/>
-      <c r="T107" s="133"/>
-    </row>
-    <row r="108" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A108" s="230"/>
-      <c r="B108" s="138"/>
-      <c r="C108" s="157"/>
-      <c r="D108" s="157"/>
-      <c r="E108" s="137"/>
-      <c r="F108" s="137"/>
+      <c r="R107" s="128"/>
+      <c r="S107" s="129"/>
+      <c r="T107" s="129"/>
+    </row>
+    <row r="108" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A108" s="226"/>
+      <c r="B108" s="134"/>
+      <c r="C108" s="153"/>
+      <c r="D108" s="153"/>
+      <c r="E108" s="133"/>
+      <c r="F108" s="133"/>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
-      <c r="L108" s="33"/>
+      <c r="L108" s="29"/>
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
       <c r="Q108" s="17"/>
-      <c r="R108" s="132"/>
-      <c r="S108" s="133"/>
-      <c r="T108" s="133"/>
-    </row>
-    <row r="109" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A109" s="230"/>
-      <c r="B109" s="138"/>
-      <c r="C109" s="157"/>
-      <c r="D109" s="157"/>
-      <c r="E109" s="137"/>
-      <c r="F109" s="137"/>
+      <c r="R108" s="128"/>
+      <c r="S108" s="129"/>
+      <c r="T108" s="129"/>
+    </row>
+    <row r="109" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A109" s="226"/>
+      <c r="B109" s="134"/>
+      <c r="C109" s="153"/>
+      <c r="D109" s="153"/>
+      <c r="E109" s="133"/>
+      <c r="F109" s="133"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
-      <c r="L109" s="33"/>
+      <c r="L109" s="29"/>
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
       <c r="O109" s="17"/>
       <c r="P109" s="17"/>
       <c r="Q109" s="17"/>
-      <c r="R109" s="132"/>
-      <c r="S109" s="133"/>
-      <c r="T109" s="133"/>
-    </row>
-    <row r="110" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A110" s="230"/>
-      <c r="B110" s="138"/>
-      <c r="C110" s="157"/>
-      <c r="D110" s="157"/>
-      <c r="E110" s="137"/>
-      <c r="F110" s="137"/>
+      <c r="R109" s="128"/>
+      <c r="S109" s="129"/>
+      <c r="T109" s="129"/>
+    </row>
+    <row r="110" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A110" s="226"/>
+      <c r="B110" s="134"/>
+      <c r="C110" s="153"/>
+      <c r="D110" s="153"/>
+      <c r="E110" s="133"/>
+      <c r="F110" s="133"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
-      <c r="L110" s="33"/>
+      <c r="L110" s="29"/>
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
       <c r="Q110" s="17"/>
-      <c r="R110" s="132"/>
-      <c r="S110" s="133"/>
-      <c r="T110" s="133"/>
-    </row>
-    <row r="111" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A111" s="230"/>
-      <c r="B111" s="138"/>
-      <c r="C111" s="157"/>
-      <c r="D111" s="157"/>
-      <c r="E111" s="137"/>
-      <c r="F111" s="137"/>
+      <c r="R110" s="128"/>
+      <c r="S110" s="129"/>
+      <c r="T110" s="129"/>
+    </row>
+    <row r="111" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A111" s="226"/>
+      <c r="B111" s="134"/>
+      <c r="C111" s="153"/>
+      <c r="D111" s="153"/>
+      <c r="E111" s="133"/>
+      <c r="F111" s="133"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
-      <c r="L111" s="33"/>
+      <c r="L111" s="29"/>
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
-      <c r="R111" s="132"/>
-      <c r="S111" s="133"/>
-      <c r="T111" s="133"/>
-    </row>
-    <row r="112" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A112" s="230"/>
-      <c r="B112" s="138"/>
-      <c r="C112" s="157"/>
-      <c r="D112" s="157"/>
-      <c r="E112" s="137"/>
-      <c r="F112" s="137"/>
+      <c r="R111" s="128"/>
+      <c r="S111" s="129"/>
+      <c r="T111" s="129"/>
+    </row>
+    <row r="112" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A112" s="226"/>
+      <c r="B112" s="134"/>
+      <c r="C112" s="153"/>
+      <c r="D112" s="153"/>
+      <c r="E112" s="133"/>
+      <c r="F112" s="133"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
-      <c r="L112" s="33"/>
+      <c r="L112" s="29"/>
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
-      <c r="R112" s="132"/>
-      <c r="S112" s="133"/>
-      <c r="T112" s="133"/>
-    </row>
-    <row r="113" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A113" s="230"/>
-      <c r="B113" s="138"/>
-      <c r="C113" s="157"/>
-      <c r="D113" s="157"/>
-      <c r="E113" s="137"/>
-      <c r="F113" s="137"/>
+      <c r="R112" s="128"/>
+      <c r="S112" s="129"/>
+      <c r="T112" s="129"/>
+    </row>
+    <row r="113" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A113" s="226"/>
+      <c r="B113" s="134"/>
+      <c r="C113" s="153"/>
+      <c r="D113" s="153"/>
+      <c r="E113" s="133"/>
+      <c r="F113" s="133"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
-      <c r="L113" s="33"/>
+      <c r="L113" s="29"/>
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
-      <c r="R113" s="132"/>
-      <c r="S113" s="133"/>
-      <c r="T113" s="133"/>
-    </row>
-    <row r="114" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A114" s="230"/>
-      <c r="B114" s="138"/>
-      <c r="C114" s="157"/>
-      <c r="D114" s="157"/>
-      <c r="E114" s="137"/>
-      <c r="F114" s="137"/>
+      <c r="R113" s="128"/>
+      <c r="S113" s="129"/>
+      <c r="T113" s="129"/>
+    </row>
+    <row r="114" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A114" s="226"/>
+      <c r="B114" s="134"/>
+      <c r="C114" s="153"/>
+      <c r="D114" s="153"/>
+      <c r="E114" s="133"/>
+      <c r="F114" s="133"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
-      <c r="L114" s="33"/>
+      <c r="L114" s="29"/>
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
-      <c r="R114" s="132"/>
-      <c r="S114" s="133"/>
-      <c r="T114" s="133"/>
-    </row>
-    <row r="115" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A115" s="230"/>
-      <c r="B115" s="138"/>
-      <c r="C115" s="157"/>
-      <c r="D115" s="157"/>
-      <c r="E115" s="137"/>
-      <c r="F115" s="137"/>
+      <c r="R114" s="128"/>
+      <c r="S114" s="129"/>
+      <c r="T114" s="129"/>
+    </row>
+    <row r="115" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A115" s="226"/>
+      <c r="B115" s="134"/>
+      <c r="C115" s="153"/>
+      <c r="D115" s="153"/>
+      <c r="E115" s="133"/>
+      <c r="F115" s="133"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
-      <c r="L115" s="33"/>
+      <c r="L115" s="29"/>
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
-      <c r="R115" s="132"/>
-      <c r="S115" s="133"/>
-      <c r="T115" s="133"/>
-    </row>
-    <row r="116" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A116" s="231"/>
-      <c r="B116" s="138"/>
-      <c r="C116" s="157"/>
-      <c r="D116" s="157"/>
-      <c r="E116" s="137"/>
-      <c r="F116" s="137"/>
+      <c r="R115" s="128"/>
+      <c r="S115" s="129"/>
+      <c r="T115" s="129"/>
+    </row>
+    <row r="116" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A116" s="227"/>
+      <c r="B116" s="134"/>
+      <c r="C116" s="153"/>
+      <c r="D116" s="153"/>
+      <c r="E116" s="133"/>
+      <c r="F116" s="133"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
-      <c r="L116" s="33"/>
+      <c r="L116" s="29"/>
       <c r="M116" s="17"/>
       <c r="N116" s="17"/>
       <c r="O116" s="17"/>
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
-      <c r="R116" s="132"/>
-      <c r="S116" s="133"/>
-      <c r="T116" s="133"/>
-    </row>
-    <row r="117" spans="1:27" s="18" customFormat="1" ht="13.2">
-      <c r="A117" s="147" t="s">
+      <c r="R116" s="128"/>
+      <c r="S116" s="129"/>
+      <c r="T116" s="129"/>
+    </row>
+    <row r="117" spans="1:26" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A117" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="B117" s="147" t="s">
+      <c r="B117" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="C117" s="154" t="s">
+      <c r="C117" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="D117" s="147" t="s">
+      <c r="D117" s="143" t="s">
         <v>105</v>
       </c>
       <c r="E117" s="17"/>
@@ -8301,487 +8264,322 @@
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
-      <c r="K117" s="141"/>
-      <c r="L117" s="142"/>
-      <c r="M117" s="143"/>
-      <c r="N117" s="132"/>
-      <c r="O117" s="133"/>
-      <c r="P117" s="133"/>
-    </row>
-    <row r="118" spans="1:27" s="18" customFormat="1" ht="12">
+      <c r="K117" s="137"/>
+      <c r="L117" s="138"/>
+      <c r="M117" s="139"/>
+      <c r="N117" s="128"/>
+      <c r="O117" s="129"/>
+      <c r="P117" s="129"/>
+    </row>
+    <row r="118" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A118" s="17"/>
       <c r="B118" s="17">
         <v>1</v>
       </c>
-      <c r="C118" s="32"/>
-      <c r="D118" s="141"/>
-      <c r="E118" s="140"/>
-      <c r="F118" s="140"/>
-      <c r="G118" s="140"/>
-      <c r="H118" s="141"/>
-      <c r="J118" s="141"/>
-      <c r="K118" s="29"/>
-      <c r="L118" s="29"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="137"/>
+      <c r="E118" s="136"/>
+      <c r="F118" s="136"/>
+      <c r="G118" s="136"/>
+      <c r="H118" s="137"/>
+      <c r="J118" s="137"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
       <c r="M118" s="17"/>
-      <c r="N118" s="132"/>
-      <c r="O118" s="133"/>
-      <c r="P118" s="133"/>
+      <c r="N118" s="128"/>
+      <c r="O118" s="129"/>
+      <c r="P118" s="129"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="119" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A119" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B119" s="17">
         <v>1</v>
       </c>
-      <c r="C119" s="33"/>
+      <c r="C119" s="29"/>
       <c r="D119" s="17"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="90"/>
-      <c r="L119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="86"/>
+      <c r="L119" s="25"/>
       <c r="M119" s="17"/>
-      <c r="N119" s="132"/>
-      <c r="O119" s="133"/>
-      <c r="P119" s="133"/>
+      <c r="N119" s="128"/>
+      <c r="O119" s="129"/>
+      <c r="P119" s="129"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="120" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A120" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B120" s="17">
         <v>2</v>
       </c>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="90"/>
-      <c r="I120" s="91"/>
-      <c r="J120" s="90"/>
-      <c r="K120" s="35"/>
-      <c r="L120" s="29"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="86"/>
+      <c r="I120" s="87"/>
+      <c r="J120" s="86"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="25"/>
       <c r="M120" s="17"/>
-      <c r="N120" s="132"/>
-      <c r="O120" s="133"/>
-      <c r="P120" s="133"/>
+      <c r="N120" s="128"/>
+      <c r="O120" s="129"/>
+      <c r="P120" s="129"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="121" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A121" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B121" s="17">
         <v>3</v>
       </c>
-      <c r="C121" s="32"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="35"/>
-      <c r="K121" s="91"/>
-      <c r="L121" s="29"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="87"/>
+      <c r="L121" s="25"/>
       <c r="M121" s="17"/>
-      <c r="N121" s="132"/>
-      <c r="O121" s="133"/>
-      <c r="P121" s="133"/>
+      <c r="N121" s="128"/>
+      <c r="O121" s="129"/>
+      <c r="P121" s="129"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="122" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A122" s="17"/>
       <c r="B122" s="17"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="91"/>
-      <c r="I122" s="91"/>
-      <c r="J122" s="91"/>
-      <c r="K122" s="91"/>
-      <c r="L122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="87"/>
+      <c r="I122" s="87"/>
+      <c r="J122" s="87"/>
+      <c r="K122" s="87"/>
+      <c r="L122" s="25"/>
       <c r="M122" s="17"/>
-      <c r="N122" s="132"/>
-      <c r="O122" s="133"/>
-      <c r="P122" s="133"/>
+      <c r="N122" s="128"/>
+      <c r="O122" s="129"/>
+      <c r="P122" s="129"/>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="123" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A123" s="17"/>
       <c r="B123" s="17"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="91"/>
-      <c r="I123" s="91"/>
-      <c r="J123" s="91"/>
-      <c r="K123" s="90"/>
-      <c r="L123" s="29"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="87"/>
+      <c r="I123" s="87"/>
+      <c r="J123" s="87"/>
+      <c r="K123" s="86"/>
+      <c r="L123" s="25"/>
       <c r="M123" s="17"/>
-      <c r="N123" s="132"/>
-      <c r="O123" s="133"/>
-      <c r="P123" s="133"/>
+      <c r="N123" s="128"/>
+      <c r="O123" s="129"/>
+      <c r="P123" s="129"/>
       <c r="Q123" s="1"/>
     </row>
-    <row r="124" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="124" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A124" s="17"/>
-      <c r="B124" s="90"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="90"/>
-      <c r="I124" s="90"/>
-      <c r="J124" s="29"/>
-      <c r="K124" s="91"/>
-      <c r="L124" s="29"/>
+      <c r="B124" s="86"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="86"/>
+      <c r="I124" s="86"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="87"/>
+      <c r="L124" s="25"/>
       <c r="M124" s="17"/>
-      <c r="N124" s="132"/>
-      <c r="O124" s="133"/>
-      <c r="P124" s="133"/>
+      <c r="N124" s="128"/>
+      <c r="O124" s="129"/>
+      <c r="P124" s="129"/>
       <c r="Q124" s="1"/>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:27" ht="12">
-      <c r="A125" s="97"/>
-      <c r="B125" s="91"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="91"/>
-      <c r="I125" s="91"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="34"/>
-      <c r="L125" s="29"/>
+    <row r="125" spans="1:26" ht="12" hidden="1">
+      <c r="A125" s="93"/>
+      <c r="B125" s="87"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="87"/>
+      <c r="I125" s="87"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="25"/>
       <c r="M125" s="17"/>
-      <c r="N125" s="135"/>
-      <c r="O125" s="136"/>
-      <c r="P125" s="136"/>
+      <c r="N125" s="131"/>
+      <c r="O125" s="132"/>
+      <c r="P125" s="132"/>
       <c r="W125" s="18"/>
       <c r="X125" s="18"/>
       <c r="Y125" s="18"/>
       <c r="Z125" s="18"/>
-      <c r="AA125" s="18"/>
-    </row>
-    <row r="126" spans="1:27" ht="12">
-      <c r="A126" s="97"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="35"/>
-      <c r="L126" s="29"/>
+    </row>
+    <row r="126" spans="1:26" ht="12" hidden="1">
+      <c r="A126" s="93"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="31"/>
+      <c r="L126" s="25"/>
       <c r="M126" s="17"/>
-      <c r="N126" s="135"/>
-      <c r="O126" s="136"/>
-      <c r="P126" s="136"/>
-    </row>
-    <row r="127" spans="1:27" ht="12">
-      <c r="A127" s="97"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="29"/>
-      <c r="K127" s="91"/>
-      <c r="L127" s="29"/>
+      <c r="N126" s="131"/>
+      <c r="O126" s="132"/>
+      <c r="P126" s="132"/>
+    </row>
+    <row r="127" spans="1:26" ht="12" hidden="1">
+      <c r="A127" s="93"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="87"/>
+      <c r="L127" s="25"/>
       <c r="M127" s="17"/>
     </row>
-    <row r="128" spans="1:27" ht="12">
-      <c r="A128" s="97"/>
-      <c r="B128" s="91"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="91"/>
-      <c r="I128" s="91"/>
-      <c r="J128" s="29"/>
-      <c r="K128" s="91"/>
-      <c r="L128" s="29"/>
+    <row r="128" spans="1:26" ht="12" hidden="1">
+      <c r="A128" s="93"/>
+      <c r="B128" s="87"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="87"/>
+      <c r="I128" s="87"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="87"/>
+      <c r="L128" s="25"/>
       <c r="M128" s="17"/>
     </row>
-    <row r="129" spans="1:13" ht="12">
-      <c r="A129" s="97"/>
-      <c r="B129" s="91"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="91"/>
-      <c r="I129" s="91"/>
-      <c r="J129" s="29"/>
-      <c r="K129" s="91"/>
-      <c r="L129" s="29"/>
+    <row r="129" spans="1:13" ht="12" hidden="1">
+      <c r="A129" s="93"/>
+      <c r="B129" s="87"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="87"/>
+      <c r="I129" s="87"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="87"/>
+      <c r="L129" s="25"/>
       <c r="M129" s="17"/>
     </row>
-    <row r="130" spans="1:13" ht="12">
-      <c r="A130" s="97"/>
-      <c r="B130" s="91"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="91"/>
-      <c r="I130" s="91"/>
-      <c r="J130" s="29"/>
-      <c r="K130" s="91"/>
+    <row r="130" spans="1:13" ht="12" hidden="1">
+      <c r="A130" s="93"/>
+      <c r="B130" s="87"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="87"/>
+      <c r="I130" s="87"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="87"/>
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>
     </row>
-    <row r="131" spans="1:13" ht="12">
-      <c r="A131" s="97"/>
-      <c r="B131" s="91"/>
-      <c r="C131" s="34"/>
+    <row r="131" spans="1:13" ht="12" hidden="1">
+      <c r="A131" s="93"/>
+      <c r="B131" s="87"/>
+      <c r="C131" s="30"/>
       <c r="D131" s="17"/>
-      <c r="E131" s="91"/>
+      <c r="E131" s="87"/>
       <c r="F131" s="17"/>
-      <c r="G131" s="91"/>
-      <c r="H131" s="91"/>
-      <c r="I131" s="91"/>
+      <c r="G131" s="87"/>
+      <c r="H131" s="87"/>
+      <c r="I131" s="87"/>
       <c r="J131" s="17"/>
-      <c r="K131" s="34"/>
+      <c r="K131" s="30"/>
       <c r="L131" s="17"/>
       <c r="M131" s="17"/>
     </row>
-    <row r="132" spans="1:13" ht="12">
-      <c r="A132" s="97"/>
-      <c r="B132" s="34"/>
-      <c r="C132" s="91"/>
+    <row r="132" spans="1:13" ht="12" hidden="1">
+      <c r="A132" s="93"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="87"/>
       <c r="D132" s="17"/>
-      <c r="E132" s="34"/>
+      <c r="E132" s="30"/>
       <c r="F132" s="17"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="34"/>
-      <c r="I132" s="34"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
       <c r="J132" s="17"/>
-      <c r="K132" s="34"/>
-      <c r="L132" s="97"/>
-      <c r="M132" s="97"/>
-    </row>
-    <row r="133" spans="1:13" ht="12">
-      <c r="A133" s="97"/>
-      <c r="B133" s="34"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="97"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="97"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="34"/>
-      <c r="J133" s="97"/>
-      <c r="K133" s="91"/>
-      <c r="L133" s="97"/>
-      <c r="M133" s="97"/>
-    </row>
-    <row r="134" spans="1:13" ht="12">
-      <c r="A134" s="97"/>
-      <c r="B134" s="91"/>
-      <c r="C134" s="97"/>
-      <c r="D134" s="97"/>
-      <c r="E134" s="91"/>
-      <c r="F134" s="97"/>
-      <c r="G134" s="91"/>
-      <c r="H134" s="91"/>
-      <c r="I134" s="91"/>
-      <c r="J134" s="97"/>
-      <c r="K134" s="97"/>
-      <c r="L134" s="97"/>
-      <c r="M134" s="97"/>
-    </row>
-    <row r="137" spans="1:13" ht="12">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="27"/>
-    </row>
-    <row r="138" spans="1:13" ht="12">
-      <c r="A138" s="25"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="27"/>
-    </row>
-    <row r="139" spans="1:13" ht="12">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="27"/>
-    </row>
-    <row r="140" spans="1:13" ht="12">
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="27"/>
-    </row>
-    <row r="141" spans="1:13" ht="12">
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="27"/>
-    </row>
-    <row r="142" spans="1:13" ht="12">
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="27"/>
-    </row>
-    <row r="143" spans="1:13" ht="12">
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="27"/>
-    </row>
-    <row r="144" spans="1:13" ht="12">
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="27"/>
-    </row>
-    <row r="145" spans="3:6" ht="12">
-      <c r="C145" s="25"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="27"/>
-    </row>
-    <row r="146" spans="3:6" ht="12">
-      <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="27"/>
-    </row>
-    <row r="147" spans="3:6" ht="12">
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="27"/>
-    </row>
-    <row r="148" spans="3:6" ht="12">
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="26"/>
-      <c r="F148" s="27"/>
-    </row>
-    <row r="149" spans="3:6" ht="12">
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="27"/>
-    </row>
-    <row r="150" spans="3:6" ht="12">
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="27"/>
-    </row>
-    <row r="151" spans="3:6" ht="12">
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="27"/>
-    </row>
-    <row r="152" spans="3:6" ht="12">
-      <c r="C152" s="25"/>
-      <c r="D152" s="25"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="27"/>
-    </row>
-    <row r="153" spans="3:6" ht="12">
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="27"/>
-    </row>
-    <row r="154" spans="3:6" ht="12">
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="27"/>
-    </row>
-    <row r="155" spans="3:6" ht="12">
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="27"/>
-    </row>
-    <row r="156" spans="3:6" ht="12">
-      <c r="C156" s="25"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="27"/>
-    </row>
-    <row r="157" spans="3:6" ht="12">
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="27"/>
-    </row>
-    <row r="158" spans="3:6" ht="12">
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="27"/>
-    </row>
-    <row r="159" spans="3:6" ht="12">
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="27"/>
-    </row>
-    <row r="160" spans="3:6" ht="12">
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="27"/>
-    </row>
-    <row r="161" spans="3:6" ht="12">
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="27"/>
-    </row>
-    <row r="162" spans="3:6" ht="12">
-      <c r="C162" s="25"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="26"/>
-      <c r="F162" s="27"/>
-    </row>
+      <c r="K132" s="30"/>
+      <c r="L132" s="93"/>
+      <c r="M132" s="93"/>
+    </row>
+    <row r="133" spans="1:13" ht="12" hidden="1">
+      <c r="A133" s="93"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="87"/>
+      <c r="D133" s="93"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="93"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="93"/>
+      <c r="K133" s="87"/>
+      <c r="L133" s="93"/>
+      <c r="M133" s="93"/>
+    </row>
+    <row r="134" spans="1:13" ht="12" hidden="1">
+      <c r="A134" s="93"/>
+      <c r="B134" s="87"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="93"/>
+      <c r="E134" s="87"/>
+      <c r="F134" s="93"/>
+      <c r="G134" s="87"/>
+      <c r="H134" s="87"/>
+      <c r="I134" s="87"/>
+      <c r="J134" s="93"/>
+      <c r="K134" s="93"/>
+      <c r="L134" s="93"/>
+      <c r="M134" s="93"/>
+    </row>
+    <row r="135" spans="1:13" hidden="1"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H141:H143">
-    <sortCondition ref="H141:H143"/>
-  </sortState>
   <mergeCells count="111">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:F6"/>
@@ -8896,53 +8694,58 @@
     <mergeCell ref="N29:O29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="14">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{7946ECDF-FB59-45F6-B55F-44E620757856}"/>
-    <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:P13 N7:P8 N17:P18 N22:P25" xr:uid="{C4367A6D-5090-4CCA-BF64-32158A1503A4}"/>
-    <dataValidation type="textLength" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="製品コード入力ミス" error="製品コードを4桁で入力してください。_x000a_例：0000～9999" sqref="B3" xr:uid="{A580DE92-9FE5-420A-9A00-B690F61F4468}">
+  <dataValidations disablePrompts="1" count="16">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{2E4308DA-C9D0-4453-80E7-65B94060C03C}"/>
+    <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:P13 N7:P8 N17:P18 N22:P25" xr:uid="{38082B69-6CD3-4A6B-A4B2-BB86A974ADAF}"/>
+    <dataValidation type="textLength" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="製品コード入力ミス" error="製品コードを4桁で入力してください。_x000a_例：0000～9999" sqref="B3" xr:uid="{37AEF975-20C4-45D2-9656-C84DBF4E9AF2}">
       <formula1>5</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4 P3 I8 I13 G7:G8 G12:G13 G17:G18 G22:G25 I7 I12 J7:J8" xr:uid="{0FCB774B-BB35-4F79-BFCE-499C315D1A30}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26" xr:uid="{22DE2A02-C8AE-4769-A95B-4243BC2FABBA}">
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4 P3 I8 I13 G7:G8 G12:G13 G17:G18 G22:G25 I7 I12 J7:J8" xr:uid="{235144EF-F55E-4D67-AB7D-5266BEC916B2}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26" xr:uid="{FBB59D3C-D5CF-4FD6-ABD6-1CA97A4DFD6D}">
       <formula1>"　○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:B8 A12:B13 A17:B18 A22:B25" xr:uid="{1F48F72D-1B8B-4866-823C-CB0C11C391EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:B8 A12:B13 A17:B18 A22:B25" xr:uid="{164DAA30-77D8-4750-8052-63F566A88406}">
       <formula1>OFFSET(pulldown_level1,0,U7,1,W7)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C12:C13 C17:C18 C22:C25" xr:uid="{E8B3CA0D-4AC5-468A-853F-6113CA64AD6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C12:C13 C17:C18 C22:C25" xr:uid="{56164AB0-94C3-4F21-A836-A8376906A825}">
       <formula1>OFFSET(pulldown_level2,0,U7+X7,Y7,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:F8 D12:F13 D17:E18 D22:E25" xr:uid="{EE2BC67C-FB25-4143-B2EC-8309A9833639}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:K4" xr:uid="{B200E195-28B8-4491-AE5D-1CD96DA4DE6D}">
+      <formula1>OFFSET(pulldown_dept_member,0,0,COUNTA(OFFSET(pulldown_dept_member,0,0,100,1))+1,1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{057EA57A-5E55-4073-9247-F44D44E87BDC}">
+      <formula1>OFFSET(pulldown_mrkt_dev,0,-1,1,dept_max_count+1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:G4" xr:uid="{A8108482-8738-4A58-A8C4-1EA2BCD1C5F2}">
+      <formula1>OFFSET(pulldown_mrkt_dev,1,MATCH(inchargegroupcode,OFFSET(pulldown_mrkt_dev,0,0,1,dept_max_count+1),0)-1,COUNTA(OFFSET(pulldown_mrkt_dev,1,MATCH(inchargegroupcode,OFFSET(pulldown_mrkt_dev,0,0,1,dept_max_count+1),0)-1,999,1))+1,1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H12:H13 H17:H18" xr:uid="{C7A479BA-AFA2-4B74-A051-03E6AE392C06}">
+      <formula1>OFFSET(JPYEN_display,0,0,num_of_monetary,1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8 H22:H24 H25" xr:uid="{E3D331C6-55A8-4C04-963F-C9EDE94E26C5}">
+      <formula1>OFFSET(JPYEN_display,0,0,num_of_monetary,1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17 F18 F22 F23" xr:uid="{BBF646B2-0D82-4081-BE93-13E8ADC82832}">
+      <formula1>OFFSET(hdn_list_payoff_blank,0,0,2,1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D8 D22:D25 D17:D18 D12:D13" xr:uid="{25311D60-C76F-4BE9-B430-130F09D31405}">
       <formula1>OFFSET(pulldown_company,0,U7+X7,Z7,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:K4" xr:uid="{79D62BAE-F637-42E7-9F0A-AB4E308E4F96}">
-      <formula1>OFFSET(pulldown_dept_member,0,0,COUNTA(OFFSET(pulldown_dept_member,0,0,100,1))+1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E8 E22:E25 E17:E18 E12:E13" xr:uid="{6656878B-4482-4DBA-A836-492E2C003804}">
+      <formula1>OFFSET(pulldown_company,0,V7+Y7,#REF!,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{08FD290D-A307-41ED-BED1-D498B4429D49}">
-      <formula1>OFFSET(pulldown_mrkt_dev,0,-1,1,dept_max_count+1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:G4" xr:uid="{C3CFDF7A-1F0F-4EBB-8C8A-2B62D0E2F094}">
-      <formula1>OFFSET(pulldown_mrkt_dev,1,MATCH(inchargegroupcode,OFFSET(pulldown_mrkt_dev,0,0,1,dept_max_count+1),0)-1,COUNTA(OFFSET(pulldown_mrkt_dev,1,MATCH(inchargegroupcode,OFFSET(pulldown_mrkt_dev,0,0,1,dept_max_count+1),0)-1,999,1))+1,1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H12:H13 H17:H18" xr:uid="{49AF1527-92C3-4639-AA21-DA4D96FBC249}">
-      <formula1>OFFSET(JPYEN_display,0,0,num_of_monetary,1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8 H22:H24 H25" xr:uid="{B68D8E7E-81B8-4801-A609-08FECFF51185}">
-      <formula1>OFFSET(JPYEN_display,0,0,num_of_monetary,1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17 F18 F22 F23" xr:uid="{41A09E68-183F-4B82-8E2F-F77E07F7195F}">
-      <formula1>OFFSET(hdn_list_payoff_blank,0,0,2,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8 F12:F13" xr:uid="{63BECDC0-486F-4401-A27F-50CA09F57098}">
+      <formula1>OFFSET(pulldown_company,0,W7+Z7,#REF!,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="61" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="20" max="15" man="1"/>
     <brk id="116" max="16383" man="1"/>
   </rowBreaks>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8956,781 +8759,781 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="165" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="165" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.88671875" style="165" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="165" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="165" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="165" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="161" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="161" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.88671875" style="161" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="161" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="161" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="161" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="161" t="s">
+      <c r="E1" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="161" t="s">
+      <c r="F1" s="157" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="161">
+      <c r="A2" s="157">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="158">
         <v>43616</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="157" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="161">
+      <c r="A3" s="157">
         <f t="shared" ref="A3:A45" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="158">
         <v>43616</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="161" t="s">
+      <c r="F3" s="157" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="161">
+      <c r="A4" s="157">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="158">
         <v>43616</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="161" t="s">
+      <c r="E4" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="161"/>
+      <c r="F4" s="157"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="161">
+      <c r="A5" s="157">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="158">
         <v>43631</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="161" t="s">
+      <c r="D5" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="161" t="s">
+      <c r="E5" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="161" t="s">
+      <c r="F5" s="157" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="161">
+      <c r="A6" s="157">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="158">
         <v>43631</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="161" t="s">
+      <c r="D6" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="161" t="s">
+      <c r="E6" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="161" t="s">
+      <c r="F6" s="157" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.6">
-      <c r="A7" s="161">
+      <c r="A7" s="157">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="158">
         <v>43649</v>
       </c>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="161" t="s">
+      <c r="D7" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="161" t="s">
+      <c r="F7" s="157" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4">
-      <c r="A8" s="161">
+      <c r="A8" s="157">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="158">
         <v>43651</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="161" t="s">
+      <c r="E8" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="161" t="s">
+      <c r="F8" s="157" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="52.8">
-      <c r="A9" s="161">
+      <c r="A9" s="157">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="158">
         <v>43731</v>
       </c>
-      <c r="C9" s="163" t="s">
+      <c r="C9" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="161" t="s">
+      <c r="E9" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="161" t="s">
+      <c r="F9" s="157" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="161">
+      <c r="A10" s="157">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="158">
         <v>43875</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
     </row>
     <row r="11" spans="1:6" ht="26.4">
-      <c r="A11" s="161">
+      <c r="A11" s="157">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="158">
         <v>43888</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
     </row>
     <row r="12" spans="1:6" ht="145.19999999999999">
-      <c r="A12" s="161">
+      <c r="A12" s="157">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="158">
         <v>43888</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="161">
+      <c r="A13" s="157">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="158">
         <v>43888</v>
       </c>
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
     </row>
     <row r="14" spans="1:6" ht="39.6">
-      <c r="A14" s="161">
+      <c r="A14" s="157">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="158">
         <v>43888</v>
       </c>
-      <c r="C14" s="163" t="s">
+      <c r="C14" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
     </row>
     <row r="15" spans="1:6" ht="26.4">
-      <c r="A15" s="161">
+      <c r="A15" s="157">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="158">
         <v>43888</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="161" t="s">
+      <c r="D15" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
     </row>
     <row r="16" spans="1:6" ht="79.2">
-      <c r="A16" s="161">
+      <c r="A16" s="157">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="162">
+      <c r="B16" s="158">
         <v>43888</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="161">
+      <c r="A17" s="157">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="158">
         <v>43888</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="161" t="s">
+      <c r="D17" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
     </row>
     <row r="18" spans="1:6" ht="26.4">
-      <c r="A18" s="161">
+      <c r="A18" s="157">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="158">
         <v>43888</v>
       </c>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="161" t="s">
+      <c r="D18" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="161">
+      <c r="A19" s="157">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="158">
         <v>43888</v>
       </c>
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="161" t="s">
+      <c r="D19" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="161">
+      <c r="A20" s="157">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="158">
         <v>43888</v>
       </c>
-      <c r="C20" s="163" t="s">
+      <c r="C20" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="161" t="s">
+      <c r="D20" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
     </row>
     <row r="21" spans="1:6" ht="26.4">
-      <c r="A21" s="161">
+      <c r="A21" s="157">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="162">
+      <c r="B21" s="158">
         <v>43889</v>
       </c>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
     </row>
     <row r="22" spans="1:6" ht="26.4">
-      <c r="A22" s="161">
+      <c r="A22" s="157">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="162">
+      <c r="B22" s="158">
         <v>43889</v>
       </c>
-      <c r="C22" s="163" t="s">
+      <c r="C22" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="161" t="s">
+      <c r="D22" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
     </row>
     <row r="23" spans="1:6" ht="26.4">
-      <c r="A23" s="161">
+      <c r="A23" s="157">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="158">
         <v>43889</v>
       </c>
-      <c r="C23" s="163" t="s">
+      <c r="C23" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="161" t="s">
+      <c r="D23" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="161">
+      <c r="A24" s="157">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="162">
+      <c r="B24" s="158">
         <v>43889</v>
       </c>
-      <c r="C24" s="163" t="s">
+      <c r="C24" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="161" t="s">
+      <c r="D24" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="161">
+      <c r="A25" s="157">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="158">
         <v>43889</v>
       </c>
-      <c r="C25" s="163" t="s">
+      <c r="C25" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="161" t="s">
+      <c r="D25" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="161">
+      <c r="A26" s="157">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="162">
+      <c r="B26" s="158">
         <v>43889</v>
       </c>
-      <c r="C26" s="163" t="s">
+      <c r="C26" s="159" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="161" t="s">
+      <c r="D26" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="161">
+      <c r="A27" s="157">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="158">
         <v>43889</v>
       </c>
-      <c r="C27" s="163" t="s">
+      <c r="C27" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="161" t="s">
+      <c r="D27" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
     </row>
     <row r="28" spans="1:6" ht="171.6">
-      <c r="A28" s="161">
+      <c r="A28" s="157">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="162">
+      <c r="B28" s="158">
         <v>43889</v>
       </c>
-      <c r="C28" s="163" t="s">
+      <c r="C28" s="159" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="161" t="s">
+      <c r="D28" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="163" t="s">
+      <c r="E28" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="161"/>
+      <c r="F28" s="157"/>
     </row>
     <row r="29" spans="1:6" ht="26.4">
-      <c r="A29" s="161">
+      <c r="A29" s="157">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="158">
         <v>43889</v>
       </c>
-      <c r="C29" s="163" t="s">
+      <c r="C29" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="161">
+      <c r="A30" s="157">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="162">
+      <c r="B30" s="158">
         <v>43889</v>
       </c>
-      <c r="C30" s="163" t="s">
+      <c r="C30" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="161" t="s">
+      <c r="D30" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
     </row>
     <row r="31" spans="1:6" ht="39.6">
-      <c r="A31" s="161">
+      <c r="A31" s="157">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="164">
+      <c r="B31" s="160">
         <v>43892</v>
       </c>
-      <c r="C31" s="163" t="s">
+      <c r="C31" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
     </row>
     <row r="32" spans="1:6" ht="26.4">
-      <c r="A32" s="161">
+      <c r="A32" s="157">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="164">
+      <c r="B32" s="160">
         <v>43892</v>
       </c>
-      <c r="C32" s="163" t="s">
+      <c r="C32" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="161">
+      <c r="A33" s="157">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="164">
+      <c r="B33" s="160">
         <v>43892</v>
       </c>
-      <c r="C33" s="163" t="s">
+      <c r="C33" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="161">
+      <c r="A34" s="157">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="164">
+      <c r="B34" s="160">
         <v>43892</v>
       </c>
-      <c r="C34" s="163" t="s">
+      <c r="C34" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="161">
+      <c r="A35" s="157">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="164">
+      <c r="B35" s="160">
         <v>43893</v>
       </c>
-      <c r="C35" s="163" t="s">
+      <c r="C35" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="161">
+      <c r="A36" s="157">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="164">
+      <c r="B36" s="160">
         <v>43893</v>
       </c>
-      <c r="C36" s="163" t="s">
+      <c r="C36" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
     </row>
     <row r="37" spans="1:6" ht="26.4">
-      <c r="A37" s="161">
+      <c r="A37" s="157">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="164">
+      <c r="B37" s="160">
         <v>43893</v>
       </c>
-      <c r="C37" s="163" t="s">
+      <c r="C37" s="159" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
     </row>
     <row r="38" spans="1:6" ht="26.4">
-      <c r="A38" s="161">
+      <c r="A38" s="157">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="164">
+      <c r="B38" s="160">
         <v>43893</v>
       </c>
-      <c r="C38" s="163" t="s">
+      <c r="C38" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="161">
+      <c r="A39" s="157">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="164">
+      <c r="B39" s="160">
         <v>43893</v>
       </c>
-      <c r="C39" s="163" t="s">
+      <c r="C39" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="161">
+      <c r="A40" s="157">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="164">
+      <c r="B40" s="160">
         <v>43906</v>
       </c>
-      <c r="C40" s="163" t="s">
+      <c r="C40" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
     </row>
     <row r="41" spans="1:6" ht="39.6">
-      <c r="A41" s="161">
+      <c r="A41" s="157">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="164">
+      <c r="B41" s="160">
         <v>43906</v>
       </c>
-      <c r="C41" s="163" t="s">
+      <c r="C41" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="161"/>
-      <c r="E41" s="161"/>
-      <c r="F41" s="161"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="161">
+      <c r="A42" s="157">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="164">
+      <c r="B42" s="160">
         <v>43906</v>
       </c>
-      <c r="C42" s="163" t="s">
+      <c r="C42" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
     </row>
     <row r="43" spans="1:6" ht="26.4">
-      <c r="A43" s="161">
+      <c r="A43" s="157">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="164">
+      <c r="B43" s="160">
         <v>43906</v>
       </c>
-      <c r="C43" s="163" t="s">
+      <c r="C43" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="161">
+      <c r="A44" s="157">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="164">
+      <c r="B44" s="160">
         <v>43906</v>
       </c>
-      <c r="C44" s="163" t="s">
+      <c r="C44" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="161"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="161"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
     </row>
     <row r="45" spans="1:6" ht="26.4">
-      <c r="A45" s="161">
+      <c r="A45" s="157">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="164">
+      <c r="B45" s="160">
         <v>43906</v>
       </c>
-      <c r="C45" s="163" t="s">
+      <c r="C45" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="161"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="161"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030E1B97-E73E-401C-BB7D-E8286C44C320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4DCD85-E851-4E38-85C0-BC48D9FE19FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2083,8 +2083,8 @@
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -3886,11 +3886,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -3906,7 +3906,7 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -3914,7 +3914,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -4179,18 +4179,18 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="5" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5213,8 +5213,8 @@
   </sheetPr>
   <dimension ref="A1:Z135"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -8694,7 +8694,7 @@
     <mergeCell ref="N29:O29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations disablePrompts="1" count="16">
+  <dataValidations disablePrompts="1" count="15">
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{2E4308DA-C9D0-4453-80E7-65B94060C03C}"/>
     <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:P13 N7:P8 N17:P18 N22:P25" xr:uid="{38082B69-6CD3-4A6B-A4B2-BB86A974ADAF}"/>
     <dataValidation type="textLength" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="製品コード入力ミス" error="製品コードを4桁で入力してください。_x000a_例：0000～9999" sqref="B3" xr:uid="{37AEF975-20C4-45D2-9656-C84DBF4E9AF2}">
@@ -8732,15 +8732,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D8 D22:D25 D17:D18 D12:D13" xr:uid="{25311D60-C76F-4BE9-B430-130F09D31405}">
       <formula1>OFFSET(pulldown_company,0,U7+X7,Z7,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E8 E22:E25 E17:E18 E12:E13" xr:uid="{6656878B-4482-4DBA-A836-492E2C003804}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E25 E17:E18 E7:F8 E12:F13" xr:uid="{6656878B-4482-4DBA-A836-492E2C003804}">
       <formula1>OFFSET(pulldown_company,0,V7+Y7,#REF!,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8 F12:F13" xr:uid="{63BECDC0-486F-4401-A27F-50CA09F57098}">
-      <formula1>OFFSET(pulldown_company,0,W7+Z7,#REF!,1)</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.31496062992125984" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="20" max="15" man="1"/>

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4DCD85-E851-4E38-85C0-BC48D9FE19FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2640E2D7-7AF7-489E-9B25-3AE8890C5B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4207,71 +4207,456 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
@@ -4291,9 +4676,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4302,6 +4684,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4314,6 +4702,18 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="5" fontId="6" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4332,453 +4732,53 @@
       <alignment horizontal="center" vertical="top" textRotation="255"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5214,7 +5214,7 @@
   <dimension ref="A1:Z135"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -5255,18 +5255,18 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="359"/>
-      <c r="C2" s="359"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="344" t="s">
+      <c r="E2" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
       <c r="N2" s="35"/>
@@ -5281,19 +5281,19 @@
       <c r="C3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="345"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="347"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="227"/>
       <c r="I3" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="345"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="347"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="227"/>
       <c r="O3" s="79" t="s">
         <v>26</v>
       </c>
@@ -5303,24 +5303,24 @@
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="348"/>
-      <c r="C4" s="349"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="229"/>
       <c r="D4" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="350"/>
-      <c r="F4" s="351"/>
-      <c r="G4" s="352"/>
-      <c r="H4" s="353" t="s">
+      <c r="E4" s="230"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="354"/>
-      <c r="J4" s="355"/>
-      <c r="K4" s="355"/>
-      <c r="L4" s="353" t="s">
+      <c r="I4" s="234"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="235"/>
+      <c r="L4" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="354"/>
+      <c r="M4" s="234"/>
       <c r="N4" s="68"/>
       <c r="O4" s="75" t="s">
         <v>77</v>
@@ -5346,36 +5346,36 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A5" s="356"/>
-      <c r="B5" s="357"/>
-      <c r="C5" s="357"/>
-      <c r="D5" s="357"/>
-      <c r="E5" s="357"/>
-      <c r="F5" s="357"/>
-      <c r="G5" s="357"/>
-      <c r="H5" s="357"/>
-      <c r="I5" s="357"/>
-      <c r="J5" s="357"/>
-      <c r="K5" s="357"/>
-      <c r="L5" s="357"/>
-      <c r="M5" s="357"/>
-      <c r="N5" s="357"/>
-      <c r="O5" s="357"/>
-      <c r="P5" s="358"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="237"/>
+      <c r="J5" s="237"/>
+      <c r="K5" s="237"/>
+      <c r="L5" s="237"/>
+      <c r="M5" s="237"/>
+      <c r="N5" s="237"/>
+      <c r="O5" s="237"/>
+      <c r="P5" s="238"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="360" t="s">
+      <c r="A6" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="361"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="362" t="s">
+      <c r="D6" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="363"/>
-      <c r="F6" s="361"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="204"/>
       <c r="G6" s="57" t="s">
         <v>7</v>
       </c>
@@ -5388,18 +5388,18 @@
       <c r="J6" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="364" t="s">
+      <c r="K6" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="365"/>
+      <c r="L6" s="208"/>
       <c r="M6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="341" t="s">
+      <c r="N6" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="342"/>
-      <c r="P6" s="343"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="211"/>
       <c r="Q6" s="145" t="s">
         <v>79</v>
       </c>
@@ -5432,27 +5432,27 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A7" s="366"/>
-      <c r="B7" s="367"/>
+      <c r="A7" s="212"/>
+      <c r="B7" s="213"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="368"/>
-      <c r="E7" s="369"/>
-      <c r="F7" s="370"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="216"/>
       <c r="G7" s="36"/>
       <c r="H7" s="42" t="s">
         <v>144</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="71"/>
-      <c r="K7" s="321">
-        <f>IFERROR(ROUNDDOWN(G7*ROUNDDOWN(I7,4)*J7,2),"")</f>
+      <c r="K7" s="217">
+        <f>IFERROR(ROUNDDOWN(G7*ROUNDDOWN(I7,4)*J7,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="322"/>
+      <c r="L7" s="218"/>
       <c r="M7" s="95"/>
-      <c r="N7" s="371"/>
-      <c r="O7" s="372"/>
-      <c r="P7" s="373"/>
+      <c r="N7" s="219"/>
+      <c r="O7" s="220"/>
+      <c r="P7" s="221"/>
       <c r="Q7" s="1" t="str">
         <f t="shared" ref="Q7:Q8" ca="1" si="0">IFERROR(VLOOKUP(C7,OFFSET(pulldown_level2,0,U7+X7,Y7,1),1,FALSE),"")</f>
         <v/>
@@ -5494,27 +5494,27 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A8" s="366"/>
-      <c r="B8" s="367"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="41"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="369"/>
-      <c r="F8" s="370"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="216"/>
       <c r="G8" s="38"/>
       <c r="H8" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="72"/>
-      <c r="K8" s="321">
-        <f t="shared" ref="K8" si="8">IFERROR(ROUNDDOWN(G8*ROUNDDOWN(I8,4)*J8,2),"")</f>
+      <c r="K8" s="217">
+        <f>IFERROR(ROUNDDOWN(G8*ROUNDDOWN(I8,4)*J8,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="322"/>
+      <c r="L8" s="218"/>
       <c r="M8" s="96"/>
-      <c r="N8" s="374"/>
-      <c r="O8" s="374"/>
-      <c r="P8" s="375"/>
+      <c r="N8" s="222"/>
+      <c r="O8" s="222"/>
+      <c r="P8" s="223"/>
       <c r="Q8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" ref="W8" ca="1" si="9">(V8-U8)+1</f>
+        <f t="shared" ref="W8" ca="1" si="8">(V8-U8)+1</f>
         <v>1</v>
       </c>
       <c r="X8" s="1">
@@ -5556,66 +5556,66 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A9" s="327" t="s">
+      <c r="A9" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="328"/>
-      <c r="C9" s="328"/>
-      <c r="D9" s="328"/>
-      <c r="E9" s="328"/>
-      <c r="F9" s="329"/>
+      <c r="B9" s="249"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="250"/>
       <c r="G9" s="97">
         <f>SUM(G7:G8)</f>
         <v>0</v>
       </c>
       <c r="H9" s="98"/>
-      <c r="I9" s="330">
+      <c r="I9" s="251">
         <f>SUM(K7:K8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="331"/>
-      <c r="K9" s="331"/>
-      <c r="L9" s="332"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="252"/>
+      <c r="L9" s="253"/>
       <c r="M9" s="65"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="333"/>
-      <c r="P9" s="334"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="255"/>
       <c r="Q9" s="1">
         <f>IF(C9&lt;&gt;0,IF(A9=$G$44,VLOOKUP(C9,$G$46:$G$54,1,TRUE),IF(A9=$H$44,VLOOKUP(C9,$H$46:$H$56,1,TRUE),IF(A9=$I$44,VLOOKUP(C9,$I$46:$I$54,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A10" s="313"/>
-      <c r="B10" s="314"/>
-      <c r="C10" s="314"/>
-      <c r="D10" s="314"/>
-      <c r="E10" s="314"/>
-      <c r="F10" s="314"/>
-      <c r="G10" s="314"/>
-      <c r="H10" s="314"/>
-      <c r="I10" s="314"/>
-      <c r="J10" s="314"/>
-      <c r="K10" s="314"/>
-      <c r="L10" s="314"/>
-      <c r="M10" s="314"/>
-      <c r="N10" s="314"/>
-      <c r="O10" s="314"/>
-      <c r="P10" s="315"/>
+      <c r="A10" s="256"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="257"/>
+      <c r="G10" s="257"/>
+      <c r="H10" s="257"/>
+      <c r="I10" s="257"/>
+      <c r="J10" s="257"/>
+      <c r="K10" s="257"/>
+      <c r="L10" s="257"/>
+      <c r="M10" s="257"/>
+      <c r="N10" s="257"/>
+      <c r="O10" s="257"/>
+      <c r="P10" s="258"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1">
-      <c r="A11" s="335" t="s">
+      <c r="A11" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="336"/>
+      <c r="B11" s="260"/>
       <c r="C11" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="337" t="s">
+      <c r="D11" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="338"/>
-      <c r="F11" s="336"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="260"/>
       <c r="G11" s="62" t="s">
         <v>7</v>
       </c>
@@ -5628,203 +5628,203 @@
       <c r="J11" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="339" t="s">
+      <c r="K11" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="340"/>
+      <c r="L11" s="264"/>
       <c r="M11" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="341" t="s">
+      <c r="N11" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="342"/>
-      <c r="P11" s="343"/>
+      <c r="O11" s="210"/>
+      <c r="P11" s="211"/>
     </row>
     <row r="12" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A12" s="325"/>
-      <c r="B12" s="326"/>
+      <c r="A12" s="240"/>
+      <c r="B12" s="241"/>
       <c r="C12" s="44"/>
-      <c r="D12" s="318"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="320"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="243"/>
+      <c r="F12" s="244"/>
       <c r="G12" s="5"/>
       <c r="H12" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="71"/>
-      <c r="K12" s="321">
-        <f t="shared" ref="K12:K13" si="10">IFERROR(ROUNDDOWN(G12*ROUNDDOWN(I12,4)*J12,2),"")</f>
+      <c r="K12" s="217">
+        <f>IFERROR(ROUNDDOWN(G12*ROUNDDOWN(I12,4)*J12,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L12" s="322"/>
+      <c r="L12" s="218"/>
       <c r="M12" s="95"/>
-      <c r="N12" s="257"/>
-      <c r="O12" s="258"/>
-      <c r="P12" s="259"/>
+      <c r="N12" s="245"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="247"/>
       <c r="Q12" s="1" t="str">
-        <f t="shared" ref="Q12:Q13" ca="1" si="11">IFERROR(VLOOKUP(C12,OFFSET(pulldown_level2,0,U12+X12,Y12,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q12:Q13" ca="1" si="9">IFERROR(VLOOKUP(C12,OFFSET(pulldown_level2,0,U12+X12,Y12,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R12" s="1" t="str">
-        <f t="shared" ref="R12:R13" ca="1" si="12">IFERROR(VLOOKUP(D12,OFFSET(pulldown_company,0,U12+X12,Z12,1),1,FALSE),"")</f>
+        <f t="shared" ref="R12:R13" ca="1" si="10">IFERROR(VLOOKUP(D12,OFFSET(pulldown_company,0,U12+X12,Z12,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S12" s="1">
-        <f t="shared" ref="S12:S13" ca="1" si="13">IFERROR(VLOOKUP(H12,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S12:S13" ca="1" si="11">IFERROR(VLOOKUP(H12,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>2</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" ref="U12:U13" ca="1" si="14">IFERROR(MATCH(T12,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U12:U13" ca="1" si="12">IFERROR(MATCH(T12,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" ref="V12:V13" ca="1" si="15">IFERROR(MATCH(T12,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V12:V13" ca="1" si="13">IFERROR(MATCH(T12,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" ref="W12" ca="1" si="16">(V12-U12)+1</f>
+        <f t="shared" ref="W12" ca="1" si="14">(V12-U12)+1</f>
         <v>1</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" ref="X12:X13" ca="1" si="17">IFERROR(MATCH(A12,OFFSET(pulldown_level1,0,U12,1,W12),0)-1,0)</f>
+        <f t="shared" ref="X12:X13" ca="1" si="15">IFERROR(MATCH(A12,OFFSET(pulldown_level1,0,U12,1,W12),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" ref="Y12:Y13" ca="1" si="18">IF(X12=0,1,COUNTA(OFFSET(pulldown_level2,0,U12+X12,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y12:Y13" ca="1" si="16">IF(X12=0,1,COUNTA(OFFSET(pulldown_level2,0,U12+X12,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" ref="Z12:Z13" ca="1" si="19">IF(X12=0,1,COUNTA(OFFSET(pulldown_company,0,U12+X12,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z12:Z13" ca="1" si="17">IF(X12=0,1,COUNTA(OFFSET(pulldown_company,0,U12+X12,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A13" s="316"/>
-      <c r="B13" s="317"/>
+      <c r="A13" s="278"/>
+      <c r="B13" s="279"/>
       <c r="C13" s="91"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="320"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="244"/>
       <c r="G13" s="34"/>
       <c r="H13" s="46" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="74"/>
-      <c r="K13" s="321">
-        <f t="shared" si="10"/>
+      <c r="K13" s="217">
+        <f>IFERROR(ROUNDDOWN(G13*ROUNDDOWN(I13,4)*J13,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L13" s="322"/>
+      <c r="L13" s="218"/>
       <c r="M13" s="95"/>
-      <c r="N13" s="323"/>
-      <c r="O13" s="323"/>
-      <c r="P13" s="324"/>
+      <c r="N13" s="280"/>
+      <c r="O13" s="280"/>
+      <c r="P13" s="281"/>
       <c r="Q13" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="R13" s="1" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>2</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="V13" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" ref="W13" ca="1" si="18">(V13-U13)+1</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="W13" s="1">
-        <f t="shared" ref="W13" ca="1" si="20">(V13-U13)+1</f>
+      <c r="Y13" s="1">
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Z13" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1">
-        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
-      <c r="Z13" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A14" s="305" t="s">
+      <c r="A14" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="306"/>
-      <c r="C14" s="306"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="306"/>
-      <c r="F14" s="307"/>
+      <c r="B14" s="266"/>
+      <c r="C14" s="266"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="266"/>
+      <c r="F14" s="267"/>
       <c r="G14" s="99">
         <f>SUM(G12:G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="100"/>
-      <c r="I14" s="308">
+      <c r="I14" s="268">
         <f>SUM(K12:K13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="309"/>
-      <c r="K14" s="309"/>
-      <c r="L14" s="310"/>
+      <c r="J14" s="269"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="270"/>
       <c r="M14" s="66"/>
-      <c r="N14" s="311"/>
-      <c r="O14" s="311"/>
-      <c r="P14" s="312"/>
+      <c r="N14" s="271"/>
+      <c r="O14" s="271"/>
+      <c r="P14" s="272"/>
       <c r="Q14" s="1">
         <f>IF(C14&lt;&gt;0,IF(A14=$G$44,VLOOKUP(C14,$G$46:$G$54,1,TRUE),IF(A14=$H$44,VLOOKUP(C14,$H$46:$H$56,1,TRUE),IF(A14=$I$44,VLOOKUP(C14,$I$46:$I$54,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A15" s="313"/>
-      <c r="B15" s="314"/>
-      <c r="C15" s="314"/>
-      <c r="D15" s="314"/>
-      <c r="E15" s="314"/>
-      <c r="F15" s="314"/>
-      <c r="G15" s="314"/>
-      <c r="H15" s="314"/>
-      <c r="I15" s="314"/>
-      <c r="J15" s="314"/>
-      <c r="K15" s="314"/>
-      <c r="L15" s="314"/>
-      <c r="M15" s="314"/>
-      <c r="N15" s="314"/>
-      <c r="O15" s="314"/>
-      <c r="P15" s="315"/>
+      <c r="A15" s="256"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="257"/>
+      <c r="I15" s="257"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="257"/>
+      <c r="L15" s="257"/>
+      <c r="M15" s="257"/>
+      <c r="N15" s="257"/>
+      <c r="O15" s="257"/>
+      <c r="P15" s="258"/>
     </row>
     <row r="16" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A16" s="298" t="s">
+      <c r="A16" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="299"/>
+      <c r="B16" s="274"/>
       <c r="C16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="300" t="s">
+      <c r="D16" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="299"/>
+      <c r="E16" s="274"/>
       <c r="F16" s="53" t="s">
         <v>16</v>
       </c>
@@ -5840,25 +5840,25 @@
       <c r="J16" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="300" t="s">
+      <c r="K16" s="275" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="299"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="300" t="s">
+      <c r="N16" s="275" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="301"/>
-      <c r="P16" s="302"/>
+      <c r="O16" s="276"/>
+      <c r="P16" s="277"/>
     </row>
     <row r="17" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A17" s="279"/>
-      <c r="B17" s="280"/>
+      <c r="A17" s="282"/>
+      <c r="B17" s="283"/>
       <c r="C17" s="47"/>
-      <c r="D17" s="281"/>
-      <c r="E17" s="280"/>
+      <c r="D17" s="284"/>
+      <c r="E17" s="283"/>
       <c r="F17" s="48"/>
       <c r="G17" s="7"/>
       <c r="H17" s="51" t="s">
@@ -5866,61 +5866,61 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="73"/>
-      <c r="K17" s="282">
-        <f t="shared" ref="K17:K18" si="21">IFERROR(ROUNDDOWN(G17*ROUNDDOWN(I17,4)*J17,2),"")</f>
+      <c r="K17" s="285">
+        <f>IFERROR(ROUNDDOWN(G17*ROUNDDOWN(I17,4)*J17,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L17" s="283"/>
+      <c r="L17" s="286"/>
       <c r="M17" s="95"/>
-      <c r="N17" s="284"/>
-      <c r="O17" s="284"/>
-      <c r="P17" s="285"/>
+      <c r="N17" s="287"/>
+      <c r="O17" s="287"/>
+      <c r="P17" s="288"/>
       <c r="Q17" s="1" t="str">
-        <f t="shared" ref="Q17:Q18" ca="1" si="22">IFERROR(VLOOKUP(C17,OFFSET(pulldown_level2,0,U17+X17,Y17,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q17:Q18" ca="1" si="19">IFERROR(VLOOKUP(C17,OFFSET(pulldown_level2,0,U17+X17,Y17,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R17" s="1" t="str">
-        <f t="shared" ref="R17:R18" ca="1" si="23">IFERROR(VLOOKUP(D17,OFFSET(pulldown_company,0,U17+X17,Z17,1),1,FALSE),"")</f>
+        <f t="shared" ref="R17:R18" ca="1" si="20">IFERROR(VLOOKUP(D17,OFFSET(pulldown_company,0,U17+X17,Z17,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S17" s="1">
-        <f t="shared" ref="S17:S18" ca="1" si="24">IFERROR(VLOOKUP(H17,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S17:S18" ca="1" si="21">IFERROR(VLOOKUP(H17,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T17" s="1">
         <v>3</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" ref="U17:U18" ca="1" si="25">IFERROR(MATCH(T17,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U17:U18" ca="1" si="22">IFERROR(MATCH(T17,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" ref="V17:V18" ca="1" si="26">IFERROR(MATCH(T17,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V17:V18" ca="1" si="23">IFERROR(MATCH(T17,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ref="W17:W18" ca="1" si="27">(V17-U17)+1</f>
+        <f t="shared" ref="W17:W18" ca="1" si="24">(V17-U17)+1</f>
         <v>1</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" ref="X17:X18" ca="1" si="28">IFERROR(MATCH(A17,OFFSET(pulldown_level1,0,U17,1,W17),0)-1,0)</f>
+        <f t="shared" ref="X17:X18" ca="1" si="25">IFERROR(MATCH(A17,OFFSET(pulldown_level1,0,U17,1,W17),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" ref="Y17:Y18" ca="1" si="29">IF(X17=0,1,COUNTA(OFFSET(pulldown_level2,0,U17+X17,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y17:Y18" ca="1" si="26">IF(X17=0,1,COUNTA(OFFSET(pulldown_level2,0,U17+X17,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" ref="Z17:Z18" ca="1" si="30">IF(X17=0,1,COUNTA(OFFSET(pulldown_company,0,U17+X17,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z17:Z18" ca="1" si="27">IF(X17=0,1,COUNTA(OFFSET(pulldown_company,0,U17+X17,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="279"/>
-      <c r="B18" s="280"/>
+      <c r="A18" s="282"/>
+      <c r="B18" s="283"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="281"/>
-      <c r="E18" s="280"/>
+      <c r="D18" s="284"/>
+      <c r="E18" s="283"/>
       <c r="F18" s="50"/>
       <c r="G18" s="10"/>
       <c r="H18" s="52" t="s">
@@ -5928,111 +5928,111 @@
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="74"/>
-      <c r="K18" s="282">
-        <f t="shared" si="21"/>
+      <c r="K18" s="285">
+        <f>IFERROR(ROUNDDOWN(G18*ROUNDDOWN(I18,4)*J18,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L18" s="283"/>
+      <c r="L18" s="286"/>
       <c r="M18" s="101"/>
-      <c r="N18" s="303"/>
-      <c r="O18" s="303"/>
-      <c r="P18" s="304"/>
+      <c r="N18" s="301"/>
+      <c r="O18" s="301"/>
+      <c r="P18" s="302"/>
       <c r="Q18" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R18" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="S18" s="1">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2</v>
       </c>
       <c r="T18" s="1">
         <v>3</v>
       </c>
       <c r="U18" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="X18" s="1">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="V18" s="1">
+      <c r="Y18" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
         <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
-      <c r="X18" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="Z18" s="1">
-        <f t="shared" ca="1" si="30"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="286" t="s">
+      <c r="A19" s="289" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="287"/>
-      <c r="C19" s="287"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="287"/>
-      <c r="F19" s="288"/>
+      <c r="B19" s="290"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="290"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="291"/>
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="289">
+      <c r="I19" s="292">
         <f>SUM(K17:K18)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="290"/>
-      <c r="K19" s="290"/>
-      <c r="L19" s="291"/>
+      <c r="J19" s="293"/>
+      <c r="K19" s="293"/>
+      <c r="L19" s="294"/>
       <c r="M19" s="67"/>
-      <c r="N19" s="292">
+      <c r="N19" s="295">
         <f>SUMIF(F17:F18,"&lt;&gt;"&amp;hdn_payoff_circle,K17:K18)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="293"/>
-      <c r="P19" s="294"/>
+      <c r="O19" s="296"/>
+      <c r="P19" s="297"/>
     </row>
     <row r="20" spans="1:26" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A20" s="295"/>
-      <c r="B20" s="296"/>
-      <c r="C20" s="296"/>
-      <c r="D20" s="296"/>
-      <c r="E20" s="296"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="296"/>
-      <c r="I20" s="296"/>
-      <c r="J20" s="296"/>
-      <c r="K20" s="296"/>
-      <c r="L20" s="296"/>
-      <c r="M20" s="296"/>
-      <c r="N20" s="296"/>
-      <c r="O20" s="296"/>
-      <c r="P20" s="297"/>
+      <c r="A20" s="298"/>
+      <c r="B20" s="299"/>
+      <c r="C20" s="299"/>
+      <c r="D20" s="299"/>
+      <c r="E20" s="299"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="299"/>
+      <c r="I20" s="299"/>
+      <c r="J20" s="299"/>
+      <c r="K20" s="299"/>
+      <c r="L20" s="299"/>
+      <c r="M20" s="299"/>
+      <c r="N20" s="299"/>
+      <c r="O20" s="299"/>
+      <c r="P20" s="300"/>
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="298" t="s">
+      <c r="A21" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="299"/>
+      <c r="B21" s="274"/>
       <c r="C21" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="300" t="s">
+      <c r="D21" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="299"/>
+      <c r="E21" s="274"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55" t="s">
         <v>17</v>
@@ -6046,26 +6046,26 @@
       <c r="J21" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="300" t="s">
+      <c r="K21" s="275" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="299"/>
+      <c r="L21" s="274"/>
       <c r="M21" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="300" t="s">
+      <c r="N21" s="275" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="301"/>
-      <c r="P21" s="302"/>
+      <c r="O21" s="276"/>
+      <c r="P21" s="277"/>
       <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A22" s="279"/>
-      <c r="B22" s="280"/>
+      <c r="A22" s="282"/>
+      <c r="B22" s="283"/>
       <c r="C22" s="47"/>
-      <c r="D22" s="281"/>
-      <c r="E22" s="280"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="283"/>
       <c r="F22" s="48"/>
       <c r="G22" s="113"/>
       <c r="H22" s="51" t="s">
@@ -6073,61 +6073,61 @@
       </c>
       <c r="I22" s="111"/>
       <c r="J22" s="112"/>
-      <c r="K22" s="282">
-        <f t="shared" ref="K22:K23" si="31">IFERROR(ROUNDDOWN(G22*ROUNDDOWN(I22,4)*J22,2),"")</f>
+      <c r="K22" s="285">
+        <f>IFERROR(ROUNDDOWN(G22*ROUNDDOWN(I22,4)*J22,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L22" s="283"/>
+      <c r="L22" s="286"/>
       <c r="M22" s="95"/>
-      <c r="N22" s="284"/>
-      <c r="O22" s="284"/>
-      <c r="P22" s="285"/>
+      <c r="N22" s="287"/>
+      <c r="O22" s="287"/>
+      <c r="P22" s="288"/>
       <c r="Q22" s="1" t="str">
-        <f t="shared" ref="Q22:Q25" ca="1" si="32">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q22:Q25" ca="1" si="28">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R22" s="1" t="str">
-        <f t="shared" ref="R22:R25" ca="1" si="33">IFERROR(VLOOKUP(D22,OFFSET(pulldown_company,0,U22+X22,Z22,1),1,FALSE),"")</f>
+        <f t="shared" ref="R22:R25" ca="1" si="29">IFERROR(VLOOKUP(D22,OFFSET(pulldown_company,0,U22+X22,Z22,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S22" s="1">
-        <f t="shared" ref="S22" ca="1" si="34">IFERROR(VLOOKUP(H22,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S22" ca="1" si="30">IFERROR(VLOOKUP(H22,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T22" s="1">
         <v>4</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" ref="U22" ca="1" si="35">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U22" ca="1" si="31">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" ref="V22" ca="1" si="36">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V22" ca="1" si="32">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" ref="W22:W25" ca="1" si="37">(V22-U22)+1</f>
+        <f t="shared" ref="W22:W25" ca="1" si="33">(V22-U22)+1</f>
         <v>1</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" ref="X22:X25" ca="1" si="38">IFERROR(MATCH(A22,OFFSET(pulldown_level1,0,U22,1,W22),0)-1,0)</f>
+        <f t="shared" ref="X22:X25" ca="1" si="34">IFERROR(MATCH(A22,OFFSET(pulldown_level1,0,U22,1,W22),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" ref="Y22:Y25" ca="1" si="39">IF(X22=0,1,COUNTA(OFFSET(pulldown_level2,0,U22+X22,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y22:Y25" ca="1" si="35">IF(X22=0,1,COUNTA(OFFSET(pulldown_level2,0,U22+X22,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" ref="Z22" ca="1" si="40">IF(X22=0,1,COUNTA(OFFSET(pulldown_company,0,U22+X22,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z22" ca="1" si="36">IF(X22=0,1,COUNTA(OFFSET(pulldown_company,0,U22+X22,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A23" s="244"/>
-      <c r="B23" s="245"/>
+      <c r="A23" s="303"/>
+      <c r="B23" s="304"/>
       <c r="C23" s="119"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="245"/>
+      <c r="D23" s="305"/>
+      <c r="E23" s="304"/>
       <c r="F23" s="120"/>
       <c r="G23" s="121"/>
       <c r="H23" s="122" t="s">
@@ -6135,61 +6135,61 @@
       </c>
       <c r="I23" s="123"/>
       <c r="J23" s="124"/>
-      <c r="K23" s="247">
-        <f t="shared" si="31"/>
+      <c r="K23" s="306">
+        <f>IFERROR(ROUNDDOWN(G23*ROUNDDOWN(I23,4)*J23,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="248"/>
+      <c r="L23" s="307"/>
       <c r="M23" s="195"/>
-      <c r="N23" s="249"/>
-      <c r="O23" s="249"/>
-      <c r="P23" s="250"/>
+      <c r="N23" s="308"/>
+      <c r="O23" s="308"/>
+      <c r="P23" s="309"/>
       <c r="Q23" s="1" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="R23" s="1" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="S23" s="1">
-        <f t="shared" ref="S23:S25" ca="1" si="41">IFERROR(VLOOKUP(H23,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S23:S25" ca="1" si="37">IFERROR(VLOOKUP(H23,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T23" s="1">
         <v>4</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" ref="U23:U25" ca="1" si="42">IFERROR(MATCH(T23,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U23:U25" ca="1" si="38">IFERROR(MATCH(T23,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" ref="V23:V25" ca="1" si="43">IFERROR(MATCH(T23,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V23:V25" ca="1" si="39">IFERROR(MATCH(T23,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" ref="Z23:Z25" ca="1" si="44">IF(X23=0,1,COUNTA(OFFSET(pulldown_company,0,U23+X23,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z23:Z25" ca="1" si="40">IF(X23=0,1,COUNTA(OFFSET(pulldown_company,0,U23+X23,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.1" customHeight="1" thickTop="1">
-      <c r="A24" s="251"/>
-      <c r="B24" s="252"/>
+      <c r="A24" s="310"/>
+      <c r="B24" s="311"/>
       <c r="C24" s="114"/>
-      <c r="D24" s="253"/>
-      <c r="E24" s="254"/>
+      <c r="D24" s="312"/>
+      <c r="E24" s="313"/>
       <c r="F24" s="201"/>
       <c r="G24" s="115"/>
       <c r="H24" s="116" t="s">
@@ -6197,61 +6197,61 @@
       </c>
       <c r="I24" s="117"/>
       <c r="J24" s="118"/>
-      <c r="K24" s="255">
-        <f t="shared" ref="K24:K25" si="45">IFERROR(ROUNDDOWN(G24*IF(AND(LEFT(A24,4)="401:",LEFT(C24,2)="1:",F24&lt;&gt;""),IF(D24&lt;&gt;0&amp;G24&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F24*retailprice,4),""),IF(AND(LEFT(A24,5)="1224:",LEFT(C24,2)="3:",F24&lt;&gt;""),ROUNDDOWN(F24*tariff_total,4),ROUNDDOWN(I24,4)))*J24,2),"")</f>
+      <c r="K24" s="314">
+        <f>IFERROR(ROUNDDOWN(G24*IF(AND(LEFT(A24,4)="401:",LEFT(C24,2)="1:",F24&lt;&gt;""),IF(D24&lt;&gt;0&amp;G24&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F24*retailprice,4),""),IF(AND(LEFT(A24,5)="1224:",LEFT(C24,2)="3:",F24&lt;&gt;""),ROUNDDOWN(F24*tariff_total,4),ROUNDDOWN(I24,4)))*J24,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L24" s="256"/>
+      <c r="L24" s="315"/>
       <c r="M24" s="196"/>
-      <c r="N24" s="257"/>
-      <c r="O24" s="258"/>
-      <c r="P24" s="259"/>
+      <c r="N24" s="245"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="247"/>
       <c r="Q24" s="1" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="R24" s="1" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="37"/>
         <v>1</v>
       </c>
       <c r="T24" s="1">
         <v>5</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="38"/>
         <v>15</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="39"/>
         <v>15</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="40"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A25" s="268"/>
-      <c r="B25" s="269"/>
+      <c r="A25" s="324"/>
+      <c r="B25" s="325"/>
       <c r="C25" s="194"/>
-      <c r="D25" s="270"/>
-      <c r="E25" s="271"/>
+      <c r="D25" s="326"/>
+      <c r="E25" s="327"/>
       <c r="F25" s="202"/>
       <c r="G25" s="90"/>
       <c r="H25" s="84" t="s">
@@ -6259,52 +6259,52 @@
       </c>
       <c r="I25" s="88"/>
       <c r="J25" s="102"/>
-      <c r="K25" s="272">
-        <f t="shared" si="45"/>
+      <c r="K25" s="328">
+        <f>IFERROR(ROUNDDOWN(G25*IF(AND(LEFT(A25,4)="401:",LEFT(C25,2)="1:",F25&lt;&gt;""),IF(D25&lt;&gt;0&amp;G25&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F25*retailprice,4),""),IF(AND(LEFT(A25,5)="1224:",LEFT(C25,2)="3:",F25&lt;&gt;""),ROUNDDOWN(F25*tariff_total,4),ROUNDDOWN(I25,4)))*J25,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="273"/>
+      <c r="L25" s="329"/>
       <c r="M25" s="103"/>
-      <c r="N25" s="274"/>
-      <c r="O25" s="275"/>
-      <c r="P25" s="276"/>
+      <c r="N25" s="330"/>
+      <c r="O25" s="331"/>
+      <c r="P25" s="332"/>
       <c r="Q25" s="1" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="R25" s="1" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="S25" s="1">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="37"/>
         <v>1</v>
       </c>
       <c r="T25" s="1">
         <v>5</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="38"/>
         <v>15</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="39"/>
         <v>15</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="40"/>
         <v>1</v>
       </c>
     </row>
@@ -6322,48 +6322,48 @@
       <c r="K26" s="83"/>
       <c r="L26" s="83"/>
       <c r="M26" s="13"/>
-      <c r="N26" s="230"/>
-      <c r="O26" s="230"/>
-      <c r="P26" s="277"/>
+      <c r="N26" s="333"/>
+      <c r="O26" s="333"/>
+      <c r="P26" s="334"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A27" s="278" t="s">
+      <c r="A27" s="335" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="262"/>
+      <c r="B27" s="318"/>
       <c r="C27" s="166">
         <f>I9</f>
         <v>0</v>
       </c>
       <c r="D27" s="163"/>
-      <c r="E27" s="260" t="s">
+      <c r="E27" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="261"/>
-      <c r="G27" s="262"/>
-      <c r="H27" s="263">
+      <c r="F27" s="317"/>
+      <c r="G27" s="318"/>
+      <c r="H27" s="319">
         <f>I14</f>
         <v>0</v>
       </c>
-      <c r="I27" s="264"/>
+      <c r="I27" s="320"/>
       <c r="J27" s="167"/>
       <c r="K27" s="104"/>
-      <c r="L27" s="265" t="s">
+      <c r="L27" s="321" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="266"/>
-      <c r="N27" s="267">
+      <c r="M27" s="322"/>
+      <c r="N27" s="323">
         <f>C27+H27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="264"/>
+      <c r="O27" s="320"/>
       <c r="P27" s="164"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A28" s="212" t="s">
+      <c r="A28" s="365" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="213"/>
+      <c r="B28" s="366"/>
       <c r="C28" s="168">
         <f>C27-K33</f>
         <v>0</v>
@@ -6372,30 +6372,30 @@
         <f>IF(C27=0,0,C28/C27)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="214" t="s">
+      <c r="E28" s="367" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="215"/>
-      <c r="G28" s="216"/>
-      <c r="H28" s="217">
+      <c r="F28" s="368"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="370">
         <f>H27-N19</f>
         <v>0</v>
       </c>
-      <c r="I28" s="218"/>
+      <c r="I28" s="371"/>
       <c r="J28" s="170"/>
       <c r="K28" s="169">
         <f>IF(H27=0,0,H28/H27)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="214" t="s">
+      <c r="L28" s="367" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="216"/>
-      <c r="N28" s="219">
+      <c r="M28" s="369"/>
+      <c r="N28" s="372">
         <f>C28+H28</f>
         <v>0</v>
       </c>
-      <c r="O28" s="218"/>
+      <c r="O28" s="371"/>
       <c r="P28" s="171">
         <f>IF(N27=0,0,N28/N27)</f>
         <v>0</v>
@@ -6412,16 +6412,16 @@
       <c r="H29" s="172"/>
       <c r="I29" s="172"/>
       <c r="J29" s="173"/>
-      <c r="K29" s="220" t="s">
+      <c r="K29" s="373" t="s">
         <v>42</v>
       </c>
-      <c r="L29" s="221"/>
-      <c r="M29" s="222"/>
-      <c r="N29" s="223">
+      <c r="L29" s="374"/>
+      <c r="M29" s="375"/>
+      <c r="N29" s="344">
         <f>ROUNDDOWN((N27*P29),0)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="224"/>
+      <c r="O29" s="345"/>
       <c r="P29" s="174">
         <v>6.08E-2</v>
       </c>
@@ -6437,32 +6437,32 @@
       <c r="H30" s="175"/>
       <c r="I30" s="176"/>
       <c r="J30" s="177"/>
-      <c r="K30" s="203" t="s">
+      <c r="K30" s="353" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="204"/>
-      <c r="M30" s="205"/>
-      <c r="N30" s="206">
+      <c r="L30" s="360"/>
+      <c r="M30" s="354"/>
+      <c r="N30" s="351">
         <f>N28-N29</f>
         <v>0</v>
       </c>
-      <c r="O30" s="207"/>
+      <c r="O30" s="352"/>
       <c r="P30" s="178">
         <f>IF(N27=0,0,N30/N27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A31" s="208" t="s">
+      <c r="A31" s="361" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="209"/>
-      <c r="C31" s="210" t="s">
+      <c r="B31" s="362"/>
+      <c r="C31" s="363" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="210"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
+      <c r="D31" s="363"/>
+      <c r="E31" s="363"/>
+      <c r="F31" s="363"/>
       <c r="G31" s="179">
         <f>$P$4</f>
         <v>0</v>
@@ -6473,27 +6473,27 @@
         <v>0</v>
       </c>
       <c r="J31" s="181"/>
-      <c r="K31" s="211">
+      <c r="K31" s="364">
         <f>SUMIF(F22:F25,"&lt;&gt;"&amp;hdn_payoff_circle,K22:K25)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="211"/>
+      <c r="L31" s="364"/>
       <c r="M31" s="182"/>
-      <c r="N31" s="210"/>
-      <c r="O31" s="210"/>
+      <c r="N31" s="363"/>
+      <c r="O31" s="363"/>
       <c r="P31" s="183"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A32" s="231" t="s">
+      <c r="A32" s="341" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="232"/>
-      <c r="C32" s="233" t="s">
+      <c r="B32" s="342"/>
+      <c r="C32" s="343" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="233"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="233"/>
+      <c r="D32" s="343"/>
+      <c r="E32" s="343"/>
+      <c r="F32" s="343"/>
       <c r="G32" s="184">
         <f>$P$4</f>
         <v>0</v>
@@ -6504,27 +6504,27 @@
         <v>0</v>
       </c>
       <c r="J32" s="187"/>
-      <c r="K32" s="223">
+      <c r="K32" s="344">
         <f>SUMIF(F17:F25,hdn_payoff_circle,K17:K25)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="224"/>
+      <c r="L32" s="345"/>
       <c r="M32" s="188"/>
-      <c r="N32" s="234"/>
-      <c r="O32" s="235"/>
+      <c r="N32" s="346"/>
+      <c r="O32" s="347"/>
       <c r="P32" s="189"/>
     </row>
     <row r="33" spans="1:25" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="236" t="s">
+      <c r="A33" s="348" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="237"/>
-      <c r="C33" s="238" t="s">
+      <c r="B33" s="349"/>
+      <c r="C33" s="350" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="238"/>
-      <c r="E33" s="238"/>
-      <c r="F33" s="238"/>
+      <c r="D33" s="350"/>
+      <c r="E33" s="350"/>
+      <c r="F33" s="350"/>
       <c r="G33" s="190">
         <f>$P$4</f>
         <v>0</v>
@@ -6535,60 +6535,60 @@
         <v>0</v>
       </c>
       <c r="J33" s="193"/>
-      <c r="K33" s="206">
+      <c r="K33" s="351">
         <f>SUM(K31:K32)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="207"/>
-      <c r="M33" s="203" t="s">
+      <c r="L33" s="352"/>
+      <c r="M33" s="353" t="s">
         <v>43</v>
       </c>
-      <c r="N33" s="205"/>
-      <c r="O33" s="239">
+      <c r="N33" s="354"/>
+      <c r="O33" s="355">
         <f>N19</f>
         <v>0</v>
       </c>
-      <c r="P33" s="240"/>
+      <c r="P33" s="356"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A34" s="228"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="228"/>
-      <c r="E34" s="228"/>
-      <c r="F34" s="228"/>
-      <c r="G34" s="228"/>
+      <c r="A34" s="339"/>
+      <c r="B34" s="339"/>
+      <c r="C34" s="339"/>
+      <c r="D34" s="339"/>
+      <c r="E34" s="339"/>
+      <c r="F34" s="339"/>
+      <c r="G34" s="339"/>
       <c r="H34" s="85"/>
-      <c r="I34" s="229" t="s">
+      <c r="I34" s="340" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="229"/>
-      <c r="K34" s="229"/>
-      <c r="L34" s="229"/>
-      <c r="M34" s="229"/>
-      <c r="N34" s="229"/>
-      <c r="O34" s="229"/>
-      <c r="P34" s="229"/>
+      <c r="J34" s="340"/>
+      <c r="K34" s="340"/>
+      <c r="L34" s="340"/>
+      <c r="M34" s="340"/>
+      <c r="N34" s="340"/>
+      <c r="O34" s="340"/>
+      <c r="P34" s="340"/>
     </row>
     <row r="35" spans="1:25" ht="9" hidden="1" customHeight="1">
-      <c r="A35" s="230" t="s">
+      <c r="A35" s="333" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="230"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="230"/>
-      <c r="G35" s="230"/>
-      <c r="H35" s="230"/>
-      <c r="I35" s="230"/>
-      <c r="J35" s="230"/>
-      <c r="K35" s="230"/>
-      <c r="L35" s="230"/>
-      <c r="M35" s="230"/>
-      <c r="N35" s="230"/>
-      <c r="O35" s="230"/>
-      <c r="P35" s="230"/>
+      <c r="B35" s="333"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
+      <c r="F35" s="333"/>
+      <c r="G35" s="333"/>
+      <c r="H35" s="333"/>
+      <c r="I35" s="333"/>
+      <c r="J35" s="333"/>
+      <c r="K35" s="333"/>
+      <c r="L35" s="333"/>
+      <c r="M35" s="333"/>
+      <c r="N35" s="333"/>
+      <c r="O35" s="333"/>
+      <c r="P35" s="333"/>
       <c r="Q35" s="125"/>
       <c r="R35" s="125"/>
       <c r="S35" s="125"/>
@@ -6805,7 +6805,7 @@
       <c r="X44" s="32"/>
     </row>
     <row r="45" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A45" s="241" t="s">
+      <c r="A45" s="357" t="s">
         <v>107</v>
       </c>
       <c r="B45" s="17"/>
@@ -6827,7 +6827,7 @@
       <c r="U45" s="126"/>
     </row>
     <row r="46" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A46" s="242"/>
+      <c r="A46" s="358"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -6849,7 +6849,7 @@
       <c r="U46" s="126"/>
     </row>
     <row r="47" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A47" s="242"/>
+      <c r="A47" s="358"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -6871,7 +6871,7 @@
       <c r="R47" s="20"/>
     </row>
     <row r="48" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A48" s="242"/>
+      <c r="A48" s="358"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -6893,7 +6893,7 @@
       <c r="R48" s="20"/>
     </row>
     <row r="49" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A49" s="242"/>
+      <c r="A49" s="358"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -6914,7 +6914,7 @@
       </c>
     </row>
     <row r="50" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A50" s="242"/>
+      <c r="A50" s="358"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -6933,7 +6933,7 @@
       <c r="Q50" s="17"/>
     </row>
     <row r="51" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A51" s="242"/>
+      <c r="A51" s="358"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -6952,7 +6952,7 @@
       <c r="Q51" s="17"/>
     </row>
     <row r="52" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A52" s="242"/>
+      <c r="A52" s="358"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -6971,7 +6971,7 @@
       <c r="Q52" s="14"/>
     </row>
     <row r="53" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A53" s="242"/>
+      <c r="A53" s="358"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -6990,7 +6990,7 @@
       <c r="Q53" s="14"/>
     </row>
     <row r="54" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A54" s="242"/>
+      <c r="A54" s="358"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -7009,7 +7009,7 @@
       <c r="Q54" s="14"/>
     </row>
     <row r="55" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A55" s="242"/>
+      <c r="A55" s="358"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -7028,7 +7028,7 @@
       <c r="Q55" s="14"/>
     </row>
     <row r="56" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A56" s="242"/>
+      <c r="A56" s="358"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -7047,7 +7047,7 @@
       <c r="Q56" s="14"/>
     </row>
     <row r="57" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A57" s="242"/>
+      <c r="A57" s="358"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -7066,7 +7066,7 @@
       <c r="Q57" s="14"/>
     </row>
     <row r="58" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A58" s="242"/>
+      <c r="A58" s="358"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -7085,7 +7085,7 @@
       <c r="Q58" s="14"/>
     </row>
     <row r="59" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A59" s="242"/>
+      <c r="A59" s="358"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -7104,7 +7104,7 @@
       <c r="Q59" s="14"/>
     </row>
     <row r="60" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A60" s="242"/>
+      <c r="A60" s="358"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -7123,7 +7123,7 @@
       <c r="Q60" s="14"/>
     </row>
     <row r="61" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A61" s="242"/>
+      <c r="A61" s="358"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -7142,7 +7142,7 @@
       <c r="Q61" s="14"/>
     </row>
     <row r="62" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A62" s="242"/>
+      <c r="A62" s="358"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -7161,7 +7161,7 @@
       <c r="Q62" s="17"/>
     </row>
     <row r="63" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A63" s="242"/>
+      <c r="A63" s="358"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -7180,7 +7180,7 @@
       <c r="Q63" s="17"/>
     </row>
     <row r="64" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A64" s="242"/>
+      <c r="A64" s="358"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -7199,7 +7199,7 @@
       <c r="Q64" s="17"/>
     </row>
     <row r="65" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A65" s="242"/>
+      <c r="A65" s="358"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -7218,7 +7218,7 @@
       <c r="Q65" s="17"/>
     </row>
     <row r="66" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A66" s="242"/>
+      <c r="A66" s="358"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -7237,7 +7237,7 @@
       <c r="Q66" s="17"/>
     </row>
     <row r="67" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A67" s="242"/>
+      <c r="A67" s="358"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -7256,7 +7256,7 @@
       <c r="Q67" s="17"/>
     </row>
     <row r="68" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A68" s="242"/>
+      <c r="A68" s="358"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -7275,7 +7275,7 @@
       <c r="Q68" s="17"/>
     </row>
     <row r="69" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A69" s="242"/>
+      <c r="A69" s="358"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -7294,7 +7294,7 @@
       <c r="Q69" s="17"/>
     </row>
     <row r="70" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A70" s="242"/>
+      <c r="A70" s="358"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -7313,7 +7313,7 @@
       <c r="Q70" s="17"/>
     </row>
     <row r="71" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A71" s="242"/>
+      <c r="A71" s="358"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -7332,7 +7332,7 @@
       <c r="Q71" s="17"/>
     </row>
     <row r="72" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A72" s="242"/>
+      <c r="A72" s="358"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -7351,7 +7351,7 @@
       <c r="Q72" s="17"/>
     </row>
     <row r="73" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A73" s="242"/>
+      <c r="A73" s="358"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -7370,7 +7370,7 @@
       <c r="Q73" s="17"/>
     </row>
     <row r="74" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A74" s="242"/>
+      <c r="A74" s="358"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -7389,7 +7389,7 @@
       <c r="Q74" s="17"/>
     </row>
     <row r="75" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A75" s="243"/>
+      <c r="A75" s="359"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -7408,7 +7408,7 @@
       <c r="Q75" s="17"/>
     </row>
     <row r="76" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A76" s="225" t="s">
+      <c r="A76" s="336" t="s">
         <v>108</v>
       </c>
       <c r="B76" s="17"/>
@@ -7429,7 +7429,7 @@
       <c r="Q76" s="17"/>
     </row>
     <row r="77" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A77" s="226"/>
+      <c r="A77" s="337"/>
       <c r="B77" s="134"/>
       <c r="C77" s="134"/>
       <c r="D77" s="134"/>
@@ -7448,7 +7448,7 @@
       <c r="Q77" s="17"/>
     </row>
     <row r="78" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A78" s="226"/>
+      <c r="A78" s="337"/>
       <c r="B78" s="134"/>
       <c r="C78" s="134"/>
       <c r="D78" s="134"/>
@@ -7467,7 +7467,7 @@
       <c r="Q78" s="17"/>
     </row>
     <row r="79" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A79" s="226"/>
+      <c r="A79" s="337"/>
       <c r="B79" s="134"/>
       <c r="C79" s="134"/>
       <c r="D79" s="134"/>
@@ -7486,7 +7486,7 @@
       <c r="Q79" s="17"/>
     </row>
     <row r="80" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A80" s="226"/>
+      <c r="A80" s="337"/>
       <c r="B80" s="134"/>
       <c r="C80" s="134"/>
       <c r="D80" s="134"/>
@@ -7505,7 +7505,7 @@
       <c r="Q80" s="17"/>
     </row>
     <row r="81" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A81" s="226"/>
+      <c r="A81" s="337"/>
       <c r="B81" s="134"/>
       <c r="C81" s="134"/>
       <c r="D81" s="134"/>
@@ -7524,7 +7524,7 @@
       <c r="Q81" s="17"/>
     </row>
     <row r="82" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A82" s="226"/>
+      <c r="A82" s="337"/>
       <c r="B82" s="134"/>
       <c r="C82" s="134"/>
       <c r="D82" s="134"/>
@@ -7543,7 +7543,7 @@
       <c r="Q82" s="17"/>
     </row>
     <row r="83" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A83" s="226"/>
+      <c r="A83" s="337"/>
       <c r="B83" s="134"/>
       <c r="C83" s="134"/>
       <c r="D83" s="134"/>
@@ -7562,7 +7562,7 @@
       <c r="Q83" s="17"/>
     </row>
     <row r="84" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A84" s="226"/>
+      <c r="A84" s="337"/>
       <c r="B84" s="134"/>
       <c r="C84" s="134"/>
       <c r="D84" s="134"/>
@@ -7581,7 +7581,7 @@
       <c r="Q84" s="17"/>
     </row>
     <row r="85" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A85" s="226"/>
+      <c r="A85" s="337"/>
       <c r="B85" s="134"/>
       <c r="C85" s="134"/>
       <c r="D85" s="134"/>
@@ -7600,7 +7600,7 @@
       <c r="Q85" s="17"/>
     </row>
     <row r="86" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A86" s="226"/>
+      <c r="A86" s="337"/>
       <c r="B86" s="134"/>
       <c r="C86" s="134"/>
       <c r="D86" s="134"/>
@@ -7619,7 +7619,7 @@
       <c r="Q86" s="17"/>
     </row>
     <row r="87" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A87" s="226"/>
+      <c r="A87" s="337"/>
       <c r="B87" s="134"/>
       <c r="C87" s="134"/>
       <c r="D87" s="134"/>
@@ -7638,7 +7638,7 @@
       <c r="Q87" s="17"/>
     </row>
     <row r="88" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A88" s="226"/>
+      <c r="A88" s="337"/>
       <c r="B88" s="134"/>
       <c r="C88" s="134"/>
       <c r="D88" s="134"/>
@@ -7657,7 +7657,7 @@
       <c r="Q88" s="17"/>
     </row>
     <row r="89" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A89" s="226"/>
+      <c r="A89" s="337"/>
       <c r="B89" s="134"/>
       <c r="C89" s="134"/>
       <c r="D89" s="134"/>
@@ -7676,7 +7676,7 @@
       <c r="Q89" s="17"/>
     </row>
     <row r="90" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A90" s="226"/>
+      <c r="A90" s="337"/>
       <c r="B90" s="134"/>
       <c r="C90" s="134"/>
       <c r="D90" s="134"/>
@@ -7695,7 +7695,7 @@
       <c r="Q90" s="17"/>
     </row>
     <row r="91" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A91" s="226"/>
+      <c r="A91" s="337"/>
       <c r="B91" s="134"/>
       <c r="C91" s="134"/>
       <c r="D91" s="134"/>
@@ -7714,7 +7714,7 @@
       <c r="Q91" s="17"/>
     </row>
     <row r="92" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A92" s="226"/>
+      <c r="A92" s="337"/>
       <c r="B92" s="134"/>
       <c r="C92" s="134"/>
       <c r="D92" s="134"/>
@@ -7733,7 +7733,7 @@
       <c r="Q92" s="17"/>
     </row>
     <row r="93" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A93" s="226"/>
+      <c r="A93" s="337"/>
       <c r="B93" s="134"/>
       <c r="C93" s="134"/>
       <c r="D93" s="134"/>
@@ -7752,7 +7752,7 @@
       <c r="Q93" s="17"/>
     </row>
     <row r="94" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A94" s="226"/>
+      <c r="A94" s="337"/>
       <c r="B94" s="134"/>
       <c r="C94" s="134"/>
       <c r="D94" s="134"/>
@@ -7771,7 +7771,7 @@
       <c r="Q94" s="17"/>
     </row>
     <row r="95" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A95" s="226"/>
+      <c r="A95" s="337"/>
       <c r="B95" s="134"/>
       <c r="C95" s="134"/>
       <c r="D95" s="134"/>
@@ -7790,7 +7790,7 @@
       <c r="Q95" s="17"/>
     </row>
     <row r="96" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A96" s="226"/>
+      <c r="A96" s="337"/>
       <c r="B96" s="134"/>
       <c r="C96" s="134"/>
       <c r="D96" s="134"/>
@@ -7809,7 +7809,7 @@
       <c r="Q96" s="17"/>
     </row>
     <row r="97" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A97" s="226"/>
+      <c r="A97" s="337"/>
       <c r="B97" s="134"/>
       <c r="C97" s="134"/>
       <c r="D97" s="134"/>
@@ -7828,7 +7828,7 @@
       <c r="Q97" s="17"/>
     </row>
     <row r="98" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A98" s="226"/>
+      <c r="A98" s="337"/>
       <c r="B98" s="134"/>
       <c r="C98" s="134"/>
       <c r="D98" s="134"/>
@@ -7850,7 +7850,7 @@
       <c r="T98" s="129"/>
     </row>
     <row r="99" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A99" s="226"/>
+      <c r="A99" s="337"/>
       <c r="B99" s="134"/>
       <c r="C99" s="134"/>
       <c r="D99" s="134"/>
@@ -7872,7 +7872,7 @@
       <c r="T99" s="129"/>
     </row>
     <row r="100" spans="1:20" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A100" s="226"/>
+      <c r="A100" s="337"/>
       <c r="B100" s="134"/>
       <c r="C100" s="134"/>
       <c r="D100" s="134"/>
@@ -7894,7 +7894,7 @@
       <c r="T100" s="129"/>
     </row>
     <row r="101" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A101" s="226"/>
+      <c r="A101" s="337"/>
       <c r="B101" s="134"/>
       <c r="C101" s="134"/>
       <c r="D101" s="134"/>
@@ -7916,7 +7916,7 @@
       <c r="T101" s="129"/>
     </row>
     <row r="102" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A102" s="226"/>
+      <c r="A102" s="337"/>
       <c r="B102" s="134"/>
       <c r="C102" s="134"/>
       <c r="D102" s="134"/>
@@ -7938,7 +7938,7 @@
       <c r="T102" s="129"/>
     </row>
     <row r="103" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A103" s="226"/>
+      <c r="A103" s="337"/>
       <c r="B103" s="134"/>
       <c r="C103" s="134"/>
       <c r="D103" s="134"/>
@@ -7960,7 +7960,7 @@
       <c r="T103" s="129"/>
     </row>
     <row r="104" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A104" s="226"/>
+      <c r="A104" s="337"/>
       <c r="B104" s="134"/>
       <c r="C104" s="134"/>
       <c r="D104" s="134"/>
@@ -7982,7 +7982,7 @@
       <c r="T104" s="129"/>
     </row>
     <row r="105" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A105" s="226"/>
+      <c r="A105" s="337"/>
       <c r="B105" s="134"/>
       <c r="C105" s="134"/>
       <c r="D105" s="134"/>
@@ -8004,7 +8004,7 @@
       <c r="T105" s="129"/>
     </row>
     <row r="106" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A106" s="226"/>
+      <c r="A106" s="337"/>
       <c r="B106" s="134"/>
       <c r="C106" s="134"/>
       <c r="D106" s="134"/>
@@ -8026,7 +8026,7 @@
       <c r="T106" s="129"/>
     </row>
     <row r="107" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A107" s="226"/>
+      <c r="A107" s="337"/>
       <c r="B107" s="134"/>
       <c r="C107" s="153"/>
       <c r="D107" s="153"/>
@@ -8048,7 +8048,7 @@
       <c r="T107" s="129"/>
     </row>
     <row r="108" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A108" s="226"/>
+      <c r="A108" s="337"/>
       <c r="B108" s="134"/>
       <c r="C108" s="153"/>
       <c r="D108" s="153"/>
@@ -8070,7 +8070,7 @@
       <c r="T108" s="129"/>
     </row>
     <row r="109" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A109" s="226"/>
+      <c r="A109" s="337"/>
       <c r="B109" s="134"/>
       <c r="C109" s="153"/>
       <c r="D109" s="153"/>
@@ -8092,7 +8092,7 @@
       <c r="T109" s="129"/>
     </row>
     <row r="110" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A110" s="226"/>
+      <c r="A110" s="337"/>
       <c r="B110" s="134"/>
       <c r="C110" s="153"/>
       <c r="D110" s="153"/>
@@ -8114,7 +8114,7 @@
       <c r="T110" s="129"/>
     </row>
     <row r="111" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A111" s="226"/>
+      <c r="A111" s="337"/>
       <c r="B111" s="134"/>
       <c r="C111" s="153"/>
       <c r="D111" s="153"/>
@@ -8136,7 +8136,7 @@
       <c r="T111" s="129"/>
     </row>
     <row r="112" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A112" s="226"/>
+      <c r="A112" s="337"/>
       <c r="B112" s="134"/>
       <c r="C112" s="153"/>
       <c r="D112" s="153"/>
@@ -8158,7 +8158,7 @@
       <c r="T112" s="129"/>
     </row>
     <row r="113" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A113" s="226"/>
+      <c r="A113" s="337"/>
       <c r="B113" s="134"/>
       <c r="C113" s="153"/>
       <c r="D113" s="153"/>
@@ -8180,7 +8180,7 @@
       <c r="T113" s="129"/>
     </row>
     <row r="114" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A114" s="226"/>
+      <c r="A114" s="337"/>
       <c r="B114" s="134"/>
       <c r="C114" s="153"/>
       <c r="D114" s="153"/>
@@ -8202,7 +8202,7 @@
       <c r="T114" s="129"/>
     </row>
     <row r="115" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A115" s="226"/>
+      <c r="A115" s="337"/>
       <c r="B115" s="134"/>
       <c r="C115" s="153"/>
       <c r="D115" s="153"/>
@@ -8224,7 +8224,7 @@
       <c r="T115" s="129"/>
     </row>
     <row r="116" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A116" s="227"/>
+      <c r="A116" s="338"/>
       <c r="B116" s="134"/>
       <c r="C116" s="153"/>
       <c r="D116" s="153"/>
@@ -8581,52 +8581,51 @@
     <row r="135" spans="1:13" hidden="1"/>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A76:A116"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="I34:P34"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A45:A75"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="K17:L17"/>
@@ -8647,51 +8646,52 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A76:A116"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="I34:P34"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A45:A75"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="15">

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2640E2D7-7AF7-489E-9B25-3AE8890C5B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C97134B-DFE2-4113-AAD6-27C7BE05FCED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,148 +17,148 @@
     <sheet name="更新履歴" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="area_code">'ver.43.1.3'!$T$6</definedName>
-    <definedName name="bottom_left" localSheetId="0">'ver.43.1.3'!$A$34</definedName>
-    <definedName name="cartonquantity" localSheetId="0">'ver.43.1.3'!$N$4</definedName>
-    <definedName name="cartonquantity_header" localSheetId="0">'ver.43.1.3'!$L$4</definedName>
-    <definedName name="company_max_count">'ver.43.1.3'!$B$38</definedName>
-    <definedName name="cost_not_depreciation" localSheetId="0">'ver.43.1.3'!$O$33</definedName>
-    <definedName name="cost_not_depreciation_header" localSheetId="0">'ver.43.1.3'!$M$33</definedName>
-    <definedName name="depreciation_cost" localSheetId="0">'ver.43.1.3'!$K$32</definedName>
-    <definedName name="depreciation_cost_header" localSheetId="0">'ver.43.1.3'!$A$32</definedName>
-    <definedName name="depreciation_quantity" localSheetId="0">'ver.43.1.3'!$G$32</definedName>
-    <definedName name="depreciation_unit_cost" localSheetId="0">'ver.43.1.3'!$I$32</definedName>
-    <definedName name="dept_max_count">'ver.43.1.3'!$B$37</definedName>
-    <definedName name="developusercode" localSheetId="0">'ver.43.1.3'!$J$4</definedName>
-    <definedName name="developusercode_header" localSheetId="0">'ver.43.1.3'!$H$4</definedName>
-    <definedName name="fixedcost_profit" localSheetId="0">'ver.43.1.3'!$H$28</definedName>
-    <definedName name="fixedcost_profit_header" localSheetId="0">'ver.43.1.3'!$E$28</definedName>
-    <definedName name="fixedcost_profit_rate" localSheetId="0">'ver.43.1.3'!$K$28</definedName>
-    <definedName name="fixedcost_totalprice" localSheetId="0">'ver.43.1.3'!$H$27</definedName>
-    <definedName name="fixedcost_totalprice_header" localSheetId="0">'ver.43.1.3'!$E$27</definedName>
-    <definedName name="hdn_list_payoff_blank" localSheetId="0">'ver.43.1.3'!$D$38</definedName>
-    <definedName name="hdn_payoff_circle" localSheetId="0">'ver.43.1.3'!$D$39</definedName>
-    <definedName name="inchargegroupcode" localSheetId="0">'ver.43.1.3'!$B$4</definedName>
-    <definedName name="inchargegroupcode_header" localSheetId="0">'ver.43.1.3'!$A$4</definedName>
-    <definedName name="inchargeusercode" localSheetId="0">'ver.43.1.3'!$E$4</definedName>
-    <definedName name="inchargeusercode_header" localSheetId="0">'ver.43.1.3'!$D$4</definedName>
-    <definedName name="indirect_cost" localSheetId="0">'ver.43.1.3'!$N$29</definedName>
-    <definedName name="indirect_cost_header" localSheetId="0">'ver.43.1.3'!$K$29</definedName>
-    <definedName name="insert_date" localSheetId="0">'ver.43.1.3'!$B$2</definedName>
-    <definedName name="insert_date_header" localSheetId="0">'ver.43.1.3'!$A$2</definedName>
-    <definedName name="JPYEN_display" localSheetId="0">'ver.43.1.3'!$A$118</definedName>
-    <definedName name="level2_max_count">'ver.43.1.3'!$B$36</definedName>
-    <definedName name="list_end" localSheetId="0">'ver.43.1.3'!$A$26</definedName>
-    <definedName name="manufacturing_quantity" localSheetId="0">'ver.43.1.3'!$G$33</definedName>
-    <definedName name="manufacturing_unit_cost" localSheetId="0">'ver.43.1.3'!$I$33</definedName>
-    <definedName name="manufacturingcost" localSheetId="0">'ver.43.1.3'!$K$33</definedName>
-    <definedName name="manufacturingcost_header" localSheetId="0">'ver.43.1.3'!$A$33</definedName>
-    <definedName name="member_quantity" localSheetId="0">'ver.43.1.3'!$G$31</definedName>
-    <definedName name="member_unit_cost" localSheetId="0">'ver.43.1.3'!$I$31</definedName>
-    <definedName name="membercost" localSheetId="0">'ver.43.1.3'!$K$31</definedName>
-    <definedName name="membercost_header" localSheetId="0">'ver.43.1.3'!$A$31</definedName>
-    <definedName name="num_of_monetary">'ver.43.1.3'!$B$40</definedName>
-    <definedName name="operating_profit" localSheetId="0">'ver.43.1.3'!$N$30</definedName>
-    <definedName name="operating_profit_header" localSheetId="0">'ver.43.1.3'!$K$30</definedName>
-    <definedName name="operating_profit_rate" localSheetId="0">'ver.43.1.3'!$P$30</definedName>
-    <definedName name="order_e_company_check">'ver.43.1.3'!$R$21</definedName>
-    <definedName name="order_e_conversionrate" localSheetId="0">'ver.43.1.3'!$J$21</definedName>
-    <definedName name="order_e_customercompanycode" localSheetId="0">'ver.43.1.3'!$D$21</definedName>
-    <definedName name="order_e_deliverydate" localSheetId="0">'ver.43.1.3'!$M$21</definedName>
-    <definedName name="order_e_item_check" localSheetId="0">'ver.43.1.3'!$Q$21</definedName>
-    <definedName name="order_e_monetaryunitcode" localSheetId="0">'ver.43.1.3'!$H$21</definedName>
-    <definedName name="order_e_note" localSheetId="0">'ver.43.1.3'!$N$21</definedName>
-    <definedName name="order_e_payofftargetflag" localSheetId="0">'ver.43.1.3'!$F$21</definedName>
-    <definedName name="order_e_productprice" localSheetId="0">'ver.43.1.3'!$I$21</definedName>
-    <definedName name="order_e_productquantity" localSheetId="0">'ver.43.1.3'!$G$21</definedName>
-    <definedName name="order_e_rate_code" localSheetId="0">'ver.43.1.3'!$S$21</definedName>
-    <definedName name="order_e_stockitemcode" localSheetId="0">'ver.43.1.3'!$C$21</definedName>
-    <definedName name="order_e_stocksubjectcode" localSheetId="0">'ver.43.1.3'!$A$21</definedName>
-    <definedName name="order_e_subtotalprice" localSheetId="0">'ver.43.1.3'!$K$21</definedName>
-    <definedName name="order_f_company_check">'ver.43.1.3'!$R$16</definedName>
-    <definedName name="order_f_conversionrate" localSheetId="0">'ver.43.1.3'!$J$16</definedName>
-    <definedName name="order_f_cost_not_depreciation" localSheetId="0">'ver.43.1.3'!$N$19</definedName>
-    <definedName name="order_f_customercompanycode" localSheetId="0">'ver.43.1.3'!$D$16</definedName>
-    <definedName name="order_f_deliverydate" localSheetId="0">'ver.43.1.3'!$M$16</definedName>
-    <definedName name="order_f_fixedcost" localSheetId="0">'ver.43.1.3'!$I$19</definedName>
-    <definedName name="order_f_fixedcost_header" localSheetId="0">'ver.43.1.3'!$A$19</definedName>
-    <definedName name="order_f_item_check" localSheetId="0">'ver.43.1.3'!$Q$16</definedName>
-    <definedName name="order_f_monetaryunitcode" localSheetId="0">'ver.43.1.3'!$H$16</definedName>
-    <definedName name="order_f_note" localSheetId="0">'ver.43.1.3'!$N$16</definedName>
-    <definedName name="order_f_payofftargetflag" localSheetId="0">'ver.43.1.3'!$F$16</definedName>
-    <definedName name="order_f_productprice" localSheetId="0">'ver.43.1.3'!$I$16</definedName>
-    <definedName name="order_f_productquantity" localSheetId="0">'ver.43.1.3'!$G$16</definedName>
-    <definedName name="order_f_rate_code" localSheetId="0">'ver.43.1.3'!$S$16</definedName>
-    <definedName name="order_f_stockitemcode" localSheetId="0">'ver.43.1.3'!$C$16</definedName>
-    <definedName name="order_f_stocksubjectcode" localSheetId="0">'ver.43.1.3'!$A$16</definedName>
-    <definedName name="order_f_subtotalprice" localSheetId="0">'ver.43.1.3'!$K$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ver.43.1.3'!$A$1:$P$34</definedName>
+    <definedName name="area_code">'ver.43.1.3'!$U$6</definedName>
+    <definedName name="bottom_left" localSheetId="0">'ver.43.1.3'!$B$34</definedName>
+    <definedName name="cartonquantity" localSheetId="0">'ver.43.1.3'!$O$4</definedName>
+    <definedName name="cartonquantity_header" localSheetId="0">'ver.43.1.3'!$M$4</definedName>
+    <definedName name="company_max_count">'ver.43.1.3'!$C$38</definedName>
+    <definedName name="cost_not_depreciation" localSheetId="0">'ver.43.1.3'!$P$33</definedName>
+    <definedName name="cost_not_depreciation_header" localSheetId="0">'ver.43.1.3'!$N$33</definedName>
+    <definedName name="depreciation_cost" localSheetId="0">'ver.43.1.3'!$L$32</definedName>
+    <definedName name="depreciation_cost_header" localSheetId="0">'ver.43.1.3'!$B$32</definedName>
+    <definedName name="depreciation_quantity" localSheetId="0">'ver.43.1.3'!$H$32</definedName>
+    <definedName name="depreciation_unit_cost" localSheetId="0">'ver.43.1.3'!$J$32</definedName>
+    <definedName name="dept_max_count">'ver.43.1.3'!$C$37</definedName>
+    <definedName name="developusercode" localSheetId="0">'ver.43.1.3'!$K$4</definedName>
+    <definedName name="developusercode_header" localSheetId="0">'ver.43.1.3'!$I$4</definedName>
+    <definedName name="fixedcost_profit" localSheetId="0">'ver.43.1.3'!$I$28</definedName>
+    <definedName name="fixedcost_profit_header" localSheetId="0">'ver.43.1.3'!$F$28</definedName>
+    <definedName name="fixedcost_profit_rate" localSheetId="0">'ver.43.1.3'!$L$28</definedName>
+    <definedName name="fixedcost_totalprice" localSheetId="0">'ver.43.1.3'!$I$27</definedName>
+    <definedName name="fixedcost_totalprice_header" localSheetId="0">'ver.43.1.3'!$F$27</definedName>
+    <definedName name="hdn_list_payoff_blank" localSheetId="0">'ver.43.1.3'!$E$38</definedName>
+    <definedName name="hdn_payoff_circle" localSheetId="0">'ver.43.1.3'!$E$39</definedName>
+    <definedName name="inchargegroupcode" localSheetId="0">'ver.43.1.3'!$C$4</definedName>
+    <definedName name="inchargegroupcode_header" localSheetId="0">'ver.43.1.3'!$B$4</definedName>
+    <definedName name="inchargeusercode" localSheetId="0">'ver.43.1.3'!$F$4</definedName>
+    <definedName name="inchargeusercode_header" localSheetId="0">'ver.43.1.3'!$E$4</definedName>
+    <definedName name="indirect_cost" localSheetId="0">'ver.43.1.3'!$O$29</definedName>
+    <definedName name="indirect_cost_header" localSheetId="0">'ver.43.1.3'!$L$29</definedName>
+    <definedName name="insert_date" localSheetId="0">'ver.43.1.3'!$C$2</definedName>
+    <definedName name="insert_date_header" localSheetId="0">'ver.43.1.3'!$B$2</definedName>
+    <definedName name="JPYEN_display" localSheetId="0">'ver.43.1.3'!$B$118</definedName>
+    <definedName name="level2_max_count">'ver.43.1.3'!$C$36</definedName>
+    <definedName name="list_end" localSheetId="0">'ver.43.1.3'!$B$26</definedName>
+    <definedName name="manufacturing_quantity" localSheetId="0">'ver.43.1.3'!$H$33</definedName>
+    <definedName name="manufacturing_unit_cost" localSheetId="0">'ver.43.1.3'!$J$33</definedName>
+    <definedName name="manufacturingcost" localSheetId="0">'ver.43.1.3'!$L$33</definedName>
+    <definedName name="manufacturingcost_header" localSheetId="0">'ver.43.1.3'!$B$33</definedName>
+    <definedName name="member_quantity" localSheetId="0">'ver.43.1.3'!$H$31</definedName>
+    <definedName name="member_unit_cost" localSheetId="0">'ver.43.1.3'!$J$31</definedName>
+    <definedName name="membercost" localSheetId="0">'ver.43.1.3'!$L$31</definedName>
+    <definedName name="membercost_header" localSheetId="0">'ver.43.1.3'!$B$31</definedName>
+    <definedName name="num_of_monetary">'ver.43.1.3'!$C$40</definedName>
+    <definedName name="operating_profit" localSheetId="0">'ver.43.1.3'!$O$30</definedName>
+    <definedName name="operating_profit_header" localSheetId="0">'ver.43.1.3'!$L$30</definedName>
+    <definedName name="operating_profit_rate" localSheetId="0">'ver.43.1.3'!$Q$30</definedName>
+    <definedName name="order_e_company_check">'ver.43.1.3'!$S$21</definedName>
+    <definedName name="order_e_conversionrate" localSheetId="0">'ver.43.1.3'!$K$21</definedName>
+    <definedName name="order_e_customercompanycode" localSheetId="0">'ver.43.1.3'!$E$21</definedName>
+    <definedName name="order_e_deliverydate" localSheetId="0">'ver.43.1.3'!$N$21</definedName>
+    <definedName name="order_e_item_check" localSheetId="0">'ver.43.1.3'!$R$21</definedName>
+    <definedName name="order_e_monetaryunitcode" localSheetId="0">'ver.43.1.3'!$I$21</definedName>
+    <definedName name="order_e_note" localSheetId="0">'ver.43.1.3'!$O$21</definedName>
+    <definedName name="order_e_payofftargetflag" localSheetId="0">'ver.43.1.3'!$G$21</definedName>
+    <definedName name="order_e_productprice" localSheetId="0">'ver.43.1.3'!$J$21</definedName>
+    <definedName name="order_e_productquantity" localSheetId="0">'ver.43.1.3'!$H$21</definedName>
+    <definedName name="order_e_rate_code" localSheetId="0">'ver.43.1.3'!$T$21</definedName>
+    <definedName name="order_e_stockitemcode" localSheetId="0">'ver.43.1.3'!$D$21</definedName>
+    <definedName name="order_e_stocksubjectcode" localSheetId="0">'ver.43.1.3'!$B$21</definedName>
+    <definedName name="order_e_subtotalprice" localSheetId="0">'ver.43.1.3'!$L$21</definedName>
+    <definedName name="order_f_company_check">'ver.43.1.3'!$S$16</definedName>
+    <definedName name="order_f_conversionrate" localSheetId="0">'ver.43.1.3'!$K$16</definedName>
+    <definedName name="order_f_cost_not_depreciation" localSheetId="0">'ver.43.1.3'!$O$19</definedName>
+    <definedName name="order_f_customercompanycode" localSheetId="0">'ver.43.1.3'!$E$16</definedName>
+    <definedName name="order_f_deliverydate" localSheetId="0">'ver.43.1.3'!$N$16</definedName>
+    <definedName name="order_f_fixedcost" localSheetId="0">'ver.43.1.3'!$J$19</definedName>
+    <definedName name="order_f_fixedcost_header" localSheetId="0">'ver.43.1.3'!$B$19</definedName>
+    <definedName name="order_f_item_check" localSheetId="0">'ver.43.1.3'!$R$16</definedName>
+    <definedName name="order_f_monetaryunitcode" localSheetId="0">'ver.43.1.3'!$I$16</definedName>
+    <definedName name="order_f_note" localSheetId="0">'ver.43.1.3'!$O$16</definedName>
+    <definedName name="order_f_payofftargetflag" localSheetId="0">'ver.43.1.3'!$G$16</definedName>
+    <definedName name="order_f_productprice" localSheetId="0">'ver.43.1.3'!$J$16</definedName>
+    <definedName name="order_f_productquantity" localSheetId="0">'ver.43.1.3'!$H$16</definedName>
+    <definedName name="order_f_rate_code" localSheetId="0">'ver.43.1.3'!$T$16</definedName>
+    <definedName name="order_f_stockitemcode" localSheetId="0">'ver.43.1.3'!$D$16</definedName>
+    <definedName name="order_f_stocksubjectcode" localSheetId="0">'ver.43.1.3'!$B$16</definedName>
+    <definedName name="order_f_subtotalprice" localSheetId="0">'ver.43.1.3'!$L$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ver.43.1.3'!$A$1:$Q$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ver.43.1.3'!$2:$4</definedName>
-    <definedName name="product_profit" localSheetId="0">'ver.43.1.3'!$C$28</definedName>
-    <definedName name="product_profit_header" localSheetId="0">'ver.43.1.3'!$A$28</definedName>
-    <definedName name="product_profit_rate" localSheetId="0">'ver.43.1.3'!$D$28</definedName>
-    <definedName name="product_totalprice" localSheetId="0">'ver.43.1.3'!$C$27</definedName>
-    <definedName name="product_totalprice_header" localSheetId="0">'ver.43.1.3'!$A$27</definedName>
-    <definedName name="productcode" localSheetId="0">'ver.43.1.3'!$B$3</definedName>
-    <definedName name="productcode_header" localSheetId="0">'ver.43.1.3'!$A$3</definedName>
-    <definedName name="productenglishname" localSheetId="0">'ver.43.1.3'!$J$3</definedName>
-    <definedName name="productenglishname_header" localSheetId="0">'ver.43.1.3'!$I$3</definedName>
-    <definedName name="productionquantity" localSheetId="0">'ver.43.1.3'!$P$4</definedName>
-    <definedName name="productionquantity_header" localSheetId="0">'ver.43.1.3'!$O$4</definedName>
-    <definedName name="productname" localSheetId="0">'ver.43.1.3'!$D$3</definedName>
-    <definedName name="productname_header" localSheetId="0">'ver.43.1.3'!$C$3</definedName>
-    <definedName name="profit" localSheetId="0">'ver.43.1.3'!$N$28</definedName>
-    <definedName name="profit_header" localSheetId="0">'ver.43.1.3'!$L$28</definedName>
-    <definedName name="profit_rate" localSheetId="0">'ver.43.1.3'!$P$28</definedName>
-    <definedName name="pulldown_column_count">'ver.43.1.3'!$B$42</definedName>
-    <definedName name="pulldown_company">'ver.43.1.3'!$B$76</definedName>
-    <definedName name="pulldown_dept_member">'ver.43.1.3'!$C$118</definedName>
-    <definedName name="pulldown_key_area">'ver.43.1.3'!$B$43</definedName>
-    <definedName name="pulldown_level1">'ver.43.1.3'!$B$44</definedName>
-    <definedName name="pulldown_level2">'ver.43.1.3'!$B$45</definedName>
-    <definedName name="pulldown_mrkt_dev">'ver.43.1.3'!$D$118</definedName>
-    <definedName name="pulldown_mrkt_member">'ver.43.1.3'!$D$119</definedName>
-    <definedName name="receive_f_class_check" localSheetId="0">'ver.43.1.3'!$Q$11</definedName>
-    <definedName name="receive_f_company_check">'ver.43.1.3'!$R$11</definedName>
-    <definedName name="receive_f_conversionrate" localSheetId="0">'ver.43.1.3'!$J$11</definedName>
-    <definedName name="receive_f_customercompanycode" localSheetId="0">'ver.43.1.3'!$D$11</definedName>
-    <definedName name="receive_f_deliverydate" localSheetId="0">'ver.43.1.3'!$M$11</definedName>
-    <definedName name="receive_f_monetaryunitcode" localSheetId="0">'ver.43.1.3'!$H$11</definedName>
-    <definedName name="receive_f_note" localSheetId="0">'ver.43.1.3'!$N$11</definedName>
-    <definedName name="receive_f_productprice" localSheetId="0">'ver.43.1.3'!$I$11</definedName>
-    <definedName name="receive_f_productquantity" localSheetId="0">'ver.43.1.3'!$G$11</definedName>
-    <definedName name="receive_f_rate_code" localSheetId="0">'ver.43.1.3'!$S$11</definedName>
-    <definedName name="receive_f_salesclasscode" localSheetId="0">'ver.43.1.3'!$C$11</definedName>
-    <definedName name="receive_f_salesdivisioncode" localSheetId="0">'ver.43.1.3'!$A$11</definedName>
-    <definedName name="receive_f_subtotalprice" localSheetId="0">'ver.43.1.3'!$K$11</definedName>
-    <definedName name="receive_f_totalprice" localSheetId="0">'ver.43.1.3'!$I$14</definedName>
-    <definedName name="receive_f_totalprice_header" localSheetId="0">'ver.43.1.3'!$A$14</definedName>
-    <definedName name="receive_f_totalquantity" localSheetId="0">'ver.43.1.3'!$G$14</definedName>
-    <definedName name="receive_p_class_check" localSheetId="0">'ver.43.1.3'!$Q$6</definedName>
-    <definedName name="receive_p_company_check">'ver.43.1.3'!$R$6</definedName>
-    <definedName name="receive_p_conversionrate" localSheetId="0">'ver.43.1.3'!$J$6</definedName>
-    <definedName name="receive_p_customercompanycode" localSheetId="0">'ver.43.1.3'!$D$6</definedName>
-    <definedName name="receive_p_deliverydate" localSheetId="0">'ver.43.1.3'!$M$6</definedName>
-    <definedName name="receive_p_monetaryunitcode" localSheetId="0">'ver.43.1.3'!$H$6</definedName>
-    <definedName name="receive_p_note" localSheetId="0">'ver.43.1.3'!$N$6</definedName>
-    <definedName name="receive_p_productprice" localSheetId="0">'ver.43.1.3'!$I$6</definedName>
-    <definedName name="receive_p_productquantity" localSheetId="0">'ver.43.1.3'!$G$6</definedName>
-    <definedName name="receive_p_rate_code" localSheetId="0">'ver.43.1.3'!$S$6</definedName>
-    <definedName name="receive_p_salesclasscode" localSheetId="0">'ver.43.1.3'!$C$6</definedName>
-    <definedName name="receive_p_salesdivision_dropdown" localSheetId="0">'ver.43.1.3'!$A$43</definedName>
-    <definedName name="receive_p_salesdivisioncode" localSheetId="0">'ver.43.1.3'!$A$6</definedName>
-    <definedName name="receive_p_subtotalprice" localSheetId="0">'ver.43.1.3'!$K$6</definedName>
-    <definedName name="receive_p_totalprice" localSheetId="0">'ver.43.1.3'!$I$9</definedName>
-    <definedName name="receive_p_totalprice_header" localSheetId="0">'ver.43.1.3'!$A$9</definedName>
-    <definedName name="receive_p_totalquantity" localSheetId="0">'ver.43.1.3'!$G$9</definedName>
-    <definedName name="retailprice" localSheetId="0">'ver.43.1.3'!$P$3</definedName>
-    <definedName name="retailprice_header" localSheetId="0">'ver.43.1.3'!$O$3</definedName>
-    <definedName name="salesamount" localSheetId="0">'ver.43.1.3'!$N$27</definedName>
-    <definedName name="salesamount_header" localSheetId="0">'ver.43.1.3'!$L$27</definedName>
-    <definedName name="standard_rate" localSheetId="0">'ver.43.1.3'!$P$29</definedName>
-    <definedName name="tariff_total" localSheetId="0">'ver.43.1.3'!$B$39</definedName>
-    <definedName name="top_left" localSheetId="0">'ver.43.1.3'!$A$1</definedName>
-    <definedName name="top_right" localSheetId="0">'ver.43.1.3'!$P$1</definedName>
+    <definedName name="product_profit" localSheetId="0">'ver.43.1.3'!$D$28</definedName>
+    <definedName name="product_profit_header" localSheetId="0">'ver.43.1.3'!$B$28</definedName>
+    <definedName name="product_profit_rate" localSheetId="0">'ver.43.1.3'!$E$28</definedName>
+    <definedName name="product_totalprice" localSheetId="0">'ver.43.1.3'!$D$27</definedName>
+    <definedName name="product_totalprice_header" localSheetId="0">'ver.43.1.3'!$B$27</definedName>
+    <definedName name="productcode" localSheetId="0">'ver.43.1.3'!$C$3</definedName>
+    <definedName name="productcode_header" localSheetId="0">'ver.43.1.3'!$B$3</definedName>
+    <definedName name="productenglishname" localSheetId="0">'ver.43.1.3'!$K$3</definedName>
+    <definedName name="productenglishname_header" localSheetId="0">'ver.43.1.3'!$J$3</definedName>
+    <definedName name="productionquantity" localSheetId="0">'ver.43.1.3'!$Q$4</definedName>
+    <definedName name="productionquantity_header" localSheetId="0">'ver.43.1.3'!$P$4</definedName>
+    <definedName name="productname" localSheetId="0">'ver.43.1.3'!$E$3</definedName>
+    <definedName name="productname_header" localSheetId="0">'ver.43.1.3'!$D$3</definedName>
+    <definedName name="profit" localSheetId="0">'ver.43.1.3'!$O$28</definedName>
+    <definedName name="profit_header" localSheetId="0">'ver.43.1.3'!$M$28</definedName>
+    <definedName name="profit_rate" localSheetId="0">'ver.43.1.3'!$Q$28</definedName>
+    <definedName name="pulldown_column_count">'ver.43.1.3'!$C$42</definedName>
+    <definedName name="pulldown_company">'ver.43.1.3'!$C$76</definedName>
+    <definedName name="pulldown_dept_member">'ver.43.1.3'!$D$118</definedName>
+    <definedName name="pulldown_key_area">'ver.43.1.3'!$C$43</definedName>
+    <definedName name="pulldown_level1">'ver.43.1.3'!$C$44</definedName>
+    <definedName name="pulldown_level2">'ver.43.1.3'!$C$45</definedName>
+    <definedName name="pulldown_mrkt_dev">'ver.43.1.3'!$E$118</definedName>
+    <definedName name="pulldown_mrkt_member">'ver.43.1.3'!$E$119</definedName>
+    <definedName name="receive_f_class_check" localSheetId="0">'ver.43.1.3'!$R$11</definedName>
+    <definedName name="receive_f_company_check">'ver.43.1.3'!$S$11</definedName>
+    <definedName name="receive_f_conversionrate" localSheetId="0">'ver.43.1.3'!$K$11</definedName>
+    <definedName name="receive_f_customercompanycode" localSheetId="0">'ver.43.1.3'!$E$11</definedName>
+    <definedName name="receive_f_deliverydate" localSheetId="0">'ver.43.1.3'!$N$11</definedName>
+    <definedName name="receive_f_monetaryunitcode" localSheetId="0">'ver.43.1.3'!$I$11</definedName>
+    <definedName name="receive_f_note" localSheetId="0">'ver.43.1.3'!$O$11</definedName>
+    <definedName name="receive_f_productprice" localSheetId="0">'ver.43.1.3'!$J$11</definedName>
+    <definedName name="receive_f_productquantity" localSheetId="0">'ver.43.1.3'!$H$11</definedName>
+    <definedName name="receive_f_rate_code" localSheetId="0">'ver.43.1.3'!$T$11</definedName>
+    <definedName name="receive_f_salesclasscode" localSheetId="0">'ver.43.1.3'!$D$11</definedName>
+    <definedName name="receive_f_salesdivisioncode" localSheetId="0">'ver.43.1.3'!$B$11</definedName>
+    <definedName name="receive_f_subtotalprice" localSheetId="0">'ver.43.1.3'!$L$11</definedName>
+    <definedName name="receive_f_totalprice" localSheetId="0">'ver.43.1.3'!$J$14</definedName>
+    <definedName name="receive_f_totalprice_header" localSheetId="0">'ver.43.1.3'!$B$14</definedName>
+    <definedName name="receive_f_totalquantity" localSheetId="0">'ver.43.1.3'!$H$14</definedName>
+    <definedName name="receive_p_class_check" localSheetId="0">'ver.43.1.3'!$R$6</definedName>
+    <definedName name="receive_p_company_check">'ver.43.1.3'!$S$6</definedName>
+    <definedName name="receive_p_conversionrate" localSheetId="0">'ver.43.1.3'!$K$6</definedName>
+    <definedName name="receive_p_customercompanycode" localSheetId="0">'ver.43.1.3'!$E$6</definedName>
+    <definedName name="receive_p_deliverydate" localSheetId="0">'ver.43.1.3'!$N$6</definedName>
+    <definedName name="receive_p_monetaryunitcode" localSheetId="0">'ver.43.1.3'!$I$6</definedName>
+    <definedName name="receive_p_note" localSheetId="0">'ver.43.1.3'!$O$6</definedName>
+    <definedName name="receive_p_productprice" localSheetId="0">'ver.43.1.3'!$J$6</definedName>
+    <definedName name="receive_p_productquantity" localSheetId="0">'ver.43.1.3'!$H$6</definedName>
+    <definedName name="receive_p_rate_code" localSheetId="0">'ver.43.1.3'!$T$6</definedName>
+    <definedName name="receive_p_salesclasscode" localSheetId="0">'ver.43.1.3'!$D$6</definedName>
+    <definedName name="receive_p_salesdivision_dropdown" localSheetId="0">'ver.43.1.3'!$B$43</definedName>
+    <definedName name="receive_p_salesdivisioncode" localSheetId="0">'ver.43.1.3'!$B$6</definedName>
+    <definedName name="receive_p_subtotalprice" localSheetId="0">'ver.43.1.3'!$L$6</definedName>
+    <definedName name="receive_p_totalprice" localSheetId="0">'ver.43.1.3'!$J$9</definedName>
+    <definedName name="receive_p_totalprice_header" localSheetId="0">'ver.43.1.3'!$B$9</definedName>
+    <definedName name="receive_p_totalquantity" localSheetId="0">'ver.43.1.3'!$H$9</definedName>
+    <definedName name="retailprice" localSheetId="0">'ver.43.1.3'!$Q$3</definedName>
+    <definedName name="retailprice_header" localSheetId="0">'ver.43.1.3'!$P$3</definedName>
+    <definedName name="salesamount" localSheetId="0">'ver.43.1.3'!$O$27</definedName>
+    <definedName name="salesamount_header" localSheetId="0">'ver.43.1.3'!$M$27</definedName>
+    <definedName name="standard_rate" localSheetId="0">'ver.43.1.3'!$Q$29</definedName>
+    <definedName name="tariff_total" localSheetId="0">'ver.43.1.3'!$C$39</definedName>
+    <definedName name="top_left" localSheetId="0">'ver.43.1.3'!$B$1</definedName>
+    <definedName name="top_right" localSheetId="0">'ver.43.1.3'!$Q$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3563,7 +3563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4206,6 +4206,13 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5211,1385 +5218,1385 @@
     <tabColor rgb="FFFFEB00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z135"/>
+  <dimension ref="A1:AA135"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="16.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="22.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="10" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="203" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="22.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="10.5" customHeight="1">
-      <c r="P1" s="24" t="s">
+    <row r="1" spans="2:27" ht="10.5" customHeight="1">
+      <c r="Q1" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:27" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="224" t="s">
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="35"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
       <c r="M2" s="35"/>
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
       <c r="P2" s="35"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.65" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="Q2" s="35"/>
+    </row>
+    <row r="3" spans="2:27" ht="28.65" customHeight="1">
+      <c r="B3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="78" t="s">
+      <c r="E3" s="227"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="225"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="79" t="s">
+      <c r="K3" s="227"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="89"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="4" t="s">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="2:27" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="228"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="230"/>
-      <c r="F4" s="231"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="233" t="s">
+      <c r="F4" s="232"/>
+      <c r="G4" s="233"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="234"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="233" t="s">
+      <c r="J4" s="236"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="234"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="75" t="s">
+      <c r="N4" s="236"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="197">
-        <f>SUMIF(C7:C8,"1:本荷",G7:G8)</f>
+      <c r="Q4" s="197">
+        <f>SUMIF(D7:D8,"1:本荷",H7:H8)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="145" t="s">
+      <c r="R4" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="V4" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="V4" s="145"/>
       <c r="W4" s="145"/>
-      <c r="X4" s="145" t="s">
+      <c r="X4" s="145"/>
+      <c r="Y4" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="Y4" s="145"/>
-      <c r="Z4" s="145" t="s">
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A5" s="236"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="237"/>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="237"/>
-      <c r="P5" s="238"/>
-    </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="203" t="s">
+    <row r="5" spans="2:27" ht="6.75" customHeight="1" thickBot="1">
+      <c r="B5" s="238"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="240"/>
+    </row>
+    <row r="6" spans="2:27" ht="18" customHeight="1">
+      <c r="B6" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="206"/>
+      <c r="D6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="205" t="s">
+      <c r="E6" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="206"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="57" t="s">
+      <c r="F6" s="208"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="I6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="J6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="K6" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="207" t="s">
+      <c r="L6" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="208"/>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="210"/>
+      <c r="N6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="209" t="s">
+      <c r="O6" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="210"/>
-      <c r="P6" s="211"/>
-      <c r="Q6" s="145" t="s">
+      <c r="P6" s="212"/>
+      <c r="Q6" s="213"/>
+      <c r="R6" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="145" t="s">
+      <c r="S6" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="S6" s="145" t="s">
+      <c r="T6" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="151" t="s">
+      <c r="U6" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="U6" s="145" t="s">
+      <c r="V6" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="V6" s="145" t="s">
+      <c r="W6" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="W6" s="145" t="s">
+      <c r="X6" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="X6" s="145" t="s">
+      <c r="Y6" s="145" t="s">
         <v>110</v>
-      </c>
-      <c r="Y6" s="145" t="s">
-        <v>117</v>
       </c>
       <c r="Z6" s="145" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A7" s="212"/>
-      <c r="B7" s="213"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="42" t="s">
+      <c r="AA6" s="145" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="14.1" customHeight="1">
+      <c r="B7" s="214"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="217">
-        <f>IFERROR(ROUNDDOWN(G7*ROUNDDOWN(I7,4)*J7,0),"")</f>
+      <c r="J7" s="37"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="219">
+        <f>IFERROR(ROUNDDOWN(H7*ROUNDDOWN(J7,4)*K7,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="218"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="219"/>
-      <c r="O7" s="220"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="1" t="str">
-        <f t="shared" ref="Q7:Q8" ca="1" si="0">IFERROR(VLOOKUP(C7,OFFSET(pulldown_level2,0,U7+X7,Y7,1),1,FALSE),"")</f>
+      <c r="M7" s="220"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="223"/>
+      <c r="R7" s="1" t="str">
+        <f t="shared" ref="R7:R8" ca="1" si="0">IFERROR(VLOOKUP(D7,OFFSET(pulldown_level2,0,V7+Y7,Z7,1),1,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R7" s="1" t="str">
-        <f t="shared" ref="R7:R8" ca="1" si="1">IFERROR(VLOOKUP(D7,OFFSET(pulldown_company,0,U7+X7,Z7,1),1,FALSE),"")</f>
+      <c r="S7" s="1" t="str">
+        <f t="shared" ref="S7:S8" ca="1" si="1">IFERROR(VLOOKUP(E7,OFFSET(pulldown_company,0,V7+Y7,AA7,1),1,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S7" s="1">
-        <f t="shared" ref="S7:S8" ca="1" si="2">IFERROR(VLOOKUP(H7,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+      <c r="T7" s="1">
+        <f t="shared" ref="T7:T8" ca="1" si="2">IFERROR(VLOOKUP(I7,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>1</v>
       </c>
-      <c r="U7" s="1">
-        <f t="shared" ref="U7:U8" ca="1" si="3">IFERROR(MATCH(T7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+      <c r="V7" s="1">
+        <f t="shared" ref="V7:V8" ca="1" si="3">IFERROR(MATCH(U7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="1">
-        <f t="shared" ref="V7:V8" ca="1" si="4">IFERROR(MATCH(T7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+      <c r="W7" s="1">
+        <f t="shared" ref="W7:W8" ca="1" si="4">IFERROR(MATCH(U7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="1">
-        <f ca="1">(V7-U7)+1</f>
+      <c r="X7" s="1">
+        <f ca="1">(W7-V7)+1</f>
         <v>1</v>
       </c>
-      <c r="X7" s="1">
-        <f t="shared" ref="X7:X8" ca="1" si="5">IFERROR(MATCH(A7,OFFSET(pulldown_level1,0,U7,1,W7),0)-1,0)</f>
+      <c r="Y7" s="1">
+        <f t="shared" ref="Y7:Y8" ca="1" si="5">IFERROR(MATCH(B7,OFFSET(pulldown_level1,0,V7,1,X7),0)-1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="1">
-        <f t="shared" ref="Y7:Y8" ca="1" si="6">IF(X7=0,1,COUNTA(OFFSET(pulldown_level2,0,U7+X7,level2_max_count,1))+1)</f>
+      <c r="Z7" s="1">
+        <f t="shared" ref="Z7:Z8" ca="1" si="6">IF(Y7=0,1,COUNTA(OFFSET(pulldown_level2,0,V7+Y7,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
-      <c r="Z7" s="1">
-        <f t="shared" ref="Z7:Z8" ca="1" si="7">IF(X7=0,1,COUNTA(OFFSET(pulldown_company,0,U7+X7,company_max_count,1))+1)</f>
+      <c r="AA7" s="1">
+        <f t="shared" ref="AA7:AA8" ca="1" si="7">IF(Y7=0,1,COUNTA(OFFSET(pulldown_company,0,V7+Y7,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A8" s="212"/>
-      <c r="B8" s="213"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="43" t="s">
+    <row r="8" spans="2:27" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B8" s="214"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="217">
-        <f>IFERROR(ROUNDDOWN(G8*ROUNDDOWN(I8,4)*J8,0),"")</f>
+      <c r="J8" s="39"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="219">
+        <f>IFERROR(ROUNDDOWN(H8*ROUNDDOWN(J8,4)*K8,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="218"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="222"/>
-      <c r="O8" s="222"/>
-      <c r="P8" s="223"/>
-      <c r="Q8" s="1" t="str">
+      <c r="M8" s="220"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="224"/>
+      <c r="P8" s="224"/>
+      <c r="Q8" s="225"/>
+      <c r="R8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="R8" s="1" t="str">
+      <c r="S8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>1</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="W8" s="1">
-        <f t="shared" ref="W8" ca="1" si="8">(V8-U8)+1</f>
+      <c r="X8" s="1">
+        <f t="shared" ref="X8" ca="1" si="8">(W8-V8)+1</f>
         <v>1</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A9" s="248" t="s">
+    <row r="9" spans="2:27" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B9" s="250" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="97">
-        <f>SUM(G7:G8)</f>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="252"/>
+      <c r="H9" s="97">
+        <f>SUM(H7:H8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="251">
-        <f>SUM(K7:K8)</f>
+      <c r="I9" s="98"/>
+      <c r="J9" s="253">
+        <f>SUM(L7:L8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="252"/>
-      <c r="K9" s="252"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="254"/>
-      <c r="O9" s="254"/>
-      <c r="P9" s="255"/>
-      <c r="Q9" s="1">
-        <f>IF(C9&lt;&gt;0,IF(A9=$G$44,VLOOKUP(C9,$G$46:$G$54,1,TRUE),IF(A9=$H$44,VLOOKUP(C9,$H$46:$H$56,1,TRUE),IF(A9=$I$44,VLOOKUP(C9,$I$46:$I$54,1,TRUE),))),)</f>
+      <c r="K9" s="254"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="255"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="256"/>
+      <c r="P9" s="256"/>
+      <c r="Q9" s="257"/>
+      <c r="R9" s="1">
+        <f>IF(D9&lt;&gt;0,IF(B9=$H$44,VLOOKUP(D9,$H$46:$H$54,1,TRUE),IF(B9=$I$44,VLOOKUP(D9,$I$46:$I$56,1,TRUE),IF(B9=$J$44,VLOOKUP(D9,$J$46:$J$54,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A10" s="256"/>
-      <c r="B10" s="257"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="257"/>
-      <c r="J10" s="257"/>
-      <c r="K10" s="257"/>
-      <c r="L10" s="257"/>
-      <c r="M10" s="257"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="257"/>
-      <c r="P10" s="258"/>
-    </row>
-    <row r="11" spans="1:26" ht="18" customHeight="1">
-      <c r="A11" s="259" t="s">
+    <row r="10" spans="2:27" ht="6" customHeight="1" thickBot="1">
+      <c r="B10" s="258"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="259"/>
+      <c r="K10" s="259"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="259"/>
+      <c r="N10" s="259"/>
+      <c r="O10" s="259"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="260"/>
+    </row>
+    <row r="11" spans="2:27" ht="18" customHeight="1">
+      <c r="B11" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="260"/>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="262"/>
+      <c r="D11" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="261" t="s">
+      <c r="E11" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="262"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="62" t="s">
+      <c r="F11" s="264"/>
+      <c r="G11" s="262"/>
+      <c r="H11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="I11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="J11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="K11" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="263" t="s">
+      <c r="L11" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="264"/>
-      <c r="M11" s="60" t="s">
+      <c r="M11" s="266"/>
+      <c r="N11" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="209" t="s">
+      <c r="O11" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="210"/>
-      <c r="P11" s="211"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A12" s="240"/>
-      <c r="B12" s="241"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="243"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="45" t="s">
+      <c r="P11" s="212"/>
+      <c r="Q11" s="213"/>
+    </row>
+    <row r="12" spans="2:27" ht="14.1" customHeight="1">
+      <c r="B12" s="242"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="217">
-        <f>IFERROR(ROUNDDOWN(G12*ROUNDDOWN(I12,4)*J12,0),"")</f>
+      <c r="J12" s="6"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="219">
+        <f>IFERROR(ROUNDDOWN(H12*ROUNDDOWN(J12,4)*K12,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L12" s="218"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="245"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="247"/>
-      <c r="Q12" s="1" t="str">
-        <f t="shared" ref="Q12:Q13" ca="1" si="9">IFERROR(VLOOKUP(C12,OFFSET(pulldown_level2,0,U12+X12,Y12,1),1,FALSE),"")</f>
+      <c r="M12" s="220"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="247"/>
+      <c r="P12" s="248"/>
+      <c r="Q12" s="249"/>
+      <c r="R12" s="1" t="str">
+        <f t="shared" ref="R12:R13" ca="1" si="9">IFERROR(VLOOKUP(D12,OFFSET(pulldown_level2,0,V12+Y12,Z12,1),1,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R12" s="1" t="str">
-        <f t="shared" ref="R12:R13" ca="1" si="10">IFERROR(VLOOKUP(D12,OFFSET(pulldown_company,0,U12+X12,Z12,1),1,FALSE),"")</f>
+      <c r="S12" s="1" t="str">
+        <f t="shared" ref="S12:S13" ca="1" si="10">IFERROR(VLOOKUP(E12,OFFSET(pulldown_company,0,V12+Y12,AA12,1),1,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S12" s="1">
-        <f t="shared" ref="S12:S13" ca="1" si="11">IFERROR(VLOOKUP(H12,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+      <c r="T12" s="1">
+        <f t="shared" ref="T12:T13" ca="1" si="11">IFERROR(VLOOKUP(I12,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>2</v>
       </c>
-      <c r="U12" s="1">
-        <f t="shared" ref="U12:U13" ca="1" si="12">IFERROR(MATCH(T12,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+      <c r="V12" s="1">
+        <f t="shared" ref="V12:V13" ca="1" si="12">IFERROR(MATCH(U12,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="1">
-        <f t="shared" ref="V12:V13" ca="1" si="13">IFERROR(MATCH(T12,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+      <c r="W12" s="1">
+        <f t="shared" ref="W12:W13" ca="1" si="13">IFERROR(MATCH(U12,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="1">
-        <f t="shared" ref="W12" ca="1" si="14">(V12-U12)+1</f>
+      <c r="X12" s="1">
+        <f t="shared" ref="X12" ca="1" si="14">(W12-V12)+1</f>
         <v>1</v>
       </c>
-      <c r="X12" s="1">
-        <f t="shared" ref="X12:X13" ca="1" si="15">IFERROR(MATCH(A12,OFFSET(pulldown_level1,0,U12,1,W12),0)-1,0)</f>
+      <c r="Y12" s="1">
+        <f t="shared" ref="Y12:Y13" ca="1" si="15">IFERROR(MATCH(B12,OFFSET(pulldown_level1,0,V12,1,X12),0)-1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="1">
-        <f t="shared" ref="Y12:Y13" ca="1" si="16">IF(X12=0,1,COUNTA(OFFSET(pulldown_level2,0,U12+X12,level2_max_count,1))+1)</f>
+      <c r="Z12" s="1">
+        <f t="shared" ref="Z12:Z13" ca="1" si="16">IF(Y12=0,1,COUNTA(OFFSET(pulldown_level2,0,V12+Y12,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
-      <c r="Z12" s="1">
-        <f t="shared" ref="Z12:Z13" ca="1" si="17">IF(X12=0,1,COUNTA(OFFSET(pulldown_company,0,U12+X12,company_max_count,1))+1)</f>
+      <c r="AA12" s="1">
+        <f t="shared" ref="AA12:AA13" ca="1" si="17">IF(Y12=0,1,COUNTA(OFFSET(pulldown_company,0,V12+Y12,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A13" s="278"/>
-      <c r="B13" s="279"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="46" t="s">
+    <row r="13" spans="2:27" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B13" s="280"/>
+      <c r="C13" s="281"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="217">
-        <f>IFERROR(ROUNDDOWN(G13*ROUNDDOWN(I13,4)*J13,0),"")</f>
+      <c r="J13" s="33"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="219">
+        <f>IFERROR(ROUNDDOWN(H13*ROUNDDOWN(J13,4)*K13,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L13" s="218"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="280"/>
-      <c r="O13" s="280"/>
-      <c r="P13" s="281"/>
-      <c r="Q13" s="1" t="str">
+      <c r="M13" s="220"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="282"/>
+      <c r="P13" s="282"/>
+      <c r="Q13" s="283"/>
+      <c r="R13" s="1" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="R13" s="1" t="str">
+      <c r="S13" s="1" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>2</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="W13" s="1">
-        <f t="shared" ref="W13" ca="1" si="18">(V13-U13)+1</f>
+      <c r="X13" s="1">
+        <f t="shared" ref="X13" ca="1" si="18">(W13-V13)+1</f>
         <v>1</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A14" s="265" t="s">
+    <row r="14" spans="2:27" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B14" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="266"/>
-      <c r="C14" s="266"/>
-      <c r="D14" s="266"/>
-      <c r="E14" s="266"/>
-      <c r="F14" s="267"/>
-      <c r="G14" s="99">
-        <f>SUM(G12:G13)</f>
+      <c r="C14" s="268"/>
+      <c r="D14" s="268"/>
+      <c r="E14" s="268"/>
+      <c r="F14" s="268"/>
+      <c r="G14" s="269"/>
+      <c r="H14" s="99">
+        <f>SUM(H12:H13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="268">
-        <f>SUM(K12:K13)</f>
+      <c r="I14" s="100"/>
+      <c r="J14" s="270">
+        <f>SUM(L12:L13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="269"/>
-      <c r="K14" s="269"/>
-      <c r="L14" s="270"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="271"/>
-      <c r="O14" s="271"/>
-      <c r="P14" s="272"/>
-      <c r="Q14" s="1">
-        <f>IF(C14&lt;&gt;0,IF(A14=$G$44,VLOOKUP(C14,$G$46:$G$54,1,TRUE),IF(A14=$H$44,VLOOKUP(C14,$H$46:$H$56,1,TRUE),IF(A14=$I$44,VLOOKUP(C14,$I$46:$I$54,1,TRUE),))),)</f>
+      <c r="K14" s="271"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="272"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="273"/>
+      <c r="P14" s="273"/>
+      <c r="Q14" s="274"/>
+      <c r="R14" s="1">
+        <f>IF(D14&lt;&gt;0,IF(B14=$H$44,VLOOKUP(D14,$H$46:$H$54,1,TRUE),IF(B14=$I$44,VLOOKUP(D14,$I$46:$I$56,1,TRUE),IF(B14=$J$44,VLOOKUP(D14,$J$46:$J$54,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A15" s="256"/>
-      <c r="B15" s="257"/>
-      <c r="C15" s="257"/>
-      <c r="D15" s="257"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="257"/>
-      <c r="G15" s="257"/>
-      <c r="H15" s="257"/>
-      <c r="I15" s="257"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="257"/>
-      <c r="L15" s="257"/>
-      <c r="M15" s="257"/>
-      <c r="N15" s="257"/>
-      <c r="O15" s="257"/>
-      <c r="P15" s="258"/>
-    </row>
-    <row r="16" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A16" s="273" t="s">
+    <row r="15" spans="2:27" ht="6" customHeight="1" thickBot="1">
+      <c r="B15" s="258"/>
+      <c r="C15" s="259"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="259"/>
+      <c r="J15" s="259"/>
+      <c r="K15" s="259"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="259"/>
+      <c r="N15" s="259"/>
+      <c r="O15" s="259"/>
+      <c r="P15" s="259"/>
+      <c r="Q15" s="260"/>
+    </row>
+    <row r="16" spans="2:27" ht="20.25" customHeight="1">
+      <c r="B16" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="274"/>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="276"/>
+      <c r="D16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="275" t="s">
+      <c r="E16" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="274"/>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="276"/>
+      <c r="G16" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="H16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="I16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="J16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="69" t="s">
+      <c r="K16" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="275" t="s">
+      <c r="L16" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="274"/>
-      <c r="M16" s="54" t="s">
+      <c r="M16" s="276"/>
+      <c r="N16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="275" t="s">
+      <c r="O16" s="277" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="276"/>
-      <c r="P16" s="277"/>
-    </row>
-    <row r="17" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A17" s="282"/>
-      <c r="B17" s="283"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="284"/>
-      <c r="E17" s="283"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="51" t="s">
+      <c r="P16" s="278"/>
+      <c r="Q16" s="279"/>
+    </row>
+    <row r="17" spans="2:27" ht="14.1" customHeight="1">
+      <c r="B17" s="284"/>
+      <c r="C17" s="285"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="286"/>
+      <c r="F17" s="285"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="285">
-        <f>IFERROR(ROUNDDOWN(G17*ROUNDDOWN(I17,4)*J17,0),"")</f>
+      <c r="J17" s="8"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="287">
+        <f>IFERROR(ROUNDDOWN(H17*ROUNDDOWN(J17,4)*K17,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L17" s="286"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="287"/>
-      <c r="O17" s="287"/>
-      <c r="P17" s="288"/>
-      <c r="Q17" s="1" t="str">
-        <f t="shared" ref="Q17:Q18" ca="1" si="19">IFERROR(VLOOKUP(C17,OFFSET(pulldown_level2,0,U17+X17,Y17,1),1,FALSE),"")</f>
+      <c r="M17" s="288"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="289"/>
+      <c r="P17" s="289"/>
+      <c r="Q17" s="290"/>
+      <c r="R17" s="1" t="str">
+        <f t="shared" ref="R17:R18" ca="1" si="19">IFERROR(VLOOKUP(D17,OFFSET(pulldown_level2,0,V17+Y17,Z17,1),1,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R17" s="1" t="str">
-        <f t="shared" ref="R17:R18" ca="1" si="20">IFERROR(VLOOKUP(D17,OFFSET(pulldown_company,0,U17+X17,Z17,1),1,FALSE),"")</f>
+      <c r="S17" s="1" t="str">
+        <f t="shared" ref="S17:S18" ca="1" si="20">IFERROR(VLOOKUP(E17,OFFSET(pulldown_company,0,V17+Y17,AA17,1),1,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S17" s="1">
-        <f t="shared" ref="S17:S18" ca="1" si="21">IFERROR(VLOOKUP(H17,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+      <c r="T17" s="1">
+        <f t="shared" ref="T17:T18" ca="1" si="21">IFERROR(VLOOKUP(I17,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>3</v>
       </c>
-      <c r="U17" s="1">
-        <f t="shared" ref="U17:U18" ca="1" si="22">IFERROR(MATCH(T17,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+      <c r="V17" s="1">
+        <f t="shared" ref="V17:V18" ca="1" si="22">IFERROR(MATCH(U17,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="1">
-        <f t="shared" ref="V17:V18" ca="1" si="23">IFERROR(MATCH(T17,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+      <c r="W17" s="1">
+        <f t="shared" ref="W17:W18" ca="1" si="23">IFERROR(MATCH(U17,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="1">
-        <f t="shared" ref="W17:W18" ca="1" si="24">(V17-U17)+1</f>
+      <c r="X17" s="1">
+        <f t="shared" ref="X17:X18" ca="1" si="24">(W17-V17)+1</f>
         <v>1</v>
       </c>
-      <c r="X17" s="1">
-        <f t="shared" ref="X17:X18" ca="1" si="25">IFERROR(MATCH(A17,OFFSET(pulldown_level1,0,U17,1,W17),0)-1,0)</f>
+      <c r="Y17" s="1">
+        <f t="shared" ref="Y17:Y18" ca="1" si="25">IFERROR(MATCH(B17,OFFSET(pulldown_level1,0,V17,1,X17),0)-1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="1">
-        <f t="shared" ref="Y17:Y18" ca="1" si="26">IF(X17=0,1,COUNTA(OFFSET(pulldown_level2,0,U17+X17,level2_max_count,1))+1)</f>
+      <c r="Z17" s="1">
+        <f t="shared" ref="Z17:Z18" ca="1" si="26">IF(Y17=0,1,COUNTA(OFFSET(pulldown_level2,0,V17+Y17,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
-      <c r="Z17" s="1">
-        <f t="shared" ref="Z17:Z18" ca="1" si="27">IF(X17=0,1,COUNTA(OFFSET(pulldown_company,0,U17+X17,company_max_count,1))+1)</f>
+      <c r="AA17" s="1">
+        <f t="shared" ref="AA17:AA18" ca="1" si="27">IF(Y17=0,1,COUNTA(OFFSET(pulldown_company,0,V17+Y17,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="282"/>
-      <c r="B18" s="283"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="284"/>
-      <c r="E18" s="283"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="52" t="s">
+    <row r="18" spans="2:27" ht="15" customHeight="1" thickBot="1">
+      <c r="B18" s="284"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="286"/>
+      <c r="F18" s="285"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="285">
-        <f>IFERROR(ROUNDDOWN(G18*ROUNDDOWN(I18,4)*J18,0),"")</f>
+      <c r="J18" s="33"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="287">
+        <f>IFERROR(ROUNDDOWN(H18*ROUNDDOWN(J18,4)*K18,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L18" s="286"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="301"/>
-      <c r="O18" s="301"/>
-      <c r="P18" s="302"/>
-      <c r="Q18" s="1" t="str">
+      <c r="M18" s="288"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="303"/>
+      <c r="P18" s="303"/>
+      <c r="Q18" s="304"/>
+      <c r="R18" s="1" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="R18" s="1" t="str">
+      <c r="S18" s="1" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <f t="shared" ca="1" si="21"/>
         <v>2</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>3</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <f t="shared" ca="1" si="24"/>
         <v>1</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AA18" s="1">
         <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="289" t="s">
+    <row r="19" spans="2:27" ht="15" customHeight="1" thickBot="1">
+      <c r="B19" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="290"/>
-      <c r="C19" s="290"/>
-      <c r="D19" s="290"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="291"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="292">
-        <f>SUM(K17:K18)</f>
+      <c r="C19" s="292"/>
+      <c r="D19" s="292"/>
+      <c r="E19" s="292"/>
+      <c r="F19" s="292"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="294">
+        <f>SUM(L17:L18)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="293"/>
-      <c r="K19" s="293"/>
-      <c r="L19" s="294"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="295">
-        <f>SUMIF(F17:F18,"&lt;&gt;"&amp;hdn_payoff_circle,K17:K18)</f>
+      <c r="K19" s="295"/>
+      <c r="L19" s="295"/>
+      <c r="M19" s="296"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="297">
+        <f>SUMIF(G17:G18,"&lt;&gt;"&amp;hdn_payoff_circle,L17:L18)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="296"/>
-      <c r="P19" s="297"/>
-    </row>
-    <row r="20" spans="1:26" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A20" s="298"/>
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="299"/>
-      <c r="K20" s="299"/>
-      <c r="L20" s="299"/>
-      <c r="M20" s="299"/>
-      <c r="N20" s="299"/>
-      <c r="O20" s="299"/>
-      <c r="P20" s="300"/>
-    </row>
-    <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="273" t="s">
+      <c r="P19" s="298"/>
+      <c r="Q19" s="299"/>
+    </row>
+    <row r="20" spans="2:27" ht="8.25" customHeight="1" thickBot="1">
+      <c r="B20" s="300"/>
+      <c r="C20" s="301"/>
+      <c r="D20" s="301"/>
+      <c r="E20" s="301"/>
+      <c r="F20" s="301"/>
+      <c r="G20" s="301"/>
+      <c r="H20" s="301"/>
+      <c r="I20" s="301"/>
+      <c r="J20" s="301"/>
+      <c r="K20" s="301"/>
+      <c r="L20" s="301"/>
+      <c r="M20" s="301"/>
+      <c r="N20" s="301"/>
+      <c r="O20" s="301"/>
+      <c r="P20" s="301"/>
+      <c r="Q20" s="302"/>
+    </row>
+    <row r="21" spans="2:27" ht="19.5" customHeight="1">
+      <c r="B21" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="274"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="276"/>
+      <c r="D21" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="275" t="s">
+      <c r="E21" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="274"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55" t="s">
+      <c r="F21" s="276"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="I21" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="J21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="K21" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="275" t="s">
+      <c r="L21" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="274"/>
-      <c r="M21" s="54" t="s">
+      <c r="M21" s="276"/>
+      <c r="N21" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="275" t="s">
+      <c r="O21" s="277" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="276"/>
-      <c r="P21" s="277"/>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A22" s="282"/>
-      <c r="B22" s="283"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="284"/>
-      <c r="E22" s="283"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="51" t="s">
+      <c r="P21" s="278"/>
+      <c r="Q21" s="279"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="2:27" ht="14.1" customHeight="1">
+      <c r="B22" s="284"/>
+      <c r="C22" s="285"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="286"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="285">
-        <f>IFERROR(ROUNDDOWN(G22*ROUNDDOWN(I22,4)*J22,0),"")</f>
+      <c r="J22" s="111"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="287">
+        <f>IFERROR(ROUNDDOWN(H22*ROUNDDOWN(J22,4)*K22,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L22" s="286"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="287"/>
-      <c r="O22" s="287"/>
-      <c r="P22" s="288"/>
-      <c r="Q22" s="1" t="str">
-        <f t="shared" ref="Q22:Q25" ca="1" si="28">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
+      <c r="M22" s="288"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="289"/>
+      <c r="P22" s="289"/>
+      <c r="Q22" s="290"/>
+      <c r="R22" s="1" t="str">
+        <f t="shared" ref="R22:R25" ca="1" si="28">IFERROR(VLOOKUP(D22,OFFSET(pulldown_level2,0,V22+Y22,Z22,1),1,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R22" s="1" t="str">
-        <f t="shared" ref="R22:R25" ca="1" si="29">IFERROR(VLOOKUP(D22,OFFSET(pulldown_company,0,U22+X22,Z22,1),1,FALSE),"")</f>
+      <c r="S22" s="1" t="str">
+        <f t="shared" ref="S22:S25" ca="1" si="29">IFERROR(VLOOKUP(E22,OFFSET(pulldown_company,0,V22+Y22,AA22,1),1,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S22" s="1">
-        <f t="shared" ref="S22" ca="1" si="30">IFERROR(VLOOKUP(H22,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+      <c r="T22" s="1">
+        <f t="shared" ref="T22" ca="1" si="30">IFERROR(VLOOKUP(I22,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>4</v>
       </c>
-      <c r="U22" s="1">
-        <f t="shared" ref="U22" ca="1" si="31">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+      <c r="V22" s="1">
+        <f t="shared" ref="V22" ca="1" si="31">IFERROR(MATCH(U22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="1">
-        <f t="shared" ref="V22" ca="1" si="32">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+      <c r="W22" s="1">
+        <f t="shared" ref="W22" ca="1" si="32">IFERROR(MATCH(U22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="1">
-        <f t="shared" ref="W22:W25" ca="1" si="33">(V22-U22)+1</f>
+      <c r="X22" s="1">
+        <f t="shared" ref="X22:X25" ca="1" si="33">(W22-V22)+1</f>
         <v>1</v>
       </c>
-      <c r="X22" s="1">
-        <f t="shared" ref="X22:X25" ca="1" si="34">IFERROR(MATCH(A22,OFFSET(pulldown_level1,0,U22,1,W22),0)-1,0)</f>
+      <c r="Y22" s="1">
+        <f t="shared" ref="Y22:Y25" ca="1" si="34">IFERROR(MATCH(B22,OFFSET(pulldown_level1,0,V22,1,X22),0)-1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="1">
-        <f t="shared" ref="Y22:Y25" ca="1" si="35">IF(X22=0,1,COUNTA(OFFSET(pulldown_level2,0,U22+X22,level2_max_count,1))+1)</f>
+      <c r="Z22" s="1">
+        <f t="shared" ref="Z22:Z25" ca="1" si="35">IF(Y22=0,1,COUNTA(OFFSET(pulldown_level2,0,V22+Y22,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
-      <c r="Z22" s="1">
-        <f t="shared" ref="Z22" ca="1" si="36">IF(X22=0,1,COUNTA(OFFSET(pulldown_company,0,U22+X22,company_max_count,1))+1)</f>
+      <c r="AA22" s="1">
+        <f t="shared" ref="AA22" ca="1" si="36">IF(Y22=0,1,COUNTA(OFFSET(pulldown_company,0,V22+Y22,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A23" s="303"/>
-      <c r="B23" s="304"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="305"/>
-      <c r="E23" s="304"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="122" t="s">
+    <row r="23" spans="2:27" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B23" s="305"/>
+      <c r="C23" s="306"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="307"/>
+      <c r="F23" s="306"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="306">
-        <f>IFERROR(ROUNDDOWN(G23*ROUNDDOWN(I23,4)*J23,0),"")</f>
+      <c r="J23" s="123"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="308">
+        <f>IFERROR(ROUNDDOWN(H23*ROUNDDOWN(J23,4)*K23,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="307"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="308"/>
-      <c r="O23" s="308"/>
-      <c r="P23" s="309"/>
-      <c r="Q23" s="1" t="str">
+      <c r="M23" s="309"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="310"/>
+      <c r="P23" s="310"/>
+      <c r="Q23" s="311"/>
+      <c r="R23" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="R23" s="1" t="str">
+      <c r="S23" s="1" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="S23" s="1">
-        <f t="shared" ref="S23:S25" ca="1" si="37">IFERROR(VLOOKUP(H23,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+      <c r="T23" s="1">
+        <f t="shared" ref="T23:T25" ca="1" si="37">IFERROR(VLOOKUP(I23,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>4</v>
       </c>
-      <c r="U23" s="1">
-        <f t="shared" ref="U23:U25" ca="1" si="38">IFERROR(MATCH(T23,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+      <c r="V23" s="1">
+        <f t="shared" ref="V23:V25" ca="1" si="38">IFERROR(MATCH(U23,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
-      <c r="V23" s="1">
-        <f t="shared" ref="V23:V25" ca="1" si="39">IFERROR(MATCH(T23,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+      <c r="W23" s="1">
+        <f t="shared" ref="W23:W25" ca="1" si="39">IFERROR(MATCH(U23,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
-      <c r="W23" s="1">
+      <c r="X23" s="1">
         <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
-      <c r="Z23" s="1">
-        <f t="shared" ref="Z23:Z25" ca="1" si="40">IF(X23=0,1,COUNTA(OFFSET(pulldown_company,0,U23+X23,company_max_count,1))+1)</f>
+      <c r="AA23" s="1">
+        <f t="shared" ref="AA23:AA25" ca="1" si="40">IF(Y23=0,1,COUNTA(OFFSET(pulldown_company,0,V23+Y23,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="14.1" customHeight="1" thickTop="1">
-      <c r="A24" s="310"/>
-      <c r="B24" s="311"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="312"/>
-      <c r="E24" s="313"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="116" t="s">
+    <row r="24" spans="2:27" ht="14.1" customHeight="1" thickTop="1">
+      <c r="B24" s="312"/>
+      <c r="C24" s="313"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="314"/>
+      <c r="F24" s="315"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="314">
-        <f>IFERROR(ROUNDDOWN(G24*IF(AND(LEFT(A24,4)="401:",LEFT(C24,2)="1:",F24&lt;&gt;""),IF(D24&lt;&gt;0&amp;G24&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F24*retailprice,4),""),IF(AND(LEFT(A24,5)="1224:",LEFT(C24,2)="3:",F24&lt;&gt;""),ROUNDDOWN(F24*tariff_total,4),ROUNDDOWN(I24,4)))*J24,0),"")</f>
+      <c r="J24" s="117"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="316">
+        <f>IFERROR(ROUNDDOWN(H24*IF(AND(LEFT(B24,4)="401:",LEFT(D24,2)="1:",G24&lt;&gt;""),IF(E24&lt;&gt;0&amp;H24&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(G24*retailprice,4),""),IF(AND(LEFT(B24,5)="1224:",LEFT(D24,2)="3:",G24&lt;&gt;""),ROUNDDOWN(G24*tariff_total,4),ROUNDDOWN(J24,4)))*K24,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L24" s="315"/>
-      <c r="M24" s="196"/>
-      <c r="N24" s="245"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="247"/>
-      <c r="Q24" s="1" t="str">
+      <c r="M24" s="317"/>
+      <c r="N24" s="196"/>
+      <c r="O24" s="247"/>
+      <c r="P24" s="248"/>
+      <c r="Q24" s="249"/>
+      <c r="R24" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="R24" s="1" t="str">
+      <c r="S24" s="1" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="S24" s="1">
+      <c r="T24" s="1">
         <f t="shared" ca="1" si="37"/>
         <v>1</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>5</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <f t="shared" ca="1" si="38"/>
         <v>15</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <f t="shared" ca="1" si="39"/>
         <v>15</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <f t="shared" ca="1" si="40"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A25" s="324"/>
-      <c r="B25" s="325"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="326"/>
-      <c r="E25" s="327"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="84" t="s">
+    <row r="25" spans="2:27" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B25" s="326"/>
+      <c r="C25" s="327"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="328"/>
+      <c r="F25" s="329"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="88"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="328">
-        <f>IFERROR(ROUNDDOWN(G25*IF(AND(LEFT(A25,4)="401:",LEFT(C25,2)="1:",F25&lt;&gt;""),IF(D25&lt;&gt;0&amp;G25&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F25*retailprice,4),""),IF(AND(LEFT(A25,5)="1224:",LEFT(C25,2)="3:",F25&lt;&gt;""),ROUNDDOWN(F25*tariff_total,4),ROUNDDOWN(I25,4)))*J25,0),"")</f>
+      <c r="J25" s="88"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="330">
+        <f>IFERROR(ROUNDDOWN(H25*IF(AND(LEFT(B25,4)="401:",LEFT(D25,2)="1:",G25&lt;&gt;""),IF(E25&lt;&gt;0&amp;H25&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(G25*retailprice,4),""),IF(AND(LEFT(B25,5)="1224:",LEFT(D25,2)="3:",G25&lt;&gt;""),ROUNDDOWN(G25*tariff_total,4),ROUNDDOWN(J25,4)))*K25,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="329"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="330"/>
-      <c r="O25" s="331"/>
-      <c r="P25" s="332"/>
-      <c r="Q25" s="1" t="str">
+      <c r="M25" s="331"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="332"/>
+      <c r="P25" s="333"/>
+      <c r="Q25" s="334"/>
+      <c r="R25" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="R25" s="1" t="str">
+      <c r="S25" s="1" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="S25" s="1">
+      <c r="T25" s="1">
         <f t="shared" ca="1" si="37"/>
         <v>1</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>5</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <f t="shared" ca="1" si="38"/>
         <v>15</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <f t="shared" ca="1" si="39"/>
         <v>15</v>
       </c>
-      <c r="W25" s="1">
+      <c r="X25" s="1">
         <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <f t="shared" ca="1" si="40"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="81"/>
+    <row r="26" spans="2:27" ht="6" customHeight="1" thickBot="1">
+      <c r="B26" s="80"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
-      <c r="G26" s="82"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
+      <c r="I26" s="82"/>
       <c r="J26" s="83"/>
       <c r="K26" s="83"/>
       <c r="L26" s="83"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="333"/>
-      <c r="O26" s="333"/>
-      <c r="P26" s="334"/>
-    </row>
-    <row r="27" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A27" s="335" t="s">
+      <c r="M26" s="83"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="335"/>
+      <c r="P26" s="335"/>
+      <c r="Q26" s="336"/>
+    </row>
+    <row r="27" spans="2:27" ht="16.5" customHeight="1">
+      <c r="B27" s="337" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="318"/>
-      <c r="C27" s="166">
-        <f>I9</f>
+      <c r="C27" s="320"/>
+      <c r="D27" s="166">
+        <f>J9</f>
         <v>0</v>
       </c>
-      <c r="D27" s="163"/>
-      <c r="E27" s="316" t="s">
+      <c r="E27" s="163"/>
+      <c r="F27" s="318" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="317"/>
-      <c r="G27" s="318"/>
-      <c r="H27" s="319">
-        <f>I14</f>
+      <c r="G27" s="319"/>
+      <c r="H27" s="320"/>
+      <c r="I27" s="321">
+        <f>J14</f>
         <v>0</v>
       </c>
-      <c r="I27" s="320"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="321" t="s">
+      <c r="J27" s="322"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="323" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="322"/>
-      <c r="N27" s="323">
-        <f>C27+H27</f>
+      <c r="N27" s="324"/>
+      <c r="O27" s="325">
+        <f>D27+I27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="320"/>
-      <c r="P27" s="164"/>
-    </row>
-    <row r="28" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A28" s="365" t="s">
+      <c r="P27" s="322"/>
+      <c r="Q27" s="164"/>
+    </row>
+    <row r="28" spans="2:27" ht="16.5" customHeight="1">
+      <c r="B28" s="367" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="366"/>
-      <c r="C28" s="168">
-        <f>C27-K33</f>
+      <c r="C28" s="368"/>
+      <c r="D28" s="168">
+        <f>D27-L33</f>
         <v>0</v>
       </c>
-      <c r="D28" s="169">
-        <f>IF(C27=0,0,C28/C27)</f>
+      <c r="E28" s="169">
+        <f>IF(D27=0,0,D28/D27)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="367" t="s">
+      <c r="F28" s="369" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="368"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="370">
-        <f>H27-N19</f>
+      <c r="G28" s="370"/>
+      <c r="H28" s="371"/>
+      <c r="I28" s="372">
+        <f>I27-O19</f>
         <v>0</v>
       </c>
-      <c r="I28" s="371"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="169">
-        <f>IF(H27=0,0,H28/H27)</f>
+      <c r="J28" s="373"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="169">
+        <f>IF(I27=0,0,I28/I27)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="367" t="s">
+      <c r="M28" s="369" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="369"/>
-      <c r="N28" s="372">
-        <f>C28+H28</f>
+      <c r="N28" s="371"/>
+      <c r="O28" s="374">
+        <f>D28+I28</f>
         <v>0</v>
       </c>
-      <c r="O28" s="371"/>
-      <c r="P28" s="171">
-        <f>IF(N27=0,0,N28/N27)</f>
+      <c r="P28" s="373"/>
+      <c r="Q28" s="171">
+        <f>IF(O27=0,0,O28/O27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A29" s="105"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="107"/>
+    <row r="29" spans="2:27" ht="16.5" customHeight="1">
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="107"/>
       <c r="E29" s="107"/>
       <c r="F29" s="107"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="172"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="165"/>
       <c r="I29" s="172"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="373" t="s">
+      <c r="J29" s="172"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="375" t="s">
         <v>42</v>
       </c>
-      <c r="L29" s="374"/>
-      <c r="M29" s="375"/>
-      <c r="N29" s="344">
-        <f>ROUNDDOWN((N27*P29),0)</f>
+      <c r="M29" s="376"/>
+      <c r="N29" s="377"/>
+      <c r="O29" s="346">
+        <f>ROUNDDOWN((O27*Q29),0)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="345"/>
-      <c r="P29" s="174">
+      <c r="P29" s="347"/>
+      <c r="Q29" s="174">
         <v>6.08E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A30" s="108"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="110"/>
+    <row r="30" spans="2:27" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="110"/>
       <c r="E30" s="110"/>
       <c r="F30" s="110"/>
-      <c r="G30" s="175"/>
+      <c r="G30" s="110"/>
       <c r="H30" s="175"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="353" t="s">
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="355" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="360"/>
-      <c r="M30" s="354"/>
-      <c r="N30" s="351">
-        <f>N28-N29</f>
+      <c r="M30" s="362"/>
+      <c r="N30" s="356"/>
+      <c r="O30" s="353">
+        <f>O28-O29</f>
         <v>0</v>
       </c>
-      <c r="O30" s="352"/>
-      <c r="P30" s="178">
-        <f>IF(N27=0,0,N30/N27)</f>
+      <c r="P30" s="354"/>
+      <c r="Q30" s="178">
+        <f>IF(O27=0,0,O30/O27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A31" s="361" t="s">
+    <row r="31" spans="2:27" ht="16.5" customHeight="1">
+      <c r="B31" s="363" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="362"/>
-      <c r="C31" s="363" t="s">
+      <c r="C31" s="364"/>
+      <c r="D31" s="365" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="363"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="363"/>
-      <c r="G31" s="179">
-        <f>$P$4</f>
+      <c r="E31" s="365"/>
+      <c r="F31" s="365"/>
+      <c r="G31" s="365"/>
+      <c r="H31" s="179">
+        <f>$Q$4</f>
         <v>0</v>
       </c>
-      <c r="H31" s="180"/>
-      <c r="I31" s="181">
-        <f>IF(G31&gt;0,K31/G31,)</f>
+      <c r="I31" s="180"/>
+      <c r="J31" s="181">
+        <f>IF(H31&gt;0,L31/H31,)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="181"/>
-      <c r="K31" s="364">
-        <f>SUMIF(F22:F25,"&lt;&gt;"&amp;hdn_payoff_circle,K22:K25)</f>
+      <c r="K31" s="181"/>
+      <c r="L31" s="366">
+        <f>SUMIF(G22:G25,"&lt;&gt;"&amp;hdn_payoff_circle,L22:L25)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="364"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="363"/>
-      <c r="O31" s="363"/>
-      <c r="P31" s="183"/>
-    </row>
-    <row r="32" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A32" s="341" t="s">
+      <c r="M31" s="366"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="365"/>
+      <c r="P31" s="365"/>
+      <c r="Q31" s="183"/>
+    </row>
+    <row r="32" spans="2:27" ht="16.5" customHeight="1">
+      <c r="B32" s="343" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="342"/>
-      <c r="C32" s="343" t="s">
+      <c r="C32" s="344"/>
+      <c r="D32" s="345" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="343"/>
-      <c r="E32" s="343"/>
-      <c r="F32" s="343"/>
-      <c r="G32" s="184">
-        <f>$P$4</f>
+      <c r="E32" s="345"/>
+      <c r="F32" s="345"/>
+      <c r="G32" s="345"/>
+      <c r="H32" s="184">
+        <f>$Q$4</f>
         <v>0</v>
       </c>
-      <c r="H32" s="185"/>
-      <c r="I32" s="186">
-        <f>IF(G32&gt;0,K32/G32,)</f>
+      <c r="I32" s="185"/>
+      <c r="J32" s="186">
+        <f>IF(H32&gt;0,L32/H32,)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="187"/>
-      <c r="K32" s="344">
-        <f>SUMIF(F17:F25,hdn_payoff_circle,K17:K25)</f>
+      <c r="K32" s="187"/>
+      <c r="L32" s="346">
+        <f>SUMIF(G17:G25,hdn_payoff_circle,L17:L25)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="345"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="346"/>
-      <c r="O32" s="347"/>
-      <c r="P32" s="189"/>
-    </row>
-    <row r="33" spans="1:25" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="348" t="s">
+      <c r="M32" s="347"/>
+      <c r="N32" s="188"/>
+      <c r="O32" s="348"/>
+      <c r="P32" s="349"/>
+      <c r="Q32" s="189"/>
+    </row>
+    <row r="33" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B33" s="350" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="349"/>
-      <c r="C33" s="350" t="s">
+      <c r="C33" s="351"/>
+      <c r="D33" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="350"/>
-      <c r="E33" s="350"/>
-      <c r="F33" s="350"/>
-      <c r="G33" s="190">
-        <f>$P$4</f>
+      <c r="E33" s="352"/>
+      <c r="F33" s="352"/>
+      <c r="G33" s="352"/>
+      <c r="H33" s="190">
+        <f>$Q$4</f>
         <v>0</v>
       </c>
-      <c r="H33" s="191"/>
-      <c r="I33" s="192">
-        <f>IF(G33&gt;0,K33/G33,)</f>
+      <c r="I33" s="191"/>
+      <c r="J33" s="192">
+        <f>IF(H33&gt;0,L33/H33,)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="193"/>
-      <c r="K33" s="351">
-        <f>SUM(K31:K32)</f>
+      <c r="K33" s="193"/>
+      <c r="L33" s="353">
+        <f>SUM(L31:L32)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="352"/>
-      <c r="M33" s="353" t="s">
+      <c r="M33" s="354"/>
+      <c r="N33" s="355" t="s">
         <v>43</v>
       </c>
-      <c r="N33" s="354"/>
-      <c r="O33" s="355">
-        <f>N19</f>
+      <c r="O33" s="356"/>
+      <c r="P33" s="357">
+        <f>O19</f>
         <v>0</v>
       </c>
-      <c r="P33" s="356"/>
-    </row>
-    <row r="34" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A34" s="339"/>
-      <c r="B34" s="339"/>
-      <c r="C34" s="339"/>
-      <c r="D34" s="339"/>
-      <c r="E34" s="339"/>
-      <c r="F34" s="339"/>
-      <c r="G34" s="339"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="340" t="s">
+      <c r="Q33" s="358"/>
+    </row>
+    <row r="34" spans="1:26" ht="16.5" customHeight="1">
+      <c r="B34" s="341"/>
+      <c r="C34" s="341"/>
+      <c r="D34" s="341"/>
+      <c r="E34" s="341"/>
+      <c r="F34" s="341"/>
+      <c r="G34" s="341"/>
+      <c r="H34" s="341"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="342" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="340"/>
-      <c r="K34" s="340"/>
-      <c r="L34" s="340"/>
-      <c r="M34" s="340"/>
-      <c r="N34" s="340"/>
-      <c r="O34" s="340"/>
-      <c r="P34" s="340"/>
-    </row>
-    <row r="35" spans="1:25" ht="9" hidden="1" customHeight="1">
-      <c r="A35" s="333" t="s">
+      <c r="K34" s="342"/>
+      <c r="L34" s="342"/>
+      <c r="M34" s="342"/>
+      <c r="N34" s="342"/>
+      <c r="O34" s="342"/>
+      <c r="P34" s="342"/>
+      <c r="Q34" s="342"/>
+    </row>
+    <row r="35" spans="1:26" ht="9" hidden="1" customHeight="1">
+      <c r="B35" s="335" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="333"/>
-      <c r="C35" s="333"/>
-      <c r="D35" s="333"/>
-      <c r="E35" s="333"/>
-      <c r="F35" s="333"/>
-      <c r="G35" s="333"/>
-      <c r="H35" s="333"/>
-      <c r="I35" s="333"/>
-      <c r="J35" s="333"/>
-      <c r="K35" s="333"/>
-      <c r="L35" s="333"/>
-      <c r="M35" s="333"/>
-      <c r="N35" s="333"/>
-      <c r="O35" s="333"/>
-      <c r="P35" s="333"/>
-      <c r="Q35" s="125"/>
+      <c r="C35" s="335"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="335"/>
+      <c r="F35" s="335"/>
+      <c r="G35" s="335"/>
+      <c r="H35" s="335"/>
+      <c r="I35" s="335"/>
+      <c r="J35" s="335"/>
+      <c r="K35" s="335"/>
+      <c r="L35" s="335"/>
+      <c r="M35" s="335"/>
+      <c r="N35" s="335"/>
+      <c r="O35" s="335"/>
+      <c r="P35" s="335"/>
+      <c r="Q35" s="335"/>
       <c r="R35" s="125"/>
       <c r="S35" s="125"/>
       <c r="T35" s="125"/>
@@ -6598,20 +6605,20 @@
       <c r="W35" s="125"/>
       <c r="X35" s="125"/>
       <c r="Y35" s="125"/>
-    </row>
-    <row r="36" spans="1:25" ht="32.4" hidden="1">
-      <c r="A36" s="94"/>
-      <c r="B36" s="198">
+      <c r="Z35" s="125"/>
+    </row>
+    <row r="36" spans="1:26" ht="32.4" hidden="1">
+      <c r="B36" s="94"/>
+      <c r="C36" s="198">
         <f>ROW(pulldown_company)-ROW(pulldown_level2)</f>
         <v>31</v>
       </c>
-      <c r="C36" s="162" t="s">
+      <c r="D36" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="143" t="s">
+      <c r="E36" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="94"/>
       <c r="G36" s="94"/>
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
@@ -6622,7 +6629,7 @@
       <c r="N36" s="94"/>
       <c r="O36" s="94"/>
       <c r="P36" s="94"/>
-      <c r="Q36" s="125"/>
+      <c r="Q36" s="94"/>
       <c r="R36" s="125"/>
       <c r="S36" s="125"/>
       <c r="T36" s="125"/>
@@ -6631,18 +6638,18 @@
       <c r="W36" s="125"/>
       <c r="X36" s="125"/>
       <c r="Y36" s="125"/>
-    </row>
-    <row r="37" spans="1:25" ht="13.95" hidden="1" customHeight="1">
-      <c r="A37" s="154"/>
-      <c r="B37" s="198">
+      <c r="Z36" s="125"/>
+    </row>
+    <row r="37" spans="1:26" ht="13.95" hidden="1" customHeight="1">
+      <c r="B37" s="154"/>
+      <c r="C37" s="198">
         <f>COUNTIF(118:118,"*:*")</f>
         <v>0</v>
       </c>
-      <c r="C37" s="156" t="s">
+      <c r="D37" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="F37" s="154"/>
+      <c r="E37" s="17"/>
       <c r="G37" s="154"/>
       <c r="H37" s="154"/>
       <c r="I37" s="154"/>
@@ -6662,19 +6669,19 @@
       <c r="W37" s="154"/>
       <c r="X37" s="154"/>
       <c r="Y37" s="154"/>
-    </row>
-    <row r="38" spans="1:25" ht="21.6" hidden="1">
-      <c r="A38" s="94"/>
-      <c r="B38" s="198">
+      <c r="Z37" s="154"/>
+    </row>
+    <row r="38" spans="1:26" ht="21.6" hidden="1">
+      <c r="B38" s="94"/>
+      <c r="C38" s="198">
         <f>ROW(pulldown_dept_member)-ROW(pulldown_company)-1</f>
         <v>41</v>
       </c>
-      <c r="C38" s="162" t="s">
+      <c r="D38" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="125"/>
+      <c r="E38" s="17"/>
+      <c r="G38" s="94"/>
       <c r="H38" s="125"/>
       <c r="I38" s="125"/>
       <c r="J38" s="125"/>
@@ -6693,20 +6700,20 @@
       <c r="W38" s="125"/>
       <c r="X38" s="125"/>
       <c r="Y38" s="125"/>
-    </row>
-    <row r="39" spans="1:25" ht="13.95" hidden="1" customHeight="1">
-      <c r="A39" s="94"/>
-      <c r="B39" s="199">
-        <f>SUM(K22:L23)+order_f_fixedcost</f>
+      <c r="Z38" s="125"/>
+    </row>
+    <row r="39" spans="1:26" ht="13.95" hidden="1" customHeight="1">
+      <c r="B39" s="94"/>
+      <c r="C39" s="199">
+        <f>SUM(L22:M23)+order_f_fixedcost</f>
         <v>0</v>
       </c>
-      <c r="C39" s="144" t="s">
+      <c r="D39" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="140" t="s">
+      <c r="E39" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="94"/>
       <c r="F39" s="94"/>
       <c r="G39" s="94"/>
       <c r="H39" s="94"/>
@@ -6714,23 +6721,23 @@
       <c r="J39" s="94"/>
       <c r="K39" s="94"/>
       <c r="L39" s="94"/>
-      <c r="M39" s="127"/>
-      <c r="N39" s="94">
+      <c r="M39" s="94"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="94">
         <f>IFERROR(FIND("401:",#REF!,1),0)</f>
         <v>0</v>
       </c>
-      <c r="O39" s="94"/>
       <c r="P39" s="94"/>
-    </row>
-    <row r="40" spans="1:25" ht="13.95" hidden="1" customHeight="1">
-      <c r="A40" s="94"/>
-      <c r="B40" s="198">
+      <c r="Q39" s="94"/>
+    </row>
+    <row r="40" spans="1:26" ht="13.95" hidden="1" customHeight="1">
+      <c r="B40" s="94"/>
+      <c r="C40" s="198">
         <v>4</v>
       </c>
-      <c r="C40" s="156" t="s">
+      <c r="D40" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="94"/>
       <c r="E40" s="94"/>
       <c r="F40" s="94"/>
       <c r="G40" s="94"/>
@@ -6743,12 +6750,12 @@
       <c r="N40" s="94"/>
       <c r="O40" s="94"/>
       <c r="P40" s="94"/>
-    </row>
-    <row r="41" spans="1:25" ht="9" hidden="1" customHeight="1">
-      <c r="A41" s="125"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="125"/>
+      <c r="Q40" s="94"/>
+    </row>
+    <row r="41" spans="1:26" ht="9" hidden="1" customHeight="1">
+      <c r="B41" s="125"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="142"/>
       <c r="E41" s="125"/>
       <c r="F41" s="125"/>
       <c r="G41" s="125"/>
@@ -6761,662 +6768,695 @@
       <c r="N41" s="125"/>
       <c r="O41" s="125"/>
       <c r="P41" s="125"/>
-    </row>
-    <row r="42" spans="1:25" ht="14.1" hidden="1" customHeight="1">
-      <c r="A42" s="145" t="s">
+      <c r="Q41" s="125"/>
+    </row>
+    <row r="42" spans="1:26" ht="14.1" hidden="1" customHeight="1">
+      <c r="B42" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="1">
+      <c r="C42" s="1">
         <f ca="1">IFERROR(MATCH(MAX(INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))))+1,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-1,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" hidden="1">
-      <c r="A43" s="145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" hidden="1">
+      <c r="B43" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="Q43" s="200">
+      <c r="R43" s="200">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="18" customFormat="1" ht="32.4" hidden="1">
-      <c r="A44" s="146" t="s">
+    <row r="44" spans="1:26" s="18" customFormat="1" ht="32.4" hidden="1">
+      <c r="A44" s="204"/>
+      <c r="B44" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="14"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="148"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="14"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="16"/>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
-      <c r="Q44" s="14" t="s">
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R44" s="149"/>
-      <c r="X44" s="32"/>
-    </row>
-    <row r="45" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A45" s="357" t="s">
+      <c r="S44" s="149"/>
+      <c r="Y44" s="32"/>
+    </row>
+    <row r="45" spans="1:26" s="18" customFormat="1" hidden="1">
+      <c r="A45" s="204"/>
+      <c r="B45" s="359" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="133"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="133"/>
       <c r="E45" s="133"/>
       <c r="F45" s="133"/>
-      <c r="G45" s="14"/>
+      <c r="G45" s="133"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="14"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="16"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
-      <c r="U45" s="126"/>
-    </row>
-    <row r="46" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A46" s="358"/>
-      <c r="B46" s="17"/>
+      <c r="R45" s="14"/>
+      <c r="V45" s="126"/>
+    </row>
+    <row r="46" spans="1:26" s="18" customFormat="1" hidden="1">
+      <c r="A46" s="204"/>
+      <c r="B46" s="360"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="133"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="133"/>
-      <c r="G46" s="19"/>
+      <c r="G46" s="133"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="16"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="19"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
-      <c r="Q46" s="19" t="s">
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="U46" s="126"/>
-    </row>
-    <row r="47" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A47" s="358"/>
-      <c r="B47" s="17"/>
+      <c r="V46" s="126"/>
+    </row>
+    <row r="47" spans="1:26" s="18" customFormat="1" hidden="1">
+      <c r="A47" s="204"/>
+      <c r="B47" s="360"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="133"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="133"/>
-      <c r="G47" s="19"/>
+      <c r="G47" s="133"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="16"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="19"/>
+      <c r="K47" s="16"/>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17" t="s">
+      <c r="P47" s="19"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R47" s="20"/>
-    </row>
-    <row r="48" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A48" s="358"/>
-      <c r="B48" s="17"/>
+      <c r="S47" s="20"/>
+    </row>
+    <row r="48" spans="1:26" s="18" customFormat="1" hidden="1">
+      <c r="A48" s="204"/>
+      <c r="B48" s="360"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="133"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="133"/>
-      <c r="G48" s="19"/>
+      <c r="G48" s="133"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="16"/>
+      <c r="I48" s="19"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="19"/>
+      <c r="K48" s="16"/>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
-      <c r="Q48" s="17" t="s">
+      <c r="Q48" s="19"/>
+      <c r="R48" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R48" s="20"/>
-    </row>
-    <row r="49" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A49" s="358"/>
-      <c r="B49" s="17"/>
+      <c r="S48" s="20"/>
+    </row>
+    <row r="49" spans="1:18" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A49" s="204"/>
+      <c r="B49" s="360"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="133"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="133"/>
-      <c r="G49" s="19"/>
+      <c r="G49" s="133"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="16"/>
+      <c r="I49" s="19"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="19"/>
+      <c r="K49" s="16"/>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
-      <c r="Q49" s="22" t="s">
+      <c r="Q49" s="19"/>
+      <c r="R49" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A50" s="358"/>
-      <c r="B50" s="17"/>
+    <row r="50" spans="1:18" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A50" s="204"/>
+      <c r="B50" s="360"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="133"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="133"/>
-      <c r="G50" s="19"/>
+      <c r="G50" s="133"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="16"/>
+      <c r="I50" s="19"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="21"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="19"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="17"/>
-    </row>
-    <row r="51" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A51" s="358"/>
-      <c r="B51" s="17"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="17"/>
+    </row>
+    <row r="51" spans="1:18" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A51" s="204"/>
+      <c r="B51" s="360"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="133"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="19"/>
+      <c r="G51" s="133"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="16"/>
+      <c r="I51" s="19"/>
       <c r="J51" s="16"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="21"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="19"/>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="17"/>
-    </row>
-    <row r="52" spans="1:17" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A52" s="358"/>
-      <c r="B52" s="17"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="17"/>
+    </row>
+    <row r="52" spans="1:18" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A52" s="204"/>
+      <c r="B52" s="360"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="133"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="16"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="19"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="21"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="19"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
-      <c r="P52" s="14"/>
+      <c r="P52" s="21"/>
       <c r="Q52" s="14"/>
-    </row>
-    <row r="53" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A53" s="358"/>
-      <c r="B53" s="17"/>
+      <c r="R52" s="14"/>
+    </row>
+    <row r="53" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A53" s="204"/>
+      <c r="B53" s="360"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="133"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="16"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="19"/>
       <c r="J53" s="16"/>
-      <c r="K53" s="19"/>
+      <c r="K53" s="16"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="21"/>
+      <c r="M53" s="19"/>
       <c r="N53" s="21"/>
       <c r="O53" s="21"/>
-      <c r="P53" s="14"/>
+      <c r="P53" s="21"/>
       <c r="Q53" s="14"/>
-    </row>
-    <row r="54" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A54" s="358"/>
-      <c r="B54" s="17"/>
+      <c r="R53" s="14"/>
+    </row>
+    <row r="54" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A54" s="204"/>
+      <c r="B54" s="360"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="133"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="133"/>
-      <c r="G54" s="19"/>
+      <c r="G54" s="133"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="16"/>
+      <c r="I54" s="19"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="19"/>
+      <c r="K54" s="16"/>
       <c r="L54" s="19"/>
-      <c r="M54" s="21"/>
+      <c r="M54" s="19"/>
       <c r="N54" s="21"/>
       <c r="O54" s="21"/>
-      <c r="P54" s="14"/>
+      <c r="P54" s="21"/>
       <c r="Q54" s="14"/>
-    </row>
-    <row r="55" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A55" s="358"/>
-      <c r="B55" s="17"/>
+      <c r="R54" s="14"/>
+    </row>
+    <row r="55" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A55" s="204"/>
+      <c r="B55" s="360"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="133"/>
+      <c r="E55" s="17"/>
       <c r="F55" s="133"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="16"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="16"/>
-      <c r="K55" s="19"/>
+      <c r="K55" s="16"/>
       <c r="L55" s="19"/>
-      <c r="M55" s="21"/>
+      <c r="M55" s="19"/>
       <c r="N55" s="21"/>
       <c r="O55" s="21"/>
-      <c r="P55" s="14"/>
+      <c r="P55" s="21"/>
       <c r="Q55" s="14"/>
-    </row>
-    <row r="56" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A56" s="358"/>
-      <c r="B56" s="17"/>
+      <c r="R55" s="14"/>
+    </row>
+    <row r="56" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A56" s="204"/>
+      <c r="B56" s="360"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="133"/>
+      <c r="E56" s="17"/>
       <c r="F56" s="133"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="16"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="16"/>
-      <c r="K56" s="19"/>
+      <c r="K56" s="16"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="21"/>
+      <c r="M56" s="19"/>
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
-      <c r="P56" s="14"/>
+      <c r="P56" s="21"/>
       <c r="Q56" s="14"/>
-    </row>
-    <row r="57" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A57" s="358"/>
-      <c r="B57" s="17"/>
+      <c r="R56" s="14"/>
+    </row>
+    <row r="57" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A57" s="204"/>
+      <c r="B57" s="360"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="133"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="133"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="16"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="14"/>
       <c r="J57" s="16"/>
-      <c r="K57" s="19"/>
+      <c r="K57" s="16"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="21"/>
+      <c r="M57" s="19"/>
       <c r="N57" s="21"/>
       <c r="O57" s="21"/>
-      <c r="P57" s="14"/>
+      <c r="P57" s="21"/>
       <c r="Q57" s="14"/>
-    </row>
-    <row r="58" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A58" s="358"/>
-      <c r="B58" s="17"/>
+      <c r="R57" s="14"/>
+    </row>
+    <row r="58" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A58" s="204"/>
+      <c r="B58" s="360"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="133"/>
+      <c r="E58" s="17"/>
       <c r="F58" s="133"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="16"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="19"/>
+      <c r="K58" s="16"/>
       <c r="L58" s="19"/>
-      <c r="M58" s="21"/>
+      <c r="M58" s="19"/>
       <c r="N58" s="21"/>
       <c r="O58" s="21"/>
-      <c r="P58" s="14"/>
+      <c r="P58" s="21"/>
       <c r="Q58" s="14"/>
-    </row>
-    <row r="59" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A59" s="358"/>
-      <c r="B59" s="17"/>
+      <c r="R58" s="14"/>
+    </row>
+    <row r="59" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A59" s="204"/>
+      <c r="B59" s="360"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="133"/>
+      <c r="E59" s="17"/>
       <c r="F59" s="133"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="16"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="14"/>
       <c r="J59" s="16"/>
-      <c r="K59" s="19"/>
+      <c r="K59" s="16"/>
       <c r="L59" s="19"/>
-      <c r="M59" s="21"/>
+      <c r="M59" s="19"/>
       <c r="N59" s="21"/>
       <c r="O59" s="21"/>
-      <c r="P59" s="14"/>
+      <c r="P59" s="21"/>
       <c r="Q59" s="14"/>
-    </row>
-    <row r="60" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A60" s="358"/>
-      <c r="B60" s="17"/>
+      <c r="R59" s="14"/>
+    </row>
+    <row r="60" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A60" s="204"/>
+      <c r="B60" s="360"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="133"/>
+      <c r="E60" s="17"/>
       <c r="F60" s="133"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="16"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="14"/>
       <c r="J60" s="16"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="21"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="19"/>
       <c r="N60" s="21"/>
       <c r="O60" s="21"/>
-      <c r="P60" s="14"/>
+      <c r="P60" s="21"/>
       <c r="Q60" s="14"/>
-    </row>
-    <row r="61" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A61" s="358"/>
-      <c r="B61" s="17"/>
+      <c r="R60" s="14"/>
+    </row>
+    <row r="61" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A61" s="204"/>
+      <c r="B61" s="360"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
-      <c r="E61" s="133"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="133"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="133"/>
       <c r="H61" s="21"/>
-      <c r="I61" s="16"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="16"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="21"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="19"/>
       <c r="N61" s="21"/>
       <c r="O61" s="21"/>
-      <c r="P61" s="14"/>
+      <c r="P61" s="21"/>
       <c r="Q61" s="14"/>
-    </row>
-    <row r="62" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A62" s="358"/>
-      <c r="B62" s="17"/>
+      <c r="R61" s="14"/>
+    </row>
+    <row r="62" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A62" s="204"/>
+      <c r="B62" s="360"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="133"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="133"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="92"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="17"/>
       <c r="I62" s="92"/>
       <c r="J62" s="92"/>
       <c r="K62" s="92"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="17"/>
+      <c r="L62" s="92"/>
+      <c r="M62" s="19"/>
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
-    </row>
-    <row r="63" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A63" s="358"/>
-      <c r="B63" s="17"/>
+      <c r="R62" s="17"/>
+    </row>
+    <row r="63" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A63" s="204"/>
+      <c r="B63" s="360"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="133"/>
+      <c r="E63" s="17"/>
       <c r="F63" s="133"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="92"/>
+      <c r="G63" s="133"/>
+      <c r="H63" s="17"/>
       <c r="I63" s="92"/>
       <c r="J63" s="92"/>
       <c r="K63" s="92"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="17"/>
+      <c r="L63" s="92"/>
+      <c r="M63" s="19"/>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
-    </row>
-    <row r="64" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A64" s="358"/>
-      <c r="B64" s="17"/>
+      <c r="R63" s="17"/>
+    </row>
+    <row r="64" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A64" s="204"/>
+      <c r="B64" s="360"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
-      <c r="E64" s="133"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="133"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="92"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="17"/>
       <c r="I64" s="92"/>
       <c r="J64" s="92"/>
       <c r="K64" s="92"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="17"/>
+      <c r="L64" s="92"/>
+      <c r="M64" s="19"/>
       <c r="N64" s="17"/>
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
-    </row>
-    <row r="65" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A65" s="358"/>
-      <c r="B65" s="17"/>
+      <c r="R64" s="17"/>
+    </row>
+    <row r="65" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A65" s="204"/>
+      <c r="B65" s="360"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="133"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="133"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="92"/>
+      <c r="G65" s="133"/>
+      <c r="H65" s="17"/>
       <c r="I65" s="92"/>
       <c r="J65" s="92"/>
       <c r="K65" s="92"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="17"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="19"/>
       <c r="N65" s="17"/>
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
-    </row>
-    <row r="66" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A66" s="358"/>
-      <c r="B66" s="17"/>
+      <c r="R65" s="17"/>
+    </row>
+    <row r="66" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A66" s="204"/>
+      <c r="B66" s="360"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
-      <c r="E66" s="133"/>
+      <c r="E66" s="17"/>
       <c r="F66" s="133"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="92"/>
+      <c r="G66" s="133"/>
+      <c r="H66" s="17"/>
       <c r="I66" s="92"/>
       <c r="J66" s="92"/>
       <c r="K66" s="92"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="17"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="19"/>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
-    </row>
-    <row r="67" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A67" s="358"/>
-      <c r="B67" s="17"/>
+      <c r="R66" s="17"/>
+    </row>
+    <row r="67" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A67" s="204"/>
+      <c r="B67" s="360"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="133"/>
+      <c r="E67" s="17"/>
       <c r="F67" s="133"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="92"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="17"/>
       <c r="I67" s="92"/>
       <c r="J67" s="92"/>
       <c r="K67" s="92"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="17"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="19"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
-    </row>
-    <row r="68" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A68" s="358"/>
-      <c r="B68" s="17"/>
+      <c r="R67" s="17"/>
+    </row>
+    <row r="68" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A68" s="204"/>
+      <c r="B68" s="360"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="133"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="133"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="92"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="17"/>
       <c r="I68" s="92"/>
       <c r="J68" s="92"/>
       <c r="K68" s="92"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="17"/>
+      <c r="L68" s="92"/>
+      <c r="M68" s="19"/>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
-    </row>
-    <row r="69" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A69" s="358"/>
-      <c r="B69" s="17"/>
+      <c r="R68" s="17"/>
+    </row>
+    <row r="69" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A69" s="204"/>
+      <c r="B69" s="360"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="133"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="133"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="92"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="17"/>
       <c r="I69" s="92"/>
       <c r="J69" s="92"/>
       <c r="K69" s="92"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="17"/>
+      <c r="L69" s="92"/>
+      <c r="M69" s="19"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
-    </row>
-    <row r="70" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A70" s="358"/>
-      <c r="B70" s="17"/>
+      <c r="R69" s="17"/>
+    </row>
+    <row r="70" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A70" s="204"/>
+      <c r="B70" s="360"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="133"/>
+      <c r="E70" s="17"/>
       <c r="F70" s="133"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="92"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="17"/>
       <c r="I70" s="92"/>
       <c r="J70" s="92"/>
       <c r="K70" s="92"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="17"/>
+      <c r="L70" s="92"/>
+      <c r="M70" s="19"/>
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
-    </row>
-    <row r="71" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A71" s="358"/>
-      <c r="B71" s="17"/>
+      <c r="R70" s="17"/>
+    </row>
+    <row r="71" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A71" s="204"/>
+      <c r="B71" s="360"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="133"/>
+      <c r="E71" s="17"/>
       <c r="F71" s="133"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="92"/>
+      <c r="G71" s="133"/>
+      <c r="H71" s="17"/>
       <c r="I71" s="92"/>
       <c r="J71" s="92"/>
       <c r="K71" s="92"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="17"/>
+      <c r="L71" s="92"/>
+      <c r="M71" s="19"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
-    </row>
-    <row r="72" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A72" s="358"/>
-      <c r="B72" s="17"/>
+      <c r="R71" s="17"/>
+    </row>
+    <row r="72" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A72" s="204"/>
+      <c r="B72" s="360"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="133"/>
+      <c r="E72" s="17"/>
       <c r="F72" s="133"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="92"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="17"/>
       <c r="I72" s="92"/>
       <c r="J72" s="92"/>
       <c r="K72" s="92"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="17"/>
+      <c r="L72" s="92"/>
+      <c r="M72" s="19"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
-    </row>
-    <row r="73" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A73" s="358"/>
-      <c r="B73" s="17"/>
+      <c r="R72" s="17"/>
+    </row>
+    <row r="73" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A73" s="204"/>
+      <c r="B73" s="360"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
-      <c r="E73" s="133"/>
+      <c r="E73" s="17"/>
       <c r="F73" s="133"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="92"/>
+      <c r="G73" s="133"/>
+      <c r="H73" s="17"/>
       <c r="I73" s="92"/>
       <c r="J73" s="92"/>
       <c r="K73" s="92"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="17"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="19"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
-    </row>
-    <row r="74" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A74" s="358"/>
-      <c r="B74" s="17"/>
+      <c r="R73" s="17"/>
+    </row>
+    <row r="74" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A74" s="204"/>
+      <c r="B74" s="360"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
-      <c r="E74" s="133"/>
+      <c r="E74" s="17"/>
       <c r="F74" s="133"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="92"/>
+      <c r="G74" s="133"/>
+      <c r="H74" s="17"/>
       <c r="I74" s="92"/>
       <c r="J74" s="92"/>
       <c r="K74" s="92"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="17"/>
+      <c r="L74" s="92"/>
+      <c r="M74" s="19"/>
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
-    </row>
-    <row r="75" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A75" s="359"/>
-      <c r="B75" s="17"/>
+      <c r="R74" s="17"/>
+    </row>
+    <row r="75" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A75" s="204"/>
+      <c r="B75" s="361"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
-      <c r="E75" s="133"/>
+      <c r="E75" s="17"/>
       <c r="F75" s="133"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="92"/>
+      <c r="G75" s="133"/>
+      <c r="H75" s="17"/>
       <c r="I75" s="92"/>
       <c r="J75" s="92"/>
       <c r="K75" s="92"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="17"/>
+      <c r="L75" s="92"/>
+      <c r="M75" s="19"/>
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
-    </row>
-    <row r="76" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A76" s="336" t="s">
+      <c r="R75" s="17"/>
+    </row>
+    <row r="76" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A76" s="204"/>
+      <c r="B76" s="338" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="133"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="133"/>
       <c r="E76" s="133"/>
       <c r="F76" s="133"/>
-      <c r="G76" s="17"/>
+      <c r="G76" s="133"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
@@ -7427,15 +7467,16 @@
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
-    </row>
-    <row r="77" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A77" s="337"/>
-      <c r="B77" s="134"/>
+      <c r="R76" s="17"/>
+    </row>
+    <row r="77" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A77" s="204"/>
+      <c r="B77" s="339"/>
       <c r="C77" s="134"/>
       <c r="D77" s="134"/>
-      <c r="E77" s="135"/>
+      <c r="E77" s="134"/>
       <c r="F77" s="135"/>
-      <c r="G77" s="17"/>
+      <c r="G77" s="135"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
@@ -7446,15 +7487,16 @@
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
-    </row>
-    <row r="78" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A78" s="337"/>
-      <c r="B78" s="134"/>
+      <c r="R77" s="17"/>
+    </row>
+    <row r="78" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A78" s="204"/>
+      <c r="B78" s="339"/>
       <c r="C78" s="134"/>
       <c r="D78" s="134"/>
-      <c r="E78" s="135"/>
+      <c r="E78" s="134"/>
       <c r="F78" s="135"/>
-      <c r="G78" s="17"/>
+      <c r="G78" s="135"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
@@ -7465,17 +7507,18 @@
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
-    </row>
-    <row r="79" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A79" s="337"/>
-      <c r="B79" s="134"/>
+      <c r="R78" s="17"/>
+    </row>
+    <row r="79" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A79" s="204"/>
+      <c r="B79" s="339"/>
       <c r="C79" s="134"/>
       <c r="D79" s="134"/>
-      <c r="E79" s="135"/>
+      <c r="E79" s="134"/>
       <c r="F79" s="135"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="17"/>
+      <c r="G79" s="135"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="26"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
@@ -7484,15 +7527,16 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
-    </row>
-    <row r="80" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A80" s="337"/>
-      <c r="B80" s="134"/>
+      <c r="R79" s="17"/>
+    </row>
+    <row r="80" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A80" s="204"/>
+      <c r="B80" s="339"/>
       <c r="C80" s="134"/>
       <c r="D80" s="134"/>
-      <c r="E80" s="135"/>
+      <c r="E80" s="134"/>
       <c r="F80" s="135"/>
-      <c r="G80" s="17"/>
+      <c r="G80" s="135"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
@@ -7503,15 +7547,16 @@
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
-    </row>
-    <row r="81" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A81" s="337"/>
-      <c r="B81" s="134"/>
+      <c r="R80" s="17"/>
+    </row>
+    <row r="81" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A81" s="204"/>
+      <c r="B81" s="339"/>
       <c r="C81" s="134"/>
       <c r="D81" s="134"/>
-      <c r="E81" s="135"/>
+      <c r="E81" s="134"/>
       <c r="F81" s="135"/>
-      <c r="G81" s="17"/>
+      <c r="G81" s="135"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
@@ -7522,16 +7567,17 @@
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
-    </row>
-    <row r="82" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A82" s="337"/>
-      <c r="B82" s="134"/>
+      <c r="R81" s="17"/>
+    </row>
+    <row r="82" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A82" s="204"/>
+      <c r="B82" s="339"/>
       <c r="C82" s="134"/>
       <c r="D82" s="134"/>
-      <c r="E82" s="135"/>
+      <c r="E82" s="134"/>
       <c r="F82" s="135"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="17"/>
+      <c r="G82" s="135"/>
+      <c r="H82" s="26"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
@@ -7541,15 +7587,16 @@
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
-    </row>
-    <row r="83" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A83" s="337"/>
-      <c r="B83" s="134"/>
+      <c r="R82" s="17"/>
+    </row>
+    <row r="83" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A83" s="204"/>
+      <c r="B83" s="339"/>
       <c r="C83" s="134"/>
       <c r="D83" s="134"/>
-      <c r="E83" s="135"/>
+      <c r="E83" s="134"/>
       <c r="F83" s="135"/>
-      <c r="G83" s="17"/>
+      <c r="G83" s="135"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
@@ -7560,15 +7607,16 @@
       <c r="O83" s="17"/>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
-    </row>
-    <row r="84" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A84" s="337"/>
-      <c r="B84" s="134"/>
+      <c r="R83" s="17"/>
+    </row>
+    <row r="84" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A84" s="204"/>
+      <c r="B84" s="339"/>
       <c r="C84" s="134"/>
       <c r="D84" s="134"/>
-      <c r="E84" s="135"/>
+      <c r="E84" s="134"/>
       <c r="F84" s="135"/>
-      <c r="G84" s="17"/>
+      <c r="G84" s="135"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
@@ -7579,15 +7627,16 @@
       <c r="O84" s="17"/>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
-    </row>
-    <row r="85" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A85" s="337"/>
-      <c r="B85" s="134"/>
+      <c r="R84" s="17"/>
+    </row>
+    <row r="85" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A85" s="204"/>
+      <c r="B85" s="339"/>
       <c r="C85" s="134"/>
       <c r="D85" s="134"/>
-      <c r="E85" s="135"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="135"/>
-      <c r="G85" s="17"/>
+      <c r="G85" s="135"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
@@ -7598,17 +7647,18 @@
       <c r="O85" s="17"/>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
-    </row>
-    <row r="86" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A86" s="337"/>
-      <c r="B86" s="134"/>
+      <c r="R85" s="17"/>
+    </row>
+    <row r="86" spans="1:18" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A86" s="204"/>
+      <c r="B86" s="339"/>
       <c r="C86" s="134"/>
       <c r="D86" s="134"/>
-      <c r="E86" s="135"/>
+      <c r="E86" s="134"/>
       <c r="F86" s="135"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="17"/>
+      <c r="G86" s="135"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="23"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
@@ -7617,17 +7667,18 @@
       <c r="O86" s="17"/>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
-    </row>
-    <row r="87" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A87" s="337"/>
-      <c r="B87" s="134"/>
+      <c r="R86" s="17"/>
+    </row>
+    <row r="87" spans="1:18" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A87" s="204"/>
+      <c r="B87" s="339"/>
       <c r="C87" s="134"/>
       <c r="D87" s="134"/>
-      <c r="E87" s="135"/>
+      <c r="E87" s="134"/>
       <c r="F87" s="135"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="17"/>
+      <c r="G87" s="135"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="23"/>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
@@ -7636,17 +7687,18 @@
       <c r="O87" s="17"/>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
-    </row>
-    <row r="88" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A88" s="337"/>
-      <c r="B88" s="134"/>
+      <c r="R87" s="17"/>
+    </row>
+    <row r="88" spans="1:18" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A88" s="204"/>
+      <c r="B88" s="339"/>
       <c r="C88" s="134"/>
       <c r="D88" s="134"/>
-      <c r="E88" s="135"/>
+      <c r="E88" s="134"/>
       <c r="F88" s="135"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="17"/>
+      <c r="G88" s="135"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="23"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
@@ -7655,17 +7707,18 @@
       <c r="O88" s="17"/>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
-    </row>
-    <row r="89" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A89" s="337"/>
-      <c r="B89" s="134"/>
+      <c r="R88" s="17"/>
+    </row>
+    <row r="89" spans="1:18" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A89" s="204"/>
+      <c r="B89" s="339"/>
       <c r="C89" s="134"/>
       <c r="D89" s="134"/>
-      <c r="E89" s="135"/>
+      <c r="E89" s="134"/>
       <c r="F89" s="135"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="17"/>
+      <c r="G89" s="135"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="23"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -7674,17 +7727,18 @@
       <c r="O89" s="17"/>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
-    </row>
-    <row r="90" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A90" s="337"/>
-      <c r="B90" s="134"/>
+      <c r="R89" s="17"/>
+    </row>
+    <row r="90" spans="1:18" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A90" s="204"/>
+      <c r="B90" s="339"/>
       <c r="C90" s="134"/>
       <c r="D90" s="134"/>
-      <c r="E90" s="135"/>
+      <c r="E90" s="134"/>
       <c r="F90" s="135"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="17"/>
+      <c r="G90" s="135"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="23"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -7693,17 +7747,18 @@
       <c r="O90" s="17"/>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
-    </row>
-    <row r="91" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A91" s="337"/>
-      <c r="B91" s="134"/>
+      <c r="R90" s="17"/>
+    </row>
+    <row r="91" spans="1:18" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A91" s="204"/>
+      <c r="B91" s="339"/>
       <c r="C91" s="134"/>
       <c r="D91" s="134"/>
-      <c r="E91" s="135"/>
+      <c r="E91" s="134"/>
       <c r="F91" s="135"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="17"/>
+      <c r="G91" s="135"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="23"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
@@ -7712,17 +7767,18 @@
       <c r="O91" s="17"/>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
-    </row>
-    <row r="92" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A92" s="337"/>
-      <c r="B92" s="134"/>
+      <c r="R91" s="17"/>
+    </row>
+    <row r="92" spans="1:18" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A92" s="204"/>
+      <c r="B92" s="339"/>
       <c r="C92" s="134"/>
       <c r="D92" s="134"/>
-      <c r="E92" s="133"/>
+      <c r="E92" s="134"/>
       <c r="F92" s="133"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="17"/>
+      <c r="G92" s="133"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="23"/>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
       <c r="L92" s="17"/>
@@ -7731,17 +7787,18 @@
       <c r="O92" s="17"/>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
-    </row>
-    <row r="93" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A93" s="337"/>
-      <c r="B93" s="134"/>
+      <c r="R92" s="17"/>
+    </row>
+    <row r="93" spans="1:18" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A93" s="204"/>
+      <c r="B93" s="339"/>
       <c r="C93" s="134"/>
       <c r="D93" s="134"/>
-      <c r="E93" s="133"/>
+      <c r="E93" s="134"/>
       <c r="F93" s="133"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="17"/>
+      <c r="G93" s="133"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="23"/>
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
       <c r="L93" s="17"/>
@@ -7750,15 +7807,16 @@
       <c r="O93" s="17"/>
       <c r="P93" s="17"/>
       <c r="Q93" s="17"/>
-    </row>
-    <row r="94" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A94" s="337"/>
-      <c r="B94" s="134"/>
+      <c r="R93" s="17"/>
+    </row>
+    <row r="94" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A94" s="204"/>
+      <c r="B94" s="339"/>
       <c r="C94" s="134"/>
       <c r="D94" s="134"/>
-      <c r="E94" s="133"/>
+      <c r="E94" s="134"/>
       <c r="F94" s="133"/>
-      <c r="G94" s="17"/>
+      <c r="G94" s="133"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
@@ -7769,15 +7827,16 @@
       <c r="O94" s="17"/>
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
-    </row>
-    <row r="95" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A95" s="337"/>
-      <c r="B95" s="134"/>
+      <c r="R94" s="17"/>
+    </row>
+    <row r="95" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A95" s="204"/>
+      <c r="B95" s="339"/>
       <c r="C95" s="134"/>
       <c r="D95" s="134"/>
-      <c r="E95" s="133"/>
+      <c r="E95" s="134"/>
       <c r="F95" s="133"/>
-      <c r="G95" s="17"/>
+      <c r="G95" s="133"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
@@ -7788,15 +7847,16 @@
       <c r="O95" s="17"/>
       <c r="P95" s="17"/>
       <c r="Q95" s="17"/>
-    </row>
-    <row r="96" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A96" s="337"/>
-      <c r="B96" s="134"/>
+      <c r="R95" s="17"/>
+    </row>
+    <row r="96" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="A96" s="204"/>
+      <c r="B96" s="339"/>
       <c r="C96" s="134"/>
       <c r="D96" s="134"/>
-      <c r="E96" s="133"/>
+      <c r="E96" s="134"/>
       <c r="F96" s="133"/>
-      <c r="G96" s="17"/>
+      <c r="G96" s="133"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
@@ -7807,940 +7867,969 @@
       <c r="O96" s="17"/>
       <c r="P96" s="17"/>
       <c r="Q96" s="17"/>
-    </row>
-    <row r="97" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A97" s="337"/>
-      <c r="B97" s="134"/>
+      <c r="R96" s="17"/>
+    </row>
+    <row r="97" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A97" s="204"/>
+      <c r="B97" s="339"/>
       <c r="C97" s="134"/>
       <c r="D97" s="134"/>
-      <c r="E97" s="133"/>
+      <c r="E97" s="134"/>
       <c r="F97" s="133"/>
-      <c r="G97" s="17"/>
+      <c r="G97" s="133"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="29"/>
       <c r="N97" s="17"/>
       <c r="O97" s="17"/>
       <c r="P97" s="17"/>
       <c r="Q97" s="17"/>
-    </row>
-    <row r="98" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A98" s="337"/>
-      <c r="B98" s="134"/>
+      <c r="R97" s="17"/>
+    </row>
+    <row r="98" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A98" s="204"/>
+      <c r="B98" s="339"/>
       <c r="C98" s="134"/>
       <c r="D98" s="134"/>
-      <c r="E98" s="133"/>
+      <c r="E98" s="134"/>
       <c r="F98" s="133"/>
-      <c r="G98" s="17"/>
+      <c r="G98" s="133"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="29"/>
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
       <c r="P98" s="17"/>
       <c r="Q98" s="17"/>
-      <c r="R98" s="128"/>
-      <c r="S98" s="129"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="128"/>
       <c r="T98" s="129"/>
-    </row>
-    <row r="99" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A99" s="337"/>
-      <c r="B99" s="134"/>
+      <c r="U98" s="129"/>
+    </row>
+    <row r="99" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A99" s="204"/>
+      <c r="B99" s="339"/>
       <c r="C99" s="134"/>
       <c r="D99" s="134"/>
-      <c r="E99" s="133"/>
+      <c r="E99" s="134"/>
       <c r="F99" s="133"/>
-      <c r="G99" s="17"/>
+      <c r="G99" s="133"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="29"/>
       <c r="N99" s="17"/>
       <c r="O99" s="17"/>
       <c r="P99" s="17"/>
       <c r="Q99" s="17"/>
-      <c r="R99" s="128"/>
-      <c r="S99" s="129"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="128"/>
       <c r="T99" s="129"/>
-    </row>
-    <row r="100" spans="1:20" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A100" s="337"/>
-      <c r="B100" s="134"/>
+      <c r="U99" s="129"/>
+    </row>
+    <row r="100" spans="1:21" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A100" s="204"/>
+      <c r="B100" s="339"/>
       <c r="C100" s="134"/>
       <c r="D100" s="134"/>
-      <c r="E100" s="133"/>
+      <c r="E100" s="134"/>
       <c r="F100" s="133"/>
-      <c r="G100" s="17"/>
+      <c r="G100" s="133"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="29"/>
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
       <c r="Q100" s="17"/>
-      <c r="R100" s="130"/>
-      <c r="S100" s="129"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="130"/>
       <c r="T100" s="129"/>
-    </row>
-    <row r="101" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A101" s="337"/>
-      <c r="B101" s="134"/>
+      <c r="U100" s="129"/>
+    </row>
+    <row r="101" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A101" s="204"/>
+      <c r="B101" s="339"/>
       <c r="C101" s="134"/>
       <c r="D101" s="134"/>
-      <c r="E101" s="133"/>
+      <c r="E101" s="134"/>
       <c r="F101" s="133"/>
-      <c r="G101" s="17"/>
+      <c r="G101" s="133"/>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="29"/>
       <c r="N101" s="17"/>
       <c r="O101" s="17"/>
       <c r="P101" s="17"/>
       <c r="Q101" s="17"/>
-      <c r="R101" s="128"/>
-      <c r="S101" s="129"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="128"/>
       <c r="T101" s="129"/>
-    </row>
-    <row r="102" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A102" s="337"/>
-      <c r="B102" s="134"/>
+      <c r="U101" s="129"/>
+    </row>
+    <row r="102" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A102" s="204"/>
+      <c r="B102" s="339"/>
       <c r="C102" s="134"/>
       <c r="D102" s="134"/>
-      <c r="E102" s="133"/>
+      <c r="E102" s="134"/>
       <c r="F102" s="133"/>
-      <c r="G102" s="17"/>
+      <c r="G102" s="133"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="29"/>
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
       <c r="Q102" s="17"/>
-      <c r="R102" s="128"/>
-      <c r="S102" s="129"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="128"/>
       <c r="T102" s="129"/>
-    </row>
-    <row r="103" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A103" s="337"/>
-      <c r="B103" s="134"/>
+      <c r="U102" s="129"/>
+    </row>
+    <row r="103" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A103" s="204"/>
+      <c r="B103" s="339"/>
       <c r="C103" s="134"/>
       <c r="D103" s="134"/>
-      <c r="E103" s="133"/>
+      <c r="E103" s="134"/>
       <c r="F103" s="133"/>
-      <c r="G103" s="17"/>
+      <c r="G103" s="133"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="29"/>
       <c r="N103" s="17"/>
       <c r="O103" s="17"/>
       <c r="P103" s="17"/>
       <c r="Q103" s="17"/>
-      <c r="R103" s="128"/>
-      <c r="S103" s="129"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="128"/>
       <c r="T103" s="129"/>
-    </row>
-    <row r="104" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A104" s="337"/>
-      <c r="B104" s="134"/>
+      <c r="U103" s="129"/>
+    </row>
+    <row r="104" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A104" s="204"/>
+      <c r="B104" s="339"/>
       <c r="C104" s="134"/>
       <c r="D104" s="134"/>
-      <c r="E104" s="133"/>
+      <c r="E104" s="134"/>
       <c r="F104" s="133"/>
-      <c r="G104" s="17"/>
+      <c r="G104" s="133"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="29"/>
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
       <c r="Q104" s="17"/>
-      <c r="R104" s="128"/>
-      <c r="S104" s="129"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="128"/>
       <c r="T104" s="129"/>
-    </row>
-    <row r="105" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A105" s="337"/>
-      <c r="B105" s="134"/>
+      <c r="U104" s="129"/>
+    </row>
+    <row r="105" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A105" s="204"/>
+      <c r="B105" s="339"/>
       <c r="C105" s="134"/>
       <c r="D105" s="134"/>
-      <c r="E105" s="133"/>
+      <c r="E105" s="134"/>
       <c r="F105" s="133"/>
-      <c r="G105" s="17"/>
+      <c r="G105" s="133"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="29"/>
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="17"/>
-      <c r="R105" s="128"/>
-      <c r="S105" s="129"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="128"/>
       <c r="T105" s="129"/>
-    </row>
-    <row r="106" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A106" s="337"/>
-      <c r="B106" s="134"/>
+      <c r="U105" s="129"/>
+    </row>
+    <row r="106" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A106" s="204"/>
+      <c r="B106" s="339"/>
       <c r="C106" s="134"/>
       <c r="D106" s="134"/>
-      <c r="E106" s="133"/>
+      <c r="E106" s="134"/>
       <c r="F106" s="133"/>
-      <c r="G106" s="17"/>
+      <c r="G106" s="133"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="29"/>
       <c r="N106" s="17"/>
       <c r="O106" s="17"/>
       <c r="P106" s="17"/>
       <c r="Q106" s="17"/>
-      <c r="R106" s="128"/>
-      <c r="S106" s="129"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="128"/>
       <c r="T106" s="129"/>
-    </row>
-    <row r="107" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A107" s="337"/>
-      <c r="B107" s="134"/>
-      <c r="C107" s="153"/>
+      <c r="U106" s="129"/>
+    </row>
+    <row r="107" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A107" s="204"/>
+      <c r="B107" s="339"/>
+      <c r="C107" s="134"/>
       <c r="D107" s="153"/>
-      <c r="E107" s="133"/>
+      <c r="E107" s="153"/>
       <c r="F107" s="133"/>
-      <c r="G107" s="17"/>
+      <c r="G107" s="133"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="29"/>
       <c r="N107" s="17"/>
       <c r="O107" s="17"/>
       <c r="P107" s="17"/>
       <c r="Q107" s="17"/>
-      <c r="R107" s="128"/>
-      <c r="S107" s="129"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="128"/>
       <c r="T107" s="129"/>
-    </row>
-    <row r="108" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A108" s="337"/>
-      <c r="B108" s="134"/>
-      <c r="C108" s="153"/>
+      <c r="U107" s="129"/>
+    </row>
+    <row r="108" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A108" s="204"/>
+      <c r="B108" s="339"/>
+      <c r="C108" s="134"/>
       <c r="D108" s="153"/>
-      <c r="E108" s="133"/>
+      <c r="E108" s="153"/>
       <c r="F108" s="133"/>
-      <c r="G108" s="17"/>
+      <c r="G108" s="133"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="29"/>
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
       <c r="Q108" s="17"/>
-      <c r="R108" s="128"/>
-      <c r="S108" s="129"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="128"/>
       <c r="T108" s="129"/>
-    </row>
-    <row r="109" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A109" s="337"/>
-      <c r="B109" s="134"/>
-      <c r="C109" s="153"/>
+      <c r="U108" s="129"/>
+    </row>
+    <row r="109" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A109" s="204"/>
+      <c r="B109" s="339"/>
+      <c r="C109" s="134"/>
       <c r="D109" s="153"/>
-      <c r="E109" s="133"/>
+      <c r="E109" s="153"/>
       <c r="F109" s="133"/>
-      <c r="G109" s="17"/>
+      <c r="G109" s="133"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="29"/>
       <c r="N109" s="17"/>
       <c r="O109" s="17"/>
       <c r="P109" s="17"/>
       <c r="Q109" s="17"/>
-      <c r="R109" s="128"/>
-      <c r="S109" s="129"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="128"/>
       <c r="T109" s="129"/>
-    </row>
-    <row r="110" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A110" s="337"/>
-      <c r="B110" s="134"/>
-      <c r="C110" s="153"/>
+      <c r="U109" s="129"/>
+    </row>
+    <row r="110" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A110" s="204"/>
+      <c r="B110" s="339"/>
+      <c r="C110" s="134"/>
       <c r="D110" s="153"/>
-      <c r="E110" s="133"/>
+      <c r="E110" s="153"/>
       <c r="F110" s="133"/>
-      <c r="G110" s="17"/>
+      <c r="G110" s="133"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="29"/>
       <c r="N110" s="17"/>
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
       <c r="Q110" s="17"/>
-      <c r="R110" s="128"/>
-      <c r="S110" s="129"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="128"/>
       <c r="T110" s="129"/>
-    </row>
-    <row r="111" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A111" s="337"/>
-      <c r="B111" s="134"/>
-      <c r="C111" s="153"/>
+      <c r="U110" s="129"/>
+    </row>
+    <row r="111" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A111" s="204"/>
+      <c r="B111" s="339"/>
+      <c r="C111" s="134"/>
       <c r="D111" s="153"/>
-      <c r="E111" s="133"/>
+      <c r="E111" s="153"/>
       <c r="F111" s="133"/>
-      <c r="G111" s="17"/>
+      <c r="G111" s="133"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
-      <c r="L111" s="29"/>
-      <c r="M111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="29"/>
       <c r="N111" s="17"/>
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
-      <c r="R111" s="128"/>
-      <c r="S111" s="129"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="128"/>
       <c r="T111" s="129"/>
-    </row>
-    <row r="112" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A112" s="337"/>
-      <c r="B112" s="134"/>
-      <c r="C112" s="153"/>
+      <c r="U111" s="129"/>
+    </row>
+    <row r="112" spans="1:21" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A112" s="204"/>
+      <c r="B112" s="339"/>
+      <c r="C112" s="134"/>
       <c r="D112" s="153"/>
-      <c r="E112" s="133"/>
+      <c r="E112" s="153"/>
       <c r="F112" s="133"/>
-      <c r="G112" s="17"/>
+      <c r="G112" s="133"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="29"/>
       <c r="N112" s="17"/>
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
-      <c r="R112" s="128"/>
-      <c r="S112" s="129"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="128"/>
       <c r="T112" s="129"/>
-    </row>
-    <row r="113" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A113" s="337"/>
-      <c r="B113" s="134"/>
-      <c r="C113" s="153"/>
+      <c r="U112" s="129"/>
+    </row>
+    <row r="113" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A113" s="204"/>
+      <c r="B113" s="339"/>
+      <c r="C113" s="134"/>
       <c r="D113" s="153"/>
-      <c r="E113" s="133"/>
+      <c r="E113" s="153"/>
       <c r="F113" s="133"/>
-      <c r="G113" s="17"/>
+      <c r="G113" s="133"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="29"/>
       <c r="N113" s="17"/>
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
-      <c r="R113" s="128"/>
-      <c r="S113" s="129"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="128"/>
       <c r="T113" s="129"/>
-    </row>
-    <row r="114" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A114" s="337"/>
-      <c r="B114" s="134"/>
-      <c r="C114" s="153"/>
+      <c r="U113" s="129"/>
+    </row>
+    <row r="114" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A114" s="204"/>
+      <c r="B114" s="339"/>
+      <c r="C114" s="134"/>
       <c r="D114" s="153"/>
-      <c r="E114" s="133"/>
+      <c r="E114" s="153"/>
       <c r="F114" s="133"/>
-      <c r="G114" s="17"/>
+      <c r="G114" s="133"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="29"/>
       <c r="N114" s="17"/>
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
-      <c r="R114" s="128"/>
-      <c r="S114" s="129"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="128"/>
       <c r="T114" s="129"/>
-    </row>
-    <row r="115" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A115" s="337"/>
-      <c r="B115" s="134"/>
-      <c r="C115" s="153"/>
+      <c r="U114" s="129"/>
+    </row>
+    <row r="115" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A115" s="204"/>
+      <c r="B115" s="339"/>
+      <c r="C115" s="134"/>
       <c r="D115" s="153"/>
-      <c r="E115" s="133"/>
+      <c r="E115" s="153"/>
       <c r="F115" s="133"/>
-      <c r="G115" s="17"/>
+      <c r="G115" s="133"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
-      <c r="L115" s="29"/>
-      <c r="M115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="29"/>
       <c r="N115" s="17"/>
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
-      <c r="R115" s="128"/>
-      <c r="S115" s="129"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="128"/>
       <c r="T115" s="129"/>
-    </row>
-    <row r="116" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A116" s="338"/>
-      <c r="B116" s="134"/>
-      <c r="C116" s="153"/>
+      <c r="U115" s="129"/>
+    </row>
+    <row r="116" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A116" s="204"/>
+      <c r="B116" s="340"/>
+      <c r="C116" s="134"/>
       <c r="D116" s="153"/>
-      <c r="E116" s="133"/>
+      <c r="E116" s="153"/>
       <c r="F116" s="133"/>
-      <c r="G116" s="17"/>
+      <c r="G116" s="133"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="29"/>
       <c r="N116" s="17"/>
       <c r="O116" s="17"/>
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
-      <c r="R116" s="128"/>
-      <c r="S116" s="129"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="128"/>
       <c r="T116" s="129"/>
-    </row>
-    <row r="117" spans="1:26" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A117" s="143" t="s">
+      <c r="U116" s="129"/>
+    </row>
+    <row r="117" spans="1:27" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A117" s="204"/>
+      <c r="B117" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="B117" s="143" t="s">
+      <c r="C117" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="C117" s="150" t="s">
+      <c r="D117" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="D117" s="143" t="s">
+      <c r="E117" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
-      <c r="K117" s="137"/>
-      <c r="L117" s="138"/>
-      <c r="M117" s="139"/>
-      <c r="N117" s="128"/>
-      <c r="O117" s="129"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="137"/>
+      <c r="M117" s="138"/>
+      <c r="N117" s="139"/>
+      <c r="O117" s="128"/>
       <c r="P117" s="129"/>
-    </row>
-    <row r="118" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A118" s="17"/>
-      <c r="B118" s="17">
+      <c r="Q117" s="129"/>
+    </row>
+    <row r="118" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A118" s="204"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17">
         <v>1</v>
       </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="137"/>
-      <c r="E118" s="136"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="137"/>
       <c r="F118" s="136"/>
       <c r="G118" s="136"/>
-      <c r="H118" s="137"/>
-      <c r="J118" s="137"/>
-      <c r="K118" s="25"/>
+      <c r="H118" s="136"/>
+      <c r="I118" s="137"/>
+      <c r="K118" s="137"/>
       <c r="L118" s="25"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="128"/>
-      <c r="O118" s="129"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="128"/>
       <c r="P118" s="129"/>
-      <c r="Q118" s="1"/>
-    </row>
-    <row r="119" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A119" s="17" t="s">
+      <c r="Q118" s="129"/>
+      <c r="R118" s="1"/>
+    </row>
+    <row r="119" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A119" s="204"/>
+      <c r="B119" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B119" s="17">
+      <c r="C119" s="17">
         <v>1</v>
       </c>
-      <c r="C119" s="29"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="17"/>
       <c r="F119" s="29"/>
       <c r="G119" s="29"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="86"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="128"/>
-      <c r="O119" s="129"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="86"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="128"/>
       <c r="P119" s="129"/>
-      <c r="Q119" s="1"/>
-    </row>
-    <row r="120" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A120" s="17" t="s">
+      <c r="Q119" s="129"/>
+      <c r="R119" s="1"/>
+    </row>
+    <row r="120" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A120" s="204"/>
+      <c r="B120" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B120" s="17">
+      <c r="C120" s="17">
         <v>2</v>
       </c>
-      <c r="C120" s="28"/>
       <c r="D120" s="28"/>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
       <c r="G120" s="28"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="87"/>
-      <c r="J120" s="86"/>
-      <c r="K120" s="31"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="128"/>
-      <c r="O120" s="129"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="86"/>
+      <c r="J120" s="87"/>
+      <c r="K120" s="86"/>
+      <c r="L120" s="31"/>
+      <c r="M120" s="25"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="128"/>
       <c r="P120" s="129"/>
-      <c r="Q120" s="1"/>
-    </row>
-    <row r="121" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A121" s="17" t="s">
+      <c r="Q120" s="129"/>
+      <c r="R120" s="1"/>
+    </row>
+    <row r="121" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A121" s="204"/>
+      <c r="B121" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B121" s="17">
+      <c r="C121" s="17">
         <v>3</v>
       </c>
-      <c r="C121" s="28"/>
-      <c r="D121" s="31"/>
+      <c r="D121" s="28"/>
       <c r="E121" s="31"/>
       <c r="F121" s="31"/>
       <c r="G121" s="31"/>
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
       <c r="J121" s="31"/>
-      <c r="K121" s="87"/>
-      <c r="L121" s="25"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="128"/>
-      <c r="O121" s="129"/>
+      <c r="K121" s="31"/>
+      <c r="L121" s="87"/>
+      <c r="M121" s="25"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="128"/>
       <c r="P121" s="129"/>
-      <c r="Q121" s="1"/>
-    </row>
-    <row r="122" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A122" s="17"/>
+      <c r="Q121" s="129"/>
+      <c r="R121" s="1"/>
+    </row>
+    <row r="122" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A122" s="204"/>
       <c r="B122" s="17"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="28"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="29"/>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
       <c r="G122" s="28"/>
-      <c r="H122" s="87"/>
+      <c r="H122" s="28"/>
       <c r="I122" s="87"/>
       <c r="J122" s="87"/>
       <c r="K122" s="87"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="128"/>
-      <c r="O122" s="129"/>
+      <c r="L122" s="87"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="128"/>
       <c r="P122" s="129"/>
-      <c r="Q122" s="1"/>
-    </row>
-    <row r="123" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A123" s="17"/>
+      <c r="Q122" s="129"/>
+      <c r="R122" s="1"/>
+    </row>
+    <row r="123" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A123" s="204"/>
       <c r="B123" s="17"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="30"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="31"/>
       <c r="E123" s="30"/>
       <c r="F123" s="30"/>
       <c r="G123" s="30"/>
-      <c r="H123" s="87"/>
+      <c r="H123" s="30"/>
       <c r="I123" s="87"/>
       <c r="J123" s="87"/>
-      <c r="K123" s="86"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="128"/>
-      <c r="O123" s="129"/>
+      <c r="K123" s="87"/>
+      <c r="L123" s="86"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="128"/>
       <c r="P123" s="129"/>
-      <c r="Q123" s="1"/>
-    </row>
-    <row r="124" spans="1:26" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A124" s="17"/>
-      <c r="B124" s="86"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="30"/>
+      <c r="Q123" s="129"/>
+      <c r="R123" s="1"/>
+    </row>
+    <row r="124" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A124" s="204"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="28"/>
       <c r="E124" s="30"/>
-      <c r="F124" s="29"/>
+      <c r="F124" s="30"/>
       <c r="G124" s="29"/>
-      <c r="H124" s="86"/>
+      <c r="H124" s="29"/>
       <c r="I124" s="86"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="87"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="128"/>
-      <c r="O124" s="129"/>
+      <c r="J124" s="86"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="87"/>
+      <c r="M124" s="25"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="128"/>
       <c r="P124" s="129"/>
-      <c r="Q124" s="1"/>
-      <c r="S124" s="1"/>
-    </row>
-    <row r="125" spans="1:26" ht="12" hidden="1">
-      <c r="A125" s="93"/>
-      <c r="B125" s="87"/>
-      <c r="C125" s="28"/>
+      <c r="Q124" s="129"/>
+      <c r="R124" s="1"/>
+      <c r="T124" s="1"/>
+    </row>
+    <row r="125" spans="1:27" ht="12" hidden="1">
+      <c r="B125" s="93"/>
+      <c r="C125" s="87"/>
       <c r="D125" s="28"/>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
       <c r="G125" s="28"/>
-      <c r="H125" s="87"/>
+      <c r="H125" s="28"/>
       <c r="I125" s="87"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="30"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="131"/>
-      <c r="O125" s="132"/>
+      <c r="J125" s="87"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="30"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="131"/>
       <c r="P125" s="132"/>
-      <c r="W125" s="18"/>
+      <c r="Q125" s="132"/>
       <c r="X125" s="18"/>
       <c r="Y125" s="18"/>
       <c r="Z125" s="18"/>
-    </row>
-    <row r="126" spans="1:26" ht="12" hidden="1">
-      <c r="A126" s="93"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="28"/>
+      <c r="AA125" s="18"/>
+    </row>
+    <row r="126" spans="1:27" ht="12" hidden="1">
+      <c r="B126" s="93"/>
+      <c r="C126" s="30"/>
       <c r="D126" s="28"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="30"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="28"/>
       <c r="H126" s="30"/>
       <c r="I126" s="30"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="31"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="131"/>
-      <c r="O126" s="132"/>
+      <c r="J126" s="30"/>
+      <c r="K126" s="25"/>
+      <c r="L126" s="31"/>
+      <c r="M126" s="25"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="131"/>
       <c r="P126" s="132"/>
-    </row>
-    <row r="127" spans="1:26" ht="12" hidden="1">
-      <c r="A127" s="93"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="28"/>
+      <c r="Q126" s="132"/>
+    </row>
+    <row r="127" spans="1:27" ht="12" hidden="1">
+      <c r="B127" s="93"/>
+      <c r="C127" s="31"/>
       <c r="D127" s="28"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="31"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="28"/>
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="87"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="17"/>
-    </row>
-    <row r="128" spans="1:26" ht="12" hidden="1">
-      <c r="A128" s="93"/>
-      <c r="B128" s="87"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="28"/>
+      <c r="J127" s="31"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="87"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="17"/>
+    </row>
+    <row r="128" spans="1:27" ht="12" hidden="1">
+      <c r="B128" s="93"/>
+      <c r="C128" s="87"/>
+      <c r="D128" s="30"/>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
       <c r="G128" s="28"/>
-      <c r="H128" s="87"/>
+      <c r="H128" s="28"/>
       <c r="I128" s="87"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="87"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="17"/>
-    </row>
-    <row r="129" spans="1:13" ht="12" hidden="1">
-      <c r="A129" s="93"/>
-      <c r="B129" s="87"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="28"/>
+      <c r="J128" s="87"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="87"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="17"/>
+    </row>
+    <row r="129" spans="2:14" ht="12" hidden="1">
+      <c r="B129" s="93"/>
+      <c r="C129" s="87"/>
+      <c r="D129" s="30"/>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
       <c r="G129" s="28"/>
-      <c r="H129" s="87"/>
+      <c r="H129" s="28"/>
       <c r="I129" s="87"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="87"/>
-      <c r="L129" s="25"/>
-      <c r="M129" s="17"/>
-    </row>
-    <row r="130" spans="1:13" ht="12" hidden="1">
-      <c r="A130" s="93"/>
-      <c r="B130" s="87"/>
-      <c r="C130" s="28"/>
+      <c r="J129" s="87"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="87"/>
+      <c r="M129" s="25"/>
+      <c r="N129" s="17"/>
+    </row>
+    <row r="130" spans="2:14" ht="12" hidden="1">
+      <c r="B130" s="93"/>
+      <c r="C130" s="87"/>
       <c r="D130" s="28"/>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
       <c r="G130" s="28"/>
-      <c r="H130" s="87"/>
+      <c r="H130" s="28"/>
       <c r="I130" s="87"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="87"/>
-      <c r="L130" s="17"/>
+      <c r="J130" s="87"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="87"/>
       <c r="M130" s="17"/>
-    </row>
-    <row r="131" spans="1:13" ht="12" hidden="1">
-      <c r="A131" s="93"/>
-      <c r="B131" s="87"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="87"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="87"/>
+      <c r="N130" s="17"/>
+    </row>
+    <row r="131" spans="2:14" ht="12" hidden="1">
+      <c r="B131" s="93"/>
+      <c r="C131" s="87"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="87"/>
+      <c r="G131" s="17"/>
       <c r="H131" s="87"/>
       <c r="I131" s="87"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="30"/>
-      <c r="L131" s="17"/>
+      <c r="J131" s="87"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="30"/>
       <c r="M131" s="17"/>
-    </row>
-    <row r="132" spans="1:13" ht="12" hidden="1">
-      <c r="A132" s="93"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="87"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="30"/>
+      <c r="N131" s="17"/>
+    </row>
+    <row r="132" spans="2:14" ht="12" hidden="1">
+      <c r="B132" s="93"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="87"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="17"/>
       <c r="H132" s="30"/>
       <c r="I132" s="30"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="30"/>
-      <c r="L132" s="93"/>
+      <c r="J132" s="30"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="30"/>
       <c r="M132" s="93"/>
-    </row>
-    <row r="133" spans="1:13" ht="12" hidden="1">
-      <c r="A133" s="93"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="87"/>
-      <c r="D133" s="93"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="93"/>
-      <c r="G133" s="30"/>
+      <c r="N132" s="93"/>
+    </row>
+    <row r="133" spans="2:14" ht="12" hidden="1">
+      <c r="B133" s="93"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="87"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="93"/>
       <c r="H133" s="30"/>
       <c r="I133" s="30"/>
-      <c r="J133" s="93"/>
-      <c r="K133" s="87"/>
-      <c r="L133" s="93"/>
+      <c r="J133" s="30"/>
+      <c r="K133" s="93"/>
+      <c r="L133" s="87"/>
       <c r="M133" s="93"/>
-    </row>
-    <row r="134" spans="1:13" ht="12" hidden="1">
-      <c r="A134" s="93"/>
-      <c r="B134" s="87"/>
-      <c r="C134" s="93"/>
+      <c r="N133" s="93"/>
+    </row>
+    <row r="134" spans="2:14" ht="12" hidden="1">
+      <c r="B134" s="93"/>
+      <c r="C134" s="87"/>
       <c r="D134" s="93"/>
-      <c r="E134" s="87"/>
-      <c r="F134" s="93"/>
-      <c r="G134" s="87"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="87"/>
+      <c r="G134" s="93"/>
       <c r="H134" s="87"/>
       <c r="I134" s="87"/>
-      <c r="J134" s="93"/>
+      <c r="J134" s="87"/>
       <c r="K134" s="93"/>
       <c r="L134" s="93"/>
       <c r="M134" s="93"/>
-    </row>
-    <row r="135" spans="1:13" hidden="1"/>
+      <c r="N134" s="93"/>
+    </row>
+    <row r="135" spans="2:14" hidden="1"/>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="A76:A116"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="I34:P34"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A45:A75"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B76:B116"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B45:B75"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations disablePrompts="1" count="15">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{2E4308DA-C9D0-4453-80E7-65B94060C03C}"/>
-    <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:P13 N7:P8 N17:P18 N22:P25" xr:uid="{38082B69-6CD3-4A6B-A4B2-BB86A974ADAF}"/>
-    <dataValidation type="textLength" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="製品コード入力ミス" error="製品コードを4桁で入力してください。_x000a_例：0000～9999" sqref="B3" xr:uid="{37AEF975-20C4-45D2-9656-C84DBF4E9AF2}">
+  <dataValidations count="15">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{2E4308DA-C9D0-4453-80E7-65B94060C03C}"/>
+    <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:Q13 O7:Q8 O17:Q18 O22:Q25" xr:uid="{38082B69-6CD3-4A6B-A4B2-BB86A974ADAF}"/>
+    <dataValidation type="textLength" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="製品コード入力ミス" error="製品コードを4桁で入力してください。_x000a_例：0000～9999" sqref="C3" xr:uid="{37AEF975-20C4-45D2-9656-C84DBF4E9AF2}">
       <formula1>5</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4 P3 I8 I13 G7:G8 G12:G13 G17:G18 G22:G25 I7 I12 J7:J8" xr:uid="{235144EF-F55E-4D67-AB7D-5266BEC916B2}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26" xr:uid="{FBB59D3C-D5CF-4FD6-ABD6-1CA97A4DFD6D}">
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4 Q3 J8 J13 H7:H8 H12:H13 H17:H18 H22:H25 J7 J12 K7:K8" xr:uid="{235144EF-F55E-4D67-AB7D-5266BEC916B2}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G26" xr:uid="{FBB59D3C-D5CF-4FD6-ABD6-1CA97A4DFD6D}">
       <formula1>"　○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:B8 A12:B13 A17:B18 A22:B25" xr:uid="{164DAA30-77D8-4750-8052-63F566A88406}">
-      <formula1>OFFSET(pulldown_level1,0,U7,1,W7)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C8 B12:C13 B17:C18 B22:C25" xr:uid="{164DAA30-77D8-4750-8052-63F566A88406}">
+      <formula1>OFFSET(pulldown_level1,0,V7,1,X7)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C12:C13 C17:C18 C22:C25" xr:uid="{56164AB0-94C3-4F21-A836-A8376906A825}">
-      <formula1>OFFSET(pulldown_level2,0,U7+X7,Y7,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D8 D12:D13 D17:D18 D22:D25" xr:uid="{56164AB0-94C3-4F21-A836-A8376906A825}">
+      <formula1>OFFSET(pulldown_level2,0,V7+Y7,Z7,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:K4" xr:uid="{B200E195-28B8-4491-AE5D-1CD96DA4DE6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:L4" xr:uid="{B200E195-28B8-4491-AE5D-1CD96DA4DE6D}">
       <formula1>OFFSET(pulldown_dept_member,0,0,COUNTA(OFFSET(pulldown_dept_member,0,0,100,1))+1,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{057EA57A-5E55-4073-9247-F44D44E87BDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D4" xr:uid="{057EA57A-5E55-4073-9247-F44D44E87BDC}">
       <formula1>OFFSET(pulldown_mrkt_dev,0,-1,1,dept_max_count+1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:G4" xr:uid="{A8108482-8738-4A58-A8C4-1EA2BCD1C5F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:H4" xr:uid="{A8108482-8738-4A58-A8C4-1EA2BCD1C5F2}">
       <formula1>OFFSET(pulldown_mrkt_dev,1,MATCH(inchargegroupcode,OFFSET(pulldown_mrkt_dev,0,0,1,dept_max_count+1),0)-1,COUNTA(OFFSET(pulldown_mrkt_dev,1,MATCH(inchargegroupcode,OFFSET(pulldown_mrkt_dev,0,0,1,dept_max_count+1),0)-1,999,1))+1,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H12:H13 H17:H18" xr:uid="{C7A479BA-AFA2-4B74-A051-03E6AE392C06}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I12:I13 I17:I18" xr:uid="{C7A479BA-AFA2-4B74-A051-03E6AE392C06}">
       <formula1>OFFSET(JPYEN_display,0,0,num_of_monetary,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8 H22:H24 H25" xr:uid="{E3D331C6-55A8-4C04-963F-C9EDE94E26C5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I8 I22:I24 I25" xr:uid="{E3D331C6-55A8-4C04-963F-C9EDE94E26C5}">
       <formula1>OFFSET(JPYEN_display,0,0,num_of_monetary,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17 F18 F22 F23" xr:uid="{BBF646B2-0D82-4081-BE93-13E8ADC82832}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17 G18 G22 G23" xr:uid="{BBF646B2-0D82-4081-BE93-13E8ADC82832}">
       <formula1>OFFSET(hdn_list_payoff_blank,0,0,2,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D8 D22:D25 D17:D18 D12:D13" xr:uid="{25311D60-C76F-4BE9-B430-130F09D31405}">
-      <formula1>OFFSET(pulldown_company,0,U7+X7,Z7,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E8 E22:E25 E17:E18 E12:E13" xr:uid="{25311D60-C76F-4BE9-B430-130F09D31405}">
+      <formula1>OFFSET(pulldown_company,0,V7+Y7,AA7,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E25 E17:E18 E7:F8 E12:F13" xr:uid="{6656878B-4482-4DBA-A836-492E2C003804}">
-      <formula1>OFFSET(pulldown_company,0,V7+Y7,#REF!,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F25 F17:F18 F7:G8 F12:G13" xr:uid="{6656878B-4482-4DBA-A836-492E2C003804}">
+      <formula1>OFFSET(pulldown_company,0,W7+Z7,#REF!,1)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.31496062992125984" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="20" max="15" man="1"/>
+    <brk id="20" max="16" man="1"/>
     <brk id="116" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetPrintTmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BADA347-7E67-4F9A-89C9-9E58403A4CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D4A0FA-7AB2-4524-9177-8ABA84851ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="996" windowWidth="16968" windowHeight="11964" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ver.43.1.6" sheetId="6" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="147">
   <si>
     <t>作成日</t>
   </si>
@@ -2125,6 +2125,59 @@
     <t>V43-1-6</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>部材費合計の追加、各セルを上下中央揃えに設定
+ヘッダー項目名の変更、ヘッダー項目名を左寄せに設定</t>
+    <rPh sb="0" eb="2">
+      <t>ブザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒダリヨ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -2140,7 +2193,7 @@
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2240,6 +2293,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3511,7 +3571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -4173,477 +4233,74 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="20" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="20" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
@@ -4675,12 +4332,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -4694,18 +4345,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="6" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4726,56 +4365,486 @@
       <alignment horizontal="center" vertical="top" textRotation="255"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="20" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="20" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5251,18 +5320,18 @@
       <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="239" t="s">
+      <c r="F2" s="301" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
@@ -5278,19 +5347,19 @@
       <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="273"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="272"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="345"/>
       <c r="K3" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="272"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="345"/>
       <c r="P3" s="27" t="s">
         <v>26</v>
       </c>
@@ -5301,24 +5370,24 @@
       <c r="B4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="303"/>
       <c r="E4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="242"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245" t="s">
+      <c r="F4" s="304"/>
+      <c r="G4" s="305"/>
+      <c r="H4" s="306"/>
+      <c r="I4" s="307" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="246"/>
-      <c r="K4" s="247"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="245" t="s">
+      <c r="J4" s="308"/>
+      <c r="K4" s="309"/>
+      <c r="L4" s="309"/>
+      <c r="M4" s="307" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="246"/>
+      <c r="N4" s="308"/>
       <c r="O4" s="81"/>
       <c r="P4" s="80" t="s">
         <v>68</v>
@@ -5345,37 +5414,37 @@
     </row>
     <row r="5" spans="1:27" ht="6.75" customHeight="1" thickBot="1">
       <c r="A5" s="192"/>
-      <c r="B5" s="248"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="250"/>
+      <c r="B5" s="310"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="311"/>
+      <c r="G5" s="311"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="311"/>
+      <c r="J5" s="311"/>
+      <c r="K5" s="311"/>
+      <c r="L5" s="311"/>
+      <c r="M5" s="311"/>
+      <c r="N5" s="311"/>
+      <c r="O5" s="311"/>
+      <c r="P5" s="311"/>
+      <c r="Q5" s="312"/>
     </row>
     <row r="6" spans="1:27" ht="18" customHeight="1">
       <c r="A6" s="192"/>
-      <c r="B6" s="274" t="s">
+      <c r="B6" s="347" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="275"/>
+      <c r="C6" s="348"/>
       <c r="D6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="276" t="s">
+      <c r="E6" s="349" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="275"/>
+      <c r="F6" s="350"/>
+      <c r="G6" s="348"/>
       <c r="H6" s="84" t="s">
         <v>7</v>
       </c>
@@ -5388,18 +5457,18 @@
       <c r="K6" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="214" t="s">
+      <c r="L6" s="358" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="215"/>
+      <c r="M6" s="359"/>
       <c r="N6" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="216" t="s">
+      <c r="O6" s="341" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="218"/>
+      <c r="P6" s="342"/>
+      <c r="Q6" s="343"/>
       <c r="R6" s="55" t="s">
         <v>70</v>
       </c>
@@ -5433,27 +5502,27 @@
     </row>
     <row r="7" spans="1:27" ht="14.1" customHeight="1">
       <c r="A7" s="192"/>
-      <c r="B7" s="219"/>
-      <c r="C7" s="220"/>
+      <c r="B7" s="360"/>
+      <c r="C7" s="361"/>
       <c r="D7" s="89"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="223"/>
+      <c r="E7" s="362"/>
+      <c r="F7" s="363"/>
+      <c r="G7" s="364"/>
       <c r="H7" s="193"/>
       <c r="I7" s="90" t="s">
         <v>134</v>
       </c>
       <c r="J7" s="91"/>
       <c r="K7" s="92"/>
-      <c r="L7" s="224">
+      <c r="L7" s="319">
         <f>IFERROR(TRUNC(H7*TRUNC(J7,4)*K7,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M7" s="225"/>
+      <c r="M7" s="320"/>
       <c r="N7" s="93"/>
-      <c r="O7" s="226"/>
-      <c r="P7" s="227"/>
-      <c r="Q7" s="228"/>
+      <c r="O7" s="365"/>
+      <c r="P7" s="366"/>
+      <c r="Q7" s="367"/>
       <c r="R7" s="1" t="str">
         <f t="shared" ref="R7:R8" ca="1" si="0">IFERROR(VLOOKUP(D7,OFFSET(pulldown_level2,0,V7+Y7,Z7,1),1,FALSE),"")</f>
         <v/>
@@ -5496,27 +5565,27 @@
     </row>
     <row r="8" spans="1:27" ht="14.1" customHeight="1" thickBot="1">
       <c r="A8" s="192"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="220"/>
+      <c r="B8" s="360"/>
+      <c r="C8" s="361"/>
       <c r="D8" s="94"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="223"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="363"/>
+      <c r="G8" s="364"/>
       <c r="H8" s="194"/>
       <c r="I8" s="95" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="96"/>
       <c r="K8" s="97"/>
-      <c r="L8" s="224">
+      <c r="L8" s="319">
         <f>IFERROR(TRUNC(H8*TRUNC(J8,4)*K8,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M8" s="225"/>
+      <c r="M8" s="320"/>
       <c r="N8" s="98"/>
-      <c r="O8" s="229"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="230"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="368"/>
+      <c r="Q8" s="369"/>
       <c r="R8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -5559,30 +5628,30 @@
     </row>
     <row r="9" spans="1:27" ht="14.1" customHeight="1" thickBot="1">
       <c r="A9" s="192"/>
-      <c r="B9" s="257" t="s">
+      <c r="B9" s="324" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="258"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="258"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="259"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
+      <c r="G9" s="326"/>
       <c r="H9" s="197">
         <f>SUM(H7:H8)</f>
         <v>0</v>
       </c>
       <c r="I9" s="99"/>
-      <c r="J9" s="260">
+      <c r="J9" s="327">
         <f>SUM(L7:L8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261"/>
-      <c r="M9" s="262"/>
+      <c r="K9" s="328"/>
+      <c r="L9" s="328"/>
+      <c r="M9" s="329"/>
       <c r="N9" s="100"/>
-      <c r="O9" s="263"/>
-      <c r="P9" s="263"/>
-      <c r="Q9" s="264"/>
+      <c r="O9" s="330"/>
+      <c r="P9" s="330"/>
+      <c r="Q9" s="331"/>
       <c r="R9" s="1">
         <f>IF(D9&lt;&gt;0,IF(B9=$H$45,VLOOKUP(D9,$H$47:$H$55,1,TRUE),IF(B9=$I$45,VLOOKUP(D9,$I$47:$I$57,1,TRUE),IF(B9=$J$45,VLOOKUP(D9,$J$47:$J$55,1,TRUE),))),)</f>
         <v>0</v>
@@ -5590,37 +5659,37 @@
     </row>
     <row r="10" spans="1:27" ht="6" customHeight="1" thickBot="1">
       <c r="A10" s="192"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="205"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="206"/>
+      <c r="B10" s="332"/>
+      <c r="C10" s="333"/>
+      <c r="D10" s="333"/>
+      <c r="E10" s="333"/>
+      <c r="F10" s="333"/>
+      <c r="G10" s="333"/>
+      <c r="H10" s="333"/>
+      <c r="I10" s="333"/>
+      <c r="J10" s="333"/>
+      <c r="K10" s="333"/>
+      <c r="L10" s="333"/>
+      <c r="M10" s="333"/>
+      <c r="N10" s="333"/>
+      <c r="O10" s="333"/>
+      <c r="P10" s="333"/>
+      <c r="Q10" s="334"/>
     </row>
     <row r="11" spans="1:27" ht="18" customHeight="1">
       <c r="A11" s="192"/>
-      <c r="B11" s="265" t="s">
+      <c r="B11" s="335" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="266"/>
+      <c r="C11" s="336"/>
       <c r="D11" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="267" t="s">
+      <c r="E11" s="337" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="268"/>
-      <c r="G11" s="266"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="336"/>
       <c r="H11" s="102" t="s">
         <v>7</v>
       </c>
@@ -5633,42 +5702,42 @@
       <c r="K11" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="269" t="s">
+      <c r="L11" s="339" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="270"/>
+      <c r="M11" s="340"/>
       <c r="N11" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="216" t="s">
+      <c r="O11" s="341" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="217"/>
-      <c r="Q11" s="218"/>
+      <c r="P11" s="342"/>
+      <c r="Q11" s="343"/>
     </row>
     <row r="12" spans="1:27" ht="14.1" customHeight="1">
       <c r="A12" s="192"/>
-      <c r="B12" s="252"/>
-      <c r="C12" s="253"/>
+      <c r="B12" s="314"/>
+      <c r="C12" s="315"/>
       <c r="D12" s="105"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="233"/>
+      <c r="E12" s="316"/>
+      <c r="F12" s="317"/>
+      <c r="G12" s="318"/>
       <c r="H12" s="195"/>
       <c r="I12" s="106" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="107"/>
       <c r="K12" s="92"/>
-      <c r="L12" s="224">
+      <c r="L12" s="319">
         <f>IFERROR(TRUNC(H12*TRUNC(J12,4)*K12,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M12" s="225"/>
+      <c r="M12" s="320"/>
       <c r="N12" s="93"/>
-      <c r="O12" s="254"/>
-      <c r="P12" s="255"/>
-      <c r="Q12" s="256"/>
+      <c r="O12" s="321"/>
+      <c r="P12" s="322"/>
+      <c r="Q12" s="323"/>
       <c r="R12" s="1" t="str">
         <f t="shared" ref="R12:R13" ca="1" si="9">IFERROR(VLOOKUP(D12,OFFSET(pulldown_level2,0,V12+Y12,Z12,1),1,FALSE),"")</f>
         <v/>
@@ -5711,27 +5780,27 @@
     </row>
     <row r="13" spans="1:27" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="192"/>
-      <c r="B13" s="212"/>
-      <c r="C13" s="213"/>
+      <c r="B13" s="356"/>
+      <c r="C13" s="357"/>
       <c r="D13" s="108"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="233"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="318"/>
       <c r="H13" s="196"/>
       <c r="I13" s="109" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="110"/>
       <c r="K13" s="111"/>
-      <c r="L13" s="224">
+      <c r="L13" s="319">
         <f>IFERROR(TRUNC(H13*TRUNC(J13,4)*K13,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M13" s="225"/>
+      <c r="M13" s="320"/>
       <c r="N13" s="93"/>
-      <c r="O13" s="234"/>
-      <c r="P13" s="234"/>
-      <c r="Q13" s="235"/>
+      <c r="O13" s="246"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="247"/>
       <c r="R13" s="1" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
@@ -5774,30 +5843,30 @@
     </row>
     <row r="14" spans="1:27" ht="14.1" customHeight="1" thickBot="1">
       <c r="A14" s="192"/>
-      <c r="B14" s="236" t="s">
+      <c r="B14" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="238"/>
+      <c r="C14" s="371"/>
+      <c r="D14" s="371"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="371"/>
+      <c r="G14" s="372"/>
       <c r="H14" s="198">
         <f>SUM(H12:H13)</f>
         <v>0</v>
       </c>
       <c r="I14" s="112"/>
-      <c r="J14" s="199">
+      <c r="J14" s="351">
         <f>SUM(L12:L13)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="201"/>
+      <c r="K14" s="352"/>
+      <c r="L14" s="352"/>
+      <c r="M14" s="353"/>
       <c r="N14" s="113"/>
-      <c r="O14" s="202"/>
-      <c r="P14" s="202"/>
-      <c r="Q14" s="203"/>
+      <c r="O14" s="354"/>
+      <c r="P14" s="354"/>
+      <c r="Q14" s="355"/>
       <c r="R14" s="1">
         <f>IF(D14&lt;&gt;0,IF(B14=$H$45,VLOOKUP(D14,$H$47:$H$55,1,TRUE),IF(B14=$I$45,VLOOKUP(D14,$I$47:$I$57,1,TRUE),IF(B14=$J$45,VLOOKUP(D14,$J$47:$J$55,1,TRUE),))),)</f>
         <v>0</v>
@@ -5805,36 +5874,36 @@
     </row>
     <row r="15" spans="1:27" ht="6" customHeight="1" thickBot="1">
       <c r="A15" s="192"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="205"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="205"/>
-      <c r="N15" s="205"/>
-      <c r="O15" s="205"/>
-      <c r="P15" s="205"/>
-      <c r="Q15" s="206"/>
+      <c r="B15" s="332"/>
+      <c r="C15" s="333"/>
+      <c r="D15" s="333"/>
+      <c r="E15" s="333"/>
+      <c r="F15" s="333"/>
+      <c r="G15" s="333"/>
+      <c r="H15" s="333"/>
+      <c r="I15" s="333"/>
+      <c r="J15" s="333"/>
+      <c r="K15" s="333"/>
+      <c r="L15" s="333"/>
+      <c r="M15" s="333"/>
+      <c r="N15" s="333"/>
+      <c r="O15" s="333"/>
+      <c r="P15" s="333"/>
+      <c r="Q15" s="334"/>
     </row>
     <row r="16" spans="1:27" ht="20.25" customHeight="1">
       <c r="A16" s="192"/>
-      <c r="B16" s="207" t="s">
+      <c r="B16" s="294" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="208"/>
+      <c r="C16" s="295"/>
       <c r="D16" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="209" t="s">
+      <c r="E16" s="296" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="208"/>
+      <c r="F16" s="295"/>
       <c r="G16" s="114" t="s">
         <v>16</v>
       </c>
@@ -5850,26 +5919,26 @@
       <c r="K16" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="209" t="s">
+      <c r="L16" s="296" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="208"/>
+      <c r="M16" s="295"/>
       <c r="N16" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="209" t="s">
+      <c r="O16" s="296" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="210"/>
-      <c r="Q16" s="211"/>
+      <c r="P16" s="297"/>
+      <c r="Q16" s="298"/>
     </row>
     <row r="17" spans="1:27" ht="14.1" customHeight="1">
       <c r="A17" s="192"/>
-      <c r="B17" s="278"/>
-      <c r="C17" s="279"/>
+      <c r="B17" s="287"/>
+      <c r="C17" s="288"/>
       <c r="D17" s="117"/>
-      <c r="E17" s="280"/>
-      <c r="F17" s="279"/>
+      <c r="E17" s="289"/>
+      <c r="F17" s="288"/>
       <c r="G17" s="118"/>
       <c r="H17" s="119"/>
       <c r="I17" s="120" t="s">
@@ -5877,15 +5946,15 @@
       </c>
       <c r="J17" s="121"/>
       <c r="K17" s="122"/>
-      <c r="L17" s="281">
+      <c r="L17" s="290">
         <f>IFERROR(TRUNC(H17*TRUNC(J17,4)*K17,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M17" s="282"/>
+      <c r="M17" s="291"/>
       <c r="N17" s="93"/>
-      <c r="O17" s="283"/>
-      <c r="P17" s="283"/>
-      <c r="Q17" s="284"/>
+      <c r="O17" s="292"/>
+      <c r="P17" s="292"/>
+      <c r="Q17" s="293"/>
       <c r="R17" s="1" t="str">
         <f t="shared" ref="R17:R18" ca="1" si="19">IFERROR(VLOOKUP(D17,OFFSET(pulldown_level2,0,V17+Y17,Z17,1),1,FALSE),"")</f>
         <v/>
@@ -5928,11 +5997,11 @@
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="192"/>
-      <c r="B18" s="278"/>
-      <c r="C18" s="279"/>
+      <c r="B18" s="287"/>
+      <c r="C18" s="288"/>
       <c r="D18" s="123"/>
-      <c r="E18" s="280"/>
-      <c r="F18" s="279"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="288"/>
       <c r="G18" s="124"/>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
@@ -5940,15 +6009,15 @@
       </c>
       <c r="J18" s="110"/>
       <c r="K18" s="111"/>
-      <c r="L18" s="281">
+      <c r="L18" s="290">
         <f>IFERROR(TRUNC(H18*TRUNC(J18,4)*K18,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M18" s="282"/>
+      <c r="M18" s="291"/>
       <c r="N18" s="127"/>
-      <c r="O18" s="297"/>
-      <c r="P18" s="297"/>
-      <c r="Q18" s="298"/>
+      <c r="O18" s="299"/>
+      <c r="P18" s="299"/>
+      <c r="Q18" s="300"/>
       <c r="R18" s="1" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
@@ -5991,63 +6060,63 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="192"/>
-      <c r="B19" s="285" t="s">
+      <c r="B19" s="275" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="286"/>
-      <c r="D19" s="286"/>
-      <c r="E19" s="286"/>
-      <c r="F19" s="286"/>
-      <c r="G19" s="287"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="276"/>
+      <c r="E19" s="276"/>
+      <c r="F19" s="276"/>
+      <c r="G19" s="277"/>
       <c r="H19" s="128"/>
       <c r="I19" s="129"/>
-      <c r="J19" s="288">
+      <c r="J19" s="278">
         <f>SUM(L17:L18)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="289"/>
-      <c r="L19" s="289"/>
-      <c r="M19" s="290"/>
+      <c r="K19" s="279"/>
+      <c r="L19" s="279"/>
+      <c r="M19" s="280"/>
       <c r="N19" s="130"/>
-      <c r="O19" s="291">
+      <c r="O19" s="281">
         <f>SUMIF(G17:G18,"&lt;&gt;"&amp;hdn_payoff_circle,L17:L18)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="292"/>
-      <c r="Q19" s="293"/>
+      <c r="P19" s="282"/>
+      <c r="Q19" s="283"/>
     </row>
     <row r="20" spans="1:27" ht="8.25" customHeight="1" thickBot="1">
       <c r="A20" s="192"/>
-      <c r="B20" s="294"/>
-      <c r="C20" s="295"/>
-      <c r="D20" s="295"/>
-      <c r="E20" s="295"/>
-      <c r="F20" s="295"/>
-      <c r="G20" s="295"/>
-      <c r="H20" s="295"/>
-      <c r="I20" s="295"/>
-      <c r="J20" s="295"/>
-      <c r="K20" s="295"/>
-      <c r="L20" s="295"/>
-      <c r="M20" s="295"/>
-      <c r="N20" s="295"/>
-      <c r="O20" s="295"/>
-      <c r="P20" s="295"/>
-      <c r="Q20" s="296"/>
+      <c r="B20" s="284"/>
+      <c r="C20" s="285"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="285"/>
+      <c r="G20" s="285"/>
+      <c r="H20" s="285"/>
+      <c r="I20" s="285"/>
+      <c r="J20" s="285"/>
+      <c r="K20" s="285"/>
+      <c r="L20" s="285"/>
+      <c r="M20" s="285"/>
+      <c r="N20" s="285"/>
+      <c r="O20" s="285"/>
+      <c r="P20" s="285"/>
+      <c r="Q20" s="286"/>
     </row>
     <row r="21" spans="1:27" ht="19.5" customHeight="1">
       <c r="A21" s="192"/>
-      <c r="B21" s="207" t="s">
+      <c r="B21" s="294" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="208"/>
+      <c r="C21" s="295"/>
       <c r="D21" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="296" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="208"/>
+      <c r="F21" s="295"/>
       <c r="G21" s="131"/>
       <c r="H21" s="131" t="s">
         <v>17</v>
@@ -6061,27 +6130,27 @@
       <c r="K21" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="209" t="s">
+      <c r="L21" s="296" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="208"/>
+      <c r="M21" s="295"/>
       <c r="N21" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="209" t="s">
+      <c r="O21" s="296" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="210"/>
-      <c r="Q21" s="211"/>
+      <c r="P21" s="297"/>
+      <c r="Q21" s="298"/>
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:27" ht="14.1" customHeight="1">
       <c r="A22" s="192"/>
-      <c r="B22" s="278"/>
-      <c r="C22" s="279"/>
+      <c r="B22" s="287"/>
+      <c r="C22" s="288"/>
       <c r="D22" s="117"/>
-      <c r="E22" s="280"/>
-      <c r="F22" s="279"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="288"/>
       <c r="G22" s="118"/>
       <c r="H22" s="132"/>
       <c r="I22" s="120" t="s">
@@ -6089,15 +6158,15 @@
       </c>
       <c r="J22" s="133"/>
       <c r="K22" s="134"/>
-      <c r="L22" s="281">
+      <c r="L22" s="290">
         <f>IFERROR(TRUNC(H22*TRUNC(J22,4)*K22,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M22" s="282"/>
+      <c r="M22" s="291"/>
       <c r="N22" s="93"/>
-      <c r="O22" s="283"/>
-      <c r="P22" s="283"/>
-      <c r="Q22" s="284"/>
+      <c r="O22" s="292"/>
+      <c r="P22" s="292"/>
+      <c r="Q22" s="293"/>
       <c r="R22" s="1" t="str">
         <f t="shared" ref="R22:R25" ca="1" si="28">IFERROR(VLOOKUP(D22,OFFSET(pulldown_level2,0,V22+Y22,Z22,1),1,FALSE),"")</f>
         <v/>
@@ -6140,11 +6209,11 @@
     </row>
     <row r="23" spans="1:27" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="192"/>
-      <c r="B23" s="299"/>
-      <c r="C23" s="300"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="242"/>
       <c r="D23" s="135"/>
-      <c r="E23" s="301"/>
-      <c r="F23" s="300"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="242"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137"/>
       <c r="I23" s="138" t="s">
@@ -6152,15 +6221,15 @@
       </c>
       <c r="J23" s="110"/>
       <c r="K23" s="111"/>
-      <c r="L23" s="302">
+      <c r="L23" s="244">
         <f>IFERROR(TRUNC(H23*TRUNC(J23,4)*K23,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M23" s="303"/>
+      <c r="M23" s="245"/>
       <c r="N23" s="139"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="234"/>
-      <c r="Q23" s="235"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="247"/>
       <c r="R23" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6203,11 +6272,11 @@
     </row>
     <row r="24" spans="1:27" ht="14.1" customHeight="1">
       <c r="A24" s="192"/>
-      <c r="B24" s="304"/>
-      <c r="C24" s="305"/>
+      <c r="B24" s="248"/>
+      <c r="C24" s="249"/>
       <c r="D24" s="140"/>
-      <c r="E24" s="306"/>
-      <c r="F24" s="307"/>
+      <c r="E24" s="250"/>
+      <c r="F24" s="251"/>
       <c r="G24" s="141"/>
       <c r="H24" s="142"/>
       <c r="I24" s="143" t="s">
@@ -6215,15 +6284,15 @@
       </c>
       <c r="J24" s="144"/>
       <c r="K24" s="145"/>
-      <c r="L24" s="308">
+      <c r="L24" s="252">
         <f>IFERROR(TRUNC(H24*IF(AND(LEFT(B24,4)="401:",LEFT(D24,2)="1:",G24&lt;&gt;""),IF(E24&lt;&gt;0&amp;H24&lt;&gt;0&amp;retailprice&lt;&gt;0,TRUNC(G24*retailprice,4),""),IF(AND(LEFT(B24,5)="1224:",LEFT(D24,2)="3:",G24&lt;&gt;""),TRUNC(G24*tariff_total,4),TRUNC(J24,4)))*K24,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M24" s="309"/>
+      <c r="M24" s="253"/>
       <c r="N24" s="146"/>
-      <c r="O24" s="310"/>
-      <c r="P24" s="311"/>
-      <c r="Q24" s="312"/>
+      <c r="O24" s="254"/>
+      <c r="P24" s="255"/>
+      <c r="Q24" s="256"/>
       <c r="R24" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6266,11 +6335,11 @@
     </row>
     <row r="25" spans="1:27" ht="14.1" customHeight="1" thickBot="1">
       <c r="A25" s="192"/>
-      <c r="B25" s="321"/>
-      <c r="C25" s="322"/>
+      <c r="B25" s="265"/>
+      <c r="C25" s="266"/>
       <c r="D25" s="147"/>
-      <c r="E25" s="323"/>
-      <c r="F25" s="324"/>
+      <c r="E25" s="267"/>
+      <c r="F25" s="268"/>
       <c r="G25" s="148"/>
       <c r="H25" s="149"/>
       <c r="I25" s="150" t="s">
@@ -6278,15 +6347,15 @@
       </c>
       <c r="J25" s="151"/>
       <c r="K25" s="152"/>
-      <c r="L25" s="325">
+      <c r="L25" s="269">
         <f>IFERROR(TRUNC(H25*IF(AND(LEFT(B25,4)="401:",LEFT(D25,2)="1:",G25&lt;&gt;""),IF(E25&lt;&gt;0&amp;H25&lt;&gt;0&amp;retailprice&lt;&gt;0,TRUNC(G25*retailprice,4),""),IF(AND(LEFT(B25,5)="1224:",LEFT(D25,2)="3:",G25&lt;&gt;""),TRUNC(G25*tariff_total,4),TRUNC(J25,4)))*K25,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M25" s="326"/>
+      <c r="M25" s="270"/>
       <c r="N25" s="153"/>
-      <c r="O25" s="327"/>
-      <c r="P25" s="328"/>
-      <c r="Q25" s="329"/>
+      <c r="O25" s="271"/>
+      <c r="P25" s="272"/>
+      <c r="Q25" s="273"/>
       <c r="R25" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6329,87 +6398,87 @@
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="192"/>
-      <c r="B26" s="285" t="s">
+      <c r="B26" s="275" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="286"/>
-      <c r="D26" s="286"/>
-      <c r="E26" s="286"/>
-      <c r="F26" s="286"/>
-      <c r="G26" s="287"/>
+      <c r="C26" s="276"/>
+      <c r="D26" s="276"/>
+      <c r="E26" s="276"/>
+      <c r="F26" s="276"/>
+      <c r="G26" s="277"/>
       <c r="H26" s="128"/>
       <c r="I26" s="129"/>
-      <c r="J26" s="288">
+      <c r="J26" s="278">
         <f>SUM(L22:L25)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="289"/>
-      <c r="L26" s="289"/>
-      <c r="M26" s="290"/>
+      <c r="K26" s="279"/>
+      <c r="L26" s="279"/>
+      <c r="M26" s="280"/>
       <c r="N26" s="130"/>
-      <c r="O26" s="291"/>
-      <c r="P26" s="292"/>
-      <c r="Q26" s="293"/>
+      <c r="O26" s="281"/>
+      <c r="P26" s="282"/>
+      <c r="Q26" s="283"/>
     </row>
     <row r="27" spans="1:27" ht="8.25" customHeight="1" thickBot="1">
       <c r="A27" s="192"/>
-      <c r="B27" s="294"/>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
-      <c r="E27" s="295"/>
-      <c r="F27" s="295"/>
-      <c r="G27" s="295"/>
-      <c r="H27" s="295"/>
-      <c r="I27" s="295"/>
-      <c r="J27" s="295"/>
-      <c r="K27" s="295"/>
-      <c r="L27" s="295"/>
-      <c r="M27" s="295"/>
-      <c r="N27" s="295"/>
-      <c r="O27" s="295"/>
-      <c r="P27" s="295"/>
-      <c r="Q27" s="296"/>
+      <c r="B27" s="284"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="285"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="285"/>
+      <c r="H27" s="285"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="285"/>
+      <c r="K27" s="285"/>
+      <c r="L27" s="285"/>
+      <c r="M27" s="285"/>
+      <c r="N27" s="285"/>
+      <c r="O27" s="285"/>
+      <c r="P27" s="285"/>
+      <c r="Q27" s="286"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1">
       <c r="A28" s="192"/>
-      <c r="B28" s="330" t="s">
+      <c r="B28" s="274" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="315"/>
+      <c r="C28" s="259"/>
       <c r="D28" s="154">
         <f>J9</f>
         <v>0</v>
       </c>
       <c r="E28" s="155"/>
-      <c r="F28" s="313" t="s">
+      <c r="F28" s="257" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="314"/>
-      <c r="H28" s="315"/>
-      <c r="I28" s="316">
+      <c r="G28" s="258"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="260">
         <f>J14</f>
         <v>0</v>
       </c>
-      <c r="J28" s="317"/>
+      <c r="J28" s="261"/>
       <c r="K28" s="156"/>
       <c r="L28" s="157"/>
-      <c r="M28" s="318" t="s">
+      <c r="M28" s="262" t="s">
         <v>141</v>
       </c>
-      <c r="N28" s="319"/>
-      <c r="O28" s="320">
+      <c r="N28" s="263"/>
+      <c r="O28" s="264">
         <f>D28+I28</f>
         <v>0</v>
       </c>
-      <c r="P28" s="317"/>
+      <c r="P28" s="261"/>
       <c r="Q28" s="158"/>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1">
       <c r="A29" s="192"/>
-      <c r="B29" s="362" t="s">
+      <c r="B29" s="209" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="363"/>
+      <c r="C29" s="210"/>
       <c r="D29" s="159">
         <f>D28-L34</f>
         <v>0</v>
@@ -6418,30 +6487,30 @@
         <f>IF(D28=0,0,D29/D28)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="364" t="s">
+      <c r="F29" s="211" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="365"/>
-      <c r="H29" s="366"/>
-      <c r="I29" s="367">
+      <c r="G29" s="212"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="214">
         <f>I28-O19</f>
         <v>0</v>
       </c>
-      <c r="J29" s="368"/>
+      <c r="J29" s="215"/>
       <c r="K29" s="161"/>
       <c r="L29" s="160">
         <f>IF(I28=0,0,I29/I28)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="364" t="s">
+      <c r="M29" s="211" t="s">
         <v>142</v>
       </c>
-      <c r="N29" s="366"/>
-      <c r="O29" s="369">
+      <c r="N29" s="213"/>
+      <c r="O29" s="216">
         <f>D29+I29</f>
         <v>0</v>
       </c>
-      <c r="P29" s="368"/>
+      <c r="P29" s="215"/>
       <c r="Q29" s="162">
         <f>IF(O28=0,0,O29/O28)</f>
         <v>0</v>
@@ -6459,16 +6528,16 @@
       <c r="I30" s="167"/>
       <c r="J30" s="167"/>
       <c r="K30" s="168"/>
-      <c r="L30" s="370" t="s">
+      <c r="L30" s="217" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="371"/>
-      <c r="N30" s="372"/>
-      <c r="O30" s="340">
+      <c r="M30" s="218"/>
+      <c r="N30" s="219"/>
+      <c r="O30" s="220">
         <f>TRUNC((O28*Q30),0)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="341"/>
+      <c r="P30" s="221"/>
       <c r="Q30" s="169">
         <v>6.08E-2</v>
       </c>
@@ -6485,16 +6554,16 @@
       <c r="I31" s="173"/>
       <c r="J31" s="174"/>
       <c r="K31" s="175"/>
-      <c r="L31" s="349" t="s">
+      <c r="L31" s="199" t="s">
         <v>143</v>
       </c>
-      <c r="M31" s="356"/>
-      <c r="N31" s="350"/>
-      <c r="O31" s="347">
+      <c r="M31" s="200"/>
+      <c r="N31" s="201"/>
+      <c r="O31" s="202">
         <f>O29-O30</f>
         <v>0</v>
       </c>
-      <c r="P31" s="348"/>
+      <c r="P31" s="203"/>
       <c r="Q31" s="176">
         <f>IF(O28=0,0,O31/O28)</f>
         <v>0</v>
@@ -6502,16 +6571,16 @@
     </row>
     <row r="32" spans="1:27" ht="16.5" customHeight="1">
       <c r="A32" s="192"/>
-      <c r="B32" s="357" t="s">
+      <c r="B32" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="358"/>
-      <c r="D32" s="359" t="s">
+      <c r="C32" s="205"/>
+      <c r="D32" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="359"/>
-      <c r="F32" s="359"/>
-      <c r="G32" s="359"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="206"/>
       <c r="H32" s="177">
         <f>$Q$4</f>
         <v>0</v>
@@ -6522,28 +6591,28 @@
         <v>0</v>
       </c>
       <c r="K32" s="179"/>
-      <c r="L32" s="360">
+      <c r="L32" s="207">
         <f>SUMIF(G22:G25,"&lt;&gt;"&amp;hdn_payoff_circle,L22:L25)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="360"/>
+      <c r="M32" s="207"/>
       <c r="N32" s="180"/>
-      <c r="O32" s="361"/>
-      <c r="P32" s="361"/>
+      <c r="O32" s="208"/>
+      <c r="P32" s="208"/>
       <c r="Q32" s="181"/>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1">
       <c r="A33" s="192"/>
-      <c r="B33" s="337" t="s">
+      <c r="B33" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="338"/>
-      <c r="D33" s="339" t="s">
+      <c r="C33" s="229"/>
+      <c r="D33" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="339"/>
-      <c r="F33" s="339"/>
-      <c r="G33" s="339"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="230"/>
       <c r="H33" s="182">
         <f>$Q$4</f>
         <v>0</v>
@@ -6554,28 +6623,28 @@
         <v>0</v>
       </c>
       <c r="K33" s="185"/>
-      <c r="L33" s="340">
+      <c r="L33" s="220">
         <f>SUMIF(G17:G25,hdn_payoff_circle,L17:L25)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="341"/>
+      <c r="M33" s="221"/>
       <c r="N33" s="186"/>
-      <c r="O33" s="342"/>
-      <c r="P33" s="343"/>
+      <c r="O33" s="231"/>
+      <c r="P33" s="232"/>
       <c r="Q33" s="187"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A34" s="192"/>
-      <c r="B34" s="344" t="s">
+      <c r="B34" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="345"/>
-      <c r="D34" s="346" t="s">
+      <c r="C34" s="234"/>
+      <c r="D34" s="235" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="346"/>
-      <c r="F34" s="346"/>
-      <c r="G34" s="346"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
       <c r="H34" s="188">
         <f>$Q$4</f>
         <v>0</v>
@@ -6586,60 +6655,60 @@
         <v>0</v>
       </c>
       <c r="K34" s="191"/>
-      <c r="L34" s="347">
+      <c r="L34" s="202">
         <f>SUM(L32:L33)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="348"/>
-      <c r="N34" s="349" t="s">
+      <c r="M34" s="203"/>
+      <c r="N34" s="199" t="s">
         <v>144</v>
       </c>
-      <c r="O34" s="350"/>
-      <c r="P34" s="351">
+      <c r="O34" s="201"/>
+      <c r="P34" s="236">
         <f>O19</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="352"/>
+      <c r="Q34" s="237"/>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1">
-      <c r="B35" s="334"/>
-      <c r="C35" s="334"/>
-      <c r="D35" s="334"/>
-      <c r="E35" s="334"/>
-      <c r="F35" s="334"/>
-      <c r="G35" s="334"/>
-      <c r="H35" s="334"/>
+      <c r="B35" s="225"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="225"/>
+      <c r="E35" s="225"/>
+      <c r="F35" s="225"/>
+      <c r="G35" s="225"/>
+      <c r="H35" s="225"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="335" t="s">
+      <c r="J35" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="K35" s="335"/>
-      <c r="L35" s="335"/>
-      <c r="M35" s="335"/>
-      <c r="N35" s="335"/>
-      <c r="O35" s="335"/>
-      <c r="P35" s="335"/>
-      <c r="Q35" s="335"/>
+      <c r="K35" s="226"/>
+      <c r="L35" s="226"/>
+      <c r="M35" s="226"/>
+      <c r="N35" s="226"/>
+      <c r="O35" s="226"/>
+      <c r="P35" s="226"/>
+      <c r="Q35" s="226"/>
     </row>
     <row r="36" spans="1:26" ht="9" hidden="1" customHeight="1">
-      <c r="B36" s="336" t="s">
+      <c r="B36" s="227" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="336"/>
-      <c r="D36" s="336"/>
-      <c r="E36" s="336"/>
-      <c r="F36" s="336"/>
-      <c r="G36" s="336"/>
-      <c r="H36" s="336"/>
-      <c r="I36" s="336"/>
-      <c r="J36" s="336"/>
-      <c r="K36" s="336"/>
-      <c r="L36" s="336"/>
-      <c r="M36" s="336"/>
-      <c r="N36" s="336"/>
-      <c r="O36" s="336"/>
-      <c r="P36" s="336"/>
-      <c r="Q36" s="336"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="227"/>
+      <c r="G36" s="227"/>
+      <c r="H36" s="227"/>
+      <c r="I36" s="227"/>
+      <c r="J36" s="227"/>
+      <c r="K36" s="227"/>
+      <c r="L36" s="227"/>
+      <c r="M36" s="227"/>
+      <c r="N36" s="227"/>
+      <c r="O36" s="227"/>
+      <c r="P36" s="227"/>
+      <c r="Q36" s="227"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
@@ -6858,7 +6927,7 @@
     </row>
     <row r="46" spans="1:26" s="8" customFormat="1" hidden="1">
       <c r="A46" s="77"/>
-      <c r="B46" s="353" t="s">
+      <c r="B46" s="238" t="s">
         <v>98</v>
       </c>
       <c r="C46" s="7"/>
@@ -6881,7 +6950,7 @@
     </row>
     <row r="47" spans="1:26" s="8" customFormat="1" hidden="1">
       <c r="A47" s="77"/>
-      <c r="B47" s="354"/>
+      <c r="B47" s="239"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -6904,7 +6973,7 @@
     </row>
     <row r="48" spans="1:26" s="8" customFormat="1" hidden="1">
       <c r="A48" s="77"/>
-      <c r="B48" s="354"/>
+      <c r="B48" s="239"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -6927,7 +6996,7 @@
     </row>
     <row r="49" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A49" s="77"/>
-      <c r="B49" s="354"/>
+      <c r="B49" s="239"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -6950,7 +7019,7 @@
     </row>
     <row r="50" spans="1:19" s="8" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A50" s="77"/>
-      <c r="B50" s="354"/>
+      <c r="B50" s="239"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -6972,7 +7041,7 @@
     </row>
     <row r="51" spans="1:19" s="8" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A51" s="77"/>
-      <c r="B51" s="354"/>
+      <c r="B51" s="239"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -6992,7 +7061,7 @@
     </row>
     <row r="52" spans="1:19" s="8" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A52" s="77"/>
-      <c r="B52" s="354"/>
+      <c r="B52" s="239"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -7012,7 +7081,7 @@
     </row>
     <row r="53" spans="1:19" s="8" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A53" s="77"/>
-      <c r="B53" s="354"/>
+      <c r="B53" s="239"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -7032,7 +7101,7 @@
     </row>
     <row r="54" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A54" s="77"/>
-      <c r="B54" s="354"/>
+      <c r="B54" s="239"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -7052,7 +7121,7 @@
     </row>
     <row r="55" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A55" s="77"/>
-      <c r="B55" s="354"/>
+      <c r="B55" s="239"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -7072,7 +7141,7 @@
     </row>
     <row r="56" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A56" s="77"/>
-      <c r="B56" s="354"/>
+      <c r="B56" s="239"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -7092,7 +7161,7 @@
     </row>
     <row r="57" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A57" s="77"/>
-      <c r="B57" s="354"/>
+      <c r="B57" s="239"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -7112,7 +7181,7 @@
     </row>
     <row r="58" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A58" s="77"/>
-      <c r="B58" s="354"/>
+      <c r="B58" s="239"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -7132,7 +7201,7 @@
     </row>
     <row r="59" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A59" s="77"/>
-      <c r="B59" s="354"/>
+      <c r="B59" s="239"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -7152,7 +7221,7 @@
     </row>
     <row r="60" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A60" s="77"/>
-      <c r="B60" s="354"/>
+      <c r="B60" s="239"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -7172,7 +7241,7 @@
     </row>
     <row r="61" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A61" s="77"/>
-      <c r="B61" s="354"/>
+      <c r="B61" s="239"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -7192,7 +7261,7 @@
     </row>
     <row r="62" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A62" s="77"/>
-      <c r="B62" s="354"/>
+      <c r="B62" s="239"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -7212,7 +7281,7 @@
     </row>
     <row r="63" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A63" s="77"/>
-      <c r="B63" s="354"/>
+      <c r="B63" s="239"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -7232,7 +7301,7 @@
     </row>
     <row r="64" spans="1:19" s="8" customFormat="1" hidden="1">
       <c r="A64" s="77"/>
-      <c r="B64" s="354"/>
+      <c r="B64" s="239"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -7252,7 +7321,7 @@
     </row>
     <row r="65" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A65" s="77"/>
-      <c r="B65" s="354"/>
+      <c r="B65" s="239"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -7272,7 +7341,7 @@
     </row>
     <row r="66" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A66" s="77"/>
-      <c r="B66" s="354"/>
+      <c r="B66" s="239"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -7292,7 +7361,7 @@
     </row>
     <row r="67" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A67" s="77"/>
-      <c r="B67" s="354"/>
+      <c r="B67" s="239"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -7312,7 +7381,7 @@
     </row>
     <row r="68" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A68" s="77"/>
-      <c r="B68" s="354"/>
+      <c r="B68" s="239"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -7332,7 +7401,7 @@
     </row>
     <row r="69" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A69" s="77"/>
-      <c r="B69" s="354"/>
+      <c r="B69" s="239"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -7352,7 +7421,7 @@
     </row>
     <row r="70" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A70" s="77"/>
-      <c r="B70" s="354"/>
+      <c r="B70" s="239"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -7372,7 +7441,7 @@
     </row>
     <row r="71" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A71" s="77"/>
-      <c r="B71" s="354"/>
+      <c r="B71" s="239"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -7392,7 +7461,7 @@
     </row>
     <row r="72" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A72" s="77"/>
-      <c r="B72" s="354"/>
+      <c r="B72" s="239"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -7412,7 +7481,7 @@
     </row>
     <row r="73" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A73" s="77"/>
-      <c r="B73" s="354"/>
+      <c r="B73" s="239"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -7432,7 +7501,7 @@
     </row>
     <row r="74" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A74" s="77"/>
-      <c r="B74" s="354"/>
+      <c r="B74" s="239"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -7452,7 +7521,7 @@
     </row>
     <row r="75" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A75" s="77"/>
-      <c r="B75" s="354"/>
+      <c r="B75" s="239"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -7472,7 +7541,7 @@
     </row>
     <row r="76" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="355"/>
+      <c r="B76" s="240"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -7492,7 +7561,7 @@
     </row>
     <row r="77" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A77" s="77"/>
-      <c r="B77" s="331" t="s">
+      <c r="B77" s="222" t="s">
         <v>99</v>
       </c>
       <c r="C77" s="7"/>
@@ -7514,7 +7583,7 @@
     </row>
     <row r="78" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A78" s="77"/>
-      <c r="B78" s="332"/>
+      <c r="B78" s="223"/>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
       <c r="E78" s="44"/>
@@ -7534,7 +7603,7 @@
     </row>
     <row r="79" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="332"/>
+      <c r="B79" s="223"/>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
       <c r="E79" s="44"/>
@@ -7554,7 +7623,7 @@
     </row>
     <row r="80" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A80" s="77"/>
-      <c r="B80" s="332"/>
+      <c r="B80" s="223"/>
       <c r="C80" s="44"/>
       <c r="D80" s="44"/>
       <c r="E80" s="44"/>
@@ -7574,7 +7643,7 @@
     </row>
     <row r="81" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A81" s="77"/>
-      <c r="B81" s="332"/>
+      <c r="B81" s="223"/>
       <c r="C81" s="44"/>
       <c r="D81" s="44"/>
       <c r="E81" s="44"/>
@@ -7594,7 +7663,7 @@
     </row>
     <row r="82" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A82" s="77"/>
-      <c r="B82" s="332"/>
+      <c r="B82" s="223"/>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
       <c r="E82" s="44"/>
@@ -7614,7 +7683,7 @@
     </row>
     <row r="83" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A83" s="77"/>
-      <c r="B83" s="332"/>
+      <c r="B83" s="223"/>
       <c r="C83" s="44"/>
       <c r="D83" s="44"/>
       <c r="E83" s="44"/>
@@ -7634,7 +7703,7 @@
     </row>
     <row r="84" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A84" s="77"/>
-      <c r="B84" s="332"/>
+      <c r="B84" s="223"/>
       <c r="C84" s="44"/>
       <c r="D84" s="44"/>
       <c r="E84" s="44"/>
@@ -7654,7 +7723,7 @@
     </row>
     <row r="85" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A85" s="77"/>
-      <c r="B85" s="332"/>
+      <c r="B85" s="223"/>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
       <c r="E85" s="44"/>
@@ -7674,7 +7743,7 @@
     </row>
     <row r="86" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A86" s="77"/>
-      <c r="B86" s="332"/>
+      <c r="B86" s="223"/>
       <c r="C86" s="44"/>
       <c r="D86" s="44"/>
       <c r="E86" s="44"/>
@@ -7694,7 +7763,7 @@
     </row>
     <row r="87" spans="1:18" s="8" customFormat="1" ht="13.2" hidden="1">
       <c r="A87" s="77"/>
-      <c r="B87" s="332"/>
+      <c r="B87" s="223"/>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
       <c r="E87" s="44"/>
@@ -7714,7 +7783,7 @@
     </row>
     <row r="88" spans="1:18" s="8" customFormat="1" ht="13.2" hidden="1">
       <c r="A88" s="77"/>
-      <c r="B88" s="332"/>
+      <c r="B88" s="223"/>
       <c r="C88" s="44"/>
       <c r="D88" s="44"/>
       <c r="E88" s="44"/>
@@ -7734,7 +7803,7 @@
     </row>
     <row r="89" spans="1:18" s="8" customFormat="1" ht="13.2" hidden="1">
       <c r="A89" s="77"/>
-      <c r="B89" s="332"/>
+      <c r="B89" s="223"/>
       <c r="C89" s="44"/>
       <c r="D89" s="44"/>
       <c r="E89" s="44"/>
@@ -7754,7 +7823,7 @@
     </row>
     <row r="90" spans="1:18" s="8" customFormat="1" ht="13.2" hidden="1">
       <c r="A90" s="77"/>
-      <c r="B90" s="332"/>
+      <c r="B90" s="223"/>
       <c r="C90" s="44"/>
       <c r="D90" s="44"/>
       <c r="E90" s="44"/>
@@ -7774,7 +7843,7 @@
     </row>
     <row r="91" spans="1:18" s="8" customFormat="1" ht="13.2" hidden="1">
       <c r="A91" s="77"/>
-      <c r="B91" s="332"/>
+      <c r="B91" s="223"/>
       <c r="C91" s="44"/>
       <c r="D91" s="44"/>
       <c r="E91" s="44"/>
@@ -7794,7 +7863,7 @@
     </row>
     <row r="92" spans="1:18" s="8" customFormat="1" ht="13.2" hidden="1">
       <c r="A92" s="77"/>
-      <c r="B92" s="332"/>
+      <c r="B92" s="223"/>
       <c r="C92" s="44"/>
       <c r="D92" s="44"/>
       <c r="E92" s="44"/>
@@ -7814,7 +7883,7 @@
     </row>
     <row r="93" spans="1:18" s="8" customFormat="1" ht="13.2" hidden="1">
       <c r="A93" s="77"/>
-      <c r="B93" s="332"/>
+      <c r="B93" s="223"/>
       <c r="C93" s="44"/>
       <c r="D93" s="44"/>
       <c r="E93" s="44"/>
@@ -7834,7 +7903,7 @@
     </row>
     <row r="94" spans="1:18" s="8" customFormat="1" ht="13.2" hidden="1">
       <c r="A94" s="77"/>
-      <c r="B94" s="332"/>
+      <c r="B94" s="223"/>
       <c r="C94" s="44"/>
       <c r="D94" s="44"/>
       <c r="E94" s="44"/>
@@ -7854,7 +7923,7 @@
     </row>
     <row r="95" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A95" s="77"/>
-      <c r="B95" s="332"/>
+      <c r="B95" s="223"/>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
       <c r="E95" s="44"/>
@@ -7874,7 +7943,7 @@
     </row>
     <row r="96" spans="1:18" s="8" customFormat="1" hidden="1">
       <c r="A96" s="77"/>
-      <c r="B96" s="332"/>
+      <c r="B96" s="223"/>
       <c r="C96" s="44"/>
       <c r="D96" s="44"/>
       <c r="E96" s="44"/>
@@ -7894,7 +7963,7 @@
     </row>
     <row r="97" spans="1:21" s="8" customFormat="1" hidden="1">
       <c r="A97" s="77"/>
-      <c r="B97" s="332"/>
+      <c r="B97" s="223"/>
       <c r="C97" s="44"/>
       <c r="D97" s="44"/>
       <c r="E97" s="44"/>
@@ -7914,7 +7983,7 @@
     </row>
     <row r="98" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A98" s="77"/>
-      <c r="B98" s="332"/>
+      <c r="B98" s="223"/>
       <c r="C98" s="44"/>
       <c r="D98" s="44"/>
       <c r="E98" s="44"/>
@@ -7934,7 +8003,7 @@
     </row>
     <row r="99" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A99" s="77"/>
-      <c r="B99" s="332"/>
+      <c r="B99" s="223"/>
       <c r="C99" s="44"/>
       <c r="D99" s="44"/>
       <c r="E99" s="44"/>
@@ -7957,7 +8026,7 @@
     </row>
     <row r="100" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A100" s="77"/>
-      <c r="B100" s="332"/>
+      <c r="B100" s="223"/>
       <c r="C100" s="44"/>
       <c r="D100" s="44"/>
       <c r="E100" s="44"/>
@@ -7980,7 +8049,7 @@
     </row>
     <row r="101" spans="1:21" s="8" customFormat="1" ht="13.2" hidden="1">
       <c r="A101" s="77"/>
-      <c r="B101" s="332"/>
+      <c r="B101" s="223"/>
       <c r="C101" s="44"/>
       <c r="D101" s="44"/>
       <c r="E101" s="44"/>
@@ -8003,7 +8072,7 @@
     </row>
     <row r="102" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A102" s="77"/>
-      <c r="B102" s="332"/>
+      <c r="B102" s="223"/>
       <c r="C102" s="44"/>
       <c r="D102" s="44"/>
       <c r="E102" s="44"/>
@@ -8026,7 +8095,7 @@
     </row>
     <row r="103" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A103" s="77"/>
-      <c r="B103" s="332"/>
+      <c r="B103" s="223"/>
       <c r="C103" s="44"/>
       <c r="D103" s="44"/>
       <c r="E103" s="44"/>
@@ -8049,7 +8118,7 @@
     </row>
     <row r="104" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A104" s="77"/>
-      <c r="B104" s="332"/>
+      <c r="B104" s="223"/>
       <c r="C104" s="44"/>
       <c r="D104" s="44"/>
       <c r="E104" s="44"/>
@@ -8072,7 +8141,7 @@
     </row>
     <row r="105" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A105" s="77"/>
-      <c r="B105" s="332"/>
+      <c r="B105" s="223"/>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
       <c r="E105" s="44"/>
@@ -8095,7 +8164,7 @@
     </row>
     <row r="106" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A106" s="77"/>
-      <c r="B106" s="332"/>
+      <c r="B106" s="223"/>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
       <c r="E106" s="44"/>
@@ -8118,7 +8187,7 @@
     </row>
     <row r="107" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A107" s="77"/>
-      <c r="B107" s="332"/>
+      <c r="B107" s="223"/>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
       <c r="E107" s="44"/>
@@ -8141,7 +8210,7 @@
     </row>
     <row r="108" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A108" s="77"/>
-      <c r="B108" s="332"/>
+      <c r="B108" s="223"/>
       <c r="C108" s="44"/>
       <c r="D108" s="63"/>
       <c r="E108" s="63"/>
@@ -8164,7 +8233,7 @@
     </row>
     <row r="109" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A109" s="77"/>
-      <c r="B109" s="332"/>
+      <c r="B109" s="223"/>
       <c r="C109" s="44"/>
       <c r="D109" s="63"/>
       <c r="E109" s="63"/>
@@ -8187,7 +8256,7 @@
     </row>
     <row r="110" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A110" s="77"/>
-      <c r="B110" s="332"/>
+      <c r="B110" s="223"/>
       <c r="C110" s="44"/>
       <c r="D110" s="63"/>
       <c r="E110" s="63"/>
@@ -8210,7 +8279,7 @@
     </row>
     <row r="111" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A111" s="77"/>
-      <c r="B111" s="332"/>
+      <c r="B111" s="223"/>
       <c r="C111" s="44"/>
       <c r="D111" s="63"/>
       <c r="E111" s="63"/>
@@ -8233,7 +8302,7 @@
     </row>
     <row r="112" spans="1:21" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A112" s="77"/>
-      <c r="B112" s="332"/>
+      <c r="B112" s="223"/>
       <c r="C112" s="44"/>
       <c r="D112" s="63"/>
       <c r="E112" s="63"/>
@@ -8256,7 +8325,7 @@
     </row>
     <row r="113" spans="1:27" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A113" s="77"/>
-      <c r="B113" s="332"/>
+      <c r="B113" s="223"/>
       <c r="C113" s="44"/>
       <c r="D113" s="63"/>
       <c r="E113" s="63"/>
@@ -8279,7 +8348,7 @@
     </row>
     <row r="114" spans="1:27" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A114" s="77"/>
-      <c r="B114" s="332"/>
+      <c r="B114" s="223"/>
       <c r="C114" s="44"/>
       <c r="D114" s="63"/>
       <c r="E114" s="63"/>
@@ -8302,7 +8371,7 @@
     </row>
     <row r="115" spans="1:27" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A115" s="77"/>
-      <c r="B115" s="332"/>
+      <c r="B115" s="223"/>
       <c r="C115" s="44"/>
       <c r="D115" s="63"/>
       <c r="E115" s="63"/>
@@ -8325,7 +8394,7 @@
     </row>
     <row r="116" spans="1:27" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A116" s="77"/>
-      <c r="B116" s="332"/>
+      <c r="B116" s="223"/>
       <c r="C116" s="44"/>
       <c r="D116" s="63"/>
       <c r="E116" s="63"/>
@@ -8348,7 +8417,7 @@
     </row>
     <row r="117" spans="1:27" s="8" customFormat="1" ht="12" hidden="1">
       <c r="A117" s="77"/>
-      <c r="B117" s="333"/>
+      <c r="B117" s="224"/>
       <c r="C117" s="44"/>
       <c r="D117" s="63"/>
       <c r="E117" s="63"/>
@@ -8713,74 +8782,28 @@
     <row r="136" spans="2:14" hidden="1"/>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B77:B117"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B46:B76"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:H4"/>
@@ -8805,28 +8828,74 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B77:B117"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B46:B76"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="14">
@@ -8880,10 +8949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8939,7 +9008,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="67">
-        <f t="shared" ref="A3:A45" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A46" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="68">
@@ -9663,6 +9732,21 @@
       <c r="D45" s="67"/>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
+    </row>
+    <row r="46" spans="1:6" ht="26.4" customHeight="1">
+      <c r="A46" s="373">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="374">
+        <v>44034</v>
+      </c>
+      <c r="C46" s="375" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="373"/>
+      <c r="E46" s="373"/>
+      <c r="F46" s="373"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
